--- a/data/BRE.MI.xlsx
+++ b/data/BRE.MI.xlsx
@@ -38,16 +38,16 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43071699142456</t>
+    <t xml:space="preserve">7.4307165145874</t>
   </si>
   <si>
     <t xml:space="preserve">BRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40021467208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17991971969604</t>
+    <t xml:space="preserve">7.40021514892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17991924285889</t>
   </si>
   <si>
     <t xml:space="preserve">6.76305389404297</t>
@@ -56,25 +56,25 @@
     <t xml:space="preserve">6.77999925613403</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66307353973389</t>
+    <t xml:space="preserve">6.66307401657104</t>
   </si>
   <si>
     <t xml:space="preserve">6.84100532531738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02910184860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79016780853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43938970565796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42413902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50378322601318</t>
+    <t xml:space="preserve">7.02910232543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79016733169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43939018249512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42413854598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50378370285034</t>
   </si>
   <si>
     <t xml:space="preserve">6.16317415237427</t>
@@ -83,28 +83,28 @@
     <t xml:space="preserve">6.42922306060791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47667074203491</t>
+    <t xml:space="preserve">6.47667026519775</t>
   </si>
   <si>
     <t xml:space="preserve">6.53598022460938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54953670501709</t>
+    <t xml:space="preserve">6.54953765869141</t>
   </si>
   <si>
     <t xml:space="preserve">6.62070894241333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45802974700928</t>
+    <t xml:space="preserve">6.45802927017212</t>
   </si>
   <si>
     <t xml:space="preserve">6.3919415473938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28009986877441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21062183380127</t>
+    <t xml:space="preserve">6.2800989151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21062231063843</t>
   </si>
   <si>
     <t xml:space="preserve">6.07844400405884</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">5.5548210144043</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71749925613403</t>
+    <t xml:space="preserve">5.71749973297119</t>
   </si>
   <si>
     <t xml:space="preserve">5.93101692199707</t>
@@ -125,13 +125,13 @@
     <t xml:space="preserve">5.88187456130981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94118499755859</t>
+    <t xml:space="preserve">5.94118452072144</t>
   </si>
   <si>
     <t xml:space="preserve">6.25976467132568</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19198179244995</t>
+    <t xml:space="preserve">6.19198083877563</t>
   </si>
   <si>
     <t xml:space="preserve">6.34279918670654</t>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">6.36482810974121</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32246446609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46480751037598</t>
+    <t xml:space="preserve">6.32246398925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46480798721313</t>
   </si>
   <si>
     <t xml:space="preserve">6.33432579040527</t>
@@ -152,13 +152,13 @@
     <t xml:space="preserve">6.19367647171021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29535055160522</t>
+    <t xml:space="preserve">6.29535150527954</t>
   </si>
   <si>
     <t xml:space="preserve">6.35296630859375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44616794586182</t>
+    <t xml:space="preserve">6.44616746902466</t>
   </si>
   <si>
     <t xml:space="preserve">6.58342885971069</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">7.30362415313721</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34090328216553</t>
+    <t xml:space="preserve">7.34090423583984</t>
   </si>
   <si>
     <t xml:space="preserve">7.37649059295654</t>
@@ -179,37 +179,37 @@
     <t xml:space="preserve">7.33751487731934</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37987947463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32904243469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32395887374878</t>
+    <t xml:space="preserve">7.37988090515137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32904195785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32395935058594</t>
   </si>
   <si>
     <t xml:space="preserve">7.42224359512329</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40360403060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5137505531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40190982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49341583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33412456512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53408622741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41377067565918</t>
+    <t xml:space="preserve">7.40360450744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40190935134888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49341678619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33412551879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53408479690552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41377115249634</t>
   </si>
   <si>
     <t xml:space="preserve">7.41207599639893</t>
@@ -221,34 +221,34 @@
     <t xml:space="preserve">7.70184946060181</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67304086685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62389898300171</t>
+    <t xml:space="preserve">7.67303991317749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62389850616455</t>
   </si>
   <si>
     <t xml:space="preserve">7.40529918670654</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45105218887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4239387512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53916883468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57645034790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6255931854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67643070220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69337511062622</t>
+    <t xml:space="preserve">7.45105171203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42393779754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5391697883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57645082473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62559175491333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67643022537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69337463378906</t>
   </si>
   <si>
     <t xml:space="preserve">7.66287469863892</t>
@@ -257,58 +257,58 @@
     <t xml:space="preserve">7.71032238006592</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74421262741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78488302230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05093193054199</t>
+    <t xml:space="preserve">7.74421358108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78488206863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05093097686768</t>
   </si>
   <si>
     <t xml:space="preserve">7.99670600891113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91367101669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96281385421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02381992340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94925832748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00348281860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90858840942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99162149429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1424388885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78637790679932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81179809570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82027053833008</t>
+    <t xml:space="preserve">7.91367197036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96281433105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02381896972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94925785064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00348377227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90858793258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99162292480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14243793487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78637886047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81179618835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82026863098145</t>
   </si>
   <si>
     <t xml:space="preserve">8.86263370513916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73554039001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66775703430176</t>
+    <t xml:space="preserve">8.73554134368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66775798797607</t>
   </si>
   <si>
     <t xml:space="preserve">8.65928554534912</t>
@@ -317,31 +317,31 @@
     <t xml:space="preserve">8.71859550476074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83048343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76163005828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82187652587891</t>
+    <t xml:space="preserve">8.83048248291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76162815093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82187557220459</t>
   </si>
   <si>
     <t xml:space="preserve">8.77023506164551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77884101867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92515754699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95097732543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04565048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2866382598877</t>
+    <t xml:space="preserve">8.77884292602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92515659332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95097637176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04564952850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28663730621338</t>
   </si>
   <si>
     <t xml:space="preserve">9.1919641494751</t>
@@ -353,13 +353,13 @@
     <t xml:space="preserve">8.89933586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5774450302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40531253814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60670757293701</t>
+    <t xml:space="preserve">8.57744407653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40531063079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6067066192627</t>
   </si>
   <si>
     <t xml:space="preserve">8.61531448364258</t>
@@ -368,28 +368,28 @@
     <t xml:space="preserve">8.91654872894287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93376350402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88212203979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03704357147217</t>
+    <t xml:space="preserve">8.933762550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88212299346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03704452514648</t>
   </si>
   <si>
     <t xml:space="preserve">8.56023216247559</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91989278793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55506706237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35367107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50514984130859</t>
+    <t xml:space="preserve">7.91989231109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55506610870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35367202758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50514888763428</t>
   </si>
   <si>
     <t xml:space="preserve">8.53785514831543</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">8.13333892822266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95948362350464</t>
+    <t xml:space="preserve">7.9594841003418</t>
   </si>
   <si>
     <t xml:space="preserve">7.95776224136353</t>
@@ -407,16 +407,16 @@
     <t xml:space="preserve">8.24522590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32096481323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34850692749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26932525634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4414587020874</t>
+    <t xml:space="preserve">8.32096576690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34850597381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26932430267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44145774841309</t>
   </si>
   <si>
     <t xml:space="preserve">8.40875434875488</t>
@@ -428,79 +428,76 @@
     <t xml:space="preserve">8.400146484375</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5103120803833</t>
+    <t xml:space="preserve">8.51031303405762</t>
   </si>
   <si>
     <t xml:space="preserve">8.4655590057373</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62392234802246</t>
+    <t xml:space="preserve">8.62392330169678</t>
   </si>
   <si>
     <t xml:space="preserve">8.67556190490723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71859455108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81326866149902</t>
+    <t xml:space="preserve">8.81326770782471</t>
   </si>
   <si>
     <t xml:space="preserve">8.66695499420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99400806427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08868408203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84769535064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86490821838379</t>
+    <t xml:space="preserve">8.99400997161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08868503570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84769630432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86490917205811</t>
   </si>
   <si>
     <t xml:space="preserve">8.9595832824707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05425643920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00261688232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06286430358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98540496826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79605674743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75302314758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78744983673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70998764038086</t>
+    <t xml:space="preserve">9.0542573928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00261783599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06286334991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9854040145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79605579376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75302219390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78744888305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70998954772949</t>
   </si>
   <si>
     <t xml:space="preserve">8.73580837249756</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96818828582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01122379302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02843570709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21778392791748</t>
+    <t xml:space="preserve">8.96818923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01122283935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0284366607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2177848815918</t>
   </si>
   <si>
     <t xml:space="preserve">9.1661434173584</t>
@@ -515,28 +512,28 @@
     <t xml:space="preserve">9.12310981750488</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14032459259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22639083862305</t>
+    <t xml:space="preserve">9.14032554626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22638988494873</t>
   </si>
   <si>
     <t xml:space="preserve">9.38131141662598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13171672821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94236850738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01983070373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14893054962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07147026062012</t>
+    <t xml:space="preserve">9.13171577453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94237041473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01982975006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14892959594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0714693069458</t>
   </si>
   <si>
     <t xml:space="preserve">9.37270545959473</t>
@@ -545,16 +542,16 @@
     <t xml:space="preserve">9.47598552703857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62230014801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69115352630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69976043701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48459339141846</t>
+    <t xml:space="preserve">9.62229919433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69115447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6997594833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48459243774414</t>
   </si>
   <si>
     <t xml:space="preserve">9.26081848144531</t>
@@ -563,7 +560,7 @@
     <t xml:space="preserve">9.0972900390625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52762603759766</t>
+    <t xml:space="preserve">9.52762508392334</t>
   </si>
   <si>
     <t xml:space="preserve">9.79443359375</t>
@@ -578,91 +575,91 @@
     <t xml:space="preserve">9.46737861633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24360370635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25221157073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33827877044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31245708465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08007621765137</t>
+    <t xml:space="preserve">9.24360466003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25221061706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33827781677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31245803833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08007717132568</t>
   </si>
   <si>
     <t xml:space="preserve">9.45016670227051</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56205368041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27803134918213</t>
+    <t xml:space="preserve">9.56205272674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27803039550781</t>
   </si>
   <si>
     <t xml:space="preserve">9.39852523803711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40713119506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53623294830322</t>
+    <t xml:space="preserve">9.40713214874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53623390197754</t>
   </si>
   <si>
     <t xml:space="preserve">9.6567268371582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70836544036865</t>
+    <t xml:space="preserve">9.70836734771729</t>
   </si>
   <si>
     <t xml:space="preserve">9.83746719360352</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89771461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.328049659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.388298034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.181734085083</t>
+    <t xml:space="preserve">9.89771270751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3280487060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3882970809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.181736946106</t>
   </si>
   <si>
     <t xml:space="preserve">10.3022289276123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3452625274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3710823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4227256774902</t>
+    <t xml:space="preserve">10.3452634811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3710842132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4227237701416</t>
   </si>
   <si>
     <t xml:space="preserve">10.5776443481445</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6034641265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5862512588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5690364837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5260038375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4915771484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5518255233765</t>
+    <t xml:space="preserve">10.6034660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5862493515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.569037437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5260047912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4915781021118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5518264770508</t>
   </si>
   <si>
     <t xml:space="preserve">10.5173978805542</t>
@@ -671,28 +668,28 @@
     <t xml:space="preserve">10.5948572158813</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5001840591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4657564163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2075548171997</t>
+    <t xml:space="preserve">10.5001831054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4657573699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.207555770874</t>
   </si>
   <si>
     <t xml:space="preserve">10.6895313262939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4485445022583</t>
+    <t xml:space="preserve">10.448543548584</t>
   </si>
   <si>
     <t xml:space="preserve">10.4399366378784</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9133062362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8272399902344</t>
+    <t xml:space="preserve">10.9133052825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8272390365601</t>
   </si>
   <si>
     <t xml:space="preserve">10.9046983718872</t>
@@ -701,31 +698,31 @@
     <t xml:space="preserve">10.7669925689697</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8530588150024</t>
+    <t xml:space="preserve">10.8530578613281</t>
   </si>
   <si>
     <t xml:space="preserve">11.0768337249756</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1112604141235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0424060821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7842054367065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0337991714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1887216567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3608551025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3264284133911</t>
+    <t xml:space="preserve">11.1112585067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0424070358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7842063903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0338001251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1887197494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3608541488647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3264274597168</t>
   </si>
   <si>
     <t xml:space="preserve">11.1628999710083</t>
@@ -737,40 +734,40 @@
     <t xml:space="preserve">11.2661800384521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1801128387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4383153915405</t>
+    <t xml:space="preserve">11.1801137924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4383163452148</t>
   </si>
   <si>
     <t xml:space="preserve">11.2920007705688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4469223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6620903015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5846281051636</t>
+    <t xml:space="preserve">11.4469213485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6620893478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5846300125122</t>
   </si>
   <si>
     <t xml:space="preserve">11.636269569397</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6706962585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6965169906616</t>
+    <t xml:space="preserve">11.6706972122192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6965160369873</t>
   </si>
   <si>
     <t xml:space="preserve">11.756763458252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8084030151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8686494827271</t>
+    <t xml:space="preserve">11.808403968811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8686504364014</t>
   </si>
   <si>
     <t xml:space="preserve">11.9288969039917</t>
@@ -779,7 +776,7 @@
     <t xml:space="preserve">11.9202909469604</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9375047683716</t>
+    <t xml:space="preserve">11.9375038146973</t>
   </si>
   <si>
     <t xml:space="preserve">12.169885635376</t>
@@ -791,19 +788,19 @@
     <t xml:space="preserve">12.1182451248169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1096382141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1526727676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1957054138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1440658569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.014965057373</t>
+    <t xml:space="preserve">12.109637260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1526718139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.195704460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1440649032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0149641036987</t>
   </si>
   <si>
     <t xml:space="preserve">12.1268520355225</t>
@@ -812,85 +809,88 @@
     <t xml:space="preserve">11.963324546814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3936595916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.496940612793</t>
+    <t xml:space="preserve">12.3936586380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4969415664673</t>
   </si>
   <si>
     <t xml:space="preserve">12.3506269454956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4280862808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4194803237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5916147232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4883346557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7379283905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8412075042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7637491226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9617023468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9961290359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7207155227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6346473693848</t>
+    <t xml:space="preserve">12.4280853271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4194812774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5916156768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4883337020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7379293441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8412084579468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7637481689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9617033004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.996129989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7207145690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6346483230591</t>
   </si>
   <si>
     <t xml:space="preserve">12.6432542800903</t>
   </si>
   <si>
-    <t xml:space="preserve">12.522759437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0666046142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9719305038452</t>
+    <t xml:space="preserve">12.5227603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0666065216064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9719295501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2387390136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3696804046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3871402740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5006237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6053762435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2125511169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0816068649292</t>
   </si>
   <si>
     <t xml:space="preserve">12.2387399673462</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3696804046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3871402740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5006227493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6053771972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2125492095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0816078186035</t>
-  </si>
-  <si>
     <t xml:space="preserve">12.1863613128662</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0205030441284</t>
+    <t xml:space="preserve">12.0205020904541</t>
   </si>
   <si>
     <t xml:space="preserve">11.9855833053589</t>
@@ -902,28 +902,28 @@
     <t xml:space="preserve">11.6102151870728</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6014862060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4356250762939</t>
+    <t xml:space="preserve">11.601487159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4356260299683</t>
   </si>
   <si>
     <t xml:space="preserve">11.3570604324341</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6451320648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8371820449829</t>
+    <t xml:space="preserve">11.6451330184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8371829986572</t>
   </si>
   <si>
     <t xml:space="preserve">11.6364040374756</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6975088119507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5752983093262</t>
+    <t xml:space="preserve">11.6975107192993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5752973556519</t>
   </si>
   <si>
     <t xml:space="preserve">11.3221426010132</t>
@@ -935,70 +935,70 @@
     <t xml:space="preserve">11.1562824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">11.348331451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9642333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824722290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1300935745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0427989959717</t>
+    <t xml:space="preserve">11.3483304977417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9642343521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824712753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1300945281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.042799949646</t>
   </si>
   <si>
     <t xml:space="preserve">11.1475524902344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8459119796753</t>
+    <t xml:space="preserve">11.845911026001</t>
   </si>
   <si>
     <t xml:space="preserve">11.9419355392456</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7062387466431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0641479492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8808279037476</t>
+    <t xml:space="preserve">11.7062397003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0641489028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8808298110962</t>
   </si>
   <si>
     <t xml:space="preserve">11.8284530639648</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7760744094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7324275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6189441680908</t>
+    <t xml:space="preserve">11.7760753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7324285507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6189460754395</t>
   </si>
   <si>
     <t xml:space="preserve">11.400707244873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3919792175293</t>
+    <t xml:space="preserve">11.391978263855</t>
   </si>
   <si>
     <t xml:space="preserve">11.4094371795654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2872247695923</t>
+    <t xml:space="preserve">11.2872257232666</t>
   </si>
   <si>
     <t xml:space="preserve">11.3308715820312</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2697658538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2784948348999</t>
+    <t xml:space="preserve">11.2697639465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2784967422485</t>
   </si>
   <si>
     <t xml:space="preserve">11.0689868927002</t>
@@ -1013,13 +1013,13 @@
     <t xml:space="preserve">11.095175743103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3134136199951</t>
+    <t xml:space="preserve">11.3134145736694</t>
   </si>
   <si>
     <t xml:space="preserve">11.6713209152222</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5578374862671</t>
+    <t xml:space="preserve">11.5578393936157</t>
   </si>
   <si>
     <t xml:space="preserve">11.4880027770996</t>
@@ -1028,49 +1028,49 @@
     <t xml:space="preserve">11.4530849456787</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6625919342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7411584854126</t>
+    <t xml:space="preserve">11.6625928878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7411575317383</t>
   </si>
   <si>
     <t xml:space="preserve">11.7935352325439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8109931945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9244766235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8197231292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9768533706665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1077966690063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1776323318481</t>
+    <t xml:space="preserve">11.8109941482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9244775772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8197240829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9768543243408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.107795715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1776332855225</t>
   </si>
   <si>
     <t xml:space="preserve">12.352222442627</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3173027038574</t>
+    <t xml:space="preserve">12.3173036575317</t>
   </si>
   <si>
     <t xml:space="preserve">12.3784103393555</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4918937683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5355415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5966472625732</t>
+    <t xml:space="preserve">12.4918947219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5355424880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5966491699219</t>
   </si>
   <si>
     <t xml:space="preserve">12.4744348526001</t>
@@ -1082,40 +1082,40 @@
     <t xml:space="preserve">12.4831638336182</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6228351593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6141061782837</t>
+    <t xml:space="preserve">12.6228361129761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.614107131958</t>
   </si>
   <si>
     <t xml:space="preserve">12.762508392334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7712373733521</t>
+    <t xml:space="preserve">12.7712392807007</t>
   </si>
   <si>
     <t xml:space="preserve">12.8236141204834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6490240097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7363195419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7450494766235</t>
+    <t xml:space="preserve">12.6490249633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7363204956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7450485229492</t>
   </si>
   <si>
     <t xml:space="preserve">12.2212781906128</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1601734161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2474670410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4482460021973</t>
+    <t xml:space="preserve">12.160174369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2474679946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4482469558716</t>
   </si>
   <si>
     <t xml:space="preserve">12.4395170211792</t>
@@ -1127,10 +1127,10 @@
     <t xml:space="preserve">12.360951423645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7236995697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2086601257324</t>
+    <t xml:space="preserve">11.7236986160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086582183838</t>
   </si>
   <si>
     <t xml:space="preserve">11.0864458084106</t>
@@ -1139,19 +1139,19 @@
     <t xml:space="preserve">11.2959537506104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2173871994019</t>
+    <t xml:space="preserve">11.2173891067505</t>
   </si>
   <si>
     <t xml:space="preserve">11.4181671142578</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3396005630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1650104522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.191198348999</t>
+    <t xml:space="preserve">11.3396015167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1650114059448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1912002563477</t>
   </si>
   <si>
     <t xml:space="preserve">11.1213645935059</t>
@@ -1166,46 +1166,46 @@
     <t xml:space="preserve">10.9991512298584</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1999292373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0777158737183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2261180877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0602579116821</t>
+    <t xml:space="preserve">11.19993019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0777187347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2261190414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0602569580078</t>
   </si>
   <si>
     <t xml:space="preserve">10.8507509231567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8682088851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4967317581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5665683746338</t>
+    <t xml:space="preserve">10.8682079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.496732711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5665674209595</t>
   </si>
   <si>
     <t xml:space="preserve">11.540379524231</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5491094589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6276750564575</t>
+    <t xml:space="preserve">11.5491104125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6276741027832</t>
   </si>
   <si>
     <t xml:space="preserve">11.8721008300781</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7586164474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8071041107178</t>
+    <t xml:space="preserve">11.758617401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8071031570435</t>
   </si>
   <si>
     <t xml:space="preserve">10.6936197280884</t>
@@ -1217,19 +1217,19 @@
     <t xml:space="preserve">10.6587018966675</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5626773834229</t>
+    <t xml:space="preserve">10.5626764297485</t>
   </si>
   <si>
     <t xml:space="preserve">10.5277585983276</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5975961685181</t>
+    <t xml:space="preserve">10.5975952148438</t>
   </si>
   <si>
     <t xml:space="preserve">10.5364894866943</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4753828048706</t>
+    <t xml:space="preserve">10.4753818511963</t>
   </si>
   <si>
     <t xml:space="preserve">10.4666538238525</t>
@@ -1241,16 +1241,16 @@
     <t xml:space="preserve">10.3531694412231</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3706283569336</t>
+    <t xml:space="preserve">10.3706274032593</t>
   </si>
   <si>
     <t xml:space="preserve">10.0738258361816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0389089584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82940101623535</t>
+    <t xml:space="preserve">10.0389070510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82940196990967</t>
   </si>
   <si>
     <t xml:space="preserve">9.71591663360596</t>
@@ -1259,46 +1259,46 @@
     <t xml:space="preserve">10.484112739563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.684889793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9816923141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1039047241211</t>
+    <t xml:space="preserve">10.6848888397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9816932678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1039056777954</t>
   </si>
   <si>
     <t xml:space="preserve">10.9904222488403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7372665405273</t>
+    <t xml:space="preserve">10.737265586853</t>
   </si>
   <si>
     <t xml:space="preserve">10.6761617660522</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8332920074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7809152603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9467754364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9293155670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7198085784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8245611190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7896451950073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7983722686768</t>
+    <t xml:space="preserve">10.8332901000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7809143066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9467744827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9293146133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7198076248169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8245620727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7896432876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7983732223511</t>
   </si>
   <si>
     <t xml:space="preserve">10.8158330917358</t>
@@ -1313,7 +1313,7 @@
     <t xml:space="preserve">10.6674318313599</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5190296173096</t>
+    <t xml:space="preserve">10.5190305709839</t>
   </si>
   <si>
     <t xml:space="preserve">11.4443559646606</t>
@@ -1322,7 +1322,7 @@
     <t xml:space="preserve">10.9205865859985</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6499729156494</t>
+    <t xml:space="preserve">10.6499710083008</t>
   </si>
   <si>
     <t xml:space="preserve">10.5801362991333</t>
@@ -1337,10 +1337,10 @@
     <t xml:space="preserve">10.4164323806763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7633495330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6832933425903</t>
+    <t xml:space="preserve">10.7633504867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6832914352417</t>
   </si>
   <si>
     <t xml:space="preserve">11.1636400222778</t>
@@ -1355,10 +1355,10 @@
     <t xml:space="preserve">10.6032342910767</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8523035049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.887885093689</t>
+    <t xml:space="preserve">10.8523044586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8878841400146</t>
   </si>
   <si>
     <t xml:space="preserve">11.0302095413208</t>
@@ -1367,13 +1367,13 @@
     <t xml:space="preserve">11.074686050415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0480012893677</t>
+    <t xml:space="preserve">11.0480003356934</t>
   </si>
   <si>
     <t xml:space="preserve">11.101372718811</t>
   </si>
   <si>
-    <t xml:space="preserve">11.33265209198</t>
+    <t xml:space="preserve">11.3326511383057</t>
   </si>
   <si>
     <t xml:space="preserve">11.0391054153442</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">11.1369533538818</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9145708084106</t>
+    <t xml:space="preserve">10.9145698547363</t>
   </si>
   <si>
     <t xml:space="preserve">10.7722463607788</t>
@@ -1394,37 +1394,37 @@
     <t xml:space="preserve">10.5142812728882</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5053853988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2830038070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4431180953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4253282546997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2563171386719</t>
+    <t xml:space="preserve">10.5053863525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2830028533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4431190490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.425329208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2563161849976</t>
   </si>
   <si>
     <t xml:space="preserve">10.3096885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0961999893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1228857040405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.211838722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.238525390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3541650772095</t>
+    <t xml:space="preserve">10.0962009429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1228866577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2118396759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2385234832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3541641235352</t>
   </si>
   <si>
     <t xml:space="preserve">10.6299200057983</t>
@@ -1451,19 +1451,19 @@
     <t xml:space="preserve">10.4520130157471</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4964904785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3808517456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3986434936523</t>
+    <t xml:space="preserve">10.4964895248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3808507919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.398642539978</t>
   </si>
   <si>
     <t xml:space="preserve">10.2029447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4075365066528</t>
+    <t xml:space="preserve">10.4075384140015</t>
   </si>
   <si>
     <t xml:space="preserve">10.6121292114258</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">10.1406764984131</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0606203079224</t>
+    <t xml:space="preserve">10.060619354248</t>
   </si>
   <si>
     <t xml:space="preserve">10.131781578064</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">10.0339326858521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90939903259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94497966766357</t>
+    <t xml:space="preserve">9.90939807891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94498062133789</t>
   </si>
   <si>
     <t xml:space="preserve">10.0428285598755</t>
@@ -1493,13 +1493,13 @@
     <t xml:space="preserve">9.82044506072998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82934093475342</t>
+    <t xml:space="preserve">9.8293399810791</t>
   </si>
   <si>
     <t xml:space="preserve">9.98056125640869</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2741060256958</t>
+    <t xml:space="preserve">10.2741069793701</t>
   </si>
   <si>
     <t xml:space="preserve">10.2474212646484</t>
@@ -1508,10 +1508,10 @@
     <t xml:space="preserve">10.1139917373657</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91829490661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9271879196167</t>
+    <t xml:space="preserve">9.91829299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92718887329102</t>
   </si>
   <si>
     <t xml:space="preserve">10.0873050689697</t>
@@ -1520,13 +1520,13 @@
     <t xml:space="preserve">9.96277046203613</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0695152282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1851530075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5587596893311</t>
+    <t xml:space="preserve">10.0695142745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1851539611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5587587356567</t>
   </si>
   <si>
     <t xml:space="preserve">10.5943393707275</t>
@@ -1535,22 +1535,22 @@
     <t xml:space="preserve">10.3630609512329</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3274784088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2296304702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0517244338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2207365036011</t>
+    <t xml:space="preserve">10.3274793624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2296314239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0517234802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2207355499268</t>
   </si>
   <si>
     <t xml:space="preserve">9.87381839752197</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55358505249023</t>
+    <t xml:space="preserve">9.55358600616455</t>
   </si>
   <si>
     <t xml:space="preserve">9.57137680053711</t>
@@ -1562,40 +1562,40 @@
     <t xml:space="preserve">8.83751106262207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74855899810791</t>
+    <t xml:space="preserve">8.74855804443359</t>
   </si>
   <si>
     <t xml:space="preserve">8.41943073272705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73966217041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83306312561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71742534637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60178470611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46390724182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5306224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37940216064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6596040725708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5261754989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79303550720215</t>
+    <t xml:space="preserve">8.73966312408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83306217193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7174243927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60178661346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46390628814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53062343597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37940120697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65960502624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52617454528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79303455352783</t>
   </si>
   <si>
     <t xml:space="preserve">8.69963359832764</t>
@@ -1604,7 +1604,7 @@
     <t xml:space="preserve">8.89088249206543</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80193042755127</t>
+    <t xml:space="preserve">8.80192947387695</t>
   </si>
   <si>
     <t xml:space="preserve">8.75745296478271</t>
@@ -1616,34 +1616,34 @@
     <t xml:space="preserve">8.41053581237793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3126859664917</t>
+    <t xml:space="preserve">8.31268692016602</t>
   </si>
   <si>
     <t xml:space="preserve">8.07695865631104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01024532318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05472183227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11698913574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29489517211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32158088684082</t>
+    <t xml:space="preserve">8.01024627685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05472087860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1169900894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29489612579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32158184051514</t>
   </si>
   <si>
     <t xml:space="preserve">8.29934310913086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55286026000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5884428024292</t>
+    <t xml:space="preserve">8.55286121368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58844184875488</t>
   </si>
   <si>
     <t xml:space="preserve">8.93091201782227</t>
@@ -1655,22 +1655,22 @@
     <t xml:space="preserve">8.85974979400635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0732364654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79748153686523</t>
+    <t xml:space="preserve">9.07323741912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79748249053955</t>
   </si>
   <si>
     <t xml:space="preserve">8.77079677581787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45946025848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49059200286865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27265644073486</t>
+    <t xml:space="preserve">8.45945930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49059391021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2726583480835</t>
   </si>
   <si>
     <t xml:space="preserve">8.38384914398193</t>
@@ -1682,37 +1682,37 @@
     <t xml:space="preserve">8.09920024871826</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97911214828491</t>
+    <t xml:space="preserve">7.97911167144775</t>
   </si>
   <si>
     <t xml:space="preserve">8.29044818878174</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10364627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1525707244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86347246170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91239738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97021579742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908357620239</t>
+    <t xml:space="preserve">8.10364532470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15256977081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86347103118896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91239643096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97021627426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908214569092</t>
   </si>
   <si>
     <t xml:space="preserve">8.25486755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22817993164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05544757843018</t>
+    <t xml:space="preserve">8.22818183898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05544662475586</t>
   </si>
   <si>
     <t xml:space="preserve">9.14440059661865</t>
@@ -1724,16 +1724,16 @@
     <t xml:space="preserve">8.6907377243042</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70852947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76189994812012</t>
+    <t xml:space="preserve">8.70852851867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76190090179443</t>
   </si>
   <si>
     <t xml:space="preserve">8.67294692993164</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80637836456299</t>
+    <t xml:space="preserve">8.80637741088867</t>
   </si>
   <si>
     <t xml:space="preserve">8.81082439422607</t>
@@ -1742,7 +1742,7 @@
     <t xml:space="preserve">8.77524375915527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91312122344971</t>
+    <t xml:space="preserve">8.91312217712402</t>
   </si>
   <si>
     <t xml:space="preserve">9.17998123168945</t>
@@ -1751,28 +1751,28 @@
     <t xml:space="preserve">8.88198757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87754058837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86864471435547</t>
+    <t xml:space="preserve">8.87754154205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86864376068115</t>
   </si>
   <si>
     <t xml:space="preserve">8.85085391998291</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81527233123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81972026824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54841327667236</t>
+    <t xml:space="preserve">8.81527328491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81972122192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54841232299805</t>
   </si>
   <si>
     <t xml:space="preserve">8.45056343078613</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70408153533936</t>
+    <t xml:space="preserve">8.70408058166504</t>
   </si>
   <si>
     <t xml:space="preserve">8.89533042907715</t>
@@ -1784,16 +1784,16 @@
     <t xml:space="preserve">8.9753885269165</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42905044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29561996459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34899234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62474727630615</t>
+    <t xml:space="preserve">9.42904949188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29562091827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34899139404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62474822998047</t>
   </si>
   <si>
     <t xml:space="preserve">9.65143394470215</t>
@@ -1802,7 +1802,7 @@
     <t xml:space="preserve">9.41125965118408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46463108062744</t>
+    <t xml:space="preserve">9.46463203430176</t>
   </si>
   <si>
     <t xml:space="preserve">9.66032886505127</t>
@@ -1811,61 +1811,61 @@
     <t xml:space="preserve">9.26893424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1355037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10881805419922</t>
+    <t xml:space="preserve">9.13550472259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10881900787354</t>
   </si>
   <si>
     <t xml:space="preserve">9.11771488189697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0643424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04655265808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23335456848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4735279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7670726776123</t>
+    <t xml:space="preserve">9.06434154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04655170440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23335361480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47352695465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76707458496094</t>
   </si>
   <si>
     <t xml:space="preserve">9.59806156158447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51800441741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33120250701904</t>
+    <t xml:space="preserve">9.51800346374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33120155334473</t>
   </si>
   <si>
     <t xml:space="preserve">9.2867259979248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08213233947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96649360656738</t>
+    <t xml:space="preserve">9.08213138580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96649265289307</t>
   </si>
   <si>
     <t xml:space="preserve">9.00207424163818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99317932128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19777202606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8649206161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78486347198486</t>
+    <t xml:space="preserve">8.9931812286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1977710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86492156982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78486442565918</t>
   </si>
   <si>
     <t xml:space="preserve">9.75817775726318</t>
@@ -1874,19 +1874,19 @@
     <t xml:space="preserve">9.99835205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4342222213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5676527023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1673622131348</t>
+    <t xml:space="preserve">10.4342231750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5676517486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1673631668091</t>
   </si>
   <si>
     <t xml:space="preserve">9.97166538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85602760314941</t>
+    <t xml:space="preserve">9.8560266494751</t>
   </si>
   <si>
     <t xml:space="preserve">9.18887710571289</t>
@@ -1898,16 +1898,16 @@
     <t xml:space="preserve">9.16219043731689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07778358459473</t>
+    <t xml:space="preserve">9.07778263092041</t>
   </si>
   <si>
     <t xml:space="preserve">9.0914192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05959987640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72776412963867</t>
+    <t xml:space="preserve">9.05960083007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72776317596436</t>
   </si>
   <si>
     <t xml:space="preserve">8.84595203399658</t>
@@ -1916,7 +1916,7 @@
     <t xml:space="preserve">8.8914098739624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90050029754639</t>
+    <t xml:space="preserve">8.9005012512207</t>
   </si>
   <si>
     <t xml:space="preserve">8.78231239318848</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">8.86413478851318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73685550689697</t>
+    <t xml:space="preserve">8.73685455322266</t>
   </si>
   <si>
     <t xml:space="preserve">8.4822940826416</t>
@@ -1934,34 +1934,34 @@
     <t xml:space="preserve">8.68230724334717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88231754302979</t>
+    <t xml:space="preserve">8.88231658935547</t>
   </si>
   <si>
     <t xml:space="preserve">8.99596118927002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9777774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21870040893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07323741912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04596328735352</t>
+    <t xml:space="preserve">8.97777652740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21870136260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07323837280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04596424102783</t>
   </si>
   <si>
     <t xml:space="preserve">9.04141712188721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26415824890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14596843719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39143753051758</t>
+    <t xml:space="preserve">9.26415729522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14597034454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39143657684326</t>
   </si>
   <si>
     <t xml:space="preserve">9.33688831329346</t>
@@ -1976,16 +1976,16 @@
     <t xml:space="preserve">9.20960998535156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44598484039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38234519958496</t>
+    <t xml:space="preserve">9.44598579406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38234615325928</t>
   </si>
   <si>
     <t xml:space="preserve">9.61872291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66417980194092</t>
+    <t xml:space="preserve">9.6641788482666</t>
   </si>
   <si>
     <t xml:space="preserve">9.57326698303223</t>
@@ -1994,10 +1994,10 @@
     <t xml:space="preserve">9.25506591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12778472900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10960388183594</t>
+    <t xml:space="preserve">9.12778568267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10960483551025</t>
   </si>
   <si>
     <t xml:space="preserve">8.80504131317139</t>
@@ -2012,22 +2012,22 @@
     <t xml:space="preserve">8.93686676025391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24597549438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4096212387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34598064422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47774887084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42774486541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46865844726562</t>
+    <t xml:space="preserve">9.24597454071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40962028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34597969055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47774982452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42774677276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46865749359131</t>
   </si>
   <si>
     <t xml:space="preserve">8.25046443939209</t>
@@ -2036,13 +2036,13 @@
     <t xml:space="preserve">8.05499839782715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89589881896973</t>
+    <t xml:space="preserve">7.89589786529541</t>
   </si>
   <si>
     <t xml:space="preserve">7.92771863937378</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90953588485718</t>
+    <t xml:space="preserve">7.90953636169434</t>
   </si>
   <si>
     <t xml:space="preserve">7.65497541427612</t>
@@ -2051,109 +2051,109 @@
     <t xml:space="preserve">7.56406211853027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65952110290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4867844581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46860218048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54587888717651</t>
+    <t xml:space="preserve">7.65952205657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48678398132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46860265731812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54587841033936</t>
   </si>
   <si>
     <t xml:space="preserve">7.53678703308105</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78680181503296</t>
+    <t xml:space="preserve">7.78680086135864</t>
   </si>
   <si>
     <t xml:space="preserve">7.66861295700073</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53224229812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45496416091919</t>
+    <t xml:space="preserve">7.53224182128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45496463775635</t>
   </si>
   <si>
     <t xml:space="preserve">7.71406984329224</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72316217422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59588098526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8049840927124</t>
+    <t xml:space="preserve">7.72316265106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59588146209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80498504638672</t>
   </si>
   <si>
     <t xml:space="preserve">8.07772731781006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27773952484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35501575469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52320671081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59139156341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65503215789795</t>
+    <t xml:space="preserve">8.27773857116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35501480102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52320766448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59139251708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65503311157227</t>
   </si>
   <si>
     <t xml:space="preserve">8.51866054534912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49138736724854</t>
+    <t xml:space="preserve">8.49138641357422</t>
   </si>
   <si>
     <t xml:space="preserve">8.60503005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15954875946045</t>
+    <t xml:space="preserve">8.15954971313477</t>
   </si>
   <si>
     <t xml:space="preserve">8.00499629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88680696487427</t>
+    <t xml:space="preserve">7.88680744171143</t>
   </si>
   <si>
     <t xml:space="preserve">8.02317810058594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11863899230957</t>
+    <t xml:space="preserve">8.11863803863525</t>
   </si>
   <si>
     <t xml:space="preserve">8.12773036956787</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95499324798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78225612640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67315912246704</t>
+    <t xml:space="preserve">7.95499277114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78225660324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6731595993042</t>
   </si>
   <si>
     <t xml:space="preserve">7.727707862854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7186164855957</t>
+    <t xml:space="preserve">7.71861600875854</t>
   </si>
   <si>
     <t xml:space="preserve">7.58224439620972</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74589109420776</t>
+    <t xml:space="preserve">7.74589061737061</t>
   </si>
   <si>
     <t xml:space="preserve">8.13682174682617</t>
@@ -2165,13 +2165,13 @@
     <t xml:space="preserve">8.3004674911499</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33683204650879</t>
+    <t xml:space="preserve">8.33683395385742</t>
   </si>
   <si>
     <t xml:space="preserve">8.09136390686035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20500659942627</t>
+    <t xml:space="preserve">8.20500755310059</t>
   </si>
   <si>
     <t xml:space="preserve">8.48684215545654</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">8.55502700805664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59593868255615</t>
+    <t xml:space="preserve">8.59593772888184</t>
   </si>
   <si>
     <t xml:space="preserve">8.66866970062256</t>
@@ -2195,22 +2195,22 @@
     <t xml:space="preserve">8.74594593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29143238067627</t>
+    <t xml:space="preserve">9.29143142700195</t>
   </si>
   <si>
     <t xml:space="preserve">9.455078125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4823522567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71872806549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90964889526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1096591949463</t>
+    <t xml:space="preserve">9.48235130310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71872901916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90964794158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.109658241272</t>
   </si>
   <si>
     <t xml:space="preserve">10.0551109313965</t>
@@ -2222,25 +2222,25 @@
     <t xml:space="preserve">9.69145393371582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83691692352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58235645294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76418495178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65508842468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82782554626465</t>
+    <t xml:space="preserve">9.83691596984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58235740661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76418685913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65508937835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82782649993896</t>
   </si>
   <si>
     <t xml:space="preserve">10.0005626678467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0823841094971</t>
+    <t xml:space="preserve">10.0823850631714</t>
   </si>
   <si>
     <t xml:space="preserve">10.1642084121704</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">10.2278480529785</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2823972702026</t>
+    <t xml:space="preserve">10.2823963165283</t>
   </si>
   <si>
     <t xml:space="preserve">10.3642196655273</t>
@@ -2270,22 +2270,22 @@
     <t xml:space="preserve">10.2005739212036</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2551221847534</t>
+    <t xml:space="preserve">10.2551231384277</t>
   </si>
   <si>
     <t xml:space="preserve">10.3460369110107</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4369497299194</t>
+    <t xml:space="preserve">10.4369506835938</t>
   </si>
   <si>
     <t xml:space="preserve">10.3278532028198</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0278358459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0732946395874</t>
+    <t xml:space="preserve">10.0278367996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0732936859131</t>
   </si>
   <si>
     <t xml:space="preserve">10.1551170349121</t>
@@ -2300,22 +2300,22 @@
     <t xml:space="preserve">9.98237991333008</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0642023086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0369281768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0460205078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1187496185303</t>
+    <t xml:space="preserve">10.0642032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0369272232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0460195541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1187505722046</t>
   </si>
   <si>
     <t xml:space="preserve">10.091477394104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92783164978027</t>
+    <t xml:space="preserve">9.92783069610596</t>
   </si>
   <si>
     <t xml:space="preserve">9.64599704742432</t>
@@ -2336,16 +2336,16 @@
     <t xml:space="preserve">9.60054016113281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4641695022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41870975494385</t>
+    <t xml:space="preserve">9.46416854858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41871070861816</t>
   </si>
   <si>
     <t xml:space="preserve">9.78236865997314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77327728271484</t>
+    <t xml:space="preserve">9.77327632904053</t>
   </si>
   <si>
     <t xml:space="preserve">9.55508232116699</t>
@@ -2357,7 +2357,7 @@
     <t xml:space="preserve">9.4914436340332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4278039932251</t>
+    <t xml:space="preserve">9.42780303955078</t>
   </si>
   <si>
     <t xml:space="preserve">8.70048904418945</t>
@@ -2369,40 +2369,40 @@
     <t xml:space="preserve">8.64594078063965</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40047264099121</t>
+    <t xml:space="preserve">8.40047359466553</t>
   </si>
   <si>
     <t xml:space="preserve">8.21864414215088</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77316474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87771606445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7004337310791</t>
+    <t xml:space="preserve">7.77316427230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87771654129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70043277740479</t>
   </si>
   <si>
     <t xml:space="preserve">7.37768745422363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44587278366089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81856536865234</t>
+    <t xml:space="preserve">7.44587373733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8185658454895</t>
   </si>
   <si>
     <t xml:space="preserve">6.89129638671875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79583644866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36399412155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61855411529541</t>
+    <t xml:space="preserve">6.79583597183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36399364471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61855459213257</t>
   </si>
   <si>
     <t xml:space="preserve">6.09125137329102</t>
@@ -2414,31 +2414,31 @@
     <t xml:space="preserve">6.79129076004028</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37314081192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00954151153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07312536239624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27768230438232</t>
+    <t xml:space="preserve">7.37314176559448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00954055786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07312488555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27768182754517</t>
   </si>
   <si>
     <t xml:space="preserve">6.70946788787842</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54582262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04579448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17762041091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06397676467896</t>
+    <t xml:space="preserve">6.54582214355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04579496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17761993408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06397771835327</t>
   </si>
   <si>
     <t xml:space="preserve">5.81850957870483</t>
@@ -2450,34 +2450,34 @@
     <t xml:space="preserve">5.67304611206055</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74577760696411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11398029327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03670310974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85487461090088</t>
+    <t xml:space="preserve">5.74577713012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11397981643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03670358657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85487413406372</t>
   </si>
   <si>
     <t xml:space="preserve">5.90487766265869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14580011367798</t>
+    <t xml:space="preserve">6.14579963684082</t>
   </si>
   <si>
     <t xml:space="preserve">6.28217172622681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.227623462677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27762508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63673639297485</t>
+    <t xml:space="preserve">6.22762298583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27762603759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63673734664917</t>
   </si>
   <si>
     <t xml:space="preserve">6.83220243453979</t>
@@ -2486,82 +2486,82 @@
     <t xml:space="preserve">7.08676290512085</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9412989616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1185827255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05948829650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96857357025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72310590744019</t>
+    <t xml:space="preserve">6.94129943847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11858224868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05948781967163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96857404708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72310543060303</t>
   </si>
   <si>
     <t xml:space="preserve">6.71855926513672</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59582567214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.454909324646</t>
+    <t xml:space="preserve">6.59582614898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45490837097168</t>
   </si>
   <si>
     <t xml:space="preserve">5.98215484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03215742111206</t>
+    <t xml:space="preserve">6.03215789794922</t>
   </si>
   <si>
     <t xml:space="preserve">6.49127388000488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45945453643799</t>
+    <t xml:space="preserve">6.45945501327515</t>
   </si>
   <si>
     <t xml:space="preserve">6.44581699371338</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62764406204224</t>
+    <t xml:space="preserve">6.62764501571655</t>
   </si>
   <si>
     <t xml:space="preserve">6.83674812316895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42314529418945</t>
+    <t xml:space="preserve">7.42314434051514</t>
   </si>
   <si>
     <t xml:space="preserve">7.79134702682495</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64133930206299</t>
+    <t xml:space="preserve">7.64133882522583</t>
   </si>
   <si>
     <t xml:space="preserve">7.60042762756348</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68679523468018</t>
+    <t xml:space="preserve">7.68679618835449</t>
   </si>
   <si>
     <t xml:space="preserve">8.08227348327637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96408414840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83225870132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35950517654419</t>
+    <t xml:space="preserve">7.96408462524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83225917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35950565338135</t>
   </si>
   <si>
     <t xml:space="preserve">7.62315559387207</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61860990524292</t>
+    <t xml:space="preserve">7.61861085891724</t>
   </si>
   <si>
     <t xml:space="preserve">7.47314739227295</t>
@@ -2579,7 +2579,7 @@
     <t xml:space="preserve">7.46405601501465</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50951242446899</t>
+    <t xml:space="preserve">7.50951290130615</t>
   </si>
   <si>
     <t xml:space="preserve">7.47769355773926</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">7.4322361946106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67770528793335</t>
+    <t xml:space="preserve">7.67770385742188</t>
   </si>
   <si>
     <t xml:space="preserve">7.52315044403076</t>
@@ -2597,22 +2597,22 @@
     <t xml:space="preserve">7.63679313659668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59133672714233</t>
+    <t xml:space="preserve">7.59133577346802</t>
   </si>
   <si>
     <t xml:space="preserve">7.40950727462769</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51405906677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70952415466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42768955230713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94584512710571</t>
+    <t xml:space="preserve">7.5140585899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70952463150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42769050598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94584560394287</t>
   </si>
   <si>
     <t xml:space="preserve">6.85493040084839</t>
@@ -2621,19 +2621,19 @@
     <t xml:space="preserve">6.93675374984741</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00039386749268</t>
+    <t xml:space="preserve">7.00039434432983</t>
   </si>
   <si>
     <t xml:space="preserve">6.92766332626343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95493698120117</t>
+    <t xml:space="preserve">6.95493650436401</t>
   </si>
   <si>
     <t xml:space="preserve">7.08221626281738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31859302520752</t>
+    <t xml:space="preserve">7.31859350204468</t>
   </si>
   <si>
     <t xml:space="preserve">7.40041542053223</t>
@@ -2645,61 +2645,61 @@
     <t xml:space="preserve">7.30495643615723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26404523849487</t>
+    <t xml:space="preserve">7.26404428482056</t>
   </si>
   <si>
     <t xml:space="preserve">7.20040512084961</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33223104476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34586763381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35495901107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27313661575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62770223617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55951690673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76407337188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88226222991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2641019821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85044145584106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68224954605103</t>
+    <t xml:space="preserve">7.33223056793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34586715698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35495948791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27313613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62770128250122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55951642990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76407241821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88226127624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26410102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85044050216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68225049972534</t>
   </si>
   <si>
     <t xml:space="preserve">7.13676452636719</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24586248397827</t>
+    <t xml:space="preserve">7.24586200714111</t>
   </si>
   <si>
     <t xml:space="preserve">7.29586458206177</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32768440246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57769918441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75498151779175</t>
+    <t xml:space="preserve">7.32768487930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57769870758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75498247146606</t>
   </si>
   <si>
     <t xml:space="preserve">8.15045833587646</t>
@@ -2711,13 +2711,13 @@
     <t xml:space="preserve">8.29137420654297</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01863193511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96863079071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89135313034058</t>
+    <t xml:space="preserve">8.01863288879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96863031387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89135408401489</t>
   </si>
   <si>
     <t xml:space="preserve">7.90499067306519</t>
@@ -2732,16 +2732,16 @@
     <t xml:space="preserve">8.08681869506836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25955581665039</t>
+    <t xml:space="preserve">8.25955486297607</t>
   </si>
   <si>
     <t xml:space="preserve">8.28228378295898</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45047378540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85958862304688</t>
+    <t xml:space="preserve">8.45047473907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85958957672119</t>
   </si>
   <si>
     <t xml:space="preserve">7.84589576721191</t>
@@ -2750,34 +2750,34 @@
     <t xml:space="preserve">8.10954666137695</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9459023475647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00044918060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06863498687744</t>
+    <t xml:space="preserve">7.94590139389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00045013427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06863594055176</t>
   </si>
   <si>
     <t xml:space="preserve">8.15500450134277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56417465209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50962543487549</t>
+    <t xml:space="preserve">9.56417369842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5096263885498</t>
   </si>
   <si>
     <t xml:space="preserve">9.73691082000732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.191481590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93692207336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74600315093994</t>
+    <t xml:space="preserve">10.1914825439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93692302703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74600219726562</t>
   </si>
   <si>
     <t xml:space="preserve">9.70963668823242</t>
@@ -2795,7 +2795,7 @@
     <t xml:space="preserve">9.85510063171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75509357452393</t>
+    <t xml:space="preserve">9.75509452819824</t>
   </si>
   <si>
     <t xml:space="preserve">9.72782039642334</t>
@@ -2807,7 +2807,7 @@
     <t xml:space="preserve">9.84600830078125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36416244506836</t>
+    <t xml:space="preserve">9.36416339874268</t>
   </si>
   <si>
     <t xml:space="preserve">10.1005687713623</t>
@@ -2816,37 +2816,37 @@
     <t xml:space="preserve">10.264214515686</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4642238616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4914979934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3005790710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0187473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2460308074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80055046081543</t>
+    <t xml:space="preserve">10.4642248153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4914989471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3005800247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0187463760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2460298538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80054950714111</t>
   </si>
   <si>
     <t xml:space="preserve">9.86419105529785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79145908355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1823921203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91873931884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27324867248535</t>
+    <t xml:space="preserve">9.79146099090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1823902130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91874027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27324962615967</t>
   </si>
   <si>
     <t xml:space="preserve">9.50053405761719</t>
@@ -2867,16 +2867,16 @@
     <t xml:space="preserve">9.51871776580811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22779178619385</t>
+    <t xml:space="preserve">9.22779083251953</t>
   </si>
   <si>
     <t xml:space="preserve">9.40052890777588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16415214538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32779693603516</t>
+    <t xml:space="preserve">9.16415119171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32779788970947</t>
   </si>
   <si>
     <t xml:space="preserve">9.30052375793457</t>
@@ -2912,19 +2912,19 @@
     <t xml:space="preserve">10.3518352508545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.147216796875</t>
+    <t xml:space="preserve">10.1472158432007</t>
   </si>
   <si>
     <t xml:space="preserve">10.1007118225098</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0356063842773</t>
+    <t xml:space="preserve">10.035605430603</t>
   </si>
   <si>
     <t xml:space="preserve">10.0542087554932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86818981170654</t>
+    <t xml:space="preserve">9.86819076538086</t>
   </si>
   <si>
     <t xml:space="preserve">9.85889053344727</t>
@@ -2933,16 +2933,16 @@
     <t xml:space="preserve">9.69147491455078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87749290466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98910140991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9611988067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0449066162109</t>
+    <t xml:space="preserve">9.87749195098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98910236358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96119976043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0449075698853</t>
   </si>
   <si>
     <t xml:space="preserve">9.84958934783936</t>
@@ -2951,22 +2951,22 @@
     <t xml:space="preserve">9.9332971572876</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9518985748291</t>
+    <t xml:space="preserve">9.95189762115479</t>
   </si>
   <si>
     <t xml:space="preserve">9.90539455413818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89609432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70077705383301</t>
+    <t xml:space="preserve">9.89609336853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70077610015869</t>
   </si>
   <si>
     <t xml:space="preserve">10.1193141937256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99840354919434</t>
+    <t xml:space="preserve">9.99840259552002</t>
   </si>
   <si>
     <t xml:space="preserve">9.63566970825195</t>
@@ -2981,25 +2981,25 @@
     <t xml:space="preserve">9.73797988891602</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1286153793335</t>
+    <t xml:space="preserve">10.1286144256592</t>
   </si>
   <si>
     <t xml:space="preserve">10.2495260238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7703723907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9656896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0400972366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0773000717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1331062316895</t>
+    <t xml:space="preserve">10.7703733444214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.965690612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.040096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0773010253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1331052780151</t>
   </si>
   <si>
     <t xml:space="preserve">11.2540168762207</t>
@@ -3011,58 +3011,58 @@
     <t xml:space="preserve">11.3842277526855</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4586343765259</t>
+    <t xml:space="preserve">11.4586353302002</t>
   </si>
   <si>
     <t xml:space="preserve">11.5051383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4958381652832</t>
+    <t xml:space="preserve">11.4958372116089</t>
   </si>
   <si>
     <t xml:space="preserve">11.5330410003662</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4214315414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3284225463867</t>
+    <t xml:space="preserve">11.4214305877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.328423500061</t>
   </si>
   <si>
     <t xml:space="preserve">11.2261142730713</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4400329589844</t>
+    <t xml:space="preserve">11.4400339126587</t>
   </si>
   <si>
     <t xml:space="preserve">11.4121313095093</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3749265670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2726182937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3098211288452</t>
+    <t xml:space="preserve">11.374927520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2726173400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3098220825195</t>
   </si>
   <si>
     <t xml:space="preserve">11.4493341445923</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3191223144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.291220664978</t>
+    <t xml:space="preserve">11.3191213607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2912187576294</t>
   </si>
   <si>
     <t xml:space="preserve">11.3005199432373</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1982107162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1517057418823</t>
+    <t xml:space="preserve">11.1982116699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1517066955566</t>
   </si>
   <si>
     <t xml:space="preserve">11.1796102523804</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">11.2354145050049</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8075761795044</t>
+    <t xml:space="preserve">10.8075752258301</t>
   </si>
   <si>
     <t xml:space="preserve">10.6308603286743</t>
@@ -3080,10 +3080,10 @@
     <t xml:space="preserve">10.2681274414062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3239336013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4913473129272</t>
+    <t xml:space="preserve">10.3239326477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4913463592529</t>
   </si>
   <si>
     <t xml:space="preserve">10.5006484985352</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">10.5099496841431</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4634447097778</t>
+    <t xml:space="preserve">10.4634437561035</t>
   </si>
   <si>
     <t xml:space="preserve">10.2309226989746</t>
@@ -3101,7 +3101,7 @@
     <t xml:space="preserve">10.1658182144165</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91469478607178</t>
+    <t xml:space="preserve">9.91469573974609</t>
   </si>
   <si>
     <t xml:space="preserve">9.82168769836426</t>
@@ -3110,22 +3110,22 @@
     <t xml:space="preserve">10.0263051986694</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0635089874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1100120544434</t>
+    <t xml:space="preserve">10.0635080337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1100130081177</t>
   </si>
   <si>
     <t xml:space="preserve">10.2030220031738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2123222351074</t>
+    <t xml:space="preserve">10.2123212814331</t>
   </si>
   <si>
     <t xml:space="preserve">10.184419631958</t>
   </si>
   <si>
-    <t xml:space="preserve">10.221622467041</t>
+    <t xml:space="preserve">10.2216234207153</t>
   </si>
   <si>
     <t xml:space="preserve">10.3890380859375</t>
@@ -3134,25 +3134,25 @@
     <t xml:space="preserve">10.3332328796387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5378513336182</t>
+    <t xml:space="preserve">10.5378522872925</t>
   </si>
   <si>
     <t xml:space="preserve">10.5192499160767</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5750551223755</t>
+    <t xml:space="preserve">10.5750541687012</t>
   </si>
   <si>
     <t xml:space="preserve">10.556453704834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6587619781494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7145681381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8261785507202</t>
+    <t xml:space="preserve">10.6587629318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7145690917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8261775970459</t>
   </si>
   <si>
     <t xml:space="preserve">10.9005842208862</t>
@@ -3161,13 +3161,13 @@
     <t xml:space="preserve">10.7238674163818</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6773643493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7982759475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.816876411438</t>
+    <t xml:space="preserve">10.6773633956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7982749938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8168773651123</t>
   </si>
   <si>
     <t xml:space="preserve">11.1703090667725</t>
@@ -3176,7 +3176,7 @@
     <t xml:space="preserve">11.2447156906128</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0866003036499</t>
+    <t xml:space="preserve">11.0866012573242</t>
   </si>
   <si>
     <t xml:space="preserve">11.1610078811646</t>
@@ -3185,25 +3185,25 @@
     <t xml:space="preserve">10.9470891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4541435241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6215600967407</t>
+    <t xml:space="preserve">10.4541444778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6215591430664</t>
   </si>
   <si>
     <t xml:space="preserve">10.8726816177368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9842929840088</t>
+    <t xml:space="preserve">10.9842920303345</t>
   </si>
   <si>
     <t xml:space="preserve">11.26331615448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.551643371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3656272888184</t>
+    <t xml:space="preserve">11.5516424179077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.365626335144</t>
   </si>
   <si>
     <t xml:space="preserve">11.3563251495361</t>
@@ -3212,7 +3212,7 @@
     <t xml:space="preserve">11.4865379333496</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5144395828247</t>
+    <t xml:space="preserve">11.514440536499</t>
   </si>
   <si>
     <t xml:space="preserve">11.5795450210571</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">11.6539516448975</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6353511810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5981483459473</t>
+    <t xml:space="preserve">11.635350227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5981473922729</t>
   </si>
   <si>
     <t xml:space="preserve">11.8771734237671</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0538883209229</t>
+    <t xml:space="preserve">12.0538892745972</t>
   </si>
   <si>
     <t xml:space="preserve">12.2306041717529</t>
@@ -3245,16 +3245,16 @@
     <t xml:space="preserve">12.2771081924438</t>
   </si>
   <si>
-    <t xml:space="preserve">11.626049041748</t>
+    <t xml:space="preserve">11.6260499954224</t>
   </si>
   <si>
     <t xml:space="preserve">11.6167488098145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7376594543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6725540161133</t>
+    <t xml:space="preserve">11.73766040802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6725549697876</t>
   </si>
   <si>
     <t xml:space="preserve">11.5423431396484</t>
@@ -3266,10 +3266,10 @@
     <t xml:space="preserve">10.7052669525146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9191865921021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7517719268799</t>
+    <t xml:space="preserve">10.9191856384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7517709732056</t>
   </si>
   <si>
     <t xml:space="preserve">10.9284868240356</t>
@@ -3278,10 +3278,10 @@
     <t xml:space="preserve">11.0959024429321</t>
   </si>
   <si>
-    <t xml:space="preserve">11.002893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7889738082886</t>
+    <t xml:space="preserve">11.0028944015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7889747619629</t>
   </si>
   <si>
     <t xml:space="preserve">11.1052026748657</t>
@@ -3311,13 +3311,13 @@
     <t xml:space="preserve">8.45446395874023</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79859447479248</t>
+    <t xml:space="preserve">8.7985954284668</t>
   </si>
   <si>
     <t xml:space="preserve">8.50096797943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64978122711182</t>
+    <t xml:space="preserve">8.64978218078613</t>
   </si>
   <si>
     <t xml:space="preserve">8.8497486114502</t>
@@ -3326,25 +3326,25 @@
     <t xml:space="preserve">8.99391174316406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42175006866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29619026184082</t>
+    <t xml:space="preserve">9.42175102233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2961893081665</t>
   </si>
   <si>
     <t xml:space="preserve">9.34734439849854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44035243988037</t>
+    <t xml:space="preserve">9.44035148620605</t>
   </si>
   <si>
     <t xml:space="preserve">9.5147590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4682559967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31014060974121</t>
+    <t xml:space="preserve">9.46825504302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31014156341553</t>
   </si>
   <si>
     <t xml:space="preserve">9.11947441101074</t>
@@ -3353,10 +3353,10 @@
     <t xml:space="preserve">9.23108386993408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68217372894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58916664123535</t>
+    <t xml:space="preserve">9.68217468261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58916568756104</t>
   </si>
   <si>
     <t xml:space="preserve">9.41244983673096</t>
@@ -3365,16 +3365,16 @@
     <t xml:space="preserve">9.3008394241333</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36594486236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15202713012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74744033813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56607246398926</t>
+    <t xml:space="preserve">9.36594581604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15202617645264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74743938446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56607437133789</t>
   </si>
   <si>
     <t xml:space="preserve">8.66838264465332</t>
@@ -3383,13 +3383,13 @@
     <t xml:space="preserve">8.57537460327148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61257839202881</t>
+    <t xml:space="preserve">8.61257743835449</t>
   </si>
   <si>
     <t xml:space="preserve">8.65443134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67303371429443</t>
+    <t xml:space="preserve">8.67303276062012</t>
   </si>
   <si>
     <t xml:space="preserve">8.82649707794189</t>
@@ -3398,10 +3398,10 @@
     <t xml:space="preserve">9.26828765869141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02646446228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88695335388184</t>
+    <t xml:space="preserve">9.02646541595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88695240020752</t>
   </si>
   <si>
     <t xml:space="preserve">8.76604175567627</t>
@@ -3410,16 +3410,16 @@
     <t xml:space="preserve">8.77534294128418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92880725860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80324554443359</t>
+    <t xml:space="preserve">8.92880630493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80324459075928</t>
   </si>
   <si>
     <t xml:space="preserve">8.6032772064209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48236656188965</t>
+    <t xml:space="preserve">8.48236560821533</t>
   </si>
   <si>
     <t xml:space="preserve">8.55212211608887</t>
@@ -3428,22 +3428,22 @@
     <t xml:space="preserve">8.42191028594971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20783138275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0077047348022</t>
+    <t xml:space="preserve">9.20783042907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0077037811279</t>
   </si>
   <si>
     <t xml:space="preserve">10.0387487411499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9337797164917</t>
+    <t xml:space="preserve">9.93378067016602</t>
   </si>
   <si>
     <t xml:space="preserve">9.98149299621582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2391414642334</t>
+    <t xml:space="preserve">10.2391405105591</t>
   </si>
   <si>
     <t xml:space="preserve">10.4204502105713</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">10.5826730728149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3154821395874</t>
+    <t xml:space="preserve">10.3154830932617</t>
   </si>
   <si>
     <t xml:space="preserve">10.3441095352173</t>
@@ -3461,7 +3461,7 @@
     <t xml:space="preserve">10.4013643264771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2582263946533</t>
+    <t xml:space="preserve">10.2582273483276</t>
   </si>
   <si>
     <t xml:space="preserve">10.4299926757812</t>
@@ -3470,13 +3470,13 @@
     <t xml:space="preserve">10.487247467041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5254173278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99103546142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74293041229248</t>
+    <t xml:space="preserve">10.5254182815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9910364151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74292945861816</t>
   </si>
   <si>
     <t xml:space="preserve">9.56162166595459</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">9.79064273834229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19423484802246</t>
+    <t xml:space="preserve">9.19423389434814</t>
   </si>
   <si>
     <t xml:space="preserve">9.28488731384277</t>
@@ -3542,10 +3542,10 @@
     <t xml:space="preserve">9.14175033569336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92227268218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22763252258301</t>
+    <t xml:space="preserve">8.92227172851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22763347625732</t>
   </si>
   <si>
     <t xml:space="preserve">9.33260059356689</t>
@@ -3554,10 +3554,10 @@
     <t xml:space="preserve">9.39939880371094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43756866455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47573947906494</t>
+    <t xml:space="preserve">9.4375696182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47573852539062</t>
   </si>
   <si>
     <t xml:space="preserve">9.32782936096191</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">9.18469142913818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50913715362549</t>
+    <t xml:space="preserve">9.5091381072998</t>
   </si>
   <si>
     <t xml:space="preserve">9.81927013397217</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">10.1150884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0864610671997</t>
+    <t xml:space="preserve">10.0864601135254</t>
   </si>
   <si>
     <t xml:space="preserve">10.01966381073</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">9.25148868560791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90795707702637</t>
+    <t xml:space="preserve">8.90795803070068</t>
   </si>
   <si>
     <t xml:space="preserve">8.87455940246582</t>
@@ -3626,19 +3626,19 @@
     <t xml:space="preserve">8.88410186767578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7505054473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69324970245361</t>
+    <t xml:space="preserve">8.75050640106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69325065612793</t>
   </si>
   <si>
     <t xml:space="preserve">8.76004886627197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44037437438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42128753662109</t>
+    <t xml:space="preserve">8.44037342071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42128849029541</t>
   </si>
   <si>
     <t xml:space="preserve">8.53579902648926</t>
@@ -3656,19 +3656,19 @@
     <t xml:space="preserve">9.07495212554932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11312198638916</t>
+    <t xml:space="preserve">9.11312294006348</t>
   </si>
   <si>
     <t xml:space="preserve">8.8268461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61690998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63599491119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51671409606934</t>
+    <t xml:space="preserve">8.61691093444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63599586486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51671314239502</t>
   </si>
   <si>
     <t xml:space="preserve">8.39266109466553</t>
@@ -3692,13 +3692,13 @@
     <t xml:space="preserve">7.7676248550415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10638523101807</t>
+    <t xml:space="preserve">8.10638427734375</t>
   </si>
   <si>
     <t xml:space="preserve">8.26383686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62168121337891</t>
+    <t xml:space="preserve">8.62168216705322</t>
   </si>
   <si>
     <t xml:space="preserve">8.52148532867432</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">8.61213874816895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59782600402832</t>
+    <t xml:space="preserve">8.597825050354</t>
   </si>
   <si>
     <t xml:space="preserve">8.99861240386963</t>
@@ -3719,19 +3719,19 @@
     <t xml:space="preserve">8.77913379669189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92704296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97952747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05109596252441</t>
+    <t xml:space="preserve">8.92704200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97952651977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0510950088501</t>
   </si>
   <si>
     <t xml:space="preserve">9.23240375518799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24194622039795</t>
+    <t xml:space="preserve">9.24194717407227</t>
   </si>
   <si>
     <t xml:space="preserve">9.29920196533203</t>
@@ -3740,7 +3740,7 @@
     <t xml:space="preserve">9.11789417266846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52822303771973</t>
+    <t xml:space="preserve">9.52822208404541</t>
   </si>
   <si>
     <t xml:space="preserve">9.89560985565186</t>
@@ -3767,13 +3767,13 @@
     <t xml:space="preserve">11.2601928710938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.11705493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0788841247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1361398696899</t>
+    <t xml:space="preserve">11.1170539855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0788850784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1361408233643</t>
   </si>
   <si>
     <t xml:space="preserve">10.8975772857666</t>
@@ -3782,16 +3782,16 @@
     <t xml:space="preserve">10.6113004684448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7162685394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6590127944946</t>
+    <t xml:space="preserve">10.7162675857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6590137481689</t>
   </si>
   <si>
     <t xml:space="preserve">10.6971836090088</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5063333511353</t>
+    <t xml:space="preserve">10.5063323974609</t>
   </si>
   <si>
     <t xml:space="preserve">10.5540466308594</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">10.7258110046387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.563588142395</t>
+    <t xml:space="preserve">10.5635871887207</t>
   </si>
   <si>
     <t xml:space="preserve">10.4490776062012</t>
@@ -3821,10 +3821,10 @@
     <t xml:space="preserve">10.1055459976196</t>
   </si>
   <si>
-    <t xml:space="preserve">10.01012134552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95286655426025</t>
+    <t xml:space="preserve">10.0101203918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95286560058594</t>
   </si>
   <si>
     <t xml:space="preserve">9.82881259918213</t>
@@ -3842,10 +3842,10 @@
     <t xml:space="preserve">10.496789932251</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6208438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8689489364624</t>
+    <t xml:space="preserve">10.6208429336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8689498901367</t>
   </si>
   <si>
     <t xml:space="preserve">10.9166612625122</t>
@@ -3869,22 +3869,22 @@
     <t xml:space="preserve">11.0502576828003</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3269910812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3651599884033</t>
+    <t xml:space="preserve">11.3269901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3651609420776</t>
   </si>
   <si>
     <t xml:space="preserve">11.8041172027588</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2239894866943</t>
+    <t xml:space="preserve">12.2239904403687</t>
   </si>
   <si>
     <t xml:space="preserve">12.5579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7392873764038</t>
+    <t xml:space="preserve">12.7392864227295</t>
   </si>
   <si>
     <t xml:space="preserve">12.7869987487793</t>
@@ -3920,7 +3920,7 @@
     <t xml:space="preserve">13.1400728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3309230804443</t>
+    <t xml:space="preserve">13.3309240341187</t>
   </si>
   <si>
     <t xml:space="preserve">14.2279214859009</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">13.0541896820068</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2927541732788</t>
+    <t xml:space="preserve">13.2927532196045</t>
   </si>
   <si>
     <t xml:space="preserve">13.3595514297485</t>
@@ -3968,13 +3968,13 @@
     <t xml:space="preserve">12.6724882125854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6629457473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7774562835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4339246749878</t>
+    <t xml:space="preserve">12.6629467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7774572372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4339256286621</t>
   </si>
   <si>
     <t xml:space="preserve">12.3671274185181</t>
@@ -3983,13 +3983,13 @@
     <t xml:space="preserve">12.8824243545532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2354984283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7202005386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.025562286377</t>
+    <t xml:space="preserve">13.2354974746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7202014923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0255613327026</t>
   </si>
   <si>
     <t xml:space="preserve">12.9587650299072</t>
@@ -4001,7 +4001,7 @@
     <t xml:space="preserve">12.939679145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7583713531494</t>
+    <t xml:space="preserve">12.7583703994751</t>
   </si>
   <si>
     <t xml:space="preserve">12.462553024292</t>
@@ -4019,7 +4019,7 @@
     <t xml:space="preserve">13.5504016876221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7698812484741</t>
+    <t xml:space="preserve">13.7698802947998</t>
   </si>
   <si>
     <t xml:space="preserve">13.7412519454956</t>
@@ -4034,7 +4034,7 @@
     <t xml:space="preserve">13.645827293396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7889652252197</t>
+    <t xml:space="preserve">13.7889642715454</t>
   </si>
   <si>
     <t xml:space="preserve">13.7794227600098</t>
@@ -4544,9 +4544,6 @@
     <t xml:space="preserve">11.4050025939941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2784967422485</t>
-  </si>
-  <si>
     <t xml:space="preserve">11.025484085083</t>
   </si>
   <si>
@@ -4671,6 +4668,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.7819995880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0080003738403</t>
   </si>
 </sst>
 </file>
@@ -8800,7 +8800,7 @@
         <v>10.1195363998413</v>
       </c>
       <c r="G146" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8826,7 +8826,7 @@
         <v>10.2294216156006</v>
       </c>
       <c r="G147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8852,7 +8852,7 @@
         <v>10.0595979690552</v>
       </c>
       <c r="G148" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -8878,7 +8878,7 @@
         <v>10.4392051696777</v>
       </c>
       <c r="G149" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -8904,7 +8904,7 @@
         <v>10.5490922927856</v>
       </c>
       <c r="G150" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -8956,7 +8956,7 @@
         <v>10.269380569458</v>
       </c>
       <c r="G152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -8982,7 +8982,7 @@
         <v>10.2893600463867</v>
       </c>
       <c r="G153" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -9008,7 +9008,7 @@
         <v>10.4392051696777</v>
       </c>
       <c r="G154" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -9034,7 +9034,7 @@
         <v>10.3992471694946</v>
       </c>
       <c r="G155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -9060,7 +9060,7 @@
         <v>10.5091333389282</v>
       </c>
       <c r="G156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -9086,7 +9086,7 @@
         <v>10.4491949081421</v>
       </c>
       <c r="G157" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -9112,7 +9112,7 @@
         <v>10.5191230773926</v>
       </c>
       <c r="G158" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -9138,7 +9138,7 @@
         <v>10.4292163848877</v>
       </c>
       <c r="G159" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -9190,7 +9190,7 @@
         <v>10.2094430923462</v>
       </c>
       <c r="G161" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -9216,7 +9216,7 @@
         <v>10.1594953536987</v>
       </c>
       <c r="G162" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -9242,7 +9242,7 @@
         <v>10.1994533538818</v>
       </c>
       <c r="G163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -9268,7 +9268,7 @@
         <v>10.1095457077026</v>
       </c>
       <c r="G164" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -9294,7 +9294,7 @@
         <v>10.1395149230957</v>
       </c>
       <c r="G165" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -9320,7 +9320,7 @@
         <v>10.269380569458</v>
       </c>
       <c r="G166" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -9346,7 +9346,7 @@
         <v>10.3992471694946</v>
       </c>
       <c r="G167" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -9372,7 +9372,7 @@
         <v>10.3992471694946</v>
       </c>
       <c r="G168" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9424,7 +9424,7 @@
         <v>10.4092359542847</v>
       </c>
       <c r="G170" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9450,7 +9450,7 @@
         <v>10.4591846466064</v>
       </c>
       <c r="G171" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9476,7 +9476,7 @@
         <v>10.4591846466064</v>
       </c>
       <c r="G172" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9502,7 +9502,7 @@
         <v>10.4292163848877</v>
       </c>
       <c r="G173" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9528,7 +9528,7 @@
         <v>10.4791641235352</v>
       </c>
       <c r="G174" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9580,7 +9580,7 @@
         <v>10.6989374160767</v>
       </c>
       <c r="G176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -9606,7 +9606,7 @@
         <v>10.6389989852905</v>
       </c>
       <c r="G177" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9710,7 +9710,7 @@
         <v>10.4392051696777</v>
       </c>
       <c r="G181" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -9788,7 +9788,7 @@
         <v>10.4292163848877</v>
       </c>
       <c r="G184" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9866,7 +9866,7 @@
         <v>10.688946723938</v>
       </c>
       <c r="G187" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -9892,7 +9892,7 @@
         <v>10.56907081604</v>
       </c>
       <c r="G188" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -9918,7 +9918,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G189" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -9944,7 +9944,7 @@
         <v>10.4491949081421</v>
       </c>
       <c r="G190" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -9996,7 +9996,7 @@
         <v>10.56907081604</v>
       </c>
       <c r="G192" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -10022,7 +10022,7 @@
         <v>10.6090297698975</v>
       </c>
       <c r="G193" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -10048,7 +10048,7 @@
         <v>10.7089262008667</v>
       </c>
       <c r="G194" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -10074,7 +10074,7 @@
         <v>10.8887405395508</v>
       </c>
       <c r="G195" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -10100,7 +10100,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G196" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -10126,7 +10126,7 @@
         <v>10.5990400314331</v>
       </c>
       <c r="G197" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -10152,7 +10152,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G198" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -10178,7 +10178,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G199" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -10204,7 +10204,7 @@
         <v>10.3792667388916</v>
       </c>
       <c r="G200" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -10282,7 +10282,7 @@
         <v>10.4691743850708</v>
       </c>
       <c r="G203" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -10308,7 +10308,7 @@
         <v>10.56907081604</v>
       </c>
       <c r="G204" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -10334,7 +10334,7 @@
         <v>10.5091333389282</v>
       </c>
       <c r="G205" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -10360,7 +10360,7 @@
         <v>10.6090297698975</v>
       </c>
       <c r="G206" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -10386,7 +10386,7 @@
         <v>10.6190185546875</v>
       </c>
       <c r="G207" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10412,7 +10412,7 @@
         <v>10.5291118621826</v>
       </c>
       <c r="G208" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10438,7 +10438,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G209" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10490,7 +10490,7 @@
         <v>10.8787508010864</v>
       </c>
       <c r="G211" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10516,7 +10516,7 @@
         <v>10.9986267089844</v>
       </c>
       <c r="G212" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10542,7 +10542,7 @@
         <v>11.1684513092041</v>
       </c>
       <c r="G213" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10568,7 +10568,7 @@
         <v>11.2483692169189</v>
       </c>
       <c r="G214" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -10594,7 +10594,7 @@
         <v>11.258358001709</v>
       </c>
       <c r="G215" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10620,7 +10620,7 @@
         <v>11.008617401123</v>
       </c>
       <c r="G216" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10646,7 +10646,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G217" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10672,7 +10672,7 @@
         <v>10.5590810775757</v>
       </c>
       <c r="G218" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10698,7 +10698,7 @@
         <v>11.0585651397705</v>
       </c>
       <c r="G219" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10724,7 +10724,7 @@
         <v>11.3682451248169</v>
       </c>
       <c r="G220" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10750,7 +10750,7 @@
         <v>11.0385856628418</v>
       </c>
       <c r="G221" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10776,7 +10776,7 @@
         <v>10.828803062439</v>
       </c>
       <c r="G222" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10802,7 +10802,7 @@
         <v>10.98863697052</v>
       </c>
       <c r="G223" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10828,7 +10828,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G224" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10854,7 +10854,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G225" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -10880,7 +10880,7 @@
         <v>10.7289056777954</v>
       </c>
       <c r="G226" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -10906,7 +10906,7 @@
         <v>10.6389989852905</v>
       </c>
       <c r="G227" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -10932,7 +10932,7 @@
         <v>10.6190185546875</v>
       </c>
       <c r="G228" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -10984,7 +10984,7 @@
         <v>10.7388954162598</v>
       </c>
       <c r="G230" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -11010,7 +11010,7 @@
         <v>10.7388954162598</v>
       </c>
       <c r="G231" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -11036,7 +11036,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G232" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -11062,7 +11062,7 @@
         <v>10.838791847229</v>
       </c>
       <c r="G233" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -11114,7 +11114,7 @@
         <v>10.7388954162598</v>
       </c>
       <c r="G235" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -11140,7 +11140,7 @@
         <v>10.8088226318359</v>
       </c>
       <c r="G236" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -11166,7 +11166,7 @@
         <v>10.7089262008667</v>
       </c>
       <c r="G237" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -11192,7 +11192,7 @@
         <v>10.539101600647</v>
       </c>
       <c r="G238" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -11218,7 +11218,7 @@
         <v>10.5590810775757</v>
       </c>
       <c r="G239" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -11270,7 +11270,7 @@
         <v>10.9686584472656</v>
       </c>
       <c r="G241" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -11296,7 +11296,7 @@
         <v>11.0985240936279</v>
       </c>
       <c r="G242" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -11322,7 +11322,7 @@
         <v>10.9686584472656</v>
       </c>
       <c r="G243" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11348,7 +11348,7 @@
         <v>10.828803062439</v>
       </c>
       <c r="G244" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11374,7 +11374,7 @@
         <v>11.008617401123</v>
       </c>
       <c r="G245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -11400,7 +11400,7 @@
         <v>10.8887405395508</v>
       </c>
       <c r="G246" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11426,7 +11426,7 @@
         <v>10.98863697052</v>
       </c>
       <c r="G247" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -11452,7 +11452,7 @@
         <v>10.8088226318359</v>
       </c>
       <c r="G248" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -11478,7 +11478,7 @@
         <v>10.7289056777954</v>
       </c>
       <c r="G249" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11504,7 +11504,7 @@
         <v>10.7688636779785</v>
       </c>
       <c r="G250" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11530,7 +11530,7 @@
         <v>10.9087200164795</v>
       </c>
       <c r="G251" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11556,7 +11556,7 @@
         <v>10.9187097549438</v>
       </c>
       <c r="G252" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11582,7 +11582,7 @@
         <v>11.0685548782349</v>
       </c>
       <c r="G253" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11608,7 +11608,7 @@
         <v>11.2084102630615</v>
       </c>
       <c r="G254" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11634,7 +11634,7 @@
         <v>11.2683477401733</v>
       </c>
       <c r="G255" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11660,7 +11660,7 @@
         <v>11.4181928634644</v>
       </c>
       <c r="G256" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11686,7 +11686,7 @@
         <v>11.4881210327148</v>
       </c>
       <c r="G257" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11712,7 +11712,7 @@
         <v>11.9876041412354</v>
       </c>
       <c r="G258" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11738,7 +11738,7 @@
         <v>12.0575323104858</v>
       </c>
       <c r="G259" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11764,7 +11764,7 @@
         <v>11.8177795410156</v>
       </c>
       <c r="G260" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11790,7 +11790,7 @@
         <v>11.9576349258423</v>
       </c>
       <c r="G261" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11816,7 +11816,7 @@
         <v>12.0075836181641</v>
       </c>
       <c r="G262" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11842,7 +11842,7 @@
         <v>12.0375528335571</v>
       </c>
       <c r="G263" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11868,7 +11868,7 @@
         <v>12.0974912643433</v>
       </c>
       <c r="G264" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -11894,7 +11894,7 @@
         <v>12.277304649353</v>
       </c>
       <c r="G265" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -11920,7 +11920,7 @@
         <v>12.0575323104858</v>
       </c>
       <c r="G266" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -11946,7 +11946,7 @@
         <v>12.3072738647461</v>
       </c>
       <c r="G267" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -11972,7 +11972,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G268" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -11998,7 +11998,7 @@
         <v>12.2673149108887</v>
       </c>
       <c r="G269" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -12024,7 +12024,7 @@
         <v>12.2173671722412</v>
       </c>
       <c r="G270" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -12050,7 +12050,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G271" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -12076,7 +12076,7 @@
         <v>12.1774082183838</v>
       </c>
       <c r="G272" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -12102,7 +12102,7 @@
         <v>12.2473363876343</v>
       </c>
       <c r="G273" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -12128,7 +12128,7 @@
         <v>12.2073774337769</v>
       </c>
       <c r="G274" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -12154,7 +12154,7 @@
         <v>12.2972841262817</v>
       </c>
       <c r="G275" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -12180,7 +12180,7 @@
         <v>12.1873979568481</v>
       </c>
       <c r="G276" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -12206,7 +12206,7 @@
         <v>12.1474390029907</v>
       </c>
       <c r="G277" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -12232,7 +12232,7 @@
         <v>11.9876041412354</v>
       </c>
       <c r="G278" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -12258,7 +12258,7 @@
         <v>11.8477487564087</v>
       </c>
       <c r="G279" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -12284,7 +12284,7 @@
         <v>12.2173671722412</v>
       </c>
       <c r="G280" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -12310,7 +12310,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G281" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -12336,7 +12336,7 @@
         <v>12.4071702957153</v>
       </c>
       <c r="G282" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -12362,7 +12362,7 @@
         <v>12.127459526062</v>
       </c>
       <c r="G283" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -12388,7 +12388,7 @@
         <v>12.1174697875977</v>
       </c>
       <c r="G284" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -12414,7 +12414,7 @@
         <v>12.2473363876343</v>
       </c>
       <c r="G285" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12440,7 +12440,7 @@
         <v>12.2473363876343</v>
       </c>
       <c r="G286" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -12466,7 +12466,7 @@
         <v>12.4071702957153</v>
       </c>
       <c r="G287" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -12492,7 +12492,7 @@
         <v>12.6669015884399</v>
       </c>
       <c r="G288" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12518,7 +12518,7 @@
         <v>12.5670051574707</v>
       </c>
       <c r="G289" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12544,7 +12544,7 @@
         <v>12.6569118499756</v>
       </c>
       <c r="G290" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12570,7 +12570,7 @@
         <v>12.5670051574707</v>
       </c>
       <c r="G291" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12596,7 +12596,7 @@
         <v>12.4970779418945</v>
       </c>
       <c r="G292" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12622,7 +12622,7 @@
         <v>12.5969743728638</v>
       </c>
       <c r="G293" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12648,7 +12648,7 @@
         <v>12.8567056655884</v>
       </c>
       <c r="G294" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12674,7 +12674,7 @@
         <v>12.8966636657715</v>
       </c>
       <c r="G295" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12700,7 +12700,7 @@
         <v>12.816746711731</v>
       </c>
       <c r="G296" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12726,7 +12726,7 @@
         <v>12.5170574188232</v>
       </c>
       <c r="G297" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12752,7 +12752,7 @@
         <v>12.8067569732666</v>
       </c>
       <c r="G298" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12778,7 +12778,7 @@
         <v>12.6669015884399</v>
       </c>
       <c r="G299" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12804,7 +12804,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G300" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12830,7 +12830,7 @@
         <v>13.1863651275635</v>
       </c>
       <c r="G301" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12856,7 +12856,7 @@
         <v>13.1464061737061</v>
       </c>
       <c r="G302" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -12882,7 +12882,7 @@
         <v>12.9566020965576</v>
       </c>
       <c r="G303" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -12908,7 +12908,7 @@
         <v>12.966591835022</v>
       </c>
       <c r="G304" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -12934,7 +12934,7 @@
         <v>13.0764780044556</v>
       </c>
       <c r="G305" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -12960,7 +12960,7 @@
         <v>12.9765815734863</v>
       </c>
       <c r="G306" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -12986,7 +12986,7 @@
         <v>12.9765815734863</v>
       </c>
       <c r="G307" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -13012,7 +13012,7 @@
         <v>13.1863651275635</v>
       </c>
       <c r="G308" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -13038,7 +13038,7 @@
         <v>13.2762718200684</v>
       </c>
       <c r="G309" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -13064,7 +13064,7 @@
         <v>13.1064472198486</v>
       </c>
       <c r="G310" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -13090,7 +13090,7 @@
         <v>13.2862615585327</v>
       </c>
       <c r="G311" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -13116,7 +13116,7 @@
         <v>13.536003112793</v>
       </c>
       <c r="G312" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -13142,7 +13142,7 @@
         <v>13.4460964202881</v>
       </c>
       <c r="G313" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -13168,7 +13168,7 @@
         <v>13.5060338973999</v>
       </c>
       <c r="G314" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -13194,7 +13194,7 @@
         <v>13.5459928512573</v>
       </c>
       <c r="G315" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -13220,7 +13220,7 @@
         <v>13.5759620666504</v>
       </c>
       <c r="G316" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -13246,7 +13246,7 @@
         <v>13.6458902359009</v>
       </c>
       <c r="G317" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -13272,7 +13272,7 @@
         <v>13.7058277130127</v>
       </c>
       <c r="G318" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -13298,7 +13298,7 @@
         <v>13.7757549285889</v>
       </c>
       <c r="G319" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -13324,7 +13324,7 @@
         <v>13.8456830978394</v>
       </c>
       <c r="G320" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -13350,7 +13350,7 @@
         <v>13.835693359375</v>
       </c>
       <c r="G321" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -13376,7 +13376,7 @@
         <v>13.8556728363037</v>
       </c>
       <c r="G322" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13402,7 +13402,7 @@
         <v>14.1253938674927</v>
       </c>
       <c r="G323" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13428,7 +13428,7 @@
         <v>14.1453733444214</v>
       </c>
       <c r="G324" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13454,7 +13454,7 @@
         <v>14.1253938674927</v>
       </c>
       <c r="G325" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -13480,7 +13480,7 @@
         <v>14.1253938674927</v>
       </c>
       <c r="G326" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -13506,7 +13506,7 @@
         <v>14.0654563903809</v>
       </c>
       <c r="G327" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -13532,7 +13532,7 @@
         <v>14.0554656982422</v>
       </c>
       <c r="G328" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13558,7 +13558,7 @@
         <v>14.1054153442383</v>
       </c>
       <c r="G329" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13584,7 +13584,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G330" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -13610,7 +13610,7 @@
         <v>14.0954246520996</v>
       </c>
       <c r="G331" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13636,7 +13636,7 @@
         <v>13.7757549285889</v>
       </c>
       <c r="G332" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13662,7 +13662,7 @@
         <v>13.9455795288086</v>
       </c>
       <c r="G333" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13688,7 +13688,7 @@
         <v>14.0754451751709</v>
       </c>
       <c r="G334" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13714,7 +13714,7 @@
         <v>13.8856420516968</v>
       </c>
       <c r="G335" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13740,7 +13740,7 @@
         <v>14.3851251602173</v>
       </c>
       <c r="G336" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13766,7 +13766,7 @@
         <v>14.5050010681152</v>
       </c>
       <c r="G337" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13792,7 +13792,7 @@
         <v>14.3351774215698</v>
       </c>
       <c r="G338" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13818,7 +13818,7 @@
         <v>14.4250841140747</v>
       </c>
       <c r="G339" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13844,7 +13844,7 @@
         <v>14.4150943756104</v>
       </c>
       <c r="G340" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13870,7 +13870,7 @@
         <v>14.6148881912231</v>
       </c>
       <c r="G341" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -13896,7 +13896,7 @@
         <v>14.4950122833252</v>
       </c>
       <c r="G342" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -13922,7 +13922,7 @@
         <v>14.7847118377686</v>
       </c>
       <c r="G343" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -13948,7 +13948,7 @@
         <v>14.9045877456665</v>
       </c>
       <c r="G344" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -13974,7 +13974,7 @@
         <v>14.8146810531616</v>
       </c>
       <c r="G345" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -14000,7 +14000,7 @@
         <v>15.0444440841675</v>
       </c>
       <c r="G346" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -14026,7 +14026,7 @@
         <v>15.0844020843506</v>
       </c>
       <c r="G347" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -14052,7 +14052,7 @@
         <v>14.7647333145142</v>
       </c>
       <c r="G348" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -14078,7 +14078,7 @@
         <v>14.6648359298706</v>
       </c>
       <c r="G349" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -14104,7 +14104,7 @@
         <v>14.674825668335</v>
       </c>
       <c r="G350" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -14130,7 +14130,7 @@
         <v>14.5349702835083</v>
       </c>
       <c r="G351" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -14156,7 +14156,7 @@
         <v>14.0055179595947</v>
       </c>
       <c r="G352" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -14182,7 +14182,7 @@
         <v>13.8956308364868</v>
       </c>
       <c r="G353" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -14208,7 +14208,7 @@
         <v>14.2053108215332</v>
       </c>
       <c r="G354" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -14234,7 +14234,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G355" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -14260,7 +14260,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G356" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -14286,7 +14286,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G357" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -14312,7 +14312,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G358" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -14338,7 +14338,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G359" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -14364,7 +14364,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G360" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14390,7 +14390,7 @@
         <v>14.4250841140747</v>
       </c>
       <c r="G361" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14416,7 +14416,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G362" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14442,7 +14442,7 @@
         <v>13.9755487442017</v>
       </c>
       <c r="G363" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14468,7 +14468,7 @@
         <v>13.8257036209106</v>
       </c>
       <c r="G364" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14494,7 +14494,7 @@
         <v>14.0055179595947</v>
       </c>
       <c r="G365" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -16444,7 +16444,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G440" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16652,7 +16652,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G448" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16678,7 +16678,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G449" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16730,7 +16730,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G451" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -17120,7 +17120,7 @@
         <v>13.8257036209106</v>
       </c>
       <c r="G466" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -59188,7 +59188,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G2084" t="s">
-        <v>1510</v>
+        <v>328</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59214,7 +59214,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G2085" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59318,7 +59318,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G2089" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59344,7 +59344,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2090" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59396,7 +59396,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2092" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59422,7 +59422,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2093" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59448,7 +59448,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2094" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59474,7 +59474,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2095" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59500,7 +59500,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2096" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59526,7 +59526,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2097" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59552,7 +59552,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2098" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59578,7 +59578,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2099" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59604,7 +59604,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2100" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59630,7 +59630,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2101" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59656,7 +59656,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2102" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59682,7 +59682,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2103" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59734,7 +59734,7 @@
         <v>12</v>
       </c>
       <c r="G2105" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59760,7 +59760,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2106" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59786,7 +59786,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2107" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59812,7 +59812,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59838,7 +59838,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G2109" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59864,7 +59864,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2110" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59916,7 +59916,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2112" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59942,7 +59942,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G2113" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59968,7 +59968,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G2114" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -59994,7 +59994,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G2115" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60020,7 +60020,7 @@
         <v>12.3660001754761</v>
       </c>
       <c r="G2116" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60046,7 +60046,7 @@
         <v>12.0979995727539</v>
       </c>
       <c r="G2117" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60098,7 +60098,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2119" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60124,7 +60124,7 @@
         <v>11.9720001220703</v>
       </c>
       <c r="G2120" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60150,7 +60150,7 @@
         <v>11.9180002212524</v>
       </c>
       <c r="G2121" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60176,7 +60176,7 @@
         <v>11.9440002441406</v>
       </c>
       <c r="G2122" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60202,7 +60202,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2123" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60228,7 +60228,7 @@
         <v>12.1520004272461</v>
       </c>
       <c r="G2124" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60254,7 +60254,7 @@
         <v>12.0620002746582</v>
       </c>
       <c r="G2125" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60280,7 +60280,7 @@
         <v>11.8319997787476</v>
       </c>
       <c r="G2126" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60332,7 +60332,7 @@
         <v>11.1520004272461</v>
       </c>
       <c r="G2128" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60358,7 +60358,7 @@
         <v>11.1120004653931</v>
       </c>
       <c r="G2129" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60384,7 +60384,7 @@
         <v>11.1339998245239</v>
       </c>
       <c r="G2130" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60410,7 +60410,7 @@
         <v>11.043999671936</v>
       </c>
       <c r="G2131" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60436,7 +60436,7 @@
         <v>11.1619997024536</v>
       </c>
       <c r="G2132" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60462,7 +60462,7 @@
         <v>10.8579998016357</v>
       </c>
       <c r="G2133" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60488,7 +60488,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G2134" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60514,7 +60514,7 @@
         <v>10.673999786377</v>
       </c>
       <c r="G2135" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60540,7 +60540,7 @@
         <v>10.7259998321533</v>
       </c>
       <c r="G2136" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60566,7 +60566,7 @@
         <v>10.6560001373291</v>
       </c>
       <c r="G2137" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60592,7 +60592,7 @@
         <v>10.8760004043579</v>
       </c>
       <c r="G2138" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60618,7 +60618,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G2139" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60644,7 +60644,7 @@
         <v>10.4919996261597</v>
       </c>
       <c r="G2140" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60670,7 +60670,7 @@
         <v>10.5459995269775</v>
       </c>
       <c r="G2141" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60696,7 +60696,7 @@
         <v>10.6560001373291</v>
       </c>
       <c r="G2142" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60722,7 +60722,7 @@
         <v>10.8520002365112</v>
       </c>
       <c r="G2143" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60730,7 +60730,7 @@
     </row>
     <row r="2144">
       <c r="A2144" s="1" t="n">
-        <v>45447.6493055556</v>
+        <v>45447.2916666667</v>
       </c>
       <c r="B2144" t="n">
         <v>488533</v>
@@ -60739,7 +60739,7 @@
         <v>11.043999671936</v>
       </c>
       <c r="D2144" t="n">
-        <v>10.8020000457764</v>
+        <v>10.7819995880127</v>
       </c>
       <c r="E2144" t="n">
         <v>10.9259996414185</v>
@@ -60748,9 +60748,35 @@
         <v>10.7819995880127</v>
       </c>
       <c r="G2144" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.6494791667</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>459107</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>11.1199998855591</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>10.7819995880127</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>11.0080003738403</v>
+      </c>
+      <c r="G2145" t="s">
         <v>1552</v>
       </c>
-      <c r="H2144" t="s">
+      <c r="H2145" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BRE.MI.xlsx
+++ b/data/BRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="1560">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43071746826172</t>
+    <t xml:space="preserve">7.43071699142456</t>
   </si>
   <si>
     <t xml:space="preserve">BRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40021514892578</t>
+    <t xml:space="preserve">7.40021419525146</t>
   </si>
   <si>
     <t xml:space="preserve">7.17991971969604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76305389404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77999925613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66307401657104</t>
+    <t xml:space="preserve">6.76305341720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77999973297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6630744934082</t>
   </si>
   <si>
     <t xml:space="preserve">6.84100484848022</t>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">7.02910137176514</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7901668548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43938970565796</t>
+    <t xml:space="preserve">6.79016733169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43939018249512</t>
   </si>
   <si>
     <t xml:space="preserve">6.42413902282715</t>
@@ -89,55 +89,55 @@
     <t xml:space="preserve">6.53598022460938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54953718185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62070941925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45803022384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39194250106812</t>
+    <t xml:space="preserve">6.54953670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62070894241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45802974700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39194202423096</t>
   </si>
   <si>
     <t xml:space="preserve">6.28009939193726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21062135696411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.078444480896</t>
+    <t xml:space="preserve">6.21062183380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07844495773315</t>
   </si>
   <si>
     <t xml:space="preserve">5.91237688064575</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55482149124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71750020980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93101644515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88187456130981</t>
+    <t xml:space="preserve">5.5548210144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71749925613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93101739883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88187408447266</t>
   </si>
   <si>
     <t xml:space="preserve">5.94118452072144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25976419448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19198131561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34279918670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36482858657837</t>
+    <t xml:space="preserve">6.25976467132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19198083877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3427996635437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36482810974121</t>
   </si>
   <si>
     <t xml:space="preserve">6.32246398925781</t>
@@ -149,19 +149,19 @@
     <t xml:space="preserve">6.33432579040527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19367647171021</t>
+    <t xml:space="preserve">6.19367694854736</t>
   </si>
   <si>
     <t xml:space="preserve">6.29535055160522</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35296630859375</t>
+    <t xml:space="preserve">6.35296678543091</t>
   </si>
   <si>
     <t xml:space="preserve">6.44616794586182</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58342885971069</t>
+    <t xml:space="preserve">6.58342933654785</t>
   </si>
   <si>
     <t xml:space="preserve">6.55462121963501</t>
@@ -176,73 +176,73 @@
     <t xml:space="preserve">7.37649011611938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33751535415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37987995147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32904243469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32395839691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42224454879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40360403060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5137505531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40190982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49341583251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33412504196167</t>
+    <t xml:space="preserve">7.33751487731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37988042831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32904195785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32395792007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42224359512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40360355377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375150680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40191030502319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49341535568237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33412599563599</t>
   </si>
   <si>
     <t xml:space="preserve">7.53408622741699</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41377115249634</t>
+    <t xml:space="preserve">7.41377067565918</t>
   </si>
   <si>
     <t xml:space="preserve">7.41207599639893</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58153486251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70184898376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67304134368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62389707565308</t>
+    <t xml:space="preserve">7.58153629302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70184946060181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67304086685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62389802932739</t>
   </si>
   <si>
     <t xml:space="preserve">7.40529918670654</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45105171203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4239387512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5391697883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57644891738892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62559270858765</t>
+    <t xml:space="preserve">7.45105218887329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42393922805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53916931152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57645034790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6255931854248</t>
   </si>
   <si>
     <t xml:space="preserve">7.67642974853516</t>
@@ -251,28 +251,28 @@
     <t xml:space="preserve">7.69337606430054</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66287469863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71032094955444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74421262741089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78488492965698</t>
+    <t xml:space="preserve">7.66287422180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71032285690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74421310424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78488349914551</t>
   </si>
   <si>
     <t xml:space="preserve">8.05093193054199</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99670553207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91367053985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96281290054321</t>
+    <t xml:space="preserve">7.99670505523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91367101669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96281433105469</t>
   </si>
   <si>
     <t xml:space="preserve">8.02381896972656</t>
@@ -281,70 +281,70 @@
     <t xml:space="preserve">7.94925785064697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0034818649292</t>
+    <t xml:space="preserve">8.00348281860352</t>
   </si>
   <si>
     <t xml:space="preserve">7.90858793258667</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99162149429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1424388885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78637886047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81179618835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82026958465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86263465881348</t>
+    <t xml:space="preserve">7.9916205406189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14243793487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78637981414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81179714202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82026863098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86263275146484</t>
   </si>
   <si>
     <t xml:space="preserve">8.73554134368896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66775703430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65928363800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71859645843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83048343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76162910461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82187557220459</t>
+    <t xml:space="preserve">8.66775608062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6592845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71859550476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83048248291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76162815093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82187652587891</t>
   </si>
   <si>
     <t xml:space="preserve">8.77023601531982</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77884292602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92515754699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95097732543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04565048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28663921356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1919641494751</t>
+    <t xml:space="preserve">8.77884197235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92515659332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95097637176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04564952850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2866382598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19196319580078</t>
   </si>
   <si>
     <t xml:space="preserve">9.18335723876953</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">8.89933490753174</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5774450302124</t>
+    <t xml:space="preserve">8.57744407653809</t>
   </si>
   <si>
     <t xml:space="preserve">8.40531063079834</t>
@@ -368,49 +368,49 @@
     <t xml:space="preserve">8.91654872894287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93376159667969</t>
+    <t xml:space="preserve">8.933762550354</t>
   </si>
   <si>
     <t xml:space="preserve">8.88212299346924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03704452514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56023216247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91989326477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55506896972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35367107391357</t>
+    <t xml:space="preserve">9.03704357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56023120880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91989231109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55506801605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35367202758789</t>
   </si>
   <si>
     <t xml:space="preserve">8.50514888763428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53785419464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13334083557129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95948457717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95776271820068</t>
+    <t xml:space="preserve">8.53785514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13333892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95948314666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95776319503784</t>
   </si>
   <si>
     <t xml:space="preserve">8.24522590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32096481323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3485050201416</t>
+    <t xml:space="preserve">8.32096576690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34850692749023</t>
   </si>
   <si>
     <t xml:space="preserve">8.26932430267334</t>
@@ -419,46 +419,46 @@
     <t xml:space="preserve">8.4414587020874</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40875434875488</t>
+    <t xml:space="preserve">8.40875339508057</t>
   </si>
   <si>
     <t xml:space="preserve">8.5344123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40014839172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5103120803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46555805206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62392139434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67556190490723</t>
+    <t xml:space="preserve">8.400146484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51031303405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4655590057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62392330169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67556285858154</t>
   </si>
   <si>
     <t xml:space="preserve">8.81326770782471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66695404052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99400901794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08868408203125</t>
+    <t xml:space="preserve">8.66695308685303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99400997161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08868503570557</t>
   </si>
   <si>
     <t xml:space="preserve">8.84769535064697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86490917205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95958232879639</t>
+    <t xml:space="preserve">8.86490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9595832824707</t>
   </si>
   <si>
     <t xml:space="preserve">9.0542573928833</t>
@@ -467,67 +467,67 @@
     <t xml:space="preserve">9.00261783599854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06286430358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9854040145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79605674743652</t>
+    <t xml:space="preserve">9.06286239624023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98540306091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79605484008789</t>
   </si>
   <si>
     <t xml:space="preserve">8.75302219390869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78744792938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70998764038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73580932617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96818923950195</t>
+    <t xml:space="preserve">8.78744888305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70998859405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73580837249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96819019317627</t>
   </si>
   <si>
     <t xml:space="preserve">9.01122379302979</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0284366607666</t>
+    <t xml:space="preserve">9.02843761444092</t>
   </si>
   <si>
     <t xml:space="preserve">9.21778392791748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16614437103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20917701721191</t>
+    <t xml:space="preserve">9.1661434173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20917797088623</t>
   </si>
   <si>
     <t xml:space="preserve">9.10589694976807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1231107711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14032363891602</t>
+    <t xml:space="preserve">9.12310981750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14032554626465</t>
   </si>
   <si>
     <t xml:space="preserve">9.22639083862305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38131141662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13171672821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94236850738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01982975006104</t>
+    <t xml:space="preserve">9.38131237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13171577453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94237041473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01983070373535</t>
   </si>
   <si>
     <t xml:space="preserve">9.14892959594727</t>
@@ -539,25 +539,25 @@
     <t xml:space="preserve">9.37270545959473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47598552703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62230014801025</t>
+    <t xml:space="preserve">9.47598648071289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62229919433594</t>
   </si>
   <si>
     <t xml:space="preserve">9.69115352630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69976043701172</t>
+    <t xml:space="preserve">9.6997594833374</t>
   </si>
   <si>
     <t xml:space="preserve">9.48459243774414</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26081657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09729099273682</t>
+    <t xml:space="preserve">9.26081848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09728908538818</t>
   </si>
   <si>
     <t xml:space="preserve">9.52762603759766</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">9.79443454742432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51041126251221</t>
+    <t xml:space="preserve">9.51041221618652</t>
   </si>
   <si>
     <t xml:space="preserve">9.32967281341553</t>
@@ -578,37 +578,37 @@
     <t xml:space="preserve">9.24360466003418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25221157073975</t>
+    <t xml:space="preserve">9.25220966339111</t>
   </si>
   <si>
     <t xml:space="preserve">9.33827781677246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31245708465576</t>
+    <t xml:space="preserve">9.31245803833008</t>
   </si>
   <si>
     <t xml:space="preserve">9.08007717132568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45016574859619</t>
+    <t xml:space="preserve">9.45016479492188</t>
   </si>
   <si>
     <t xml:space="preserve">9.56205272674561</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27803134918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39852619171143</t>
+    <t xml:space="preserve">9.27803039550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39852428436279</t>
   </si>
   <si>
     <t xml:space="preserve">9.40713214874268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53623294830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65672588348389</t>
+    <t xml:space="preserve">9.53623390197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6567268371582</t>
   </si>
   <si>
     <t xml:space="preserve">9.70836639404297</t>
@@ -617,46 +617,46 @@
     <t xml:space="preserve">9.83746719360352</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89771461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.328049659729</t>
+    <t xml:space="preserve">9.89771366119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3280487060547</t>
   </si>
   <si>
     <t xml:space="preserve">10.3882970809937</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1817350387573</t>
+    <t xml:space="preserve">10.1817359924316</t>
   </si>
   <si>
     <t xml:space="preserve">10.3022289276123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3452625274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3710823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4227237701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5776443481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6034650802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5862512588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5690364837646</t>
+    <t xml:space="preserve">10.3452634811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3710842132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4227228164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5776453018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6034660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5862503051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.569037437439</t>
   </si>
   <si>
     <t xml:space="preserve">10.5260047912598</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4915781021118</t>
+    <t xml:space="preserve">10.4915771484375</t>
   </si>
   <si>
     <t xml:space="preserve">10.5518255233765</t>
@@ -665,13 +665,13 @@
     <t xml:space="preserve">10.5173988342285</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5948572158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5001840591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4657583236694</t>
+    <t xml:space="preserve">10.594856262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5001831054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4657573699951</t>
   </si>
   <si>
     <t xml:space="preserve">10.207555770874</t>
@@ -680,22 +680,22 @@
     <t xml:space="preserve">10.6895313262939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4485425949097</t>
+    <t xml:space="preserve">10.448543548584</t>
   </si>
   <si>
     <t xml:space="preserve">10.4399375915527</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9133062362671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8272390365601</t>
+    <t xml:space="preserve">10.9133052825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8272371292114</t>
   </si>
   <si>
     <t xml:space="preserve">10.9046993255615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7669916152954</t>
+    <t xml:space="preserve">10.7669925689697</t>
   </si>
   <si>
     <t xml:space="preserve">10.8530588150024</t>
@@ -707,10 +707,10 @@
     <t xml:space="preserve">11.1112594604492</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0424070358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7842073440552</t>
+    <t xml:space="preserve">11.042407989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7842063903809</t>
   </si>
   <si>
     <t xml:space="preserve">11.0338001251221</t>
@@ -725,22 +725,22 @@
     <t xml:space="preserve">11.3264274597168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1629009246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1715059280396</t>
+    <t xml:space="preserve">11.1628999710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1715068817139</t>
   </si>
   <si>
     <t xml:space="preserve">11.2661800384521</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1801137924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4383144378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2919998168945</t>
+    <t xml:space="preserve">11.1801128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4383153915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2920007705688</t>
   </si>
   <si>
     <t xml:space="preserve">11.4469223022461</t>
@@ -749,118 +749,118 @@
     <t xml:space="preserve">11.6620893478394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5846281051636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.636269569397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6706972122192</t>
+    <t xml:space="preserve">11.5846290588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6362686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6706962585449</t>
   </si>
   <si>
     <t xml:space="preserve">11.6965160369873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7567644119263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8084020614624</t>
+    <t xml:space="preserve">11.756763458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8084030151367</t>
   </si>
   <si>
     <t xml:space="preserve">11.8686494827271</t>
   </si>
   <si>
-    <t xml:space="preserve">11.928897857666</t>
+    <t xml:space="preserve">11.9288969039917</t>
   </si>
   <si>
     <t xml:space="preserve">11.9202909469604</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9375047683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1698846817017</t>
+    <t xml:space="preserve">11.9375028610229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.169885635376</t>
   </si>
   <si>
     <t xml:space="preserve">12.1870985031128</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1182460784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1096382141113</t>
+    <t xml:space="preserve">12.1182451248169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.109637260437</t>
   </si>
   <si>
     <t xml:space="preserve">12.1526737213135</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1957054138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1440658569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0149641036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1268529891968</t>
+    <t xml:space="preserve">12.195704460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1440649032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.014965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1268520355225</t>
   </si>
   <si>
     <t xml:space="preserve">11.963324546814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3936595916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4969396591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3506278991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4280872344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4194803237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5916156768799</t>
+    <t xml:space="preserve">12.3936586380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.496940612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3506269454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4280853271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4194812774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5916147232056</t>
   </si>
   <si>
     <t xml:space="preserve">12.4883337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7379274368286</t>
+    <t xml:space="preserve">12.7379302978516</t>
   </si>
   <si>
     <t xml:space="preserve">12.8412084579468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.763747215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9617023468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9961290359497</t>
+    <t xml:space="preserve">12.7637491226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9617033004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9961309432983</t>
   </si>
   <si>
     <t xml:space="preserve">12.7207145690918</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6346483230591</t>
+    <t xml:space="preserve">12.6346473693848</t>
   </si>
   <si>
     <t xml:space="preserve">12.643253326416</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5227603912354</t>
+    <t xml:space="preserve">12.522759437561</t>
   </si>
   <si>
     <t xml:space="preserve">12.0666065216064</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9719314575195</t>
+    <t xml:space="preserve">11.9719305038452</t>
   </si>
   <si>
     <t xml:space="preserve">12.2387390136719</t>
@@ -875,28 +875,28 @@
     <t xml:space="preserve">12.5006237030029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6053781509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.212550163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0816078186035</t>
+    <t xml:space="preserve">12.6053762435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2125511169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0816068649292</t>
   </si>
   <si>
     <t xml:space="preserve">12.2387399673462</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1863613128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0205011367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9855833053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7149705886841</t>
+    <t xml:space="preserve">12.1863622665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0205001831055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9855842590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7149696350098</t>
   </si>
   <si>
     <t xml:space="preserve">11.6102161407471</t>
@@ -908,13 +908,13 @@
     <t xml:space="preserve">11.4356260299683</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3570604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.645133972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8371829986572</t>
+    <t xml:space="preserve">11.3570594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6451330184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8371820449829</t>
   </si>
   <si>
     <t xml:space="preserve">11.6364040374756</t>
@@ -926,10 +926,10 @@
     <t xml:space="preserve">11.5752973556519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3221435546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4268960952759</t>
+    <t xml:space="preserve">11.3221426010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4268951416016</t>
   </si>
   <si>
     <t xml:space="preserve">11.1562824249268</t>
@@ -953,28 +953,28 @@
     <t xml:space="preserve">11.1475534439087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8459119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9419355392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7062406539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0641489028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8808288574219</t>
+    <t xml:space="preserve">11.845911026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9419364929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7062397003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0641498565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8808298110962</t>
   </si>
   <si>
     <t xml:space="preserve">11.8284530639648</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7760744094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7324275970459</t>
+    <t xml:space="preserve">11.7760753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7324285507202</t>
   </si>
   <si>
     <t xml:space="preserve">11.6189460754395</t>
@@ -989,3561 +989,3564 @@
     <t xml:space="preserve">11.4094371795654</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2872247695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308706283569</t>
+    <t xml:space="preserve">11.2872257232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308715820312</t>
   </si>
   <si>
     <t xml:space="preserve">11.2697649002075</t>
   </si>
   <si>
+    <t xml:space="preserve">11.2784957885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0689868927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1737413406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2610368728638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.095175743103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3134136199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6713218688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5578393936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4880027770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4530849456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6625928878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7411575317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7935361862183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8109941482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9244775772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8197240829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9768533706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1077947616577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1776323318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.352222442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3173036575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3784093856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4918937683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5355424880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5966491699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4744358062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5180816650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4831638336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228361129761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.614107131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7625074386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7712383270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8236131668091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6490259170532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7363195419312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7450494766235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2212791442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1601734161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2474679946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4482469558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4395160675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4045991897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.360951423645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7236995697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086591720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0864458084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2959537506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2173891067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4181671142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3396005630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1650123596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1912002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1213636398315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1126356124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0515289306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9991512298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1999311447144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0777187347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2261190414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0602579116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8507509231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8682088851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.496732711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5665674209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.540379524231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5491094589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6276750564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8720998764038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.758617401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8071031570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6936197280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6150550842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6587009429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5626754760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.527759552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5975952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5364894866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4753818511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4666547775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2920637130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3531694412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3706283569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.073826789856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0389080047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82940101623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71591758728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.484112739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6848888397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9816913604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1039047241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9904232025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7372665405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6761617660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8332901000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7809143066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9467744827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9293165206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7198076248169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8245620727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7896451950073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7983722686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8158330917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6325130462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6063251495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6674327850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5190305709839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4443559646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9205865859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6499710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5801362991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4317359924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3007917404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.416431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7633495330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.683292388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1636409759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0657911300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9857330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6032342910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8523035049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.887885093689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0302095413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.074686050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0480012893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.101372718811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3326511383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0391054153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1369533538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9145698547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7722473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7277688980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5142812728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5053863525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2830028533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4431190490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.425329208374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2563171386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3096885681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0962009429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1228876113892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2118396759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2385244369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3541650772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6299209594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6655025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6477098464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8967800140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8700933456421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.816722869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.709979057312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4520130157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4964904785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3808517456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.398642539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2029438018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4075384140015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6121301651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1406774520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.060619354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1317825317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0339336395264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90939903259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94498062133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0428285598755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82044506072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82934093475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98056125640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2741069793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2474212646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1139907836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91829395294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92718887329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0873041152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96277046203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0695133209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1851530075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5587596893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5943393707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3630609512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3274793624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2296304702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0517234802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2207345962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87381839752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55358600616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57137584686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01097011566162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83751010894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74855899810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41943073272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73966217041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83306217193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71742343902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60178565979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46390628814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5306224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37940216064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65960502624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52617454528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79303455352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69963264465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89088344573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80192947387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7574520111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53507041931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41053581237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31268692016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07695960998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01024532318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05472183227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11698913574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29489612579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32158088684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29934215545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55286121368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58844184875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93091106414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92201709747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85974884033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07323837280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79748249053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77079772949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45945930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49059295654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2726583480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38385009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64181327819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09920024871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97911214828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29044914245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10364532470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1525707244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86347150802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91239643096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97021627426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908309936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25486660003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22818183898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05544662475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14440059661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78858661651611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6907377243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70852947235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76189994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67294692993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80637741088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81082439422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77524471282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91312217712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17998123168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88198852539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87754058837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86864471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85085391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81527233123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81972122192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54841232299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45056343078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70408058166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89532947540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09102821350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9753885269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42904949188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29562091827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34899139404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62474822998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65143299102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41125965118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46463203430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66032886505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26893424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13550472259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10881805419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11771488189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06434154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04655170440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23335361480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47352600097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76707363128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59806251525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51800346374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33120155334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2867259979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08213138580322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96649265289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00207424163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99318027496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1977710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86492156982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78486442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75817775726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99835109710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4342222213745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5676527023315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1673631668091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97166538238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8560266494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18887805938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27782917022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16219043731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07778358459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09142017364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05960083007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72776317596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8459529876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89140892028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9005012512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78231143951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86413478851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73685550689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48229503631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68230628967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88231754302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99596118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97777652740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21870136260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07323932647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04596424102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04141807556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26415729522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14596939086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39143657684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33688831329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17324352264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03232574462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20960998535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44598579406738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38234615325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61872291564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66417789459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57326507568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25506591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12778568267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10960483551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80504131317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76412963867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79140281677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93686771392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24597549438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4096212387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34597969055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47774887084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42774677276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46865844726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25046443939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05499839782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89589881896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92771863937378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90953540802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65497541427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56406211853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65952205657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48678398132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46860218048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54587841033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5367865562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7868013381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66861295700073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53224229812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45496463775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71407032012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7231616973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59588146209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80498504638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07772731781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27773952484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35501480102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52320766448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59139156341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65503215789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51866054534912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49138641357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60503005981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15954971313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00499629974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88680791854858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02317810058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11863803863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12773036956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95499277114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78225660324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67315864562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72770833969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71861600875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58224439620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74589109420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13682079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14591217041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3004674911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33683300018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09136390686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20500755310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48684120178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55502700805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59593772888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66866874694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96868705749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67776107788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74594593048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29143142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.455078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48235130310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71872901916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90964698791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.109658241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0551118850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81873416900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69145393371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83691596984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58235740661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76418590545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65508937835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82782649993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0005626678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0823850631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1642084121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1278438568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2187566757202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1732997894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2278480529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2823963165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3642196655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2369403839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2005739212036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2551221847534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3460359573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4369506835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3278532028198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0278367996216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0732936859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1551170349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63690567016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87328147888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98238086700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0642023086548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0369281768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0460186004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1187505722046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.091477394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92783260345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64599704742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54599285125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67327117919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53689956665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35507297515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60054016113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46416854858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41871070861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78236865997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77327632904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55508232116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59144878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4914436340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42780303955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70048904418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64139461517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64594078063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40047359466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21864414215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77316427230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87771558761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7004337310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37768745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44587326049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.81856536865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89129638671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79583597183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36399412155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61855411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09125185012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19125699996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79129076004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37314128875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00954055786133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07312488555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27768182754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70946741104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.545823097229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04579448699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17762041091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06397724151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81850910186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37302923202515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67304611206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74577713012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11397981643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03670310974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85487461090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90487766265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14580011367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28217172622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22762298583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2776255607605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63673639297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83220243453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08676290512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9412989616394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11858224868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05948829650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96857404708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72310543060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71855926513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59582614898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45490884780884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98215484619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03215742111206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.49127340316772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45945453643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44581651687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62764501571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83674812316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42314481735229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79134702682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64133930206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60042762756348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68679571151733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08227348327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96408462524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83225917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35950565338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62315559387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61861085891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47314786911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49587631225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43678140640259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36405038833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46405601501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50951290130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4776930809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4322361946106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67770481109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52315044403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63679313659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59133625030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40950775146484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5140585899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70952415466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42769050598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94584560394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85493040084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93675374984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00039434432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92766237258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95493698120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08221626281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31859302520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40041542053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31404781341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30495691299438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26404476165771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20040512084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33223056793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34586715698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35495901107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27313661575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62770175933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55951642990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76407337188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88226175308228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2641019821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85044145584106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68225002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13676500320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24586200714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29586505889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32768487930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57769918441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75498199462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15045833587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20955181121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29137516021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01863288879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96862983703613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89135313034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90499019622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85498762130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05954456329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08681774139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25955486297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28228282928467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45047473907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85958957672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84589529037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10954666137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9459023475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00044918060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06863594055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15500450134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56417465209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5096263885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73691177368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1914825439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93692207336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74600315093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70963668823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70054626464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88237571716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80964279174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85510063171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75509452819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72781944274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96419811248779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84600925445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36416244506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1005687713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2642154693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4642248153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4914989471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3005800247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0187463760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2460298538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80054950714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86419105529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79146099090576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.182391166687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91874027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27324962615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50053405761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62781429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60963153839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68236255645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52780818939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51871776580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22779083251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40052795410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16415214538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32779693603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30052280426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52351379394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53336048126221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5240592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77518272399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92399597167969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0821104049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1565179824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1751184463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3053312301636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3518352508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1472158432007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1007118225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0356063842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0542078018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86819076538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85889053344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69147491455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87749195098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98910140991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96119976043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0449075698853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84958934783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9332971572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9518985748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90539360046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89609432220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70077705383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1193132400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99840259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63566970825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67287254333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72867870330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7379789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1286153793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2495260238647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7703733444214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9656896591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0400972366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.077299118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1331052780151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2540168762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3377227783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3842277526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4586343765259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5051383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4958381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5330410003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4214315414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3284225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.226113319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4400329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.412130355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3749265670776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2726173400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3098211288452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4493341445923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3191223144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2912197113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3005208969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1982116699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.151707649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1796092987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2354145050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8075752258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6308603286743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2681264877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3239326477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4913473129272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5006484985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5099496841431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4634447097778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2309236526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1658182144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91469573974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82168769836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0263061523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0635080337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1100130081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2030210494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2123212814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.184419631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.221622467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3890380859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3332319259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5378513336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5192499160767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5750551223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5564546585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6587629318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7145681381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8261785507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9005851745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7238683700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6773633956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7982740402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8168773651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1703090667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2447156906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0866022109985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1610078811646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9470882415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4541444778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6215600967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8726816177368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9842929840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2633171081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.551643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3656272888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3563261032104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4865379333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.514440536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5795459747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6539516448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6353511810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5981473922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8771724700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0538883209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2306041717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4445238113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0817909240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2771081924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6260499954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6167497634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7376594543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6725540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5423412322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2168140411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7052669525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9191856384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7517719268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9284868240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0959024429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.002893447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7889747619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1052026748657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0121936798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.779673576355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9935922622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79378414154053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13807487487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30565071105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31494998931885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45446395874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79859447479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50096797943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64978122711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84974956512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99391174316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42175102233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2961893081665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34734439849854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44035243988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5147590637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46825504302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31014060974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11947441101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2310848236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68217372894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58916568756104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41244983673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30084037780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36594581604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15202713012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74743938446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56607341766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66838264465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57537460327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61257743835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65443229675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67303276062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82649707794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26828670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02646541595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88695335388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76604175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77534294128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92880630493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80324554443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6032772064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48236560821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55212211608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42191123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20783042907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0077037811279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0387487411499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9337797164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98149299621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2391414642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4204502105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5826730728149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3154821395874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3441095352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4013643264771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2582263946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4299926757812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.487247467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5254173278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99103546142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74293041229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56162166595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79064273834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19423484802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28488731384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31351566314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35168552398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36122894287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98429870605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93658542633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98906993865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09403705596924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05586719512939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84593200683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83638858795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60736846923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66462326049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1274356842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41371250152588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17991924285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21331882476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14175033569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92227268218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22763252258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33260059356689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39939880371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.43756866455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47573947906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32782936096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03678226470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18469142913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50913715362549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81927013397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94332313537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0005769729614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1341733932495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0769195556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90515327453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1150884628296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0864610671997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.01966381073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71430206298828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88606739044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55207920074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16560554504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33737182617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25148868560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90795707702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87455940246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88410186767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7505054473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69324970245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76004886627197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44037437438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42128753662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53579902648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53102684020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73142051696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08926582336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07495212554932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11312198638916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8268461227417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61690998077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63599491119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51671409606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39266109466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31154918670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06344318389893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16841220855713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11592769622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11115646362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7676248550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10638523101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26383686065674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62168121337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52148532867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64553928375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61213874816895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59782600402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99861240386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77913379669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92704296112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97952747344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05109596252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23240375518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24194622039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29920196533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11789417266846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52822303771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89560985565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1818866729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1532592773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0960035324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1628007888794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4395341873169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5922155380249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2601928710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.11705493927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0788841247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1361398696899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8975772857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6113004684448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7162685394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6590127944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6971836090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5063333511353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5540466308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7258110046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.563588142395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4490776062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2677688598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2105140686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3059396743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2200565338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1055459976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.01012134552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95286655426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82881259918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97195053100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1914291381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5158758163452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.496789932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6208438873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8689489364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9166612625122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1647682189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0693426132202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7830667495728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.12659740448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9548311233521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0502576828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3269910812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3651599884033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8041172027588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2239894866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5579776763916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7392873764038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7869987487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6056909561157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4243831634521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5293502807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2907867431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7679138183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8156270980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7297430038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6534032821655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7106580734253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1400728225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3309230804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2279214859009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2374649047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9702739715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6076574325562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0541896820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2927541732788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3595514297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0160207748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1591577529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0732746124268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4434671401978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3480415344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6152334213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4911804199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6724882125854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6629457473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7774562835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4339246749878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3671274185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8824243545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2354984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7202005386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.025562286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9587650299072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9205942153931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.939679145813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7583713531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.462553024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6438608169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7011165618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1114444732666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5504016876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7698812484741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7412519454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.655369758606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6935405731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.645827293396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7889652252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7794227600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8280792236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6626482009888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4582920074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7891540527344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.7696914672852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8183479309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.8378105163574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.032434463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1881341934204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9935102462769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9351224899292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9059286117554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9448537826538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9837779998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1102848052979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4995336532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4703397750854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2562522888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.3341026306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0908212661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.0129718780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1663551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8354930877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8160305023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6603317260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7673749923706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9619989395142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0593118667603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2150115966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1079683303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0885047912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9814615249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9911937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8938808441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6992559432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8549556732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7771062850952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5922117233276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7381811141968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6700630187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7089881896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9717302322388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8841495513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5630187988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5240936279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8646869659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5338249206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6797933578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4657068252563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4170503616333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3683938980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4559755325317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5727500915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5046319961548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6506004333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4365129470825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2808132171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3586626052856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1543073654175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.348931312561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4267816543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4949007034302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4851694107056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5143623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4073190689087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3100061416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2029628753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7650585174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.901294708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0278005599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9791450500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9694137573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0569953918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8721017837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9304895401001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0959205627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8234453201294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7747898101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7358646392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2979583740234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3368835449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3952713012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4439277648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3855400085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2201089859009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1714525222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9865598678589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0936031341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.791934967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.142258644104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1130657196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0352153778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6946220397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5291910171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4708042144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3442983627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1691360473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0134363174438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0328989028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0426301956177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0718240737915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88693046569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8285436630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75069332122803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87719917297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85773658752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1594047546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3248357772827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2664489746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0523614883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2275238037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3053731918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2177925109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5486545562744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2956418991089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3832235336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4318799972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2567167282104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1399421691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2469854354858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3637599945068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.626503944397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4999980926514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6556978225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5681161880493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7335472106934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8892469406128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7822036743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5973110198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3345670700073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8697843551636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8211288452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.743278503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.97682762146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0546779632568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9573659896851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8308601379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8016662597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8503217697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7043533325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7724723815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6848907470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6362352371216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.558385848999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5194606781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.509729385376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5778474807739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9962911605835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2006464004517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9670972824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1617221832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1325273513794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.307689666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1227970123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2882280349731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2395715713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8989782333374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.908709526062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8795166015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0060224533081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3660774230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1033344268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1811838150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3271532058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1909151077271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.317421913147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4633893966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4050025939941</t>
+  </si>
+  <si>
     <t xml:space="preserve">11.2784967422485</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0689878463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1737413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2610368728638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0951747894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3134145736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6713218688965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5578393936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4880018234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4530839920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6625928878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7411575317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7935361862183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8109931945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9244775772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8197250366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9768524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1077976226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1776323318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.352222442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3173036575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3784093856812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4918947219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5355415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5966482162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4744348526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5180807113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4831647872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228351593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6141061782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7625074386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7712383270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8236131668091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6490240097046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7363195419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7450485229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2212781906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.160174369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2474670410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4482479095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4395170211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4046001434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.360951423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7236995697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2086591720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0864458084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2959537506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2173891067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4181671142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3396015167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1650114059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1912002563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1213645935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1126356124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0515289306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9991521835327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.19993019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0777177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2261199951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0602579116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8507499694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8682079315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.496732711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5665674209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5403785705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5491104125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6276741027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8721008300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.758617401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8071022033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6936187744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6150550842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6587009429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5626754760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5277585983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5975942611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5364894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4753828048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4666538238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2920627593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3531694412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3706283569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0738258361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0389080047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82940101623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71591663360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4841117858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.684889793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9816932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1039056777954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9904222488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7372665405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6761617660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.833291053772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7809152603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9467754364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9293155670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7198076248169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8245630264282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7896432876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7983732223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8158321380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.632513999939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6063251495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6674327850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5190296173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4443559646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9205865859985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6499719619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5801362991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4317359924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3007936477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4164323806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7633495330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6832914352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1636400222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0657911300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9857339859009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6032342910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8523044586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8878841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0302095413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0746850967407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0480003356934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.101372718811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3326501846313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0391044616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1369533538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9145708084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7722463607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7277669906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142812728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5053853988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2830028533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4431180953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4253273010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2563161849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3096885681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0962009429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1228866577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.211838722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.238525390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3541660308838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6299200057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6655025482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6477108001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8967800140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8700952529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8167219161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7099781036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4520139694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4964904785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3808507919312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3986415863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2029447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4075365066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6121301651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1406755447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0606184005737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1317806243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0339326858521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90939903259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94497966766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0428295135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82044506072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8293399810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98056125640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2741050720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2474203109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1139917373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91829395294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9271879196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0873050689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96277046203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0695142745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1851539611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5587577819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5943384170532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3630609512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3274784088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2296304702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0517244338989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2207345962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87381649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55358600616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57137584686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01097011566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83751106262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74855709075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41943073272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73966217041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83306312561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7174243927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60178470611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46390819549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5306224822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37940120697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65960597991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5261754989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79303550720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69963359832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89088344573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80193042755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75745391845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53506946563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41053581237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31268882751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07695960998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01024532318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05472278594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11698913574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29489612579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32158184051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29934310913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55286121368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5884428024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93091201782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92201709747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85974884033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0732364654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79748153686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77079677581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45945930480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49059295654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27265739440918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38384914398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64181423187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09919929504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97911262512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29044818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10364627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1525707244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86347198486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9123969078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97021579742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908262252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25486755371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22818088531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05544662475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14439964294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78858757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6907377243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70852851867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76189994812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67294692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80637645721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81082534790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77524375915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91312217712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17998123168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88198757171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87753963470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86864376068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85085391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81527233123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81972122192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54841232299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45056438446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70408153533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89533042907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09102821350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9753885269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42905044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29562091827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34899234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62474632263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65143394470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41125869750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46463108062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66032791137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26893424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1355037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1088171005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11771488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06434154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04655265808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23335361480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47352695465088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76707363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59806156158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51800346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33120155334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2867259979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08213233947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96649360656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00207328796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99318027496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19777202606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8649206161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78486442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75817775726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99835109710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4342231750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5676536560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1673622131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97166538238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8560266494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18887710571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27782917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16218948364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07778263092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09142017364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05959987640381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72776317596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84595203399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8914098739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90050029754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78231143951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86413478851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73685455322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48229503631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68230628967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88231754302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99596118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97777652740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21870136260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07323741912842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04596328735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04141712188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26415729522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14596939086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39143753051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33688831329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17324256896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03232574462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20960903167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44598579406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38234615325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6187219619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66417980194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57326602935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25506591796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12778663635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10960388183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80504131317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76412963867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79140377044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93686676025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24597549438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40961933135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34598064422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47774982452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4277458190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46865844726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25046443939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05499935150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89589834213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92771768569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90953588485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65497541427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56406259536743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65952157974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4867844581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46860218048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54587841033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5367865562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7868013381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66861248016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5322413444519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45496416091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71406984329224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7231616973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59588098526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8049840927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07772731781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27773857116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35501480102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52320766448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59139156341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65503311157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51866149902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4913854598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60502910614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15954971313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00499629974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88680744171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02317810058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11863803863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12773036956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95499229431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78225660324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67315864562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72770881652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71861600875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58224439620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74589014053345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13682174682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14591217041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3004674911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33683300018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09136390686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20500755310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48684120178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55502796173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59593868255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66866874694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9686861038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67776012420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74594593048096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29143238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.455078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48235130310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71872711181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90964889526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1096591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0551118850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81873512268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69145393371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83691596984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58235645294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76418685913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65508842468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82782554626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0005626678467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0823850631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1642084121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1278429031372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2187566757202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1732997894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2278470993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2823963165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.364218711853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2369394302368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2005739212036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2551221847534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3460369110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4369497299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3278541564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0278367996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0732936859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1551170349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63690567016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87328243255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98237991333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0642032623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0369281768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0460195541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1187515258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0914764404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92783069610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64599800109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54599094390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67327117919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53690052032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35507202148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60054016113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46416854858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41871070861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78236865997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77327632904053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55508327484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59144878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4914436340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42780303955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70048809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64139461517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64594078063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40047264099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21864318847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77316474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87771511077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7004337310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37768793106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44587373733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81856536865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89129686355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79583692550659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36399412155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61855459213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09125185012817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19125747680664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79129028320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37314081192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00954055786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07312440872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27768182754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70946788787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54582214355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04579496383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17762041091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06397724151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81850910186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3730297088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67304611206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74577665328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11397981643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03670310974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85487413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90487718582153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14580011367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28217172622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.227623462677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27762603759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63673686981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83220243453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08676242828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94129943847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11858224868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05948829650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96857404708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72310543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71856021881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59582567214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.454909324646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98215436935425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03215789794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.49127388000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45945453643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44581699371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62764501571655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83674812316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42314434051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79134607315063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64133930206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60042762756348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68679571151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08227348327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96408319473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83225870132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35950565338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62315607070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61861085891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47314786911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4958758354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43678188323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36405086517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46405601501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50951290130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47769355773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4322361946106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67770528793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52315092086792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63679361343384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59133672714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40950727462769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5140585899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70952415466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42769002914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94584560394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85493040084839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93675327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00039386749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92766284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95493745803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08221626281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31859302520752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40041542053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31404829025269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30495643615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26404476165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20040512084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33223104476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34586715698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35495901107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27313613891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62770175933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55951642990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76407289505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88226127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2641019821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85044145584106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68225049972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13676500320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24586248397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29586458206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32768440246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57769966125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75498247146606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15045833587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20955276489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29137516021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01863288879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96863126754761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89135408401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90498924255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85498666763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05954360961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08681869506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25955486297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28228378295898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45047378540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85958957672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84589576721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10954666137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9459023475647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00045013427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06863594055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15500450134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56417369842529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50962543487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73691177368164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.191481590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93692207336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74600315093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70963859558105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70054531097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88237476348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80964279174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85510063171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75509357452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72781944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96419715881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84600925445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36416244506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1005687713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.264214515686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4642248153687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4914989471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3005790710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0187463760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2460298538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80055046081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86419105529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79146003723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.182391166687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91874027252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27324867248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5005350112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62781429290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60963249206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68236255645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52780818939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51871681213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22779083251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4005298614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16415214538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32779788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30052375793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52351379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53336048126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5240592956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77518272399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92399597167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0821104049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1565179824829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1751184463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3053312301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3518352508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1472158432007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1007118225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0356063842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0542078018188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86819076538086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85889053344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69147491455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87749195098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98910140991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96119976043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0449075698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84958934783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9332971572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9518985748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90539360046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89609432220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70077705383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1193132400513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99840259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63566970825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67287254333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72867870330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7379789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1286153793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2495260238647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7703733444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9656896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0400972366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.077299118042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1331052780151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2540168762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3377227783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3842277526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4586343765259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5051383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4958381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5330410003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4214315414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3284225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.226113319397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4400329589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.412130355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3749265670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2726173400879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3098211288452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4493341445923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3191223144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2912197113037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3005208969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1982116699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.151707649231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1796092987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2354145050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8075752258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6308603286743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2681264877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3239326477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4913473129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5006484985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5099496841431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4634447097778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2309236526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1658182144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91469573974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82168769836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0263061523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0635080337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1100130081177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2030210494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2123212814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.184419631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.221622467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3890380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3332319259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5378513336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5192499160767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5750551223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5564546585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6587629318237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7145681381226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8261785507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9005851745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7238683700562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6773633956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7982740402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8168773651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1703090667725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2447156906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0866022109985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1610078811646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9470882415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4541444778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6215600967407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8726816177368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9842929840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2633171081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.551643371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3656272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3563261032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4865379333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.514440536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5795459747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6539516448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6353511810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5981473922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8771724700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0538883209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2306041717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4445238113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0817909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2771081924438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6260499954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6167497634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7376594543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6725540161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5423412322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2168140411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7052669525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9191856384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7517719268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9284868240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0959024429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.002893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7889747619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1052026748657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0121936798096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.779673576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9935922622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79378414154053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13807487487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30565071105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31494998931885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45446395874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79859447479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50096797943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64978122711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84974956512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99391174316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42175102233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2961893081665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34734439849854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44035243988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5147590637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46825504302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31014060974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11947441101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2310848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68217372894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58916568756104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41244983673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30084037780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36594581604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15202713012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74743938446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56607341766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66838264465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57537460327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61257743835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65443229675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67303276062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82649707794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26828670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02646541595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88695335388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76604175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77534294128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92880630493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80324554443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6032772064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48236560821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55212211608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42191123962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20783042907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0077037811279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0387487411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9337797164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98149299621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2391414642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4204502105713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5826730728149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3154821395874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3441095352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4013643264771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2582263946533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4299926757812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.487247467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5254173278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99103546142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74293041229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56162166595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79064273834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19423484802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28488731384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31351566314697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35168552398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36122894287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98429870605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93658542633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98906993865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09403705596924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05586719512939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84593200683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83638858795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60736846923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66462326049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1274356842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41371250152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17991924285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21331882476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14175033569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92227268218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22763252258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33260059356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39939880371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.43756866455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47573947906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32782936096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03678226470947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18469142913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50913715362549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81927013397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94332313537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0005769729614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1341733932495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0769195556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90515327453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1150884628296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0864610671997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.01966381073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71430206298828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88606739044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55207920074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16560554504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33737182617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25148868560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90795707702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87455940246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88410186767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7505054473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69324970245361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76004886627197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44037437438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42128753662109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53579902648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53102684020996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73142051696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08926582336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07495212554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11312198638916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8268461227417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61690998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63599491119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51671409606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39266109466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31154918670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06344318389893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16841220855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11592769622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11115646362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7676248550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10638523101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26383686065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62168121337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52148532867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64553928375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61213874816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59782600402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99861240386963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77913379669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92704296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97952747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05109596252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23240375518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24194622039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29920196533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11789417266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52822303771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89560985565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1818866729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1532592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0960035324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1628007888794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4395341873169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5922155380249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2601928710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.11705493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0788841247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1361398696899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8975772857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6113004684448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7162685394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6590127944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6971836090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5063333511353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5540466308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7258110046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.563588142395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4490776062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2677688598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2105140686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3059396743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2200565338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1055459976196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.01012134552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95286655426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82881259918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97195053100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1914291381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5158758163452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.496789932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6208438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8689489364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9166612625122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1647682189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0693426132202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7830667495728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.12659740448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9548311233521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0502576828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3269910812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3651599884033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8041172027588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2239894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5579776763916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7392873764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7869987487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6056909561157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4243831634521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5293502807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2907867431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7679138183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8156270980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7297430038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6534032821655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7106580734253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1400728225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3309230804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2279214859009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2374649047852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9702739715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6076574325562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0541896820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2927541732788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3595514297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0160207748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1591577529907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0732746124268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4434671401978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3480415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6152334213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4911804199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6724882125854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6629457473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7774562835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4339246749878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3671274185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8824243545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2354984283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7202005386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.025562286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9587650299072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9205942153931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.939679145813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7583713531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.462553024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6438608169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7011165618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1114444732666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5504016876221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7698812484741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7412519454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.655369758606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6935405731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.645827293396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7889652252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7794227600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8280792236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.6626482009888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4582920074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7891540527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.7696914672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8183479309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.8378105163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.032434463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1881341934204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9935102462769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9351224899292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9059286117554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9448537826538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.9837779998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1102848052979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4995336532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4703397750854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2562522888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.3341026306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0908212661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.0129718780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1663551330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8354930877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8160305023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6603317260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7673749923706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9619989395142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0593118667603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2150115966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1079683303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0885047912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9814615249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9911937713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8938808441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6992559432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8549556732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7771062850952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5922117233276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7381811141968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6700630187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7089881896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9717302322388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8841495513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5630187988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5240936279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8646869659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5338249206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6797933578491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4657068252563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4170503616333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3683938980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4559755325317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5727500915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5046319961548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6506004333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4365129470825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2808132171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3586626052856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1543073654175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.348931312561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4267816543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4949007034302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4851694107056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5143623352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4073190689087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3100061416626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2029628753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7650585174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.901294708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0278005599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9791450500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9694137573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0569953918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8721017837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9304895401001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0959205627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8234453201294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7747898101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7358646392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2979583740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3368835449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3952713012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4439277648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3855400085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2201089859009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1714525222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9865598678589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0936031341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.791934967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.142258644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1130657196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0352153778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6946220397949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5291910171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4708042144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3442983627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1691360473633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0134363174438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0328989028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0426301956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0718240737915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88693046569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8285436630249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75069332122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87719917297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85773658752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1594047546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3248357772827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2664489746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0523614883423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2275238037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3053731918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2177925109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5486545562744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2956418991089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3832235336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4318799972534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2567167282104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1399421691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2469854354858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3637599945068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.626503944397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4999980926514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6556978225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5681161880493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7335472106934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8892469406128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7822036743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5973110198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3345670700073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8697843551636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8211288452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.743278503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.97682762146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0546779632568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9573659896851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8308601379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8016662597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8503217697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7043533325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7724723815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6848907470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6362352371216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.558385848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5194606781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.509729385376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5778474807739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9962911605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2006464004517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9670972824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1617221832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1325273513794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.307689666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1227970123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2882280349731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2395715713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8989782333374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.908709526062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8795166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0060224533081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3660774230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1033344268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1811838150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3271532058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1909151077271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.317421913147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4633893966675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4050025939941</t>
-  </si>
-  <si>
     <t xml:space="preserve">11.025484085083</t>
   </si>
   <si>
@@ -4682,7 +4685,13 @@
     <t xml:space="preserve">11.1020002365112</t>
   </si>
   <si>
+    <t xml:space="preserve">10.6199998855591</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.753999710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4399995803833</t>
   </si>
 </sst>
 </file>
@@ -59200,7 +59209,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G2084" t="s">
-        <v>328</v>
+        <v>1510</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59226,7 +59235,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G2085" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59330,7 +59339,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G2089" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59356,7 +59365,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2090" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59408,7 +59417,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2092" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59434,7 +59443,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2093" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59460,7 +59469,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2094" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59486,7 +59495,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2095" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59512,7 +59521,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2096" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59538,7 +59547,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2097" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59564,7 +59573,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2098" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59590,7 +59599,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2099" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59616,7 +59625,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2100" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59642,7 +59651,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2101" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59668,7 +59677,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2102" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59694,7 +59703,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2103" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59746,7 +59755,7 @@
         <v>12</v>
       </c>
       <c r="G2105" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59772,7 +59781,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2106" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59798,7 +59807,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2107" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59824,7 +59833,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59850,7 +59859,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G2109" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59876,7 +59885,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2110" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -59928,7 +59937,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2112" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -59954,7 +59963,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G2113" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -59980,7 +59989,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G2114" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60006,7 +60015,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G2115" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60032,7 +60041,7 @@
         <v>12.3660001754761</v>
       </c>
       <c r="G2116" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60058,7 +60067,7 @@
         <v>12.0979995727539</v>
       </c>
       <c r="G2117" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60110,7 +60119,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2119" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60136,7 +60145,7 @@
         <v>11.9720001220703</v>
       </c>
       <c r="G2120" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60162,7 +60171,7 @@
         <v>11.9180002212524</v>
       </c>
       <c r="G2121" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60188,7 +60197,7 @@
         <v>11.9440002441406</v>
       </c>
       <c r="G2122" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60214,7 +60223,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2123" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60240,7 +60249,7 @@
         <v>12.1520004272461</v>
       </c>
       <c r="G2124" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60266,7 +60275,7 @@
         <v>12.0620002746582</v>
       </c>
       <c r="G2125" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60292,7 +60301,7 @@
         <v>11.8319997787476</v>
       </c>
       <c r="G2126" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60344,7 +60353,7 @@
         <v>11.1520004272461</v>
       </c>
       <c r="G2128" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60370,7 +60379,7 @@
         <v>11.1120004653931</v>
       </c>
       <c r="G2129" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60396,7 +60405,7 @@
         <v>11.1339998245239</v>
       </c>
       <c r="G2130" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60422,7 +60431,7 @@
         <v>11.043999671936</v>
       </c>
       <c r="G2131" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60448,7 +60457,7 @@
         <v>11.1619997024536</v>
       </c>
       <c r="G2132" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60474,7 +60483,7 @@
         <v>10.8579998016357</v>
       </c>
       <c r="G2133" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60500,7 +60509,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G2134" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60526,7 +60535,7 @@
         <v>10.673999786377</v>
       </c>
       <c r="G2135" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60552,7 +60561,7 @@
         <v>10.7259998321533</v>
       </c>
       <c r="G2136" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60578,7 +60587,7 @@
         <v>10.6560001373291</v>
       </c>
       <c r="G2137" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60604,7 +60613,7 @@
         <v>10.8760004043579</v>
       </c>
       <c r="G2138" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60630,7 +60639,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G2139" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60656,7 +60665,7 @@
         <v>10.4919996261597</v>
       </c>
       <c r="G2140" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60682,7 +60691,7 @@
         <v>10.5459995269775</v>
       </c>
       <c r="G2141" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60708,7 +60717,7 @@
         <v>10.6560001373291</v>
       </c>
       <c r="G2142" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60734,7 +60743,7 @@
         <v>10.8520002365112</v>
       </c>
       <c r="G2143" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60760,7 +60769,7 @@
         <v>10.7819995880127</v>
       </c>
       <c r="G2144" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60786,7 +60795,7 @@
         <v>11.0080003738403</v>
       </c>
       <c r="G2145" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60812,7 +60821,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2146" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60838,7 +60847,7 @@
         <v>11.0120000839233</v>
       </c>
       <c r="G2147" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60864,7 +60873,7 @@
         <v>11.1020002365112</v>
       </c>
       <c r="G2148" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -60872,27 +60881,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6502893518</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
+        <v>903067</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>11.1660003662109</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>10.5159997940063</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>11.1499996185303</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>10.6199998855591</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
         <v>447080</v>
       </c>
-      <c r="C2149" t="n">
+      <c r="C2150" t="n">
         <v>10.8059997558594</v>
       </c>
-      <c r="D2149" t="n">
+      <c r="D2150" t="n">
         <v>10.5640001296997</v>
       </c>
-      <c r="E2149" t="n">
+      <c r="E2150" t="n">
         <v>10.6199998855591</v>
       </c>
-      <c r="F2149" t="n">
+      <c r="F2150" t="n">
         <v>10.753999710083</v>
       </c>
-      <c r="G2149" t="s">
-        <v>1556</v>
-      </c>
-      <c r="H2149" t="s">
+      <c r="G2150" t="s">
+        <v>1558</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6515740741</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>722243</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>10.6999998092651</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>10.4399995803833</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>10.6999998092651</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>10.4399995803833</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BRE.MI.xlsx
+++ b/data/BRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="1564">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4307165145874</t>
+    <t xml:space="preserve">7.43071699142456</t>
   </si>
   <si>
     <t xml:space="preserve">BRE.MI</t>
@@ -47,40 +47,40 @@
     <t xml:space="preserve">7.40021467208862</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17991971969604</t>
+    <t xml:space="preserve">7.17991876602173</t>
   </si>
   <si>
     <t xml:space="preserve">6.76305389404297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77999877929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66307353973389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84100484848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02910232543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79016733169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43938970565796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42413949966431</t>
+    <t xml:space="preserve">6.77999925613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66307401657104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84100532531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02910184860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79016780853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4393892288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42413902282715</t>
   </si>
   <si>
     <t xml:space="preserve">6.50378370285034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16317415237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42922258377075</t>
+    <t xml:space="preserve">6.16317462921143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42922353744507</t>
   </si>
   <si>
     <t xml:space="preserve">6.47667026519775</t>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">6.53598022460938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54953670501709</t>
+    <t xml:space="preserve">6.54953718185425</t>
   </si>
   <si>
     <t xml:space="preserve">6.62070941925049</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">6.45802927017212</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39194202423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2800989151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21062183380127</t>
+    <t xml:space="preserve">6.39194107055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28009939193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21062231063843</t>
   </si>
   <si>
     <t xml:space="preserve">6.078444480896</t>
@@ -125,43 +125,43 @@
     <t xml:space="preserve">5.88187456130981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94118452072144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25976467132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19198131561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34279918670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36482763290405</t>
+    <t xml:space="preserve">5.94118404388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25976419448853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19198226928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3427996635437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36482858657837</t>
   </si>
   <si>
     <t xml:space="preserve">6.32246446609497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46480751037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33432579040527</t>
+    <t xml:space="preserve">6.46480846405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33432531356812</t>
   </si>
   <si>
     <t xml:space="preserve">6.19367694854736</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29535055160522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35296630859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44616842269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58342885971069</t>
+    <t xml:space="preserve">6.29535102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35296726226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44616794586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58342838287354</t>
   </si>
   <si>
     <t xml:space="preserve">6.55462169647217</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">7.37649059295654</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33751535415649</t>
+    <t xml:space="preserve">7.33751487731934</t>
   </si>
   <si>
     <t xml:space="preserve">7.37987995147705</t>
@@ -188,46 +188,46 @@
     <t xml:space="preserve">7.32395935058594</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42224407196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40360403060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51375102996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40190982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49341535568237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33412504196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53408718109131</t>
+    <t xml:space="preserve">7.42224359512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40360450744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375198364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40190887451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49341630935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33412408828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53408670425415</t>
   </si>
   <si>
     <t xml:space="preserve">7.41377115249634</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41207695007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58153390884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70184803009033</t>
+    <t xml:space="preserve">7.41207647323608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58153486251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70184946060181</t>
   </si>
   <si>
     <t xml:space="preserve">7.67304134368896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62389802932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4052996635437</t>
+    <t xml:space="preserve">7.62389850616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40529870986938</t>
   </si>
   <si>
     <t xml:space="preserve">7.45105218887329</t>
@@ -236,22 +236,22 @@
     <t xml:space="preserve">7.42393779754639</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53916835784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57645082473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62559223175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.676429271698</t>
+    <t xml:space="preserve">7.5391697883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57645130157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6255931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67643022537231</t>
   </si>
   <si>
     <t xml:space="preserve">7.69337606430054</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66287422180176</t>
+    <t xml:space="preserve">7.66287517547607</t>
   </si>
   <si>
     <t xml:space="preserve">7.71032238006592</t>
@@ -260,58 +260,58 @@
     <t xml:space="preserve">7.74421358108521</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78488254547119</t>
+    <t xml:space="preserve">7.78488302230835</t>
   </si>
   <si>
     <t xml:space="preserve">8.05093193054199</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99670696258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91367197036743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96281385421753</t>
+    <t xml:space="preserve">7.99670600891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91367101669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96281290054321</t>
   </si>
   <si>
     <t xml:space="preserve">8.02381896972656</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94925832748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00348377227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90858554840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9916205406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14243793487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.786376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81179618835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82027053833008</t>
+    <t xml:space="preserve">7.9492564201355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00348281860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90858745574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99162244796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14243984222412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78637790679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81179809570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82026863098145</t>
   </si>
   <si>
     <t xml:space="preserve">8.86263370513916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73554039001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66775894165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65928554534912</t>
+    <t xml:space="preserve">8.73553943634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66775798797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6592845916748</t>
   </si>
   <si>
     <t xml:space="preserve">8.71859550476074</t>
@@ -323,19 +323,19 @@
     <t xml:space="preserve">8.76162910461426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82187557220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77023506164551</t>
+    <t xml:space="preserve">8.82187652587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77023601531982</t>
   </si>
   <si>
     <t xml:space="preserve">8.77884292602539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92515563964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95097637176514</t>
+    <t xml:space="preserve">8.92515659332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95097732543945</t>
   </si>
   <si>
     <t xml:space="preserve">9.0456485748291</t>
@@ -347,7 +347,7 @@
     <t xml:space="preserve">9.1919641494751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18335819244385</t>
+    <t xml:space="preserve">9.18335628509521</t>
   </si>
   <si>
     <t xml:space="preserve">8.89933586120605</t>
@@ -365,58 +365,58 @@
     <t xml:space="preserve">8.61531448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91654872894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.933762550354</t>
+    <t xml:space="preserve">8.91654968261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93376350402832</t>
   </si>
   <si>
     <t xml:space="preserve">8.88212299346924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0370454788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56023120880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91989278793335</t>
+    <t xml:space="preserve">9.03704357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56023216247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91989374160767</t>
   </si>
   <si>
     <t xml:space="preserve">8.55506706237793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35367107391357</t>
+    <t xml:space="preserve">8.35367012023926</t>
   </si>
   <si>
     <t xml:space="preserve">8.50514888763428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53785419464111</t>
+    <t xml:space="preserve">8.5378532409668</t>
   </si>
   <si>
     <t xml:space="preserve">8.13333988189697</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95948457717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95776319503784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24522495269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32096481323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34850692749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26932430267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44145965576172</t>
+    <t xml:space="preserve">7.95948266983032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95776128768921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24522686004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32096576690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3485050201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26932525634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4414587020874</t>
   </si>
   <si>
     <t xml:space="preserve">8.40875339508057</t>
@@ -425,25 +425,25 @@
     <t xml:space="preserve">8.5344123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40014839172363</t>
+    <t xml:space="preserve">8.40014743804932</t>
   </si>
   <si>
     <t xml:space="preserve">8.5103120803833</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46555709838867</t>
+    <t xml:space="preserve">8.46555805206299</t>
   </si>
   <si>
     <t xml:space="preserve">8.62392234802246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67556190490723</t>
+    <t xml:space="preserve">8.67556095123291</t>
   </si>
   <si>
     <t xml:space="preserve">8.71859645843506</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81326770782471</t>
+    <t xml:space="preserve">8.81326961517334</t>
   </si>
   <si>
     <t xml:space="preserve">8.66695499420166</t>
@@ -455,13 +455,13 @@
     <t xml:space="preserve">9.08868408203125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84769630432129</t>
+    <t xml:space="preserve">8.84769535064697</t>
   </si>
   <si>
     <t xml:space="preserve">8.86490917205811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9595832824707</t>
+    <t xml:space="preserve">8.95958232879639</t>
   </si>
   <si>
     <t xml:space="preserve">9.0542573928833</t>
@@ -470,25 +470,25 @@
     <t xml:space="preserve">9.00261688232422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06286430358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9854040145874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79605674743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75302219390869</t>
+    <t xml:space="preserve">9.06286334991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98540496826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79605579376221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75302410125732</t>
   </si>
   <si>
     <t xml:space="preserve">8.78744888305664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70998859405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73580932617188</t>
+    <t xml:space="preserve">8.70998764038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73580837249756</t>
   </si>
   <si>
     <t xml:space="preserve">8.96819019317627</t>
@@ -497,37 +497,37 @@
     <t xml:space="preserve">9.01122283935547</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0284366607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21778583526611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1661434173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20917701721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10589599609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12311172485352</t>
+    <t xml:space="preserve">9.02843570709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21778392791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16614437103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20917892456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10589694976807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12310981750488</t>
   </si>
   <si>
     <t xml:space="preserve">9.14032363891602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22639179229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38131237030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13171768188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94237041473389</t>
+    <t xml:space="preserve">9.22639083862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38131332397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13171672821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94236850738525</t>
   </si>
   <si>
     <t xml:space="preserve">9.01982879638672</t>
@@ -536,7 +536,7 @@
     <t xml:space="preserve">9.14892959594727</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07146835327148</t>
+    <t xml:space="preserve">9.0714693069458</t>
   </si>
   <si>
     <t xml:space="preserve">9.37270450592041</t>
@@ -545,31 +545,31 @@
     <t xml:space="preserve">9.47598648071289</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62230014801025</t>
+    <t xml:space="preserve">9.62229919433594</t>
   </si>
   <si>
     <t xml:space="preserve">9.69115352630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69976043701172</t>
+    <t xml:space="preserve">9.6997594833374</t>
   </si>
   <si>
     <t xml:space="preserve">9.48459243774414</t>
   </si>
   <si>
-    <t xml:space="preserve">9.260817527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09729099273682</t>
+    <t xml:space="preserve">9.26081848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0972900390625</t>
   </si>
   <si>
     <t xml:space="preserve">9.52762603759766</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79443454742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51041316986084</t>
+    <t xml:space="preserve">9.79443359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51041221618652</t>
   </si>
   <si>
     <t xml:space="preserve">9.32967185974121</t>
@@ -581,76 +581,76 @@
     <t xml:space="preserve">9.24360466003418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25221061706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33827781677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31245803833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08007717132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45016574859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56205368041992</t>
+    <t xml:space="preserve">9.25221157073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33827877044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31245708465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08007621765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45016670227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56205272674561</t>
   </si>
   <si>
     <t xml:space="preserve">9.27803039550781</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39852523803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40713214874268</t>
+    <t xml:space="preserve">9.39852619171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40713119506836</t>
   </si>
   <si>
     <t xml:space="preserve">9.53623294830322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65672588348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70836639404297</t>
+    <t xml:space="preserve">9.6567268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70836544036865</t>
   </si>
   <si>
     <t xml:space="preserve">9.83746719360352</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89771461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3280487060547</t>
+    <t xml:space="preserve">9.89771366119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.328049659729</t>
   </si>
   <si>
     <t xml:space="preserve">10.3882961273193</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1817350387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3022289276123</t>
+    <t xml:space="preserve">10.181734085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3022298812866</t>
   </si>
   <si>
     <t xml:space="preserve">10.3452634811401</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3710842132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4227237701416</t>
+    <t xml:space="preserve">10.3710832595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4227228164673</t>
   </si>
   <si>
     <t xml:space="preserve">10.5776433944702</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6034641265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5862503051758</t>
+    <t xml:space="preserve">10.6034650802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5862522125244</t>
   </si>
   <si>
     <t xml:space="preserve">10.5690383911133</t>
@@ -662,91 +662,91 @@
     <t xml:space="preserve">10.4915781021118</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5518255233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5173978805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5948572158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5001831054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4657573699951</t>
+    <t xml:space="preserve">10.5518264770508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5173969268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5948581695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5001840591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4657564163208</t>
   </si>
   <si>
     <t xml:space="preserve">10.207555770874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6895303726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4485425949097</t>
+    <t xml:space="preserve">10.6895313262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.448543548584</t>
   </si>
   <si>
     <t xml:space="preserve">10.4399366378784</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9133052825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8272399902344</t>
+    <t xml:space="preserve">10.9133043289185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8272390365601</t>
   </si>
   <si>
     <t xml:space="preserve">10.9046993255615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7669916152954</t>
+    <t xml:space="preserve">10.7669925689697</t>
   </si>
   <si>
     <t xml:space="preserve">10.8530588150024</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0768346786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1112585067749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0424060821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7842054367065</t>
+    <t xml:space="preserve">11.0768337249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1112604141235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.042407989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7842063903809</t>
   </si>
   <si>
     <t xml:space="preserve">11.0337991714478</t>
   </si>
   <si>
-    <t xml:space="preserve">11.188720703125</t>
+    <t xml:space="preserve">11.1887197494507</t>
   </si>
   <si>
     <t xml:space="preserve">11.3608551025391</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3264274597168</t>
+    <t xml:space="preserve">11.3264284133911</t>
   </si>
   <si>
     <t xml:space="preserve">11.1629009246826</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1715059280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2661800384521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1801128387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4383153915405</t>
+    <t xml:space="preserve">11.1715078353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2661819458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1801137924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4383144378662</t>
   </si>
   <si>
     <t xml:space="preserve">11.2920007705688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4469213485718</t>
+    <t xml:space="preserve">11.4469223022461</t>
   </si>
   <si>
     <t xml:space="preserve">11.6620903015137</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">11.5846300125122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6362686157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6706972122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6965169906616</t>
+    <t xml:space="preserve">11.636269569397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6706962585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6965160369873</t>
   </si>
   <si>
     <t xml:space="preserve">11.756763458252</t>
@@ -776,121 +776,121 @@
     <t xml:space="preserve">11.928897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9202909469604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9375038146973</t>
+    <t xml:space="preserve">11.9202899932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9375047683716</t>
   </si>
   <si>
     <t xml:space="preserve">12.169885635376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1870975494385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1182470321655</t>
+    <t xml:space="preserve">12.1870994567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1182460784912</t>
   </si>
   <si>
     <t xml:space="preserve">12.1096382141113</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1526737213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.195704460144</t>
+    <t xml:space="preserve">12.1526727676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1957054138184</t>
   </si>
   <si>
     <t xml:space="preserve">12.1440649032593</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0149631500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1268510818481</t>
+    <t xml:space="preserve">12.014965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1268520355225</t>
   </si>
   <si>
     <t xml:space="preserve">11.963324546814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3936605453491</t>
+    <t xml:space="preserve">12.3936595916748</t>
   </si>
   <si>
     <t xml:space="preserve">12.496940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3506269454956</t>
+    <t xml:space="preserve">12.3506259918213</t>
   </si>
   <si>
     <t xml:space="preserve">12.4280853271484</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4194812774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5916147232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4883346557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7379283905029</t>
+    <t xml:space="preserve">12.4194803237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5916137695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4883337020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7379293441772</t>
   </si>
   <si>
     <t xml:space="preserve">12.8412084579468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7637481689453</t>
+    <t xml:space="preserve">12.763747215271</t>
   </si>
   <si>
     <t xml:space="preserve">12.9617033004761</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9961290359497</t>
+    <t xml:space="preserve">12.996129989624</t>
   </si>
   <si>
     <t xml:space="preserve">12.7207155227661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6346483230591</t>
+    <t xml:space="preserve">12.6346473693848</t>
   </si>
   <si>
     <t xml:space="preserve">12.6432542800903</t>
   </si>
   <si>
-    <t xml:space="preserve">12.522759437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0666055679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9719314575195</t>
+    <t xml:space="preserve">12.5227613449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0666046142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9719305038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2387380599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3696813583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3871393203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5006237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6053771972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2125511169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0816078186035</t>
   </si>
   <si>
     <t xml:space="preserve">12.2387390136719</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3696794509888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3871402740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5006237030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6053762435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.212550163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0816078186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2387399673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1863603591919</t>
+    <t xml:space="preserve">12.1863613128662</t>
   </si>
   <si>
     <t xml:space="preserve">12.0205011367798</t>
@@ -905,25 +905,25 @@
     <t xml:space="preserve">11.6102151870728</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6014862060547</t>
+    <t xml:space="preserve">11.6014852523804</t>
   </si>
   <si>
     <t xml:space="preserve">11.4356250762939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3570604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.645133972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8371829986572</t>
+    <t xml:space="preserve">11.3570594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6451320648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8371820449829</t>
   </si>
   <si>
     <t xml:space="preserve">11.6364040374756</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6975107192993</t>
+    <t xml:space="preserve">11.697509765625</t>
   </si>
   <si>
     <t xml:space="preserve">11.5752973556519</t>
@@ -932,10 +932,10 @@
     <t xml:space="preserve">11.3221426010132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4268951416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1562814712524</t>
+    <t xml:space="preserve">11.4268970489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1562824249268</t>
   </si>
   <si>
     <t xml:space="preserve">11.3483304977417</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">10.9642333984375</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1824703216553</t>
+    <t xml:space="preserve">11.1824712753296</t>
   </si>
   <si>
     <t xml:space="preserve">11.1300935745239</t>
@@ -953,13 +953,13 @@
     <t xml:space="preserve">11.0427989959717</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1475534439087</t>
+    <t xml:space="preserve">11.1475524902344</t>
   </si>
   <si>
     <t xml:space="preserve">11.845911026001</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9419355392456</t>
+    <t xml:space="preserve">11.9419364929199</t>
   </si>
   <si>
     <t xml:space="preserve">11.7062397003174</t>
@@ -968,10 +968,10 @@
     <t xml:space="preserve">12.0641489028931</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8808288574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8284530639648</t>
+    <t xml:space="preserve">11.8808298110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8284521102905</t>
   </si>
   <si>
     <t xml:space="preserve">11.7760744094849</t>
@@ -983,13 +983,13 @@
     <t xml:space="preserve">11.6189451217651</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4007081985474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3919773101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4094381332397</t>
+    <t xml:space="preserve">11.400707244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.391978263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4094362258911</t>
   </si>
   <si>
     <t xml:space="preserve">11.2872247695923</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">11.3308706283569</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2697639465332</t>
+    <t xml:space="preserve">11.2697649002075</t>
   </si>
   <si>
     <t xml:space="preserve">11.2784948348999</t>
@@ -1010,34 +1010,34 @@
     <t xml:space="preserve">11.1737413406372</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2610368728638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0951747894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3134145736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6713209152222</t>
+    <t xml:space="preserve">11.2610359191895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0951766967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3134126663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6713218688965</t>
   </si>
   <si>
     <t xml:space="preserve">11.5578384399414</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4880018234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4530849456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6625928878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7411584854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7935352325439</t>
+    <t xml:space="preserve">11.4880027770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.453085899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6625909805298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7411575317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7935342788696</t>
   </si>
   <si>
     <t xml:space="preserve">11.8109931945801</t>
@@ -1064,7 +1064,7 @@
     <t xml:space="preserve">12.3173036575317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3784112930298</t>
+    <t xml:space="preserve">12.3784103393555</t>
   </si>
   <si>
     <t xml:space="preserve">12.4918937683105</t>
@@ -1073,28 +1073,28 @@
     <t xml:space="preserve">12.5355415344238</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5966482162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4744358062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5180826187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4831647872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228361129761</t>
+    <t xml:space="preserve">12.5966472625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4744338989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5180816650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4831638336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228342056274</t>
   </si>
   <si>
     <t xml:space="preserve">12.6141061782837</t>
   </si>
   <si>
-    <t xml:space="preserve">12.762508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7712383270264</t>
+    <t xml:space="preserve">12.7625093460083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7712364196777</t>
   </si>
   <si>
     <t xml:space="preserve">12.8236141204834</t>
@@ -1118,16 +1118,16 @@
     <t xml:space="preserve">12.2474679946899</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4482460021973</t>
+    <t xml:space="preserve">12.4482469558716</t>
   </si>
   <si>
     <t xml:space="preserve">12.4395160675049</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4045991897583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3609504699707</t>
+    <t xml:space="preserve">12.4046001434326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3609523773193</t>
   </si>
   <si>
     <t xml:space="preserve">11.7236986160278</t>
@@ -1139,40 +1139,40 @@
     <t xml:space="preserve">11.0864458084106</t>
   </si>
   <si>
-    <t xml:space="preserve">11.295952796936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2173891067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4181661605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3396005630493</t>
+    <t xml:space="preserve">11.2959537506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2173881530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4181671142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3396015167236</t>
   </si>
   <si>
     <t xml:space="preserve">11.1650114059448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1911993026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1213645935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1126346588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0515289306641</t>
+    <t xml:space="preserve">11.1912002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1213655471802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1126337051392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0515279769897</t>
   </si>
   <si>
     <t xml:space="preserve">10.9991512298584</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1999282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0777177810669</t>
+    <t xml:space="preserve">11.1999292373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0777168273926</t>
   </si>
   <si>
     <t xml:space="preserve">11.2261180877686</t>
@@ -1184,10 +1184,10 @@
     <t xml:space="preserve">10.8507509231567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8682088851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.496732711792</t>
+    <t xml:space="preserve">10.8682079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4967317581177</t>
   </si>
   <si>
     <t xml:space="preserve">11.5665674209595</t>
@@ -1196,16 +1196,16 @@
     <t xml:space="preserve">11.5403785705566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5491104125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6276731491089</t>
+    <t xml:space="preserve">11.5491094589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6276741027832</t>
   </si>
   <si>
     <t xml:space="preserve">11.8720998764038</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7586164474487</t>
+    <t xml:space="preserve">11.758617401123</t>
   </si>
   <si>
     <t xml:space="preserve">10.8071041107178</t>
@@ -1214,31 +1214,31 @@
     <t xml:space="preserve">10.6936197280884</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6150550842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6587009429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5626764297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5277605056763</t>
+    <t xml:space="preserve">10.6150541305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6587018966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5626773834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.527759552002</t>
   </si>
   <si>
     <t xml:space="preserve">10.5975952148438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5364894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4753828048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4666547775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2920637130737</t>
+    <t xml:space="preserve">10.53648853302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4753837585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4666538238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2920627593994</t>
   </si>
   <si>
     <t xml:space="preserve">10.3531694412231</t>
@@ -1253,10 +1253,10 @@
     <t xml:space="preserve">10.0389089584351</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82940101623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71591663360596</t>
+    <t xml:space="preserve">9.82940196990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71591758728027</t>
   </si>
   <si>
     <t xml:space="preserve">10.4841117858887</t>
@@ -1265,22 +1265,22 @@
     <t xml:space="preserve">10.684889793396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9816932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1039047241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.990421295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7372665405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6761617660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.833291053772</t>
+    <t xml:space="preserve">10.9816923141479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1039056777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9904222488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.737268447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6761627197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8332920074463</t>
   </si>
   <si>
     <t xml:space="preserve">10.7809152603149</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">10.9293155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7198095321655</t>
+    <t xml:space="preserve">10.7198076248169</t>
   </si>
   <si>
     <t xml:space="preserve">10.8245620727539</t>
@@ -1304,7 +1304,7 @@
     <t xml:space="preserve">10.7983732223511</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8158330917358</t>
+    <t xml:space="preserve">10.8158311843872</t>
   </si>
   <si>
     <t xml:space="preserve">10.6325130462646</t>
@@ -1313,577 +1313,580 @@
     <t xml:space="preserve">10.6063251495361</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6674327850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5190315246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4443559646606</t>
+    <t xml:space="preserve">10.6674318313599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5190305709839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4443550109863</t>
   </si>
   <si>
     <t xml:space="preserve">10.9205865859985</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6499719619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5801362991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.431736946106</t>
+    <t xml:space="preserve">10.6499729156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5801372528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4317359924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3007936477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4164323806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7633504867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.683292388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1636400222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0657920837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9857339859009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.603235244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8523035049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8878841400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0302104949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0746850967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0480012893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1013736724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.33265209198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0391054153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1369533538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9145708084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7722454071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7277679443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5142812728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5053863525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2830028533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4431200027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4253282546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2563171386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3096885681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0961999893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1228857040405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.211838722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2385263442993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3541660308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6299209594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6655025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6477108001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8967800140381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8700942993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8167219161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7099781036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4520130157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4964904785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3808517456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.398642539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2029447555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4075365066528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6121301651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1406774520874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.060619354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.131781578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0339326858521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90939903259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94497966766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0428295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82044410705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8293399810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98056125640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2741069793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2474203109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1139917373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91829490661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92718887329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0873050689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96276950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0695142745972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1851530075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5587587356567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5943393707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3630609512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3274784088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2296304702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0517244338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2207355499268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87381744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55358600616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57137584686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01097106933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83751201629639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74855804443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41943073272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73966312408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83306121826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7174243927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60178565979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46390724182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53062152862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37940120697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65960502624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5261754989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79303455352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69963264465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89088344573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80193042755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75745296478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53507041931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41053485870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3126859664917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07695960998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01024436950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05472087860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11698913574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29489517211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32158184051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29934406280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55286121368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5884428024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93091201782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92201709747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85974884033203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07323741912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79748153686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77079677581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45945930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49059295654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27265739440918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38385009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64181423187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09920024871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97911214828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29044914245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10364627838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1525707244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86347246170044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91239738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97021484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908357620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25486755371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22818088531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05544567108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14439964294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78858757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6907377243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70852947235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76189994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67294692993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80637741088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81082344055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77524375915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91312217712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17998218536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88198757171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87754058837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86864376068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85085391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81527328491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81972026824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54841232299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45056438446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70408248901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89532947540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09102916717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97538948059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42905139923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29561996459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34899234771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62474632263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65143489837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4112606048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46463203430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66032791137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26893424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1355037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10881900787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11771392822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0643424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04655265808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23335361480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4735279083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76707458496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59806156158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51800441741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33120155334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2867259979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08213233947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96649360656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00207424163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99317836761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1977710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86492156982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78486347198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75817680358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99835109710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4342222213745</t>
   </si>
   <si>
     <t xml:space="preserve">10.3007926940918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4164323806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7633504867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6832933425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1636400222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0657920837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9857330322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6032342910767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8523044586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.887885093689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0302095413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0746850967407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0480012893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1013736724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.33265209198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0391044616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1369533538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9145708084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7722454071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7277679443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142812728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5053863525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2830038070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4431190490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4253282546997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2563180923462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3096876144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0961999893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1228866577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.211838722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.238525390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3541650772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6299209594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6655025482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6477098464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8967800140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8700942993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8167219161987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7099781036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4520139694214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4964904785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3808517456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.398642539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2029447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4075355529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6121292114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1406774520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.060619354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.131781578064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0339326858521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90939903259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94497966766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0428295135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82044506072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82934093475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98056125640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2741069793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2474203109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1139917373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91829490661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92718887329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0873050689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96276950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0695142745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1851530075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5587577819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5943403244019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3630609512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3274793624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2296314239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0517234802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2207345962524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87381744384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55358505249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57137680053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01097106933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83751106262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74855804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41943073272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73966217041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83306217193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7174243927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60178565979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46390724182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53062152862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37940216064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65960502624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5261754989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79303455352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69963359832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89088249206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80192947387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75745296478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53507041931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41053581237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31268692016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07695960998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01024532318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05472183227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11698818206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29489421844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32158184051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29934310913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55286026000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58844184875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93091106414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92201709747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85974884033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0732364654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79748249053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77079582214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45945930480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49059295654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27265644073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38384914398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64181423187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09920024871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97911214828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29044914245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10364627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15257167816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86347246170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91239738464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97021579742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908357620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25486660003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22818183898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05544662475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14439964294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78858757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69073867797852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70852947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76189994812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67294692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80637741088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81082344055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77524375915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91312217712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17998123168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88198757171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87754058837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86864376068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85085391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81527233123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81972122192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54841232299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45056438446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70408153533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89532947540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09102916717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9753885269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42905139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29561901092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34899234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62474727630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65143394470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41125965118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46463203430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66032886505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26893424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1355037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10881805419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11771392822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0643424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04655265808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23335361480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4735279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76707458496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59806156158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51800441741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33120155334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2867259979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08213233947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9664945602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0020751953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99317932128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19777202606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86492156982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78486347198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75817680358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99835205078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4342222213745</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.5676527023315</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1673631668091</t>
+    <t xml:space="preserve">10.1673622131348</t>
   </si>
   <si>
     <t xml:space="preserve">9.97166538238525</t>
@@ -1895,25 +1898,25 @@
     <t xml:space="preserve">9.18887615203857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27782917022705</t>
+    <t xml:space="preserve">9.27783012390137</t>
   </si>
   <si>
     <t xml:space="preserve">9.16219043731689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07778263092041</t>
+    <t xml:space="preserve">9.07778358459473</t>
   </si>
   <si>
     <t xml:space="preserve">9.0914192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05959987640381</t>
+    <t xml:space="preserve">9.05960083007812</t>
   </si>
   <si>
     <t xml:space="preserve">8.72776317596436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84595203399658</t>
+    <t xml:space="preserve">8.8459529876709</t>
   </si>
   <si>
     <t xml:space="preserve">8.89140892028809</t>
@@ -1934,34 +1937,31 @@
     <t xml:space="preserve">8.48229503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68230724334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8823184967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9959602355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9777774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21870040893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07323741912842</t>
+    <t xml:space="preserve">8.68230628967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88231754302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99596118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97777652740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21870136260986</t>
   </si>
   <si>
     <t xml:space="preserve">9.04596424102783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04141807556152</t>
+    <t xml:space="preserve">9.04141712188721</t>
   </si>
   <si>
     <t xml:space="preserve">9.26415824890137</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14596939086914</t>
+    <t xml:space="preserve">9.14596843719482</t>
   </si>
   <si>
     <t xml:space="preserve">9.39143753051758</t>
@@ -1973,7 +1973,7 @@
     <t xml:space="preserve">9.17324447631836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03232574462891</t>
+    <t xml:space="preserve">9.03232669830322</t>
   </si>
   <si>
     <t xml:space="preserve">9.20960998535156</t>
@@ -1982,19 +1982,19 @@
     <t xml:space="preserve">9.44598579406738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38234519958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6187219619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66417980194092</t>
+    <t xml:space="preserve">9.38234615325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61872291564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6641788482666</t>
   </si>
   <si>
     <t xml:space="preserve">9.57326602935791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25506591796875</t>
+    <t xml:space="preserve">9.25506496429443</t>
   </si>
   <si>
     <t xml:space="preserve">9.12778568267822</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">8.76412963867188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79140472412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93686771392822</t>
+    <t xml:space="preserve">8.79140377044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93686676025391</t>
   </si>
   <si>
     <t xml:space="preserve">9.24597549438477</t>
@@ -2024,7 +2024,7 @@
     <t xml:space="preserve">9.34597969055176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47774887084961</t>
+    <t xml:space="preserve">8.47774982452393</t>
   </si>
   <si>
     <t xml:space="preserve">8.4277458190918</t>
@@ -2033,7 +2033,7 @@
     <t xml:space="preserve">8.46865749359131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25046348571777</t>
+    <t xml:space="preserve">8.25046443939209</t>
   </si>
   <si>
     <t xml:space="preserve">8.05499839782715</t>
@@ -2042,7 +2042,7 @@
     <t xml:space="preserve">7.89589786529541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92771768569946</t>
+    <t xml:space="preserve">7.92771863937378</t>
   </si>
   <si>
     <t xml:space="preserve">7.90953588485718</t>
@@ -2051,16 +2051,16 @@
     <t xml:space="preserve">7.65497589111328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56406259536743</t>
+    <t xml:space="preserve">7.56406211853027</t>
   </si>
   <si>
     <t xml:space="preserve">7.65952110290527</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48678398132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46860218048096</t>
+    <t xml:space="preserve">7.4867844581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46860265731812</t>
   </si>
   <si>
     <t xml:space="preserve">7.54587888717651</t>
@@ -2072,13 +2072,13 @@
     <t xml:space="preserve">7.7868013381958</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66861248016357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53224229812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45496416091919</t>
+    <t xml:space="preserve">7.66861343383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53224182128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45496511459351</t>
   </si>
   <si>
     <t xml:space="preserve">7.71407032012939</t>
@@ -2087,7 +2087,7 @@
     <t xml:space="preserve">7.7231616973877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59588098526001</t>
+    <t xml:space="preserve">7.59588146209717</t>
   </si>
   <si>
     <t xml:space="preserve">7.8049840927124</t>
@@ -2102,7 +2102,7 @@
     <t xml:space="preserve">8.35501480102539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52320671081543</t>
+    <t xml:space="preserve">8.52320766448975</t>
   </si>
   <si>
     <t xml:space="preserve">8.59139251708984</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">8.49138641357422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60503101348877</t>
+    <t xml:space="preserve">8.60503005981445</t>
   </si>
   <si>
     <t xml:space="preserve">8.15954971313477</t>
@@ -2129,19 +2129,19 @@
     <t xml:space="preserve">7.88680791854858</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02317905426025</t>
+    <t xml:space="preserve">8.02317810058594</t>
   </si>
   <si>
     <t xml:space="preserve">8.11863899230957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12773036956787</t>
+    <t xml:space="preserve">8.12772941589355</t>
   </si>
   <si>
     <t xml:space="preserve">7.95499324798584</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78225612640381</t>
+    <t xml:space="preserve">7.78225708007812</t>
   </si>
   <si>
     <t xml:space="preserve">7.6731595993042</t>
@@ -2153,7 +2153,7 @@
     <t xml:space="preserve">7.7186164855957</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58224439620972</t>
+    <t xml:space="preserve">7.58224487304688</t>
   </si>
   <si>
     <t xml:space="preserve">7.74589061737061</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">8.09136390686035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20500659942627</t>
+    <t xml:space="preserve">8.20500755310059</t>
   </si>
   <si>
     <t xml:space="preserve">8.48684120178223</t>
@@ -2186,7 +2186,7 @@
     <t xml:space="preserve">8.59593772888184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66866970062256</t>
+    <t xml:space="preserve">8.66866874694824</t>
   </si>
   <si>
     <t xml:space="preserve">8.9686861038208</t>
@@ -2198,10 +2198,10 @@
     <t xml:space="preserve">8.74594593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29143238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45507717132568</t>
+    <t xml:space="preserve">9.29143142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.455078125</t>
   </si>
   <si>
     <t xml:space="preserve">9.48235130310059</t>
@@ -2210,34 +2210,34 @@
     <t xml:space="preserve">9.71872806549072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90964794158936</t>
+    <t xml:space="preserve">9.90964889526367</t>
   </si>
   <si>
     <t xml:space="preserve">10.1096591949463</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0551109313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81873416900635</t>
+    <t xml:space="preserve">10.0551118850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81873512268066</t>
   </si>
   <si>
     <t xml:space="preserve">9.69145393371582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83691692352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58235740661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76418495178223</t>
+    <t xml:space="preserve">9.83691596984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58235645294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76418590545654</t>
   </si>
   <si>
     <t xml:space="preserve">9.65508842468262</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82782459259033</t>
+    <t xml:space="preserve">9.82782554626465</t>
   </si>
   <si>
     <t xml:space="preserve">10.0005626678467</t>
@@ -2267,10 +2267,10 @@
     <t xml:space="preserve">10.3642196655273</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2369403839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2005739212036</t>
+    <t xml:space="preserve">10.2369413375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2005748748779</t>
   </si>
   <si>
     <t xml:space="preserve">10.2551221847534</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">10.3278541564941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0278358459473</t>
+    <t xml:space="preserve">10.0278367996216</t>
   </si>
   <si>
     <t xml:space="preserve">10.0732946395874</t>
@@ -2297,7 +2297,7 @@
     <t xml:space="preserve">9.63690567016602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87328338623047</t>
+    <t xml:space="preserve">9.87328243255615</t>
   </si>
   <si>
     <t xml:space="preserve">9.98238086700439</t>
@@ -2306,13 +2306,13 @@
     <t xml:space="preserve">10.0642023086548</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0369291305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0460195541382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1187496185303</t>
+    <t xml:space="preserve">10.0369281768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0460186004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1187505722046</t>
   </si>
   <si>
     <t xml:space="preserve">10.091477394104</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">9.60054016113281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4641695022583</t>
+    <t xml:space="preserve">9.46416854858398</t>
   </si>
   <si>
     <t xml:space="preserve">9.41871070861816</t>
@@ -2354,7 +2354,7 @@
     <t xml:space="preserve">9.55508232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5914478302002</t>
+    <t xml:space="preserve">9.59144878387451</t>
   </si>
   <si>
     <t xml:space="preserve">9.4914436340332</t>
@@ -2366,10 +2366,10 @@
     <t xml:space="preserve">8.70048904418945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64139461517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64594173431396</t>
+    <t xml:space="preserve">8.64139556884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64594078063965</t>
   </si>
   <si>
     <t xml:space="preserve">8.40047264099121</t>
@@ -2390,7 +2390,7 @@
     <t xml:space="preserve">7.37768745422363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44587278366089</t>
+    <t xml:space="preserve">7.44587326049805</t>
   </si>
   <si>
     <t xml:space="preserve">6.81856536865234</t>
@@ -2405,28 +2405,28 @@
     <t xml:space="preserve">6.36399364471436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61855411529541</t>
+    <t xml:space="preserve">6.61855363845825</t>
   </si>
   <si>
     <t xml:space="preserve">6.09125137329102</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19125699996948</t>
+    <t xml:space="preserve">6.19125652313232</t>
   </si>
   <si>
     <t xml:space="preserve">6.79129028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37314081192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00954151153564</t>
+    <t xml:space="preserve">7.37314128875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00954055786133</t>
   </si>
   <si>
     <t xml:space="preserve">7.07312488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27768182754517</t>
+    <t xml:space="preserve">7.27768135070801</t>
   </si>
   <si>
     <t xml:space="preserve">6.70946741104126</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">5.90487766265869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14579963684082</t>
+    <t xml:space="preserve">6.14580011367798</t>
   </si>
   <si>
     <t xml:space="preserve">6.28217124938965</t>
@@ -2483,13 +2483,13 @@
     <t xml:space="preserve">6.63673639297485</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83220243453979</t>
+    <t xml:space="preserve">6.83220291137695</t>
   </si>
   <si>
     <t xml:space="preserve">7.08676242828369</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94129943847656</t>
+    <t xml:space="preserve">6.9412989616394</t>
   </si>
   <si>
     <t xml:space="preserve">7.1185827255249</t>
@@ -2498,16 +2498,16 @@
     <t xml:space="preserve">7.05948781967163</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96857357025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72310590744019</t>
+    <t xml:space="preserve">6.96857404708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72310543060303</t>
   </si>
   <si>
     <t xml:space="preserve">6.71855926513672</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59582567214966</t>
+    <t xml:space="preserve">6.59582614898682</t>
   </si>
   <si>
     <t xml:space="preserve">6.45490884780884</t>
@@ -2516,34 +2516,34 @@
     <t xml:space="preserve">5.98215436935425</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03215742111206</t>
+    <t xml:space="preserve">6.03215789794922</t>
   </si>
   <si>
     <t xml:space="preserve">6.49127388000488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45945453643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44581699371338</t>
+    <t xml:space="preserve">6.45945501327515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44581651687622</t>
   </si>
   <si>
     <t xml:space="preserve">6.62764453887939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83674812316895</t>
+    <t xml:space="preserve">6.83674764633179</t>
   </si>
   <si>
     <t xml:space="preserve">7.42314481735229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79134654998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64133930206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60042762756348</t>
+    <t xml:space="preserve">7.79134750366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64133834838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60042715072632</t>
   </si>
   <si>
     <t xml:space="preserve">7.68679523468018</t>
@@ -2555,7 +2555,7 @@
     <t xml:space="preserve">7.96408414840698</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8322582244873</t>
+    <t xml:space="preserve">7.83225917816162</t>
   </si>
   <si>
     <t xml:space="preserve">7.35950517654419</t>
@@ -2564,7 +2564,7 @@
     <t xml:space="preserve">7.62315559387207</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61861038208008</t>
+    <t xml:space="preserve">7.61861085891724</t>
   </si>
   <si>
     <t xml:space="preserve">7.47314739227295</t>
@@ -2573,25 +2573,25 @@
     <t xml:space="preserve">7.4958758354187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43678188323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36405086517334</t>
+    <t xml:space="preserve">7.43678140640259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36405038833618</t>
   </si>
   <si>
     <t xml:space="preserve">7.46405601501465</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50951290130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4776930809021</t>
+    <t xml:space="preserve">7.50951242446899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47769355773926</t>
   </si>
   <si>
     <t xml:space="preserve">7.4322361946106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67770481109619</t>
+    <t xml:space="preserve">7.67770385742188</t>
   </si>
   <si>
     <t xml:space="preserve">7.52315044403076</t>
@@ -2615,13 +2615,13 @@
     <t xml:space="preserve">7.42769002914429</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94584512710571</t>
+    <t xml:space="preserve">6.94584560394287</t>
   </si>
   <si>
     <t xml:space="preserve">6.85493040084839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93675327301025</t>
+    <t xml:space="preserve">6.93675374984741</t>
   </si>
   <si>
     <t xml:space="preserve">7.00039386749268</t>
@@ -2630,10 +2630,10 @@
     <t xml:space="preserve">6.92766284942627</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95493698120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08221626281738</t>
+    <t xml:space="preserve">6.95493650436401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08221673965454</t>
   </si>
   <si>
     <t xml:space="preserve">7.31859302520752</t>
@@ -2648,7 +2648,7 @@
     <t xml:space="preserve">7.30495643615723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26404523849487</t>
+    <t xml:space="preserve">7.26404476165771</t>
   </si>
   <si>
     <t xml:space="preserve">7.20040559768677</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">7.33223056793213</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34586763381958</t>
+    <t xml:space="preserve">7.34586715698242</t>
   </si>
   <si>
     <t xml:space="preserve">7.35495901107788</t>
@@ -2666,7 +2666,7 @@
     <t xml:space="preserve">7.27313661575317</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62770223617554</t>
+    <t xml:space="preserve">7.62770175933838</t>
   </si>
   <si>
     <t xml:space="preserve">7.55951642990112</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">8.2641019821167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85044145584106</t>
+    <t xml:space="preserve">7.85044050216675</t>
   </si>
   <si>
     <t xml:space="preserve">7.68225002288818</t>
@@ -2696,10 +2696,10 @@
     <t xml:space="preserve">7.29586458206177</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32768440246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57769918441772</t>
+    <t xml:space="preserve">7.32768487930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57769870758057</t>
   </si>
   <si>
     <t xml:space="preserve">7.75498199462891</t>
@@ -2711,10 +2711,10 @@
     <t xml:space="preserve">8.20955276489258</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29137420654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01863193511963</t>
+    <t xml:space="preserve">8.29137516021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01863288879395</t>
   </si>
   <si>
     <t xml:space="preserve">7.96863079071045</t>
@@ -2726,16 +2726,16 @@
     <t xml:space="preserve">7.90499067306519</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85498666763306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05954360961914</t>
+    <t xml:space="preserve">7.85498762130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05954456329346</t>
   </si>
   <si>
     <t xml:space="preserve">8.08681869506836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25955581665039</t>
+    <t xml:space="preserve">8.25955486297607</t>
   </si>
   <si>
     <t xml:space="preserve">8.28228378295898</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">9.93692207336426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74600315093994</t>
+    <t xml:space="preserve">9.74600219726562</t>
   </si>
   <si>
     <t xml:space="preserve">9.70963764190674</t>
@@ -2792,7 +2792,7 @@
     <t xml:space="preserve">9.88237380981445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80964279174805</t>
+    <t xml:space="preserve">9.80964183807373</t>
   </si>
   <si>
     <t xml:space="preserve">9.85510063171387</t>
@@ -2804,7 +2804,7 @@
     <t xml:space="preserve">9.72782039642334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96419715881348</t>
+    <t xml:space="preserve">9.96419811248779</t>
   </si>
   <si>
     <t xml:space="preserve">9.84600830078125</t>
@@ -2816,34 +2816,34 @@
     <t xml:space="preserve">10.1005687713623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2642135620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4642238616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4914979934692</t>
+    <t xml:space="preserve">10.264214515686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4642248153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4914989471436</t>
   </si>
   <si>
     <t xml:space="preserve">10.3005790710449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0187473297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2460308074951</t>
+    <t xml:space="preserve">10.0187463760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2460298538208</t>
   </si>
   <si>
     <t xml:space="preserve">9.80055046081543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86419010162354</t>
+    <t xml:space="preserve">9.86419105529785</t>
   </si>
   <si>
     <t xml:space="preserve">9.79145908355713</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1823921203613</t>
+    <t xml:space="preserve">10.182391166687</t>
   </si>
   <si>
     <t xml:space="preserve">9.91873931884766</t>
@@ -2861,7 +2861,7 @@
     <t xml:space="preserve">9.60963153839111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68236255645752</t>
+    <t xml:space="preserve">9.68236351013184</t>
   </si>
   <si>
     <t xml:space="preserve">9.52780818939209</t>
@@ -2870,10 +2870,10 @@
     <t xml:space="preserve">9.51871776580811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22779273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40052890777588</t>
+    <t xml:space="preserve">9.22779178619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40052795410156</t>
   </si>
   <si>
     <t xml:space="preserve">9.16415119171143</t>
@@ -4701,6 +4701,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.4479999542236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3900003433228</t>
   </si>
 </sst>
 </file>
@@ -26848,7 +26851,7 @@
         <v>11.5680379867554</v>
       </c>
       <c r="G839" t="s">
-        <v>440</v>
+        <v>622</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26900,7 +26903,7 @@
         <v>11.8677282333374</v>
       </c>
       <c r="G841" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -27082,7 +27085,7 @@
         <v>11.4181928634644</v>
       </c>
       <c r="G848" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -27134,7 +27137,7 @@
         <v>11.1984195709229</v>
       </c>
       <c r="G850" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -27186,7 +27189,7 @@
         <v>11.0685548782349</v>
       </c>
       <c r="G852" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27264,7 +27267,7 @@
         <v>10.3193292617798</v>
       </c>
       <c r="G855" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27290,7 +27293,7 @@
         <v>10.419225692749</v>
       </c>
       <c r="G856" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27316,7 +27319,7 @@
         <v>10.2893600463867</v>
       </c>
       <c r="G857" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27368,7 +27371,7 @@
         <v>9.97468566894531</v>
       </c>
       <c r="G859" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27394,7 +27397,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G860" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27420,7 +27423,7 @@
         <v>9.9547061920166</v>
       </c>
       <c r="G861" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27446,7 +27449,7 @@
         <v>9.59008312225342</v>
       </c>
       <c r="G862" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27472,7 +27475,7 @@
         <v>9.71994876861572</v>
       </c>
       <c r="G863" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27498,7 +27501,7 @@
         <v>9.7698974609375</v>
       </c>
       <c r="G864" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27524,7 +27527,7 @@
         <v>9.77988719940186</v>
       </c>
       <c r="G865" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27550,7 +27553,7 @@
         <v>9.65002059936523</v>
       </c>
       <c r="G866" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27576,7 +27579,7 @@
         <v>9.73992824554443</v>
       </c>
       <c r="G867" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -27602,7 +27605,7 @@
         <v>9.60007286071777</v>
       </c>
       <c r="G868" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -27628,7 +27631,7 @@
         <v>9.32036209106445</v>
       </c>
       <c r="G869" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -27654,7 +27657,7 @@
         <v>9.54013538360596</v>
       </c>
       <c r="G870" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27680,7 +27683,7 @@
         <v>9.75990772247314</v>
       </c>
       <c r="G871" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27706,7 +27709,7 @@
         <v>9.88477897644043</v>
       </c>
       <c r="G872" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27732,7 +27735,7 @@
         <v>9.8647985458374</v>
       </c>
       <c r="G873" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27758,7 +27761,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G874" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27784,7 +27787,7 @@
         <v>10.1295261383057</v>
       </c>
       <c r="G875" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27810,7 +27813,7 @@
         <v>9.96969127655029</v>
       </c>
       <c r="G876" t="s">
-        <v>645</v>
+        <v>548</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -27888,7 +27891,7 @@
         <v>9.8647985458374</v>
       </c>
       <c r="G879" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -28070,7 +28073,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G886" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -28096,7 +28099,7 @@
         <v>9.97468566894531</v>
       </c>
       <c r="G887" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -28408,7 +28411,7 @@
         <v>9.96969127655029</v>
       </c>
       <c r="G899" t="s">
-        <v>645</v>
+        <v>548</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28434,7 +28437,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G900" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28668,7 +28671,7 @@
         <v>9.73992824554443</v>
       </c>
       <c r="G909" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -29526,7 +29529,7 @@
         <v>9.65002059936523</v>
       </c>
       <c r="G942" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -37144,7 +37147,7 @@
         <v>9.54013538360596</v>
       </c>
       <c r="G1235" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -61020,7 +61023,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.6495833333</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>345950</v>
@@ -61041,6 +61044,32 @@
         <v>1562</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6495486111</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>201020</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>10.4899997711182</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>10.3739995956421</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>10.4499998092651</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>10.3900003433228</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BRE.MI.xlsx
+++ b/data/BRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="1568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="1569">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43071699142456</t>
+    <t xml:space="preserve">7.4307165145874</t>
   </si>
   <si>
     <t xml:space="preserve">BRE.MI</t>
@@ -50,61 +50,61 @@
     <t xml:space="preserve">7.17991924285889</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76305341720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77999877929688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66307401657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84100580215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02910184860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7901668548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4393892288208</t>
+    <t xml:space="preserve">6.76305389404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77999925613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6630744934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84100484848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02910137176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79016733169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43938970565796</t>
   </si>
   <si>
     <t xml:space="preserve">6.42413902282715</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50378322601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16317367553711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42922258377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47667074203491</t>
+    <t xml:space="preserve">6.50378370285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16317415237427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42922210693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47667121887207</t>
   </si>
   <si>
     <t xml:space="preserve">6.53598022460938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54953718185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62070941925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45803022384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39194202423096</t>
+    <t xml:space="preserve">6.54953765869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62070894241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45802974700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3919415473938</t>
   </si>
   <si>
     <t xml:space="preserve">6.28009939193726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21062231063843</t>
+    <t xml:space="preserve">6.21062183380127</t>
   </si>
   <si>
     <t xml:space="preserve">6.078444480896</t>
@@ -113,31 +113,31 @@
     <t xml:space="preserve">5.91237688064575</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55482149124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71749925613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93101692199707</t>
+    <t xml:space="preserve">5.5548210144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71749973297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93101644515991</t>
   </si>
   <si>
     <t xml:space="preserve">5.88187456130981</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94118499755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25976371765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19198131561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34279870986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36482763290405</t>
+    <t xml:space="preserve">5.94118452072144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25976514816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19198083877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3427996635437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36482858657837</t>
   </si>
   <si>
     <t xml:space="preserve">6.32246398925781</t>
@@ -149,91 +149,91 @@
     <t xml:space="preserve">6.33432579040527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19367599487305</t>
+    <t xml:space="preserve">6.19367647171021</t>
   </si>
   <si>
     <t xml:space="preserve">6.29535102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35296630859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44616746902466</t>
+    <t xml:space="preserve">6.35296678543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44616794586182</t>
   </si>
   <si>
     <t xml:space="preserve">6.58342885971069</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55462169647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30362462997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34090375900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37649059295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33751535415649</t>
+    <t xml:space="preserve">6.55462217330933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30362367630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34090423583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37649011611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33751487731934</t>
   </si>
   <si>
     <t xml:space="preserve">7.37988042831421</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32904243469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3239574432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42224359512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40360355377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51375102996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40190982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49341630935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33412551879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53408718109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41377115249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41207599639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58153486251831</t>
+    <t xml:space="preserve">7.32904195785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32395792007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42224311828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40360403060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5137505531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40190887451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49341583251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33412599563599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53408575057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4137716293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41207647323608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58153533935547</t>
   </si>
   <si>
     <t xml:space="preserve">7.70184898376465</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67304229736328</t>
+    <t xml:space="preserve">7.67304134368896</t>
   </si>
   <si>
     <t xml:space="preserve">7.62389802932739</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40529823303223</t>
+    <t xml:space="preserve">7.40529870986938</t>
   </si>
   <si>
     <t xml:space="preserve">7.45105171203613</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42393922805786</t>
+    <t xml:space="preserve">7.4239387512207</t>
   </si>
   <si>
     <t xml:space="preserve">7.53916883468628</t>
@@ -242,25 +242,25 @@
     <t xml:space="preserve">7.57644987106323</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62559270858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67643022537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69337511062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66287517547607</t>
+    <t xml:space="preserve">7.6255931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.676429271698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69337463378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66287422180176</t>
   </si>
   <si>
     <t xml:space="preserve">7.71032238006592</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74421358108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78488349914551</t>
+    <t xml:space="preserve">7.74421453475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78488254547119</t>
   </si>
   <si>
     <t xml:space="preserve">8.05093097686768</t>
@@ -269,31 +269,31 @@
     <t xml:space="preserve">7.99670600891113</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91367101669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96281385421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0238208770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94925832748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00348281860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90858745574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99162149429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1424388885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78637886047363</t>
+    <t xml:space="preserve">7.91367197036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96281337738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02381896972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94925689697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00348377227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90858793258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99162292480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14243793487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78637790679932</t>
   </si>
   <si>
     <t xml:space="preserve">8.81179714202881</t>
@@ -305,16 +305,16 @@
     <t xml:space="preserve">8.86263370513916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73553943634033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66775703430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65928649902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71859645843506</t>
+    <t xml:space="preserve">8.73554134368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66775608062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6592845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71859550476074</t>
   </si>
   <si>
     <t xml:space="preserve">8.83048248291016</t>
@@ -323,46 +323,46 @@
     <t xml:space="preserve">8.76162815093994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82187747955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77023506164551</t>
+    <t xml:space="preserve">8.82187652587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77023601531982</t>
   </si>
   <si>
     <t xml:space="preserve">8.77884197235107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92515659332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95097637176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04564952850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2866382598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19196605682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18335723876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89933586120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5774450302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40531253814697</t>
+    <t xml:space="preserve">8.92515563964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95097732543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04565048217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28663730621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19196510314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18335819244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89933681488037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57744407653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40531063079834</t>
   </si>
   <si>
     <t xml:space="preserve">8.60670757293701</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61531448364258</t>
+    <t xml:space="preserve">8.61531543731689</t>
   </si>
   <si>
     <t xml:space="preserve">8.91654777526855</t>
@@ -374,34 +374,34 @@
     <t xml:space="preserve">8.88212203979492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03704452514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56023120880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91989374160767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55506801605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35367012023926</t>
+    <t xml:space="preserve">9.03704357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5602331161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91989231109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55506706237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35367107391357</t>
   </si>
   <si>
     <t xml:space="preserve">8.50514888763428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5378532409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13333892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95948171615601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95776128768921</t>
+    <t xml:space="preserve">8.53785514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13333797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9594841003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95776319503784</t>
   </si>
   <si>
     <t xml:space="preserve">8.24522686004639</t>
@@ -410,22 +410,22 @@
     <t xml:space="preserve">8.32096481323242</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34850597381592</t>
+    <t xml:space="preserve">8.34850788116455</t>
   </si>
   <si>
     <t xml:space="preserve">8.26932525634766</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4414587020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40875244140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53441333770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.400146484375</t>
+    <t xml:space="preserve">8.44145965576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40875339508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5344123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40014553070068</t>
   </si>
   <si>
     <t xml:space="preserve">8.51031303405762</t>
@@ -437,37 +437,37 @@
     <t xml:space="preserve">8.62392234802246</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67556095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81326866149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66695499420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99400901794434</t>
+    <t xml:space="preserve">8.67556190490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81326961517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66695594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99400997161865</t>
   </si>
   <si>
     <t xml:space="preserve">9.08868408203125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84769535064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86490917205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9595832824707</t>
+    <t xml:space="preserve">8.84769630432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95958423614502</t>
   </si>
   <si>
     <t xml:space="preserve">9.05425643920898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0026159286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06286525726318</t>
+    <t xml:space="preserve">9.00261688232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06286334991455</t>
   </si>
   <si>
     <t xml:space="preserve">8.9854040145874</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">8.73580837249756</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96819019317627</t>
+    <t xml:space="preserve">8.96818923950195</t>
   </si>
   <si>
     <t xml:space="preserve">9.01122283935547</t>
@@ -506,10 +506,10 @@
     <t xml:space="preserve">9.20917797088623</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10589599609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12310981750488</t>
+    <t xml:space="preserve">9.10589790344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12311172485352</t>
   </si>
   <si>
     <t xml:space="preserve">9.14032363891602</t>
@@ -518,16 +518,16 @@
     <t xml:space="preserve">9.22639083862305</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38131141662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13171768188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94236850738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01982975006104</t>
+    <t xml:space="preserve">9.38131237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13171672821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94236946105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01983070373535</t>
   </si>
   <si>
     <t xml:space="preserve">9.14892959594727</t>
@@ -539,19 +539,19 @@
     <t xml:space="preserve">9.37270450592041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47598457336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62229919433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69115352630615</t>
+    <t xml:space="preserve">9.47598552703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62229824066162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69115447998047</t>
   </si>
   <si>
     <t xml:space="preserve">9.6997594833374</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48459243774414</t>
+    <t xml:space="preserve">9.48459339141846</t>
   </si>
   <si>
     <t xml:space="preserve">9.260817527771</t>
@@ -566,16 +566,16 @@
     <t xml:space="preserve">9.79443359375</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51041221618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32967281341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46737861633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2436056137085</t>
+    <t xml:space="preserve">9.51041316986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32967185974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46737957000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24360370635986</t>
   </si>
   <si>
     <t xml:space="preserve">9.25221157073975</t>
@@ -584,28 +584,28 @@
     <t xml:space="preserve">9.33827877044678</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31245613098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.080078125</t>
+    <t xml:space="preserve">9.31245899200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08007717132568</t>
   </si>
   <si>
     <t xml:space="preserve">9.45016574859619</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56205368041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2780294418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39852619171143</t>
+    <t xml:space="preserve">9.56205272674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27803134918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39852523803711</t>
   </si>
   <si>
     <t xml:space="preserve">9.40713214874268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53623199462891</t>
+    <t xml:space="preserve">9.53623294830322</t>
   </si>
   <si>
     <t xml:space="preserve">9.6567268371582</t>
@@ -614,79 +614,79 @@
     <t xml:space="preserve">9.70836639404297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83746719360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89771461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3280487060547</t>
+    <t xml:space="preserve">9.83746814727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89771270751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.328049659729</t>
   </si>
   <si>
     <t xml:space="preserve">10.3882970809937</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1817350387573</t>
+    <t xml:space="preserve">10.1817359924316</t>
   </si>
   <si>
     <t xml:space="preserve">10.3022308349609</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3452625274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3710832595825</t>
+    <t xml:space="preserve">10.3452634811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3710842132568</t>
   </si>
   <si>
     <t xml:space="preserve">10.4227247238159</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5776433944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6034641265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5862522125244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.569037437439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5260047912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4915781021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5518245697021</t>
+    <t xml:space="preserve">10.5776443481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6034650802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5862493515015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5690383911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5260028839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4915771484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5518255233765</t>
   </si>
   <si>
     <t xml:space="preserve">10.5173978805542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5948572158813</t>
+    <t xml:space="preserve">10.5948581695557</t>
   </si>
   <si>
     <t xml:space="preserve">10.5001831054688</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4657564163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.207555770874</t>
+    <t xml:space="preserve">10.4657573699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2075548171997</t>
   </si>
   <si>
     <t xml:space="preserve">10.6895313262939</t>
   </si>
   <si>
-    <t xml:space="preserve">10.448543548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4399356842041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9133052825928</t>
+    <t xml:space="preserve">10.4485445022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4399366378784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9133062362671</t>
   </si>
   <si>
     <t xml:space="preserve">10.8272390365601</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">10.7669925689697</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8530588150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0768337249756</t>
+    <t xml:space="preserve">10.8530597686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0768346786499</t>
   </si>
   <si>
     <t xml:space="preserve">11.1112594604492</t>
@@ -713,16 +713,16 @@
     <t xml:space="preserve">10.7842063903809</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0337991714478</t>
+    <t xml:space="preserve">11.0338001251221</t>
   </si>
   <si>
     <t xml:space="preserve">11.1887197494507</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3608560562134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3264284133911</t>
+    <t xml:space="preserve">11.3608541488647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3264265060425</t>
   </si>
   <si>
     <t xml:space="preserve">11.1629009246826</t>
@@ -731,19 +731,19 @@
     <t xml:space="preserve">11.1715078353882</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2661819458008</t>
+    <t xml:space="preserve">11.2661809921265</t>
   </si>
   <si>
     <t xml:space="preserve">11.1801137924194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4383153915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2920007705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4469223022461</t>
+    <t xml:space="preserve">11.4383163452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2920017242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4469213485718</t>
   </si>
   <si>
     <t xml:space="preserve">11.6620893478394</t>
@@ -752,10 +752,10 @@
     <t xml:space="preserve">11.5846300125122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6362676620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6706953048706</t>
+    <t xml:space="preserve">11.6362686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6706972122192</t>
   </si>
   <si>
     <t xml:space="preserve">11.6965160369873</t>
@@ -764,25 +764,25 @@
     <t xml:space="preserve">11.756763458252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.808403968811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8686513900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.928897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9202899932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9375047683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1698846817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1870994567871</t>
+    <t xml:space="preserve">11.8084030151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8686494827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9288969039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9202909469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9375057220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1698875427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1870975494385</t>
   </si>
   <si>
     <t xml:space="preserve">12.1182451248169</t>
@@ -794,10 +794,10 @@
     <t xml:space="preserve">12.1526727676392</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1957063674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.144063949585</t>
+    <t xml:space="preserve">12.1957054138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1440658569336</t>
   </si>
   <si>
     <t xml:space="preserve">12.0149641036987</t>
@@ -809,28 +809,28 @@
     <t xml:space="preserve">11.963324546814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3936605453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4969396591187</t>
+    <t xml:space="preserve">12.3936586380005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.496940612793</t>
   </si>
   <si>
     <t xml:space="preserve">12.3506269454956</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4280862808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4194812774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5916147232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4883346557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7379283905029</t>
+    <t xml:space="preserve">12.4280872344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4194793701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5916137695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4883337020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7379274368286</t>
   </si>
   <si>
     <t xml:space="preserve">12.8412084579468</t>
@@ -839,22 +839,22 @@
     <t xml:space="preserve">12.7637481689453</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9617023468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9961290359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7207145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6346473693848</t>
+    <t xml:space="preserve">12.9617033004761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.996129989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7207155227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6346492767334</t>
   </si>
   <si>
     <t xml:space="preserve">12.6432542800903</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5227613449097</t>
+    <t xml:space="preserve">12.5227603912354</t>
   </si>
   <si>
     <t xml:space="preserve">12.0666055679321</t>
@@ -875,10 +875,10 @@
     <t xml:space="preserve">12.5006237030029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6053771972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2125511169434</t>
+    <t xml:space="preserve">12.6053781509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.212550163269</t>
   </si>
   <si>
     <t xml:space="preserve">12.0816078186035</t>
@@ -887,22 +887,22 @@
     <t xml:space="preserve">12.2387390136719</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1863603591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0205020904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9855833053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7149696350098</t>
+    <t xml:space="preserve">12.1863613128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0205011367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9855842590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7149705886841</t>
   </si>
   <si>
     <t xml:space="preserve">11.6102151870728</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6014852523804</t>
+    <t xml:space="preserve">11.601487159729</t>
   </si>
   <si>
     <t xml:space="preserve">11.4356250762939</t>
@@ -911,22 +911,22 @@
     <t xml:space="preserve">11.3570604324341</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6451330184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8371820449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6364030838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.697509765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5752964019775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3221426010132</t>
+    <t xml:space="preserve">11.645133972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8371829986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6364040374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6975107192993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5752983093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3221435546875</t>
   </si>
   <si>
     <t xml:space="preserve">11.4268960952759</t>
@@ -944,127 +944,127 @@
     <t xml:space="preserve">11.1824712753296</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1300935745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0427989959717</t>
+    <t xml:space="preserve">11.1300954818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.042799949646</t>
   </si>
   <si>
     <t xml:space="preserve">11.1475524902344</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8459119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9419345855713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7062397003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0641479492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8808288574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8284521102905</t>
+    <t xml:space="preserve">11.845911026001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9419364929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7062406539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0641489028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8808298110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8284530639648</t>
   </si>
   <si>
     <t xml:space="preserve">11.7760753631592</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7324275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6189451217651</t>
+    <t xml:space="preserve">11.7324295043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6189460754395</t>
   </si>
   <si>
     <t xml:space="preserve">11.400707244873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.391978263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4094362258911</t>
+    <t xml:space="preserve">11.3919792175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4094371795654</t>
   </si>
   <si>
     <t xml:space="preserve">11.2872247695923</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3308715820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2697639465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2784948348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0689868927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1737422943115</t>
+    <t xml:space="preserve">11.3308725357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2697649002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2784957885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0689878463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1737413406372</t>
   </si>
   <si>
     <t xml:space="preserve">11.2610359191895</t>
   </si>
   <si>
-    <t xml:space="preserve">11.095175743103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3134136199951</t>
+    <t xml:space="preserve">11.0951766967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3134145736694</t>
   </si>
   <si>
     <t xml:space="preserve">11.6713218688965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5578384399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4880027770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4530839920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6625938415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7411584854126</t>
+    <t xml:space="preserve">11.5578393936157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4880018234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.453085899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6625928878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7411575317383</t>
   </si>
   <si>
     <t xml:space="preserve">11.7935352325439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8109931945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9244766235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8197231292725</t>
+    <t xml:space="preserve">11.8109941482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9244775772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8197240829468</t>
   </si>
   <si>
     <t xml:space="preserve">11.9768533706665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.107795715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1776323318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3522214889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3173027038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3784112930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4918937683105</t>
+    <t xml:space="preserve">12.1077976226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1776313781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.352222442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3173046112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3784103393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4918947219849</t>
   </si>
   <si>
     <t xml:space="preserve">12.5355415344238</t>
@@ -1073,13 +1073,13 @@
     <t xml:space="preserve">12.5966472625732</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4744338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5180826187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4831638336182</t>
+    <t xml:space="preserve">12.4744348526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5180816650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4831647872925</t>
   </si>
   <si>
     <t xml:space="preserve">12.6228361129761</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">12.6141061782837</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7625093460083</t>
+    <t xml:space="preserve">12.762508392334</t>
   </si>
   <si>
     <t xml:space="preserve">12.7712373733521</t>
@@ -1103,73 +1103,73 @@
     <t xml:space="preserve">12.7363195419312</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7450494766235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2212781906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1601734161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2474670410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4482450485229</t>
+    <t xml:space="preserve">12.7450475692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2212791442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.160174369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2474679946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4482469558716</t>
   </si>
   <si>
     <t xml:space="preserve">12.4395170211792</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4046001434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3609523773193</t>
+    <t xml:space="preserve">12.4045991897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3609504699707</t>
   </si>
   <si>
     <t xml:space="preserve">11.7236986160278</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2086591720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0864448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2959537506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2173881530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4181680679321</t>
+    <t xml:space="preserve">11.2086601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.086446762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.295952796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2173900604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4181671142578</t>
   </si>
   <si>
     <t xml:space="preserve">11.3396015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1650114059448</t>
+    <t xml:space="preserve">11.1650104522705</t>
   </si>
   <si>
     <t xml:space="preserve">11.1912002563477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1213636398315</t>
+    <t xml:space="preserve">11.1213645935059</t>
   </si>
   <si>
     <t xml:space="preserve">11.1126346588135</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0515289306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9991521835327</t>
+    <t xml:space="preserve">11.0515279769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9991502761841</t>
   </si>
   <si>
     <t xml:space="preserve">11.1999292373657</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0777168273926</t>
+    <t xml:space="preserve">11.0777177810669</t>
   </si>
   <si>
     <t xml:space="preserve">11.2261180877686</t>
@@ -1181,37 +1181,37 @@
     <t xml:space="preserve">10.8507509231567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8682098388672</t>
+    <t xml:space="preserve">10.8682079315186</t>
   </si>
   <si>
     <t xml:space="preserve">11.496732711792</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5665674209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.540379524231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5491104125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6276741027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8721008300781</t>
+    <t xml:space="preserve">11.5665683746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5403785705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5491094589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6276750564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8720998764038</t>
   </si>
   <si>
     <t xml:space="preserve">11.7586164474487</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8071041107178</t>
+    <t xml:space="preserve">10.8071031570435</t>
   </si>
   <si>
     <t xml:space="preserve">10.6936197280884</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6150531768799</t>
+    <t xml:space="preserve">10.6150541305542</t>
   </si>
   <si>
     <t xml:space="preserve">10.6587018966675</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">10.5626773834229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.527759552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5975942611694</t>
+    <t xml:space="preserve">10.5277576446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5975961685181</t>
   </si>
   <si>
     <t xml:space="preserve">10.5364894866943</t>
@@ -1235,46 +1235,46 @@
     <t xml:space="preserve">10.4666538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2920637130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3531694412231</t>
+    <t xml:space="preserve">10.2920618057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3531684875488</t>
   </si>
   <si>
     <t xml:space="preserve">10.3706283569336</t>
   </si>
   <si>
-    <t xml:space="preserve">10.073826789856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0389089584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82940292358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71591758728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.484112739563</t>
+    <t xml:space="preserve">10.0738258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0389070510864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82940196990967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71591663360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4841117858887</t>
   </si>
   <si>
     <t xml:space="preserve">10.6848907470703</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9816923141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1039047241211</t>
+    <t xml:space="preserve">10.9816932678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1039056777954</t>
   </si>
   <si>
     <t xml:space="preserve">10.9904222488403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7372674942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6761617660522</t>
+    <t xml:space="preserve">10.737265586853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6761598587036</t>
   </si>
   <si>
     <t xml:space="preserve">10.8332920074463</t>
@@ -1283,46 +1283,46 @@
     <t xml:space="preserve">10.7809143066406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9467744827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9293155670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7198076248169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8245620727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7896432876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7983732223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8158330917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6325130462646</t>
+    <t xml:space="preserve">10.9467763900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9293146133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7198085784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8245611190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7896423339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7983741760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8158321380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6325120925903</t>
   </si>
   <si>
     <t xml:space="preserve">10.6063251495361</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6674327850342</t>
+    <t xml:space="preserve">10.6674318313599</t>
   </si>
   <si>
     <t xml:space="preserve">10.5190305709839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4443550109863</t>
+    <t xml:space="preserve">11.4443559646606</t>
   </si>
   <si>
     <t xml:space="preserve">10.9205865859985</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6499729156494</t>
+    <t xml:space="preserve">10.6499710083008</t>
   </si>
   <si>
     <t xml:space="preserve">10.5801362991333</t>
@@ -1331,28 +1331,28 @@
     <t xml:space="preserve">10.4317350387573</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3007946014404</t>
+    <t xml:space="preserve">10.3007926940918</t>
   </si>
   <si>
     <t xml:space="preserve">10.4164323806763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7633504867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.683292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1636390686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0657911300659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9857339859009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.603235244751</t>
+    <t xml:space="preserve">10.7633495330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6832914352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1636400222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0657920837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9857330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6032342910767</t>
   </si>
   <si>
     <t xml:space="preserve">10.8523035049438</t>
@@ -1364,64 +1364,64 @@
     <t xml:space="preserve">11.0302095413208</t>
   </si>
   <si>
-    <t xml:space="preserve">11.074686050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0480012893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1013736724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.33265209198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0391054153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1369543075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9145698547363</t>
+    <t xml:space="preserve">11.0746850967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0480003356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.101372718811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3326511383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0391063690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1369533538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9145708084106</t>
   </si>
   <si>
     <t xml:space="preserve">10.7722463607788</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7277679443359</t>
+    <t xml:space="preserve">10.7277669906616</t>
   </si>
   <si>
     <t xml:space="preserve">10.5142812728882</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5053863525391</t>
+    <t xml:space="preserve">10.5053873062134</t>
   </si>
   <si>
     <t xml:space="preserve">10.2830028533936</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4431190490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4253273010254</t>
+    <t xml:space="preserve">10.4431180953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4253282546997</t>
   </si>
   <si>
     <t xml:space="preserve">10.2563171386719</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3096885681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0962009429932</t>
+    <t xml:space="preserve">10.3096876144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0961999893188</t>
   </si>
   <si>
     <t xml:space="preserve">10.1228866577148</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2118396759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.238525390625</t>
+    <t xml:space="preserve">10.211838722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2385244369507</t>
   </si>
   <si>
     <t xml:space="preserve">10.3541650772095</t>
@@ -1433,46 +1433,46 @@
     <t xml:space="preserve">10.6655025482178</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6477108001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8967800140381</t>
+    <t xml:space="preserve">10.6477117538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8967809677124</t>
   </si>
   <si>
     <t xml:space="preserve">10.8700942993164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8167209625244</t>
+    <t xml:space="preserve">10.8167219161987</t>
   </si>
   <si>
     <t xml:space="preserve">10.709979057312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4520130157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4964914321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3808517456055</t>
+    <t xml:space="preserve">10.4520139694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4964895248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3808507919312</t>
   </si>
   <si>
     <t xml:space="preserve">10.398642539978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2029438018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4075365066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6121311187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1406774520874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.060619354248</t>
+    <t xml:space="preserve">10.2029447555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4075374603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6121292114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1406764984131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0606203079224</t>
   </si>
   <si>
     <t xml:space="preserve">10.131781578064</t>
@@ -1481,19 +1481,19 @@
     <t xml:space="preserve">10.0339326858521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90939903259277</t>
+    <t xml:space="preserve">9.90939998626709</t>
   </si>
   <si>
     <t xml:space="preserve">9.94497966766357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0428285598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82044410705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8293399810791</t>
+    <t xml:space="preserve">10.0428295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8204460144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82934093475342</t>
   </si>
   <si>
     <t xml:space="preserve">9.98056125640869</t>
@@ -1505,16 +1505,16 @@
     <t xml:space="preserve">10.2474212646484</t>
   </si>
   <si>
-    <t xml:space="preserve">10.11399269104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91829490661621</t>
+    <t xml:space="preserve">10.1139917373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91829299926758</t>
   </si>
   <si>
     <t xml:space="preserve">9.92718887329102</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0873041152954</t>
+    <t xml:space="preserve">10.087306022644</t>
   </si>
   <si>
     <t xml:space="preserve">9.96277046203613</t>
@@ -1523,25 +1523,25 @@
     <t xml:space="preserve">10.0695142745972</t>
   </si>
   <si>
-    <t xml:space="preserve">10.185152053833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5587587356567</t>
+    <t xml:space="preserve">10.1851530075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5587596893311</t>
   </si>
   <si>
     <t xml:space="preserve">10.5943393707275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3630619049072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3274784088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2296304702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0517234802246</t>
+    <t xml:space="preserve">10.3630609512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3274793624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2296295166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0517225265503</t>
   </si>
   <si>
     <t xml:space="preserve">10.2207355499268</t>
@@ -1550,13 +1550,13 @@
     <t xml:space="preserve">9.87381839752197</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55358600616455</t>
+    <t xml:space="preserve">9.55358505249023</t>
   </si>
   <si>
     <t xml:space="preserve">9.57137584686279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01097106933594</t>
+    <t xml:space="preserve">9.01097011566162</t>
   </si>
   <si>
     <t xml:space="preserve">8.83751106262207</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">8.41943168640137</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73966217041016</t>
+    <t xml:space="preserve">8.73966312408447</t>
   </si>
   <si>
     <t xml:space="preserve">8.83306217193604</t>
@@ -1577,16 +1577,16 @@
     <t xml:space="preserve">8.7174243927002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60178470611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46390819549561</t>
+    <t xml:space="preserve">8.60178565979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46390628814697</t>
   </si>
   <si>
     <t xml:space="preserve">8.5306224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37940216064453</t>
+    <t xml:space="preserve">8.37940120697021</t>
   </si>
   <si>
     <t xml:space="preserve">8.65960502624512</t>
@@ -1598,34 +1598,34 @@
     <t xml:space="preserve">8.79303455352783</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69963264465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89088249206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80193042755127</t>
+    <t xml:space="preserve">8.69963359832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89088344573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80192947387695</t>
   </si>
   <si>
     <t xml:space="preserve">8.75745296478271</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53507041931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41053485870361</t>
+    <t xml:space="preserve">8.53506946563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41053581237793</t>
   </si>
   <si>
     <t xml:space="preserve">8.31268692016602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07695960998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01024436950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05472183227539</t>
+    <t xml:space="preserve">8.07695865631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01024532318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05472087860107</t>
   </si>
   <si>
     <t xml:space="preserve">8.11698913574219</t>
@@ -1634,7 +1634,7 @@
     <t xml:space="preserve">8.29489517211914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32158279418945</t>
+    <t xml:space="preserve">8.32158088684082</t>
   </si>
   <si>
     <t xml:space="preserve">8.29934310913086</t>
@@ -1646,10 +1646,10 @@
     <t xml:space="preserve">8.58844184875488</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93091201782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92201709747314</t>
+    <t xml:space="preserve">8.93091297149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92201614379883</t>
   </si>
   <si>
     <t xml:space="preserve">8.85974884033203</t>
@@ -1658,22 +1658,22 @@
     <t xml:space="preserve">9.07323741912842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79748058319092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77079677581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45945930480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49059200286865</t>
+    <t xml:space="preserve">8.79748153686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77079582214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45946025848389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49059295654297</t>
   </si>
   <si>
     <t xml:space="preserve">8.27265739440918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38384914398193</t>
+    <t xml:space="preserve">8.38384819030762</t>
   </si>
   <si>
     <t xml:space="preserve">8.64181327819824</t>
@@ -1682,34 +1682,34 @@
     <t xml:space="preserve">8.09919929504395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97911214828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29044914245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10364627838135</t>
+    <t xml:space="preserve">7.97911262512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29044818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10364532470703</t>
   </si>
   <si>
     <t xml:space="preserve">8.1525707244873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86347150802612</t>
+    <t xml:space="preserve">7.86347198486328</t>
   </si>
   <si>
     <t xml:space="preserve">7.91239643096924</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97021484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908357620239</t>
+    <t xml:space="preserve">7.97021532058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908214569092</t>
   </si>
   <si>
     <t xml:space="preserve">8.25486755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22818088531494</t>
+    <t xml:space="preserve">8.22818183898926</t>
   </si>
   <si>
     <t xml:space="preserve">9.05544567108154</t>
@@ -1718,31 +1718,31 @@
     <t xml:space="preserve">9.14439964294434</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78858757019043</t>
+    <t xml:space="preserve">8.78858661651611</t>
   </si>
   <si>
     <t xml:space="preserve">8.6907377243042</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70852947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76189994812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67294692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80637741088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81082439422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77524280548096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91312122344971</t>
+    <t xml:space="preserve">8.70852756500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76190090179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67294788360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80637836456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81082534790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77524375915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91312217712402</t>
   </si>
   <si>
     <t xml:space="preserve">9.17998123168945</t>
@@ -1751,13 +1751,13 @@
     <t xml:space="preserve">8.88198757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87754058837891</t>
+    <t xml:space="preserve">8.87754154205322</t>
   </si>
   <si>
     <t xml:space="preserve">8.86864471435547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85085391998291</t>
+    <t xml:space="preserve">8.85085487365723</t>
   </si>
   <si>
     <t xml:space="preserve">8.81527233123779</t>
@@ -1766,16 +1766,16 @@
     <t xml:space="preserve">8.81972026824951</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54841136932373</t>
+    <t xml:space="preserve">8.54841232299805</t>
   </si>
   <si>
     <t xml:space="preserve">8.45056343078613</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70408153533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89532947540283</t>
+    <t xml:space="preserve">8.70407962799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89533042907715</t>
   </si>
   <si>
     <t xml:space="preserve">9.09102821350098</t>
@@ -1784,22 +1784,22 @@
     <t xml:space="preserve">8.9753885269165</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42905044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29561901092529</t>
+    <t xml:space="preserve">9.42905139923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29562091827393</t>
   </si>
   <si>
     <t xml:space="preserve">9.34899234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62474727630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65143489837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41125965118408</t>
+    <t xml:space="preserve">9.62474822998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65143394470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4112606048584</t>
   </si>
   <si>
     <t xml:space="preserve">9.46463203430176</t>
@@ -1808,31 +1808,31 @@
     <t xml:space="preserve">9.66032791137695</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26893520355225</t>
+    <t xml:space="preserve">9.26893424987793</t>
   </si>
   <si>
     <t xml:space="preserve">9.13550472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10881805419922</t>
+    <t xml:space="preserve">9.10881900787354</t>
   </si>
   <si>
     <t xml:space="preserve">9.11771488189697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06434154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04655170440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23335456848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4735279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76707458496094</t>
+    <t xml:space="preserve">9.0643424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04655265808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23335361480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47352695465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76707363128662</t>
   </si>
   <si>
     <t xml:space="preserve">9.59806156158447</t>
@@ -1841,49 +1841,49 @@
     <t xml:space="preserve">9.51800441741943</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33120250701904</t>
+    <t xml:space="preserve">9.33120155334473</t>
   </si>
   <si>
     <t xml:space="preserve">9.2867259979248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08213329315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96649360656738</t>
+    <t xml:space="preserve">9.08213233947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96649265289307</t>
   </si>
   <si>
     <t xml:space="preserve">9.00207424163818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99317836761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1977710723877</t>
+    <t xml:space="preserve">8.99318027496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19777202606201</t>
   </si>
   <si>
     <t xml:space="preserve">9.86492156982422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78486347198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75817775726318</t>
+    <t xml:space="preserve">9.78486442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7581787109375</t>
   </si>
   <si>
     <t xml:space="preserve">9.99835205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4342222213745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3007926940918</t>
+    <t xml:space="preserve">10.4342231750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3007936477661</t>
   </si>
   <si>
     <t xml:space="preserve">10.5676527023315</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1673622131348</t>
+    <t xml:space="preserve">10.1673631668091</t>
   </si>
   <si>
     <t xml:space="preserve">9.97166538238525</t>
@@ -1892,28 +1892,28 @@
     <t xml:space="preserve">9.8560266494751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18887615203857</t>
+    <t xml:space="preserve">9.18887519836426</t>
   </si>
   <si>
     <t xml:space="preserve">9.27783012390137</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16218948364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07778358459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09142017364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05960083007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72776412963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8459529876709</t>
+    <t xml:space="preserve">9.16219043731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07778263092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0914192199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05959987640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72776317596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84595203399658</t>
   </si>
   <si>
     <t xml:space="preserve">8.89140892028809</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">8.9005012512207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78231143951416</t>
+    <t xml:space="preserve">8.78231239318848</t>
   </si>
   <si>
     <t xml:space="preserve">8.86413478851318</t>
@@ -1934,46 +1934,46 @@
     <t xml:space="preserve">8.48229503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68230628967285</t>
+    <t xml:space="preserve">8.68230724334717</t>
   </si>
   <si>
     <t xml:space="preserve">8.88231754302979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99596118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97777652740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21870136260986</t>
+    <t xml:space="preserve">8.9959602355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9777774810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21870040893555</t>
   </si>
   <si>
     <t xml:space="preserve">9.07323837280273</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04596424102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04141712188721</t>
+    <t xml:space="preserve">9.04596328735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04141807556152</t>
   </si>
   <si>
     <t xml:space="preserve">9.26415824890137</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14596939086914</t>
+    <t xml:space="preserve">9.14597034454346</t>
   </si>
   <si>
     <t xml:space="preserve">9.39143753051758</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33688926696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17324352264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03232669830322</t>
+    <t xml:space="preserve">9.33688831329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17324447631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03232574462891</t>
   </si>
   <si>
     <t xml:space="preserve">9.20960903167725</t>
@@ -1982,10 +1982,10 @@
     <t xml:space="preserve">9.44598579406738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38234519958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61872291564941</t>
+    <t xml:space="preserve">9.38234615325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6187219619751</t>
   </si>
   <si>
     <t xml:space="preserve">9.6641788482666</t>
@@ -1994,28 +1994,28 @@
     <t xml:space="preserve">9.57326602935791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25506496429443</t>
+    <t xml:space="preserve">9.25506591796875</t>
   </si>
   <si>
     <t xml:space="preserve">9.12778568267822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10960388183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80504035949707</t>
+    <t xml:space="preserve">9.10960483551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80504131317139</t>
   </si>
   <si>
     <t xml:space="preserve">8.76412963867188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79140281677246</t>
+    <t xml:space="preserve">8.79140377044678</t>
   </si>
   <si>
     <t xml:space="preserve">8.93686676025391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24597549438477</t>
+    <t xml:space="preserve">9.24597454071045</t>
   </si>
   <si>
     <t xml:space="preserve">9.4096212387085</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">8.47774887084961</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42774677276611</t>
+    <t xml:space="preserve">8.4277458190918</t>
   </si>
   <si>
     <t xml:space="preserve">8.46865844726562</t>
@@ -2039,13 +2039,13 @@
     <t xml:space="preserve">8.05499839782715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89589786529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92771863937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90953588485718</t>
+    <t xml:space="preserve">7.89589881896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92771768569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90953636169434</t>
   </si>
   <si>
     <t xml:space="preserve">7.65497541427612</t>
@@ -2060,106 +2060,106 @@
     <t xml:space="preserve">7.48678398132324</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46860265731812</t>
+    <t xml:space="preserve">7.46860218048096</t>
   </si>
   <si>
     <t xml:space="preserve">7.54587841033936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5367865562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7868013381958</t>
+    <t xml:space="preserve">7.53678703308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78680181503296</t>
   </si>
   <si>
     <t xml:space="preserve">7.66861295700073</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53224229812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45496511459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71407032012939</t>
+    <t xml:space="preserve">7.53224182128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45496416091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71406984329224</t>
   </si>
   <si>
     <t xml:space="preserve">7.7231616973877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59588146209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80498456954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07772827148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27773952484131</t>
+    <t xml:space="preserve">7.59588050842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8049840927124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07772731781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27773857116699</t>
   </si>
   <si>
     <t xml:space="preserve">8.35501480102539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52320766448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59139156341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65503311157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51866054534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49138641357422</t>
+    <t xml:space="preserve">8.52320671081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59139251708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65503215789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51866149902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49138736724854</t>
   </si>
   <si>
     <t xml:space="preserve">8.60503005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15954875946045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00499629974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88680791854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02317810058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11863899230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12772941589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95499324798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78225660324097</t>
+    <t xml:space="preserve">8.15954971313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00499534606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88680744171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02317905426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11863803863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12773036956787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95499277114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78225564956665</t>
   </si>
   <si>
     <t xml:space="preserve">7.67315912246704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72770833969116</t>
+    <t xml:space="preserve">7.727707862854</t>
   </si>
   <si>
     <t xml:space="preserve">7.71861600875854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58224439620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74589061737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13682174682617</t>
+    <t xml:space="preserve">7.58224391937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74589014053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13682079315186</t>
   </si>
   <si>
     <t xml:space="preserve">8.14591217041016</t>
@@ -2177,16 +2177,16 @@
     <t xml:space="preserve">8.20500755310059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48684120178223</t>
+    <t xml:space="preserve">8.48684215545654</t>
   </si>
   <si>
     <t xml:space="preserve">8.55502700805664</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59593772888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66866874694824</t>
+    <t xml:space="preserve">8.59593868255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66866970062256</t>
   </si>
   <si>
     <t xml:space="preserve">8.9686861038208</t>
@@ -2198,10 +2198,10 @@
     <t xml:space="preserve">8.74594593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29143142700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45507717132568</t>
+    <t xml:space="preserve">9.29143238067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.455078125</t>
   </si>
   <si>
     <t xml:space="preserve">9.48235130310059</t>
@@ -2213,10 +2213,10 @@
     <t xml:space="preserve">9.90964794158936</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1096591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0551118850708</t>
+    <t xml:space="preserve">10.109658241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0551109313965</t>
   </si>
   <si>
     <t xml:space="preserve">9.81873416900635</t>
@@ -2234,13 +2234,13 @@
     <t xml:space="preserve">9.76418590545654</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65508937835693</t>
+    <t xml:space="preserve">9.65508842468262</t>
   </si>
   <si>
     <t xml:space="preserve">9.82782649993896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.000563621521</t>
+    <t xml:space="preserve">10.0005626678467</t>
   </si>
   <si>
     <t xml:space="preserve">10.0823841094971</t>
@@ -2255,25 +2255,25 @@
     <t xml:space="preserve">10.2187566757202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1732997894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2278480529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2823963165283</t>
+    <t xml:space="preserve">10.1732988357544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2278470993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2823972702026</t>
   </si>
   <si>
     <t xml:space="preserve">10.3642196655273</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2369403839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2005748748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2551221847534</t>
+    <t xml:space="preserve">10.2369394302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2005729675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2551212310791</t>
   </si>
   <si>
     <t xml:space="preserve">10.3460369110107</t>
@@ -2297,31 +2297,31 @@
     <t xml:space="preserve">9.63690567016602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87328147888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98238086700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0642023086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0369281768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0460186004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1187496185303</t>
+    <t xml:space="preserve">9.87328243255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98237991333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0642032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0369291305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0460195541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1187505722046</t>
   </si>
   <si>
     <t xml:space="preserve">10.091477394104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92783260345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64599704742432</t>
+    <t xml:space="preserve">9.92783069610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64599609375</t>
   </si>
   <si>
     <t xml:space="preserve">9.54599189758301</t>
@@ -2330,10 +2330,10 @@
     <t xml:space="preserve">9.67327117919922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53690052032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35507297515869</t>
+    <t xml:space="preserve">9.53689956665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35507202148438</t>
   </si>
   <si>
     <t xml:space="preserve">9.60054016113281</t>
@@ -2348,28 +2348,28 @@
     <t xml:space="preserve">9.78236865997314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77327632904053</t>
+    <t xml:space="preserve">9.77327728271484</t>
   </si>
   <si>
     <t xml:space="preserve">9.55508232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59144878387451</t>
+    <t xml:space="preserve">9.5914478302002</t>
   </si>
   <si>
     <t xml:space="preserve">9.4914436340332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42780303955078</t>
+    <t xml:space="preserve">9.4278039932251</t>
   </si>
   <si>
     <t xml:space="preserve">8.70048904418945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64139556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64593982696533</t>
+    <t xml:space="preserve">8.64139461517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64594078063965</t>
   </si>
   <si>
     <t xml:space="preserve">8.40047264099121</t>
@@ -2381,16 +2381,16 @@
     <t xml:space="preserve">7.77316474914551</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87771606445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7004337310791</t>
+    <t xml:space="preserve">7.87771654129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70043325424194</t>
   </si>
   <si>
     <t xml:space="preserve">7.37768745422363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44587326049805</t>
+    <t xml:space="preserve">7.44587278366089</t>
   </si>
   <si>
     <t xml:space="preserve">6.81856536865234</t>
@@ -2402,10 +2402,10 @@
     <t xml:space="preserve">6.79583644866943</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36399412155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61855411529541</t>
+    <t xml:space="preserve">6.36399364471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61855459213257</t>
   </si>
   <si>
     <t xml:space="preserve">6.09125185012817</t>
@@ -2417,10 +2417,10 @@
     <t xml:space="preserve">6.79129076004028</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37314081192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00954055786133</t>
+    <t xml:space="preserve">7.37314128875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00954151153564</t>
   </si>
   <si>
     <t xml:space="preserve">7.07312488555908</t>
@@ -2429,73 +2429,73 @@
     <t xml:space="preserve">7.27768182754517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70946741104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.545823097229</t>
+    <t xml:space="preserve">6.70946788787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54582214355469</t>
   </si>
   <si>
     <t xml:space="preserve">6.04579448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17762088775635</t>
+    <t xml:space="preserve">6.17761993408203</t>
   </si>
   <si>
     <t xml:space="preserve">6.06397724151611</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81850910186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37302923202515</t>
+    <t xml:space="preserve">5.81850957870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3730297088623</t>
   </si>
   <si>
     <t xml:space="preserve">5.67304611206055</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74577713012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11397981643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03670310974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85487461090088</t>
+    <t xml:space="preserve">5.74577665328979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11398029327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03670358657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85487413406372</t>
   </si>
   <si>
     <t xml:space="preserve">5.90487718582153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14580011367798</t>
+    <t xml:space="preserve">6.14579963684082</t>
   </si>
   <si>
     <t xml:space="preserve">6.28217172622681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22762298583984</t>
+    <t xml:space="preserve">6.227623462677</t>
   </si>
   <si>
     <t xml:space="preserve">6.2776255607605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63673639297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83220243453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08676290512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9412989616394</t>
+    <t xml:space="preserve">6.63673686981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83220195770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08676242828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94129943847656</t>
   </si>
   <si>
     <t xml:space="preserve">7.11858224868774</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05948781967163</t>
+    <t xml:space="preserve">7.05948829650879</t>
   </si>
   <si>
     <t xml:space="preserve">6.96857357025146</t>
@@ -2504,43 +2504,43 @@
     <t xml:space="preserve">6.72310543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71855926513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59582614898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45490884780884</t>
+    <t xml:space="preserve">6.71855974197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59582567214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45490837097168</t>
   </si>
   <si>
     <t xml:space="preserve">5.98215484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03215789794922</t>
+    <t xml:space="preserve">6.03215742111206</t>
   </si>
   <si>
     <t xml:space="preserve">6.49127388000488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45945501327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44581651687622</t>
+    <t xml:space="preserve">6.45945453643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44581699371338</t>
   </si>
   <si>
     <t xml:space="preserve">6.62764453887939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83674764633179</t>
+    <t xml:space="preserve">6.8367486000061</t>
   </si>
   <si>
     <t xml:space="preserve">7.42314481735229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79134702682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64133882522583</t>
+    <t xml:space="preserve">7.79134654998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64133977890015</t>
   </si>
   <si>
     <t xml:space="preserve">7.60042762756348</t>
@@ -2549,22 +2549,22 @@
     <t xml:space="preserve">7.68679571151733</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08227348327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96408462524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83225917816162</t>
+    <t xml:space="preserve">8.08227252960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96408367156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8322582244873</t>
   </si>
   <si>
     <t xml:space="preserve">7.35950565338135</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62315559387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61861085891724</t>
+    <t xml:space="preserve">7.62315511703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61861038208008</t>
   </si>
   <si>
     <t xml:space="preserve">7.47314739227295</t>
@@ -2573,16 +2573,16 @@
     <t xml:space="preserve">7.49587631225586</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43678140640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36404991149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46405553817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50951242446899</t>
+    <t xml:space="preserve">7.43678188323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36405086517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46405649185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50951290130615</t>
   </si>
   <si>
     <t xml:space="preserve">7.47769355773926</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">7.4322361946106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67770433425903</t>
+    <t xml:space="preserve">7.67770528793335</t>
   </si>
   <si>
     <t xml:space="preserve">7.52315044403076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63679361343384</t>
+    <t xml:space="preserve">7.63679313659668</t>
   </si>
   <si>
     <t xml:space="preserve">7.59133625030518</t>
@@ -2606,19 +2606,19 @@
     <t xml:space="preserve">7.40950727462769</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51405906677246</t>
+    <t xml:space="preserve">7.5140585899353</t>
   </si>
   <si>
     <t xml:space="preserve">7.70952415466309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42769050598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94584560394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85493040084839</t>
+    <t xml:space="preserve">7.42768955230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94584512710571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85493087768555</t>
   </si>
   <si>
     <t xml:space="preserve">6.93675327301025</t>
@@ -2627,7 +2627,7 @@
     <t xml:space="preserve">7.00039434432983</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92766284942627</t>
+    <t xml:space="preserve">6.92766332626343</t>
   </si>
   <si>
     <t xml:space="preserve">6.95493698120117</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">7.08221626281738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31859302520752</t>
+    <t xml:space="preserve">7.31859350204468</t>
   </si>
   <si>
     <t xml:space="preserve">7.40041542053223</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">7.31404781341553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30495643615723</t>
+    <t xml:space="preserve">7.30495691299438</t>
   </si>
   <si>
     <t xml:space="preserve">7.26404476165771</t>
@@ -2657,67 +2657,67 @@
     <t xml:space="preserve">7.33223104476929</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34586715698242</t>
+    <t xml:space="preserve">7.34586763381958</t>
   </si>
   <si>
     <t xml:space="preserve">7.35495901107788</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27313661575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62770175933838</t>
+    <t xml:space="preserve">7.27313613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62770223617554</t>
   </si>
   <si>
     <t xml:space="preserve">7.55951642990112</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76407337188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88226127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2641019821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85044050216675</t>
+    <t xml:space="preserve">7.76407289505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88226222991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26410102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85044145584106</t>
   </si>
   <si>
     <t xml:space="preserve">7.68225002288818</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13676500320435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24586248397827</t>
+    <t xml:space="preserve">7.13676452636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24586200714111</t>
   </si>
   <si>
     <t xml:space="preserve">7.29586505889893</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32768440246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57769918441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75498199462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15045928955078</t>
+    <t xml:space="preserve">7.32768487930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57769870758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75498104095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15045833587646</t>
   </si>
   <si>
     <t xml:space="preserve">8.20955276489258</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29137516021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01863288879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96862983703613</t>
+    <t xml:space="preserve">8.29137420654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01863193511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96863126754761</t>
   </si>
   <si>
     <t xml:space="preserve">7.89135408401489</t>
@@ -2729,13 +2729,13 @@
     <t xml:space="preserve">7.85498762130737</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05954456329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08681774139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25955486297607</t>
+    <t xml:space="preserve">8.05954360961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08681964874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25955581665039</t>
   </si>
   <si>
     <t xml:space="preserve">8.28228378295898</t>
@@ -2750,31 +2750,31 @@
     <t xml:space="preserve">7.84589576721191</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10954666137695</t>
+    <t xml:space="preserve">8.10954570770264</t>
   </si>
   <si>
     <t xml:space="preserve">7.9459023475647</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00044918060303</t>
+    <t xml:space="preserve">8.00045013427734</t>
   </si>
   <si>
     <t xml:space="preserve">8.06863498687744</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15500450134277</t>
+    <t xml:space="preserve">8.15500545501709</t>
   </si>
   <si>
     <t xml:space="preserve">9.56417465209961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5096263885498</t>
+    <t xml:space="preserve">9.50962543487549</t>
   </si>
   <si>
     <t xml:space="preserve">9.73691177368164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.191481590271</t>
+    <t xml:space="preserve">10.1914825439453</t>
   </si>
   <si>
     <t xml:space="preserve">9.93692207336426</t>
@@ -2786,7 +2786,7 @@
     <t xml:space="preserve">9.70963764190674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70054531097412</t>
+    <t xml:space="preserve">9.70054721832275</t>
   </si>
   <si>
     <t xml:space="preserve">9.88237476348877</t>
@@ -2804,22 +2804,22 @@
     <t xml:space="preserve">9.72782039642334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96419811248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84600830078125</t>
+    <t xml:space="preserve">9.96419620513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84600925445557</t>
   </si>
   <si>
     <t xml:space="preserve">9.36416244506836</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1005687713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.264214515686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4642248153687</t>
+    <t xml:space="preserve">10.1005697250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2642135620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4642238616943</t>
   </si>
   <si>
     <t xml:space="preserve">10.4914989471436</t>
@@ -2846,7 +2846,7 @@
     <t xml:space="preserve">10.182391166687</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91873931884766</t>
+    <t xml:space="preserve">9.91874027252197</t>
   </si>
   <si>
     <t xml:space="preserve">9.27324867248535</t>
@@ -2855,7 +2855,7 @@
     <t xml:space="preserve">9.50053405761719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62781429290771</t>
+    <t xml:space="preserve">9.6278133392334</t>
   </si>
   <si>
     <t xml:space="preserve">9.60963153839111</t>
@@ -2870,10 +2870,10 @@
     <t xml:space="preserve">9.51871776580811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22779083251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40052795410156</t>
+    <t xml:space="preserve">9.22779178619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40052890777588</t>
   </si>
   <si>
     <t xml:space="preserve">9.16415214538574</t>
@@ -2882,7 +2882,7 @@
     <t xml:space="preserve">9.32779693603516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30052375793457</t>
+    <t xml:space="preserve">9.30052280426025</t>
   </si>
   <si>
     <t xml:space="preserve">9.52351379394531</t>
@@ -2900,13 +2900,13 @@
     <t xml:space="preserve">9.92399597167969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0821113586426</t>
+    <t xml:space="preserve">10.0821104049683</t>
   </si>
   <si>
     <t xml:space="preserve">10.1565170288086</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1751174926758</t>
+    <t xml:space="preserve">10.1751184463501</t>
   </si>
   <si>
     <t xml:space="preserve">10.3053312301636</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">10.3518352508545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1472158432007</t>
+    <t xml:space="preserve">10.147216796875</t>
   </si>
   <si>
     <t xml:space="preserve">10.1007118225098</t>
@@ -2924,13 +2924,13 @@
     <t xml:space="preserve">10.0356063842773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0542078018188</t>
+    <t xml:space="preserve">10.0542087554932</t>
   </si>
   <si>
     <t xml:space="preserve">9.86819076538086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85888957977295</t>
+    <t xml:space="preserve">9.85889053344727</t>
   </si>
   <si>
     <t xml:space="preserve">9.69147491455078</t>
@@ -2939,13 +2939,13 @@
     <t xml:space="preserve">9.87749195098877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98910140991211</t>
+    <t xml:space="preserve">9.98910236358643</t>
   </si>
   <si>
     <t xml:space="preserve">9.9611988067627</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0449066162109</t>
+    <t xml:space="preserve">10.0449075698853</t>
   </si>
   <si>
     <t xml:space="preserve">9.84958934783936</t>
@@ -2957,34 +2957,34 @@
     <t xml:space="preserve">9.9518985748291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90539360046387</t>
+    <t xml:space="preserve">9.90539455413818</t>
   </si>
   <si>
     <t xml:space="preserve">9.89609432220459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70077705383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1193141937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99840354919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63566970825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67287254333496</t>
+    <t xml:space="preserve">9.70077610015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1193132400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99840259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63567066192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67287349700928</t>
   </si>
   <si>
     <t xml:space="preserve">9.72867870330811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7379789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1286153793335</t>
+    <t xml:space="preserve">9.73798084259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1286144256592</t>
   </si>
   <si>
     <t xml:space="preserve">10.2495260238647</t>
@@ -2993,10 +2993,10 @@
     <t xml:space="preserve">10.7703723907471</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9656896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0400972366333</t>
+    <t xml:space="preserve">10.965690612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.040096282959</t>
   </si>
   <si>
     <t xml:space="preserve">11.0773000717163</t>
@@ -3008,10 +3008,10 @@
     <t xml:space="preserve">11.2540168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3377227783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3842277526855</t>
+    <t xml:space="preserve">11.3377246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3842287063599</t>
   </si>
   <si>
     <t xml:space="preserve">11.4586343765259</t>
@@ -3020,22 +3020,22 @@
     <t xml:space="preserve">11.5051383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4958372116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5330419540405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4214315414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3284225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.226113319397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4400329589844</t>
+    <t xml:space="preserve">11.4958381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5330410003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4214305877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.328423500061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2261142730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4400339126587</t>
   </si>
   <si>
     <t xml:space="preserve">11.4121313095093</t>
@@ -3044,7 +3044,7 @@
     <t xml:space="preserve">11.3749265670776</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2726173400879</t>
+    <t xml:space="preserve">11.2726182937622</t>
   </si>
   <si>
     <t xml:space="preserve">11.3098211288452</t>
@@ -3059,10 +3059,10 @@
     <t xml:space="preserve">11.2912197113037</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3005208969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1982116699219</t>
+    <t xml:space="preserve">11.3005199432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1982107162476</t>
   </si>
   <si>
     <t xml:space="preserve">11.1517066955566</t>
@@ -3083,13 +3083,13 @@
     <t xml:space="preserve">10.2681274414062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3239326477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4913473129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5006484985352</t>
+    <t xml:space="preserve">10.3239336013794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4913463592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5006475448608</t>
   </si>
   <si>
     <t xml:space="preserve">10.5099496841431</t>
@@ -3101,43 +3101,43 @@
     <t xml:space="preserve">10.2309226989746</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1658182144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91469573974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82168769836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0263051986694</t>
+    <t xml:space="preserve">10.1658191680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91469478607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82168674468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0263042449951</t>
   </si>
   <si>
     <t xml:space="preserve">10.0635089874268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1100120544434</t>
+    <t xml:space="preserve">10.1100130081177</t>
   </si>
   <si>
     <t xml:space="preserve">10.2030220031738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2123212814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1844205856323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.221622467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3890380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3332319259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5378513336182</t>
+    <t xml:space="preserve">10.2123222351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1844186782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2216234207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3890371322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3332328796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5378522872925</t>
   </si>
   <si>
     <t xml:space="preserve">10.5192499160767</t>
@@ -3146,40 +3146,40 @@
     <t xml:space="preserve">10.5750551223755</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5564546585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6587629318237</t>
+    <t xml:space="preserve">10.556453704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6587619781494</t>
   </si>
   <si>
     <t xml:space="preserve">10.7145681381226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8261785507202</t>
+    <t xml:space="preserve">10.8261775970459</t>
   </si>
   <si>
     <t xml:space="preserve">10.9005842208862</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7238683700562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6773643493652</t>
+    <t xml:space="preserve">10.7238674163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6773633956909</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982749938965</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168773651123</t>
+    <t xml:space="preserve">10.816876411438</t>
   </si>
   <si>
     <t xml:space="preserve">11.1703090667725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2447156906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0866012573242</t>
+    <t xml:space="preserve">11.2447147369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0866003036499</t>
   </si>
   <si>
     <t xml:space="preserve">11.1610078811646</t>
@@ -3188,28 +3188,28 @@
     <t xml:space="preserve">10.9470891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4541444778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6215600967407</t>
+    <t xml:space="preserve">10.4541435241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6215591430664</t>
   </si>
   <si>
     <t xml:space="preserve">10.8726816177368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9842929840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2633171081543</t>
+    <t xml:space="preserve">10.9842920303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.26331615448</t>
   </si>
   <si>
     <t xml:space="preserve">11.551643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3656272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3563261032104</t>
+    <t xml:space="preserve">11.365626335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3563251495361</t>
   </si>
   <si>
     <t xml:space="preserve">11.4865379333496</t>
@@ -3221,7 +3221,7 @@
     <t xml:space="preserve">11.5795450210571</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6539516448975</t>
+    <t xml:space="preserve">11.6539525985718</t>
   </si>
   <si>
     <t xml:space="preserve">11.6353511810303</t>
@@ -3230,7 +3230,7 @@
     <t xml:space="preserve">11.5981473922729</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8771724700928</t>
+    <t xml:space="preserve">11.8771734237671</t>
   </si>
   <si>
     <t xml:space="preserve">12.0538883209229</t>
@@ -3239,28 +3239,28 @@
     <t xml:space="preserve">12.2306041717529</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4445238113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0817899703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2771091461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6260499954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6167497634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.73766040802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6725549697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5423421859741</t>
+    <t xml:space="preserve">12.4445247650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0817918777466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2771081924438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.626049041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6167488098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7376594543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6725540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5423431396484</t>
   </si>
   <si>
     <t xml:space="preserve">11.2168130874634</t>
@@ -3272,19 +3272,19 @@
     <t xml:space="preserve">10.9191856384277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7517709732056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.92848777771</t>
+    <t xml:space="preserve">10.7517719268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9284858703613</t>
   </si>
   <si>
     <t xml:space="preserve">11.0959024429321</t>
   </si>
   <si>
-    <t xml:space="preserve">11.002893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7889738082886</t>
+    <t xml:space="preserve">11.0028944015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7889747619629</t>
   </si>
   <si>
     <t xml:space="preserve">11.1052026748657</t>
@@ -3296,7 +3296,7 @@
     <t xml:space="preserve">10.779673576355</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9935932159424</t>
+    <t xml:space="preserve">10.9935922622681</t>
   </si>
   <si>
     <t xml:space="preserve">9.79378414154053</t>
@@ -3305,58 +3305,58 @@
     <t xml:space="preserve">9.13807487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30564975738525</t>
+    <t xml:space="preserve">8.30565071105957</t>
   </si>
   <si>
     <t xml:space="preserve">8.31494998931885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45446300506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7985954284668</t>
+    <t xml:space="preserve">8.45446395874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79859447479248</t>
   </si>
   <si>
     <t xml:space="preserve">8.50096797943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64978218078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84974956512451</t>
+    <t xml:space="preserve">8.64978122711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8497486114502</t>
   </si>
   <si>
     <t xml:space="preserve">8.99391174316406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42175006866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29619026184082</t>
+    <t xml:space="preserve">9.42175102233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2961893081665</t>
   </si>
   <si>
     <t xml:space="preserve">9.34734439849854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44035243988037</t>
+    <t xml:space="preserve">9.44035148620605</t>
   </si>
   <si>
     <t xml:space="preserve">9.5147590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46825504302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31014060974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11947441101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2310848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68217372894287</t>
+    <t xml:space="preserve">9.4682559967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31014156341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11947345733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23108386993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68217468261719</t>
   </si>
   <si>
     <t xml:space="preserve">9.58916568756104</t>
@@ -3368,13 +3368,13 @@
     <t xml:space="preserve">9.3008394241333</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36594486236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15202617645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74744033813477</t>
+    <t xml:space="preserve">9.36594581604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15202713012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74743938446045</t>
   </si>
   <si>
     <t xml:space="preserve">8.56607341766357</t>
@@ -3383,16 +3383,16 @@
     <t xml:space="preserve">8.66838264465332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57537364959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61257743835449</t>
+    <t xml:space="preserve">8.5753755569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61257839202881</t>
   </si>
   <si>
     <t xml:space="preserve">8.65443134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67303371429443</t>
+    <t xml:space="preserve">8.67303276062012</t>
   </si>
   <si>
     <t xml:space="preserve">8.82649707794189</t>
@@ -3404,7 +3404,7 @@
     <t xml:space="preserve">9.02646541595459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88695240020752</t>
+    <t xml:space="preserve">8.88695335388184</t>
   </si>
   <si>
     <t xml:space="preserve">8.76604175567627</t>
@@ -3413,16 +3413,16 @@
     <t xml:space="preserve">8.77534294128418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92880630493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80324554443359</t>
+    <t xml:space="preserve">8.92880725860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80324459075928</t>
   </si>
   <si>
     <t xml:space="preserve">8.6032772064209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48236656188965</t>
+    <t xml:space="preserve">8.48236560821533</t>
   </si>
   <si>
     <t xml:space="preserve">8.55212211608887</t>
@@ -3434,19 +3434,19 @@
     <t xml:space="preserve">9.20783138275146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0077037811279</t>
+    <t xml:space="preserve">10.0077047348022</t>
   </si>
   <si>
     <t xml:space="preserve">10.0387487411499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9337797164917</t>
+    <t xml:space="preserve">9.93378067016602</t>
   </si>
   <si>
     <t xml:space="preserve">9.98149299621582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2391414642334</t>
+    <t xml:space="preserve">10.2391405105591</t>
   </si>
   <si>
     <t xml:space="preserve">10.4204502105713</t>
@@ -3455,7 +3455,7 @@
     <t xml:space="preserve">10.5826730728149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3154821395874</t>
+    <t xml:space="preserve">10.3154830932617</t>
   </si>
   <si>
     <t xml:space="preserve">10.3441095352173</t>
@@ -3464,7 +3464,7 @@
     <t xml:space="preserve">10.4013643264771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2582263946533</t>
+    <t xml:space="preserve">10.2582273483276</t>
   </si>
   <si>
     <t xml:space="preserve">10.4299926757812</t>
@@ -3473,13 +3473,13 @@
     <t xml:space="preserve">10.487247467041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5254173278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99103546142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74293041229248</t>
+    <t xml:space="preserve">10.5254182815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9910364151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74292945861816</t>
   </si>
   <si>
     <t xml:space="preserve">9.56162166595459</t>
@@ -3488,7 +3488,7 @@
     <t xml:space="preserve">9.79064273834229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19423484802246</t>
+    <t xml:space="preserve">9.19423389434814</t>
   </si>
   <si>
     <t xml:space="preserve">9.28488731384277</t>
@@ -3545,10 +3545,10 @@
     <t xml:space="preserve">9.14175033569336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92227268218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22763252258301</t>
+    <t xml:space="preserve">8.92227172851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22763347625732</t>
   </si>
   <si>
     <t xml:space="preserve">9.33260059356689</t>
@@ -3557,10 +3557,10 @@
     <t xml:space="preserve">9.39939880371094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43756866455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47573947906494</t>
+    <t xml:space="preserve">9.4375696182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47573852539062</t>
   </si>
   <si>
     <t xml:space="preserve">9.32782936096191</t>
@@ -3572,7 +3572,7 @@
     <t xml:space="preserve">9.18469142913818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50913715362549</t>
+    <t xml:space="preserve">9.5091381072998</t>
   </si>
   <si>
     <t xml:space="preserve">9.81927013397217</t>
@@ -3596,7 +3596,7 @@
     <t xml:space="preserve">10.1150884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0864610671997</t>
+    <t xml:space="preserve">10.0864601135254</t>
   </si>
   <si>
     <t xml:space="preserve">10.01966381073</t>
@@ -3620,7 +3620,7 @@
     <t xml:space="preserve">9.25148868560791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90795707702637</t>
+    <t xml:space="preserve">8.90795803070068</t>
   </si>
   <si>
     <t xml:space="preserve">8.87455940246582</t>
@@ -3629,19 +3629,19 @@
     <t xml:space="preserve">8.88410186767578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7505054473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69324970245361</t>
+    <t xml:space="preserve">8.75050640106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69325065612793</t>
   </si>
   <si>
     <t xml:space="preserve">8.76004886627197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44037437438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42128753662109</t>
+    <t xml:space="preserve">8.44037342071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42128849029541</t>
   </si>
   <si>
     <t xml:space="preserve">8.53579902648926</t>
@@ -3659,19 +3659,19 @@
     <t xml:space="preserve">9.07495212554932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11312198638916</t>
+    <t xml:space="preserve">9.11312294006348</t>
   </si>
   <si>
     <t xml:space="preserve">8.8268461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61690998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63599491119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51671409606934</t>
+    <t xml:space="preserve">8.61691093444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63599586486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51671314239502</t>
   </si>
   <si>
     <t xml:space="preserve">8.39266109466553</t>
@@ -3695,13 +3695,13 @@
     <t xml:space="preserve">7.7676248550415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10638523101807</t>
+    <t xml:space="preserve">8.10638427734375</t>
   </si>
   <si>
     <t xml:space="preserve">8.26383686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62168121337891</t>
+    <t xml:space="preserve">8.62168216705322</t>
   </si>
   <si>
     <t xml:space="preserve">8.52148532867432</t>
@@ -3713,7 +3713,7 @@
     <t xml:space="preserve">8.61213874816895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59782600402832</t>
+    <t xml:space="preserve">8.597825050354</t>
   </si>
   <si>
     <t xml:space="preserve">8.99861240386963</t>
@@ -3722,19 +3722,19 @@
     <t xml:space="preserve">8.77913379669189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92704296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97952747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05109596252441</t>
+    <t xml:space="preserve">8.92704200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97952651977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0510950088501</t>
   </si>
   <si>
     <t xml:space="preserve">9.23240375518799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24194622039795</t>
+    <t xml:space="preserve">9.24194717407227</t>
   </si>
   <si>
     <t xml:space="preserve">9.29920196533203</t>
@@ -3743,7 +3743,7 @@
     <t xml:space="preserve">9.11789417266846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52822303771973</t>
+    <t xml:space="preserve">9.52822208404541</t>
   </si>
   <si>
     <t xml:space="preserve">9.89560985565186</t>
@@ -3770,13 +3770,13 @@
     <t xml:space="preserve">11.2601928710938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.11705493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0788841247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1361398696899</t>
+    <t xml:space="preserve">11.1170539855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0788850784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1361408233643</t>
   </si>
   <si>
     <t xml:space="preserve">10.8975772857666</t>
@@ -3785,16 +3785,16 @@
     <t xml:space="preserve">10.6113004684448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7162685394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6590127944946</t>
+    <t xml:space="preserve">10.7162675857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6590137481689</t>
   </si>
   <si>
     <t xml:space="preserve">10.6971836090088</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5063333511353</t>
+    <t xml:space="preserve">10.5063323974609</t>
   </si>
   <si>
     <t xml:space="preserve">10.5540466308594</t>
@@ -3803,7 +3803,7 @@
     <t xml:space="preserve">10.7258110046387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.563588142395</t>
+    <t xml:space="preserve">10.5635871887207</t>
   </si>
   <si>
     <t xml:space="preserve">10.4490776062012</t>
@@ -3824,10 +3824,10 @@
     <t xml:space="preserve">10.1055459976196</t>
   </si>
   <si>
-    <t xml:space="preserve">10.01012134552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95286655426025</t>
+    <t xml:space="preserve">10.0101203918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95286560058594</t>
   </si>
   <si>
     <t xml:space="preserve">9.82881259918213</t>
@@ -3845,10 +3845,10 @@
     <t xml:space="preserve">10.496789932251</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6208438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8689489364624</t>
+    <t xml:space="preserve">10.6208429336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8689498901367</t>
   </si>
   <si>
     <t xml:space="preserve">10.9166612625122</t>
@@ -3872,22 +3872,22 @@
     <t xml:space="preserve">11.0502576828003</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3269910812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3651599884033</t>
+    <t xml:space="preserve">11.3269901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3651609420776</t>
   </si>
   <si>
     <t xml:space="preserve">11.8041172027588</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2239894866943</t>
+    <t xml:space="preserve">12.2239904403687</t>
   </si>
   <si>
     <t xml:space="preserve">12.5579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7392873764038</t>
+    <t xml:space="preserve">12.7392864227295</t>
   </si>
   <si>
     <t xml:space="preserve">12.7869987487793</t>
@@ -3923,7 +3923,7 @@
     <t xml:space="preserve">13.1400728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3309230804443</t>
+    <t xml:space="preserve">13.3309240341187</t>
   </si>
   <si>
     <t xml:space="preserve">14.2279214859009</t>
@@ -3941,7 +3941,7 @@
     <t xml:space="preserve">13.0541896820068</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2927541732788</t>
+    <t xml:space="preserve">13.2927532196045</t>
   </si>
   <si>
     <t xml:space="preserve">13.3595514297485</t>
@@ -3971,13 +3971,13 @@
     <t xml:space="preserve">12.6724882125854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6629457473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7774562835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4339246749878</t>
+    <t xml:space="preserve">12.6629467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7774572372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4339256286621</t>
   </si>
   <si>
     <t xml:space="preserve">12.3671274185181</t>
@@ -3986,13 +3986,13 @@
     <t xml:space="preserve">12.8824243545532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2354984283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7202005386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.025562286377</t>
+    <t xml:space="preserve">13.2354974746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7202014923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0255613327026</t>
   </si>
   <si>
     <t xml:space="preserve">12.9587650299072</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">12.939679145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7583713531494</t>
+    <t xml:space="preserve">12.7583703994751</t>
   </si>
   <si>
     <t xml:space="preserve">12.462553024292</t>
@@ -4022,7 +4022,7 @@
     <t xml:space="preserve">13.5504016876221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7698812484741</t>
+    <t xml:space="preserve">13.7698802947998</t>
   </si>
   <si>
     <t xml:space="preserve">13.7412519454956</t>
@@ -4037,7 +4037,7 @@
     <t xml:space="preserve">13.645827293396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7889652252197</t>
+    <t xml:space="preserve">13.7889642715454</t>
   </si>
   <si>
     <t xml:space="preserve">13.7794227600098</t>
@@ -4716,6 +4716,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.2559995651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.253999710083</t>
   </si>
 </sst>
 </file>
@@ -61217,7 +61220,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6494212963</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>353062</v>
@@ -61238,6 +61241,32 @@
         <v>1567</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6494444444</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>632494</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>10.2440004348755</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>10.4460000991821</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>10.253999710083</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BRE.MI.xlsx
+++ b/data/BRE.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4307165145874</t>
+    <t xml:space="preserve">7.43071794509888</t>
   </si>
   <si>
     <t xml:space="preserve">BRE.MI</t>
@@ -47,70 +47,70 @@
     <t xml:space="preserve">7.40021562576294</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17991924285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76305389404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77999877929688</t>
+    <t xml:space="preserve">7.17991971969604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76305437088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77999973297119</t>
   </si>
   <si>
     <t xml:space="preserve">6.66307401657104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84100532531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02910137176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79016733169556</t>
+    <t xml:space="preserve">6.84100437164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02910232543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79016780853271</t>
   </si>
   <si>
     <t xml:space="preserve">6.43938970565796</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42413949966431</t>
+    <t xml:space="preserve">6.42413902282715</t>
   </si>
   <si>
     <t xml:space="preserve">6.50378370285034</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16317367553711</t>
+    <t xml:space="preserve">6.16317415237427</t>
   </si>
   <si>
     <t xml:space="preserve">6.42922258377075</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47667026519775</t>
+    <t xml:space="preserve">6.47667074203491</t>
   </si>
   <si>
     <t xml:space="preserve">6.53598070144653</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54953765869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62070894241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45802974700928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39194202423096</t>
+    <t xml:space="preserve">6.54953718185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62070989608765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45803022384644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3919415473938</t>
   </si>
   <si>
     <t xml:space="preserve">6.28009939193726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21062231063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07844400405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91237592697144</t>
+    <t xml:space="preserve">6.21062183380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.078444480896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91237640380859</t>
   </si>
   <si>
     <t xml:space="preserve">5.55482149124146</t>
@@ -119,139 +119,139 @@
     <t xml:space="preserve">5.71749973297119</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93101692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88187456130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94118404388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25976467132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19198179244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34279870986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36482810974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3224630355835</t>
+    <t xml:space="preserve">5.93101644515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88187408447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94118452072144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25976514816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19198226928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34279918670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36482858657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32246398925781</t>
   </si>
   <si>
     <t xml:space="preserve">6.46480846405029</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33432579040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19367599487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29535150527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35296583175659</t>
+    <t xml:space="preserve">6.33432626724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19367694854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29535102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35296678543091</t>
   </si>
   <si>
     <t xml:space="preserve">6.44616794586182</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58342885971069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55462121963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30362415313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34090375900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37649059295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33751487731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37987947463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32904195785522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32395935058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42224407196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40360355377197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5137505531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40190982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49341678619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33412456512451</t>
+    <t xml:space="preserve">6.58342933654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55462074279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30362462997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.340904712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3764910697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33751440048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37987995147705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32904243469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32395839691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42224311828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40360403060913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375150680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40190887451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49341583251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33412551879883</t>
   </si>
   <si>
     <t xml:space="preserve">7.53408670425415</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41377067565918</t>
+    <t xml:space="preserve">7.41377019882202</t>
   </si>
   <si>
     <t xml:space="preserve">7.41207599639893</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58153438568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70184946060181</t>
+    <t xml:space="preserve">7.58153343200684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70184850692749</t>
   </si>
   <si>
     <t xml:space="preserve">7.67304134368896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62389802932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40529823303223</t>
+    <t xml:space="preserve">7.62389850616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40529870986938</t>
   </si>
   <si>
     <t xml:space="preserve">7.45105171203613</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42393779754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53916931152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57644987106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62559175491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67643022537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69337558746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6628737449646</t>
+    <t xml:space="preserve">7.42393827438354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5391697883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57645034790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62559270858765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.676429271698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69337606430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66287517547607</t>
   </si>
   <si>
     <t xml:space="preserve">7.71032238006592</t>
@@ -263,55 +263,55 @@
     <t xml:space="preserve">7.78488302230835</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05093097686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99670600891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9136700630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96281480789185</t>
+    <t xml:space="preserve">8.05093193054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99670553207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91367053985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.962815284729</t>
   </si>
   <si>
     <t xml:space="preserve">8.02381896972656</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94925832748413</t>
+    <t xml:space="preserve">7.9492564201355</t>
   </si>
   <si>
     <t xml:space="preserve">8.0034818649292</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90858745574951</t>
+    <t xml:space="preserve">7.90858697891235</t>
   </si>
   <si>
     <t xml:space="preserve">7.99162244796753</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1424388885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.786376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81179618835449</t>
+    <t xml:space="preserve">8.14243793487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78637886047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81179809570312</t>
   </si>
   <si>
     <t xml:space="preserve">8.82026958465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86263370513916</t>
+    <t xml:space="preserve">8.86263465881348</t>
   </si>
   <si>
     <t xml:space="preserve">8.73553943634033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66775703430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65928554534912</t>
+    <t xml:space="preserve">8.66775798797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6592845916748</t>
   </si>
   <si>
     <t xml:space="preserve">8.71859550476074</t>
@@ -320,28 +320,28 @@
     <t xml:space="preserve">8.83048343658447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76162815093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82187652587891</t>
+    <t xml:space="preserve">8.76162910461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82187557220459</t>
   </si>
   <si>
     <t xml:space="preserve">8.77023601531982</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77884292602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92515563964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95097637176514</t>
+    <t xml:space="preserve">8.77884197235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92515754699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95097732543945</t>
   </si>
   <si>
     <t xml:space="preserve">9.0456485748291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28663921356201</t>
+    <t xml:space="preserve">9.28663730621338</t>
   </si>
   <si>
     <t xml:space="preserve">9.19196510314941</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">8.89933586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5774450302124</t>
+    <t xml:space="preserve">8.57744598388672</t>
   </si>
   <si>
     <t xml:space="preserve">8.40531158447266</t>
@@ -365,10 +365,10 @@
     <t xml:space="preserve">8.61531448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91654968261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93376350402832</t>
+    <t xml:space="preserve">8.91654872894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93376159667969</t>
   </si>
   <si>
     <t xml:space="preserve">8.88212299346924</t>
@@ -380,40 +380,40 @@
     <t xml:space="preserve">8.56023120880127</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91989183425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55506706237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35367107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50514888763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5378532409668</t>
+    <t xml:space="preserve">7.91989326477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55506801605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35367012023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50514793395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53785514831543</t>
   </si>
   <si>
     <t xml:space="preserve">8.13333892822266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95948362350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95776224136353</t>
+    <t xml:space="preserve">7.95948457717896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95776081085205</t>
   </si>
   <si>
     <t xml:space="preserve">8.24522590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32096481323242</t>
+    <t xml:space="preserve">8.32096576690674</t>
   </si>
   <si>
     <t xml:space="preserve">8.34850597381592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26932334899902</t>
+    <t xml:space="preserve">8.26932525634766</t>
   </si>
   <si>
     <t xml:space="preserve">8.44145965576172</t>
@@ -422,28 +422,28 @@
     <t xml:space="preserve">8.40875434875488</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5344123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40014839172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5103120803833</t>
+    <t xml:space="preserve">8.53441143035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.400146484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51031398773193</t>
   </si>
   <si>
     <t xml:space="preserve">8.46555805206299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62392330169678</t>
+    <t xml:space="preserve">8.62392234802246</t>
   </si>
   <si>
     <t xml:space="preserve">8.67556190490723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81326961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66695499420166</t>
+    <t xml:space="preserve">8.81326866149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66695404052734</t>
   </si>
   <si>
     <t xml:space="preserve">8.99400997161865</t>
@@ -461,34 +461,34 @@
     <t xml:space="preserve">8.95958423614502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05425643920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00261783599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06286430358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98540306091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79605579376221</t>
+    <t xml:space="preserve">9.0542573928833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00261688232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06286334991455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9854040145874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79605484008789</t>
   </si>
   <si>
     <t xml:space="preserve">8.75302219390869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78744792938232</t>
+    <t xml:space="preserve">8.78744983673096</t>
   </si>
   <si>
     <t xml:space="preserve">8.70998859405518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73580932617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96819019317627</t>
+    <t xml:space="preserve">8.73580741882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96818923950195</t>
   </si>
   <si>
     <t xml:space="preserve">9.01122283935547</t>
@@ -509,16 +509,16 @@
     <t xml:space="preserve">9.10589694976807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12310981750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14032459259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22639179229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38131141662598</t>
+    <t xml:space="preserve">9.12311172485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1403226852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22639083862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38131237030029</t>
   </si>
   <si>
     <t xml:space="preserve">9.13171672821045</t>
@@ -533,46 +533,46 @@
     <t xml:space="preserve">9.14893054962158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0714693069458</t>
+    <t xml:space="preserve">9.07147026062012</t>
   </si>
   <si>
     <t xml:space="preserve">9.37270545959473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47598552703857</t>
+    <t xml:space="preserve">9.47598648071289</t>
   </si>
   <si>
     <t xml:space="preserve">9.62229919433594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69115447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69976043701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48459243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.260817527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09729099273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52762508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79443454742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51041316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32967281341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46737861633301</t>
+    <t xml:space="preserve">9.69115257263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6997594833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48459339141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26081943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0972900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52762699127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79443550109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51041221618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32967185974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46737766265869</t>
   </si>
   <si>
     <t xml:space="preserve">9.24360466003418</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">9.33827781677246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31245803833008</t>
+    <t xml:space="preserve">9.31245708465576</t>
   </si>
   <si>
     <t xml:space="preserve">9.08007717132568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45016670227051</t>
+    <t xml:space="preserve">9.45016574859619</t>
   </si>
   <si>
     <t xml:space="preserve">9.56205272674561</t>
@@ -602,40 +602,40 @@
     <t xml:space="preserve">9.39852523803711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40713119506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53623199462891</t>
+    <t xml:space="preserve">9.40713024139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53623294830322</t>
   </si>
   <si>
     <t xml:space="preserve">9.65672779083252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70836544036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83746814727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89771270751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3280487060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3882961273193</t>
+    <t xml:space="preserve">9.70836639404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83746719360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89771461486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.328049659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3882970809937</t>
   </si>
   <si>
     <t xml:space="preserve">10.1817350387573</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3022289276123</t>
+    <t xml:space="preserve">10.302227973938</t>
   </si>
   <si>
     <t xml:space="preserve">10.3452634811401</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3710832595825</t>
+    <t xml:space="preserve">10.3710842132568</t>
   </si>
   <si>
     <t xml:space="preserve">10.4227237701416</t>
@@ -644,19 +644,19 @@
     <t xml:space="preserve">10.5776453018188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6034641265869</t>
+    <t xml:space="preserve">10.6034650802612</t>
   </si>
   <si>
     <t xml:space="preserve">10.5862512588501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5690383911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5260038375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4915761947632</t>
+    <t xml:space="preserve">10.5690364837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5260047912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4915790557861</t>
   </si>
   <si>
     <t xml:space="preserve">10.5518255233765</t>
@@ -665,7 +665,7 @@
     <t xml:space="preserve">10.5173969268799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.594856262207</t>
+    <t xml:space="preserve">10.5948572158813</t>
   </si>
   <si>
     <t xml:space="preserve">10.5001831054688</t>
@@ -674,16 +674,16 @@
     <t xml:space="preserve">10.4657573699951</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2075567245483</t>
+    <t xml:space="preserve">10.207555770874</t>
   </si>
   <si>
     <t xml:space="preserve">10.6895322799683</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4485425949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4399385452271</t>
+    <t xml:space="preserve">10.448543548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4399366378784</t>
   </si>
   <si>
     <t xml:space="preserve">10.9133052825928</t>
@@ -692,58 +692,58 @@
     <t xml:space="preserve">10.8272390365601</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9046993255615</t>
+    <t xml:space="preserve">10.9046983718872</t>
   </si>
   <si>
     <t xml:space="preserve">10.7669916152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8530597686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0768337249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1112585067749</t>
+    <t xml:space="preserve">10.8530588150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0768327713013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1112604141235</t>
   </si>
   <si>
     <t xml:space="preserve">11.0424070358276</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7842063903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0338001251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1887197494507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3608551025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3264284133911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1628999710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1715078353882</t>
+    <t xml:space="preserve">10.7842044830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0337991714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.188720703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3608560562134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3264274597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1629018783569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1715068817139</t>
   </si>
   <si>
     <t xml:space="preserve">11.2661809921265</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1801147460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4383153915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2920007705688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4469213485718</t>
+    <t xml:space="preserve">11.1801137924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4383144378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2920017242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4469223022461</t>
   </si>
   <si>
     <t xml:space="preserve">11.6620893478394</t>
@@ -755,13 +755,13 @@
     <t xml:space="preserve">11.6362686157227</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6706972122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6965160369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7567644119263</t>
+    <t xml:space="preserve">11.6706953048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6965169906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.756763458252</t>
   </si>
   <si>
     <t xml:space="preserve">11.808403968811</t>
@@ -770,7 +770,7 @@
     <t xml:space="preserve">11.8686504364014</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9288988113403</t>
+    <t xml:space="preserve">11.928897857666</t>
   </si>
   <si>
     <t xml:space="preserve">11.9202909469604</t>
@@ -779,28 +779,28 @@
     <t xml:space="preserve">11.9375038146973</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1698846817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1871004104614</t>
+    <t xml:space="preserve">12.1698837280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1870994567871</t>
   </si>
   <si>
     <t xml:space="preserve">12.1182460784912</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1096363067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1526727676392</t>
+    <t xml:space="preserve">12.1096382141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1526718139648</t>
   </si>
   <si>
     <t xml:space="preserve">12.195704460144</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1440649032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.014965057373</t>
+    <t xml:space="preserve">12.1440658569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0149631500244</t>
   </si>
   <si>
     <t xml:space="preserve">12.1268520355225</t>
@@ -809,19 +809,19 @@
     <t xml:space="preserve">11.963324546814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3936605453491</t>
+    <t xml:space="preserve">12.3936595916748</t>
   </si>
   <si>
     <t xml:space="preserve">12.496940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3506259918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4280862808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4194812774658</t>
+    <t xml:space="preserve">12.3506269454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4280872344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4194793701172</t>
   </si>
   <si>
     <t xml:space="preserve">12.5916147232056</t>
@@ -830,52 +830,52 @@
     <t xml:space="preserve">12.4883337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7379293441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8412084579468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7637481689453</t>
+    <t xml:space="preserve">12.7379274368286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8412075042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7637491226196</t>
   </si>
   <si>
     <t xml:space="preserve">12.9617042541504</t>
   </si>
   <si>
-    <t xml:space="preserve">12.996129989624</t>
+    <t xml:space="preserve">12.9961290359497</t>
   </si>
   <si>
     <t xml:space="preserve">12.7207155227661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6346483230591</t>
+    <t xml:space="preserve">12.6346473693848</t>
   </si>
   <si>
     <t xml:space="preserve">12.6432552337646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5227603912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0666036605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9719295501709</t>
+    <t xml:space="preserve">12.5227613449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0666055679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9719305038452</t>
   </si>
   <si>
     <t xml:space="preserve">12.2387390136719</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3696804046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3871393203735</t>
+    <t xml:space="preserve">12.3696794509888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3871402740479</t>
   </si>
   <si>
     <t xml:space="preserve">12.5006237030029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6053771972656</t>
+    <t xml:space="preserve">12.6053762435913</t>
   </si>
   <si>
     <t xml:space="preserve">12.212550163269</t>
@@ -884,13 +884,13 @@
     <t xml:space="preserve">12.0816078186035</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1863622665405</t>
+    <t xml:space="preserve">12.1863603591919</t>
   </si>
   <si>
     <t xml:space="preserve">12.0205011367798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9855842590332</t>
+    <t xml:space="preserve">11.9855833053589</t>
   </si>
   <si>
     <t xml:space="preserve">11.7149696350098</t>
@@ -902,52 +902,52 @@
     <t xml:space="preserve">11.6014862060547</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4356250762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3570604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6451320648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8371820449829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6364049911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.697509765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5752983093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3221426010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4268951416016</t>
+    <t xml:space="preserve">11.4356260299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3570613861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.645133972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8371829986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6364040374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6975107192993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5752973556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3221435546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4268960952759</t>
   </si>
   <si>
     <t xml:space="preserve">11.1562824249268</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3483304977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9642333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824703216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1300935745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0427989959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1475524902344</t>
+    <t xml:space="preserve">11.348331451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9642343521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824712753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1300945281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.042799949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.147554397583</t>
   </si>
   <si>
     <t xml:space="preserve">11.845911026001</t>
@@ -968,43 +968,43 @@
     <t xml:space="preserve">11.8284530639648</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7760753631592</t>
+    <t xml:space="preserve">11.7760744094849</t>
   </si>
   <si>
     <t xml:space="preserve">11.7324285507202</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6189441680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.400707244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3919773101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4094362258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2872247695923</t>
+    <t xml:space="preserve">11.6189451217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4007081985474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.391978263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4094381332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2872257232666</t>
   </si>
   <si>
     <t xml:space="preserve">11.3308715820312</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2697639465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2784948348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0689859390259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1737403869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2610359191895</t>
+    <t xml:space="preserve">11.2697649002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2784957885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0689878463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1737422943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2610368728638</t>
   </si>
   <si>
     <t xml:space="preserve">11.095175743103</t>
@@ -1019,37 +1019,37 @@
     <t xml:space="preserve">11.5578384399414</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4880018234253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4530849456787</t>
+    <t xml:space="preserve">11.4880027770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.453085899353</t>
   </si>
   <si>
     <t xml:space="preserve">11.6625928878784</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7411575317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7935342788696</t>
+    <t xml:space="preserve">11.7411584854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7935352325439</t>
   </si>
   <si>
     <t xml:space="preserve">11.8109931945801</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9244775772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8197240829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9768543243408</t>
+    <t xml:space="preserve">11.9244766235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8197231292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9768533706665</t>
   </si>
   <si>
     <t xml:space="preserve">12.107795715332</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1776313781738</t>
+    <t xml:space="preserve">12.1776323318481</t>
   </si>
   <si>
     <t xml:space="preserve">12.3522214889526</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">12.3173036575317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3784112930298</t>
+    <t xml:space="preserve">12.3784103393555</t>
   </si>
   <si>
     <t xml:space="preserve">12.4918937683105</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">12.5966482162476</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4744358062744</t>
+    <t xml:space="preserve">12.4744348526001</t>
   </si>
   <si>
     <t xml:space="preserve">12.5180816650391</t>
@@ -1082,28 +1082,28 @@
     <t xml:space="preserve">12.6228361129761</t>
   </si>
   <si>
-    <t xml:space="preserve">12.614107131958</t>
+    <t xml:space="preserve">12.6141052246094</t>
   </si>
   <si>
     <t xml:space="preserve">12.762508392334</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7712373733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8236150741577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6490230560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7363185882568</t>
+    <t xml:space="preserve">12.7712383270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8236141204834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6490240097046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7363195419312</t>
   </si>
   <si>
     <t xml:space="preserve">12.7450485229492</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2212791442871</t>
+    <t xml:space="preserve">12.2212781906128</t>
   </si>
   <si>
     <t xml:space="preserve">12.1601734161377</t>
@@ -1115,28 +1115,28 @@
     <t xml:space="preserve">12.4482460021973</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4395170211792</t>
+    <t xml:space="preserve">12.4395160675049</t>
   </si>
   <si>
     <t xml:space="preserve">12.4045991897583</t>
   </si>
   <si>
-    <t xml:space="preserve">12.360951423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7236995697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2086591720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0864458084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2959518432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2173891067505</t>
+    <t xml:space="preserve">12.3609504699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7236976623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.086446762085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2959537506104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2173900604248</t>
   </si>
   <si>
     <t xml:space="preserve">11.4181671142578</t>
@@ -1145,7 +1145,7 @@
     <t xml:space="preserve">11.3396015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1650104522705</t>
+    <t xml:space="preserve">11.1650114059448</t>
   </si>
   <si>
     <t xml:space="preserve">11.1912002563477</t>
@@ -1154,25 +1154,25 @@
     <t xml:space="preserve">11.1213645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1126346588135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0515289306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9991512298584</t>
+    <t xml:space="preserve">11.1126356124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0515298843384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9991521835327</t>
   </si>
   <si>
     <t xml:space="preserve">11.1999292373657</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0777177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2261180877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0602569580078</t>
+    <t xml:space="preserve">11.0777187347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2261190414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0602588653564</t>
   </si>
   <si>
     <t xml:space="preserve">10.8507509231567</t>
@@ -1181,16 +1181,16 @@
     <t xml:space="preserve">10.8682088851929</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4967317581177</t>
+    <t xml:space="preserve">11.496732711792</t>
   </si>
   <si>
     <t xml:space="preserve">11.5665683746338</t>
   </si>
   <si>
-    <t xml:space="preserve">11.540379524231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5491094589233</t>
+    <t xml:space="preserve">11.5403785705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5491104125977</t>
   </si>
   <si>
     <t xml:space="preserve">11.6276741027832</t>
@@ -1208,76 +1208,76 @@
     <t xml:space="preserve">10.6936197280884</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6150560379028</t>
+    <t xml:space="preserve">10.6150550842285</t>
   </si>
   <si>
     <t xml:space="preserve">10.6587009429932</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5626773834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.527759552002</t>
+    <t xml:space="preserve">10.5626764297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5277605056763</t>
   </si>
   <si>
     <t xml:space="preserve">10.5975952148438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.53648853302</t>
+    <t xml:space="preserve">10.5364894866943</t>
   </si>
   <si>
     <t xml:space="preserve">10.4753828048706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4666547775269</t>
+    <t xml:space="preserve">10.4666538238525</t>
   </si>
   <si>
     <t xml:space="preserve">10.2920637130737</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3531703948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3706293106079</t>
+    <t xml:space="preserve">10.3531694412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3706283569336</t>
   </si>
   <si>
     <t xml:space="preserve">10.0738258361816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0389070510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82940196990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71591758728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.484112739563</t>
+    <t xml:space="preserve">10.0389089584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82940101623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71591663360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4841117858887</t>
   </si>
   <si>
     <t xml:space="preserve">10.684889793396</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9816923141479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1039047241211</t>
+    <t xml:space="preserve">10.9816932678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1039056777954</t>
   </si>
   <si>
     <t xml:space="preserve">10.9904222488403</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7372674942017</t>
+    <t xml:space="preserve">10.7372665405273</t>
   </si>
   <si>
     <t xml:space="preserve">10.6761617660522</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8332920074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7809143066406</t>
+    <t xml:space="preserve">10.833291053772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7809152603149</t>
   </si>
   <si>
     <t xml:space="preserve">10.9467754364014</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">10.9293155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7198085784912</t>
+    <t xml:space="preserve">10.7198095321655</t>
   </si>
   <si>
     <t xml:space="preserve">10.8245620727539</t>
@@ -1304,10 +1304,10 @@
     <t xml:space="preserve">10.6325130462646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6063261032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6674318313599</t>
+    <t xml:space="preserve">10.6063251495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6674327850342</t>
   </si>
   <si>
     <t xml:space="preserve">10.5190315246582</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">10.9205865859985</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6499719619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5801372528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4317350387573</t>
+    <t xml:space="preserve">10.6499710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5801362991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.431736946106</t>
   </si>
   <si>
     <t xml:space="preserve">10.3007926940918</t>
@@ -1337,31 +1337,31 @@
     <t xml:space="preserve">10.7633504867554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.683292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1636409759521</t>
+    <t xml:space="preserve">10.6832933425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1636400222778</t>
   </si>
   <si>
     <t xml:space="preserve">11.0657920837402</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9857339859009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.603235244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8523035049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.887885093689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0302104949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.074686050415</t>
+    <t xml:space="preserve">10.9857330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6032333374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8523044586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8878841400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0302085876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0746850967407</t>
   </si>
   <si>
     <t xml:space="preserve">11.0480012893677</t>
@@ -1370,10 +1370,10 @@
     <t xml:space="preserve">11.1013736724854</t>
   </si>
   <si>
-    <t xml:space="preserve">11.33265209198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0391054153442</t>
+    <t xml:space="preserve">11.3326511383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0391044616699</t>
   </si>
   <si>
     <t xml:space="preserve">11.1369533538818</t>
@@ -1382,7 +1382,7 @@
     <t xml:space="preserve">10.9145708084106</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7722463607788</t>
+    <t xml:space="preserve">10.7722454071045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7277679443359</t>
@@ -1394,10 +1394,10 @@
     <t xml:space="preserve">10.5053863525391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2830028533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4431190490723</t>
+    <t xml:space="preserve">10.2830038070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4431180953979</t>
   </si>
   <si>
     <t xml:space="preserve">10.4253282546997</t>
@@ -1421,43 +1421,43 @@
     <t xml:space="preserve">10.2385244369507</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3541650772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6299200057983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6655035018921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6477098464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8967800140381</t>
+    <t xml:space="preserve">10.3541641235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6299209594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6655025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6477108001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8967809677124</t>
   </si>
   <si>
     <t xml:space="preserve">10.8700942993164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.816722869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7099781036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4520130157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4964895248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3808517456055</t>
+    <t xml:space="preserve">10.8167219161987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.709979057312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4520139694214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4964904785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3808507919312</t>
   </si>
   <si>
     <t xml:space="preserve">10.398642539978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2029438018799</t>
+    <t xml:space="preserve">10.2029457092285</t>
   </si>
   <si>
     <t xml:space="preserve">10.4075365066528</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">10.6121292114258</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1406774520874</t>
+    <t xml:space="preserve">10.1406764984131</t>
   </si>
   <si>
     <t xml:space="preserve">10.060619354248</t>
@@ -1475,19 +1475,19 @@
     <t xml:space="preserve">10.131781578064</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0339336395264</t>
+    <t xml:space="preserve">10.0339326858521</t>
   </si>
   <si>
     <t xml:space="preserve">9.90939903259277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94497966766357</t>
+    <t xml:space="preserve">9.94498062133789</t>
   </si>
   <si>
     <t xml:space="preserve">10.0428295135498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82044506072998</t>
+    <t xml:space="preserve">9.8204460144043</t>
   </si>
   <si>
     <t xml:space="preserve">9.82934093475342</t>
@@ -1499,82 +1499,82 @@
     <t xml:space="preserve">10.2741069793701</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2474203109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1139907836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91829490661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92718982696533</t>
+    <t xml:space="preserve">10.2474212646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1139917373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91829395294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92718887329102</t>
   </si>
   <si>
     <t xml:space="preserve">10.0873050689697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96277046203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0695142745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1851530075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5587587356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5943393707275</t>
+    <t xml:space="preserve">9.96276950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0695152282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1851539611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5587577819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5943403244019</t>
   </si>
   <si>
     <t xml:space="preserve">10.3630609512329</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3274784088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2296304702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0517244338989</t>
+    <t xml:space="preserve">10.3274793624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2296314239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0517234802246</t>
   </si>
   <si>
     <t xml:space="preserve">10.2207345962524</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87381839752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55358600616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57137584686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01097106933594</t>
+    <t xml:space="preserve">9.87381744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55358505249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57137680053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01097011566162</t>
   </si>
   <si>
     <t xml:space="preserve">8.83751106262207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74855899810791</t>
+    <t xml:space="preserve">8.74855709075928</t>
   </si>
   <si>
     <t xml:space="preserve">8.41943073272705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73966312408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83306217193604</t>
+    <t xml:space="preserve">8.73966217041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83306312561035</t>
   </si>
   <si>
     <t xml:space="preserve">8.7174243927002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60178661346436</t>
+    <t xml:space="preserve">8.60178565979004</t>
   </si>
   <si>
     <t xml:space="preserve">8.46390724182129</t>
@@ -1583,25 +1583,25 @@
     <t xml:space="preserve">8.5306224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37940216064453</t>
+    <t xml:space="preserve">8.37940120697021</t>
   </si>
   <si>
     <t xml:space="preserve">8.65960502624512</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5261754989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79303455352783</t>
+    <t xml:space="preserve">8.52617454528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79303550720215</t>
   </si>
   <si>
     <t xml:space="preserve">8.69963359832764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89088344573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80193042755127</t>
+    <t xml:space="preserve">8.89088249206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80192852020264</t>
   </si>
   <si>
     <t xml:space="preserve">8.75745296478271</t>
@@ -1610,34 +1610,34 @@
     <t xml:space="preserve">8.53507041931152</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41053485870361</t>
+    <t xml:space="preserve">8.41053581237793</t>
   </si>
   <si>
     <t xml:space="preserve">8.31268692016602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07695960998535</t>
+    <t xml:space="preserve">8.07695865631104</t>
   </si>
   <si>
     <t xml:space="preserve">8.01024532318115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05472087860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11698913574219</t>
+    <t xml:space="preserve">8.05472183227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11698818206787</t>
   </si>
   <si>
     <t xml:space="preserve">8.29489517211914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32158088684082</t>
+    <t xml:space="preserve">8.32158184051514</t>
   </si>
   <si>
     <t xml:space="preserve">8.29934310913086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55286121368408</t>
+    <t xml:space="preserve">8.55286026000977</t>
   </si>
   <si>
     <t xml:space="preserve">8.58844184875488</t>
@@ -1646,10 +1646,10 @@
     <t xml:space="preserve">8.93091106414795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92201614379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85974979400635</t>
+    <t xml:space="preserve">8.92201805114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85974884033203</t>
   </si>
   <si>
     <t xml:space="preserve">9.0732364654541</t>
@@ -1664,52 +1664,52 @@
     <t xml:space="preserve">8.45945930480957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49059391021729</t>
+    <t xml:space="preserve">8.49059295654297</t>
   </si>
   <si>
     <t xml:space="preserve">8.27265739440918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38385009765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64181518554688</t>
+    <t xml:space="preserve">8.38384819030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64181327819824</t>
   </si>
   <si>
     <t xml:space="preserve">8.09920024871826</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9791111946106</t>
+    <t xml:space="preserve">7.97911262512207</t>
   </si>
   <si>
     <t xml:space="preserve">8.29044914245605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10364627838135</t>
+    <t xml:space="preserve">8.10364532470703</t>
   </si>
   <si>
     <t xml:space="preserve">8.1525707244873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86347150802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91239643096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97021579742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908262252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25486660003662</t>
+    <t xml:space="preserve">7.86347198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91239738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97021627426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908309936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25486755371094</t>
   </si>
   <si>
     <t xml:space="preserve">8.22818183898926</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05544567108154</t>
+    <t xml:space="preserve">9.05544757843018</t>
   </si>
   <si>
     <t xml:space="preserve">9.14439964294434</t>
@@ -1718,28 +1718,28 @@
     <t xml:space="preserve">8.78858757019043</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6907377243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70852947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76190090179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67294692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80637741088867</t>
+    <t xml:space="preserve">8.69073867797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70852851867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76189994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67294788360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80637836456299</t>
   </si>
   <si>
     <t xml:space="preserve">8.81082439422607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77524471282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91312122344971</t>
+    <t xml:space="preserve">8.77524375915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91312217712402</t>
   </si>
   <si>
     <t xml:space="preserve">9.17998123168945</t>
@@ -1751,13 +1751,13 @@
     <t xml:space="preserve">8.87754058837891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86864471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85085487365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81527328491211</t>
+    <t xml:space="preserve">8.86864376068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85085391998291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81527233123779</t>
   </si>
   <si>
     <t xml:space="preserve">8.81972122192383</t>
@@ -1766,19 +1766,19 @@
     <t xml:space="preserve">8.54841232299805</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45056343078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70408153533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89533042907715</t>
+    <t xml:space="preserve">8.45056438446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70408058166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89532947540283</t>
   </si>
   <si>
     <t xml:space="preserve">9.09102821350098</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97538757324219</t>
+    <t xml:space="preserve">8.9753885269165</t>
   </si>
   <si>
     <t xml:space="preserve">9.42905044555664</t>
@@ -1787,10 +1787,10 @@
     <t xml:space="preserve">9.29561996459961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34899139404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62474822998047</t>
+    <t xml:space="preserve">9.34899234771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62474727630615</t>
   </si>
   <si>
     <t xml:space="preserve">9.65143394470215</t>
@@ -1808,19 +1808,19 @@
     <t xml:space="preserve">9.26893424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1355037689209</t>
+    <t xml:space="preserve">9.13550472259521</t>
   </si>
   <si>
     <t xml:space="preserve">9.10881805419922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11771392822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06434154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04655170440674</t>
+    <t xml:space="preserve">9.11771488189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0643424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04655265808105</t>
   </si>
   <si>
     <t xml:space="preserve">9.23335361480713</t>
@@ -1832,10 +1832,10 @@
     <t xml:space="preserve">9.76707458496094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59806156158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51800346374512</t>
+    <t xml:space="preserve">9.59806251525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51800441741943</t>
   </si>
   <si>
     <t xml:space="preserve">9.33120155334473</t>
@@ -1844,34 +1844,34 @@
     <t xml:space="preserve">9.2867259979248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08213138580322</t>
+    <t xml:space="preserve">9.08213233947754</t>
   </si>
   <si>
     <t xml:space="preserve">8.96649360656738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00207424163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99317932128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1977710723877</t>
+    <t xml:space="preserve">9.0020751953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99318027496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19777202606201</t>
   </si>
   <si>
     <t xml:space="preserve">9.86492156982422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78486347198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75817775726318</t>
+    <t xml:space="preserve">9.78486442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75817680358887</t>
   </si>
   <si>
     <t xml:space="preserve">9.99835205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4342222213745</t>
+    <t xml:space="preserve">10.4342231750488</t>
   </si>
   <si>
     <t xml:space="preserve">10.5676527023315</t>
@@ -1883,10 +1883,10 @@
     <t xml:space="preserve">9.97166538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85602760314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18887710571289</t>
+    <t xml:space="preserve">9.8560266494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18887615203857</t>
   </si>
   <si>
     <t xml:space="preserve">9.27782917022705</t>
@@ -1895,19 +1895,19 @@
     <t xml:space="preserve">9.16219043731689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07778358459473</t>
+    <t xml:space="preserve">9.07778263092041</t>
   </si>
   <si>
     <t xml:space="preserve">9.0914192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05960083007812</t>
+    <t xml:space="preserve">9.05959987640381</t>
   </si>
   <si>
     <t xml:space="preserve">8.72776317596436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8459529876709</t>
+    <t xml:space="preserve">8.84595108032227</t>
   </si>
   <si>
     <t xml:space="preserve">8.89140892028809</t>
@@ -1928,19 +1928,19 @@
     <t xml:space="preserve">8.48229503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68230628967285</t>
+    <t xml:space="preserve">8.68230724334717</t>
   </si>
   <si>
     <t xml:space="preserve">8.88231754302979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99596118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97777652740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21870136260986</t>
+    <t xml:space="preserve">8.9959602355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9777774810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21870040893555</t>
   </si>
   <si>
     <t xml:space="preserve">9.07323741912842</t>
@@ -1949,52 +1949,52 @@
     <t xml:space="preserve">9.04596424102783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04141712188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26415824890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14596843719482</t>
+    <t xml:space="preserve">9.04141807556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26415729522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14597034454346</t>
   </si>
   <si>
     <t xml:space="preserve">9.39143753051758</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33688926696777</t>
+    <t xml:space="preserve">9.33688831329346</t>
   </si>
   <si>
     <t xml:space="preserve">9.17324447631836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03232669830322</t>
+    <t xml:space="preserve">9.03232574462891</t>
   </si>
   <si>
     <t xml:space="preserve">9.20960998535156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44598579406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38234615325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61872291564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6641788482666</t>
+    <t xml:space="preserve">9.44598484039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38234519958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6187219619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66417980194092</t>
   </si>
   <si>
     <t xml:space="preserve">9.57326602935791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25506496429443</t>
+    <t xml:space="preserve">9.25506591796875</t>
   </si>
   <si>
     <t xml:space="preserve">9.12778568267822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10960388183594</t>
+    <t xml:space="preserve">9.10960483551025</t>
   </si>
   <si>
     <t xml:space="preserve">8.80504131317139</t>
@@ -2003,13 +2003,13 @@
     <t xml:space="preserve">8.76412963867188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79140377044678</t>
+    <t xml:space="preserve">8.79140472412109</t>
   </si>
   <si>
     <t xml:space="preserve">8.93686676025391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24597549438477</t>
+    <t xml:space="preserve">9.24597454071045</t>
   </si>
   <si>
     <t xml:space="preserve">9.40962028503418</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">9.34597969055176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47774982452393</t>
+    <t xml:space="preserve">8.47774887084961</t>
   </si>
   <si>
     <t xml:space="preserve">8.4277458190918</t>
@@ -2027,7 +2027,7 @@
     <t xml:space="preserve">8.46865749359131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25046443939209</t>
+    <t xml:space="preserve">8.25046348571777</t>
   </si>
   <si>
     <t xml:space="preserve">8.05499839782715</t>
@@ -2036,52 +2036,52 @@
     <t xml:space="preserve">7.89589786529541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92771863937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90953588485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65497589111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56406211853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65952110290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4867844581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46860265731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54587888717651</t>
+    <t xml:space="preserve">7.92771768569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90953636169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65497541427612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56406259536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65952157974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48678398132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46860218048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54587841033936</t>
   </si>
   <si>
     <t xml:space="preserve">7.53678703308105</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7868013381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66861343383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53224182128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45496511459351</t>
+    <t xml:space="preserve">7.78680181503296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66861248016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53224229812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45496416091919</t>
   </si>
   <si>
     <t xml:space="preserve">7.71407032012939</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7231616973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59588146209717</t>
+    <t xml:space="preserve">7.72316217422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59588098526001</t>
   </si>
   <si>
     <t xml:space="preserve">7.8049840927124</t>
@@ -2090,13 +2090,13 @@
     <t xml:space="preserve">8.07772731781006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27773952484131</t>
+    <t xml:space="preserve">8.27773857116699</t>
   </si>
   <si>
     <t xml:space="preserve">8.35501480102539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52320766448975</t>
+    <t xml:space="preserve">8.52320671081543</t>
   </si>
   <si>
     <t xml:space="preserve">8.59139251708984</t>
@@ -2111,7 +2111,7 @@
     <t xml:space="preserve">8.49138641357422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60503005981445</t>
+    <t xml:space="preserve">8.60503101348877</t>
   </si>
   <si>
     <t xml:space="preserve">8.15954971313477</t>
@@ -2120,37 +2120,37 @@
     <t xml:space="preserve">8.00499629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88680791854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02317810058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11863899230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12772941589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95499324798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78225708007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6731595993042</t>
+    <t xml:space="preserve">7.88680744171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02317905426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11863803863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12773132324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95499277114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78225564956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67315912246704</t>
   </si>
   <si>
     <t xml:space="preserve">7.727707862854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7186164855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58224487304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74589061737061</t>
+    <t xml:space="preserve">7.71861600875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58224439620972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74589014053345</t>
   </si>
   <si>
     <t xml:space="preserve">8.13682174682617</t>
@@ -2168,10 +2168,10 @@
     <t xml:space="preserve">8.09136390686035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20500755310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48684120178223</t>
+    <t xml:space="preserve">8.20500659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48684215545654</t>
   </si>
   <si>
     <t xml:space="preserve">8.55502700805664</t>
@@ -2180,7 +2180,7 @@
     <t xml:space="preserve">8.59593772888184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66866874694824</t>
+    <t xml:space="preserve">8.66867065429688</t>
   </si>
   <si>
     <t xml:space="preserve">8.9686861038208</t>
@@ -2192,7 +2192,7 @@
     <t xml:space="preserve">8.74594593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29143142700195</t>
+    <t xml:space="preserve">9.29143238067627</t>
   </si>
   <si>
     <t xml:space="preserve">9.455078125</t>
@@ -2204,28 +2204,28 @@
     <t xml:space="preserve">9.71872806549072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90964889526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1096591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0551118850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81873512268066</t>
+    <t xml:space="preserve">9.90964794158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.109658241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0551099777222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81873416900635</t>
   </si>
   <si>
     <t xml:space="preserve">9.69145393371582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83691596984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58235645294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76418590545654</t>
+    <t xml:space="preserve">9.83691692352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58235740661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76418495178223</t>
   </si>
   <si>
     <t xml:space="preserve">9.65508842468262</t>
@@ -2252,19 +2252,19 @@
     <t xml:space="preserve">10.1732988357544</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2278470993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2823963165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3642196655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2369413375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2005748748779</t>
+    <t xml:space="preserve">10.2278480529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2823972702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.364218711853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2369394302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2005729675293</t>
   </si>
   <si>
     <t xml:space="preserve">10.2551221847534</t>
@@ -2273,10 +2273,10 @@
     <t xml:space="preserve">10.3460369110107</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4369497299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3278541564941</t>
+    <t xml:space="preserve">10.4369506835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3278532028198</t>
   </si>
   <si>
     <t xml:space="preserve">10.0278367996216</t>
@@ -2285,34 +2285,34 @@
     <t xml:space="preserve">10.0732946395874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1551160812378</t>
+    <t xml:space="preserve">10.1551170349121</t>
   </si>
   <si>
     <t xml:space="preserve">9.63690567016602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87328243255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98238086700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0642023086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0369281768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0460186004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1187505722046</t>
+    <t xml:space="preserve">9.87328338623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98237991333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0642032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0369291305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0460195541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1187496185303</t>
   </si>
   <si>
     <t xml:space="preserve">10.091477394104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92783164978027</t>
+    <t xml:space="preserve">9.92783069610596</t>
   </si>
   <si>
     <t xml:space="preserve">9.64599704742432</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">9.60054016113281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46416854858398</t>
+    <t xml:space="preserve">9.4641695022583</t>
   </si>
   <si>
     <t xml:space="preserve">9.41871070861816</t>
@@ -2342,28 +2342,28 @@
     <t xml:space="preserve">9.78236865997314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77327632904053</t>
+    <t xml:space="preserve">9.77327728271484</t>
   </si>
   <si>
     <t xml:space="preserve">9.55508232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59144878387451</t>
+    <t xml:space="preserve">9.5914478302002</t>
   </si>
   <si>
     <t xml:space="preserve">9.4914436340332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42780303955078</t>
+    <t xml:space="preserve">9.4278039932251</t>
   </si>
   <si>
     <t xml:space="preserve">8.70048904418945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64139556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64594078063965</t>
+    <t xml:space="preserve">8.64139461517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64594173431396</t>
   </si>
   <si>
     <t xml:space="preserve">8.40047264099121</t>
@@ -2375,67 +2375,67 @@
     <t xml:space="preserve">7.77316474914551</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87771606445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7004337310791</t>
+    <t xml:space="preserve">7.87771654129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70043325424194</t>
   </si>
   <si>
     <t xml:space="preserve">7.37768745422363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44587326049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81856536865234</t>
+    <t xml:space="preserve">7.44587278366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8185658454895</t>
   </si>
   <si>
     <t xml:space="preserve">6.89129638671875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79583692550659</t>
+    <t xml:space="preserve">6.79583644866943</t>
   </si>
   <si>
     <t xml:space="preserve">6.36399364471436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61855363845825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.09125137329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19125652313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79129028320312</t>
+    <t xml:space="preserve">6.61855459213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.09125185012817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19125699996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79129076004028</t>
   </si>
   <si>
     <t xml:space="preserve">7.37314128875732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00954055786133</t>
+    <t xml:space="preserve">8.00954151153564</t>
   </si>
   <si>
     <t xml:space="preserve">7.07312488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27768135070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70946741104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54582262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04579448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17762041091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06397676467896</t>
+    <t xml:space="preserve">7.27768230438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70946788787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54582214355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04579496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17761993408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06397724151611</t>
   </si>
   <si>
     <t xml:space="preserve">5.81850957870483</t>
@@ -2444,28 +2444,28 @@
     <t xml:space="preserve">5.3730297088623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67304658889771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74577760696411</t>
+    <t xml:space="preserve">5.67304611206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74577713012695</t>
   </si>
   <si>
     <t xml:space="preserve">6.11398029327393</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03670310974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85487461090088</t>
+    <t xml:space="preserve">6.03670358657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85487413406372</t>
   </si>
   <si>
     <t xml:space="preserve">5.90487766265869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14580011367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28217124938965</t>
+    <t xml:space="preserve">6.14579963684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28217172622681</t>
   </si>
   <si>
     <t xml:space="preserve">6.22762298583984</t>
@@ -2474,91 +2474,91 @@
     <t xml:space="preserve">6.2776255607605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63673639297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83220291137695</t>
+    <t xml:space="preserve">6.63673686981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83220195770264</t>
   </si>
   <si>
     <t xml:space="preserve">7.08676242828369</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9412989616394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1185827255249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05948781967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96857404708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72310543060303</t>
+    <t xml:space="preserve">6.94129943847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.11858224868774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05948829650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96857357025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72310590744019</t>
   </si>
   <si>
     <t xml:space="preserve">6.71855926513672</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59582614898682</t>
+    <t xml:space="preserve">6.5958251953125</t>
   </si>
   <si>
     <t xml:space="preserve">6.45490884780884</t>
   </si>
   <si>
-    <t xml:space="preserve">5.98215436935425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03215789794922</t>
+    <t xml:space="preserve">5.98215484619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03215742111206</t>
   </si>
   <si>
     <t xml:space="preserve">6.49127388000488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45945501327515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44581651687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62764453887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83674764633179</t>
+    <t xml:space="preserve">6.45945453643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44581699371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62764501571655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8367486000061</t>
   </si>
   <si>
     <t xml:space="preserve">7.42314481735229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79134750366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64133834838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60042715072632</t>
+    <t xml:space="preserve">7.79134654998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64133930206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60042762756348</t>
   </si>
   <si>
     <t xml:space="preserve">7.68679523468018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08227348327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96408414840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83225917816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35950517654419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62315559387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61861085891724</t>
+    <t xml:space="preserve">8.08227252960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96408367156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8322582244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35950565338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62315511703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61861038208008</t>
   </si>
   <si>
     <t xml:space="preserve">7.47314739227295</t>
@@ -2567,25 +2567,25 @@
     <t xml:space="preserve">7.4958758354187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43678140640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36405038833618</t>
+    <t xml:space="preserve">7.43678188323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36405086517334</t>
   </si>
   <si>
     <t xml:space="preserve">7.46405601501465</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50951242446899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47769355773926</t>
+    <t xml:space="preserve">7.50951290130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4776930809021</t>
   </si>
   <si>
     <t xml:space="preserve">7.4322361946106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67770385742188</t>
+    <t xml:space="preserve">7.67770528793335</t>
   </si>
   <si>
     <t xml:space="preserve">7.52315044403076</t>
@@ -2594,7 +2594,7 @@
     <t xml:space="preserve">7.63679313659668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59133672714233</t>
+    <t xml:space="preserve">7.59133625030518</t>
   </si>
   <si>
     <t xml:space="preserve">7.40950727462769</t>
@@ -2609,13 +2609,13 @@
     <t xml:space="preserve">7.42769002914429</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94584560394287</t>
+    <t xml:space="preserve">6.94584512710571</t>
   </si>
   <si>
     <t xml:space="preserve">6.85493040084839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93675374984741</t>
+    <t xml:space="preserve">6.93675327301025</t>
   </si>
   <si>
     <t xml:space="preserve">7.00039386749268</t>
@@ -2624,10 +2624,10 @@
     <t xml:space="preserve">6.92766284942627</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95493650436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08221673965454</t>
+    <t xml:space="preserve">6.95493698120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08221626281738</t>
   </si>
   <si>
     <t xml:space="preserve">7.31859302520752</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">7.30495643615723</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26404476165771</t>
+    <t xml:space="preserve">7.26404523849487</t>
   </si>
   <si>
     <t xml:space="preserve">7.20040559768677</t>
@@ -2651,31 +2651,31 @@
     <t xml:space="preserve">7.33223056793213</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34586715698242</t>
+    <t xml:space="preserve">7.34586763381958</t>
   </si>
   <si>
     <t xml:space="preserve">7.35495901107788</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27313661575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62770175933838</t>
+    <t xml:space="preserve">7.27313613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62770223617554</t>
   </si>
   <si>
     <t xml:space="preserve">7.55951642990112</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76407337188721</t>
+    <t xml:space="preserve">7.76407289505005</t>
   </si>
   <si>
     <t xml:space="preserve">7.88226222991943</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2641019821167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85044050216675</t>
+    <t xml:space="preserve">8.26410102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85044145584106</t>
   </si>
   <si>
     <t xml:space="preserve">7.68225002288818</t>
@@ -2687,7 +2687,7 @@
     <t xml:space="preserve">7.24586248397827</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29586458206177</t>
+    <t xml:space="preserve">7.29586505889893</t>
   </si>
   <si>
     <t xml:space="preserve">7.32768487930298</t>
@@ -2702,16 +2702,16 @@
     <t xml:space="preserve">8.15045833587646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20955276489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29137516021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01863288879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96863079071045</t>
+    <t xml:space="preserve">8.20955181121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29137420654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01863193511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96863126754761</t>
   </si>
   <si>
     <t xml:space="preserve">7.89135313034058</t>
@@ -2720,22 +2720,22 @@
     <t xml:space="preserve">7.90499067306519</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85498762130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05954456329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08681869506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25955486297607</t>
+    <t xml:space="preserve">7.85498666763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05954360961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08681964874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25955581665039</t>
   </si>
   <si>
     <t xml:space="preserve">8.28228378295898</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45047378540039</t>
+    <t xml:space="preserve">8.45047473907471</t>
   </si>
   <si>
     <t xml:space="preserve">8.85958957672119</t>
@@ -2750,13 +2750,13 @@
     <t xml:space="preserve">7.9459023475647</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00044918060303</t>
+    <t xml:space="preserve">8.00045013427734</t>
   </si>
   <si>
     <t xml:space="preserve">8.06863594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15500545501709</t>
+    <t xml:space="preserve">8.15500450134277</t>
   </si>
   <si>
     <t xml:space="preserve">9.56417465209961</t>
@@ -2768,55 +2768,55 @@
     <t xml:space="preserve">9.73691082000732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.191481590271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93692207336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74600219726562</t>
+    <t xml:space="preserve">10.1914825439453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93692302703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74600315093994</t>
   </si>
   <si>
     <t xml:space="preserve">9.70963764190674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70054531097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.88237380981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80964183807373</t>
+    <t xml:space="preserve">9.70054626464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.88237476348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80964374542236</t>
   </si>
   <si>
     <t xml:space="preserve">9.85510063171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75509357452393</t>
+    <t xml:space="preserve">9.75509452819824</t>
   </si>
   <si>
     <t xml:space="preserve">9.72782039642334</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96419811248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84600830078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36416244506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1005687713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.264214515686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4642248153687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4914989471436</t>
+    <t xml:space="preserve">9.96419715881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84600925445557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36416339874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1005697250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2642135620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4642238616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4914979934692</t>
   </si>
   <si>
     <t xml:space="preserve">10.3005790710449</t>
@@ -2825,25 +2825,25 @@
     <t xml:space="preserve">10.0187463760376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2460298538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80055046081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86419105529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79145908355713</t>
+    <t xml:space="preserve">10.2460308074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80054950714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86419010162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79146003723145</t>
   </si>
   <si>
     <t xml:space="preserve">10.182391166687</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91873931884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27324867248535</t>
+    <t xml:space="preserve">9.91874027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27324962615967</t>
   </si>
   <si>
     <t xml:space="preserve">9.50053405761719</t>
@@ -2855,19 +2855,19 @@
     <t xml:space="preserve">9.60963153839111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68236351013184</t>
+    <t xml:space="preserve">9.68236255645752</t>
   </si>
   <si>
     <t xml:space="preserve">9.52780818939209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51871776580811</t>
+    <t xml:space="preserve">9.51871871948242</t>
   </si>
   <si>
     <t xml:space="preserve">9.22779178619385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40052795410156</t>
+    <t xml:space="preserve">9.40052890777588</t>
   </si>
   <si>
     <t xml:space="preserve">9.16415119171143</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">10.0542087554932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86818981170654</t>
+    <t xml:space="preserve">9.86819076538086</t>
   </si>
   <si>
     <t xml:space="preserve">9.85889053344727</t>
@@ -2930,16 +2930,16 @@
     <t xml:space="preserve">9.69147491455078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87749290466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98910140991211</t>
+    <t xml:space="preserve">9.87749195098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98910236358643</t>
   </si>
   <si>
     <t xml:space="preserve">9.9611988067627</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0449066162109</t>
+    <t xml:space="preserve">10.0449075698853</t>
   </si>
   <si>
     <t xml:space="preserve">9.84958934783936</t>
@@ -2957,16 +2957,16 @@
     <t xml:space="preserve">9.89609432220459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70077705383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1193141937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99840354919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63566970825195</t>
+    <t xml:space="preserve">9.70077610015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1193132400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99840259552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63567066192627</t>
   </si>
   <si>
     <t xml:space="preserve">9.67287349700928</t>
@@ -2975,10 +2975,10 @@
     <t xml:space="preserve">9.72867870330811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73797988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1286153793335</t>
+    <t xml:space="preserve">9.73798084259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1286144256592</t>
   </si>
   <si>
     <t xml:space="preserve">10.2495260238647</t>
@@ -2987,25 +2987,25 @@
     <t xml:space="preserve">10.7703723907471</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9656896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0400972366333</t>
+    <t xml:space="preserve">10.965690612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.040096282959</t>
   </si>
   <si>
     <t xml:space="preserve">11.0773000717163</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1331062316895</t>
+    <t xml:space="preserve">11.1331052780151</t>
   </si>
   <si>
     <t xml:space="preserve">11.2540168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3377237319946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3842277526855</t>
+    <t xml:space="preserve">11.3377246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3842287063599</t>
   </si>
   <si>
     <t xml:space="preserve">11.4586343765259</t>
@@ -3020,16 +3020,16 @@
     <t xml:space="preserve">11.5330410003662</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4214315414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3284225463867</t>
+    <t xml:space="preserve">11.4214305877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.328423500061</t>
   </si>
   <si>
     <t xml:space="preserve">11.2261142730713</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4400329589844</t>
+    <t xml:space="preserve">11.4400339126587</t>
   </si>
   <si>
     <t xml:space="preserve">11.4121313095093</t>
@@ -3050,7 +3050,7 @@
     <t xml:space="preserve">11.3191223144531</t>
   </si>
   <si>
-    <t xml:space="preserve">11.291220664978</t>
+    <t xml:space="preserve">11.2912197113037</t>
   </si>
   <si>
     <t xml:space="preserve">11.3005199432373</t>
@@ -3059,7 +3059,7 @@
     <t xml:space="preserve">11.1982107162476</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1517057418823</t>
+    <t xml:space="preserve">11.1517066955566</t>
   </si>
   <si>
     <t xml:space="preserve">11.1796102523804</t>
@@ -3080,10 +3080,10 @@
     <t xml:space="preserve">10.3239336013794</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4913473129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5006484985352</t>
+    <t xml:space="preserve">10.4913463592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5006475448608</t>
   </si>
   <si>
     <t xml:space="preserve">10.5099496841431</t>
@@ -3095,22 +3095,22 @@
     <t xml:space="preserve">10.2309226989746</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1658182144165</t>
+    <t xml:space="preserve">10.1658191680908</t>
   </si>
   <si>
     <t xml:space="preserve">9.91469478607178</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82168769836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0263051986694</t>
+    <t xml:space="preserve">9.82168674468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0263042449951</t>
   </si>
   <si>
     <t xml:space="preserve">10.0635089874268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1100120544434</t>
+    <t xml:space="preserve">10.1100130081177</t>
   </si>
   <si>
     <t xml:space="preserve">10.2030220031738</t>
@@ -3119,19 +3119,19 @@
     <t xml:space="preserve">10.2123222351074</t>
   </si>
   <si>
-    <t xml:space="preserve">10.184419631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.221622467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3890380859375</t>
+    <t xml:space="preserve">10.1844186782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2216234207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3890371322632</t>
   </si>
   <si>
     <t xml:space="preserve">10.3332328796387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5378513336182</t>
+    <t xml:space="preserve">10.5378522872925</t>
   </si>
   <si>
     <t xml:space="preserve">10.5192499160767</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">10.7145681381226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8261785507202</t>
+    <t xml:space="preserve">10.8261775970459</t>
   </si>
   <si>
     <t xml:space="preserve">10.9005842208862</t>
@@ -3158,10 +3158,10 @@
     <t xml:space="preserve">10.7238674163818</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6773643493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7982759475708</t>
+    <t xml:space="preserve">10.6773633956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7982749938965</t>
   </si>
   <si>
     <t xml:space="preserve">10.816876411438</t>
@@ -3170,7 +3170,7 @@
     <t xml:space="preserve">11.1703090667725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2447156906128</t>
+    <t xml:space="preserve">11.2447147369385</t>
   </si>
   <si>
     <t xml:space="preserve">11.0866003036499</t>
@@ -3185,13 +3185,13 @@
     <t xml:space="preserve">10.4541435241699</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6215600967407</t>
+    <t xml:space="preserve">10.6215591430664</t>
   </si>
   <si>
     <t xml:space="preserve">10.8726816177368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9842929840088</t>
+    <t xml:space="preserve">10.9842920303345</t>
   </si>
   <si>
     <t xml:space="preserve">11.26331615448</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">11.551643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3656272888184</t>
+    <t xml:space="preserve">11.365626335144</t>
   </si>
   <si>
     <t xml:space="preserve">11.3563251495361</t>
@@ -3215,13 +3215,13 @@
     <t xml:space="preserve">11.5795450210571</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6539516448975</t>
+    <t xml:space="preserve">11.6539525985718</t>
   </si>
   <si>
     <t xml:space="preserve">11.6353511810303</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5981483459473</t>
+    <t xml:space="preserve">11.5981473922729</t>
   </si>
   <si>
     <t xml:space="preserve">11.8771734237671</t>
@@ -3233,10 +3233,10 @@
     <t xml:space="preserve">12.2306041717529</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4445238113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0817909240723</t>
+    <t xml:space="preserve">12.4445247650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0817918777466</t>
   </si>
   <si>
     <t xml:space="preserve">12.2771081924438</t>
@@ -3263,22 +3263,22 @@
     <t xml:space="preserve">10.7052669525146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9191865921021</t>
+    <t xml:space="preserve">10.9191856384277</t>
   </si>
   <si>
     <t xml:space="preserve">10.7517719268799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9284868240356</t>
+    <t xml:space="preserve">10.9284858703613</t>
   </si>
   <si>
     <t xml:space="preserve">11.0959024429321</t>
   </si>
   <si>
-    <t xml:space="preserve">11.002893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7889738082886</t>
+    <t xml:space="preserve">11.0028944015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7889747619629</t>
   </si>
   <si>
     <t xml:space="preserve">11.1052026748657</t>
@@ -3323,16 +3323,16 @@
     <t xml:space="preserve">8.99391174316406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42175006866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29619026184082</t>
+    <t xml:space="preserve">9.42175102233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2961893081665</t>
   </si>
   <si>
     <t xml:space="preserve">9.34734439849854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44035243988037</t>
+    <t xml:space="preserve">9.44035148620605</t>
   </si>
   <si>
     <t xml:space="preserve">9.5147590637207</t>
@@ -3341,19 +3341,19 @@
     <t xml:space="preserve">9.4682559967041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31014060974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11947441101074</t>
+    <t xml:space="preserve">9.31014156341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11947345733643</t>
   </si>
   <si>
     <t xml:space="preserve">9.23108386993408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68217372894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58916664123535</t>
+    <t xml:space="preserve">9.68217468261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58916568756104</t>
   </si>
   <si>
     <t xml:space="preserve">9.41244983673096</t>
@@ -3362,22 +3362,22 @@
     <t xml:space="preserve">9.3008394241333</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36594486236572</t>
+    <t xml:space="preserve">9.36594581604004</t>
   </si>
   <si>
     <t xml:space="preserve">9.15202713012695</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74744033813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56607246398926</t>
+    <t xml:space="preserve">8.74743938446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56607341766357</t>
   </si>
   <si>
     <t xml:space="preserve">8.66838264465332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57537460327148</t>
+    <t xml:space="preserve">8.5753755569458</t>
   </si>
   <si>
     <t xml:space="preserve">8.61257839202881</t>
@@ -3386,16 +3386,16 @@
     <t xml:space="preserve">8.65443134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67303371429443</t>
+    <t xml:space="preserve">8.67303276062012</t>
   </si>
   <si>
     <t xml:space="preserve">8.82649707794189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26828765869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02646446228027</t>
+    <t xml:space="preserve">9.26828670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02646541595459</t>
   </si>
   <si>
     <t xml:space="preserve">8.88695335388184</t>
@@ -3410,13 +3410,13 @@
     <t xml:space="preserve">8.92880725860596</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80324554443359</t>
+    <t xml:space="preserve">8.80324459075928</t>
   </si>
   <si>
     <t xml:space="preserve">8.6032772064209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48236656188965</t>
+    <t xml:space="preserve">8.48236560821533</t>
   </si>
   <si>
     <t xml:space="preserve">8.55212211608887</t>
@@ -3434,13 +3434,13 @@
     <t xml:space="preserve">10.0387487411499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9337797164917</t>
+    <t xml:space="preserve">9.93378067016602</t>
   </si>
   <si>
     <t xml:space="preserve">9.98149299621582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2391414642334</t>
+    <t xml:space="preserve">10.2391405105591</t>
   </si>
   <si>
     <t xml:space="preserve">10.4204502105713</t>
@@ -3449,7 +3449,7 @@
     <t xml:space="preserve">10.5826730728149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3154821395874</t>
+    <t xml:space="preserve">10.3154830932617</t>
   </si>
   <si>
     <t xml:space="preserve">10.3441095352173</t>
@@ -3458,7 +3458,7 @@
     <t xml:space="preserve">10.4013643264771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2582263946533</t>
+    <t xml:space="preserve">10.2582273483276</t>
   </si>
   <si>
     <t xml:space="preserve">10.4299926757812</t>
@@ -3467,13 +3467,13 @@
     <t xml:space="preserve">10.487247467041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5254173278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99103546142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74293041229248</t>
+    <t xml:space="preserve">10.5254182815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9910364151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74292945861816</t>
   </si>
   <si>
     <t xml:space="preserve">9.56162166595459</t>
@@ -3482,7 +3482,7 @@
     <t xml:space="preserve">9.79064273834229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19423484802246</t>
+    <t xml:space="preserve">9.19423389434814</t>
   </si>
   <si>
     <t xml:space="preserve">9.28488731384277</t>
@@ -3539,10 +3539,10 @@
     <t xml:space="preserve">9.14175033569336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92227268218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22763252258301</t>
+    <t xml:space="preserve">8.92227172851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22763347625732</t>
   </si>
   <si>
     <t xml:space="preserve">9.33260059356689</t>
@@ -3551,10 +3551,10 @@
     <t xml:space="preserve">9.39939880371094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43756866455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47573947906494</t>
+    <t xml:space="preserve">9.4375696182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47573852539062</t>
   </si>
   <si>
     <t xml:space="preserve">9.32782936096191</t>
@@ -3566,7 +3566,7 @@
     <t xml:space="preserve">9.18469142913818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50913715362549</t>
+    <t xml:space="preserve">9.5091381072998</t>
   </si>
   <si>
     <t xml:space="preserve">9.81927013397217</t>
@@ -3590,7 +3590,7 @@
     <t xml:space="preserve">10.1150884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0864610671997</t>
+    <t xml:space="preserve">10.0864601135254</t>
   </si>
   <si>
     <t xml:space="preserve">10.01966381073</t>
@@ -3614,7 +3614,7 @@
     <t xml:space="preserve">9.25148868560791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90795707702637</t>
+    <t xml:space="preserve">8.90795803070068</t>
   </si>
   <si>
     <t xml:space="preserve">8.87455940246582</t>
@@ -3623,19 +3623,19 @@
     <t xml:space="preserve">8.88410186767578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7505054473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69324970245361</t>
+    <t xml:space="preserve">8.75050640106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69325065612793</t>
   </si>
   <si>
     <t xml:space="preserve">8.76004886627197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44037437438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42128753662109</t>
+    <t xml:space="preserve">8.44037342071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42128849029541</t>
   </si>
   <si>
     <t xml:space="preserve">8.53579902648926</t>
@@ -3653,19 +3653,19 @@
     <t xml:space="preserve">9.07495212554932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11312198638916</t>
+    <t xml:space="preserve">9.11312294006348</t>
   </si>
   <si>
     <t xml:space="preserve">8.8268461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61690998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63599491119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51671409606934</t>
+    <t xml:space="preserve">8.61691093444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63599586486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51671314239502</t>
   </si>
   <si>
     <t xml:space="preserve">8.39266109466553</t>
@@ -3689,13 +3689,13 @@
     <t xml:space="preserve">7.7676248550415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10638523101807</t>
+    <t xml:space="preserve">8.10638427734375</t>
   </si>
   <si>
     <t xml:space="preserve">8.26383686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62168121337891</t>
+    <t xml:space="preserve">8.62168216705322</t>
   </si>
   <si>
     <t xml:space="preserve">8.52148532867432</t>
@@ -3707,7 +3707,7 @@
     <t xml:space="preserve">8.61213874816895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59782600402832</t>
+    <t xml:space="preserve">8.597825050354</t>
   </si>
   <si>
     <t xml:space="preserve">8.99861240386963</t>
@@ -3716,19 +3716,19 @@
     <t xml:space="preserve">8.77913379669189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92704296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97952747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05109596252441</t>
+    <t xml:space="preserve">8.92704200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97952651977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0510950088501</t>
   </si>
   <si>
     <t xml:space="preserve">9.23240375518799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24194622039795</t>
+    <t xml:space="preserve">9.24194717407227</t>
   </si>
   <si>
     <t xml:space="preserve">9.29920196533203</t>
@@ -3737,7 +3737,7 @@
     <t xml:space="preserve">9.11789417266846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52822303771973</t>
+    <t xml:space="preserve">9.52822208404541</t>
   </si>
   <si>
     <t xml:space="preserve">9.89560985565186</t>
@@ -3764,13 +3764,13 @@
     <t xml:space="preserve">11.2601928710938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.11705493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0788841247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1361398696899</t>
+    <t xml:space="preserve">11.1170539855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0788850784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1361408233643</t>
   </si>
   <si>
     <t xml:space="preserve">10.8975772857666</t>
@@ -3779,16 +3779,16 @@
     <t xml:space="preserve">10.6113004684448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7162685394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6590127944946</t>
+    <t xml:space="preserve">10.7162675857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6590137481689</t>
   </si>
   <si>
     <t xml:space="preserve">10.6971836090088</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5063333511353</t>
+    <t xml:space="preserve">10.5063323974609</t>
   </si>
   <si>
     <t xml:space="preserve">10.5540466308594</t>
@@ -3797,7 +3797,7 @@
     <t xml:space="preserve">10.7258110046387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.563588142395</t>
+    <t xml:space="preserve">10.5635871887207</t>
   </si>
   <si>
     <t xml:space="preserve">10.4490776062012</t>
@@ -3818,10 +3818,10 @@
     <t xml:space="preserve">10.1055459976196</t>
   </si>
   <si>
-    <t xml:space="preserve">10.01012134552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95286655426025</t>
+    <t xml:space="preserve">10.0101203918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95286560058594</t>
   </si>
   <si>
     <t xml:space="preserve">9.82881259918213</t>
@@ -3839,10 +3839,10 @@
     <t xml:space="preserve">10.496789932251</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6208438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8689489364624</t>
+    <t xml:space="preserve">10.6208429336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8689498901367</t>
   </si>
   <si>
     <t xml:space="preserve">10.9166612625122</t>
@@ -3866,22 +3866,22 @@
     <t xml:space="preserve">11.0502576828003</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3269910812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3651599884033</t>
+    <t xml:space="preserve">11.3269901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3651609420776</t>
   </si>
   <si>
     <t xml:space="preserve">11.8041172027588</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2239894866943</t>
+    <t xml:space="preserve">12.2239904403687</t>
   </si>
   <si>
     <t xml:space="preserve">12.5579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7392873764038</t>
+    <t xml:space="preserve">12.7392864227295</t>
   </si>
   <si>
     <t xml:space="preserve">12.7869987487793</t>
@@ -3917,7 +3917,7 @@
     <t xml:space="preserve">13.1400728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3309230804443</t>
+    <t xml:space="preserve">13.3309240341187</t>
   </si>
   <si>
     <t xml:space="preserve">14.2279214859009</t>
@@ -3935,7 +3935,7 @@
     <t xml:space="preserve">13.0541896820068</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2927541732788</t>
+    <t xml:space="preserve">13.2927532196045</t>
   </si>
   <si>
     <t xml:space="preserve">13.3595514297485</t>
@@ -3965,13 +3965,13 @@
     <t xml:space="preserve">12.6724882125854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6629457473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7774562835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4339246749878</t>
+    <t xml:space="preserve">12.6629467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7774572372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4339256286621</t>
   </si>
   <si>
     <t xml:space="preserve">12.3671274185181</t>
@@ -3980,13 +3980,13 @@
     <t xml:space="preserve">12.8824243545532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2354984283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7202005386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.025562286377</t>
+    <t xml:space="preserve">13.2354974746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7202014923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0255613327026</t>
   </si>
   <si>
     <t xml:space="preserve">12.9587650299072</t>
@@ -3998,7 +3998,7 @@
     <t xml:space="preserve">12.939679145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7583713531494</t>
+    <t xml:space="preserve">12.7583703994751</t>
   </si>
   <si>
     <t xml:space="preserve">12.462553024292</t>
@@ -4016,7 +4016,7 @@
     <t xml:space="preserve">13.5504016876221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7698812484741</t>
+    <t xml:space="preserve">13.7698802947998</t>
   </si>
   <si>
     <t xml:space="preserve">13.7412519454956</t>
@@ -4031,7 +4031,7 @@
     <t xml:space="preserve">13.645827293396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7889652252197</t>
+    <t xml:space="preserve">13.7889642715454</t>
   </si>
   <si>
     <t xml:space="preserve">13.7794227600098</t>
@@ -61504,13 +61504,13 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.649537037</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>310979</v>
       </c>
       <c r="C2171" t="n">
-        <v>10.5640001296997</v>
+        <v>10.6300001144409</v>
       </c>
       <c r="D2171" t="n">
         <v>10.3459997177124</v>
@@ -61525,6 +61525,32 @@
         <v>1576</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.6508796296</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>357380</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>10.6700000762939</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>10.539999961853</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>10.6300001144409</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>10.6800003051758</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>1547</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BRE.MI.xlsx
+++ b/data/BRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1580">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4307165145874</t>
+    <t xml:space="preserve">7.43071603775024</t>
   </si>
   <si>
     <t xml:space="preserve">BRE.MI</t>
@@ -47,25 +47,25 @@
     <t xml:space="preserve">7.40021467208862</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17991924285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76305437088013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77999925613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66307401657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84100532531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02910184860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79016733169556</t>
+    <t xml:space="preserve">7.17991876602173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76305389404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77999973297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6630744934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84100437164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02910232543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7901668548584</t>
   </si>
   <si>
     <t xml:space="preserve">6.43938875198364</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">6.42413902282715</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5037841796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16317415237427</t>
+    <t xml:space="preserve">6.50378322601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16317319869995</t>
   </si>
   <si>
     <t xml:space="preserve">6.42922258377075</t>
@@ -89,214 +89,214 @@
     <t xml:space="preserve">6.53598022460938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54953718185425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62070989608765</t>
+    <t xml:space="preserve">6.54953670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62070941925049</t>
   </si>
   <si>
     <t xml:space="preserve">6.45802974700928</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39194202423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2800989151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21062231063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07844400405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91237688064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5548210144043</t>
+    <t xml:space="preserve">6.39194107055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28009986877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21062135696411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07844495773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91237640380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55482149124146</t>
   </si>
   <si>
     <t xml:space="preserve">5.71749973297119</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93101644515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88187408447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94118452072144</t>
+    <t xml:space="preserve">5.93101596832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88187503814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94118499755859</t>
   </si>
   <si>
     <t xml:space="preserve">6.25976419448853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19198131561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34279823303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36482810974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32246446609497</t>
+    <t xml:space="preserve">6.19198179244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34279918670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36482763290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32246398925781</t>
   </si>
   <si>
     <t xml:space="preserve">6.46480798721313</t>
   </si>
   <si>
-    <t xml:space="preserve">6.33432531356812</t>
+    <t xml:space="preserve">6.33432626724243</t>
   </si>
   <si>
     <t xml:space="preserve">6.19367647171021</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29535102844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35296678543091</t>
+    <t xml:space="preserve">6.29535055160522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35296630859375</t>
   </si>
   <si>
     <t xml:space="preserve">6.44616794586182</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58342838287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55462169647217</t>
+    <t xml:space="preserve">6.58342885971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55462121963501</t>
   </si>
   <si>
     <t xml:space="preserve">7.30362462997437</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34090423583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3764910697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33751535415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37988042831421</t>
+    <t xml:space="preserve">7.340904712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37649011611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33751440048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37987995147705</t>
   </si>
   <si>
     <t xml:space="preserve">7.32904195785522</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32395887374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42224454879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40360403060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51375198364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40190839767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49341583251953</t>
+    <t xml:space="preserve">7.32395792007446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42224359512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40360355377197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375102996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40190982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49341535568237</t>
   </si>
   <si>
     <t xml:space="preserve">7.33412504196167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53408670425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41377115249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41207695007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58153390884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70184898376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67304134368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62389850616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40529870986938</t>
+    <t xml:space="preserve">7.53408622741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41377067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41207647323608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58153486251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70184850692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67304039001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62389898300171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4052996635437</t>
   </si>
   <si>
     <t xml:space="preserve">7.45105171203613</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42393922805786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53916931152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57644987106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62559270858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67643022537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69337606430054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66287517547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7103214263916</t>
+    <t xml:space="preserve">7.4239387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53916883468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57645130157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62559413909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67643070220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69337558746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66287469863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71032238006592</t>
   </si>
   <si>
     <t xml:space="preserve">7.74421453475952</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78488349914551</t>
+    <t xml:space="preserve">7.78488397598267</t>
   </si>
   <si>
     <t xml:space="preserve">8.05093193054199</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99670505523682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9136700630188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96281385421753</t>
+    <t xml:space="preserve">7.99670553207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91367149353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96281433105469</t>
   </si>
   <si>
     <t xml:space="preserve">8.02381896972656</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94925737380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00348281860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90858745574951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99162292480469</t>
+    <t xml:space="preserve">7.94925928115845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00348377227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90858697891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99162197113037</t>
   </si>
   <si>
     <t xml:space="preserve">8.1424388885498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.786376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81179714202881</t>
+    <t xml:space="preserve">8.78637790679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81179618835449</t>
   </si>
   <si>
     <t xml:space="preserve">8.82026958465576</t>
@@ -305,28 +305,28 @@
     <t xml:space="preserve">8.86263370513916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73554039001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66775798797607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65928554534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71859550476074</t>
+    <t xml:space="preserve">8.73554134368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66775703430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6592845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71859455108643</t>
   </si>
   <si>
     <t xml:space="preserve">8.83048248291016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76162910461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82187652587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77023601531982</t>
+    <t xml:space="preserve">8.76162815093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82187557220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77023696899414</t>
   </si>
   <si>
     <t xml:space="preserve">8.77884292602539</t>
@@ -341,16 +341,16 @@
     <t xml:space="preserve">9.0456485748291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28663921356201</t>
+    <t xml:space="preserve">9.2866382598877</t>
   </si>
   <si>
     <t xml:space="preserve">9.1919641494751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18335819244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89933490753174</t>
+    <t xml:space="preserve">9.18335723876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89933681488037</t>
   </si>
   <si>
     <t xml:space="preserve">8.57744407653809</t>
@@ -362,28 +362,28 @@
     <t xml:space="preserve">8.60670852661133</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61531352996826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91654872894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.933762550354</t>
+    <t xml:space="preserve">8.61531448364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91654968261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93376350402832</t>
   </si>
   <si>
     <t xml:space="preserve">8.88212203979492</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03704452514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56023216247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91989374160767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55506706237793</t>
+    <t xml:space="preserve">9.03704357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5602331161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91989326477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55506896972656</t>
   </si>
   <si>
     <t xml:space="preserve">8.35367107391357</t>
@@ -395,58 +395,58 @@
     <t xml:space="preserve">8.53785419464111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13333892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95948266983032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95776224136353</t>
+    <t xml:space="preserve">8.13333797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95948219299316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95776271820068</t>
   </si>
   <si>
     <t xml:space="preserve">8.24522590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32096576690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3485050201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26932525634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4414587020874</t>
+    <t xml:space="preserve">8.32096481323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34850597381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26932430267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44145965576172</t>
   </si>
   <si>
     <t xml:space="preserve">8.40875339508057</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53441333770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.400146484375</t>
+    <t xml:space="preserve">8.5344123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40014743804932</t>
   </si>
   <si>
     <t xml:space="preserve">8.5103120803833</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46555805206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62392234802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67556095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81326961517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66695404052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99400901794434</t>
+    <t xml:space="preserve">8.4655590057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62392139434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67556190490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81326770782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66695499420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99401092529297</t>
   </si>
   <si>
     <t xml:space="preserve">9.08868503570557</t>
@@ -455,94 +455,94 @@
     <t xml:space="preserve">8.84769535064697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86490917205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9595832824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0542573928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00261688232422</t>
+    <t xml:space="preserve">8.86490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95958232879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05425643920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0026159286499</t>
   </si>
   <si>
     <t xml:space="preserve">9.06286430358887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98540496826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79605484008789</t>
+    <t xml:space="preserve">8.98540306091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79605674743652</t>
   </si>
   <si>
     <t xml:space="preserve">8.75302314758301</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78744888305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70998859405518</t>
+    <t xml:space="preserve">8.78744983673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70998764038086</t>
   </si>
   <si>
     <t xml:space="preserve">8.73580741882324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96819019317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01122283935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0284366607666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21778392791748</t>
+    <t xml:space="preserve">8.96818923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01122379302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02843570709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21778583526611</t>
   </si>
   <si>
     <t xml:space="preserve">9.16614437103271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20917797088623</t>
+    <t xml:space="preserve">9.20917701721191</t>
   </si>
   <si>
     <t xml:space="preserve">9.10589694976807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12310981750488</t>
+    <t xml:space="preserve">9.1231107711792</t>
   </si>
   <si>
     <t xml:space="preserve">9.14032459259033</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22639083862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38131141662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13171672821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94236850738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01982975006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14892959594727</t>
+    <t xml:space="preserve">9.22639179229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38131237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13171768188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94237041473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01983070373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14893054962158</t>
   </si>
   <si>
     <t xml:space="preserve">9.0714693069458</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37270355224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47598457336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62230014801025</t>
+    <t xml:space="preserve">9.37270641326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47598552703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62229824066162</t>
   </si>
   <si>
     <t xml:space="preserve">9.69115447998047</t>
@@ -551,22 +551,22 @@
     <t xml:space="preserve">9.6997594833374</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48459243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.260817527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09728908538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52762603759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79443264007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51041316986084</t>
+    <t xml:space="preserve">9.48459339141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26081848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09729099273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52762699127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79443359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51041126251221</t>
   </si>
   <si>
     <t xml:space="preserve">9.32967185974121</t>
@@ -575,52 +575,52 @@
     <t xml:space="preserve">9.46737957000732</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24360370635986</t>
+    <t xml:space="preserve">9.2436056137085</t>
   </si>
   <si>
     <t xml:space="preserve">9.25221157073975</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33827877044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31245613098145</t>
+    <t xml:space="preserve">9.33827686309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31245708465576</t>
   </si>
   <si>
     <t xml:space="preserve">9.08007717132568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45016670227051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56205368041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2780294418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39852619171143</t>
+    <t xml:space="preserve">9.45016574859619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56205272674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27803039550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39852428436279</t>
   </si>
   <si>
     <t xml:space="preserve">9.40713214874268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53623199462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6567268371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70836544036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83746719360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89771461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.328049659729</t>
+    <t xml:space="preserve">9.53623294830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65672588348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70836639404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83746814727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89771556854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3280487060547</t>
   </si>
   <si>
     <t xml:space="preserve">10.3882970809937</t>
@@ -632,58 +632,58 @@
     <t xml:space="preserve">10.3022298812866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3452625274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3710823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4227237701416</t>
+    <t xml:space="preserve">10.3452634811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3710832595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4227228164673</t>
   </si>
   <si>
     <t xml:space="preserve">10.5776433944702</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6034641265869</t>
+    <t xml:space="preserve">10.6034650802612</t>
   </si>
   <si>
     <t xml:space="preserve">10.5862512588501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5690364837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5260047912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4915781021118</t>
+    <t xml:space="preserve">10.5690383911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5260038375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4915771484375</t>
   </si>
   <si>
     <t xml:space="preserve">10.5518245697021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5173959732056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5948572158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5001831054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4657564163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2075567245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6895322799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.448543548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4399375915527</t>
+    <t xml:space="preserve">10.5173978805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5948581695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5001850128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4657573699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.207555770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6895303726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4485445022583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4399366378784</t>
   </si>
   <si>
     <t xml:space="preserve">10.9133052825928</t>
@@ -692,13 +692,13 @@
     <t xml:space="preserve">10.8272380828857</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9047002792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7669916152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8530597686768</t>
+    <t xml:space="preserve">10.9046993255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7669925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8530588150024</t>
   </si>
   <si>
     <t xml:space="preserve">11.0768337249756</t>
@@ -710,16 +710,16 @@
     <t xml:space="preserve">11.0424060821533</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7842063903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0337982177734</t>
+    <t xml:space="preserve">10.7842054367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0337991714478</t>
   </si>
   <si>
     <t xml:space="preserve">11.188720703125</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3608560562134</t>
+    <t xml:space="preserve">11.3608551025391</t>
   </si>
   <si>
     <t xml:space="preserve">11.3264284133911</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">11.1628999710083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1715078353882</t>
+    <t xml:space="preserve">11.1715068817139</t>
   </si>
   <si>
     <t xml:space="preserve">11.2661809921265</t>
@@ -743,37 +743,37 @@
     <t xml:space="preserve">11.2920017242432</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4469213485718</t>
+    <t xml:space="preserve">11.4469223022461</t>
   </si>
   <si>
     <t xml:space="preserve">11.6620893478394</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5846300125122</t>
+    <t xml:space="preserve">11.5846290588379</t>
   </si>
   <si>
     <t xml:space="preserve">11.636269569397</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6706953048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6965169906616</t>
+    <t xml:space="preserve">11.6706962585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6965179443359</t>
   </si>
   <si>
     <t xml:space="preserve">11.7567644119263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.808403968811</t>
+    <t xml:space="preserve">11.8084030151367</t>
   </si>
   <si>
     <t xml:space="preserve">11.8686504364014</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9288988113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9202899932861</t>
+    <t xml:space="preserve">11.9288969039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9202909469604</t>
   </si>
   <si>
     <t xml:space="preserve">11.9375047683716</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">12.1698846817017</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1870985031128</t>
+    <t xml:space="preserve">12.1870994567871</t>
   </si>
   <si>
     <t xml:space="preserve">12.1182460784912</t>
@@ -794,70 +794,70 @@
     <t xml:space="preserve">12.1526727676392</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1957054138184</t>
+    <t xml:space="preserve">12.195704460144</t>
   </si>
   <si>
     <t xml:space="preserve">12.1440649032593</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0149641036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1268510818481</t>
+    <t xml:space="preserve">12.014965057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1268520355225</t>
   </si>
   <si>
     <t xml:space="preserve">11.9633255004883</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3936605453491</t>
+    <t xml:space="preserve">12.3936586380005</t>
   </si>
   <si>
     <t xml:space="preserve">12.4969396591187</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3506259918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4280862808228</t>
+    <t xml:space="preserve">12.3506269454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4280872344971</t>
   </si>
   <si>
     <t xml:space="preserve">12.4194803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5916137695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4883346557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7379293441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8412094116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.763747215271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9617033004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9961290359497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7207145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6346483230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.643253326416</t>
+    <t xml:space="preserve">12.5916147232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4883337020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7379283905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8412075042725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7637481689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9617023468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9961280822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7207155227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6346473693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6432542800903</t>
   </si>
   <si>
     <t xml:space="preserve">12.5227603912354</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0666046142578</t>
+    <t xml:space="preserve">12.0666055679321</t>
   </si>
   <si>
     <t xml:space="preserve">11.9719305038452</t>
@@ -866,31 +866,31 @@
     <t xml:space="preserve">12.2387380599976</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3696813583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3871383666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5006246566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6053762435913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2125511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0816087722778</t>
+    <t xml:space="preserve">12.3696804046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3871393203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5006237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6053781509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.212550163269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0816078186035</t>
   </si>
   <si>
     <t xml:space="preserve">12.2387390136719</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1863603591919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0205011367798</t>
+    <t xml:space="preserve">12.1863622665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0205020904541</t>
   </si>
   <si>
     <t xml:space="preserve">11.9855833053589</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">11.7149705886841</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6102151870728</t>
+    <t xml:space="preserve">11.6102170944214</t>
   </si>
   <si>
     <t xml:space="preserve">11.6014862060547</t>
@@ -920,10 +920,10 @@
     <t xml:space="preserve">11.6364040374756</t>
   </si>
   <si>
-    <t xml:space="preserve">11.697509765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5752964019775</t>
+    <t xml:space="preserve">11.6975107192993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5752983093262</t>
   </si>
   <si>
     <t xml:space="preserve">11.3221416473389</t>
@@ -932,37 +932,37 @@
     <t xml:space="preserve">11.4268960952759</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1562824249268</t>
+    <t xml:space="preserve">11.1562814712524</t>
   </si>
   <si>
     <t xml:space="preserve">11.348331451416</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9642333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824712753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1300954818726</t>
+    <t xml:space="preserve">10.9642343521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824722290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1300935745239</t>
   </si>
   <si>
     <t xml:space="preserve">11.0427989959717</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1475524902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8459119796753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9419355392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7062397003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0641489028931</t>
+    <t xml:space="preserve">11.1475534439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8459129333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9419364929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7062406539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0641498565674</t>
   </si>
   <si>
     <t xml:space="preserve">11.8808288574219</t>
@@ -974,10 +974,10 @@
     <t xml:space="preserve">11.7760753631592</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7324275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6189460754395</t>
+    <t xml:space="preserve">11.7324285507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6189441680908</t>
   </si>
   <si>
     <t xml:space="preserve">11.400707244873</t>
@@ -986,19 +986,19 @@
     <t xml:space="preserve">11.391978263855</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4094362258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.287223815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308715820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2697639465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2784957885742</t>
+    <t xml:space="preserve">11.4094381332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2872247695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308725357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2697649002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2784938812256</t>
   </si>
   <si>
     <t xml:space="preserve">11.0689868927002</t>
@@ -1007,10 +1007,10 @@
     <t xml:space="preserve">11.1737413406372</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2610368728638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.095175743103</t>
+    <t xml:space="preserve">11.2610378265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0951766967773</t>
   </si>
   <si>
     <t xml:space="preserve">11.3134136199951</t>
@@ -1019,13 +1019,13 @@
     <t xml:space="preserve">11.6713209152222</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5578393936157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4880027770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4530839920044</t>
+    <t xml:space="preserve">11.5578384399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4880037307739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.453085899353</t>
   </si>
   <si>
     <t xml:space="preserve">11.6625928878784</t>
@@ -1034,13 +1034,13 @@
     <t xml:space="preserve">11.7411575317383</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7935352325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8109931945801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9244766235352</t>
+    <t xml:space="preserve">11.7935361862183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8109941482544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9244775772095</t>
   </si>
   <si>
     <t xml:space="preserve">11.8197240829468</t>
@@ -1049,55 +1049,55 @@
     <t xml:space="preserve">11.9768533706665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.107795715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1776313781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3522214889526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3173036575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3784103393555</t>
+    <t xml:space="preserve">12.1077976226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1776323318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.352222442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3173027038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3784112930298</t>
   </si>
   <si>
     <t xml:space="preserve">12.4918937683105</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5355415344238</t>
+    <t xml:space="preserve">12.5355424880981</t>
   </si>
   <si>
     <t xml:space="preserve">12.5966472625732</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4744338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5180826187134</t>
+    <t xml:space="preserve">12.4744348526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5180807113647</t>
   </si>
   <si>
     <t xml:space="preserve">12.4831638336182</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6228351593018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6141052246094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.762508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7712373733521</t>
+    <t xml:space="preserve">12.6228361129761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6141061782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7625074386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7712383270264</t>
   </si>
   <si>
     <t xml:space="preserve">12.8236141204834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6490240097046</t>
+    <t xml:space="preserve">12.6490249633789</t>
   </si>
   <si>
     <t xml:space="preserve">12.7363195419312</t>
@@ -1106,46 +1106,46 @@
     <t xml:space="preserve">12.7450494766235</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2212791442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1601734161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2474660873413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4482460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4395179748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4045991897583</t>
+    <t xml:space="preserve">12.2212781906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.160174369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2474679946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4482469558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4395151138306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4046001434326</t>
   </si>
   <si>
     <t xml:space="preserve">12.360951423645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7236976623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2086582183838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0864448547363</t>
+    <t xml:space="preserve">11.7236995697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086610794067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.086446762085</t>
   </si>
   <si>
     <t xml:space="preserve">11.2959537506104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2173881530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4181680679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3396015167236</t>
+    <t xml:space="preserve">11.2173891067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4181671142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3396024703979</t>
   </si>
   <si>
     <t xml:space="preserve">11.1650114059448</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">11.1912002563477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1213636398315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1126346588135</t>
+    <t xml:space="preserve">11.1213645935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1126356124878</t>
   </si>
   <si>
     <t xml:space="preserve">11.0515289306641</t>
@@ -1166,34 +1166,34 @@
     <t xml:space="preserve">10.9991512298584</t>
   </si>
   <si>
-    <t xml:space="preserve">11.19993019104</t>
+    <t xml:space="preserve">11.1999282836914</t>
   </si>
   <si>
     <t xml:space="preserve">11.0777168273926</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2261180877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0602569580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8507499694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8682088851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.496732711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5665683746338</t>
+    <t xml:space="preserve">11.2261171340942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0602579116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8507509231567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8682098388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4967336654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5665693283081</t>
   </si>
   <si>
     <t xml:space="preserve">11.5403785705566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5491094589233</t>
+    <t xml:space="preserve">11.5491104125977</t>
   </si>
   <si>
     <t xml:space="preserve">11.6276741027832</t>
@@ -1202,25 +1202,25 @@
     <t xml:space="preserve">11.8720998764038</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7586154937744</t>
+    <t xml:space="preserve">11.7586164474487</t>
   </si>
   <si>
     <t xml:space="preserve">10.8071041107178</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6936197280884</t>
+    <t xml:space="preserve">10.6936187744141</t>
   </si>
   <si>
     <t xml:space="preserve">10.6150541305542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6587009429932</t>
+    <t xml:space="preserve">10.6587018966675</t>
   </si>
   <si>
     <t xml:space="preserve">10.5626773834229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.527759552002</t>
+    <t xml:space="preserve">10.5277585983276</t>
   </si>
   <si>
     <t xml:space="preserve">10.5975952148438</t>
@@ -1229,13 +1229,13 @@
     <t xml:space="preserve">10.5364894866943</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4753818511963</t>
+    <t xml:space="preserve">10.475380897522</t>
   </si>
   <si>
     <t xml:space="preserve">10.4666538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2920637130737</t>
+    <t xml:space="preserve">10.2920627593994</t>
   </si>
   <si>
     <t xml:space="preserve">10.3531694412231</t>
@@ -1244,10 +1244,10 @@
     <t xml:space="preserve">10.3706283569336</t>
   </si>
   <si>
-    <t xml:space="preserve">10.073826789856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0389080047607</t>
+    <t xml:space="preserve">10.0738258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0389089584351</t>
   </si>
   <si>
     <t xml:space="preserve">9.82940101623535</t>
@@ -1256,46 +1256,46 @@
     <t xml:space="preserve">9.71591663360596</t>
   </si>
   <si>
-    <t xml:space="preserve">10.484112739563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.684889793396</t>
+    <t xml:space="preserve">10.4841108322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6848888397217</t>
   </si>
   <si>
     <t xml:space="preserve">10.9816923141479</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1039047241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.990421295166</t>
+    <t xml:space="preserve">11.1039056777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9904222488403</t>
   </si>
   <si>
     <t xml:space="preserve">10.7372674942017</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6761617660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8332920074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7809143066406</t>
+    <t xml:space="preserve">10.6761608123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8332901000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7809152603149</t>
   </si>
   <si>
     <t xml:space="preserve">10.9467754364014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9293155670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7198076248169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8245630264282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.789644241333</t>
+    <t xml:space="preserve">10.9293146133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7198085784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8245611190796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7896432876587</t>
   </si>
   <si>
     <t xml:space="preserve">10.7983732223511</t>
@@ -1307,43 +1307,43 @@
     <t xml:space="preserve">10.6325120925903</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6063261032104</t>
+    <t xml:space="preserve">10.6063251495361</t>
   </si>
   <si>
     <t xml:space="preserve">10.6674318313599</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5190305709839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4443559646606</t>
+    <t xml:space="preserve">10.5190296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4443550109863</t>
   </si>
   <si>
     <t xml:space="preserve">10.9205865859985</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6499719619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5801372528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4317350387573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3007936477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4164333343506</t>
+    <t xml:space="preserve">10.6499738693237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5801362991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4317359924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3007926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4164323806763</t>
   </si>
   <si>
     <t xml:space="preserve">10.7633504867554</t>
   </si>
   <si>
-    <t xml:space="preserve">10.683292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1636390686035</t>
+    <t xml:space="preserve">10.6832914352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1636400222778</t>
   </si>
   <si>
     <t xml:space="preserve">11.0657920837402</t>
@@ -1355,19 +1355,19 @@
     <t xml:space="preserve">10.603235244751</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8523035049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8878841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0302104949951</t>
+    <t xml:space="preserve">10.8523044586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8878831863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0302085876465</t>
   </si>
   <si>
     <t xml:space="preserve">11.074686050415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.048002243042</t>
+    <t xml:space="preserve">11.0480003356934</t>
   </si>
   <si>
     <t xml:space="preserve">11.1013736724854</t>
@@ -1376,19 +1376,19 @@
     <t xml:space="preserve">11.33265209198</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0391054153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1369543075562</t>
+    <t xml:space="preserve">11.0391044616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1369533538818</t>
   </si>
   <si>
     <t xml:space="preserve">10.9145708084106</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7722454071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7277679443359</t>
+    <t xml:space="preserve">10.7722463607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7277669906616</t>
   </si>
   <si>
     <t xml:space="preserve">10.5142812728882</t>
@@ -1397,16 +1397,16 @@
     <t xml:space="preserve">10.5053863525391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2830038070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4431190490723</t>
+    <t xml:space="preserve">10.2830028533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4431180953979</t>
   </si>
   <si>
     <t xml:space="preserve">10.4253273010254</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2563161849976</t>
+    <t xml:space="preserve">10.2563171386719</t>
   </si>
   <si>
     <t xml:space="preserve">10.3096885681152</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">10.0962009429932</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1228857040405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2118396759033</t>
+    <t xml:space="preserve">10.1228866577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.211838722229</t>
   </si>
   <si>
     <t xml:space="preserve">10.238525390625</t>
@@ -1427,7 +1427,7 @@
     <t xml:space="preserve">10.3541650772095</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6299200057983</t>
+    <t xml:space="preserve">10.6299209594727</t>
   </si>
   <si>
     <t xml:space="preserve">10.6655025482178</t>
@@ -1442,25 +1442,25 @@
     <t xml:space="preserve">10.8700942993164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8167209625244</t>
+    <t xml:space="preserve">10.8167219161987</t>
   </si>
   <si>
     <t xml:space="preserve">10.709979057312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4520139694214</t>
+    <t xml:space="preserve">10.4520130157471</t>
   </si>
   <si>
     <t xml:space="preserve">10.4964904785156</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3808517456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.398642539978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2029438018799</t>
+    <t xml:space="preserve">10.3808507919312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3986434936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2029447555542</t>
   </si>
   <si>
     <t xml:space="preserve">10.4075365066528</t>
@@ -1472,10 +1472,10 @@
     <t xml:space="preserve">10.1406774520874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.060619354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1317806243896</t>
+    <t xml:space="preserve">10.0606184005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.131781578064</t>
   </si>
   <si>
     <t xml:space="preserve">10.0339326858521</t>
@@ -1484,13 +1484,13 @@
     <t xml:space="preserve">9.90939998626709</t>
   </si>
   <si>
-    <t xml:space="preserve">9.94497966766357</t>
+    <t xml:space="preserve">9.94497871398926</t>
   </si>
   <si>
     <t xml:space="preserve">10.0428295135498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82044506072998</t>
+    <t xml:space="preserve">9.82044410705566</t>
   </si>
   <si>
     <t xml:space="preserve">9.8293399810791</t>
@@ -1499,22 +1499,22 @@
     <t xml:space="preserve">9.98056125640869</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2741060256958</t>
+    <t xml:space="preserve">10.2741069793701</t>
   </si>
   <si>
     <t xml:space="preserve">10.2474212646484</t>
   </si>
   <si>
-    <t xml:space="preserve">10.11399269104</t>
+    <t xml:space="preserve">10.1139917373657</t>
   </si>
   <si>
     <t xml:space="preserve">9.91829395294189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92718887329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0873041152954</t>
+    <t xml:space="preserve">9.92718982696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.087306022644</t>
   </si>
   <si>
     <t xml:space="preserve">9.96277046203613</t>
@@ -1535,19 +1535,19 @@
     <t xml:space="preserve">10.3630619049072</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3274774551392</t>
+    <t xml:space="preserve">10.3274793624878</t>
   </si>
   <si>
     <t xml:space="preserve">10.2296304702759</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0517234802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2207355499268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87381839752197</t>
+    <t xml:space="preserve">10.0517244338989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2207345962524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87381649017334</t>
   </si>
   <si>
     <t xml:space="preserve">9.55358600616455</t>
@@ -1556,25 +1556,25 @@
     <t xml:space="preserve">9.57137584686279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01097106933594</t>
+    <t xml:space="preserve">9.01097011566162</t>
   </si>
   <si>
     <t xml:space="preserve">8.83751106262207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74855804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41943168640137</t>
+    <t xml:space="preserve">8.74855709075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41942977905273</t>
   </si>
   <si>
     <t xml:space="preserve">8.73966312408447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83306217193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7174243927002</t>
+    <t xml:space="preserve">8.83306312561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71742343902588</t>
   </si>
   <si>
     <t xml:space="preserve">8.60178470611572</t>
@@ -1586,46 +1586,46 @@
     <t xml:space="preserve">8.5306224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37940120697021</t>
+    <t xml:space="preserve">8.37940216064453</t>
   </si>
   <si>
     <t xml:space="preserve">8.65960502624512</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52617454528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79303455352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69963264465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89088249206543</t>
+    <t xml:space="preserve">8.52617359161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79303550720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69963455200195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89088344573975</t>
   </si>
   <si>
     <t xml:space="preserve">8.80193042755127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75745391845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53507041931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41053485870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31268692016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07695960998535</t>
+    <t xml:space="preserve">8.75745296478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53506946563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41053581237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31268787384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07696056365967</t>
   </si>
   <si>
     <t xml:space="preserve">8.01024532318115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05472087860107</t>
+    <t xml:space="preserve">8.05472183227539</t>
   </si>
   <si>
     <t xml:space="preserve">8.11698913574219</t>
@@ -1634,10 +1634,10 @@
     <t xml:space="preserve">8.29489517211914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32158184051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29934406280518</t>
+    <t xml:space="preserve">8.32158088684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29934310913086</t>
   </si>
   <si>
     <t xml:space="preserve">8.55286121368408</t>
@@ -1655,307 +1655,307 @@
     <t xml:space="preserve">8.85974884033203</t>
   </si>
   <si>
+    <t xml:space="preserve">9.07323837280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79748153686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77079677581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45945930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49059391021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27265644073486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38384914398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64181327819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09920024871826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97911214828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29044818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10364532470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1525707244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86347150802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91239595413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97021579742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908262252808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25486660003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22818183898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05544662475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14440059661865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7885856628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69073867797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70852851867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76189994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67294692993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80637645721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81082534790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77524375915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91312217712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17998123168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88198661804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87753963470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86864376068115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85085487365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81527328491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81972122192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54841232299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45056438446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70408153533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89533042907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09102821350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9753885269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42905044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29562091827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34899234771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62474822998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65143394470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41125869750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46463203430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66032886505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26893329620361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1355037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1088171005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11771392822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06434154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04655265808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23335361480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47352695465088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76707363128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59806156158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51800346374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33120250701904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2867259979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08213329315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96649360656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00207424163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99317932128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19777297973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86492156982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78486442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75817775726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99835205078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4342231750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5676527023315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1673631668091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97166442871094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85602760314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18887710571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27783012390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16219139099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07778263092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09142017364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05959987640381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72776412963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84595108032227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8914098739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90050029754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78231239318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86413478851318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73685455322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48229503631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68230628967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8823184967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99596118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97777652740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21870040893555</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.07323741912842</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79748153686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77079582214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45945930480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49059295654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27265644073486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38384914398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64181423187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09919929504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97911214828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29044914245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10364627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1525707244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86347055435181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91239643096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97021579742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908357620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25486755371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22818088531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05544567108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14439964294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78858757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6907377243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70852947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76189994812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67294788360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80637741088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81082439422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77524375915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91312217712402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17998123168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88198757171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87754154205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86864471435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85085391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81527233123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81972026824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54841136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45056438446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70408153533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89532947540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09102725982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9753885269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42905139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29561901092529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34899234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62474727630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65143394470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4112606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46463203430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66032791137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26893520355225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13550472259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10881805419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11771488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0643424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04655170440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23335361480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4735279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76707458496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59806156158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51800346374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33120250701904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2867259979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08213424682617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96649360656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00207424163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99317836761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1977710723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8649206161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78486347198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75817775726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99835109710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4342231750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5676527023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1673631668091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97166633605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8560266494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18887615203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27783012390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16218948364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07778358459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09142017364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05960083007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72776412963867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8459529876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89140892028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9005012512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78231143951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86413478851318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73685455322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48229503631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68230628967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88231754302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99596118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97777652740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21870136260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07323837280273</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.04596424102783</t>
   </si>
   <si>
     <t xml:space="preserve">9.04141712188721</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26415824890137</t>
+    <t xml:space="preserve">9.26415729522705</t>
   </si>
   <si>
     <t xml:space="preserve">9.14596939086914</t>
@@ -1964,13 +1964,13 @@
     <t xml:space="preserve">9.39143753051758</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33688926696777</t>
+    <t xml:space="preserve">9.33688831329346</t>
   </si>
   <si>
     <t xml:space="preserve">9.17324352264404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03232669830322</t>
+    <t xml:space="preserve">9.03232574462891</t>
   </si>
   <si>
     <t xml:space="preserve">9.20960903167725</t>
@@ -1979,34 +1979,34 @@
     <t xml:space="preserve">9.44598579406738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38234519958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61872291564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6641788482666</t>
+    <t xml:space="preserve">9.38234615325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6187219619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66417980194092</t>
   </si>
   <si>
     <t xml:space="preserve">9.57326602935791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25506496429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12778568267822</t>
+    <t xml:space="preserve">9.25506591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12778663635254</t>
   </si>
   <si>
     <t xml:space="preserve">9.10960388183594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80504035949707</t>
+    <t xml:space="preserve">8.8050422668457</t>
   </si>
   <si>
     <t xml:space="preserve">8.76412963867188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79140281677246</t>
+    <t xml:space="preserve">8.79140377044678</t>
   </si>
   <si>
     <t xml:space="preserve">8.93686676025391</t>
@@ -2015,28 +2015,28 @@
     <t xml:space="preserve">9.24597549438477</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4096212387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34597969055176</t>
+    <t xml:space="preserve">9.40962028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34598064422607</t>
   </si>
   <si>
     <t xml:space="preserve">8.47774887084961</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42774677276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46865844726562</t>
+    <t xml:space="preserve">8.4277458190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46865749359131</t>
   </si>
   <si>
     <t xml:space="preserve">8.25046443939209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05499839782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89589786529541</t>
+    <t xml:space="preserve">8.05499935150146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89589834213257</t>
   </si>
   <si>
     <t xml:space="preserve">7.92771863937378</t>
@@ -2054,43 +2054,43 @@
     <t xml:space="preserve">7.65952157974243</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48678398132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46860265731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54587841033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5367865562439</t>
+    <t xml:space="preserve">7.4867844581604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46860218048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54587888717651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53678703308105</t>
   </si>
   <si>
     <t xml:space="preserve">7.7868013381958</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66861295700073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53224229812622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45496511459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71407032012939</t>
+    <t xml:space="preserve">7.66861343383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5322413444519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45496463775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71407079696655</t>
   </si>
   <si>
     <t xml:space="preserve">7.7231616973877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59588146209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80498456954956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07772827148438</t>
+    <t xml:space="preserve">7.59588098526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80498504638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07772731781006</t>
   </si>
   <si>
     <t xml:space="preserve">8.27773952484131</t>
@@ -2108,52 +2108,52 @@
     <t xml:space="preserve">8.65503311157227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51866054534912</t>
+    <t xml:space="preserve">8.51866149902344</t>
   </si>
   <si>
     <t xml:space="preserve">8.49138641357422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60503005981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15954875946045</t>
+    <t xml:space="preserve">8.60502910614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15954971313477</t>
   </si>
   <si>
     <t xml:space="preserve">8.00499629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88680791854858</t>
+    <t xml:space="preserve">7.88680744171143</t>
   </si>
   <si>
     <t xml:space="preserve">8.02317810058594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11863899230957</t>
+    <t xml:space="preserve">8.11863803863525</t>
   </si>
   <si>
     <t xml:space="preserve">8.12772941589355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95499324798584</t>
+    <t xml:space="preserve">7.95499229431152</t>
   </si>
   <si>
     <t xml:space="preserve">7.78225660324097</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67315912246704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72770833969116</t>
+    <t xml:space="preserve">7.6731595993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.727707862854</t>
   </si>
   <si>
     <t xml:space="preserve">7.71861600875854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58224439620972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74589061737061</t>
+    <t xml:space="preserve">7.58224391937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74589014053345</t>
   </si>
   <si>
     <t xml:space="preserve">8.13682174682617</t>
@@ -2177,25 +2177,25 @@
     <t xml:space="preserve">8.48684120178223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55502700805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59593772888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66866874694824</t>
+    <t xml:space="preserve">8.55502796173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59593868255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66866970062256</t>
   </si>
   <si>
     <t xml:space="preserve">8.9686861038208</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67776012420654</t>
+    <t xml:space="preserve">8.67776107788086</t>
   </si>
   <si>
     <t xml:space="preserve">8.74594593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29143142700195</t>
+    <t xml:space="preserve">9.29143238067627</t>
   </si>
   <si>
     <t xml:space="preserve">9.45507717132568</t>
@@ -2204,46 +2204,46 @@
     <t xml:space="preserve">9.48235130310059</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71872806549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90964794158936</t>
+    <t xml:space="preserve">9.71872711181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90964889526367</t>
   </si>
   <si>
     <t xml:space="preserve">10.1096591949463</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0551118850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.81873416900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69145393371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83691596984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58235740661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76418590545654</t>
+    <t xml:space="preserve">10.0551109313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81873512268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6914529800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83691692352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58235645294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76418685913086</t>
   </si>
   <si>
     <t xml:space="preserve">9.65508937835693</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82782649993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000563621521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0823841094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1642084121704</t>
+    <t xml:space="preserve">9.82782554626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0005626678467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0823850631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1642074584961</t>
   </si>
   <si>
     <t xml:space="preserve">10.1278438568115</t>
@@ -2267,7 +2267,7 @@
     <t xml:space="preserve">10.2369403839111</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2005748748779</t>
+    <t xml:space="preserve">10.2005739212036</t>
   </si>
   <si>
     <t xml:space="preserve">10.2551221847534</t>
@@ -2294,34 +2294,34 @@
     <t xml:space="preserve">9.63690567016602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87328147888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98238086700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0642023086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0369281768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0460186004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1187496185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.091477394104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92783260345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64599704742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54599189758301</t>
+    <t xml:space="preserve">9.87328243255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98237991333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0642032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0369272232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0460195541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1187515258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0914764404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92783069610596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64599800109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54599094390869</t>
   </si>
   <si>
     <t xml:space="preserve">9.67327117919922</t>
@@ -2330,13 +2330,13 @@
     <t xml:space="preserve">9.53690052032471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35507297515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60054016113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4641695022583</t>
+    <t xml:space="preserve">9.35507202148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60054111480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46416854858398</t>
   </si>
   <si>
     <t xml:space="preserve">9.41871070861816</t>
@@ -2360,49 +2360,49 @@
     <t xml:space="preserve">9.42780303955078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70048904418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64139556884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64593982696533</t>
+    <t xml:space="preserve">8.70048809051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64139461517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64594078063965</t>
   </si>
   <si>
     <t xml:space="preserve">8.40047264099121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21864414215088</t>
+    <t xml:space="preserve">8.21864318847656</t>
   </si>
   <si>
     <t xml:space="preserve">7.77316474914551</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87771606445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7004337310791</t>
+    <t xml:space="preserve">7.87771511077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70043468475342</t>
   </si>
   <si>
     <t xml:space="preserve">7.37768745422363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44587326049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81856536865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89129638671875</t>
+    <t xml:space="preserve">7.44587373733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8185658454895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89129686355591</t>
   </si>
   <si>
     <t xml:space="preserve">6.79583644866943</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36399412155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61855411529541</t>
+    <t xml:space="preserve">6.36399364471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61855459213257</t>
   </si>
   <si>
     <t xml:space="preserve">6.09125185012817</t>
@@ -2411,10 +2411,10 @@
     <t xml:space="preserve">6.19125699996948</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79129076004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37314081192017</t>
+    <t xml:space="preserve">6.79129028320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37314128875732</t>
   </si>
   <si>
     <t xml:space="preserve">8.00954055786133</t>
@@ -2426,16 +2426,16 @@
     <t xml:space="preserve">7.27768182754517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70946741104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.545823097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04579448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17762088775635</t>
+    <t xml:space="preserve">6.70946788787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54582166671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04579496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17762041091919</t>
   </si>
   <si>
     <t xml:space="preserve">6.06397724151611</t>
@@ -2444,16 +2444,16 @@
     <t xml:space="preserve">5.81850910186768</t>
   </si>
   <si>
-    <t xml:space="preserve">5.37302923202515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67304611206055</t>
+    <t xml:space="preserve">5.3730297088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67304658889771</t>
   </si>
   <si>
     <t xml:space="preserve">5.74577713012695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11397981643677</t>
+    <t xml:space="preserve">6.11397933959961</t>
   </si>
   <si>
     <t xml:space="preserve">6.03670310974121</t>
@@ -2462,28 +2462,28 @@
     <t xml:space="preserve">5.85487461090088</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90487718582153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14580011367798</t>
+    <t xml:space="preserve">5.90487766265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14580059051514</t>
   </si>
   <si>
     <t xml:space="preserve">6.28217172622681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.22762298583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2776255607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63673639297485</t>
+    <t xml:space="preserve">6.227623462677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27762603759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63673686981201</t>
   </si>
   <si>
     <t xml:space="preserve">6.83220243453979</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08676290512085</t>
+    <t xml:space="preserve">7.08676242828369</t>
   </si>
   <si>
     <t xml:space="preserve">6.9412989616394</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">7.11858224868774</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05948781967163</t>
+    <t xml:space="preserve">7.05948829650879</t>
   </si>
   <si>
     <t xml:space="preserve">6.96857357025146</t>
@@ -2501,19 +2501,19 @@
     <t xml:space="preserve">6.72310543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71855926513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59582614898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45490884780884</t>
+    <t xml:space="preserve">6.71855974197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59582567214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.454909324646</t>
   </si>
   <si>
     <t xml:space="preserve">5.98215484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03215789794922</t>
+    <t xml:space="preserve">6.03215742111206</t>
   </si>
   <si>
     <t xml:space="preserve">6.49127388000488</t>
@@ -2522,22 +2522,22 @@
     <t xml:space="preserve">6.45945501327515</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44581651687622</t>
+    <t xml:space="preserve">6.44581699371338</t>
   </si>
   <si>
     <t xml:space="preserve">6.62764453887939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83674764633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42314481735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79134702682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64133882522583</t>
+    <t xml:space="preserve">6.83674812316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42314434051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79134607315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64133930206299</t>
   </si>
   <si>
     <t xml:space="preserve">7.60042762756348</t>
@@ -2546,19 +2546,19 @@
     <t xml:space="preserve">7.68679571151733</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08227348327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96408462524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83225917816162</t>
+    <t xml:space="preserve">8.08227443695068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96408414840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83225870132446</t>
   </si>
   <si>
     <t xml:space="preserve">7.35950565338135</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62315559387207</t>
+    <t xml:space="preserve">7.62315607070923</t>
   </si>
   <si>
     <t xml:space="preserve">7.61861085891724</t>
@@ -2570,46 +2570,46 @@
     <t xml:space="preserve">7.49587631225586</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43678140640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36404991149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46405553817749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50951242446899</t>
+    <t xml:space="preserve">7.43678188323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36405086517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46405649185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50951290130615</t>
   </si>
   <si>
     <t xml:space="preserve">7.47769355773926</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4322361946106</t>
+    <t xml:space="preserve">7.43223667144775</t>
   </si>
   <si>
     <t xml:space="preserve">7.67770433425903</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52315044403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63679361343384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59133625030518</t>
+    <t xml:space="preserve">7.5231499671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63679265975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59133672714233</t>
   </si>
   <si>
     <t xml:space="preserve">7.40950727462769</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51405906677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70952415466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42769050598145</t>
+    <t xml:space="preserve">7.51405811309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7095251083374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42769002914429</t>
   </si>
   <si>
     <t xml:space="preserve">6.94584560394287</t>
@@ -2618,28 +2618,28 @@
     <t xml:space="preserve">6.85493040084839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93675327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00039434432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92766284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95493698120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08221626281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31859302520752</t>
+    <t xml:space="preserve">6.93675374984741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00039386749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92766332626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95493745803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08221673965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31859350204468</t>
   </si>
   <si>
     <t xml:space="preserve">7.40041542053223</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31404781341553</t>
+    <t xml:space="preserve">7.31404829025269</t>
   </si>
   <si>
     <t xml:space="preserve">7.30495643615723</t>
@@ -2660,52 +2660,52 @@
     <t xml:space="preserve">7.35495901107788</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27313661575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62770175933838</t>
+    <t xml:space="preserve">7.27313566207886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6277027130127</t>
   </si>
   <si>
     <t xml:space="preserve">7.55951642990112</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76407337188721</t>
+    <t xml:space="preserve">7.76407289505005</t>
   </si>
   <si>
     <t xml:space="preserve">7.88226127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2641019821167</t>
+    <t xml:space="preserve">8.26410102844238</t>
   </si>
   <si>
     <t xml:space="preserve">7.85044050216675</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68225002288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13676500320435</t>
+    <t xml:space="preserve">7.68225049972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1367654800415</t>
   </si>
   <si>
     <t xml:space="preserve">7.24586248397827</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29586505889893</t>
+    <t xml:space="preserve">7.29586458206177</t>
   </si>
   <si>
     <t xml:space="preserve">7.32768440246582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57769918441772</t>
+    <t xml:space="preserve">7.57769966125488</t>
   </si>
   <si>
     <t xml:space="preserve">7.75498199462891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15045928955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20955276489258</t>
+    <t xml:space="preserve">8.15045738220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20955181121826</t>
   </si>
   <si>
     <t xml:space="preserve">8.29137516021729</t>
@@ -2714,16 +2714,16 @@
     <t xml:space="preserve">8.01863288879395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96862983703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89135408401489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90499067306519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85498762130737</t>
+    <t xml:space="preserve">7.96863031387329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89135313034058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90499019622803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85498666763306</t>
   </si>
   <si>
     <t xml:space="preserve">8.05954456329346</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">8.25955486297607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28228378295898</t>
+    <t xml:space="preserve">8.28228282928467</t>
   </si>
   <si>
     <t xml:space="preserve">8.45047473907471</t>
@@ -2750,34 +2750,34 @@
     <t xml:space="preserve">8.10954666137695</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9459023475647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00044918060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06863498687744</t>
+    <t xml:space="preserve">7.94590330123901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00045013427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06863594055176</t>
   </si>
   <si>
     <t xml:space="preserve">8.15500450134277</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56417465209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5096263885498</t>
+    <t xml:space="preserve">9.56417369842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50962543487549</t>
   </si>
   <si>
     <t xml:space="preserve">9.73691177368164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.191481590271</t>
+    <t xml:space="preserve">10.1914806365967</t>
   </si>
   <si>
     <t xml:space="preserve">9.93692207336426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74600219726562</t>
+    <t xml:space="preserve">9.74600315093994</t>
   </si>
   <si>
     <t xml:space="preserve">9.70963764190674</t>
@@ -2798,16 +2798,16 @@
     <t xml:space="preserve">9.75509452819824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72782039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96419811248779</t>
+    <t xml:space="preserve">9.72781944274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96419715881348</t>
   </si>
   <si>
     <t xml:space="preserve">9.84600830078125</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36416244506836</t>
+    <t xml:space="preserve">9.36416339874268</t>
   </si>
   <si>
     <t xml:space="preserve">10.1005687713623</t>
@@ -2822,13 +2822,13 @@
     <t xml:space="preserve">10.4914989471436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3005800247192</t>
+    <t xml:space="preserve">10.3005790710449</t>
   </si>
   <si>
     <t xml:space="preserve">10.0187463760376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2460308074951</t>
+    <t xml:space="preserve">10.2460298538208</t>
   </si>
   <si>
     <t xml:space="preserve">9.80055046081543</t>
@@ -2837,19 +2837,19 @@
     <t xml:space="preserve">9.86419105529785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79146003723145</t>
+    <t xml:space="preserve">9.79145908355713</t>
   </si>
   <si>
     <t xml:space="preserve">10.182391166687</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91873931884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27324867248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50053405761719</t>
+    <t xml:space="preserve">9.91874027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27324962615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5005350112915</t>
   </si>
   <si>
     <t xml:space="preserve">9.62781429290771</t>
@@ -2858,10 +2858,10 @@
     <t xml:space="preserve">9.60963153839111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68236351013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52780818939209</t>
+    <t xml:space="preserve">9.68236255645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52780914306641</t>
   </si>
   <si>
     <t xml:space="preserve">9.51871776580811</t>
@@ -2870,46 +2870,46 @@
     <t xml:space="preserve">9.22779083251953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40052795410156</t>
+    <t xml:space="preserve">9.4005298614502</t>
   </si>
   <si>
     <t xml:space="preserve">9.16415214538574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32779693603516</t>
+    <t xml:space="preserve">9.32779788970947</t>
   </si>
   <si>
     <t xml:space="preserve">9.30052375793457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52351379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53336048126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52406024932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77518272399902</t>
+    <t xml:space="preserve">9.523512840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53336143493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5240592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77518177032471</t>
   </si>
   <si>
     <t xml:space="preserve">9.92399597167969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0821113586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1565170288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1751174926758</t>
+    <t xml:space="preserve">10.0821104049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1565179824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1751184463501</t>
   </si>
   <si>
     <t xml:space="preserve">10.3053312301636</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3518352508545</t>
+    <t xml:space="preserve">10.3518342971802</t>
   </si>
   <si>
     <t xml:space="preserve">10.1472158432007</t>
@@ -2918,16 +2918,16 @@
     <t xml:space="preserve">10.1007118225098</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0356063842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0542078018188</t>
+    <t xml:space="preserve">10.035605430603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0542087554932</t>
   </si>
   <si>
     <t xml:space="preserve">9.86819076538086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85888957977295</t>
+    <t xml:space="preserve">9.85889053344727</t>
   </si>
   <si>
     <t xml:space="preserve">9.69147491455078</t>
@@ -2939,10 +2939,10 @@
     <t xml:space="preserve">9.98910140991211</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9611988067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0449066162109</t>
+    <t xml:space="preserve">9.96119976043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0449075698853</t>
   </si>
   <si>
     <t xml:space="preserve">9.84958934783936</t>
@@ -2960,10 +2960,10 @@
     <t xml:space="preserve">9.89609432220459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70077705383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1193141937256</t>
+    <t xml:space="preserve">9.70077610015869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1193132400513</t>
   </si>
   <si>
     <t xml:space="preserve">9.99840354919434</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">9.72867870330811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7379789352417</t>
+    <t xml:space="preserve">9.73797988891602</t>
   </si>
   <si>
     <t xml:space="preserve">10.1286153793335</t>
@@ -2987,25 +2987,25 @@
     <t xml:space="preserve">10.2495260238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7703723907471</t>
+    <t xml:space="preserve">10.7703733444214</t>
   </si>
   <si>
     <t xml:space="preserve">10.9656896591187</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0400972366333</t>
+    <t xml:space="preserve">11.040096282959</t>
   </si>
   <si>
     <t xml:space="preserve">11.0773000717163</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1331052780151</t>
+    <t xml:space="preserve">11.1331062316895</t>
   </si>
   <si>
     <t xml:space="preserve">11.2540168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3377227783203</t>
+    <t xml:space="preserve">11.3377237319946</t>
   </si>
   <si>
     <t xml:space="preserve">11.3842277526855</t>
@@ -3017,10 +3017,10 @@
     <t xml:space="preserve">11.5051383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4958372116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5330419540405</t>
+    <t xml:space="preserve">11.4958381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5330410003662</t>
   </si>
   <si>
     <t xml:space="preserve">11.4214315414429</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">11.4400329589844</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4121313095093</t>
+    <t xml:space="preserve">11.412130355835</t>
   </si>
   <si>
     <t xml:space="preserve">11.3749265670776</t>
@@ -3047,7 +3047,7 @@
     <t xml:space="preserve">11.3098211288452</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4493341445923</t>
+    <t xml:space="preserve">11.4493350982666</t>
   </si>
   <si>
     <t xml:space="preserve">11.3191223144531</t>
@@ -3056,7 +3056,7 @@
     <t xml:space="preserve">11.2912197113037</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3005208969116</t>
+    <t xml:space="preserve">11.3005199432373</t>
   </si>
   <si>
     <t xml:space="preserve">11.1982116699219</t>
@@ -3065,19 +3065,19 @@
     <t xml:space="preserve">11.1517066955566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1796102523804</t>
+    <t xml:space="preserve">11.1796092987061</t>
   </si>
   <si>
     <t xml:space="preserve">11.2354145050049</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8075761795044</t>
+    <t xml:space="preserve">10.8075752258301</t>
   </si>
   <si>
     <t xml:space="preserve">10.6308603286743</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2681274414062</t>
+    <t xml:space="preserve">10.2681264877319</t>
   </si>
   <si>
     <t xml:space="preserve">10.3239326477051</t>
@@ -3086,7 +3086,7 @@
     <t xml:space="preserve">10.4913473129272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5006484985352</t>
+    <t xml:space="preserve">10.5006475448608</t>
   </si>
   <si>
     <t xml:space="preserve">10.5099496841431</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">10.4634447097778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2309226989746</t>
+    <t xml:space="preserve">10.2309236526489</t>
   </si>
   <si>
     <t xml:space="preserve">10.1658182144165</t>
@@ -3107,43 +3107,43 @@
     <t xml:space="preserve">9.82168769836426</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0263051986694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0635089874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1100120544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2030220031738</t>
+    <t xml:space="preserve">10.0263061523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0635080337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1100130081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2030210494995</t>
   </si>
   <si>
     <t xml:space="preserve">10.2123212814331</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1844205856323</t>
+    <t xml:space="preserve">10.184419631958</t>
   </si>
   <si>
     <t xml:space="preserve">10.221622467041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3890380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3332319259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5378513336182</t>
+    <t xml:space="preserve">10.3890390396118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3332328796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5378522872925</t>
   </si>
   <si>
     <t xml:space="preserve">10.5192499160767</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5750551223755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5564546585083</t>
+    <t xml:space="preserve">10.5750541687012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.556453704834</t>
   </si>
   <si>
     <t xml:space="preserve">10.6587629318237</t>
@@ -3155,34 +3155,34 @@
     <t xml:space="preserve">10.8261785507202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9005842208862</t>
+    <t xml:space="preserve">10.9005851745605</t>
   </si>
   <si>
     <t xml:space="preserve">10.7238683700562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6773643493652</t>
+    <t xml:space="preserve">10.6773633956909</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982749938965</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8168773651123</t>
+    <t xml:space="preserve">10.816876411438</t>
   </si>
   <si>
     <t xml:space="preserve">11.1703090667725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2447156906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0866012573242</t>
+    <t xml:space="preserve">11.2447147369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0866022109985</t>
   </si>
   <si>
     <t xml:space="preserve">11.1610078811646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9470891952515</t>
+    <t xml:space="preserve">10.9470882415771</t>
   </si>
   <si>
     <t xml:space="preserve">10.4541444778442</t>
@@ -3206,28 +3206,28 @@
     <t xml:space="preserve">11.3656272888184</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3563261032104</t>
+    <t xml:space="preserve">11.3563251495361</t>
   </si>
   <si>
     <t xml:space="preserve">11.4865379333496</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5144395828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5795450210571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6539516448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6353511810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5981473922729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8771724700928</t>
+    <t xml:space="preserve">11.514440536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5795459747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6539525985718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.635350227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5981483459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8771734237671</t>
   </si>
   <si>
     <t xml:space="preserve">12.0538883209229</t>
@@ -3239,28 +3239,28 @@
     <t xml:space="preserve">12.4445238113403</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0817899703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2771091461182</t>
+    <t xml:space="preserve">12.0817909240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2771081924438</t>
   </si>
   <si>
     <t xml:space="preserve">11.6260499954224</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6167497634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.73766040802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6725549697876</t>
+    <t xml:space="preserve">11.6167488098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7376594543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6725540161133</t>
   </si>
   <si>
     <t xml:space="preserve">11.5423421859741</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2168130874634</t>
+    <t xml:space="preserve">11.2168140411377</t>
   </si>
   <si>
     <t xml:space="preserve">10.7052669525146</t>
@@ -3269,73 +3269,73 @@
     <t xml:space="preserve">10.9191856384277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7517709732056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.92848777771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0959024429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.002893447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7889738082886</t>
+    <t xml:space="preserve">10.7517719268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9284868240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0959014892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0028944015503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7889747619629</t>
   </si>
   <si>
     <t xml:space="preserve">11.1052026748657</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0121946334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.779673576355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9935932159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79378414154053</t>
+    <t xml:space="preserve">11.0121936798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7796726226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9935922622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79378509521484</t>
   </si>
   <si>
     <t xml:space="preserve">9.13807487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30564975738525</t>
+    <t xml:space="preserve">8.30565071105957</t>
   </si>
   <si>
     <t xml:space="preserve">8.31494998931885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45446300506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7985954284668</t>
+    <t xml:space="preserve">8.45446491241455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79859447479248</t>
   </si>
   <si>
     <t xml:space="preserve">8.50096797943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64978218078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84974956512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99391174316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42175006866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29619026184082</t>
+    <t xml:space="preserve">8.64978122711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8497486114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99391269683838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42175102233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2961893081665</t>
   </si>
   <si>
     <t xml:space="preserve">9.34734439849854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44035243988037</t>
+    <t xml:space="preserve">9.44035148620605</t>
   </si>
   <si>
     <t xml:space="preserve">9.5147590637207</t>
@@ -3350,28 +3350,28 @@
     <t xml:space="preserve">9.11947441101074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2310848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68217372894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58916568756104</t>
+    <t xml:space="preserve">9.23108386993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68217468261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58916664123535</t>
   </si>
   <si>
     <t xml:space="preserve">9.41244983673096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3008394241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36594486236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15202617645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74744033813477</t>
+    <t xml:space="preserve">9.30084037780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36594581604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15202713012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74743938446045</t>
   </si>
   <si>
     <t xml:space="preserve">8.56607341766357</t>
@@ -3380,31 +3380,31 @@
     <t xml:space="preserve">8.66838264465332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57537364959717</t>
+    <t xml:space="preserve">8.57537460327148</t>
   </si>
   <si>
     <t xml:space="preserve">8.61257743835449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65443134307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67303371429443</t>
+    <t xml:space="preserve">8.65443229675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67303276062012</t>
   </si>
   <si>
     <t xml:space="preserve">8.82649707794189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26828670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02646541595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88695240020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76604175567627</t>
+    <t xml:space="preserve">9.26828765869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02646446228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88695335388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76604080200195</t>
   </si>
   <si>
     <t xml:space="preserve">8.77534294128418</t>
@@ -3419,16 +3419,16 @@
     <t xml:space="preserve">8.6032772064209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48236656188965</t>
+    <t xml:space="preserve">8.48236560821533</t>
   </si>
   <si>
     <t xml:space="preserve">8.55212211608887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42191028594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20783138275146</t>
+    <t xml:space="preserve">8.42191123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20783042907715</t>
   </si>
   <si>
     <t xml:space="preserve">10.0077037811279</t>
@@ -3437,13 +3437,13 @@
     <t xml:space="preserve">10.0387487411499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9337797164917</t>
+    <t xml:space="preserve">9.93378067016602</t>
   </si>
   <si>
     <t xml:space="preserve">9.98149299621582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2391414642334</t>
+    <t xml:space="preserve">10.2391405105591</t>
   </si>
   <si>
     <t xml:space="preserve">10.4204502105713</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">10.5826730728149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3154821395874</t>
+    <t xml:space="preserve">10.3154830932617</t>
   </si>
   <si>
     <t xml:space="preserve">10.3441095352173</t>
@@ -3461,7 +3461,7 @@
     <t xml:space="preserve">10.4013643264771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2582263946533</t>
+    <t xml:space="preserve">10.2582273483276</t>
   </si>
   <si>
     <t xml:space="preserve">10.4299926757812</t>
@@ -3470,13 +3470,13 @@
     <t xml:space="preserve">10.487247467041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5254173278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99103546142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74293041229248</t>
+    <t xml:space="preserve">10.5254182815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9910364151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74292945861816</t>
   </si>
   <si>
     <t xml:space="preserve">9.56162166595459</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">9.79064273834229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19423484802246</t>
+    <t xml:space="preserve">9.19423389434814</t>
   </si>
   <si>
     <t xml:space="preserve">9.28488731384277</t>
@@ -3542,10 +3542,10 @@
     <t xml:space="preserve">9.14175033569336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92227268218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22763252258301</t>
+    <t xml:space="preserve">8.92227172851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22763347625732</t>
   </si>
   <si>
     <t xml:space="preserve">9.33260059356689</t>
@@ -3554,10 +3554,10 @@
     <t xml:space="preserve">9.39939880371094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43756866455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47573947906494</t>
+    <t xml:space="preserve">9.4375696182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47573852539062</t>
   </si>
   <si>
     <t xml:space="preserve">9.32782936096191</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">9.18469142913818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50913715362549</t>
+    <t xml:space="preserve">9.5091381072998</t>
   </si>
   <si>
     <t xml:space="preserve">9.81927013397217</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">10.1150884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0864610671997</t>
+    <t xml:space="preserve">10.0864601135254</t>
   </si>
   <si>
     <t xml:space="preserve">10.01966381073</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">9.25148868560791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90795707702637</t>
+    <t xml:space="preserve">8.90795803070068</t>
   </si>
   <si>
     <t xml:space="preserve">8.87455940246582</t>
@@ -3626,19 +3626,19 @@
     <t xml:space="preserve">8.88410186767578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7505054473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69324970245361</t>
+    <t xml:space="preserve">8.75050640106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69325065612793</t>
   </si>
   <si>
     <t xml:space="preserve">8.76004886627197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44037437438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42128753662109</t>
+    <t xml:space="preserve">8.44037342071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42128849029541</t>
   </si>
   <si>
     <t xml:space="preserve">8.53579902648926</t>
@@ -3656,19 +3656,19 @@
     <t xml:space="preserve">9.07495212554932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11312198638916</t>
+    <t xml:space="preserve">9.11312294006348</t>
   </si>
   <si>
     <t xml:space="preserve">8.8268461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61690998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63599491119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51671409606934</t>
+    <t xml:space="preserve">8.61691093444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63599586486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51671314239502</t>
   </si>
   <si>
     <t xml:space="preserve">8.39266109466553</t>
@@ -3692,13 +3692,13 @@
     <t xml:space="preserve">7.7676248550415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10638523101807</t>
+    <t xml:space="preserve">8.10638427734375</t>
   </si>
   <si>
     <t xml:space="preserve">8.26383686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62168121337891</t>
+    <t xml:space="preserve">8.62168216705322</t>
   </si>
   <si>
     <t xml:space="preserve">8.52148532867432</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">8.61213874816895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59782600402832</t>
+    <t xml:space="preserve">8.597825050354</t>
   </si>
   <si>
     <t xml:space="preserve">8.99861240386963</t>
@@ -3719,19 +3719,19 @@
     <t xml:space="preserve">8.77913379669189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92704296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97952747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05109596252441</t>
+    <t xml:space="preserve">8.92704200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97952651977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0510950088501</t>
   </si>
   <si>
     <t xml:space="preserve">9.23240375518799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24194622039795</t>
+    <t xml:space="preserve">9.24194717407227</t>
   </si>
   <si>
     <t xml:space="preserve">9.29920196533203</t>
@@ -3740,7 +3740,7 @@
     <t xml:space="preserve">9.11789417266846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52822303771973</t>
+    <t xml:space="preserve">9.52822208404541</t>
   </si>
   <si>
     <t xml:space="preserve">9.89560985565186</t>
@@ -3767,13 +3767,13 @@
     <t xml:space="preserve">11.2601928710938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.11705493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0788841247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1361398696899</t>
+    <t xml:space="preserve">11.1170539855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0788850784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1361408233643</t>
   </si>
   <si>
     <t xml:space="preserve">10.8975772857666</t>
@@ -3782,16 +3782,16 @@
     <t xml:space="preserve">10.6113004684448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7162685394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6590127944946</t>
+    <t xml:space="preserve">10.7162675857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6590137481689</t>
   </si>
   <si>
     <t xml:space="preserve">10.6971836090088</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5063333511353</t>
+    <t xml:space="preserve">10.5063323974609</t>
   </si>
   <si>
     <t xml:space="preserve">10.5540466308594</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">10.7258110046387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.563588142395</t>
+    <t xml:space="preserve">10.5635871887207</t>
   </si>
   <si>
     <t xml:space="preserve">10.4490776062012</t>
@@ -3821,10 +3821,10 @@
     <t xml:space="preserve">10.1055459976196</t>
   </si>
   <si>
-    <t xml:space="preserve">10.01012134552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95286655426025</t>
+    <t xml:space="preserve">10.0101203918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95286560058594</t>
   </si>
   <si>
     <t xml:space="preserve">9.82881259918213</t>
@@ -3842,10 +3842,10 @@
     <t xml:space="preserve">10.496789932251</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6208438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8689489364624</t>
+    <t xml:space="preserve">10.6208429336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8689498901367</t>
   </si>
   <si>
     <t xml:space="preserve">10.9166612625122</t>
@@ -3869,22 +3869,22 @@
     <t xml:space="preserve">11.0502576828003</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3269910812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3651599884033</t>
+    <t xml:space="preserve">11.3269901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3651609420776</t>
   </si>
   <si>
     <t xml:space="preserve">11.8041172027588</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2239894866943</t>
+    <t xml:space="preserve">12.2239904403687</t>
   </si>
   <si>
     <t xml:space="preserve">12.5579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7392873764038</t>
+    <t xml:space="preserve">12.7392864227295</t>
   </si>
   <si>
     <t xml:space="preserve">12.7869987487793</t>
@@ -3920,7 +3920,7 @@
     <t xml:space="preserve">13.1400728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3309230804443</t>
+    <t xml:space="preserve">13.3309240341187</t>
   </si>
   <si>
     <t xml:space="preserve">14.2279214859009</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">13.0541896820068</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2927541732788</t>
+    <t xml:space="preserve">13.2927532196045</t>
   </si>
   <si>
     <t xml:space="preserve">13.3595514297485</t>
@@ -3968,13 +3968,13 @@
     <t xml:space="preserve">12.6724882125854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6629457473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7774562835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4339246749878</t>
+    <t xml:space="preserve">12.6629467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7774572372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4339256286621</t>
   </si>
   <si>
     <t xml:space="preserve">12.3671274185181</t>
@@ -3983,13 +3983,13 @@
     <t xml:space="preserve">12.8824243545532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2354984283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7202005386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.025562286377</t>
+    <t xml:space="preserve">13.2354974746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7202014923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0255613327026</t>
   </si>
   <si>
     <t xml:space="preserve">12.9587650299072</t>
@@ -4001,7 +4001,7 @@
     <t xml:space="preserve">12.939679145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7583713531494</t>
+    <t xml:space="preserve">12.7583703994751</t>
   </si>
   <si>
     <t xml:space="preserve">12.462553024292</t>
@@ -4019,7 +4019,7 @@
     <t xml:space="preserve">13.5504016876221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7698812484741</t>
+    <t xml:space="preserve">13.7698802947998</t>
   </si>
   <si>
     <t xml:space="preserve">13.7412519454956</t>
@@ -4034,7 +4034,7 @@
     <t xml:space="preserve">13.645827293396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7889652252197</t>
+    <t xml:space="preserve">13.7889642715454</t>
   </si>
   <si>
     <t xml:space="preserve">13.7794227600098</t>
@@ -4749,6 +4749,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.6260004043579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6820001602173</t>
   </si>
 </sst>
 </file>
@@ -61562,7 +61565,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6499189815</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>237294</v>
@@ -61583,6 +61586,32 @@
         <v>1578</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6493865741</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>224779</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>10.6940002441406</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>10.5500001907349</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>10.5500001907349</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>10.6820001602173</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BRE.MI.xlsx
+++ b/data/BRE.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43071603775024</t>
+    <t xml:space="preserve">7.43071699142456</t>
   </si>
   <si>
     <t xml:space="preserve">BRE.MI</t>
@@ -59,22 +59,22 @@
     <t xml:space="preserve">6.66307401657104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84100580215454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02910184860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79016733169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43938970565796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42413949966431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50378370285034</t>
+    <t xml:space="preserve">6.84100484848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02910137176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79016780853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4393892288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42413902282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50378322601318</t>
   </si>
   <si>
     <t xml:space="preserve">6.16317415237427</t>
@@ -83,13 +83,13 @@
     <t xml:space="preserve">6.42922258377075</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47667074203491</t>
+    <t xml:space="preserve">6.47667121887207</t>
   </si>
   <si>
     <t xml:space="preserve">6.53598022460938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54953718185425</t>
+    <t xml:space="preserve">6.54953670501709</t>
   </si>
   <si>
     <t xml:space="preserve">6.62070941925049</t>
@@ -98,25 +98,25 @@
     <t xml:space="preserve">6.45803022384644</t>
   </si>
   <si>
-    <t xml:space="preserve">6.3919415473938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28009939193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21062231063843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07844495773315</t>
+    <t xml:space="preserve">6.39194202423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2800989151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21062183380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07844400405884</t>
   </si>
   <si>
     <t xml:space="preserve">5.91237640380859</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55482196807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71749925613403</t>
+    <t xml:space="preserve">5.5548210144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71749973297119</t>
   </si>
   <si>
     <t xml:space="preserve">5.93101644515991</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">5.94118452072144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25976419448853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19198179244995</t>
+    <t xml:space="preserve">6.25976467132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19198226928711</t>
   </si>
   <si>
     <t xml:space="preserve">6.34279918670654</t>
@@ -140,16 +140,16 @@
     <t xml:space="preserve">6.36482810974121</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32246446609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46480894088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33432626724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19367694854736</t>
+    <t xml:space="preserve">6.32246398925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46480846405029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33432531356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19367647171021</t>
   </si>
   <si>
     <t xml:space="preserve">6.29535102844238</t>
@@ -158,61 +158,61 @@
     <t xml:space="preserve">6.35296678543091</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44616889953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58342838287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55462169647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30362462997437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.340904712677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3764910697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33751487731934</t>
+    <t xml:space="preserve">6.44616794586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58342933654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55462121963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30362367630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34090375900269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37649011611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33751535415649</t>
   </si>
   <si>
     <t xml:space="preserve">7.37987995147705</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32904148101807</t>
+    <t xml:space="preserve">7.32904195785522</t>
   </si>
   <si>
     <t xml:space="preserve">7.32395887374878</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42224454879761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40360450744629</t>
+    <t xml:space="preserve">7.42224407196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40360307693481</t>
   </si>
   <si>
     <t xml:space="preserve">7.5137505531311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40190887451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49341535568237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33412599563599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53408718109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41377019882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4120774269104</t>
+    <t xml:space="preserve">7.40190982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49341487884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33412504196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53408670425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41377115249634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41207504272461</t>
   </si>
   <si>
     <t xml:space="preserve">7.58153438568115</t>
@@ -224,109 +224,109 @@
     <t xml:space="preserve">7.67304134368896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62389802932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40529823303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45105218887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42393732070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53917026519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57644987106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62559270858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67642974853516</t>
+    <t xml:space="preserve">7.62389755249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40529775619507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45105171203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42393827438354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53916883468628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57644939422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6255931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.676429271698</t>
   </si>
   <si>
     <t xml:space="preserve">7.69337511062622</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66287469863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71032190322876</t>
+    <t xml:space="preserve">7.66287517547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71032238006592</t>
   </si>
   <si>
     <t xml:space="preserve">7.74421405792236</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78488302230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05093288421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99670600891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91367101669312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96281385421753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02381896972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94925785064697</t>
+    <t xml:space="preserve">7.78488206863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05093193054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99670553207397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91367149353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96281433105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02381801605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9492564201355</t>
   </si>
   <si>
     <t xml:space="preserve">8.00348281860352</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9085865020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99162340164185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1424388885498</t>
+    <t xml:space="preserve">7.90858697891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99162244796753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14243793487549</t>
   </si>
   <si>
     <t xml:space="preserve">8.78637790679932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81179904937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82027053833008</t>
+    <t xml:space="preserve">8.81179809570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82026958465576</t>
   </si>
   <si>
     <t xml:space="preserve">8.86263370513916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73554134368896</t>
+    <t xml:space="preserve">8.73554039001465</t>
   </si>
   <si>
     <t xml:space="preserve">8.66775703430176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65928268432617</t>
+    <t xml:space="preserve">8.6592845916748</t>
   </si>
   <si>
     <t xml:space="preserve">8.71859550476074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83048248291016</t>
+    <t xml:space="preserve">8.83048343658447</t>
   </si>
   <si>
     <t xml:space="preserve">8.76162910461426</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82187652587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77023410797119</t>
+    <t xml:space="preserve">8.82187747955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77023506164551</t>
   </si>
   <si>
     <t xml:space="preserve">8.77884197235107</t>
@@ -335,103 +335,103 @@
     <t xml:space="preserve">8.92515659332275</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95097827911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04564952850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28663921356201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1919641494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18335723876953</t>
+    <t xml:space="preserve">8.95097732543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0456485748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28663730621338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19196605682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18335819244385</t>
   </si>
   <si>
     <t xml:space="preserve">8.89933586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57744407653809</t>
+    <t xml:space="preserve">8.5774450302124</t>
   </si>
   <si>
     <t xml:space="preserve">8.40531158447266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60670757293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61531448364258</t>
+    <t xml:space="preserve">8.60670852661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61531543731689</t>
   </si>
   <si>
     <t xml:space="preserve">8.91654872894287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93376350402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88212203979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0370454788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56023216247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91989421844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55506801605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35367107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50514793395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5378532409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13333988189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9594841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95776271820068</t>
+    <t xml:space="preserve">8.933762550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88212394714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03704357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56023120880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91989231109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55506706237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35367012023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50514888763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53785419464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13333797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95948362350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95776176452637</t>
   </si>
   <si>
     <t xml:space="preserve">8.24522590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32096481323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34850692749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26932430267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4414587020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40875339508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53441333770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40014839172363</t>
+    <t xml:space="preserve">8.32096576690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34850597381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26932525634766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44145965576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40875434875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5344123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40014743804932</t>
   </si>
   <si>
     <t xml:space="preserve">8.51031303405762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46555709838867</t>
+    <t xml:space="preserve">8.46555805206299</t>
   </si>
   <si>
     <t xml:space="preserve">8.62392234802246</t>
@@ -440,7 +440,10 @@
     <t xml:space="preserve">8.67556190490723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81326866149902</t>
+    <t xml:space="preserve">8.71859645843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81326961517334</t>
   </si>
   <si>
     <t xml:space="preserve">8.66695404052734</t>
@@ -449,25 +452,25 @@
     <t xml:space="preserve">8.99400997161865</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08868408203125</t>
+    <t xml:space="preserve">9.08868503570557</t>
   </si>
   <si>
     <t xml:space="preserve">8.84769535064697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86490821838379</t>
+    <t xml:space="preserve">8.86490726470947</t>
   </si>
   <si>
     <t xml:space="preserve">8.95958423614502</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0542573928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00261688232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06286239624023</t>
+    <t xml:space="preserve">9.05425643920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0026159286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06286334991455</t>
   </si>
   <si>
     <t xml:space="preserve">8.9854040145874</t>
@@ -476,25 +479,25 @@
     <t xml:space="preserve">8.79605484008789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75302314758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78744792938232</t>
+    <t xml:space="preserve">8.75302219390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78744888305664</t>
   </si>
   <si>
     <t xml:space="preserve">8.70998859405518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73580932617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96818828582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01122379302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0284366607666</t>
+    <t xml:space="preserve">8.73580741882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96818923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01122283935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02843761444092</t>
   </si>
   <si>
     <t xml:space="preserve">9.2177848815918</t>
@@ -503,43 +506,43 @@
     <t xml:space="preserve">9.1661434173584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20917797088623</t>
+    <t xml:space="preserve">9.20917701721191</t>
   </si>
   <si>
     <t xml:space="preserve">9.10589694976807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1231107711792</t>
+    <t xml:space="preserve">9.12311172485352</t>
   </si>
   <si>
     <t xml:space="preserve">9.14032363891602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22638988494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38131237030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13171768188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94237041473389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01982975006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14892864227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07147026062012</t>
+    <t xml:space="preserve">9.22639083862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38131141662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13171672821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94236850738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01983070373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14892959594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0714693069458</t>
   </si>
   <si>
     <t xml:space="preserve">9.37270545959473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47598457336426</t>
+    <t xml:space="preserve">9.47598552703857</t>
   </si>
   <si>
     <t xml:space="preserve">9.62229919433594</t>
@@ -548,13 +551,13 @@
     <t xml:space="preserve">9.69115352630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6997594833374</t>
+    <t xml:space="preserve">9.69975852966309</t>
   </si>
   <si>
     <t xml:space="preserve">9.48459339141846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.260817527771</t>
+    <t xml:space="preserve">9.26081848144531</t>
   </si>
   <si>
     <t xml:space="preserve">9.0972900390625</t>
@@ -563,7 +566,7 @@
     <t xml:space="preserve">9.52762603759766</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79443264007568</t>
+    <t xml:space="preserve">9.79443550109863</t>
   </si>
   <si>
     <t xml:space="preserve">9.51041221618652</t>
@@ -572,34 +575,34 @@
     <t xml:space="preserve">9.32967281341553</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46737861633301</t>
+    <t xml:space="preserve">9.46737766265869</t>
   </si>
   <si>
     <t xml:space="preserve">9.24360466003418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25221157073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33827972412109</t>
+    <t xml:space="preserve">9.25221061706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33827781677246</t>
   </si>
   <si>
     <t xml:space="preserve">9.31245803833008</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08007717132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45016574859619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56205368041992</t>
+    <t xml:space="preserve">9.08007621765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45016670227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56205272674561</t>
   </si>
   <si>
     <t xml:space="preserve">9.2780294418335</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39852619171143</t>
+    <t xml:space="preserve">9.39852428436279</t>
   </si>
   <si>
     <t xml:space="preserve">9.40713119506836</t>
@@ -608,7 +611,7 @@
     <t xml:space="preserve">9.53623294830322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6567268371582</t>
+    <t xml:space="preserve">9.65672779083252</t>
   </si>
   <si>
     <t xml:space="preserve">9.70836639404297</t>
@@ -617,31 +620,31 @@
     <t xml:space="preserve">9.83746719360352</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89771461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.328049659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.388298034668</t>
+    <t xml:space="preserve">9.89771366119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3280506134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3882961273193</t>
   </si>
   <si>
     <t xml:space="preserve">10.181734085083</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3022298812866</t>
+    <t xml:space="preserve">10.3022289276123</t>
   </si>
   <si>
     <t xml:space="preserve">10.3452625274658</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3710832595825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4227247238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5776433944702</t>
+    <t xml:space="preserve">10.3710842132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4227237701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5776453018188</t>
   </si>
   <si>
     <t xml:space="preserve">10.6034641265869</t>
@@ -650,7 +653,7 @@
     <t xml:space="preserve">10.5862512588501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5690364837646</t>
+    <t xml:space="preserve">10.569037437439</t>
   </si>
   <si>
     <t xml:space="preserve">10.5260038375854</t>
@@ -659,25 +662,25 @@
     <t xml:space="preserve">10.4915771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5518245697021</t>
+    <t xml:space="preserve">10.5518255233765</t>
   </si>
   <si>
     <t xml:space="preserve">10.5173969268799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.594856262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5001831054688</t>
+    <t xml:space="preserve">10.5948572158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5001840591431</t>
   </si>
   <si>
     <t xml:space="preserve">10.4657573699951</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2075567245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6895313262939</t>
+    <t xml:space="preserve">10.2075548171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6895322799683</t>
   </si>
   <si>
     <t xml:space="preserve">10.448543548584</t>
@@ -689,31 +692,31 @@
     <t xml:space="preserve">10.9133062362671</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8272380828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9046983718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7669925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8530578613281</t>
+    <t xml:space="preserve">10.8272390365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9046974182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7669906616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8530588150024</t>
   </si>
   <si>
     <t xml:space="preserve">11.0768327713013</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1112604141235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0424070358276</t>
+    <t xml:space="preserve">11.1112585067749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0424060821533</t>
   </si>
   <si>
     <t xml:space="preserve">10.7842063903809</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0338001251221</t>
+    <t xml:space="preserve">11.0337991714478</t>
   </si>
   <si>
     <t xml:space="preserve">11.188720703125</t>
@@ -725,10 +728,10 @@
     <t xml:space="preserve">11.3264284133911</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1628999710083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1715059280396</t>
+    <t xml:space="preserve">11.1629018783569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1715068817139</t>
   </si>
   <si>
     <t xml:space="preserve">11.2661809921265</t>
@@ -737,40 +740,40 @@
     <t xml:space="preserve">11.1801137924194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4383153915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2920017242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4469213485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.662088394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5846290588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.636269569397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6706953048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6965160369873</t>
+    <t xml:space="preserve">11.4383144378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2920026779175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4469223022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6620893478394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5846300125122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6362686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6706962585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6965169906616</t>
   </si>
   <si>
     <t xml:space="preserve">11.756763458252</t>
   </si>
   <si>
-    <t xml:space="preserve">11.808403968811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8686504364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9288969039917</t>
+    <t xml:space="preserve">11.8084049224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8686494827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9288988113403</t>
   </si>
   <si>
     <t xml:space="preserve">11.9202919006348</t>
@@ -779,13 +782,13 @@
     <t xml:space="preserve">11.9375038146973</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1698865890503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1870985031128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1182470321655</t>
+    <t xml:space="preserve">12.1698846817017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1870994567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1182460784912</t>
   </si>
   <si>
     <t xml:space="preserve">12.109637260437</t>
@@ -800,7 +803,7 @@
     <t xml:space="preserve">12.1440649032593</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0149641036987</t>
+    <t xml:space="preserve">12.014965057373</t>
   </si>
   <si>
     <t xml:space="preserve">12.1268520355225</t>
@@ -809,25 +812,25 @@
     <t xml:space="preserve">11.963324546814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3936605453491</t>
+    <t xml:space="preserve">12.3936595916748</t>
   </si>
   <si>
     <t xml:space="preserve">12.496940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3506269454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4280872344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4194812774658</t>
+    <t xml:space="preserve">12.3506259918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4280881881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4194803237915</t>
   </si>
   <si>
     <t xml:space="preserve">12.5916147232056</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4883346557617</t>
+    <t xml:space="preserve">12.4883337020874</t>
   </si>
   <si>
     <t xml:space="preserve">12.7379274368286</t>
@@ -836,22 +839,22 @@
     <t xml:space="preserve">12.8412084579468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7637481689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9617023468018</t>
+    <t xml:space="preserve">12.7637491226196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9617033004761</t>
   </si>
   <si>
     <t xml:space="preserve">12.996129989624</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7207164764404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6346473693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6432542800903</t>
+    <t xml:space="preserve">12.7207155227661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6346483230591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6432552337646</t>
   </si>
   <si>
     <t xml:space="preserve">12.5227613449097</t>
@@ -860,10 +863,10 @@
     <t xml:space="preserve">12.0666055679321</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9719305038452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2387371063232</t>
+    <t xml:space="preserve">11.9719285964966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2387380599976</t>
   </si>
   <si>
     <t xml:space="preserve">12.3696804046631</t>
@@ -872,67 +875,64 @@
     <t xml:space="preserve">12.3871393203735</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5006227493286</t>
+    <t xml:space="preserve">12.5006237030029</t>
   </si>
   <si>
     <t xml:space="preserve">12.6053771972656</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2125511169434</t>
+    <t xml:space="preserve">12.2125492095947</t>
   </si>
   <si>
     <t xml:space="preserve">12.0816087722778</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2387390136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1863613128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0205001831055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9855852127075</t>
+    <t xml:space="preserve">12.1863622665405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0205011367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9855842590332</t>
   </si>
   <si>
     <t xml:space="preserve">11.7149696350098</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6102161407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.601487159729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4356250762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3570604324341</t>
+    <t xml:space="preserve">11.6102151870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6014862060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4356260299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3570623397827</t>
   </si>
   <si>
     <t xml:space="preserve">11.6451330184937</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8371810913086</t>
+    <t xml:space="preserve">11.8371829986572</t>
   </si>
   <si>
     <t xml:space="preserve">11.6364040374756</t>
   </si>
   <si>
-    <t xml:space="preserve">11.697509765625</t>
+    <t xml:space="preserve">11.6975107192993</t>
   </si>
   <si>
     <t xml:space="preserve">11.5752973556519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3221426010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4268970489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1562824249268</t>
+    <t xml:space="preserve">11.3221435546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4268960952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1562833786011</t>
   </si>
   <si>
     <t xml:space="preserve">11.348331451416</t>
@@ -941,19 +941,19 @@
     <t xml:space="preserve">10.9642343521118</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1824703216553</t>
+    <t xml:space="preserve">11.1824712753296</t>
   </si>
   <si>
     <t xml:space="preserve">11.1300945281982</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0427989959717</t>
+    <t xml:space="preserve">11.042799949646</t>
   </si>
   <si>
     <t xml:space="preserve">11.1475534439087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.845911026001</t>
+    <t xml:space="preserve">11.8459119796753</t>
   </si>
   <si>
     <t xml:space="preserve">11.9419364929199</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">12.0641489028931</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8808298110962</t>
+    <t xml:space="preserve">11.8808288574219</t>
   </si>
   <si>
     <t xml:space="preserve">11.8284521102905</t>
@@ -977,28 +977,28 @@
     <t xml:space="preserve">11.7324285507202</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6189460754395</t>
+    <t xml:space="preserve">11.6189441680908</t>
   </si>
   <si>
     <t xml:space="preserve">11.400707244873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3919792175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4094362258911</t>
+    <t xml:space="preserve">11.391978263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4094371795654</t>
   </si>
   <si>
     <t xml:space="preserve">11.2872247695923</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3308715820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2697658538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2784948348999</t>
+    <t xml:space="preserve">11.3308725357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2697649002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2784957885742</t>
   </si>
   <si>
     <t xml:space="preserve">11.0689878463745</t>
@@ -1007,19 +1007,19 @@
     <t xml:space="preserve">11.1737422943115</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2610378265381</t>
+    <t xml:space="preserve">11.2610368728638</t>
   </si>
   <si>
     <t xml:space="preserve">11.095175743103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3134126663208</t>
+    <t xml:space="preserve">11.3134145736694</t>
   </si>
   <si>
     <t xml:space="preserve">11.6713209152222</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5578384399414</t>
+    <t xml:space="preserve">11.5578393936157</t>
   </si>
   <si>
     <t xml:space="preserve">11.4880027770996</t>
@@ -1031,19 +1031,19 @@
     <t xml:space="preserve">11.6625928878784</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7411575317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7935352325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8109941482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9244775772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8197240829468</t>
+    <t xml:space="preserve">11.7411584854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7935342788696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8109931945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9244766235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8197231292725</t>
   </si>
   <si>
     <t xml:space="preserve">11.9768543243408</t>
@@ -1052,52 +1052,52 @@
     <t xml:space="preserve">12.107795715332</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1776323318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.352222442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3173046112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3784093856812</t>
+    <t xml:space="preserve">12.1776313781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3522214889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3173027038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3784103393555</t>
   </si>
   <si>
     <t xml:space="preserve">12.4918937683105</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5355424880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5966491699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4744338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5180826187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4831638336182</t>
+    <t xml:space="preserve">12.5355415344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5966472625732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4744348526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5180816650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4831647872925</t>
   </si>
   <si>
     <t xml:space="preserve">12.6228361129761</t>
   </si>
   <si>
-    <t xml:space="preserve">12.614107131958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7625074386597</t>
+    <t xml:space="preserve">12.6141061782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.762508392334</t>
   </si>
   <si>
     <t xml:space="preserve">12.7712373733521</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8236141204834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6490249633789</t>
+    <t xml:space="preserve">12.8236150741577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6490230560303</t>
   </si>
   <si>
     <t xml:space="preserve">12.7363185882568</t>
@@ -1109,10 +1109,10 @@
     <t xml:space="preserve">12.2212781906128</t>
   </si>
   <si>
-    <t xml:space="preserve">12.160174369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2474679946899</t>
+    <t xml:space="preserve">12.1601734161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2474670410156</t>
   </si>
   <si>
     <t xml:space="preserve">12.4482460021973</t>
@@ -1127,76 +1127,76 @@
     <t xml:space="preserve">12.360951423645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7236995697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2086601257324</t>
+    <t xml:space="preserve">11.7236976623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086610794067</t>
   </si>
   <si>
     <t xml:space="preserve">11.086446762085</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2959547042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2173891067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4181671142578</t>
+    <t xml:space="preserve">11.295952796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2173900604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4181680679321</t>
   </si>
   <si>
     <t xml:space="preserve">11.3396015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1650123596191</t>
+    <t xml:space="preserve">11.1650104522705</t>
   </si>
   <si>
     <t xml:space="preserve">11.1912002563477</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1213655471802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1126337051392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0515279769897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9991512298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.19993019104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0777177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2261180877686</t>
+    <t xml:space="preserve">11.1213645935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1126356124878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0515289306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9991521835327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1999292373657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0777187347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2261190414429</t>
   </si>
   <si>
     <t xml:space="preserve">11.0602579116821</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8507490158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8682098388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4967317581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5665674209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.540379524231</t>
+    <t xml:space="preserve">10.8507499694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8682088851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.496732711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5665683746338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5403785705566</t>
   </si>
   <si>
     <t xml:space="preserve">11.5491094589233</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6276750564575</t>
+    <t xml:space="preserve">11.6276741027832</t>
   </si>
   <si>
     <t xml:space="preserve">11.8721008300781</t>
@@ -1205,10 +1205,10 @@
     <t xml:space="preserve">11.7586164474487</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8071041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6936187744141</t>
+    <t xml:space="preserve">10.8071031570435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6936197280884</t>
   </si>
   <si>
     <t xml:space="preserve">10.6150550842285</t>
@@ -1223,28 +1223,28 @@
     <t xml:space="preserve">10.527759552002</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5975961685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5364904403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4753828048706</t>
+    <t xml:space="preserve">10.5975952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.53648853302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4753837585449</t>
   </si>
   <si>
     <t xml:space="preserve">10.4666538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2920618057251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3531703948975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3706274032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.073826789856</t>
+    <t xml:space="preserve">10.2920627593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3531694412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3706283569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0738258361816</t>
   </si>
   <si>
     <t xml:space="preserve">10.0389080047607</t>
@@ -1259,16 +1259,16 @@
     <t xml:space="preserve">10.484112739563</t>
   </si>
   <si>
-    <t xml:space="preserve">10.684889793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9816913604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1039047241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9904232025146</t>
+    <t xml:space="preserve">10.6848907470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9816932678223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1039066314697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9904222488403</t>
   </si>
   <si>
     <t xml:space="preserve">10.7372674942017</t>
@@ -1277,25 +1277,25 @@
     <t xml:space="preserve">10.6761608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">10.833291053772</t>
+    <t xml:space="preserve">10.8332920074463</t>
   </si>
   <si>
     <t xml:space="preserve">10.7809143066406</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9467754364014</t>
+    <t xml:space="preserve">10.9467763900757</t>
   </si>
   <si>
     <t xml:space="preserve">10.9293155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7198076248169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8245611190796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.789644241333</t>
+    <t xml:space="preserve">10.7198095321655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8245630264282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7896432876587</t>
   </si>
   <si>
     <t xml:space="preserve">10.7983732223511</t>
@@ -1304,16 +1304,16 @@
     <t xml:space="preserve">10.8158330917358</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6325120925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6063261032104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6674308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5190296173096</t>
+    <t xml:space="preserve">10.6325130462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6063251495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6674318313599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5190315246582</t>
   </si>
   <si>
     <t xml:space="preserve">11.4443559646606</t>
@@ -1322,19 +1322,19 @@
     <t xml:space="preserve">10.9205865859985</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6499710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5801362991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4317359924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3007926940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4164333343506</t>
+    <t xml:space="preserve">10.6499719619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5801372528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4317350387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3007936477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4164323806763</t>
   </si>
   <si>
     <t xml:space="preserve">10.7633504867554</t>
@@ -1343,34 +1343,34 @@
     <t xml:space="preserve">10.683292388916</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1636390686035</t>
+    <t xml:space="preserve">11.1636400222778</t>
   </si>
   <si>
     <t xml:space="preserve">11.0657920837402</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9857339859009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.603235244751</t>
+    <t xml:space="preserve">10.9857330322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6032342910767</t>
   </si>
   <si>
     <t xml:space="preserve">10.8523035049438</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8878841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0302104949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.074686050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.048002243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.101372718811</t>
+    <t xml:space="preserve">10.887885093689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0302095413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0746850967407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0480012893677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1013736724854</t>
   </si>
   <si>
     <t xml:space="preserve">11.3326511383057</t>
@@ -1379,22 +1379,22 @@
     <t xml:space="preserve">11.0391054153442</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1369543075562</t>
+    <t xml:space="preserve">11.1369524002075</t>
   </si>
   <si>
     <t xml:space="preserve">10.9145708084106</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7722463607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7277679443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142803192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5053853988647</t>
+    <t xml:space="preserve">10.7722454071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7277669906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5142812728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5053863525391</t>
   </si>
   <si>
     <t xml:space="preserve">10.2830038070679</t>
@@ -1403,10 +1403,10 @@
     <t xml:space="preserve">10.4431180953979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4253282546997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2563161849976</t>
+    <t xml:space="preserve">10.4253273010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2563171386719</t>
   </si>
   <si>
     <t xml:space="preserve">10.3096876144409</t>
@@ -1418,25 +1418,25 @@
     <t xml:space="preserve">10.1228866577148</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2118396759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.238525390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3541650772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6299209594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6655015945435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6477108001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8967800140381</t>
+    <t xml:space="preserve">10.211838722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2385244369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3541641235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6299200057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6655025482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6477117538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8967809677124</t>
   </si>
   <si>
     <t xml:space="preserve">10.8700942993164</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">10.8167219161987</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7099781036377</t>
+    <t xml:space="preserve">10.709979057312</t>
   </si>
   <si>
     <t xml:space="preserve">10.4520139694214</t>
@@ -1454,58 +1454,58 @@
     <t xml:space="preserve">10.4964904785156</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3808517456055</t>
+    <t xml:space="preserve">10.3808507919312</t>
   </si>
   <si>
     <t xml:space="preserve">10.398642539978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2029438018799</t>
+    <t xml:space="preserve">10.2029447555542</t>
   </si>
   <si>
     <t xml:space="preserve">10.4075374603271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6121311187744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1406774520874</t>
+    <t xml:space="preserve">10.6121292114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1406764984131</t>
   </si>
   <si>
     <t xml:space="preserve">10.060619354248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.131781578064</t>
+    <t xml:space="preserve">10.1317825317383</t>
   </si>
   <si>
     <t xml:space="preserve">10.0339326858521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90939998626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94498062133789</t>
+    <t xml:space="preserve">9.90939903259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94497966766357</t>
   </si>
   <si>
     <t xml:space="preserve">10.0428295135498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82044506072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8293399810791</t>
+    <t xml:space="preserve">9.8204460144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82934093475342</t>
   </si>
   <si>
     <t xml:space="preserve">9.98056125640869</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2741060256958</t>
+    <t xml:space="preserve">10.2741069793701</t>
   </si>
   <si>
     <t xml:space="preserve">10.2474212646484</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1139917373657</t>
+    <t xml:space="preserve">10.1139907836914</t>
   </si>
   <si>
     <t xml:space="preserve">9.91829395294189</t>
@@ -1514,22 +1514,22 @@
     <t xml:space="preserve">9.92718887329102</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0873041152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96277046203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0695133209229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1851530075073</t>
+    <t xml:space="preserve">10.0873050689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96276950836182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0695152282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1851539611816</t>
   </si>
   <si>
     <t xml:space="preserve">10.5587587356567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5943384170532</t>
+    <t xml:space="preserve">10.5943393707275</t>
   </si>
   <si>
     <t xml:space="preserve">10.3630609512329</t>
@@ -1547,22 +1547,22 @@
     <t xml:space="preserve">10.2207345962524</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87381744384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55358600616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57137584686279</t>
+    <t xml:space="preserve">9.87381839752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55358505249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57137680053711</t>
   </si>
   <si>
     <t xml:space="preserve">9.01097011566162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83751106262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74855804443359</t>
+    <t xml:space="preserve">8.83751010894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74855709075928</t>
   </si>
   <si>
     <t xml:space="preserve">8.41943073272705</t>
@@ -1571,22 +1571,22 @@
     <t xml:space="preserve">8.73966312408447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83306312561035</t>
+    <t xml:space="preserve">8.83306217193604</t>
   </si>
   <si>
     <t xml:space="preserve">8.7174243927002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60178375244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46390628814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53062152862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3794002532959</t>
+    <t xml:space="preserve">8.60178565979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46390724182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5306224822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37940120697021</t>
   </si>
   <si>
     <t xml:space="preserve">8.65960502624512</t>
@@ -1595,7 +1595,7 @@
     <t xml:space="preserve">8.52617454528809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79303550720215</t>
+    <t xml:space="preserve">8.79303455352783</t>
   </si>
   <si>
     <t xml:space="preserve">8.69963359832764</t>
@@ -1604,22 +1604,22 @@
     <t xml:space="preserve">8.89088344573975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80193042755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75745391845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53507137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41053485870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31268787384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07695960998535</t>
+    <t xml:space="preserve">8.80192947387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75745296478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53506946563721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41053581237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31268692016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07695865631104</t>
   </si>
   <si>
     <t xml:space="preserve">8.01024532318115</t>
@@ -1640,10 +1640,10 @@
     <t xml:space="preserve">8.29934310913086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55286121368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5884428024292</t>
+    <t xml:space="preserve">8.55286026000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58844184875488</t>
   </si>
   <si>
     <t xml:space="preserve">8.93091201782227</t>
@@ -1655,13 +1655,13 @@
     <t xml:space="preserve">8.85974884033203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07323837280273</t>
+    <t xml:space="preserve">9.0732364654541</t>
   </si>
   <si>
     <t xml:space="preserve">8.79748153686523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77079582214355</t>
+    <t xml:space="preserve">8.77079677581787</t>
   </si>
   <si>
     <t xml:space="preserve">8.45945930480957</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">8.27265739440918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38385009765625</t>
+    <t xml:space="preserve">8.38384819030762</t>
   </si>
   <si>
     <t xml:space="preserve">8.64181327819824</t>
@@ -1682,7 +1682,7 @@
     <t xml:space="preserve">8.09920024871826</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97911214828491</t>
+    <t xml:space="preserve">7.97911262512207</t>
   </si>
   <si>
     <t xml:space="preserve">8.29044914245605</t>
@@ -1694,22 +1694,22 @@
     <t xml:space="preserve">8.1525707244873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86347150802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91239643096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97021532058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908405303955</t>
+    <t xml:space="preserve">7.86347198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91239738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97021627426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908214569092</t>
   </si>
   <si>
     <t xml:space="preserve">8.25486755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22818088531494</t>
+    <t xml:space="preserve">8.22818183898926</t>
   </si>
   <si>
     <t xml:space="preserve">9.05544662475586</t>
@@ -1718,31 +1718,31 @@
     <t xml:space="preserve">9.14439964294434</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78858661651611</t>
+    <t xml:space="preserve">8.78858757019043</t>
   </si>
   <si>
     <t xml:space="preserve">8.6907377243042</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70852947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76189994812012</t>
+    <t xml:space="preserve">8.70852756500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76190090179443</t>
   </si>
   <si>
     <t xml:space="preserve">8.67294788360596</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80637645721436</t>
+    <t xml:space="preserve">8.80637836456299</t>
   </si>
   <si>
     <t xml:space="preserve">8.81082439422607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77524471282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91312313079834</t>
+    <t xml:space="preserve">8.77524375915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91312217712402</t>
   </si>
   <si>
     <t xml:space="preserve">9.17998123168945</t>
@@ -1751,7 +1751,7 @@
     <t xml:space="preserve">8.88198757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87754154205322</t>
+    <t xml:space="preserve">8.87754058837891</t>
   </si>
   <si>
     <t xml:space="preserve">8.86864471435547</t>
@@ -1763,22 +1763,22 @@
     <t xml:space="preserve">8.81527233123779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81972122192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54841327667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45056533813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70408058166504</t>
+    <t xml:space="preserve">8.81972026824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54841232299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45056343078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70407962799072</t>
   </si>
   <si>
     <t xml:space="preserve">8.89533042907715</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09102821350098</t>
+    <t xml:space="preserve">9.09102725982666</t>
   </si>
   <si>
     <t xml:space="preserve">8.9753885269165</t>
@@ -1787,37 +1787,37 @@
     <t xml:space="preserve">9.42905044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29562091827393</t>
+    <t xml:space="preserve">9.29561996459961</t>
   </si>
   <si>
     <t xml:space="preserve">9.34899234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62474727630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65143299102783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41125965118408</t>
+    <t xml:space="preserve">9.62474822998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65143394470215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4112606048584</t>
   </si>
   <si>
     <t xml:space="preserve">9.46463203430176</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66032791137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26893520355225</t>
+    <t xml:space="preserve">9.66032886505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26893424987793</t>
   </si>
   <si>
     <t xml:space="preserve">9.13550472259521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10881805419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11771583557129</t>
+    <t xml:space="preserve">9.10881900787354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11771488189697</t>
   </si>
   <si>
     <t xml:space="preserve">9.0643424987793</t>
@@ -1826,19 +1826,19 @@
     <t xml:space="preserve">9.04655265808105</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23335266113281</t>
+    <t xml:space="preserve">9.23335361480713</t>
   </si>
   <si>
     <t xml:space="preserve">9.47352695465088</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76707363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59806251525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51800346374512</t>
+    <t xml:space="preserve">9.76707458496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59806156158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51800441741943</t>
   </si>
   <si>
     <t xml:space="preserve">9.33120155334473</t>
@@ -1847,22 +1847,22 @@
     <t xml:space="preserve">9.2867259979248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08213329315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96649360656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00207424163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99317836761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1977710723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8649206161499</t>
+    <t xml:space="preserve">9.08213233947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96649265289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0020751953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99318027496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19777202606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86492252349854</t>
   </si>
   <si>
     <t xml:space="preserve">9.78486442565918</t>
@@ -1871,22 +1871,22 @@
     <t xml:space="preserve">9.75817775726318</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99835109710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4342231750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5676536560059</t>
+    <t xml:space="preserve">9.99835205078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4342241287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5676527023315</t>
   </si>
   <si>
     <t xml:space="preserve">10.1673631668091</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97166633605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8560266494751</t>
+    <t xml:space="preserve">9.97166538238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.85602569580078</t>
   </si>
   <si>
     <t xml:space="preserve">9.18887615203857</t>
@@ -1898,19 +1898,19 @@
     <t xml:space="preserve">9.16219043731689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07778358459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09142017364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05960083007812</t>
+    <t xml:space="preserve">9.07778263092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0914192199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05959987640381</t>
   </si>
   <si>
     <t xml:space="preserve">8.72776317596436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8459529876709</t>
+    <t xml:space="preserve">8.84595108032227</t>
   </si>
   <si>
     <t xml:space="preserve">8.89140892028809</t>
@@ -1931,22 +1931,22 @@
     <t xml:space="preserve">8.48229503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68230628967285</t>
+    <t xml:space="preserve">8.68230724334717</t>
   </si>
   <si>
     <t xml:space="preserve">8.88231754302979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99596118927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97777652740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21870136260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07323932647705</t>
+    <t xml:space="preserve">8.9959602355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9777774810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21870040893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07323741912842</t>
   </si>
   <si>
     <t xml:space="preserve">9.04596424102783</t>
@@ -1958,16 +1958,16 @@
     <t xml:space="preserve">9.26415729522705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14596939086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39143657684326</t>
+    <t xml:space="preserve">9.14597034454346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39143753051758</t>
   </si>
   <si>
     <t xml:space="preserve">9.33688831329346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17324352264404</t>
+    <t xml:space="preserve">9.17324447631836</t>
   </si>
   <si>
     <t xml:space="preserve">9.03232574462891</t>
@@ -1976,19 +1976,19 @@
     <t xml:space="preserve">9.20960998535156</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44598579406738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38234615325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61872291564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66417789459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57326507568359</t>
+    <t xml:space="preserve">9.44598484039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38234519958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6187219619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66417980194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57326602935791</t>
   </si>
   <si>
     <t xml:space="preserve">9.25506591796875</t>
@@ -2006,16 +2006,16 @@
     <t xml:space="preserve">8.76412963867188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79140281677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93686771392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24597549438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4096212387085</t>
+    <t xml:space="preserve">8.79140472412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93686676025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24597454071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40962028503418</t>
   </si>
   <si>
     <t xml:space="preserve">9.34597969055176</t>
@@ -2024,34 +2024,34 @@
     <t xml:space="preserve">8.47774887084961</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42774677276611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46865844726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25046443939209</t>
+    <t xml:space="preserve">8.4277458190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46865749359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25046348571777</t>
   </si>
   <si>
     <t xml:space="preserve">8.05499839782715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89589881896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92771863937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90953540802002</t>
+    <t xml:space="preserve">7.89589786529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92771768569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90953636169434</t>
   </si>
   <si>
     <t xml:space="preserve">7.65497541427612</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56406211853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65952205657959</t>
+    <t xml:space="preserve">7.56406259536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65952157974243</t>
   </si>
   <si>
     <t xml:space="preserve">7.48678398132324</t>
@@ -2063,46 +2063,46 @@
     <t xml:space="preserve">7.54587841033936</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5367865562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7868013381958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66861295700073</t>
+    <t xml:space="preserve">7.53678703308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78680181503296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66861248016357</t>
   </si>
   <si>
     <t xml:space="preserve">7.53224229812622</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45496463775635</t>
+    <t xml:space="preserve">7.45496416091919</t>
   </si>
   <si>
     <t xml:space="preserve">7.71407032012939</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7231616973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59588146209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80498504638672</t>
+    <t xml:space="preserve">7.72316217422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59588098526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8049840927124</t>
   </si>
   <si>
     <t xml:space="preserve">8.07772731781006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27773952484131</t>
+    <t xml:space="preserve">8.27773857116699</t>
   </si>
   <si>
     <t xml:space="preserve">8.35501480102539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52320766448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59139156341553</t>
+    <t xml:space="preserve">8.52320671081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59139251708984</t>
   </si>
   <si>
     <t xml:space="preserve">8.65503215789795</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">8.49138641357422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60503005981445</t>
+    <t xml:space="preserve">8.60503101348877</t>
   </si>
   <si>
     <t xml:space="preserve">8.15954971313477</t>
@@ -2123,28 +2123,28 @@
     <t xml:space="preserve">8.00499629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88680791854858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02317810058594</t>
+    <t xml:space="preserve">7.88680744171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02317905426025</t>
   </si>
   <si>
     <t xml:space="preserve">8.11863803863525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12773036956787</t>
+    <t xml:space="preserve">8.12773132324219</t>
   </si>
   <si>
     <t xml:space="preserve">7.95499277114868</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78225660324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67315864562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72770833969116</t>
+    <t xml:space="preserve">7.78225564956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67315912246704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.727707862854</t>
   </si>
   <si>
     <t xml:space="preserve">7.71861600875854</t>
@@ -2153,13 +2153,13 @@
     <t xml:space="preserve">7.58224439620972</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74589109420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13682079315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14591217041016</t>
+    <t xml:space="preserve">7.74589014053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13682174682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14591121673584</t>
   </si>
   <si>
     <t xml:space="preserve">8.3004674911499</t>
@@ -2171,10 +2171,10 @@
     <t xml:space="preserve">8.09136390686035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20500755310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48684120178223</t>
+    <t xml:space="preserve">8.20500659942627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48684215545654</t>
   </si>
   <si>
     <t xml:space="preserve">8.55502700805664</t>
@@ -2183,19 +2183,19 @@
     <t xml:space="preserve">8.59593772888184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66866874694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96868705749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67776107788086</t>
+    <t xml:space="preserve">8.66867065429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9686861038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67776012420654</t>
   </si>
   <si>
     <t xml:space="preserve">8.74594593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29143142700195</t>
+    <t xml:space="preserve">9.29143238067627</t>
   </si>
   <si>
     <t xml:space="preserve">9.455078125</t>
@@ -2204,16 +2204,16 @@
     <t xml:space="preserve">9.48235130310059</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71872901916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90964698791504</t>
+    <t xml:space="preserve">9.71872806549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90964794158936</t>
   </si>
   <si>
     <t xml:space="preserve">10.109658241272</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0551118850708</t>
+    <t xml:space="preserve">10.0551099777222</t>
   </si>
   <si>
     <t xml:space="preserve">9.81873416900635</t>
@@ -2222,28 +2222,28 @@
     <t xml:space="preserve">9.69145393371582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83691596984863</t>
+    <t xml:space="preserve">9.83691692352295</t>
   </si>
   <si>
     <t xml:space="preserve">9.58235740661621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76418590545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65508937835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82782649993896</t>
+    <t xml:space="preserve">9.76418495178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65508842468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82782554626465</t>
   </si>
   <si>
     <t xml:space="preserve">10.0005626678467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0823850631714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1642084121704</t>
+    <t xml:space="preserve">10.0823841094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1642093658447</t>
   </si>
   <si>
     <t xml:space="preserve">10.1278438568115</t>
@@ -2252,28 +2252,28 @@
     <t xml:space="preserve">10.2187566757202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1732997894287</t>
+    <t xml:space="preserve">10.1732988357544</t>
   </si>
   <si>
     <t xml:space="preserve">10.2278480529785</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2823963165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3642196655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2369403839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2005739212036</t>
+    <t xml:space="preserve">10.2823972702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.364218711853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2369394302368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2005729675293</t>
   </si>
   <si>
     <t xml:space="preserve">10.2551221847534</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3460359573364</t>
+    <t xml:space="preserve">10.3460369110107</t>
   </si>
   <si>
     <t xml:space="preserve">10.4369506835938</t>
@@ -2285,7 +2285,7 @@
     <t xml:space="preserve">10.0278367996216</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0732936859131</t>
+    <t xml:space="preserve">10.0732946395874</t>
   </si>
   <si>
     <t xml:space="preserve">10.1551170349121</t>
@@ -2294,34 +2294,34 @@
     <t xml:space="preserve">9.63690567016602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87328147888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98238086700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0642023086548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0369281768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0460186004639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1187505722046</t>
+    <t xml:space="preserve">9.87328338623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98237991333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0642032623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0369291305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0460195541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1187496185303</t>
   </si>
   <si>
     <t xml:space="preserve">10.091477394104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92783260345459</t>
+    <t xml:space="preserve">9.92783069610596</t>
   </si>
   <si>
     <t xml:space="preserve">9.64599704742432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54599285125732</t>
+    <t xml:space="preserve">9.54599189758301</t>
   </si>
   <si>
     <t xml:space="preserve">9.67327117919922</t>
@@ -2330,13 +2330,13 @@
     <t xml:space="preserve">9.53689956665039</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35507297515869</t>
+    <t xml:space="preserve">9.35507202148438</t>
   </si>
   <si>
     <t xml:space="preserve">9.60054016113281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46416854858398</t>
+    <t xml:space="preserve">9.4641695022583</t>
   </si>
   <si>
     <t xml:space="preserve">9.41871070861816</t>
@@ -2345,19 +2345,19 @@
     <t xml:space="preserve">9.78236865997314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77327632904053</t>
+    <t xml:space="preserve">9.77327728271484</t>
   </si>
   <si>
     <t xml:space="preserve">9.55508232116699</t>
   </si>
   <si>
-    <t xml:space="preserve">9.59144878387451</t>
+    <t xml:space="preserve">9.5914478302002</t>
   </si>
   <si>
     <t xml:space="preserve">9.4914436340332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42780303955078</t>
+    <t xml:space="preserve">9.4278039932251</t>
   </si>
   <si>
     <t xml:space="preserve">8.70048904418945</t>
@@ -2366,43 +2366,43 @@
     <t xml:space="preserve">8.64139461517334</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64594078063965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40047359466553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21864414215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77316427230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87771558761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7004337310791</t>
+    <t xml:space="preserve">8.64594173431396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40047264099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21864318847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77316474914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87771654129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70043325424194</t>
   </si>
   <si>
     <t xml:space="preserve">7.37768745422363</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44587326049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81856536865234</t>
+    <t xml:space="preserve">7.44587278366089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8185658454895</t>
   </si>
   <si>
     <t xml:space="preserve">6.89129638671875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79583597183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36399412155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61855411529541</t>
+    <t xml:space="preserve">6.79583644866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36399364471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61855459213257</t>
   </si>
   <si>
     <t xml:space="preserve">6.09125185012817</t>
@@ -2417,34 +2417,34 @@
     <t xml:space="preserve">7.37314128875732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00954055786133</t>
+    <t xml:space="preserve">8.00954151153564</t>
   </si>
   <si>
     <t xml:space="preserve">7.07312488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27768182754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70946741104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.545823097229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04579448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17762041091919</t>
+    <t xml:space="preserve">7.27768230438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70946788787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54582214355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04579496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17761993408203</t>
   </si>
   <si>
     <t xml:space="preserve">6.06397724151611</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81850910186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37302923202515</t>
+    <t xml:space="preserve">5.81850957870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3730297088623</t>
   </si>
   <si>
     <t xml:space="preserve">5.67304611206055</t>
@@ -2453,19 +2453,19 @@
     <t xml:space="preserve">5.74577713012695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11397981643677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03670310974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.85487461090088</t>
+    <t xml:space="preserve">6.11398029327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03670358657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.85487413406372</t>
   </si>
   <si>
     <t xml:space="preserve">5.90487766265869</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14580011367798</t>
+    <t xml:space="preserve">6.14579963684082</t>
   </si>
   <si>
     <t xml:space="preserve">6.28217172622681</t>
@@ -2477,16 +2477,16 @@
     <t xml:space="preserve">6.2776255607605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63673639297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83220243453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08676290512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9412989616394</t>
+    <t xml:space="preserve">6.63673686981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83220195770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08676242828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94129943847656</t>
   </si>
   <si>
     <t xml:space="preserve">7.11858224868774</t>
@@ -2495,16 +2495,16 @@
     <t xml:space="preserve">7.05948829650879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96857404708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72310543060303</t>
+    <t xml:space="preserve">6.96857357025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72310590744019</t>
   </si>
   <si>
     <t xml:space="preserve">6.71855926513672</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59582614898682</t>
+    <t xml:space="preserve">6.5958251953125</t>
   </si>
   <si>
     <t xml:space="preserve">6.45490884780884</t>
@@ -2516,25 +2516,25 @@
     <t xml:space="preserve">6.03215742111206</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49127340316772</t>
+    <t xml:space="preserve">6.49127388000488</t>
   </si>
   <si>
     <t xml:space="preserve">6.45945453643799</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44581651687622</t>
+    <t xml:space="preserve">6.44581699371338</t>
   </si>
   <si>
     <t xml:space="preserve">6.62764501571655</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83674812316895</t>
+    <t xml:space="preserve">6.8367486000061</t>
   </si>
   <si>
     <t xml:space="preserve">7.42314481735229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79134702682495</t>
+    <t xml:space="preserve">7.79134654998779</t>
   </si>
   <si>
     <t xml:space="preserve">7.64133930206299</t>
@@ -2543,37 +2543,37 @@
     <t xml:space="preserve">7.60042762756348</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68679571151733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08227348327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96408462524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83225917816162</t>
+    <t xml:space="preserve">7.68679523468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08227252960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96408367156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8322582244873</t>
   </si>
   <si>
     <t xml:space="preserve">7.35950565338135</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62315559387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61861085891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47314786911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49587631225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43678140640259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36405038833618</t>
+    <t xml:space="preserve">7.62315511703491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61861038208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47314739227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4958758354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43678188323975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36405086517334</t>
   </si>
   <si>
     <t xml:space="preserve">7.46405601501465</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">7.4322361946106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67770481109619</t>
+    <t xml:space="preserve">7.67770528793335</t>
   </si>
   <si>
     <t xml:space="preserve">7.52315044403076</t>
@@ -2600,7 +2600,7 @@
     <t xml:space="preserve">7.59133625030518</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40950775146484</t>
+    <t xml:space="preserve">7.40950727462769</t>
   </si>
   <si>
     <t xml:space="preserve">7.5140585899353</t>
@@ -2609,22 +2609,22 @@
     <t xml:space="preserve">7.70952415466309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42769050598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94584560394287</t>
+    <t xml:space="preserve">7.42769002914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94584512710571</t>
   </si>
   <si>
     <t xml:space="preserve">6.85493040084839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93675374984741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00039434432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92766237258911</t>
+    <t xml:space="preserve">6.93675327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00039386749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92766284942627</t>
   </si>
   <si>
     <t xml:space="preserve">6.95493698120117</t>
@@ -2642,40 +2642,40 @@
     <t xml:space="preserve">7.31404781341553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30495691299438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26404476165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20040512084961</t>
+    <t xml:space="preserve">7.30495643615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26404523849487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20040559768677</t>
   </si>
   <si>
     <t xml:space="preserve">7.33223056793213</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34586715698242</t>
+    <t xml:space="preserve">7.34586763381958</t>
   </si>
   <si>
     <t xml:space="preserve">7.35495901107788</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27313661575317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62770175933838</t>
+    <t xml:space="preserve">7.27313613891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62770223617554</t>
   </si>
   <si>
     <t xml:space="preserve">7.55951642990112</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76407337188721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88226175308228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2641019821167</t>
+    <t xml:space="preserve">7.76407289505005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88226222991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26410102844238</t>
   </si>
   <si>
     <t xml:space="preserve">7.85044145584106</t>
@@ -2687,7 +2687,7 @@
     <t xml:space="preserve">7.13676500320435</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24586200714111</t>
+    <t xml:space="preserve">7.24586248397827</t>
   </si>
   <si>
     <t xml:space="preserve">7.29586505889893</t>
@@ -2696,7 +2696,7 @@
     <t xml:space="preserve">7.32768487930298</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57769918441772</t>
+    <t xml:space="preserve">7.57769870758057</t>
   </si>
   <si>
     <t xml:space="preserve">7.75498199462891</t>
@@ -2708,34 +2708,34 @@
     <t xml:space="preserve">8.20955181121826</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29137516021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01863288879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96862983703613</t>
+    <t xml:space="preserve">8.29137420654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01863193511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96863126754761</t>
   </si>
   <si>
     <t xml:space="preserve">7.89135313034058</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90499019622803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85498762130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05954456329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08681774139404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25955486297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28228282928467</t>
+    <t xml:space="preserve">7.90499067306519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85498666763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05954360961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08681964874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25955581665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28228378295898</t>
   </si>
   <si>
     <t xml:space="preserve">8.45047473907471</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">8.85958957672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84589529037476</t>
+    <t xml:space="preserve">7.84589576721191</t>
   </si>
   <si>
     <t xml:space="preserve">8.10954666137695</t>
@@ -2753,7 +2753,7 @@
     <t xml:space="preserve">7.9459023475647</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00044918060303</t>
+    <t xml:space="preserve">8.00045013427734</t>
   </si>
   <si>
     <t xml:space="preserve">8.06863594055176</t>
@@ -2765,31 +2765,31 @@
     <t xml:space="preserve">9.56417465209961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5096263885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73691177368164</t>
+    <t xml:space="preserve">9.50962543487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73691082000732</t>
   </si>
   <si>
     <t xml:space="preserve">10.1914825439453</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93692207336426</t>
+    <t xml:space="preserve">9.93692302703857</t>
   </si>
   <si>
     <t xml:space="preserve">9.74600315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70963668823242</t>
+    <t xml:space="preserve">9.70963764190674</t>
   </si>
   <si>
     <t xml:space="preserve">9.70054626464844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88237571716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80964279174805</t>
+    <t xml:space="preserve">9.88237476348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80964374542236</t>
   </si>
   <si>
     <t xml:space="preserve">9.85510063171387</t>
@@ -2798,46 +2798,46 @@
     <t xml:space="preserve">9.75509452819824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72781944274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96419811248779</t>
+    <t xml:space="preserve">9.72782039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96419715881348</t>
   </si>
   <si>
     <t xml:space="preserve">9.84600925445557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36416244506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1005687713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2642154693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4642248153687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4914989471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3005800247192</t>
+    <t xml:space="preserve">9.36416339874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1005697250366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2642135620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4642238616943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4914979934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3005790710449</t>
   </si>
   <si>
     <t xml:space="preserve">10.0187463760376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2460298538208</t>
+    <t xml:space="preserve">10.2460308074951</t>
   </si>
   <si>
     <t xml:space="preserve">9.80054950714111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86419105529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79146099090576</t>
+    <t xml:space="preserve">9.86419010162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79146003723145</t>
   </si>
   <si>
     <t xml:space="preserve">10.182391166687</t>
@@ -2864,22 +2864,22 @@
     <t xml:space="preserve">9.52780818939209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51871776580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22779083251953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40052795410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16415214538574</t>
+    <t xml:space="preserve">9.51871871948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22779178619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40052890777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16415119171143</t>
   </si>
   <si>
     <t xml:space="preserve">9.32779693603516</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30052280426025</t>
+    <t xml:space="preserve">9.30052375793457</t>
   </si>
   <si>
     <t xml:space="preserve">9.52351379394531</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">9.53336048126221</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5240592956543</t>
+    <t xml:space="preserve">9.52406024932861</t>
   </si>
   <si>
     <t xml:space="preserve">9.77518272399902</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">10.0821104049683</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1565179824829</t>
+    <t xml:space="preserve">10.1565170288086</t>
   </si>
   <si>
     <t xml:space="preserve">10.1751184463501</t>
@@ -2912,7 +2912,7 @@
     <t xml:space="preserve">10.3518352508545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1472158432007</t>
+    <t xml:space="preserve">10.147216796875</t>
   </si>
   <si>
     <t xml:space="preserve">10.1007118225098</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">10.0356063842773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0542078018188</t>
+    <t xml:space="preserve">10.0542087554932</t>
   </si>
   <si>
     <t xml:space="preserve">9.86819076538086</t>
@@ -2936,10 +2936,10 @@
     <t xml:space="preserve">9.87749195098877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98910140991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96119976043701</t>
+    <t xml:space="preserve">9.98910236358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9611988067627</t>
   </si>
   <si>
     <t xml:space="preserve">10.0449075698853</t>
@@ -2954,13 +2954,13 @@
     <t xml:space="preserve">9.9518985748291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90539360046387</t>
+    <t xml:space="preserve">9.90539455413818</t>
   </si>
   <si>
     <t xml:space="preserve">9.89609432220459</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70077705383301</t>
+    <t xml:space="preserve">9.70077610015869</t>
   </si>
   <si>
     <t xml:space="preserve">10.1193132400513</t>
@@ -2969,34 +2969,34 @@
     <t xml:space="preserve">9.99840259552002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63566970825195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67287254333496</t>
+    <t xml:space="preserve">9.63567066192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67287349700928</t>
   </si>
   <si>
     <t xml:space="preserve">9.72867870330811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7379789352417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1286153793335</t>
+    <t xml:space="preserve">9.73798084259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1286144256592</t>
   </si>
   <si>
     <t xml:space="preserve">10.2495260238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7703733444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9656896591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0400972366333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.077299118042</t>
+    <t xml:space="preserve">10.7703723907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.965690612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.040096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0773000717163</t>
   </si>
   <si>
     <t xml:space="preserve">11.1331052780151</t>
@@ -3005,10 +3005,10 @@
     <t xml:space="preserve">11.2540168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3377227783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3842277526855</t>
+    <t xml:space="preserve">11.3377246856689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3842287063599</t>
   </si>
   <si>
     <t xml:space="preserve">11.4586343765259</t>
@@ -3023,25 +3023,25 @@
     <t xml:space="preserve">11.5330410003662</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4214315414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3284225463867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.226113319397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4400329589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.412130355835</t>
+    <t xml:space="preserve">11.4214305877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.328423500061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2261142730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4400339126587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4121313095093</t>
   </si>
   <si>
     <t xml:space="preserve">11.3749265670776</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2726173400879</t>
+    <t xml:space="preserve">11.2726182937622</t>
   </si>
   <si>
     <t xml:space="preserve">11.3098211288452</t>
@@ -3056,37 +3056,37 @@
     <t xml:space="preserve">11.2912197113037</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3005208969116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1982116699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.151707649231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1796092987061</t>
+    <t xml:space="preserve">11.3005199432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1982107162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1517066955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1796102523804</t>
   </si>
   <si>
     <t xml:space="preserve">11.2354145050049</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8075752258301</t>
+    <t xml:space="preserve">10.8075761795044</t>
   </si>
   <si>
     <t xml:space="preserve">10.6308603286743</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2681264877319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3239326477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4913473129272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5006484985352</t>
+    <t xml:space="preserve">10.2681274414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3239336013794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4913463592529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5006475448608</t>
   </si>
   <si>
     <t xml:space="preserve">10.5099496841431</t>
@@ -3095,46 +3095,46 @@
     <t xml:space="preserve">10.4634447097778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2309236526489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1658182144165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91469573974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82168769836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0263061523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0635080337524</t>
+    <t xml:space="preserve">10.2309226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1658191680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91469478607178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82168674468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0263042449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0635089874268</t>
   </si>
   <si>
     <t xml:space="preserve">10.1100130081177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2030210494995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2123212814331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.184419631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.221622467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3890380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3332319259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5378513336182</t>
+    <t xml:space="preserve">10.2030220031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2123222351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1844186782837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2216234207153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3890371322632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3332328796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5378522872925</t>
   </si>
   <si>
     <t xml:space="preserve">10.5192499160767</t>
@@ -3143,82 +3143,82 @@
     <t xml:space="preserve">10.5750551223755</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5564546585083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6587629318237</t>
+    <t xml:space="preserve">10.556453704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6587619781494</t>
   </si>
   <si>
     <t xml:space="preserve">10.7145681381226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8261785507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9005851745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7238683700562</t>
+    <t xml:space="preserve">10.8261775970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9005842208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7238674163818</t>
   </si>
   <si>
     <t xml:space="preserve">10.6773633956909</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7982740402222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8168773651123</t>
+    <t xml:space="preserve">10.7982749938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.816876411438</t>
   </si>
   <si>
     <t xml:space="preserve">11.1703090667725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2447156906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0866022109985</t>
+    <t xml:space="preserve">11.2447147369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0866003036499</t>
   </si>
   <si>
     <t xml:space="preserve">11.1610078811646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9470882415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4541444778442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6215600967407</t>
+    <t xml:space="preserve">10.9470891952515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4541435241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6215591430664</t>
   </si>
   <si>
     <t xml:space="preserve">10.8726816177368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9842929840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2633171081543</t>
+    <t xml:space="preserve">10.9842920303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.26331615448</t>
   </si>
   <si>
     <t xml:space="preserve">11.551643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3656272888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3563261032104</t>
+    <t xml:space="preserve">11.365626335144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3563251495361</t>
   </si>
   <si>
     <t xml:space="preserve">11.4865379333496</t>
   </si>
   <si>
-    <t xml:space="preserve">11.514440536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5795459747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6539516448975</t>
+    <t xml:space="preserve">11.5144395828247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5795450210571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6539525985718</t>
   </si>
   <si>
     <t xml:space="preserve">11.6353511810303</t>
@@ -3227,7 +3227,7 @@
     <t xml:space="preserve">11.5981473922729</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8771724700928</t>
+    <t xml:space="preserve">11.8771734237671</t>
   </si>
   <si>
     <t xml:space="preserve">12.0538883209229</t>
@@ -3236,19 +3236,19 @@
     <t xml:space="preserve">12.2306041717529</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4445238113403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0817909240723</t>
+    <t xml:space="preserve">12.4445247650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0817918777466</t>
   </si>
   <si>
     <t xml:space="preserve">12.2771081924438</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6260499954224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6167497634888</t>
+    <t xml:space="preserve">11.626049041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6167488098145</t>
   </si>
   <si>
     <t xml:space="preserve">11.7376594543457</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">11.6725540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5423412322998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2168140411377</t>
+    <t xml:space="preserve">11.5423431396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2168130874634</t>
   </si>
   <si>
     <t xml:space="preserve">10.7052669525146</t>
@@ -3272,13 +3272,13 @@
     <t xml:space="preserve">10.7517719268799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9284868240356</t>
+    <t xml:space="preserve">10.9284858703613</t>
   </si>
   <si>
     <t xml:space="preserve">11.0959024429321</t>
   </si>
   <si>
-    <t xml:space="preserve">11.002893447876</t>
+    <t xml:space="preserve">11.0028944015503</t>
   </si>
   <si>
     <t xml:space="preserve">10.7889747619629</t>
@@ -3287,7 +3287,7 @@
     <t xml:space="preserve">11.1052026748657</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0121936798096</t>
+    <t xml:space="preserve">11.0121946334839</t>
   </si>
   <si>
     <t xml:space="preserve">10.779673576355</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">8.64978122711182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84974956512451</t>
+    <t xml:space="preserve">8.8497486114502</t>
   </si>
   <si>
     <t xml:space="preserve">8.99391174316406</t>
@@ -3335,25 +3335,25 @@
     <t xml:space="preserve">9.34734439849854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44035243988037</t>
+    <t xml:space="preserve">9.44035148620605</t>
   </si>
   <si>
     <t xml:space="preserve">9.5147590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46825504302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31014060974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11947441101074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2310848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68217372894287</t>
+    <t xml:space="preserve">9.4682559967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31014156341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11947345733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23108386993408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68217468261719</t>
   </si>
   <si>
     <t xml:space="preserve">9.58916568756104</t>
@@ -3362,7 +3362,7 @@
     <t xml:space="preserve">9.41244983673096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30084037780762</t>
+    <t xml:space="preserve">9.3008394241333</t>
   </si>
   <si>
     <t xml:space="preserve">9.36594581604004</t>
@@ -3380,13 +3380,13 @@
     <t xml:space="preserve">8.66838264465332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57537460327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61257743835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65443229675293</t>
+    <t xml:space="preserve">8.5753755569458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61257839202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65443134307861</t>
   </si>
   <si>
     <t xml:space="preserve">8.67303276062012</t>
@@ -3410,10 +3410,10 @@
     <t xml:space="preserve">8.77534294128418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92880630493164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80324554443359</t>
+    <t xml:space="preserve">8.92880725860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80324459075928</t>
   </si>
   <si>
     <t xml:space="preserve">8.6032772064209</t>
@@ -3425,25 +3425,25 @@
     <t xml:space="preserve">8.55212211608887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42191123962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20783042907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0077037811279</t>
+    <t xml:space="preserve">8.42191028594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20783138275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0077047348022</t>
   </si>
   <si>
     <t xml:space="preserve">10.0387487411499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9337797164917</t>
+    <t xml:space="preserve">9.93378067016602</t>
   </si>
   <si>
     <t xml:space="preserve">9.98149299621582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2391414642334</t>
+    <t xml:space="preserve">10.2391405105591</t>
   </si>
   <si>
     <t xml:space="preserve">10.4204502105713</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">10.5826730728149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3154821395874</t>
+    <t xml:space="preserve">10.3154830932617</t>
   </si>
   <si>
     <t xml:space="preserve">10.3441095352173</t>
@@ -3461,7 +3461,7 @@
     <t xml:space="preserve">10.4013643264771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2582263946533</t>
+    <t xml:space="preserve">10.2582273483276</t>
   </si>
   <si>
     <t xml:space="preserve">10.4299926757812</t>
@@ -3470,13 +3470,13 @@
     <t xml:space="preserve">10.487247467041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5254173278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99103546142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74293041229248</t>
+    <t xml:space="preserve">10.5254182815552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9910364151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74292945861816</t>
   </si>
   <si>
     <t xml:space="preserve">9.56162166595459</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">9.79064273834229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19423484802246</t>
+    <t xml:space="preserve">9.19423389434814</t>
   </si>
   <si>
     <t xml:space="preserve">9.28488731384277</t>
@@ -3542,10 +3542,10 @@
     <t xml:space="preserve">9.14175033569336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92227268218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22763252258301</t>
+    <t xml:space="preserve">8.92227172851562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22763347625732</t>
   </si>
   <si>
     <t xml:space="preserve">9.33260059356689</t>
@@ -3554,10 +3554,10 @@
     <t xml:space="preserve">9.39939880371094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.43756866455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47573947906494</t>
+    <t xml:space="preserve">9.4375696182251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47573852539062</t>
   </si>
   <si>
     <t xml:space="preserve">9.32782936096191</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">9.18469142913818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50913715362549</t>
+    <t xml:space="preserve">9.5091381072998</t>
   </si>
   <si>
     <t xml:space="preserve">9.81927013397217</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">10.1150884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0864610671997</t>
+    <t xml:space="preserve">10.0864601135254</t>
   </si>
   <si>
     <t xml:space="preserve">10.01966381073</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">9.25148868560791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90795707702637</t>
+    <t xml:space="preserve">8.90795803070068</t>
   </si>
   <si>
     <t xml:space="preserve">8.87455940246582</t>
@@ -3626,19 +3626,19 @@
     <t xml:space="preserve">8.88410186767578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7505054473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69324970245361</t>
+    <t xml:space="preserve">8.75050640106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69325065612793</t>
   </si>
   <si>
     <t xml:space="preserve">8.76004886627197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44037437438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42128753662109</t>
+    <t xml:space="preserve">8.44037342071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42128849029541</t>
   </si>
   <si>
     <t xml:space="preserve">8.53579902648926</t>
@@ -3656,19 +3656,19 @@
     <t xml:space="preserve">9.07495212554932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11312198638916</t>
+    <t xml:space="preserve">9.11312294006348</t>
   </si>
   <si>
     <t xml:space="preserve">8.8268461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61690998077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63599491119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51671409606934</t>
+    <t xml:space="preserve">8.61691093444824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63599586486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51671314239502</t>
   </si>
   <si>
     <t xml:space="preserve">8.39266109466553</t>
@@ -3692,13 +3692,13 @@
     <t xml:space="preserve">7.7676248550415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10638523101807</t>
+    <t xml:space="preserve">8.10638427734375</t>
   </si>
   <si>
     <t xml:space="preserve">8.26383686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62168121337891</t>
+    <t xml:space="preserve">8.62168216705322</t>
   </si>
   <si>
     <t xml:space="preserve">8.52148532867432</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">8.61213874816895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59782600402832</t>
+    <t xml:space="preserve">8.597825050354</t>
   </si>
   <si>
     <t xml:space="preserve">8.99861240386963</t>
@@ -3719,19 +3719,19 @@
     <t xml:space="preserve">8.77913379669189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92704296112061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97952747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05109596252441</t>
+    <t xml:space="preserve">8.92704200744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97952651977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0510950088501</t>
   </si>
   <si>
     <t xml:space="preserve">9.23240375518799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24194622039795</t>
+    <t xml:space="preserve">9.24194717407227</t>
   </si>
   <si>
     <t xml:space="preserve">9.29920196533203</t>
@@ -3740,7 +3740,7 @@
     <t xml:space="preserve">9.11789417266846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52822303771973</t>
+    <t xml:space="preserve">9.52822208404541</t>
   </si>
   <si>
     <t xml:space="preserve">9.89560985565186</t>
@@ -3767,13 +3767,13 @@
     <t xml:space="preserve">11.2601928710938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.11705493927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0788841247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1361398696899</t>
+    <t xml:space="preserve">11.1170539855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0788850784302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1361408233643</t>
   </si>
   <si>
     <t xml:space="preserve">10.8975772857666</t>
@@ -3782,16 +3782,16 @@
     <t xml:space="preserve">10.6113004684448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7162685394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6590127944946</t>
+    <t xml:space="preserve">10.7162675857544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6590137481689</t>
   </si>
   <si>
     <t xml:space="preserve">10.6971836090088</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5063333511353</t>
+    <t xml:space="preserve">10.5063323974609</t>
   </si>
   <si>
     <t xml:space="preserve">10.5540466308594</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">10.7258110046387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.563588142395</t>
+    <t xml:space="preserve">10.5635871887207</t>
   </si>
   <si>
     <t xml:space="preserve">10.4490776062012</t>
@@ -3821,10 +3821,10 @@
     <t xml:space="preserve">10.1055459976196</t>
   </si>
   <si>
-    <t xml:space="preserve">10.01012134552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95286655426025</t>
+    <t xml:space="preserve">10.0101203918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95286560058594</t>
   </si>
   <si>
     <t xml:space="preserve">9.82881259918213</t>
@@ -3842,10 +3842,10 @@
     <t xml:space="preserve">10.496789932251</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6208438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8689489364624</t>
+    <t xml:space="preserve">10.6208429336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8689498901367</t>
   </si>
   <si>
     <t xml:space="preserve">10.9166612625122</t>
@@ -3869,22 +3869,22 @@
     <t xml:space="preserve">11.0502576828003</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3269910812378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3651599884033</t>
+    <t xml:space="preserve">11.3269901275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3651609420776</t>
   </si>
   <si>
     <t xml:space="preserve">11.8041172027588</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2239894866943</t>
+    <t xml:space="preserve">12.2239904403687</t>
   </si>
   <si>
     <t xml:space="preserve">12.5579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7392873764038</t>
+    <t xml:space="preserve">12.7392864227295</t>
   </si>
   <si>
     <t xml:space="preserve">12.7869987487793</t>
@@ -3920,7 +3920,7 @@
     <t xml:space="preserve">13.1400728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3309230804443</t>
+    <t xml:space="preserve">13.3309240341187</t>
   </si>
   <si>
     <t xml:space="preserve">14.2279214859009</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">13.0541896820068</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2927541732788</t>
+    <t xml:space="preserve">13.2927532196045</t>
   </si>
   <si>
     <t xml:space="preserve">13.3595514297485</t>
@@ -3968,13 +3968,13 @@
     <t xml:space="preserve">12.6724882125854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6629457473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7774562835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4339246749878</t>
+    <t xml:space="preserve">12.6629467010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7774572372437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4339256286621</t>
   </si>
   <si>
     <t xml:space="preserve">12.3671274185181</t>
@@ -3983,13 +3983,13 @@
     <t xml:space="preserve">12.8824243545532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2354984283447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7202005386353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.025562286377</t>
+    <t xml:space="preserve">13.2354974746704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7202014923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0255613327026</t>
   </si>
   <si>
     <t xml:space="preserve">12.9587650299072</t>
@@ -4001,7 +4001,7 @@
     <t xml:space="preserve">12.939679145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7583713531494</t>
+    <t xml:space="preserve">12.7583703994751</t>
   </si>
   <si>
     <t xml:space="preserve">12.462553024292</t>
@@ -4019,7 +4019,7 @@
     <t xml:space="preserve">13.5504016876221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7698812484741</t>
+    <t xml:space="preserve">13.7698802947998</t>
   </si>
   <si>
     <t xml:space="preserve">13.7412519454956</t>
@@ -4034,7 +4034,7 @@
     <t xml:space="preserve">13.645827293396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7889652252197</t>
+    <t xml:space="preserve">13.7889642715454</t>
   </si>
   <si>
     <t xml:space="preserve">13.7794227600098</t>
@@ -4463,9 +4463,6 @@
     <t xml:space="preserve">10.7724723815918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6848907470703</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.6362352371216</t>
   </si>
   <si>
@@ -4800,6 +4797,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.88000011444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89999961853027</t>
   </si>
 </sst>
 </file>
@@ -8929,7 +8929,7 @@
         <v>10.1195363998413</v>
       </c>
       <c r="G146" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -8955,7 +8955,7 @@
         <v>10.2294216156006</v>
       </c>
       <c r="G147" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -8981,7 +8981,7 @@
         <v>10.0595979690552</v>
       </c>
       <c r="G148" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -9007,7 +9007,7 @@
         <v>10.4392051696777</v>
       </c>
       <c r="G149" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -9033,7 +9033,7 @@
         <v>10.5490922927856</v>
       </c>
       <c r="G150" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -9085,7 +9085,7 @@
         <v>10.269380569458</v>
       </c>
       <c r="G152" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -9111,7 +9111,7 @@
         <v>10.2893600463867</v>
       </c>
       <c r="G153" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -9137,7 +9137,7 @@
         <v>10.4392051696777</v>
       </c>
       <c r="G154" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -9163,7 +9163,7 @@
         <v>10.3992471694946</v>
       </c>
       <c r="G155" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -9189,7 +9189,7 @@
         <v>10.5091333389282</v>
       </c>
       <c r="G156" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -9215,7 +9215,7 @@
         <v>10.4491949081421</v>
       </c>
       <c r="G157" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -9241,7 +9241,7 @@
         <v>10.5191230773926</v>
       </c>
       <c r="G158" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -9267,7 +9267,7 @@
         <v>10.4292163848877</v>
       </c>
       <c r="G159" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -9319,7 +9319,7 @@
         <v>10.2094430923462</v>
       </c>
       <c r="G161" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -9345,7 +9345,7 @@
         <v>10.1594953536987</v>
       </c>
       <c r="G162" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -9371,7 +9371,7 @@
         <v>10.1994533538818</v>
       </c>
       <c r="G163" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -9397,7 +9397,7 @@
         <v>10.1095457077026</v>
       </c>
       <c r="G164" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -9423,7 +9423,7 @@
         <v>10.1395149230957</v>
       </c>
       <c r="G165" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -9449,7 +9449,7 @@
         <v>10.269380569458</v>
       </c>
       <c r="G166" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -9475,7 +9475,7 @@
         <v>10.3992471694946</v>
       </c>
       <c r="G167" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -9501,7 +9501,7 @@
         <v>10.3992471694946</v>
       </c>
       <c r="G168" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9553,7 +9553,7 @@
         <v>10.4092359542847</v>
       </c>
       <c r="G170" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9579,7 +9579,7 @@
         <v>10.4591846466064</v>
       </c>
       <c r="G171" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9605,7 +9605,7 @@
         <v>10.4591846466064</v>
       </c>
       <c r="G172" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9631,7 +9631,7 @@
         <v>10.4292163848877</v>
       </c>
       <c r="G173" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9657,7 +9657,7 @@
         <v>10.4791641235352</v>
       </c>
       <c r="G174" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9709,7 +9709,7 @@
         <v>10.6989374160767</v>
       </c>
       <c r="G176" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -9735,7 +9735,7 @@
         <v>10.6389989852905</v>
       </c>
       <c r="G177" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9839,7 +9839,7 @@
         <v>10.4392051696777</v>
       </c>
       <c r="G181" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -9917,7 +9917,7 @@
         <v>10.4292163848877</v>
       </c>
       <c r="G184" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -9995,7 +9995,7 @@
         <v>10.688946723938</v>
       </c>
       <c r="G187" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -10021,7 +10021,7 @@
         <v>10.56907081604</v>
       </c>
       <c r="G188" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -10047,7 +10047,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G189" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -10073,7 +10073,7 @@
         <v>10.4491949081421</v>
       </c>
       <c r="G190" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -10125,7 +10125,7 @@
         <v>10.56907081604</v>
       </c>
       <c r="G192" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -10151,7 +10151,7 @@
         <v>10.6090297698975</v>
       </c>
       <c r="G193" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -10177,7 +10177,7 @@
         <v>10.7089262008667</v>
       </c>
       <c r="G194" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -10203,7 +10203,7 @@
         <v>10.8887405395508</v>
       </c>
       <c r="G195" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -10229,7 +10229,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G196" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -10255,7 +10255,7 @@
         <v>10.5990400314331</v>
       </c>
       <c r="G197" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -10281,7 +10281,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G198" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -10307,7 +10307,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G199" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -10333,7 +10333,7 @@
         <v>10.3792667388916</v>
       </c>
       <c r="G200" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -10411,7 +10411,7 @@
         <v>10.4691743850708</v>
       </c>
       <c r="G203" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -10437,7 +10437,7 @@
         <v>10.56907081604</v>
       </c>
       <c r="G204" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -10463,7 +10463,7 @@
         <v>10.5091333389282</v>
       </c>
       <c r="G205" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -10489,7 +10489,7 @@
         <v>10.6090297698975</v>
       </c>
       <c r="G206" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -10515,7 +10515,7 @@
         <v>10.6190185546875</v>
       </c>
       <c r="G207" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10541,7 +10541,7 @@
         <v>10.5291118621826</v>
       </c>
       <c r="G208" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10567,7 +10567,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G209" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10619,7 +10619,7 @@
         <v>10.8787508010864</v>
       </c>
       <c r="G211" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10645,7 +10645,7 @@
         <v>10.9986267089844</v>
       </c>
       <c r="G212" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10671,7 +10671,7 @@
         <v>11.1684513092041</v>
       </c>
       <c r="G213" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10697,7 +10697,7 @@
         <v>11.2483692169189</v>
       </c>
       <c r="G214" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -10723,7 +10723,7 @@
         <v>11.258358001709</v>
       </c>
       <c r="G215" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10749,7 +10749,7 @@
         <v>11.008617401123</v>
       </c>
       <c r="G216" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10775,7 +10775,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G217" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10801,7 +10801,7 @@
         <v>10.5590810775757</v>
       </c>
       <c r="G218" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10827,7 +10827,7 @@
         <v>11.0585651397705</v>
       </c>
       <c r="G219" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10853,7 +10853,7 @@
         <v>11.3682451248169</v>
       </c>
       <c r="G220" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10879,7 +10879,7 @@
         <v>11.0385856628418</v>
       </c>
       <c r="G221" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10905,7 +10905,7 @@
         <v>10.828803062439</v>
       </c>
       <c r="G222" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -10931,7 +10931,7 @@
         <v>10.98863697052</v>
       </c>
       <c r="G223" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -10957,7 +10957,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G224" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -10983,7 +10983,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G225" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -11009,7 +11009,7 @@
         <v>10.7289056777954</v>
       </c>
       <c r="G226" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -11035,7 +11035,7 @@
         <v>10.6389989852905</v>
       </c>
       <c r="G227" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -11061,7 +11061,7 @@
         <v>10.6190185546875</v>
       </c>
       <c r="G228" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -11113,7 +11113,7 @@
         <v>10.7388954162598</v>
       </c>
       <c r="G230" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -11139,7 +11139,7 @@
         <v>10.7388954162598</v>
       </c>
       <c r="G231" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -11165,7 +11165,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G232" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -11191,7 +11191,7 @@
         <v>10.838791847229</v>
       </c>
       <c r="G233" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -11243,7 +11243,7 @@
         <v>10.7388954162598</v>
       </c>
       <c r="G235" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -11269,7 +11269,7 @@
         <v>10.8088226318359</v>
       </c>
       <c r="G236" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -11295,7 +11295,7 @@
         <v>10.7089262008667</v>
       </c>
       <c r="G237" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -11321,7 +11321,7 @@
         <v>10.539101600647</v>
       </c>
       <c r="G238" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -11347,7 +11347,7 @@
         <v>10.5590810775757</v>
       </c>
       <c r="G239" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -11399,7 +11399,7 @@
         <v>10.9686584472656</v>
       </c>
       <c r="G241" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -11425,7 +11425,7 @@
         <v>11.0985240936279</v>
       </c>
       <c r="G242" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -11451,7 +11451,7 @@
         <v>10.9686584472656</v>
       </c>
       <c r="G243" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11477,7 +11477,7 @@
         <v>10.828803062439</v>
       </c>
       <c r="G244" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11503,7 +11503,7 @@
         <v>11.008617401123</v>
       </c>
       <c r="G245" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -11529,7 +11529,7 @@
         <v>10.8887405395508</v>
       </c>
       <c r="G246" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11555,7 +11555,7 @@
         <v>10.98863697052</v>
       </c>
       <c r="G247" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -11581,7 +11581,7 @@
         <v>10.8088226318359</v>
       </c>
       <c r="G248" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -11607,7 +11607,7 @@
         <v>10.7289056777954</v>
       </c>
       <c r="G249" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11633,7 +11633,7 @@
         <v>10.7688636779785</v>
       </c>
       <c r="G250" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11659,7 +11659,7 @@
         <v>10.9087200164795</v>
       </c>
       <c r="G251" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11685,7 +11685,7 @@
         <v>10.9187097549438</v>
       </c>
       <c r="G252" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11711,7 +11711,7 @@
         <v>11.0685548782349</v>
       </c>
       <c r="G253" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11737,7 +11737,7 @@
         <v>11.2084102630615</v>
       </c>
       <c r="G254" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11763,7 +11763,7 @@
         <v>11.2683477401733</v>
       </c>
       <c r="G255" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11789,7 +11789,7 @@
         <v>11.4181928634644</v>
       </c>
       <c r="G256" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11815,7 +11815,7 @@
         <v>11.4881210327148</v>
       </c>
       <c r="G257" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11841,7 +11841,7 @@
         <v>11.9876041412354</v>
       </c>
       <c r="G258" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11867,7 +11867,7 @@
         <v>12.0575323104858</v>
       </c>
       <c r="G259" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11893,7 +11893,7 @@
         <v>11.8177795410156</v>
       </c>
       <c r="G260" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11919,7 +11919,7 @@
         <v>11.9576349258423</v>
       </c>
       <c r="G261" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -11945,7 +11945,7 @@
         <v>12.0075836181641</v>
       </c>
       <c r="G262" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -11971,7 +11971,7 @@
         <v>12.0375528335571</v>
       </c>
       <c r="G263" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -11997,7 +11997,7 @@
         <v>12.0974912643433</v>
       </c>
       <c r="G264" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -12023,7 +12023,7 @@
         <v>12.277304649353</v>
       </c>
       <c r="G265" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -12049,7 +12049,7 @@
         <v>12.0575323104858</v>
       </c>
       <c r="G266" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -12075,7 +12075,7 @@
         <v>12.3072738647461</v>
       </c>
       <c r="G267" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -12101,7 +12101,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G268" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -12127,7 +12127,7 @@
         <v>12.2673149108887</v>
       </c>
       <c r="G269" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -12153,7 +12153,7 @@
         <v>12.2173671722412</v>
       </c>
       <c r="G270" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -12179,7 +12179,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G271" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -12205,7 +12205,7 @@
         <v>12.1774082183838</v>
       </c>
       <c r="G272" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -12231,7 +12231,7 @@
         <v>12.2473363876343</v>
       </c>
       <c r="G273" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -12257,7 +12257,7 @@
         <v>12.2073774337769</v>
       </c>
       <c r="G274" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -12283,7 +12283,7 @@
         <v>12.2972841262817</v>
       </c>
       <c r="G275" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -12309,7 +12309,7 @@
         <v>12.1873979568481</v>
       </c>
       <c r="G276" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -12335,7 +12335,7 @@
         <v>12.1474390029907</v>
       </c>
       <c r="G277" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -12361,7 +12361,7 @@
         <v>11.9876041412354</v>
       </c>
       <c r="G278" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -12387,7 +12387,7 @@
         <v>11.8477487564087</v>
       </c>
       <c r="G279" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -12413,7 +12413,7 @@
         <v>12.2173671722412</v>
       </c>
       <c r="G280" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -12439,7 +12439,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G281" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -12465,7 +12465,7 @@
         <v>12.4071702957153</v>
       </c>
       <c r="G282" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -12491,7 +12491,7 @@
         <v>12.127459526062</v>
       </c>
       <c r="G283" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -12517,7 +12517,7 @@
         <v>12.1174697875977</v>
       </c>
       <c r="G284" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -12543,7 +12543,7 @@
         <v>12.2473363876343</v>
       </c>
       <c r="G285" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12569,7 +12569,7 @@
         <v>12.2473363876343</v>
       </c>
       <c r="G286" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -12595,7 +12595,7 @@
         <v>12.4071702957153</v>
       </c>
       <c r="G287" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -12621,7 +12621,7 @@
         <v>12.6669015884399</v>
       </c>
       <c r="G288" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12647,7 +12647,7 @@
         <v>12.5670051574707</v>
       </c>
       <c r="G289" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12673,7 +12673,7 @@
         <v>12.6569118499756</v>
       </c>
       <c r="G290" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12699,7 +12699,7 @@
         <v>12.5670051574707</v>
       </c>
       <c r="G291" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12725,7 +12725,7 @@
         <v>12.4970779418945</v>
       </c>
       <c r="G292" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12751,7 +12751,7 @@
         <v>12.5969743728638</v>
       </c>
       <c r="G293" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12777,7 +12777,7 @@
         <v>12.8567056655884</v>
       </c>
       <c r="G294" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12803,7 +12803,7 @@
         <v>12.8966636657715</v>
       </c>
       <c r="G295" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12829,7 +12829,7 @@
         <v>12.816746711731</v>
       </c>
       <c r="G296" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12855,7 +12855,7 @@
         <v>12.5170574188232</v>
       </c>
       <c r="G297" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12881,7 +12881,7 @@
         <v>12.8067569732666</v>
       </c>
       <c r="G298" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12907,7 +12907,7 @@
         <v>12.6669015884399</v>
       </c>
       <c r="G299" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -12933,7 +12933,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G300" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -12959,7 +12959,7 @@
         <v>13.1863651275635</v>
       </c>
       <c r="G301" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -12985,7 +12985,7 @@
         <v>13.1464061737061</v>
       </c>
       <c r="G302" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -13011,7 +13011,7 @@
         <v>12.9566020965576</v>
       </c>
       <c r="G303" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -13037,7 +13037,7 @@
         <v>12.966591835022</v>
       </c>
       <c r="G304" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -13063,7 +13063,7 @@
         <v>13.0764780044556</v>
       </c>
       <c r="G305" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -13089,7 +13089,7 @@
         <v>12.9765815734863</v>
       </c>
       <c r="G306" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -13115,7 +13115,7 @@
         <v>12.9765815734863</v>
       </c>
       <c r="G307" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -13141,7 +13141,7 @@
         <v>13.1863651275635</v>
       </c>
       <c r="G308" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -13167,7 +13167,7 @@
         <v>13.2762718200684</v>
       </c>
       <c r="G309" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -13193,7 +13193,7 @@
         <v>13.1064472198486</v>
       </c>
       <c r="G310" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -13219,7 +13219,7 @@
         <v>13.2862615585327</v>
       </c>
       <c r="G311" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -13245,7 +13245,7 @@
         <v>13.536003112793</v>
       </c>
       <c r="G312" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -13271,7 +13271,7 @@
         <v>13.4460964202881</v>
       </c>
       <c r="G313" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -13297,7 +13297,7 @@
         <v>13.5060338973999</v>
       </c>
       <c r="G314" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -13323,7 +13323,7 @@
         <v>13.5459928512573</v>
       </c>
       <c r="G315" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -13349,7 +13349,7 @@
         <v>13.5759620666504</v>
       </c>
       <c r="G316" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -13375,7 +13375,7 @@
         <v>13.6458902359009</v>
       </c>
       <c r="G317" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -13401,7 +13401,7 @@
         <v>13.7058277130127</v>
       </c>
       <c r="G318" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -13427,7 +13427,7 @@
         <v>13.7757549285889</v>
       </c>
       <c r="G319" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -13453,7 +13453,7 @@
         <v>13.8456830978394</v>
       </c>
       <c r="G320" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -13479,7 +13479,7 @@
         <v>13.835693359375</v>
       </c>
       <c r="G321" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -13505,7 +13505,7 @@
         <v>13.8556728363037</v>
       </c>
       <c r="G322" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13531,7 +13531,7 @@
         <v>14.1253938674927</v>
       </c>
       <c r="G323" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13557,7 +13557,7 @@
         <v>14.1453733444214</v>
       </c>
       <c r="G324" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13583,7 +13583,7 @@
         <v>14.1253938674927</v>
       </c>
       <c r="G325" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -13609,7 +13609,7 @@
         <v>14.1253938674927</v>
       </c>
       <c r="G326" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -13635,7 +13635,7 @@
         <v>14.0654563903809</v>
       </c>
       <c r="G327" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -13661,7 +13661,7 @@
         <v>14.0554656982422</v>
       </c>
       <c r="G328" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13687,7 +13687,7 @@
         <v>14.1054153442383</v>
       </c>
       <c r="G329" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13713,7 +13713,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G330" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -13739,7 +13739,7 @@
         <v>14.0954246520996</v>
       </c>
       <c r="G331" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13765,7 +13765,7 @@
         <v>13.7757549285889</v>
       </c>
       <c r="G332" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13791,7 +13791,7 @@
         <v>13.9455795288086</v>
       </c>
       <c r="G333" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13817,7 +13817,7 @@
         <v>14.0754451751709</v>
       </c>
       <c r="G334" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13843,7 +13843,7 @@
         <v>13.8856420516968</v>
       </c>
       <c r="G335" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13869,7 +13869,7 @@
         <v>14.3851251602173</v>
       </c>
       <c r="G336" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13895,7 +13895,7 @@
         <v>14.5050010681152</v>
       </c>
       <c r="G337" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13921,7 +13921,7 @@
         <v>14.3351774215698</v>
       </c>
       <c r="G338" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -13947,7 +13947,7 @@
         <v>14.4250841140747</v>
       </c>
       <c r="G339" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -13973,7 +13973,7 @@
         <v>14.4150943756104</v>
       </c>
       <c r="G340" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -13999,7 +13999,7 @@
         <v>14.6148881912231</v>
       </c>
       <c r="G341" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -14025,7 +14025,7 @@
         <v>14.4950122833252</v>
       </c>
       <c r="G342" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -14051,7 +14051,7 @@
         <v>14.7847118377686</v>
       </c>
       <c r="G343" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -14077,7 +14077,7 @@
         <v>14.9045877456665</v>
       </c>
       <c r="G344" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -14103,7 +14103,7 @@
         <v>14.8146810531616</v>
       </c>
       <c r="G345" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -14129,7 +14129,7 @@
         <v>15.0444440841675</v>
       </c>
       <c r="G346" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -14155,7 +14155,7 @@
         <v>15.0844020843506</v>
       </c>
       <c r="G347" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -14181,7 +14181,7 @@
         <v>14.7647333145142</v>
       </c>
       <c r="G348" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -14207,7 +14207,7 @@
         <v>14.6648359298706</v>
       </c>
       <c r="G349" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -14233,7 +14233,7 @@
         <v>14.674825668335</v>
       </c>
       <c r="G350" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -14259,7 +14259,7 @@
         <v>14.5349702835083</v>
       </c>
       <c r="G351" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -14285,7 +14285,7 @@
         <v>14.0055179595947</v>
       </c>
       <c r="G352" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -14311,7 +14311,7 @@
         <v>13.8956308364868</v>
       </c>
       <c r="G353" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -14337,7 +14337,7 @@
         <v>14.2053108215332</v>
       </c>
       <c r="G354" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -14363,7 +14363,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G355" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -14389,7 +14389,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G356" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -14415,7 +14415,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G357" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -14441,7 +14441,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G358" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -14467,7 +14467,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G359" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -14493,7 +14493,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G360" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14519,7 +14519,7 @@
         <v>14.4250841140747</v>
       </c>
       <c r="G361" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14545,7 +14545,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G362" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14571,7 +14571,7 @@
         <v>13.9755487442017</v>
       </c>
       <c r="G363" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14597,7 +14597,7 @@
         <v>13.8257036209106</v>
       </c>
       <c r="G364" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14623,7 +14623,7 @@
         <v>14.0055179595947</v>
       </c>
       <c r="G365" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -16573,7 +16573,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G440" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16781,7 +16781,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G448" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16807,7 +16807,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G449" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16859,7 +16859,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G451" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -17249,7 +17249,7 @@
         <v>13.8257036209106</v>
       </c>
       <c r="G466" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -58329,7 +58329,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G2046" t="s">
-        <v>1483</v>
+        <v>415</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58381,7 +58381,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G2048" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58407,7 +58407,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58433,7 +58433,7 @@
         <v>10.8100004196167</v>
       </c>
       <c r="G2050" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58459,7 +58459,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G2051" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58485,7 +58485,7 @@
         <v>10.8699998855591</v>
       </c>
       <c r="G2052" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58511,7 +58511,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G2053" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58537,7 +58537,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G2054" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58563,7 +58563,7 @@
         <v>11.5100002288818</v>
       </c>
       <c r="G2055" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58589,7 +58589,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G2056" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58615,7 +58615,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G2057" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58641,7 +58641,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G2058" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58693,7 +58693,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G2060" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58719,7 +58719,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G2061" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58745,7 +58745,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58771,7 +58771,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G2063" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58823,7 +58823,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2065" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58849,7 +58849,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G2066" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58875,7 +58875,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G2067" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -58901,7 +58901,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2068" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -58927,7 +58927,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G2069" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -58953,7 +58953,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G2070" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -58979,7 +58979,7 @@
         <v>11.5100002288818</v>
       </c>
       <c r="G2071" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59005,7 +59005,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59031,7 +59031,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G2073" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59057,7 +59057,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G2074" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59083,7 +59083,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2075" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59161,7 +59161,7 @@
         <v>11.5</v>
       </c>
       <c r="G2078" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59187,7 +59187,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G2079" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59213,7 +59213,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G2080" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59239,7 +59239,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2081" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59265,7 +59265,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G2082" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59291,7 +59291,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2083" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59317,7 +59317,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G2084" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59343,7 +59343,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G2085" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59395,7 +59395,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G2087" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59421,7 +59421,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G2088" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59447,7 +59447,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G2089" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59473,7 +59473,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2090" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59525,7 +59525,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2092" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59551,7 +59551,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2093" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59577,7 +59577,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2094" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59603,7 +59603,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2095" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59629,7 +59629,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2096" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59655,7 +59655,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2097" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59681,7 +59681,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2098" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59707,7 +59707,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2099" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59733,7 +59733,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2100" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59759,7 +59759,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2101" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59785,7 +59785,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2102" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59811,7 +59811,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2103" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59863,7 +59863,7 @@
         <v>12</v>
       </c>
       <c r="G2105" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59889,7 +59889,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2106" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -59915,7 +59915,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2107" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -59941,7 +59941,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -59967,7 +59967,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G2109" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -59993,7 +59993,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2110" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60019,7 +60019,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2111" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60045,7 +60045,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2112" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60071,7 +60071,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G2113" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60097,7 +60097,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G2114" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60123,7 +60123,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G2115" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60149,7 +60149,7 @@
         <v>12.3660001754761</v>
       </c>
       <c r="G2116" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60175,7 +60175,7 @@
         <v>12.0979995727539</v>
       </c>
       <c r="G2117" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60227,7 +60227,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2119" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60253,7 +60253,7 @@
         <v>11.9720001220703</v>
       </c>
       <c r="G2120" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60279,7 +60279,7 @@
         <v>11.9180002212524</v>
       </c>
       <c r="G2121" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60305,7 +60305,7 @@
         <v>11.9440002441406</v>
       </c>
       <c r="G2122" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60331,7 +60331,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2123" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60357,7 +60357,7 @@
         <v>12.1520004272461</v>
       </c>
       <c r="G2124" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60383,7 +60383,7 @@
         <v>12.0620002746582</v>
       </c>
       <c r="G2125" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60409,7 +60409,7 @@
         <v>11.8319997787476</v>
       </c>
       <c r="G2126" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60435,7 +60435,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2127" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60461,7 +60461,7 @@
         <v>11.1520004272461</v>
       </c>
       <c r="G2128" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60487,7 +60487,7 @@
         <v>11.1120004653931</v>
       </c>
       <c r="G2129" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60513,7 +60513,7 @@
         <v>11.1339998245239</v>
       </c>
       <c r="G2130" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60539,7 +60539,7 @@
         <v>11.043999671936</v>
       </c>
       <c r="G2131" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60565,7 +60565,7 @@
         <v>11.1619997024536</v>
       </c>
       <c r="G2132" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60591,7 +60591,7 @@
         <v>10.8579998016357</v>
       </c>
       <c r="G2133" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60617,7 +60617,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G2134" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60643,7 +60643,7 @@
         <v>10.673999786377</v>
       </c>
       <c r="G2135" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60669,7 +60669,7 @@
         <v>10.7259998321533</v>
       </c>
       <c r="G2136" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60695,7 +60695,7 @@
         <v>10.6560001373291</v>
       </c>
       <c r="G2137" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60721,7 +60721,7 @@
         <v>10.8760004043579</v>
       </c>
       <c r="G2138" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60747,7 +60747,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G2139" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60773,7 +60773,7 @@
         <v>10.4919996261597</v>
       </c>
       <c r="G2140" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60799,7 +60799,7 @@
         <v>10.5459995269775</v>
       </c>
       <c r="G2141" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60825,7 +60825,7 @@
         <v>10.6560001373291</v>
       </c>
       <c r="G2142" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60851,7 +60851,7 @@
         <v>10.8520002365112</v>
       </c>
       <c r="G2143" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60877,7 +60877,7 @@
         <v>10.7819995880127</v>
       </c>
       <c r="G2144" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -60903,7 +60903,7 @@
         <v>11.0080003738403</v>
       </c>
       <c r="G2145" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -60929,7 +60929,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2146" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -60955,7 +60955,7 @@
         <v>11.0120000839233</v>
       </c>
       <c r="G2147" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -60981,7 +60981,7 @@
         <v>11.1020002365112</v>
       </c>
       <c r="G2148" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61007,7 +61007,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G2149" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61033,7 +61033,7 @@
         <v>10.753999710083</v>
       </c>
       <c r="G2150" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61059,7 +61059,7 @@
         <v>10.4399995803833</v>
       </c>
       <c r="G2151" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61085,7 +61085,7 @@
         <v>10.4399995803833</v>
       </c>
       <c r="G2152" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61111,7 +61111,7 @@
         <v>10.3299999237061</v>
       </c>
       <c r="G2153" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61137,7 +61137,7 @@
         <v>10.4479999542236</v>
       </c>
       <c r="G2154" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61163,7 +61163,7 @@
         <v>10.3900003433228</v>
       </c>
       <c r="G2155" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61189,7 +61189,7 @@
         <v>10.5520000457764</v>
       </c>
       <c r="G2156" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61215,7 +61215,7 @@
         <v>10.3219995498657</v>
       </c>
       <c r="G2157" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61241,7 +61241,7 @@
         <v>10.6219997406006</v>
       </c>
       <c r="G2158" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61267,7 +61267,7 @@
         <v>10.5260000228882</v>
       </c>
       <c r="G2159" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61293,7 +61293,7 @@
         <v>10.3299999237061</v>
       </c>
       <c r="G2160" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61319,7 +61319,7 @@
         <v>10.2559995651245</v>
       </c>
       <c r="G2161" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61345,7 +61345,7 @@
         <v>10.253999710083</v>
       </c>
       <c r="G2162" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61371,7 +61371,7 @@
         <v>10.3240003585815</v>
       </c>
       <c r="G2163" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61397,7 +61397,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G2164" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61423,7 +61423,7 @@
         <v>10.3100004196167</v>
       </c>
       <c r="G2165" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61449,7 +61449,7 @@
         <v>10.3879995346069</v>
       </c>
       <c r="G2166" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61475,7 +61475,7 @@
         <v>10.4680004119873</v>
       </c>
       <c r="G2167" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -61501,7 +61501,7 @@
         <v>10.4180002212524</v>
       </c>
       <c r="G2168" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61527,7 +61527,7 @@
         <v>10.293999671936</v>
       </c>
       <c r="G2169" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61553,7 +61553,7 @@
         <v>10.4119997024536</v>
       </c>
       <c r="G2170" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -61579,7 +61579,7 @@
         <v>10.6300001144409</v>
       </c>
       <c r="G2171" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -61605,7 +61605,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G2172" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -61631,7 +61631,7 @@
         <v>10.6260004043579</v>
       </c>
       <c r="G2173" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -61657,7 +61657,7 @@
         <v>10.6820001602173</v>
       </c>
       <c r="G2174" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -61683,7 +61683,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G2175" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -61709,7 +61709,7 @@
         <v>10.9020004272461</v>
       </c>
       <c r="G2176" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -61735,7 +61735,7 @@
         <v>10.460000038147</v>
       </c>
       <c r="G2177" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -61761,7 +61761,7 @@
         <v>10.5080003738403</v>
       </c>
       <c r="G2178" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -61787,7 +61787,7 @@
         <v>10.2959995269775</v>
       </c>
       <c r="G2179" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -61813,7 +61813,7 @@
         <v>10.2239999771118</v>
       </c>
       <c r="G2180" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -61839,7 +61839,7 @@
         <v>10.1579999923706</v>
       </c>
       <c r="G2181" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -61865,7 +61865,7 @@
         <v>10.2519998550415</v>
       </c>
       <c r="G2182" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -61891,7 +61891,7 @@
         <v>10</v>
       </c>
       <c r="G2183" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -61917,7 +61917,7 @@
         <v>10.2779998779297</v>
       </c>
       <c r="G2184" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -61943,7 +61943,7 @@
         <v>10.3660001754761</v>
       </c>
       <c r="G2185" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -61969,7 +61969,7 @@
         <v>10.0520000457764</v>
       </c>
       <c r="G2186" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -61995,7 +61995,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G2187" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -62021,7 +62021,7 @@
         <v>9.78299999237061</v>
       </c>
       <c r="G2188" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -62047,7 +62047,7 @@
         <v>9.77099990844727</v>
       </c>
       <c r="G2189" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -62055,7 +62055,7 @@
     </row>
     <row r="2190">
       <c r="A2190" s="1" t="n">
-        <v>45511.649375</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B2190" t="n">
         <v>291836</v>
@@ -62073,9 +62073,35 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G2190" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H2190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" s="1" t="n">
+        <v>45512.6493865741</v>
+      </c>
+      <c r="B2191" t="n">
+        <v>230499</v>
+      </c>
+      <c r="C2191" t="n">
+        <v>9.95600032806396</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>9.70300006866455</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>9.88000011444092</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>9.89999961853027</v>
+      </c>
+      <c r="G2191" t="s">
         <v>1595</v>
       </c>
-      <c r="H2190" t="s">
+      <c r="H2191" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BRE.MI.xlsx
+++ b/data/BRE.MI.xlsx
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43071699142456</t>
+    <t xml:space="preserve">7.43071746826172</t>
   </si>
   <si>
     <t xml:space="preserve">BRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4002161026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17991924285889</t>
+    <t xml:space="preserve">7.40021562576294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17991876602173</t>
   </si>
   <si>
     <t xml:space="preserve">6.76305389404297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.78000020980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66307353973389</t>
+    <t xml:space="preserve">6.77999925613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66307401657104</t>
   </si>
   <si>
     <t xml:space="preserve">6.84100484848022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02910280227661</t>
+    <t xml:space="preserve">7.02910089492798</t>
   </si>
   <si>
     <t xml:space="preserve">6.79016733169556</t>
   </si>
   <si>
-    <t xml:space="preserve">6.4393892288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42413902282715</t>
+    <t xml:space="preserve">6.43938875198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42413854598999</t>
   </si>
   <si>
     <t xml:space="preserve">6.50378322601318</t>
@@ -89,28 +89,28 @@
     <t xml:space="preserve">6.53598022460938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54953765869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62070989608765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45803022384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3919415473938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2800989151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21062231063843</t>
+    <t xml:space="preserve">6.54953622817993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62070941925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45802974700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39194202423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28009939193726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21062183380127</t>
   </si>
   <si>
     <t xml:space="preserve">6.07844495773315</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91237688064575</t>
+    <t xml:space="preserve">5.91237640380859</t>
   </si>
   <si>
     <t xml:space="preserve">5.5548210144043</t>
@@ -119,10 +119,10 @@
     <t xml:space="preserve">5.71749973297119</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93101596832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88187456130981</t>
+    <t xml:space="preserve">5.93101644515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88187408447266</t>
   </si>
   <si>
     <t xml:space="preserve">5.94118499755859</t>
@@ -131,25 +131,25 @@
     <t xml:space="preserve">6.25976419448853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19198131561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34279918670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36482858657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32246398925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46480751037598</t>
+    <t xml:space="preserve">6.19198083877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34279870986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36482810974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32246351242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46480798721313</t>
   </si>
   <si>
     <t xml:space="preserve">6.33432579040527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19367647171021</t>
+    <t xml:space="preserve">6.19367742538452</t>
   </si>
   <si>
     <t xml:space="preserve">6.29535102844238</t>
@@ -158,34 +158,34 @@
     <t xml:space="preserve">6.35296630859375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44616746902466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58342838287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55462121963501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30362367630005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34090375900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3764910697937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33751535415649</t>
+    <t xml:space="preserve">6.44616794586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58342885971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55462169647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30362462997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.340904712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37649059295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33751440048218</t>
   </si>
   <si>
     <t xml:space="preserve">7.37987995147705</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32904291152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32395792007446</t>
+    <t xml:space="preserve">7.32904243469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32395839691162</t>
   </si>
   <si>
     <t xml:space="preserve">7.42224359512329</t>
@@ -197,34 +197,34 @@
     <t xml:space="preserve">7.51375102996826</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40190982818604</t>
+    <t xml:space="preserve">7.40191030502319</t>
   </si>
   <si>
     <t xml:space="preserve">7.49341583251953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33412504196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53408670425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4137716293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41207599639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58153390884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70184946060181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67304134368896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62389755249023</t>
+    <t xml:space="preserve">7.33412456512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53408622741699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41377019882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41207647323608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58153438568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70184850692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67304086685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62389802932739</t>
   </si>
   <si>
     <t xml:space="preserve">7.40529918670654</t>
@@ -233,46 +233,46 @@
     <t xml:space="preserve">7.45105171203613</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42393779754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53917026519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57645130157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6255931854248</t>
+    <t xml:space="preserve">7.4239387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53916931152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57644987106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62559270858765</t>
   </si>
   <si>
     <t xml:space="preserve">7.67643070220947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6933741569519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66287517547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71032238006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74421405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78488302230835</t>
+    <t xml:space="preserve">7.69337511062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6628737449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7103214263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74421453475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78488206863403</t>
   </si>
   <si>
     <t xml:space="preserve">8.05093193054199</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99670696258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91367149353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96281433105469</t>
+    <t xml:space="preserve">7.99670457839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91367197036743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96281385421753</t>
   </si>
   <si>
     <t xml:space="preserve">8.02381896972656</t>
@@ -284,22 +284,22 @@
     <t xml:space="preserve">8.00348377227783</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90858793258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99162292480469</t>
+    <t xml:space="preserve">7.90858745574951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99162149429321</t>
   </si>
   <si>
     <t xml:space="preserve">8.14243793487549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78637886047363</t>
+    <t xml:space="preserve">8.78637790679932</t>
   </si>
   <si>
     <t xml:space="preserve">8.81179714202881</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82026958465576</t>
+    <t xml:space="preserve">8.82027053833008</t>
   </si>
   <si>
     <t xml:space="preserve">8.86263370513916</t>
@@ -311,55 +311,55 @@
     <t xml:space="preserve">8.66775798797607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6592845916748</t>
+    <t xml:space="preserve">8.65928554534912</t>
   </si>
   <si>
     <t xml:space="preserve">8.71859455108643</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83048343658447</t>
+    <t xml:space="preserve">8.83048248291016</t>
   </si>
   <si>
     <t xml:space="preserve">8.76162815093994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82187652587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77023506164551</t>
+    <t xml:space="preserve">8.82187557220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77023601531982</t>
   </si>
   <si>
     <t xml:space="preserve">8.77884197235107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92515754699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95097732543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04565048217773</t>
+    <t xml:space="preserve">8.92515659332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95097637176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0456485748291</t>
   </si>
   <si>
     <t xml:space="preserve">9.28663730621338</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19196510314941</t>
+    <t xml:space="preserve">9.1919641494751</t>
   </si>
   <si>
     <t xml:space="preserve">9.18335819244385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89933586120605</t>
+    <t xml:space="preserve">8.89933490753174</t>
   </si>
   <si>
     <t xml:space="preserve">8.5774450302124</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40531063079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60670852661133</t>
+    <t xml:space="preserve">8.40530967712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60670566558838</t>
   </si>
   <si>
     <t xml:space="preserve">8.61531448364258</t>
@@ -368,61 +368,61 @@
     <t xml:space="preserve">8.91654872894287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93376445770264</t>
+    <t xml:space="preserve">8.93376350402832</t>
   </si>
   <si>
     <t xml:space="preserve">8.88212299346924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03704357147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5602331161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91989326477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55506706237793</t>
+    <t xml:space="preserve">9.03704452514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56023120880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91989278793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55506896972656</t>
   </si>
   <si>
     <t xml:space="preserve">8.35367202758789</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50514984130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5378532409668</t>
+    <t xml:space="preserve">8.50514888763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53785419464111</t>
   </si>
   <si>
     <t xml:space="preserve">8.13333797454834</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95948457717896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95776271820068</t>
+    <t xml:space="preserve">7.95948314666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95776176452637</t>
   </si>
   <si>
     <t xml:space="preserve">8.24522590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32096576690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34850692749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26932525634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44145965576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40875434875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5344123840332</t>
+    <t xml:space="preserve">8.32096672058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34850597381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26932334899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4414587020874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4087553024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53441143035889</t>
   </si>
   <si>
     <t xml:space="preserve">8.400146484375</t>
@@ -431,10 +431,10 @@
     <t xml:space="preserve">8.51031303405762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4655590057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62392330169678</t>
+    <t xml:space="preserve">8.46555805206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62392139434814</t>
   </si>
   <si>
     <t xml:space="preserve">8.67556190490723</t>
@@ -443,13 +443,13 @@
     <t xml:space="preserve">8.71859550476074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81326866149902</t>
+    <t xml:space="preserve">8.81326770782471</t>
   </si>
   <si>
     <t xml:space="preserve">8.66695499420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99400901794434</t>
+    <t xml:space="preserve">8.99400997161865</t>
   </si>
   <si>
     <t xml:space="preserve">9.08868408203125</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">8.84769535064697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86490726470947</t>
+    <t xml:space="preserve">8.86491012573242</t>
   </si>
   <si>
     <t xml:space="preserve">8.9595832824707</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">9.05425643920898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00261688232422</t>
+    <t xml:space="preserve">9.0026159286499</t>
   </si>
   <si>
     <t xml:space="preserve">9.06286334991455</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">8.75302219390869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78744792938232</t>
+    <t xml:space="preserve">8.78744983673096</t>
   </si>
   <si>
     <t xml:space="preserve">8.70998764038086</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">8.73580837249756</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96818923950195</t>
+    <t xml:space="preserve">8.96819019317627</t>
   </si>
   <si>
     <t xml:space="preserve">9.01122379302979</t>
@@ -500,16 +500,16 @@
     <t xml:space="preserve">9.0284366607666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2177848815918</t>
+    <t xml:space="preserve">9.21778583526611</t>
   </si>
   <si>
     <t xml:space="preserve">9.16614437103271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20917797088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10589599609375</t>
+    <t xml:space="preserve">9.20917701721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10589694976807</t>
   </si>
   <si>
     <t xml:space="preserve">9.1231107711792</t>
@@ -518,19 +518,19 @@
     <t xml:space="preserve">9.14032363891602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22639083862305</t>
+    <t xml:space="preserve">9.22639179229736</t>
   </si>
   <si>
     <t xml:space="preserve">9.38131046295166</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13171577453613</t>
+    <t xml:space="preserve">9.13171768188477</t>
   </si>
   <si>
     <t xml:space="preserve">8.94236946105957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01982975006104</t>
+    <t xml:space="preserve">9.01983070373535</t>
   </si>
   <si>
     <t xml:space="preserve">9.14893054962158</t>
@@ -539,34 +539,34 @@
     <t xml:space="preserve">9.07147026062012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37270450592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47598552703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62230014801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69115352630615</t>
+    <t xml:space="preserve">9.37270641326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47598457336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62229919433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69115447998047</t>
   </si>
   <si>
     <t xml:space="preserve">9.69976043701172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48459243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.260817527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0972900390625</t>
+    <t xml:space="preserve">9.48459339141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26081943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09728908538818</t>
   </si>
   <si>
     <t xml:space="preserve">9.52762603759766</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79443454742432</t>
+    <t xml:space="preserve">9.79443359375</t>
   </si>
   <si>
     <t xml:space="preserve">9.51041316986084</t>
@@ -575,16 +575,16 @@
     <t xml:space="preserve">9.32967185974121</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46737957000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24360466003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25221157073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33827877044678</t>
+    <t xml:space="preserve">9.46738052368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2436056137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25221061706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33827781677246</t>
   </si>
   <si>
     <t xml:space="preserve">9.31245803833008</t>
@@ -599,37 +599,37 @@
     <t xml:space="preserve">9.56205368041992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27803134918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39852619171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40713119506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53623390197754</t>
+    <t xml:space="preserve">9.2780294418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39852428436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40713214874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53623294830322</t>
   </si>
   <si>
     <t xml:space="preserve">9.6567268371582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70836544036865</t>
+    <t xml:space="preserve">9.70836734771729</t>
   </si>
   <si>
     <t xml:space="preserve">9.83746719360352</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89771556854248</t>
+    <t xml:space="preserve">9.89771461486816</t>
   </si>
   <si>
     <t xml:space="preserve">10.3280487060547</t>
   </si>
   <si>
-    <t xml:space="preserve">10.388298034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1817350387573</t>
+    <t xml:space="preserve">10.3882970809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1817359924316</t>
   </si>
   <si>
     <t xml:space="preserve">10.3022298812866</t>
@@ -641,58 +641,58 @@
     <t xml:space="preserve">10.3710832595825</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4227247238159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5776433944702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6034641265869</t>
+    <t xml:space="preserve">10.4227237701416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5776453018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6034650802612</t>
   </si>
   <si>
     <t xml:space="preserve">10.5862512588501</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5690355300903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5260038375854</t>
+    <t xml:space="preserve">10.569037437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5260047912598</t>
   </si>
   <si>
     <t xml:space="preserve">10.4915781021118</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5518245697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5173969268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.594856262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5001850128174</t>
+    <t xml:space="preserve">10.5518236160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5173978805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5948572158813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5001840591431</t>
   </si>
   <si>
     <t xml:space="preserve">10.4657573699951</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2075538635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6895322799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4485425949097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4399366378784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9133071899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8272380828857</t>
+    <t xml:space="preserve">10.207555770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6895303726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.448543548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4399356842041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9133052825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8272390365601</t>
   </si>
   <si>
     <t xml:space="preserve">10.9046993255615</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">11.1112604141235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0424060821533</t>
+    <t xml:space="preserve">11.042405128479</t>
   </si>
   <si>
     <t xml:space="preserve">10.7842054367065</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">11.0338001251221</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1887197494507</t>
+    <t xml:space="preserve">11.1887216567993</t>
   </si>
   <si>
     <t xml:space="preserve">11.3608541488647</t>
@@ -731,13 +731,13 @@
     <t xml:space="preserve">11.1628999710083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1715059280396</t>
+    <t xml:space="preserve">11.1715068817139</t>
   </si>
   <si>
     <t xml:space="preserve">11.2661809921265</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1801128387451</t>
+    <t xml:space="preserve">11.1801147460938</t>
   </si>
   <si>
     <t xml:space="preserve">11.4383144378662</t>
@@ -746,25 +746,25 @@
     <t xml:space="preserve">11.2920007705688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4469213485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6620903015137</t>
+    <t xml:space="preserve">11.4469232559204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6620893478394</t>
   </si>
   <si>
     <t xml:space="preserve">11.5846290588379</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6362686157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6706943511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6965160369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7567644119263</t>
+    <t xml:space="preserve">11.6362705230713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6706962585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6965169906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.756763458252</t>
   </si>
   <si>
     <t xml:space="preserve">11.8084030151367</t>
@@ -776,10 +776,10 @@
     <t xml:space="preserve">11.928897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9202899932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9375038146973</t>
+    <t xml:space="preserve">11.9202909469604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9375047683716</t>
   </si>
   <si>
     <t xml:space="preserve">12.169885635376</t>
@@ -794,43 +794,43 @@
     <t xml:space="preserve">12.109637260437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1526737213135</t>
+    <t xml:space="preserve">12.1526727676392</t>
   </si>
   <si>
     <t xml:space="preserve">12.1957054138184</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1440658569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0149641036987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1268529891968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9633255004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3936614990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.496940612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3506278991699</t>
+    <t xml:space="preserve">12.1440649032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0149660110474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1268510818481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.963324546814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3936595916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4969396591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3506269454956</t>
   </si>
   <si>
     <t xml:space="preserve">12.4280862808228</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4194803237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5916147232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4883346557617</t>
+    <t xml:space="preserve">12.4194793701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5916156768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4883337020874</t>
   </si>
   <si>
     <t xml:space="preserve">12.7379283905029</t>
@@ -842,85 +842,88 @@
     <t xml:space="preserve">12.7637481689453</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9617033004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.996129989624</t>
+    <t xml:space="preserve">12.9617023468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9961280822754</t>
   </si>
   <si>
     <t xml:space="preserve">12.7207155227661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6346464157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.643253326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.522759437561</t>
+    <t xml:space="preserve">12.6346473693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6432542800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5227603912354</t>
   </si>
   <si>
     <t xml:space="preserve">12.0666046142578</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9719314575195</t>
+    <t xml:space="preserve">11.9719305038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2387399673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3696813583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3871402740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5006237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6053771972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2125511169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0816087722778</t>
   </si>
   <si>
     <t xml:space="preserve">12.2387390136719</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3696804046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3871393203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5006227493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6053771972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2125511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0816078186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1863613128662</t>
+    <t xml:space="preserve">12.1863622665405</t>
   </si>
   <si>
     <t xml:space="preserve">12.0205020904541</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9855842590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7149715423584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6102161407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6014862060547</t>
+    <t xml:space="preserve">11.9855833053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7149705886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6102170944214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.601487159729</t>
   </si>
   <si>
     <t xml:space="preserve">11.4356250762939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3570613861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6451320648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8371810913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6364030838013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.697509765625</t>
+    <t xml:space="preserve">11.3570604324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6451330184937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8371829986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6364040374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6975107192993</t>
   </si>
   <si>
     <t xml:space="preserve">11.5752983093262</t>
@@ -932,19 +935,19 @@
     <t xml:space="preserve">11.4268970489502</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1562833786011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3483304977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9642333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824712753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1300954818726</t>
+    <t xml:space="preserve">11.1562824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.348331451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9642343521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824703216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1300935745239</t>
   </si>
   <si>
     <t xml:space="preserve">11.0427989959717</t>
@@ -953,31 +956,31 @@
     <t xml:space="preserve">11.1475534439087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.845911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9419345855713</t>
+    <t xml:space="preserve">11.8459129333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9419374465942</t>
   </si>
   <si>
     <t xml:space="preserve">11.7062406539917</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0641489028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8808288574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8284530639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7760744094849</t>
+    <t xml:space="preserve">12.0641498565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8808298110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8284521102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7760753631592</t>
   </si>
   <si>
     <t xml:space="preserve">11.7324285507202</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6189460754395</t>
+    <t xml:space="preserve">11.6189451217651</t>
   </si>
   <si>
     <t xml:space="preserve">11.4007081985474</t>
@@ -986,25 +989,25 @@
     <t xml:space="preserve">11.3919792175293</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4094371795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2872247695923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308706283569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2697658538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2784957885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0689888000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1737422943115</t>
+    <t xml:space="preserve">11.4094381332397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.287223815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308715820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2697649002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2784938812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0689868927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1737403869629</t>
   </si>
   <si>
     <t xml:space="preserve">11.2610368728638</t>
@@ -1013,13 +1016,13 @@
     <t xml:space="preserve">11.095175743103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3134126663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6713228225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5578384399414</t>
+    <t xml:space="preserve">11.3134136199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6713218688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5578393936157</t>
   </si>
   <si>
     <t xml:space="preserve">11.4880037307739</t>
@@ -1028,10 +1031,10 @@
     <t xml:space="preserve">11.4530849456787</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6625928878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7411584854126</t>
+    <t xml:space="preserve">11.6625938415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7411575317383</t>
   </si>
   <si>
     <t xml:space="preserve">11.7935361862183</t>
@@ -1040,46 +1043,46 @@
     <t xml:space="preserve">11.8109941482544</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9244775772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8197250366211</t>
+    <t xml:space="preserve">11.9244785308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8197240829468</t>
   </si>
   <si>
     <t xml:space="preserve">11.9768533706665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1077966690063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1776313781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.352222442627</t>
+    <t xml:space="preserve">12.1077976226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1776323318481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3522214889526</t>
   </si>
   <si>
     <t xml:space="preserve">12.3173036575317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3784103393555</t>
+    <t xml:space="preserve">12.3784112930298</t>
   </si>
   <si>
     <t xml:space="preserve">12.4918937683105</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5355415344238</t>
+    <t xml:space="preserve">12.5355424880981</t>
   </si>
   <si>
     <t xml:space="preserve">12.5966482162476</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4744338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5180807113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4831628799438</t>
+    <t xml:space="preserve">12.4744358062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5180816650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4831647872925</t>
   </si>
   <si>
     <t xml:space="preserve">12.6228351593018</t>
@@ -1088,67 +1091,67 @@
     <t xml:space="preserve">12.6141061782837</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7625074386597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7712373733521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8236131668091</t>
+    <t xml:space="preserve">12.762508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7712383270264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8236141204834</t>
   </si>
   <si>
     <t xml:space="preserve">12.6490249633789</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7363185882568</t>
+    <t xml:space="preserve">12.7363195419312</t>
   </si>
   <si>
     <t xml:space="preserve">12.7450494766235</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2212772369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1601734161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2474689483643</t>
+    <t xml:space="preserve">12.2212781906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.160174369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2474679946899</t>
   </si>
   <si>
     <t xml:space="preserve">12.4482460021973</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4395170211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4046001434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3609523773193</t>
+    <t xml:space="preserve">12.4395160675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4046010971069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.360951423645</t>
   </si>
   <si>
     <t xml:space="preserve">11.7236995697021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2086601257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.086446762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2959547042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2173881530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4181680679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3396005630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1650123596191</t>
+    <t xml:space="preserve">11.2086591720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0864458084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.295952796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2173891067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4181671142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3396015167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1650114059448</t>
   </si>
   <si>
     <t xml:space="preserve">11.1911993026733</t>
@@ -1163,46 +1166,46 @@
     <t xml:space="preserve">11.0515279769897</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9991502761841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1999292373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0777187347412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2261190414429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0602579116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8507509231567</t>
+    <t xml:space="preserve">10.9991512298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1999282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0777168273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2261180877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0602569580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8507490158081</t>
   </si>
   <si>
     <t xml:space="preserve">10.8682088851929</t>
   </si>
   <si>
-    <t xml:space="preserve">11.496732711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5665674209595</t>
+    <t xml:space="preserve">11.4967336654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5665693283081</t>
   </si>
   <si>
     <t xml:space="preserve">11.540379524231</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5491104125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6276741027832</t>
+    <t xml:space="preserve">11.5491094589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6276750564575</t>
   </si>
   <si>
     <t xml:space="preserve">11.8721008300781</t>
   </si>
   <si>
-    <t xml:space="preserve">11.758617401123</t>
+    <t xml:space="preserve">11.7586183547974</t>
   </si>
   <si>
     <t xml:space="preserve">10.8071031570435</t>
@@ -1220,49 +1223,49 @@
     <t xml:space="preserve">10.5626773834229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5277585983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5975952148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5364904403687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4753828048706</t>
+    <t xml:space="preserve">10.5277576446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5975942611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.53648853302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.475380897522</t>
   </si>
   <si>
     <t xml:space="preserve">10.4666528701782</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2920637130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3531684875488</t>
+    <t xml:space="preserve">10.2920618057251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3531694412231</t>
   </si>
   <si>
     <t xml:space="preserve">10.3706283569336</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0738248825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0389089584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82940006256104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71591663360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.484112739563</t>
+    <t xml:space="preserve">10.0738258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0389080047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82940101623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71591758728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4841108322144</t>
   </si>
   <si>
     <t xml:space="preserve">10.6848888397217</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9816932678223</t>
+    <t xml:space="preserve">10.9816913604736</t>
   </si>
   <si>
     <t xml:space="preserve">11.1039056777954</t>
@@ -1274,10 +1277,10 @@
     <t xml:space="preserve">10.7372665405273</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6761608123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8332920074463</t>
+    <t xml:space="preserve">10.6761598587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8332901000977</t>
   </si>
   <si>
     <t xml:space="preserve">10.7809152603149</t>
@@ -1286,25 +1289,25 @@
     <t xml:space="preserve">10.9467754364014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9293155670166</t>
+    <t xml:space="preserve">10.929313659668</t>
   </si>
   <si>
     <t xml:space="preserve">10.7198076248169</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8245620727539</t>
+    <t xml:space="preserve">10.8245601654053</t>
   </si>
   <si>
     <t xml:space="preserve">10.7896432876587</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983722686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8158330917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6325130462646</t>
+    <t xml:space="preserve">10.7983732223511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8158321380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6325120925903</t>
   </si>
   <si>
     <t xml:space="preserve">10.6063241958618</t>
@@ -1316,16 +1319,16 @@
     <t xml:space="preserve">10.5190305709839</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4443550109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9205865859985</t>
+    <t xml:space="preserve">11.4443559646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9205856323242</t>
   </si>
   <si>
     <t xml:space="preserve">10.6499729156494</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5801362991333</t>
+    <t xml:space="preserve">10.580135345459</t>
   </si>
   <si>
     <t xml:space="preserve">10.4317359924316</t>
@@ -1334,13 +1337,13 @@
     <t xml:space="preserve">10.3007926940918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4164323806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7633495330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.683292388916</t>
+    <t xml:space="preserve">10.416431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7633504867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6832914352417</t>
   </si>
   <si>
     <t xml:space="preserve">11.1636400222778</t>
@@ -1352,7 +1355,7 @@
     <t xml:space="preserve">10.9857339859009</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6032333374023</t>
+    <t xml:space="preserve">10.6032342910767</t>
   </si>
   <si>
     <t xml:space="preserve">10.8523044586182</t>
@@ -1361,25 +1364,25 @@
     <t xml:space="preserve">10.8878831863403</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0302095413208</t>
+    <t xml:space="preserve">11.0302085876465</t>
   </si>
   <si>
     <t xml:space="preserve">11.074686050415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0480012893677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.101372718811</t>
+    <t xml:space="preserve">11.0480003356934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1013736724854</t>
   </si>
   <si>
     <t xml:space="preserve">11.3326511383057</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0391054153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1369533538818</t>
+    <t xml:space="preserve">11.0391044616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1369524002075</t>
   </si>
   <si>
     <t xml:space="preserve">10.9145708084106</t>
@@ -1388,7 +1391,7 @@
     <t xml:space="preserve">10.7722463607788</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7277679443359</t>
+    <t xml:space="preserve">10.7277669906616</t>
   </si>
   <si>
     <t xml:space="preserve">10.5142812728882</t>
@@ -1403,7 +1406,7 @@
     <t xml:space="preserve">10.4431180953979</t>
   </si>
   <si>
-    <t xml:space="preserve">10.425329208374</t>
+    <t xml:space="preserve">10.4253273010254</t>
   </si>
   <si>
     <t xml:space="preserve">10.2563161849976</t>
@@ -1421,16 +1424,16 @@
     <t xml:space="preserve">10.211838722229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2385244369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3541641235352</t>
+    <t xml:space="preserve">10.238525390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3541650772095</t>
   </si>
   <si>
     <t xml:space="preserve">10.6299209594727</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6655006408691</t>
+    <t xml:space="preserve">10.6655015945435</t>
   </si>
   <si>
     <t xml:space="preserve">10.6477108001709</t>
@@ -1439,7 +1442,7 @@
     <t xml:space="preserve">10.8967790603638</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8700933456421</t>
+    <t xml:space="preserve">10.8700942993164</t>
   </si>
   <si>
     <t xml:space="preserve">10.8167219161987</t>
@@ -1460,13 +1463,13 @@
     <t xml:space="preserve">10.398642539978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2029447555542</t>
+    <t xml:space="preserve">10.2029438018799</t>
   </si>
   <si>
     <t xml:space="preserve">10.4075365066528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6121292114258</t>
+    <t xml:space="preserve">10.6121301651001</t>
   </si>
   <si>
     <t xml:space="preserve">10.1406764984131</t>
@@ -1478,22 +1481,22 @@
     <t xml:space="preserve">10.1317806243896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0339317321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90939903259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94497966766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0428285598755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82044506072998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82934093475342</t>
+    <t xml:space="preserve">10.0339326858521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90939998626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94497871398926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0428295135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82044410705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8293399810791</t>
   </si>
   <si>
     <t xml:space="preserve">9.98056125640869</t>
@@ -1502,7 +1505,7 @@
     <t xml:space="preserve">10.2741060256958</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2474203109741</t>
+    <t xml:space="preserve">10.2474212646484</t>
   </si>
   <si>
     <t xml:space="preserve">10.1139917373657</t>
@@ -1511,28 +1514,28 @@
     <t xml:space="preserve">9.91829395294189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9271879196167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.087306022644</t>
+    <t xml:space="preserve">9.92718887329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0873050689697</t>
   </si>
   <si>
     <t xml:space="preserve">9.96277046203613</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0695142745972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1851539611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5587577819824</t>
+    <t xml:space="preserve">10.0695133209229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1851530075073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5587587356567</t>
   </si>
   <si>
     <t xml:space="preserve">10.5943384170532</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3630599975586</t>
+    <t xml:space="preserve">10.3630609512329</t>
   </si>
   <si>
     <t xml:space="preserve">10.3274784088135</t>
@@ -1541,16 +1544,16 @@
     <t xml:space="preserve">10.2296304702759</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0517234802246</t>
+    <t xml:space="preserve">10.0517244338989</t>
   </si>
   <si>
     <t xml:space="preserve">10.2207345962524</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87381744384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55358505249023</t>
+    <t xml:space="preserve">9.87381649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55358600616455</t>
   </si>
   <si>
     <t xml:space="preserve">9.57137584686279</t>
@@ -1562,16 +1565,16 @@
     <t xml:space="preserve">8.83751106262207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74855804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41943168640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73966217041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83306217193604</t>
+    <t xml:space="preserve">8.74855709075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41943073272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73966312408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83306312561035</t>
   </si>
   <si>
     <t xml:space="preserve">8.7174243927002</t>
@@ -1580,7 +1583,7 @@
     <t xml:space="preserve">8.60178470611572</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46390724182129</t>
+    <t xml:space="preserve">8.46390819549561</t>
   </si>
   <si>
     <t xml:space="preserve">8.5306224822998</t>
@@ -1589,10 +1592,10 @@
     <t xml:space="preserve">8.37940216064453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65960502624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5261754989624</t>
+    <t xml:space="preserve">8.65960597991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52617454528809</t>
   </si>
   <si>
     <t xml:space="preserve">8.79303550720215</t>
@@ -1604,13 +1607,13 @@
     <t xml:space="preserve">8.89088344573975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80192947387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75745391845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53507041931152</t>
+    <t xml:space="preserve">8.80193042755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75745296478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53506946563721</t>
   </si>
   <si>
     <t xml:space="preserve">8.41053581237793</t>
@@ -1619,43 +1622,43 @@
     <t xml:space="preserve">8.31268787384033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07695865631104</t>
+    <t xml:space="preserve">8.07695960998535</t>
   </si>
   <si>
     <t xml:space="preserve">8.01024532318115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05472278594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11698913574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29489612579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32158279418945</t>
+    <t xml:space="preserve">8.05472183227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1169900894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29489517211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32158184051514</t>
   </si>
   <si>
     <t xml:space="preserve">8.29934310913086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55286026000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58844375610352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93091106414795</t>
+    <t xml:space="preserve">8.55286121368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5884428024292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93091201782227</t>
   </si>
   <si>
     <t xml:space="preserve">8.92201709747314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85974884033203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0732364654541</t>
+    <t xml:space="preserve">8.85974979400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07323741912842</t>
   </si>
   <si>
     <t xml:space="preserve">8.79748153686523</t>
@@ -1667,16 +1670,16 @@
     <t xml:space="preserve">8.45946025848389</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49059295654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27265739440918</t>
+    <t xml:space="preserve">8.49059391021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27265644073486</t>
   </si>
   <si>
     <t xml:space="preserve">8.38385009765625</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64181518554688</t>
+    <t xml:space="preserve">8.64181423187256</t>
   </si>
   <si>
     <t xml:space="preserve">8.09920024871826</t>
@@ -1685,7 +1688,7 @@
     <t xml:space="preserve">7.97911262512207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29044914245605</t>
+    <t xml:space="preserve">8.29044818878174</t>
   </si>
   <si>
     <t xml:space="preserve">8.10364532470703</t>
@@ -1697,7 +1700,7 @@
     <t xml:space="preserve">7.86347198486328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9123969078064</t>
+    <t xml:space="preserve">7.91239595413208</t>
   </si>
   <si>
     <t xml:space="preserve">7.97021579742432</t>
@@ -1709,13 +1712,13 @@
     <t xml:space="preserve">8.25486755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22818088531494</t>
+    <t xml:space="preserve">8.22818183898926</t>
   </si>
   <si>
     <t xml:space="preserve">9.05544662475586</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14439868927002</t>
+    <t xml:space="preserve">9.14439964294434</t>
   </si>
   <si>
     <t xml:space="preserve">8.78858661651611</t>
@@ -1733,16 +1736,16 @@
     <t xml:space="preserve">8.67294692993164</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80637741088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81082439422607</t>
+    <t xml:space="preserve">8.80637645721436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81082534790039</t>
   </si>
   <si>
     <t xml:space="preserve">8.77524375915527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91312313079834</t>
+    <t xml:space="preserve">8.91312217712402</t>
   </si>
   <si>
     <t xml:space="preserve">9.17998123168945</t>
@@ -1751,16 +1754,16 @@
     <t xml:space="preserve">8.88198757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87754058837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86864376068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85085391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81527137756348</t>
+    <t xml:space="preserve">8.87753963470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86864280700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85085487365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81527233123779</t>
   </si>
   <si>
     <t xml:space="preserve">8.81972122192383</t>
@@ -1787,10 +1790,10 @@
     <t xml:space="preserve">9.42905044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29561996459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34899234771729</t>
+    <t xml:space="preserve">9.29562091827393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34899139404297</t>
   </si>
   <si>
     <t xml:space="preserve">9.62474727630615</t>
@@ -1802,10 +1805,10 @@
     <t xml:space="preserve">9.41125869750977</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46463012695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66032886505127</t>
+    <t xml:space="preserve">9.46463108062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66032791137695</t>
   </si>
   <si>
     <t xml:space="preserve">9.26893329620361</t>
@@ -1814,19 +1817,19 @@
     <t xml:space="preserve">9.1355037689209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10881805419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11771488189697</t>
+    <t xml:space="preserve">9.1088171005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11771392822266</t>
   </si>
   <si>
     <t xml:space="preserve">9.06434154510498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04655170440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23335456848145</t>
+    <t xml:space="preserve">9.04655265808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23335361480713</t>
   </si>
   <si>
     <t xml:space="preserve">9.47352695465088</t>
@@ -1838,7 +1841,7 @@
     <t xml:space="preserve">9.59806156158447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51800441741943</t>
+    <t xml:space="preserve">9.51800346374512</t>
   </si>
   <si>
     <t xml:space="preserve">9.33120155334473</t>
@@ -1847,13 +1850,13 @@
     <t xml:space="preserve">9.2867259979248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08213233947754</t>
+    <t xml:space="preserve">9.08213329315186</t>
   </si>
   <si>
     <t xml:space="preserve">8.96649360656738</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00207424163818</t>
+    <t xml:space="preserve">9.00207328796387</t>
   </si>
   <si>
     <t xml:space="preserve">8.99318027496338</t>
@@ -1868,13 +1871,13 @@
     <t xml:space="preserve">9.78486442565918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75817680358887</t>
+    <t xml:space="preserve">9.75817775726318</t>
   </si>
   <si>
     <t xml:space="preserve">9.99835109710693</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4342231750488</t>
+    <t xml:space="preserve">10.4342222213745</t>
   </si>
   <si>
     <t xml:space="preserve">10.5676527023315</t>
@@ -1883,7 +1886,7 @@
     <t xml:space="preserve">10.1673631668091</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97166538238525</t>
+    <t xml:space="preserve">9.97166442871094</t>
   </si>
   <si>
     <t xml:space="preserve">9.85602760314941</t>
@@ -1895,7 +1898,7 @@
     <t xml:space="preserve">9.27782917022705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16218948364258</t>
+    <t xml:space="preserve">9.16219043731689</t>
   </si>
   <si>
     <t xml:space="preserve">9.07778263092041</t>
@@ -1907,10 +1910,10 @@
     <t xml:space="preserve">9.05959987640381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72776317596436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84595203399658</t>
+    <t xml:space="preserve">8.72776412963867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84595108032227</t>
   </si>
   <si>
     <t xml:space="preserve">8.8914098739624</t>
@@ -1937,19 +1940,16 @@
     <t xml:space="preserve">8.8823184967041</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9959602355957</t>
+    <t xml:space="preserve">8.99596118927002</t>
   </si>
   <si>
     <t xml:space="preserve">8.97777652740479</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21870136260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07323837280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04596328735352</t>
+    <t xml:space="preserve">9.21870040893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04596424102783</t>
   </si>
   <si>
     <t xml:space="preserve">9.04141712188721</t>
@@ -1994,16 +1994,16 @@
     <t xml:space="preserve">9.25506591796875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12778568267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10960483551025</t>
+    <t xml:space="preserve">9.12778663635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10960388183594</t>
   </si>
   <si>
     <t xml:space="preserve">8.8050422668457</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76413059234619</t>
+    <t xml:space="preserve">8.76412963867188</t>
   </si>
   <si>
     <t xml:space="preserve">8.79140377044678</t>
@@ -2012,46 +2012,46 @@
     <t xml:space="preserve">8.93686676025391</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24597454071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4096212387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34597969055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47774982452393</t>
+    <t xml:space="preserve">9.24597549438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40962028503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34598064422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47774887084961</t>
   </si>
   <si>
     <t xml:space="preserve">8.4277458190918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46865844726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25046539306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05499839782715</t>
+    <t xml:space="preserve">8.46865749359131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25046443939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05499935150146</t>
   </si>
   <si>
     <t xml:space="preserve">7.89589834213257</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92771768569946</t>
+    <t xml:space="preserve">7.92771863937378</t>
   </si>
   <si>
     <t xml:space="preserve">7.90953588485718</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65497589111328</t>
+    <t xml:space="preserve">7.65497541427612</t>
   </si>
   <si>
     <t xml:space="preserve">7.56406211853027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65952110290527</t>
+    <t xml:space="preserve">7.65952157974243</t>
   </si>
   <si>
     <t xml:space="preserve">7.4867844581604</t>
@@ -2060,7 +2060,7 @@
     <t xml:space="preserve">7.46860218048096</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54587841033936</t>
+    <t xml:space="preserve">7.54587888717651</t>
   </si>
   <si>
     <t xml:space="preserve">7.53678703308105</t>
@@ -2069,16 +2069,16 @@
     <t xml:space="preserve">7.7868013381958</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66861295700073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53224229812622</t>
+    <t xml:space="preserve">7.66861343383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5322413444519</t>
   </si>
   <si>
     <t xml:space="preserve">7.45496463775635</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71406984329224</t>
+    <t xml:space="preserve">7.71407079696655</t>
   </si>
   <si>
     <t xml:space="preserve">7.7231616973877</t>
@@ -2087,10 +2087,10 @@
     <t xml:space="preserve">7.59588098526001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8049840927124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07772636413574</t>
+    <t xml:space="preserve">7.80498504638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07772731781006</t>
   </si>
   <si>
     <t xml:space="preserve">8.27773952484131</t>
@@ -2099,13 +2099,13 @@
     <t xml:space="preserve">8.35501480102539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52320671081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59139251708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65503215789795</t>
+    <t xml:space="preserve">8.52320766448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59139156341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65503311157227</t>
   </si>
   <si>
     <t xml:space="preserve">8.51866149902344</t>
@@ -2114,10 +2114,10 @@
     <t xml:space="preserve">8.49138641357422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60503005981445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15955066680908</t>
+    <t xml:space="preserve">8.60502910614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15954971313477</t>
   </si>
   <si>
     <t xml:space="preserve">8.00499629974365</t>
@@ -2129,19 +2129,19 @@
     <t xml:space="preserve">8.02317810058594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11863899230957</t>
+    <t xml:space="preserve">8.11863803863525</t>
   </si>
   <si>
     <t xml:space="preserve">8.12772941589355</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95499324798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78225517272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67315912246704</t>
+    <t xml:space="preserve">7.95499229431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78225660324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6731595993042</t>
   </si>
   <si>
     <t xml:space="preserve">7.727707862854</t>
@@ -2153,10 +2153,10 @@
     <t xml:space="preserve">7.58224391937256</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74589061737061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13682079315186</t>
+    <t xml:space="preserve">7.74589014053345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13682174682617</t>
   </si>
   <si>
     <t xml:space="preserve">8.14591217041016</t>
@@ -2171,10 +2171,10 @@
     <t xml:space="preserve">8.09136390686035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20500659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48684215545654</t>
+    <t xml:space="preserve">8.20500755310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48684120178223</t>
   </si>
   <si>
     <t xml:space="preserve">8.55502796173096</t>
@@ -2189,7 +2189,7 @@
     <t xml:space="preserve">8.9686861038208</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67776012420654</t>
+    <t xml:space="preserve">8.67776107788086</t>
   </si>
   <si>
     <t xml:space="preserve">8.74594593048096</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">9.48235130310059</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71872806549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90964794158936</t>
+    <t xml:space="preserve">9.71872711181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90964889526367</t>
   </si>
   <si>
     <t xml:space="preserve">10.1096591949463</t>
@@ -2216,10 +2216,10 @@
     <t xml:space="preserve">10.0551109313965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81873416900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69145393371582</t>
+    <t xml:space="preserve">9.81873512268066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6914529800415</t>
   </si>
   <si>
     <t xml:space="preserve">9.83691692352295</t>
@@ -2228,10 +2228,10 @@
     <t xml:space="preserve">9.58235645294189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76418590545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65508842468262</t>
+    <t xml:space="preserve">9.76418685913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65508937835693</t>
   </si>
   <si>
     <t xml:space="preserve">9.82782554626465</t>
@@ -2243,10 +2243,10 @@
     <t xml:space="preserve">10.0823850631714</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1642084121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1278429031372</t>
+    <t xml:space="preserve">10.1642074584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1278438568115</t>
   </si>
   <si>
     <t xml:space="preserve">10.2187566757202</t>
@@ -2255,7 +2255,7 @@
     <t xml:space="preserve">10.1732997894287</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2278461456299</t>
+    <t xml:space="preserve">10.2278480529785</t>
   </si>
   <si>
     <t xml:space="preserve">10.2823963165283</t>
@@ -2264,13 +2264,13 @@
     <t xml:space="preserve">10.3642196655273</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2369394302368</t>
+    <t xml:space="preserve">10.2369403839111</t>
   </si>
   <si>
     <t xml:space="preserve">10.2005739212036</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2551212310791</t>
+    <t xml:space="preserve">10.2551221847534</t>
   </si>
   <si>
     <t xml:space="preserve">10.3460369110107</t>
@@ -2279,7 +2279,7 @@
     <t xml:space="preserve">10.4369497299194</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3278541564941</t>
+    <t xml:space="preserve">10.3278532028198</t>
   </si>
   <si>
     <t xml:space="preserve">10.0278367996216</t>
@@ -2294,7 +2294,7 @@
     <t xml:space="preserve">9.63690567016602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87328338623047</t>
+    <t xml:space="preserve">9.87328243255615</t>
   </si>
   <si>
     <t xml:space="preserve">9.98237991333008</t>
@@ -2303,40 +2303,40 @@
     <t xml:space="preserve">10.0642032623291</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0369281768799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0460205078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1187505722046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.091477394104</t>
+    <t xml:space="preserve">10.0369272232056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0460195541382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1187515258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0914764404297</t>
   </si>
   <si>
     <t xml:space="preserve">9.92783069610596</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64599704742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.54599189758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6732702255249</t>
+    <t xml:space="preserve">9.64599800109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.54599094390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67327117919922</t>
   </si>
   <si>
     <t xml:space="preserve">9.53690052032471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35507106781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60054016113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4641695022583</t>
+    <t xml:space="preserve">9.35507202148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60054111480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46416854858398</t>
   </si>
   <si>
     <t xml:space="preserve">9.41871070861816</t>
@@ -2345,55 +2345,55 @@
     <t xml:space="preserve">9.78236865997314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77327728271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55508327484131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5914478302002</t>
+    <t xml:space="preserve">9.77327632904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55508232116699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59144878387451</t>
   </si>
   <si>
     <t xml:space="preserve">9.4914436340332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4278039932251</t>
+    <t xml:space="preserve">9.42780303955078</t>
   </si>
   <si>
     <t xml:space="preserve">8.70048809051514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64139366149902</t>
+    <t xml:space="preserve">8.64139461517334</t>
   </si>
   <si>
     <t xml:space="preserve">8.64594078063965</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40047168731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21864414215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77316427230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87771606445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7004337310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37768793106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44587278366089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.81856536865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89129638671875</t>
+    <t xml:space="preserve">8.40047264099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21864318847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77316474914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87771511077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70043468475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37768745422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44587373733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8185658454895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89129686355591</t>
   </si>
   <si>
     <t xml:space="preserve">6.79583644866943</t>
@@ -2402,7 +2402,7 @@
     <t xml:space="preserve">6.36399364471436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61855411529541</t>
+    <t xml:space="preserve">6.61855459213257</t>
   </si>
   <si>
     <t xml:space="preserve">6.09125185012817</t>
@@ -2417,7 +2417,7 @@
     <t xml:space="preserve">7.37314128875732</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00954151153564</t>
+    <t xml:space="preserve">8.00954055786133</t>
   </si>
   <si>
     <t xml:space="preserve">7.07312488555908</t>
@@ -2426,64 +2426,64 @@
     <t xml:space="preserve">7.27768182754517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70946836471558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54582262039185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04579448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17761993408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06397676467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81850957870483</t>
+    <t xml:space="preserve">6.70946788787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54582166671753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.04579496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17762041091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06397724151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81850910186768</t>
   </si>
   <si>
     <t xml:space="preserve">5.3730297088623</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67304611206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74577665328979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.11397981643677</t>
+    <t xml:space="preserve">5.67304658889771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74577713012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.11397933959961</t>
   </si>
   <si>
     <t xml:space="preserve">6.03670310974121</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85487413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90487718582153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.14580011367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28217124938965</t>
+    <t xml:space="preserve">5.85487461090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90487766265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.14580059051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28217172622681</t>
   </si>
   <si>
     <t xml:space="preserve">6.227623462677</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2776255607605</t>
+    <t xml:space="preserve">6.27762603759766</t>
   </si>
   <si>
     <t xml:space="preserve">6.63673686981201</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83220195770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08676290512085</t>
+    <t xml:space="preserve">6.83220243453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08676242828369</t>
   </si>
   <si>
     <t xml:space="preserve">6.9412989616394</t>
@@ -2504,10 +2504,10 @@
     <t xml:space="preserve">6.71855974197388</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59582614898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45490884780884</t>
+    <t xml:space="preserve">6.59582567214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.454909324646</t>
   </si>
   <si>
     <t xml:space="preserve">5.98215484619141</t>
@@ -2519,7 +2519,7 @@
     <t xml:space="preserve">6.49127388000488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45945453643799</t>
+    <t xml:space="preserve">6.45945501327515</t>
   </si>
   <si>
     <t xml:space="preserve">6.44581699371338</t>
@@ -2531,22 +2531,22 @@
     <t xml:space="preserve">6.83674812316895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42314481735229</t>
+    <t xml:space="preserve">7.42314434051514</t>
   </si>
   <si>
     <t xml:space="preserve">7.79134607315063</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64133977890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60042715072632</t>
+    <t xml:space="preserve">7.64133930206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60042762756348</t>
   </si>
   <si>
     <t xml:space="preserve">7.68679571151733</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08227348327637</t>
+    <t xml:space="preserve">8.08227443695068</t>
   </si>
   <si>
     <t xml:space="preserve">7.96408414840698</t>
@@ -2558,19 +2558,19 @@
     <t xml:space="preserve">7.35950565338135</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62315559387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61861038208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47314786911011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4958758354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43678140640259</t>
+    <t xml:space="preserve">7.62315607070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61861085891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47314739227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49587631225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43678188323975</t>
   </si>
   <si>
     <t xml:space="preserve">7.36405086517334</t>
@@ -2585,16 +2585,16 @@
     <t xml:space="preserve">7.47769355773926</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4322361946106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67770481109619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52315044403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63679313659668</t>
+    <t xml:space="preserve">7.43223667144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67770433425903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5231499671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63679265975952</t>
   </si>
   <si>
     <t xml:space="preserve">7.59133672714233</t>
@@ -2603,22 +2603,22 @@
     <t xml:space="preserve">7.40950727462769</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5140585899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70952463150024</t>
+    <t xml:space="preserve">7.51405811309814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7095251083374</t>
   </si>
   <si>
     <t xml:space="preserve">7.42769002914429</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94584512710571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85493087768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93675327301025</t>
+    <t xml:space="preserve">6.94584560394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85493040084839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93675374984741</t>
   </si>
   <si>
     <t xml:space="preserve">7.00039386749268</t>
@@ -2627,10 +2627,10 @@
     <t xml:space="preserve">6.92766332626343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95493698120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08221626281738</t>
+    <t xml:space="preserve">6.95493745803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08221673965454</t>
   </si>
   <si>
     <t xml:space="preserve">7.31859350204468</t>
@@ -2642,7 +2642,7 @@
     <t xml:space="preserve">7.31404829025269</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30495691299438</t>
+    <t xml:space="preserve">7.30495643615723</t>
   </si>
   <si>
     <t xml:space="preserve">7.26404476165771</t>
@@ -2654,7 +2654,7 @@
     <t xml:space="preserve">7.33223104476929</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34586763381958</t>
+    <t xml:space="preserve">7.34586715698242</t>
   </si>
   <si>
     <t xml:space="preserve">7.35495901107788</t>
@@ -2663,7 +2663,7 @@
     <t xml:space="preserve">7.27313566207886</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62770223617554</t>
+    <t xml:space="preserve">7.6277027130127</t>
   </si>
   <si>
     <t xml:space="preserve">7.55951642990112</t>
@@ -2672,67 +2672,67 @@
     <t xml:space="preserve">7.76407289505005</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88226222991943</t>
+    <t xml:space="preserve">7.88226127624512</t>
   </si>
   <si>
     <t xml:space="preserve">8.26410102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85044145584106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68225002288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13676452636719</t>
+    <t xml:space="preserve">7.85044050216675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68225049972534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1367654800415</t>
   </si>
   <si>
     <t xml:space="preserve">7.24586248397827</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29586505889893</t>
+    <t xml:space="preserve">7.29586458206177</t>
   </si>
   <si>
     <t xml:space="preserve">7.32768440246582</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57769918441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75498151779175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15045833587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20955276489258</t>
+    <t xml:space="preserve">7.57769966125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75498199462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15045738220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.20955181121826</t>
   </si>
   <si>
     <t xml:space="preserve">8.29137516021729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01863193511963</t>
+    <t xml:space="preserve">8.01863288879395</t>
   </si>
   <si>
     <t xml:space="preserve">7.96863031387329</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89135408401489</t>
+    <t xml:space="preserve">7.89135313034058</t>
   </si>
   <si>
     <t xml:space="preserve">7.90499019622803</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85498762130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05954360961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08681869506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25955581665039</t>
+    <t xml:space="preserve">7.85498666763306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05954456329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08681774139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25955486297607</t>
   </si>
   <si>
     <t xml:space="preserve">8.28228282928467</t>
@@ -2750,7 +2750,7 @@
     <t xml:space="preserve">8.10954666137695</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9459023475647</t>
+    <t xml:space="preserve">7.94590330123901</t>
   </si>
   <si>
     <t xml:space="preserve">8.00045013427734</t>
@@ -2771,7 +2771,7 @@
     <t xml:space="preserve">9.73691177368164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.191481590271</t>
+    <t xml:space="preserve">10.1914806365967</t>
   </si>
   <si>
     <t xml:space="preserve">9.93692207336426</t>
@@ -2783,7 +2783,7 @@
     <t xml:space="preserve">9.70963764190674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70054626464844</t>
+    <t xml:space="preserve">9.70054531097412</t>
   </si>
   <si>
     <t xml:space="preserve">9.88237476348877</t>
@@ -2798,31 +2798,31 @@
     <t xml:space="preserve">9.75509452819824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72782039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96419620513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84600925445557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36416244506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1005697250366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2642135620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4642238616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4914979934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3005800247192</t>
+    <t xml:space="preserve">9.72781944274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96419715881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84600830078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36416339874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1005687713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.264214515686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4642248153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4914989471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3005790710449</t>
   </si>
   <si>
     <t xml:space="preserve">10.0187463760376</t>
@@ -2843,13 +2843,13 @@
     <t xml:space="preserve">10.182391166687</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91873931884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27324867248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50053405761719</t>
+    <t xml:space="preserve">9.91874027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27324962615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5005350112915</t>
   </si>
   <si>
     <t xml:space="preserve">9.62781429290771</t>
@@ -2861,13 +2861,13 @@
     <t xml:space="preserve">9.68236255645752</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52780818939209</t>
+    <t xml:space="preserve">9.52780914306641</t>
   </si>
   <si>
     <t xml:space="preserve">9.51871776580811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22779178619385</t>
+    <t xml:space="preserve">9.22779083251953</t>
   </si>
   <si>
     <t xml:space="preserve">9.4005298614502</t>
@@ -2879,19 +2879,19 @@
     <t xml:space="preserve">9.32779788970947</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30052280426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52351379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53336048126221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52406024932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.77518272399902</t>
+    <t xml:space="preserve">9.30052375793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.523512840271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53336143493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5240592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.77518177032471</t>
   </si>
   <si>
     <t xml:space="preserve">9.92399597167969</t>
@@ -2900,7 +2900,7 @@
     <t xml:space="preserve">10.0821104049683</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1565170288086</t>
+    <t xml:space="preserve">10.1565179824829</t>
   </si>
   <si>
     <t xml:space="preserve">10.1751184463501</t>
@@ -2909,16 +2909,16 @@
     <t xml:space="preserve">10.3053312301636</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3518352508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.147216796875</t>
+    <t xml:space="preserve">10.3518342971802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1472158432007</t>
   </si>
   <si>
     <t xml:space="preserve">10.1007118225098</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0356063842773</t>
+    <t xml:space="preserve">10.035605430603</t>
   </si>
   <si>
     <t xml:space="preserve">10.0542087554932</t>
@@ -2936,10 +2936,10 @@
     <t xml:space="preserve">9.87749195098877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98910236358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9611988067627</t>
+    <t xml:space="preserve">9.98910140991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96119976043701</t>
   </si>
   <si>
     <t xml:space="preserve">10.0449075698853</t>
@@ -2954,7 +2954,7 @@
     <t xml:space="preserve">9.9518985748291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90539455413818</t>
+    <t xml:space="preserve">9.90539360046387</t>
   </si>
   <si>
     <t xml:space="preserve">9.89609432220459</t>
@@ -2966,31 +2966,31 @@
     <t xml:space="preserve">10.1193132400513</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99840259552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.63567066192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67287349700928</t>
+    <t xml:space="preserve">9.99840354919434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.63566970825195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67287254333496</t>
   </si>
   <si>
     <t xml:space="preserve">9.72867870330811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73798084259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1286144256592</t>
+    <t xml:space="preserve">9.73797988891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1286153793335</t>
   </si>
   <si>
     <t xml:space="preserve">10.2495260238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7703723907471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.965690612793</t>
+    <t xml:space="preserve">10.7703733444214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9656896591187</t>
   </si>
   <si>
     <t xml:space="preserve">11.040096282959</t>
@@ -2999,16 +2999,16 @@
     <t xml:space="preserve">11.0773000717163</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1331052780151</t>
+    <t xml:space="preserve">11.1331062316895</t>
   </si>
   <si>
     <t xml:space="preserve">11.2540168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3377246856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3842287063599</t>
+    <t xml:space="preserve">11.3377237319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3842277526855</t>
   </si>
   <si>
     <t xml:space="preserve">11.4586343765259</t>
@@ -3023,31 +3023,31 @@
     <t xml:space="preserve">11.5330410003662</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4214305877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.328423500061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2261142730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4400339126587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4121313095093</t>
+    <t xml:space="preserve">11.4214315414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3284225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.226113319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4400329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.412130355835</t>
   </si>
   <si>
     <t xml:space="preserve">11.3749265670776</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2726182937622</t>
+    <t xml:space="preserve">11.2726173400879</t>
   </si>
   <si>
     <t xml:space="preserve">11.3098211288452</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4493341445923</t>
+    <t xml:space="preserve">11.4493350982666</t>
   </si>
   <si>
     <t xml:space="preserve">11.3191223144531</t>
@@ -3059,31 +3059,31 @@
     <t xml:space="preserve">11.3005199432373</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1982107162476</t>
+    <t xml:space="preserve">11.1982116699219</t>
   </si>
   <si>
     <t xml:space="preserve">11.1517066955566</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1796102523804</t>
+    <t xml:space="preserve">11.1796092987061</t>
   </si>
   <si>
     <t xml:space="preserve">11.2354145050049</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8075761795044</t>
+    <t xml:space="preserve">10.8075752258301</t>
   </si>
   <si>
     <t xml:space="preserve">10.6308603286743</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2681274414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3239336013794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4913463592529</t>
+    <t xml:space="preserve">10.2681264877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3239326477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4913473129272</t>
   </si>
   <si>
     <t xml:space="preserve">10.5006475448608</t>
@@ -3095,40 +3095,40 @@
     <t xml:space="preserve">10.4634447097778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2309226989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1658191680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91469478607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82168674468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0263042449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0635089874268</t>
+    <t xml:space="preserve">10.2309236526489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1658182144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91469573974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82168769836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0263061523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0635080337524</t>
   </si>
   <si>
     <t xml:space="preserve">10.1100130081177</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2030220031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2123222351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1844186782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2216234207153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3890371322632</t>
+    <t xml:space="preserve">10.2030210494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2123212814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.184419631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.221622467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3890390396118</t>
   </si>
   <si>
     <t xml:space="preserve">10.3332328796387</t>
@@ -3140,25 +3140,25 @@
     <t xml:space="preserve">10.5192499160767</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5750551223755</t>
+    <t xml:space="preserve">10.5750541687012</t>
   </si>
   <si>
     <t xml:space="preserve">10.556453704834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6587619781494</t>
+    <t xml:space="preserve">10.6587629318237</t>
   </si>
   <si>
     <t xml:space="preserve">10.7145681381226</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8261775970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9005842208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7238674163818</t>
+    <t xml:space="preserve">10.8261785507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9005851745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7238683700562</t>
   </si>
   <si>
     <t xml:space="preserve">10.6773633956909</t>
@@ -3176,34 +3176,34 @@
     <t xml:space="preserve">11.2447147369385</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0866003036499</t>
+    <t xml:space="preserve">11.0866022109985</t>
   </si>
   <si>
     <t xml:space="preserve">11.1610078811646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9470891952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4541435241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6215591430664</t>
+    <t xml:space="preserve">10.9470882415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4541444778442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6215600967407</t>
   </si>
   <si>
     <t xml:space="preserve">10.8726816177368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9842920303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.26331615448</t>
+    <t xml:space="preserve">10.9842929840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2633171081543</t>
   </si>
   <si>
     <t xml:space="preserve">11.551643371582</t>
   </si>
   <si>
-    <t xml:space="preserve">11.365626335144</t>
+    <t xml:space="preserve">11.3656272888184</t>
   </si>
   <si>
     <t xml:space="preserve">11.3563251495361</t>
@@ -3212,19 +3212,19 @@
     <t xml:space="preserve">11.4865379333496</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5144395828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5795450210571</t>
+    <t xml:space="preserve">11.514440536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5795459747314</t>
   </si>
   <si>
     <t xml:space="preserve">11.6539525985718</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6353511810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5981473922729</t>
+    <t xml:space="preserve">11.635350227356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5981483459473</t>
   </si>
   <si>
     <t xml:space="preserve">11.8771734237671</t>
@@ -3236,16 +3236,16 @@
     <t xml:space="preserve">12.2306041717529</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4445247650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0817918777466</t>
+    <t xml:space="preserve">12.4445238113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0817909240723</t>
   </si>
   <si>
     <t xml:space="preserve">12.2771081924438</t>
   </si>
   <si>
-    <t xml:space="preserve">11.626049041748</t>
+    <t xml:space="preserve">11.6260499954224</t>
   </si>
   <si>
     <t xml:space="preserve">11.6167488098145</t>
@@ -3257,10 +3257,10 @@
     <t xml:space="preserve">11.6725540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5423431396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2168130874634</t>
+    <t xml:space="preserve">11.5423421859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2168140411377</t>
   </si>
   <si>
     <t xml:space="preserve">10.7052669525146</t>
@@ -3272,10 +3272,10 @@
     <t xml:space="preserve">10.7517719268799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9284858703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0959024429321</t>
+    <t xml:space="preserve">10.9284868240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0959014892578</t>
   </si>
   <si>
     <t xml:space="preserve">11.0028944015503</t>
@@ -3287,16 +3287,16 @@
     <t xml:space="preserve">11.1052026748657</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0121946334839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.779673576355</t>
+    <t xml:space="preserve">11.0121936798096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7796726226807</t>
   </si>
   <si>
     <t xml:space="preserve">10.9935922622681</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79378414154053</t>
+    <t xml:space="preserve">9.79378509521484</t>
   </si>
   <si>
     <t xml:space="preserve">9.13807487487793</t>
@@ -3308,7 +3308,7 @@
     <t xml:space="preserve">8.31494998931885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45446395874023</t>
+    <t xml:space="preserve">8.45446491241455</t>
   </si>
   <si>
     <t xml:space="preserve">8.79859447479248</t>
@@ -3323,7 +3323,7 @@
     <t xml:space="preserve">8.8497486114502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99391174316406</t>
+    <t xml:space="preserve">8.99391269683838</t>
   </si>
   <si>
     <t xml:space="preserve">9.42175102233887</t>
@@ -3341,13 +3341,13 @@
     <t xml:space="preserve">9.5147590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4682559967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31014156341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11947345733643</t>
+    <t xml:space="preserve">9.46825504302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31014060974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11947441101074</t>
   </si>
   <si>
     <t xml:space="preserve">9.23108386993408</t>
@@ -3356,13 +3356,13 @@
     <t xml:space="preserve">9.68217468261719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58916568756104</t>
+    <t xml:space="preserve">9.58916664123535</t>
   </si>
   <si>
     <t xml:space="preserve">9.41244983673096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3008394241333</t>
+    <t xml:space="preserve">9.30084037780762</t>
   </si>
   <si>
     <t xml:space="preserve">9.36594581604004</t>
@@ -3380,13 +3380,13 @@
     <t xml:space="preserve">8.66838264465332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5753755569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61257839202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65443134307861</t>
+    <t xml:space="preserve">8.57537460327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61257743835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65443229675293</t>
   </si>
   <si>
     <t xml:space="preserve">8.67303276062012</t>
@@ -3395,25 +3395,25 @@
     <t xml:space="preserve">8.82649707794189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26828670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02646541595459</t>
+    <t xml:space="preserve">9.26828765869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02646446228027</t>
   </si>
   <si>
     <t xml:space="preserve">8.88695335388184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76604175567627</t>
+    <t xml:space="preserve">8.76604080200195</t>
   </si>
   <si>
     <t xml:space="preserve">8.77534294128418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92880725860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80324459075928</t>
+    <t xml:space="preserve">8.92880630493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80324554443359</t>
   </si>
   <si>
     <t xml:space="preserve">8.6032772064209</t>
@@ -3425,13 +3425,13 @@
     <t xml:space="preserve">8.55212211608887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42191028594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20783138275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0077047348022</t>
+    <t xml:space="preserve">8.42191123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20783042907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0077037811279</t>
   </si>
   <si>
     <t xml:space="preserve">10.0387487411499</t>
@@ -14638,7 +14638,7 @@
         <v>14.0055179595947</v>
       </c>
       <c r="G365" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14664,7 +14664,7 @@
         <v>13.9455795288086</v>
       </c>
       <c r="G366" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14690,7 +14690,7 @@
         <v>13.7557764053345</v>
       </c>
       <c r="G367" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14716,7 +14716,7 @@
         <v>13.7158174514771</v>
       </c>
       <c r="G368" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14742,7 +14742,7 @@
         <v>13.406138420105</v>
       </c>
       <c r="G369" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14768,7 +14768,7 @@
         <v>13.2862615585327</v>
       </c>
       <c r="G370" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14794,7 +14794,7 @@
         <v>13.2762718200684</v>
       </c>
       <c r="G371" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14820,7 +14820,7 @@
         <v>13.0864677429199</v>
       </c>
       <c r="G372" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14846,7 +14846,7 @@
         <v>12.996561050415</v>
       </c>
       <c r="G373" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14872,7 +14872,7 @@
         <v>13.3262195587158</v>
       </c>
       <c r="G374" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14898,7 +14898,7 @@
         <v>13.5459928512573</v>
       </c>
       <c r="G375" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -14924,7 +14924,7 @@
         <v>13.3162307739258</v>
       </c>
       <c r="G376" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -14950,7 +14950,7 @@
         <v>13.386157989502</v>
       </c>
       <c r="G377" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -14976,7 +14976,7 @@
         <v>13.2463026046753</v>
       </c>
       <c r="G378" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -15002,7 +15002,7 @@
         <v>12.9566020965576</v>
       </c>
       <c r="G379" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -15028,7 +15028,7 @@
         <v>13.0764780044556</v>
       </c>
       <c r="G380" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -15054,7 +15054,7 @@
         <v>12.7667989730835</v>
       </c>
       <c r="G381" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -15080,7 +15080,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G382" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -15106,7 +15106,7 @@
         <v>12.547025680542</v>
       </c>
       <c r="G383" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -15132,7 +15132,7 @@
         <v>12.7967681884766</v>
       </c>
       <c r="G384" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -15158,7 +15158,7 @@
         <v>12.7368297576904</v>
       </c>
       <c r="G385" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -15184,7 +15184,7 @@
         <v>12.6369333267212</v>
       </c>
       <c r="G386" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -15210,7 +15210,7 @@
         <v>12.7568092346191</v>
       </c>
       <c r="G387" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -15236,7 +15236,7 @@
         <v>13.3262195587158</v>
       </c>
       <c r="G388" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -15262,7 +15262,7 @@
         <v>13.5559825897217</v>
       </c>
       <c r="G389" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -15288,7 +15288,7 @@
         <v>13.6658687591553</v>
       </c>
       <c r="G390" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -15314,7 +15314,7 @@
         <v>13.3961477279663</v>
       </c>
       <c r="G391" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -15340,7 +15340,7 @@
         <v>13.8057241439819</v>
       </c>
       <c r="G392" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -15366,7 +15366,7 @@
         <v>13.7557764053345</v>
       </c>
       <c r="G393" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -15392,7 +15392,7 @@
         <v>13.5459928512573</v>
       </c>
       <c r="G394" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -15418,7 +15418,7 @@
         <v>13.5959405899048</v>
       </c>
       <c r="G395" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -15444,7 +15444,7 @@
         <v>13.536003112793</v>
       </c>
       <c r="G396" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -15470,7 +15470,7 @@
         <v>13.4760646820068</v>
       </c>
       <c r="G397" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -15496,7 +15496,7 @@
         <v>13.5559825897217</v>
       </c>
       <c r="G398" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -15522,7 +15522,7 @@
         <v>13.2463026046753</v>
       </c>
       <c r="G399" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15548,7 +15548,7 @@
         <v>13.4261169433594</v>
       </c>
       <c r="G400" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15574,7 +15574,7 @@
         <v>13.2962512969971</v>
       </c>
       <c r="G401" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15600,7 +15600,7 @@
         <v>13.2862615585327</v>
       </c>
       <c r="G402" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15626,7 +15626,7 @@
         <v>13.2463026046753</v>
       </c>
       <c r="G403" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15652,7 +15652,7 @@
         <v>13.0465087890625</v>
       </c>
       <c r="G404" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15678,7 +15678,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G405" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15704,7 +15704,7 @@
         <v>13.0365200042725</v>
       </c>
       <c r="G406" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15730,7 +15730,7 @@
         <v>13.0564985275269</v>
       </c>
       <c r="G407" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15756,7 +15756,7 @@
         <v>12.9166440963745</v>
       </c>
       <c r="G408" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15782,7 +15782,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G409" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15808,7 +15808,7 @@
         <v>12.966591835022</v>
       </c>
       <c r="G410" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15834,7 +15834,7 @@
         <v>12.8966636657715</v>
       </c>
       <c r="G411" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15860,7 +15860,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G412" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15886,7 +15886,7 @@
         <v>12.9066543579102</v>
       </c>
       <c r="G413" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -15912,7 +15912,7 @@
         <v>12.6669015884399</v>
       </c>
       <c r="G414" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -15938,7 +15938,7 @@
         <v>12.7867784500122</v>
       </c>
       <c r="G415" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -15964,7 +15964,7 @@
         <v>12.8866748809814</v>
       </c>
       <c r="G416" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -15990,7 +15990,7 @@
         <v>12.7568092346191</v>
       </c>
       <c r="G417" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -16016,7 +16016,7 @@
         <v>12.7368297576904</v>
       </c>
       <c r="G418" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -16042,7 +16042,7 @@
         <v>12.696870803833</v>
       </c>
       <c r="G419" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -16068,7 +16068,7 @@
         <v>12.7667989730835</v>
       </c>
       <c r="G420" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -16094,7 +16094,7 @@
         <v>12.9466133117676</v>
       </c>
       <c r="G421" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -16120,7 +16120,7 @@
         <v>13.3561887741089</v>
       </c>
       <c r="G422" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -16146,7 +16146,7 @@
         <v>13.2263231277466</v>
       </c>
       <c r="G423" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -16172,7 +16172,7 @@
         <v>13.1464061737061</v>
       </c>
       <c r="G424" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -16198,7 +16198,7 @@
         <v>12.8966636657715</v>
       </c>
       <c r="G425" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -16224,7 +16224,7 @@
         <v>13.1064472198486</v>
       </c>
       <c r="G426" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -16250,7 +16250,7 @@
         <v>13.0864677429199</v>
       </c>
       <c r="G427" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -16276,7 +16276,7 @@
         <v>13.3461999893188</v>
       </c>
       <c r="G428" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -16302,7 +16302,7 @@
         <v>13.2862615585327</v>
       </c>
       <c r="G429" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -16328,7 +16328,7 @@
         <v>13.4361066818237</v>
       </c>
       <c r="G430" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -16354,7 +16354,7 @@
         <v>13.4960451126099</v>
       </c>
       <c r="G431" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -16380,7 +16380,7 @@
         <v>13.5160236358643</v>
       </c>
       <c r="G432" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -16406,7 +16406,7 @@
         <v>13.3961477279663</v>
       </c>
       <c r="G433" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -16432,7 +16432,7 @@
         <v>13.6458902359009</v>
       </c>
       <c r="G434" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -16458,7 +16458,7 @@
         <v>13.5160236358643</v>
       </c>
       <c r="G435" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -16484,7 +16484,7 @@
         <v>13.5260143280029</v>
       </c>
       <c r="G436" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -16510,7 +16510,7 @@
         <v>13.6658687591553</v>
       </c>
       <c r="G437" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -16536,7 +16536,7 @@
         <v>13.7058277130127</v>
       </c>
       <c r="G438" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16562,7 +16562,7 @@
         <v>13.8556728363037</v>
       </c>
       <c r="G439" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16614,7 +16614,7 @@
         <v>13.9355897903442</v>
       </c>
       <c r="G441" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16640,7 +16640,7 @@
         <v>14.135383605957</v>
       </c>
       <c r="G442" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16666,7 +16666,7 @@
         <v>14.135383605957</v>
       </c>
       <c r="G443" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -16692,7 +16692,7 @@
         <v>14.0954246520996</v>
       </c>
       <c r="G444" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -16718,7 +16718,7 @@
         <v>14.135383605957</v>
       </c>
       <c r="G445" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16744,7 +16744,7 @@
         <v>14.1653528213501</v>
       </c>
       <c r="G446" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16770,7 +16770,7 @@
         <v>14.2952184677124</v>
       </c>
       <c r="G447" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16848,7 +16848,7 @@
         <v>14.3451671600342</v>
       </c>
       <c r="G450" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16900,7 +16900,7 @@
         <v>14.4150943756104</v>
       </c>
       <c r="G452" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -16926,7 +16926,7 @@
         <v>14.2752389907837</v>
       </c>
       <c r="G453" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -16952,7 +16952,7 @@
         <v>14.3251867294312</v>
       </c>
       <c r="G454" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -16978,7 +16978,7 @@
         <v>14.285228729248</v>
       </c>
       <c r="G455" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -17004,7 +17004,7 @@
         <v>14.4450626373291</v>
       </c>
       <c r="G456" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -17030,7 +17030,7 @@
         <v>14.4350738525391</v>
       </c>
       <c r="G457" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -17056,7 +17056,7 @@
         <v>14.4450626373291</v>
       </c>
       <c r="G458" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -17082,7 +17082,7 @@
         <v>14.6048984527588</v>
       </c>
       <c r="G459" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -17108,7 +17108,7 @@
         <v>14.6148881912231</v>
       </c>
       <c r="G460" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -17134,7 +17134,7 @@
         <v>14.674825668335</v>
       </c>
       <c r="G461" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -17160,7 +17160,7 @@
         <v>14.4750318527222</v>
       </c>
       <c r="G462" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -17186,7 +17186,7 @@
         <v>14.5749292373657</v>
       </c>
       <c r="G463" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -17212,7 +17212,7 @@
         <v>14.5849189758301</v>
       </c>
       <c r="G464" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -17238,7 +17238,7 @@
         <v>13.9855375289917</v>
       </c>
       <c r="G465" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -17290,7 +17290,7 @@
         <v>13.9156112670898</v>
       </c>
       <c r="G467" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -17316,7 +17316,7 @@
         <v>13.9855375289917</v>
       </c>
       <c r="G468" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -17342,7 +17342,7 @@
         <v>14.0155067443848</v>
       </c>
       <c r="G469" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -17368,7 +17368,7 @@
         <v>14.1653528213501</v>
       </c>
       <c r="G470" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -17394,7 +17394,7 @@
         <v>14.2452697753906</v>
       </c>
       <c r="G471" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -17420,7 +17420,7 @@
         <v>14.2352800369263</v>
       </c>
       <c r="G472" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -17446,7 +17446,7 @@
         <v>14.1953220367432</v>
       </c>
       <c r="G473" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -17472,7 +17472,7 @@
         <v>14.1453733444214</v>
       </c>
       <c r="G474" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -17498,7 +17498,7 @@
         <v>14.0155067443848</v>
       </c>
       <c r="G475" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -17524,7 +17524,7 @@
         <v>13.6458902359009</v>
       </c>
       <c r="G476" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17550,7 +17550,7 @@
         <v>13.416127204895</v>
       </c>
       <c r="G477" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17576,7 +17576,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G478" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17602,7 +17602,7 @@
         <v>12.7867784500122</v>
       </c>
       <c r="G479" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17628,7 +17628,7 @@
         <v>12.8267374038696</v>
       </c>
       <c r="G480" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17654,7 +17654,7 @@
         <v>12.6868810653687</v>
       </c>
       <c r="G481" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17680,7 +17680,7 @@
         <v>12.9266328811646</v>
       </c>
       <c r="G482" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17706,7 +17706,7 @@
         <v>12.7967681884766</v>
       </c>
       <c r="G483" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17732,7 +17732,7 @@
         <v>12.7368297576904</v>
       </c>
       <c r="G484" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17758,7 +17758,7 @@
         <v>13.0564985275269</v>
       </c>
       <c r="G485" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17784,7 +17784,7 @@
         <v>12.9166440963745</v>
       </c>
       <c r="G486" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17810,7 +17810,7 @@
         <v>13.0465087890625</v>
       </c>
       <c r="G487" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17836,7 +17836,7 @@
         <v>12.8966636657715</v>
       </c>
       <c r="G488" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17862,7 +17862,7 @@
         <v>12.8367261886597</v>
       </c>
       <c r="G489" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17888,7 +17888,7 @@
         <v>13.0664892196655</v>
       </c>
       <c r="G490" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -17914,7 +17914,7 @@
         <v>13.0564985275269</v>
       </c>
       <c r="G491" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -17940,7 +17940,7 @@
         <v>12.9765815734863</v>
       </c>
       <c r="G492" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -17966,7 +17966,7 @@
         <v>12.7767877578735</v>
       </c>
       <c r="G493" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -17992,7 +17992,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G494" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -18018,7 +18018,7 @@
         <v>12.8067569732666</v>
       </c>
       <c r="G495" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -18044,7 +18044,7 @@
         <v>12.7268400192261</v>
       </c>
       <c r="G496" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -18070,7 +18070,7 @@
         <v>12.7168502807617</v>
       </c>
       <c r="G497" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -18096,7 +18096,7 @@
         <v>12.7268400192261</v>
       </c>
       <c r="G498" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -18122,7 +18122,7 @@
         <v>12.696870803833</v>
       </c>
       <c r="G499" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -18148,7 +18148,7 @@
         <v>12.6469230651855</v>
       </c>
       <c r="G500" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -18174,7 +18174,7 @@
         <v>12.6469230651855</v>
       </c>
       <c r="G501" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -18200,7 +18200,7 @@
         <v>12.6369333267212</v>
       </c>
       <c r="G502" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -18226,7 +18226,7 @@
         <v>12.5869846343994</v>
       </c>
       <c r="G503" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -18252,7 +18252,7 @@
         <v>12.816746711731</v>
       </c>
       <c r="G504" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -18278,7 +18278,7 @@
         <v>12.6768922805786</v>
       </c>
       <c r="G505" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -18304,7 +18304,7 @@
         <v>12.7867784500122</v>
       </c>
       <c r="G506" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -18330,7 +18330,7 @@
         <v>12.8067569732666</v>
       </c>
       <c r="G507" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18356,7 +18356,7 @@
         <v>12.7268400192261</v>
       </c>
       <c r="G508" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -18382,7 +18382,7 @@
         <v>12.846715927124</v>
       </c>
       <c r="G509" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -18408,7 +18408,7 @@
         <v>12.846715927124</v>
       </c>
       <c r="G510" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18434,7 +18434,7 @@
         <v>12.6569118499756</v>
       </c>
       <c r="G511" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18460,7 +18460,7 @@
         <v>12.4171600341797</v>
       </c>
       <c r="G512" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18486,7 +18486,7 @@
         <v>12.4371385574341</v>
       </c>
       <c r="G513" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18512,7 +18512,7 @@
         <v>12.8267374038696</v>
       </c>
       <c r="G514" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18538,7 +18538,7 @@
         <v>13.1563959121704</v>
       </c>
       <c r="G515" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18564,7 +18564,7 @@
         <v>13.2363128662109</v>
       </c>
       <c r="G516" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18590,7 +18590,7 @@
         <v>13.2463026046753</v>
       </c>
       <c r="G517" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18616,7 +18616,7 @@
         <v>13.2063436508179</v>
       </c>
       <c r="G518" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18642,7 +18642,7 @@
         <v>13.2163343429565</v>
       </c>
       <c r="G519" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18668,7 +18668,7 @@
         <v>13.3262195587158</v>
       </c>
       <c r="G520" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18694,7 +18694,7 @@
         <v>13.3561887741089</v>
       </c>
       <c r="G521" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -18720,7 +18720,7 @@
         <v>13.3062410354614</v>
       </c>
       <c r="G522" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18746,7 +18746,7 @@
         <v>13.2163343429565</v>
       </c>
       <c r="G523" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18772,7 +18772,7 @@
         <v>13.2862615585327</v>
       </c>
       <c r="G524" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18798,7 +18798,7 @@
         <v>13.536003112793</v>
       </c>
       <c r="G525" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18824,7 +18824,7 @@
         <v>13.5859518051147</v>
       </c>
       <c r="G526" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18850,7 +18850,7 @@
         <v>13.5459928512573</v>
       </c>
       <c r="G527" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18876,7 +18876,7 @@
         <v>13.3262195587158</v>
       </c>
       <c r="G528" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18902,7 +18902,7 @@
         <v>13.2762718200684</v>
       </c>
       <c r="G529" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -18928,7 +18928,7 @@
         <v>13.3062410354614</v>
       </c>
       <c r="G530" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -18954,7 +18954,7 @@
         <v>13.4560861587524</v>
       </c>
       <c r="G531" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -18980,7 +18980,7 @@
         <v>13.2163343429565</v>
       </c>
       <c r="G532" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -19006,7 +19006,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G533" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -19032,7 +19032,7 @@
         <v>12.816746711731</v>
       </c>
       <c r="G534" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -19058,7 +19058,7 @@
         <v>12.6469230651855</v>
       </c>
       <c r="G535" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -19084,7 +19084,7 @@
         <v>12.696870803833</v>
       </c>
       <c r="G536" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -19110,7 +19110,7 @@
         <v>12.3672122955322</v>
       </c>
       <c r="G537" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -19136,7 +19136,7 @@
         <v>12.7368297576904</v>
       </c>
       <c r="G538" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -19162,7 +19162,7 @@
         <v>12.2373456954956</v>
       </c>
       <c r="G539" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -19188,7 +19188,7 @@
         <v>12.1474390029907</v>
       </c>
       <c r="G540" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -19214,7 +19214,7 @@
         <v>12.1973867416382</v>
       </c>
       <c r="G541" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -19240,7 +19240,7 @@
         <v>12.0875005722046</v>
       </c>
       <c r="G542" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -19266,7 +19266,7 @@
         <v>12.0475416183472</v>
       </c>
       <c r="G543" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -19292,7 +19292,7 @@
         <v>12.127459526062</v>
       </c>
       <c r="G544" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -19318,7 +19318,7 @@
         <v>12.0875005722046</v>
       </c>
       <c r="G545" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -19344,7 +19344,7 @@
         <v>12.0575323104858</v>
       </c>
       <c r="G546" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -19370,7 +19370,7 @@
         <v>11.9876041412354</v>
       </c>
       <c r="G547" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -19396,7 +19396,7 @@
         <v>11.9776153564453</v>
       </c>
       <c r="G548" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -19422,7 +19422,7 @@
         <v>11.7778205871582</v>
       </c>
       <c r="G549" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19448,7 +19448,7 @@
         <v>11.8477487564087</v>
       </c>
       <c r="G550" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19474,7 +19474,7 @@
         <v>11.8677282333374</v>
       </c>
       <c r="G551" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19500,7 +19500,7 @@
         <v>11.5280790328979</v>
       </c>
       <c r="G552" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19526,7 +19526,7 @@
         <v>11.4881210327148</v>
       </c>
       <c r="G553" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19552,7 +19552,7 @@
         <v>11.2483692169189</v>
       </c>
       <c r="G554" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19578,7 +19578,7 @@
         <v>11.1185026168823</v>
       </c>
       <c r="G555" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19604,7 +19604,7 @@
         <v>11.9975938796997</v>
       </c>
       <c r="G556" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19630,7 +19630,7 @@
         <v>12.2273559570312</v>
       </c>
       <c r="G557" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19656,7 +19656,7 @@
         <v>12.5670051574707</v>
       </c>
       <c r="G558" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19682,7 +19682,7 @@
         <v>12.8866748809814</v>
       </c>
       <c r="G559" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19708,7 +19708,7 @@
         <v>12.8267374038696</v>
       </c>
       <c r="G560" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19734,7 +19734,7 @@
         <v>12.7767877578735</v>
       </c>
       <c r="G561" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19760,7 +19760,7 @@
         <v>12.8267374038696</v>
       </c>
       <c r="G562" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19786,7 +19786,7 @@
         <v>12.6569118499756</v>
       </c>
       <c r="G563" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19812,7 +19812,7 @@
         <v>12.9066543579102</v>
       </c>
       <c r="G564" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19838,7 +19838,7 @@
         <v>12.846715927124</v>
       </c>
       <c r="G565" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19864,7 +19864,7 @@
         <v>12.7068605422974</v>
       </c>
       <c r="G566" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19890,7 +19890,7 @@
         <v>12.7967681884766</v>
       </c>
       <c r="G567" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -19916,7 +19916,7 @@
         <v>12.7268400192261</v>
       </c>
       <c r="G568" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -19942,7 +19942,7 @@
         <v>12.5769948959351</v>
       </c>
       <c r="G569" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -19968,7 +19968,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G570" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -19994,7 +19994,7 @@
         <v>12.2173671722412</v>
       </c>
       <c r="G571" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -20020,7 +20020,7 @@
         <v>12.397180557251</v>
       </c>
       <c r="G572" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -20046,7 +20046,7 @@
         <v>12.3372430801392</v>
       </c>
       <c r="G573" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -20072,7 +20072,7 @@
         <v>12.5270471572876</v>
       </c>
       <c r="G574" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -20098,7 +20098,7 @@
         <v>12.5070667266846</v>
       </c>
       <c r="G575" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -20124,7 +20124,7 @@
         <v>12.2673149108887</v>
       </c>
       <c r="G576" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -20150,7 +20150,7 @@
         <v>12.3871908187866</v>
       </c>
       <c r="G577" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -20176,7 +20176,7 @@
         <v>12.3472318649292</v>
       </c>
       <c r="G578" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -20202,7 +20202,7 @@
         <v>12.3572216033936</v>
       </c>
       <c r="G579" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -20228,7 +20228,7 @@
         <v>12.3772010803223</v>
       </c>
       <c r="G580" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -20254,7 +20254,7 @@
         <v>12.1973867416382</v>
       </c>
       <c r="G581" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -20280,7 +20280,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G582" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -20306,7 +20306,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G583" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -20332,7 +20332,7 @@
         <v>12.2673149108887</v>
       </c>
       <c r="G584" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -20358,7 +20358,7 @@
         <v>12.397180557251</v>
       </c>
       <c r="G585" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -20384,7 +20384,7 @@
         <v>12.1674175262451</v>
       </c>
       <c r="G586" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20410,7 +20410,7 @@
         <v>12.1374492645264</v>
       </c>
       <c r="G587" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -20436,7 +20436,7 @@
         <v>12.1674175262451</v>
       </c>
       <c r="G588" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20462,7 +20462,7 @@
         <v>12.127459526062</v>
       </c>
       <c r="G589" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -20488,7 +20488,7 @@
         <v>12.2073774337769</v>
       </c>
       <c r="G590" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20514,7 +20514,7 @@
         <v>12.0375528335571</v>
       </c>
       <c r="G591" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20540,7 +20540,7 @@
         <v>12.2373456954956</v>
       </c>
       <c r="G592" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20566,7 +20566,7 @@
         <v>12.127459526062</v>
       </c>
       <c r="G593" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20592,7 +20592,7 @@
         <v>12.2373456954956</v>
       </c>
       <c r="G594" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20618,7 +20618,7 @@
         <v>12.9266328811646</v>
       </c>
       <c r="G595" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20644,7 +20644,7 @@
         <v>12.8067569732666</v>
       </c>
       <c r="G596" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20670,7 +20670,7 @@
         <v>12.966591835022</v>
       </c>
       <c r="G597" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20696,7 +20696,7 @@
         <v>13.0964584350586</v>
       </c>
       <c r="G598" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20722,7 +20722,7 @@
         <v>12.6369333267212</v>
       </c>
       <c r="G599" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20748,7 +20748,7 @@
         <v>12.4970779418945</v>
       </c>
       <c r="G600" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20774,7 +20774,7 @@
         <v>12.2173671722412</v>
       </c>
       <c r="G601" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20800,7 +20800,7 @@
         <v>12.1674175262451</v>
       </c>
       <c r="G602" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20826,7 +20826,7 @@
         <v>12.1873979568481</v>
       </c>
       <c r="G603" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20852,7 +20852,7 @@
         <v>12.1074800491333</v>
       </c>
       <c r="G604" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20878,7 +20878,7 @@
         <v>11.9776153564453</v>
       </c>
       <c r="G605" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20904,7 +20904,7 @@
         <v>11.9376564025879</v>
       </c>
       <c r="G606" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -20930,7 +20930,7 @@
         <v>11.7878112792969</v>
       </c>
       <c r="G607" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -20956,7 +20956,7 @@
         <v>11.6979036331177</v>
       </c>
       <c r="G608" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -20982,7 +20982,7 @@
         <v>12.0875005722046</v>
       </c>
       <c r="G609" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -21008,7 +21008,7 @@
         <v>11.9975938796997</v>
       </c>
       <c r="G610" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -21034,7 +21034,7 @@
         <v>12.5370359420776</v>
       </c>
       <c r="G611" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -21060,7 +21060,7 @@
         <v>12.427149772644</v>
       </c>
       <c r="G612" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -21086,7 +21086,7 @@
         <v>12.3372430801392</v>
       </c>
       <c r="G613" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -21112,7 +21112,7 @@
         <v>11.9076871871948</v>
       </c>
       <c r="G614" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -21138,7 +21138,7 @@
         <v>12.1873979568481</v>
       </c>
       <c r="G615" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -21164,7 +21164,7 @@
         <v>12.2273559570312</v>
       </c>
       <c r="G616" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -21190,7 +21190,7 @@
         <v>12.3871908187866</v>
       </c>
       <c r="G617" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -21216,7 +21216,7 @@
         <v>12.4371385574341</v>
       </c>
       <c r="G618" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -21242,7 +21242,7 @@
         <v>12.4071702957153</v>
       </c>
       <c r="G619" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -21268,7 +21268,7 @@
         <v>12.4671087265015</v>
       </c>
       <c r="G620" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -21294,7 +21294,7 @@
         <v>12.7268400192261</v>
       </c>
       <c r="G621" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -21320,7 +21320,7 @@
         <v>12.397180557251</v>
       </c>
       <c r="G622" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -21346,7 +21346,7 @@
         <v>12.427149772644</v>
       </c>
       <c r="G623" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -21372,7 +21372,7 @@
         <v>12.5070667266846</v>
       </c>
       <c r="G624" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -21398,7 +21398,7 @@
         <v>12.397180557251</v>
       </c>
       <c r="G625" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21424,7 +21424,7 @@
         <v>12.5070667266846</v>
       </c>
       <c r="G626" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21450,7 +21450,7 @@
         <v>12.2573251724243</v>
       </c>
       <c r="G627" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21476,7 +21476,7 @@
         <v>12.2273559570312</v>
       </c>
       <c r="G628" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21502,7 +21502,7 @@
         <v>12.0974912643433</v>
       </c>
       <c r="G629" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21528,7 +21528,7 @@
         <v>12.0475416183472</v>
       </c>
       <c r="G630" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21554,7 +21554,7 @@
         <v>11.8077898025513</v>
       </c>
       <c r="G631" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21580,7 +21580,7 @@
         <v>11.7978010177612</v>
       </c>
       <c r="G632" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21606,7 +21606,7 @@
         <v>11.548059463501</v>
       </c>
       <c r="G633" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21632,7 +21632,7 @@
         <v>11.7278728485107</v>
       </c>
       <c r="G634" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21658,7 +21658,7 @@
         <v>11.7078943252563</v>
       </c>
       <c r="G635" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21684,7 +21684,7 @@
         <v>11.5180902481079</v>
       </c>
       <c r="G636" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21710,7 +21710,7 @@
         <v>11.5780277252197</v>
       </c>
       <c r="G637" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21736,7 +21736,7 @@
         <v>11.3382759094238</v>
       </c>
       <c r="G638" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21762,7 +21762,7 @@
         <v>11.3682451248169</v>
       </c>
       <c r="G639" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21788,7 +21788,7 @@
         <v>11.3682451248169</v>
       </c>
       <c r="G640" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21814,7 +21814,7 @@
         <v>11.4681406021118</v>
       </c>
       <c r="G641" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21840,7 +21840,7 @@
         <v>11.4981098175049</v>
       </c>
       <c r="G642" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21866,7 +21866,7 @@
         <v>11.6279764175415</v>
       </c>
       <c r="G643" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21892,7 +21892,7 @@
         <v>11.9376564025879</v>
       </c>
       <c r="G644" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -21918,7 +21918,7 @@
         <v>11.7278728485107</v>
       </c>
       <c r="G645" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -21944,7 +21944,7 @@
         <v>11.9776153564453</v>
       </c>
       <c r="G646" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -21970,7 +21970,7 @@
         <v>11.9576349258423</v>
       </c>
       <c r="G647" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -21996,7 +21996,7 @@
         <v>11.9076871871948</v>
       </c>
       <c r="G648" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -22022,7 +22022,7 @@
         <v>12.2373456954956</v>
       </c>
       <c r="G649" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -22048,7 +22048,7 @@
         <v>12.2073774337769</v>
       </c>
       <c r="G650" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -22074,7 +22074,7 @@
         <v>12.2073774337769</v>
       </c>
       <c r="G651" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22100,7 +22100,7 @@
         <v>12.1474390029907</v>
       </c>
       <c r="G652" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H652" t="s">
         <v>9</v>
@@ -22126,7 +22126,7 @@
         <v>12.0974912643433</v>
       </c>
       <c r="G653" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H653" t="s">
         <v>9</v>
@@ -22152,7 +22152,7 @@
         <v>12.2273559570312</v>
       </c>
       <c r="G654" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H654" t="s">
         <v>9</v>
@@ -22178,7 +22178,7 @@
         <v>12.0275630950928</v>
       </c>
       <c r="G655" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H655" t="s">
         <v>9</v>
@@ -22204,7 +22204,7 @@
         <v>11.7378625869751</v>
       </c>
       <c r="G656" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H656" t="s">
         <v>9</v>
@@ -22230,7 +22230,7 @@
         <v>11.7878112792969</v>
       </c>
       <c r="G657" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H657" t="s">
         <v>9</v>
@@ -22256,7 +22256,7 @@
         <v>11.6579446792603</v>
       </c>
       <c r="G658" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H658" t="s">
         <v>9</v>
@@ -22282,7 +22282,7 @@
         <v>11.7078943252563</v>
       </c>
       <c r="G659" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H659" t="s">
         <v>9</v>
@@ -22308,7 +22308,7 @@
         <v>11.6779251098633</v>
       </c>
       <c r="G660" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H660" t="s">
         <v>9</v>
@@ -22334,7 +22334,7 @@
         <v>11.4581518173218</v>
       </c>
       <c r="G661" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H661" t="s">
         <v>9</v>
@@ -22360,7 +22360,7 @@
         <v>11.6879138946533</v>
       </c>
       <c r="G662" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H662" t="s">
         <v>9</v>
@@ -22386,7 +22386,7 @@
         <v>11.7378625869751</v>
       </c>
       <c r="G663" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H663" t="s">
         <v>9</v>
@@ -22412,7 +22412,7 @@
         <v>11.9176769256592</v>
       </c>
       <c r="G664" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H664" t="s">
         <v>9</v>
@@ -22438,7 +22438,7 @@
         <v>11.8077898025513</v>
       </c>
       <c r="G665" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H665" t="s">
         <v>9</v>
@@ -22464,7 +22464,7 @@
         <v>11.7278728485107</v>
       </c>
       <c r="G666" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H666" t="s">
         <v>9</v>
@@ -22490,7 +22490,7 @@
         <v>11.3882236480713</v>
       </c>
       <c r="G667" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H667" t="s">
         <v>9</v>
@@ -22516,7 +22516,7 @@
         <v>11.2983169555664</v>
       </c>
       <c r="G668" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H668" t="s">
         <v>9</v>
@@ -22542,7 +22542,7 @@
         <v>11.3782339096069</v>
       </c>
       <c r="G669" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H669" t="s">
         <v>9</v>
@@ -22568,7 +22568,7 @@
         <v>11.2683477401733</v>
       </c>
       <c r="G670" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H670" t="s">
         <v>9</v>
@@ -22594,7 +22594,7 @@
         <v>11.128493309021</v>
       </c>
       <c r="G671" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H671" t="s">
         <v>9</v>
@@ -22620,7 +22620,7 @@
         <v>11.1684513092041</v>
       </c>
       <c r="G672" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H672" t="s">
         <v>9</v>
@@ -22646,7 +22646,7 @@
         <v>11.278338432312</v>
       </c>
       <c r="G673" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H673" t="s">
         <v>9</v>
@@ -22672,7 +22672,7 @@
         <v>11.0285959243774</v>
       </c>
       <c r="G674" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H674" t="s">
         <v>9</v>
@@ -22698,7 +22698,7 @@
         <v>11.0385856628418</v>
       </c>
       <c r="G675" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H675" t="s">
         <v>9</v>
@@ -22724,7 +22724,7 @@
         <v>11.1684513092041</v>
       </c>
       <c r="G676" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H676" t="s">
         <v>9</v>
@@ -22750,7 +22750,7 @@
         <v>11.2084102630615</v>
       </c>
       <c r="G677" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H677" t="s">
         <v>9</v>
@@ -22776,7 +22776,7 @@
         <v>11.1684513092041</v>
       </c>
       <c r="G678" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H678" t="s">
         <v>9</v>
@@ -22802,7 +22802,7 @@
         <v>11.5380687713623</v>
       </c>
       <c r="G679" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H679" t="s">
         <v>9</v>
@@ -22828,7 +22828,7 @@
         <v>11.7978010177612</v>
       </c>
       <c r="G680" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H680" t="s">
         <v>9</v>
@@ -22854,7 +22854,7 @@
         <v>11.5080995559692</v>
       </c>
       <c r="G681" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H681" t="s">
         <v>9</v>
@@ -22880,7 +22880,7 @@
         <v>11.4981098175049</v>
       </c>
       <c r="G682" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H682" t="s">
         <v>9</v>
@@ -22906,7 +22906,7 @@
         <v>11.3582553863525</v>
       </c>
       <c r="G683" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H683" t="s">
         <v>9</v>
@@ -22932,7 +22932,7 @@
         <v>11.138482093811</v>
       </c>
       <c r="G684" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H684" t="s">
         <v>9</v>
@@ -22958,7 +22958,7 @@
         <v>11.1484718322754</v>
       </c>
       <c r="G685" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H685" t="s">
         <v>9</v>
@@ -22984,7 +22984,7 @@
         <v>11.138482093811</v>
       </c>
       <c r="G686" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H686" t="s">
         <v>9</v>
@@ -23010,7 +23010,7 @@
         <v>11.3282861709595</v>
       </c>
       <c r="G687" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H687" t="s">
         <v>9</v>
@@ -23036,7 +23036,7 @@
         <v>11.1884307861328</v>
       </c>
       <c r="G688" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H688" t="s">
         <v>9</v>
@@ -23062,7 +23062,7 @@
         <v>11.278338432312</v>
       </c>
       <c r="G689" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H689" t="s">
         <v>9</v>
@@ -23088,7 +23088,7 @@
         <v>11.3083066940308</v>
       </c>
       <c r="G690" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H690" t="s">
         <v>9</v>
@@ -23114,7 +23114,7 @@
         <v>11.4381723403931</v>
       </c>
       <c r="G691" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H691" t="s">
         <v>9</v>
@@ -23140,7 +23140,7 @@
         <v>11.6279764175415</v>
       </c>
       <c r="G692" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H692" t="s">
         <v>9</v>
@@ -23166,7 +23166,7 @@
         <v>11.6879138946533</v>
       </c>
       <c r="G693" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H693" t="s">
         <v>9</v>
@@ -23192,7 +23192,7 @@
         <v>11.8577394485474</v>
       </c>
       <c r="G694" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H694" t="s">
         <v>9</v>
@@ -23218,7 +23218,7 @@
         <v>11.9376564025879</v>
       </c>
       <c r="G695" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H695" t="s">
         <v>9</v>
@@ -23244,7 +23244,7 @@
         <v>11.8976974487305</v>
       </c>
       <c r="G696" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H696" t="s">
         <v>9</v>
@@ -23270,7 +23270,7 @@
         <v>11.7278728485107</v>
       </c>
       <c r="G697" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H697" t="s">
         <v>9</v>
@@ -23296,7 +23296,7 @@
         <v>11.6379661560059</v>
       </c>
       <c r="G698" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H698" t="s">
         <v>9</v>
@@ -23322,7 +23322,7 @@
         <v>11.6379661560059</v>
       </c>
       <c r="G699" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H699" t="s">
         <v>9</v>
@@ -23348,7 +23348,7 @@
         <v>11.5980072021484</v>
       </c>
       <c r="G700" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H700" t="s">
         <v>9</v>
@@ -23374,7 +23374,7 @@
         <v>11.2683477401733</v>
       </c>
       <c r="G701" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H701" t="s">
         <v>9</v>
@@ -23400,7 +23400,7 @@
         <v>11.4881210327148</v>
       </c>
       <c r="G702" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H702" t="s">
         <v>9</v>
@@ -23426,7 +23426,7 @@
         <v>11.2883272171021</v>
       </c>
       <c r="G703" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H703" t="s">
         <v>9</v>
@@ -23452,7 +23452,7 @@
         <v>11.4781312942505</v>
       </c>
       <c r="G704" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H704" t="s">
         <v>9</v>
@@ -23478,7 +23478,7 @@
         <v>11.0885343551636</v>
       </c>
       <c r="G705" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H705" t="s">
         <v>9</v>
@@ -23504,7 +23504,7 @@
         <v>11.1484718322754</v>
       </c>
       <c r="G706" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H706" t="s">
         <v>9</v>
@@ -23530,7 +23530,7 @@
         <v>10.7289056777954</v>
       </c>
       <c r="G707" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H707" t="s">
         <v>9</v>
@@ -23556,7 +23556,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G708" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H708" t="s">
         <v>9</v>
@@ -23582,7 +23582,7 @@
         <v>10.1195363998413</v>
       </c>
       <c r="G709" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H709" t="s">
         <v>9</v>
@@ -23608,7 +23608,7 @@
         <v>9.92473697662354</v>
       </c>
       <c r="G710" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H710" t="s">
         <v>9</v>
@@ -23634,7 +23634,7 @@
         <v>9.8248405456543</v>
       </c>
       <c r="G711" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H711" t="s">
         <v>9</v>
@@ -23660,7 +23660,7 @@
         <v>9.45522308349609</v>
       </c>
       <c r="G712" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H712" t="s">
         <v>9</v>
@@ -23686,7 +23686,7 @@
         <v>9.81485080718994</v>
       </c>
       <c r="G713" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H713" t="s">
         <v>9</v>
@@ -23712,7 +23712,7 @@
         <v>9.9197416305542</v>
       </c>
       <c r="G714" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H714" t="s">
         <v>9</v>
@@ -23738,7 +23738,7 @@
         <v>9.78987693786621</v>
       </c>
       <c r="G715" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H715" t="s">
         <v>9</v>
@@ -23764,7 +23764,7 @@
         <v>9.66001129150391</v>
       </c>
       <c r="G716" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H716" t="s">
         <v>9</v>
@@ -23790,7 +23790,7 @@
         <v>9.50517082214355</v>
       </c>
       <c r="G717" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H717" t="s">
         <v>9</v>
@@ -23816,7 +23816,7 @@
         <v>9.58009433746338</v>
       </c>
       <c r="G718" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H718" t="s">
         <v>9</v>
@@ -23842,7 +23842,7 @@
         <v>9.41026878356934</v>
       </c>
       <c r="G719" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H719" t="s">
         <v>9</v>
@@ -23868,7 +23868,7 @@
         <v>9.72494411468506</v>
       </c>
       <c r="G720" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H720" t="s">
         <v>9</v>
@@ -23894,7 +23894,7 @@
         <v>9.57509899139404</v>
       </c>
       <c r="G721" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H721" t="s">
         <v>9</v>
@@ -23920,7 +23920,7 @@
         <v>9.87478923797607</v>
       </c>
       <c r="G722" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H722" t="s">
         <v>9</v>
@@ -23946,7 +23946,7 @@
         <v>9.8248405456543</v>
       </c>
       <c r="G723" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H723" t="s">
         <v>9</v>
@@ -23972,7 +23972,7 @@
         <v>9.7698974609375</v>
       </c>
       <c r="G724" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H724" t="s">
         <v>9</v>
@@ -23998,7 +23998,7 @@
         <v>9.98467540740967</v>
       </c>
       <c r="G725" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H725" t="s">
         <v>9</v>
@@ -24024,7 +24024,7 @@
         <v>10.1195363998413</v>
       </c>
       <c r="G726" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H726" t="s">
         <v>9</v>
@@ -24050,7 +24050,7 @@
         <v>9.88477897644043</v>
       </c>
       <c r="G727" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H727" t="s">
         <v>9</v>
@@ -24076,7 +24076,7 @@
         <v>9.83483028411865</v>
       </c>
       <c r="G728" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H728" t="s">
         <v>9</v>
@@ -24102,7 +24102,7 @@
         <v>9.5850887298584</v>
       </c>
       <c r="G729" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H729" t="s">
         <v>9</v>
@@ -24128,7 +24128,7 @@
         <v>9.44523334503174</v>
       </c>
       <c r="G730" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H730" t="s">
         <v>9</v>
@@ -24154,7 +24154,7 @@
         <v>9.33534717559814</v>
       </c>
       <c r="G731" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H731" t="s">
         <v>9</v>
@@ -24180,7 +24180,7 @@
         <v>9.07061958312988</v>
       </c>
       <c r="G732" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H732" t="s">
         <v>9</v>
@@ -24206,7 +24206,7 @@
         <v>8.99569797515869</v>
       </c>
       <c r="G733" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H733" t="s">
         <v>9</v>
@@ -24232,7 +24232,7 @@
         <v>9.04564571380615</v>
       </c>
       <c r="G734" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H734" t="s">
         <v>9</v>
@@ -24258,7 +24258,7 @@
         <v>9.11557388305664</v>
       </c>
       <c r="G735" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H735" t="s">
         <v>9</v>
@@ -24284,7 +24284,7 @@
         <v>9.31536674499512</v>
       </c>
       <c r="G736" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H736" t="s">
         <v>9</v>
@@ -24310,7 +24310,7 @@
         <v>9.34533596038818</v>
       </c>
       <c r="G737" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H737" t="s">
         <v>9</v>
@@ -24336,7 +24336,7 @@
         <v>9.32036209106445</v>
       </c>
       <c r="G738" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H738" t="s">
         <v>9</v>
@@ -24362,7 +24362,7 @@
         <v>9.60506820678711</v>
       </c>
       <c r="G739" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H739" t="s">
         <v>9</v>
@@ -24388,7 +24388,7 @@
         <v>9.64502716064453</v>
       </c>
       <c r="G740" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H740" t="s">
         <v>9</v>
@@ -24414,7 +24414,7 @@
         <v>9.7698974609375</v>
       </c>
       <c r="G741" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H741" t="s">
         <v>9</v>
@@ -24440,7 +24440,7 @@
         <v>10.0296287536621</v>
       </c>
       <c r="G742" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H742" t="s">
         <v>9</v>
@@ -24466,7 +24466,7 @@
         <v>10.0196390151978</v>
       </c>
       <c r="G743" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H743" t="s">
         <v>9</v>
@@ -24492,7 +24492,7 @@
         <v>9.92473697662354</v>
       </c>
       <c r="G744" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H744" t="s">
         <v>9</v>
@@ -24518,7 +24518,7 @@
         <v>9.94971084594727</v>
       </c>
       <c r="G745" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H745" t="s">
         <v>9</v>
@@ -24544,7 +24544,7 @@
         <v>9.83483028411865</v>
       </c>
       <c r="G746" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H746" t="s">
         <v>9</v>
@@ -24570,7 +24570,7 @@
         <v>10.1894636154175</v>
       </c>
       <c r="G747" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H747" t="s">
         <v>9</v>
@@ -24596,7 +24596,7 @@
         <v>9.87978363037109</v>
       </c>
       <c r="G748" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H748" t="s">
         <v>9</v>
@@ -24622,7 +24622,7 @@
         <v>9.84981536865234</v>
       </c>
       <c r="G749" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H749" t="s">
         <v>9</v>
@@ -24648,7 +24648,7 @@
         <v>9.50017642974854</v>
       </c>
       <c r="G750" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H750" t="s">
         <v>9</v>
@@ -24674,7 +24674,7 @@
         <v>9.53514003753662</v>
       </c>
       <c r="G751" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H751" t="s">
         <v>9</v>
@@ -24700,7 +24700,7 @@
         <v>9.29039287567139</v>
       </c>
       <c r="G752" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H752" t="s">
         <v>9</v>
@@ -24726,7 +24726,7 @@
         <v>9.41526412963867</v>
       </c>
       <c r="G753" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H753" t="s">
         <v>9</v>
@@ -24752,7 +24752,7 @@
         <v>9.70496463775635</v>
       </c>
       <c r="G754" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H754" t="s">
         <v>9</v>
@@ -24778,7 +24778,7 @@
         <v>9.66001129150391</v>
       </c>
       <c r="G755" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H755" t="s">
         <v>9</v>
@@ -24804,7 +24804,7 @@
         <v>9.44523334503174</v>
       </c>
       <c r="G756" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H756" t="s">
         <v>9</v>
@@ -24830,7 +24830,7 @@
         <v>9.09559535980225</v>
       </c>
       <c r="G757" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H757" t="s">
         <v>9</v>
@@ -24856,7 +24856,7 @@
         <v>8.96073436737061</v>
       </c>
       <c r="G758" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H758" t="s">
         <v>9</v>
@@ -24882,7 +24882,7 @@
         <v>9.31037330627441</v>
       </c>
       <c r="G759" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H759" t="s">
         <v>9</v>
@@ -24908,7 +24908,7 @@
         <v>9.10058879852295</v>
       </c>
       <c r="G760" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H760" t="s">
         <v>9</v>
@@ -24934,7 +24934,7 @@
         <v>9.15553283691406</v>
       </c>
       <c r="G761" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H761" t="s">
         <v>9</v>
@@ -24960,7 +24960,7 @@
         <v>8.83086776733398</v>
       </c>
       <c r="G762" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H762" t="s">
         <v>9</v>
@@ -24986,7 +24986,7 @@
         <v>8.8858118057251</v>
       </c>
       <c r="G763" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H763" t="s">
         <v>9</v>
@@ -25012,7 +25012,7 @@
         <v>8.95074367523193</v>
       </c>
       <c r="G764" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H764" t="s">
         <v>9</v>
@@ -25038,7 +25038,7 @@
         <v>8.91578102111816</v>
       </c>
       <c r="G765" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H765" t="s">
         <v>9</v>
@@ -25064,7 +25064,7 @@
         <v>9.27041435241699</v>
       </c>
       <c r="G766" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H766" t="s">
         <v>9</v>
@@ -25090,7 +25090,7 @@
         <v>9.24044513702393</v>
       </c>
       <c r="G767" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H767" t="s">
         <v>9</v>
@@ -25116,7 +25116,7 @@
         <v>9.5850887298584</v>
       </c>
       <c r="G768" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H768" t="s">
         <v>9</v>
@@ -25142,7 +25142,7 @@
         <v>10.1694841384888</v>
       </c>
       <c r="G769" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H769" t="s">
         <v>9</v>
@@ -25168,7 +25168,7 @@
         <v>10.269380569458</v>
       </c>
       <c r="G770" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H770" t="s">
         <v>9</v>
@@ -25194,7 +25194,7 @@
         <v>9.86979389190674</v>
       </c>
       <c r="G771" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H771" t="s">
         <v>9</v>
@@ -25220,7 +25220,7 @@
         <v>9.75990772247314</v>
       </c>
       <c r="G772" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H772" t="s">
         <v>9</v>
@@ -25246,7 +25246,7 @@
         <v>9.77988719940186</v>
       </c>
       <c r="G773" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H773" t="s">
         <v>9</v>
@@ -25272,7 +25272,7 @@
         <v>9.83982467651367</v>
       </c>
       <c r="G774" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H774" t="s">
         <v>9</v>
@@ -25298,7 +25298,7 @@
         <v>9.73992824554443</v>
       </c>
       <c r="G775" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H775" t="s">
         <v>9</v>
@@ -25324,7 +25324,7 @@
         <v>9.88977336883545</v>
       </c>
       <c r="G776" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H776" t="s">
         <v>9</v>
@@ -25350,7 +25350,7 @@
         <v>9.9197416305542</v>
       </c>
       <c r="G777" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H777" t="s">
         <v>9</v>
@@ -25376,7 +25376,7 @@
         <v>9.89476776123047</v>
       </c>
       <c r="G778" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H778" t="s">
         <v>9</v>
@@ -25402,7 +25402,7 @@
         <v>9.85480976104736</v>
       </c>
       <c r="G779" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H779" t="s">
         <v>9</v>
@@ -25428,7 +25428,7 @@
         <v>10.0096502304077</v>
       </c>
       <c r="G780" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H780" t="s">
         <v>9</v>
@@ -25454,7 +25454,7 @@
         <v>10.3093395233154</v>
       </c>
       <c r="G781" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H781" t="s">
         <v>9</v>
@@ -25480,7 +25480,7 @@
         <v>10.1195363998413</v>
       </c>
       <c r="G782" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H782" t="s">
         <v>9</v>
@@ -25506,7 +25506,7 @@
         <v>9.97468566894531</v>
       </c>
       <c r="G783" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H783" t="s">
         <v>9</v>
@@ -25532,7 +25532,7 @@
         <v>9.96969127655029</v>
       </c>
       <c r="G784" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H784" t="s">
         <v>9</v>
@@ -25558,7 +25558,7 @@
         <v>9.95970058441162</v>
       </c>
       <c r="G785" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H785" t="s">
         <v>9</v>
@@ -25584,7 +25584,7 @@
         <v>9.93972206115723</v>
       </c>
       <c r="G786" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H786" t="s">
         <v>9</v>
@@ -25610,7 +25610,7 @@
         <v>9.8997631072998</v>
       </c>
       <c r="G787" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H787" t="s">
         <v>9</v>
@@ -25636,7 +25636,7 @@
         <v>9.90475845336914</v>
       </c>
       <c r="G788" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H788" t="s">
         <v>9</v>
@@ -25662,7 +25662,7 @@
         <v>9.87478923797607</v>
       </c>
       <c r="G789" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H789" t="s">
         <v>9</v>
@@ -25688,7 +25688,7 @@
         <v>9.60007286071777</v>
       </c>
       <c r="G790" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H790" t="s">
         <v>9</v>
@@ -25714,7 +25714,7 @@
         <v>9.31037330627441</v>
       </c>
       <c r="G791" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H791" t="s">
         <v>9</v>
@@ -25740,7 +25740,7 @@
         <v>9.49018669128418</v>
       </c>
       <c r="G792" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H792" t="s">
         <v>9</v>
@@ -25766,7 +25766,7 @@
         <v>9.77489185333252</v>
       </c>
       <c r="G793" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H793" t="s">
         <v>9</v>
@@ -25792,7 +25792,7 @@
         <v>10.0196390151978</v>
       </c>
       <c r="G794" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H794" t="s">
         <v>9</v>
@@ -25818,7 +25818,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G795" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H795" t="s">
         <v>9</v>
@@ -25844,7 +25844,7 @@
         <v>10.2094430923462</v>
       </c>
       <c r="G796" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H796" t="s">
         <v>9</v>
@@ -25870,7 +25870,7 @@
         <v>10.0795774459839</v>
       </c>
       <c r="G797" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H797" t="s">
         <v>9</v>
@@ -25896,7 +25896,7 @@
         <v>10.0795774459839</v>
       </c>
       <c r="G798" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H798" t="s">
         <v>9</v>
@@ -25922,7 +25922,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G799" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H799" t="s">
         <v>9</v>
@@ -25948,7 +25948,7 @@
         <v>10.4392051696777</v>
       </c>
       <c r="G800" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H800" t="s">
         <v>9</v>
@@ -25974,7 +25974,7 @@
         <v>10.4991426467896</v>
       </c>
       <c r="G801" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H801" t="s">
         <v>9</v>
@@ -26000,7 +26000,7 @@
         <v>10.8088226318359</v>
       </c>
       <c r="G802" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H802" t="s">
         <v>9</v>
@@ -26026,7 +26026,7 @@
         <v>10.838791847229</v>
       </c>
       <c r="G803" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H803" t="s">
         <v>9</v>
@@ -26052,7 +26052,7 @@
         <v>10.56907081604</v>
       </c>
       <c r="G804" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H804" t="s">
         <v>9</v>
@@ -26078,7 +26078,7 @@
         <v>10.6290092468262</v>
       </c>
       <c r="G805" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H805" t="s">
         <v>9</v>
@@ -26104,7 +26104,7 @@
         <v>10.8487815856934</v>
       </c>
       <c r="G806" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H806" t="s">
         <v>9</v>
@@ -26130,7 +26130,7 @@
         <v>10.4092359542847</v>
       </c>
       <c r="G807" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H807" t="s">
         <v>9</v>
@@ -26156,7 +26156,7 @@
         <v>10.2593908309937</v>
       </c>
       <c r="G808" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H808" t="s">
         <v>9</v>
@@ -26182,7 +26182,7 @@
         <v>10.2294216156006</v>
       </c>
       <c r="G809" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H809" t="s">
         <v>9</v>
@@ -26208,7 +26208,7 @@
         <v>10.2394123077393</v>
       </c>
       <c r="G810" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H810" t="s">
         <v>9</v>
@@ -26234,7 +26234,7 @@
         <v>10.1794738769531</v>
       </c>
       <c r="G811" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H811" t="s">
         <v>9</v>
@@ -26260,7 +26260,7 @@
         <v>10.2094430923462</v>
       </c>
       <c r="G812" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H812" t="s">
         <v>9</v>
@@ -26286,7 +26286,7 @@
         <v>10.1594953536987</v>
       </c>
       <c r="G813" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H813" t="s">
         <v>9</v>
@@ -26312,7 +26312,7 @@
         <v>10.3692779541016</v>
       </c>
       <c r="G814" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H814" t="s">
         <v>9</v>
@@ -26338,7 +26338,7 @@
         <v>10.6389989852905</v>
       </c>
       <c r="G815" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H815" t="s">
         <v>9</v>
@@ -26364,7 +26364,7 @@
         <v>10.9686584472656</v>
       </c>
       <c r="G816" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H816" t="s">
         <v>9</v>
@@ -26390,7 +26390,7 @@
         <v>10.7788543701172</v>
       </c>
       <c r="G817" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H817" t="s">
         <v>9</v>
@@ -26416,7 +26416,7 @@
         <v>10.688946723938</v>
       </c>
       <c r="G818" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H818" t="s">
         <v>9</v>
@@ -26442,7 +26442,7 @@
         <v>10.4791641235352</v>
       </c>
       <c r="G819" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H819" t="s">
         <v>9</v>
@@ -26468,7 +26468,7 @@
         <v>10.4292163848877</v>
       </c>
       <c r="G820" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H820" t="s">
         <v>9</v>
@@ -26494,7 +26494,7 @@
         <v>10.1994533538818</v>
       </c>
       <c r="G821" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H821" t="s">
         <v>9</v>
@@ -26520,7 +26520,7 @@
         <v>10.0695877075195</v>
       </c>
       <c r="G822" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H822" t="s">
         <v>9</v>
@@ -26546,7 +26546,7 @@
         <v>10.1095457077026</v>
       </c>
       <c r="G823" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H823" t="s">
         <v>9</v>
@@ -26572,7 +26572,7 @@
         <v>10.0995569229126</v>
       </c>
       <c r="G824" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H824" t="s">
         <v>9</v>
@@ -26598,7 +26598,7 @@
         <v>10.0296287536621</v>
       </c>
       <c r="G825" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H825" t="s">
         <v>9</v>
@@ -26624,7 +26624,7 @@
         <v>10.0995569229126</v>
       </c>
       <c r="G826" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H826" t="s">
         <v>9</v>
@@ -26650,7 +26650,7 @@
         <v>10.269380569458</v>
       </c>
       <c r="G827" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H827" t="s">
         <v>9</v>
@@ -26676,7 +26676,7 @@
         <v>10.3293190002441</v>
       </c>
       <c r="G828" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H828" t="s">
         <v>9</v>
@@ -26702,7 +26702,7 @@
         <v>11.0785436630249</v>
       </c>
       <c r="G829" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H829" t="s">
         <v>9</v>
@@ -26728,7 +26728,7 @@
         <v>11.0385856628418</v>
       </c>
       <c r="G830" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H830" t="s">
         <v>9</v>
@@ -26754,7 +26754,7 @@
         <v>11.138482093811</v>
       </c>
       <c r="G831" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H831" t="s">
         <v>9</v>
@@ -26780,7 +26780,7 @@
         <v>10.98863697052</v>
       </c>
       <c r="G832" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H832" t="s">
         <v>9</v>
@@ -26806,7 +26806,7 @@
         <v>10.958667755127</v>
       </c>
       <c r="G833" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H833" t="s">
         <v>9</v>
@@ -26832,7 +26832,7 @@
         <v>11.0385856628418</v>
       </c>
       <c r="G834" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H834" t="s">
         <v>9</v>
@@ -26858,7 +26858,7 @@
         <v>10.8487815856934</v>
       </c>
       <c r="G835" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H835" t="s">
         <v>9</v>
@@ -26884,7 +26884,7 @@
         <v>11.2283887863159</v>
       </c>
       <c r="G836" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H836" t="s">
         <v>9</v>
@@ -26910,7 +26910,7 @@
         <v>11.6379661560059</v>
       </c>
       <c r="G837" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H837" t="s">
         <v>9</v>
@@ -26936,7 +26936,7 @@
         <v>11.7178831100464</v>
       </c>
       <c r="G838" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H838" t="s">
         <v>9</v>
@@ -26962,7 +26962,7 @@
         <v>11.5680379867554</v>
       </c>
       <c r="G839" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -26988,7 +26988,7 @@
         <v>11.7878112792969</v>
       </c>
       <c r="G840" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H840" t="s">
         <v>9</v>
@@ -27014,7 +27014,7 @@
         <v>11.8677282333374</v>
       </c>
       <c r="G841" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -27040,7 +27040,7 @@
         <v>11.6579446792603</v>
       </c>
       <c r="G842" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H842" t="s">
         <v>9</v>
@@ -27066,7 +27066,7 @@
         <v>11.6379661560059</v>
       </c>
       <c r="G843" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H843" t="s">
         <v>9</v>
@@ -27092,7 +27092,7 @@
         <v>11.6979036331177</v>
       </c>
       <c r="G844" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H844" t="s">
         <v>9</v>
@@ -27118,7 +27118,7 @@
         <v>11.7278728485107</v>
       </c>
       <c r="G845" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H845" t="s">
         <v>9</v>
@@ -27144,7 +27144,7 @@
         <v>11.6879138946533</v>
       </c>
       <c r="G846" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H846" t="s">
         <v>9</v>
@@ -27170,7 +27170,7 @@
         <v>11.5380687713623</v>
       </c>
       <c r="G847" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H847" t="s">
         <v>9</v>
@@ -27196,7 +27196,7 @@
         <v>11.4181928634644</v>
       </c>
       <c r="G848" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -27222,7 +27222,7 @@
         <v>11.0885343551636</v>
       </c>
       <c r="G849" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H849" t="s">
         <v>9</v>
@@ -27248,7 +27248,7 @@
         <v>11.1984195709229</v>
       </c>
       <c r="G850" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -27274,7 +27274,7 @@
         <v>11.3782339096069</v>
       </c>
       <c r="G851" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H851" t="s">
         <v>9</v>
@@ -27300,7 +27300,7 @@
         <v>11.0685548782349</v>
       </c>
       <c r="G852" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27326,7 +27326,7 @@
         <v>10.8487815856934</v>
       </c>
       <c r="G853" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H853" t="s">
         <v>9</v>
@@ -27352,7 +27352,7 @@
         <v>10.2593908309937</v>
       </c>
       <c r="G854" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H854" t="s">
         <v>9</v>
@@ -27378,7 +27378,7 @@
         <v>10.3193292617798</v>
       </c>
       <c r="G855" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27404,7 +27404,7 @@
         <v>10.419225692749</v>
       </c>
       <c r="G856" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27430,7 +27430,7 @@
         <v>10.2893600463867</v>
       </c>
       <c r="G857" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27456,7 +27456,7 @@
         <v>10.1894636154175</v>
       </c>
       <c r="G858" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H858" t="s">
         <v>9</v>
@@ -27482,7 +27482,7 @@
         <v>9.97468566894531</v>
       </c>
       <c r="G859" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27508,7 +27508,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G860" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27534,7 +27534,7 @@
         <v>9.9547061920166</v>
       </c>
       <c r="G861" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27560,7 +27560,7 @@
         <v>9.59008312225342</v>
       </c>
       <c r="G862" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27586,7 +27586,7 @@
         <v>9.71994876861572</v>
       </c>
       <c r="G863" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27612,7 +27612,7 @@
         <v>9.7698974609375</v>
       </c>
       <c r="G864" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27638,7 +27638,7 @@
         <v>9.77988719940186</v>
       </c>
       <c r="G865" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27664,7 +27664,7 @@
         <v>9.65002059936523</v>
       </c>
       <c r="G866" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27690,7 +27690,7 @@
         <v>9.73992824554443</v>
       </c>
       <c r="G867" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -27716,7 +27716,7 @@
         <v>9.60007286071777</v>
       </c>
       <c r="G868" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -27742,7 +27742,7 @@
         <v>9.32036209106445</v>
       </c>
       <c r="G869" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -27768,7 +27768,7 @@
         <v>9.54013538360596</v>
       </c>
       <c r="G870" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27794,7 +27794,7 @@
         <v>9.75990772247314</v>
       </c>
       <c r="G871" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27820,7 +27820,7 @@
         <v>9.88477897644043</v>
       </c>
       <c r="G872" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27846,7 +27846,7 @@
         <v>9.8647985458374</v>
       </c>
       <c r="G873" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27872,7 +27872,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G874" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27898,7 +27898,7 @@
         <v>10.1295261383057</v>
       </c>
       <c r="G875" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27924,7 +27924,7 @@
         <v>9.96969127655029</v>
       </c>
       <c r="G876" t="s">
-        <v>644</v>
+        <v>548</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -28002,7 +28002,7 @@
         <v>9.8647985458374</v>
       </c>
       <c r="G879" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -28184,7 +28184,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G886" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -28210,7 +28210,7 @@
         <v>9.97468566894531</v>
       </c>
       <c r="G887" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -28522,7 +28522,7 @@
         <v>9.96969127655029</v>
       </c>
       <c r="G899" t="s">
-        <v>644</v>
+        <v>548</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28548,7 +28548,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G900" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28782,7 +28782,7 @@
         <v>9.73992824554443</v>
       </c>
       <c r="G909" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -29640,7 +29640,7 @@
         <v>9.65002059936523</v>
       </c>
       <c r="G942" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -37258,7 +37258,7 @@
         <v>9.54013538360596</v>
       </c>
       <c r="G1235" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -62200,7 +62200,7 @@
     </row>
     <row r="2195">
       <c r="A2195" s="1" t="n">
-        <v>45518.6493518519</v>
+        <v>45518.2916666667</v>
       </c>
       <c r="B2195" t="n">
         <v>209006</v>

--- a/data/BRE.MI.xlsx
+++ b/data/BRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="1608">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,49 +38,49 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43071603775024</t>
+    <t xml:space="preserve">7.4307165145874</t>
   </si>
   <si>
     <t xml:space="preserve">BRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40021419525146</t>
+    <t xml:space="preserve">7.40021467208862</t>
   </si>
   <si>
     <t xml:space="preserve">7.17991971969604</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76305389404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77999925613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66307401657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84100532531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02910184860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79016637802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4393892288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42413902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50378370285034</t>
+    <t xml:space="preserve">6.76305437088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77999973297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6630744934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84100437164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02910232543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79016733169556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43938875198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42413854598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50378322601318</t>
   </si>
   <si>
     <t xml:space="preserve">6.16317415237427</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42922306060791</t>
+    <t xml:space="preserve">6.42922210693359</t>
   </si>
   <si>
     <t xml:space="preserve">6.47667074203491</t>
@@ -98,10 +98,10 @@
     <t xml:space="preserve">6.45802974700928</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39194202423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2800989151001</t>
+    <t xml:space="preserve">6.3919415473938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28009939193726</t>
   </si>
   <si>
     <t xml:space="preserve">6.21062183380127</t>
@@ -113,22 +113,22 @@
     <t xml:space="preserve">5.91237640380859</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55482149124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71750020980835</t>
+    <t xml:space="preserve">5.5548210144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71749973297119</t>
   </si>
   <si>
     <t xml:space="preserve">5.93101692199707</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88187456130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94118547439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25976467132568</t>
+    <t xml:space="preserve">5.88187408447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94118452072144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25976419448853</t>
   </si>
   <si>
     <t xml:space="preserve">6.19198083877563</t>
@@ -137,46 +137,46 @@
     <t xml:space="preserve">6.34279870986938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36482858657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32246398925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46480798721313</t>
+    <t xml:space="preserve">6.36482810974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32246446609497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46480846405029</t>
   </si>
   <si>
     <t xml:space="preserve">6.33432531356812</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19367599487305</t>
+    <t xml:space="preserve">6.19367647171021</t>
   </si>
   <si>
     <t xml:space="preserve">6.29535102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35296630859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44616794586182</t>
+    <t xml:space="preserve">6.35296678543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44616842269897</t>
   </si>
   <si>
     <t xml:space="preserve">6.58342885971069</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55462169647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30362319946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34090518951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37649154663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33751487731934</t>
+    <t xml:space="preserve">6.55462074279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30362415313721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.340904712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3764910697937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33751535415649</t>
   </si>
   <si>
     <t xml:space="preserve">7.37987947463989</t>
@@ -185,118 +185,118 @@
     <t xml:space="preserve">7.32904195785522</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32395887374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42224311828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40360403060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51375007629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40190982818604</t>
+    <t xml:space="preserve">7.3239598274231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42224407196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40360450744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375102996826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40190935134888</t>
   </si>
   <si>
     <t xml:space="preserve">7.49341583251953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33412408828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53408765792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41377019882202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41207551956177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58153438568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70184850692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67304182052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62389802932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4052996635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45105218887329</t>
+    <t xml:space="preserve">7.33412456512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53408718109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41377067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4120774269104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58153390884399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70184993743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67304229736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62389850616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40529870986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45105171203613</t>
   </si>
   <si>
     <t xml:space="preserve">7.42393827438354</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53916883468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57645130157471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62559223175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67643070220947</t>
+    <t xml:space="preserve">7.5391697883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57645082473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62559270858765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67643022537231</t>
   </si>
   <si>
     <t xml:space="preserve">7.69337606430054</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66287517547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7103214263916</t>
+    <t xml:space="preserve">7.6628737449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71032238006592</t>
   </si>
   <si>
     <t xml:space="preserve">7.74421358108521</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78488302230835</t>
+    <t xml:space="preserve">7.78488397598267</t>
   </si>
   <si>
     <t xml:space="preserve">8.05093193054199</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99670553207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91367053985596</t>
+    <t xml:space="preserve">7.99670505523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91367101669312</t>
   </si>
   <si>
     <t xml:space="preserve">7.96281385421753</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02381896972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94925880432129</t>
+    <t xml:space="preserve">8.02381801605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94925689697266</t>
   </si>
   <si>
     <t xml:space="preserve">8.00348377227783</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90858697891235</t>
+    <t xml:space="preserve">7.90858745574951</t>
   </si>
   <si>
     <t xml:space="preserve">7.99162244796753</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14243793487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78637886047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81179714202881</t>
+    <t xml:space="preserve">8.1424388885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78637790679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81179618835449</t>
   </si>
   <si>
     <t xml:space="preserve">8.82026958465576</t>
@@ -308,142 +308,142 @@
     <t xml:space="preserve">8.73554134368896</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66775894165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65928554534912</t>
+    <t xml:space="preserve">8.66775798797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6592845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71859645843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83048152923584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76162910461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82187652587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77023506164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77884197235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92515659332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95097637176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04564952850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28663921356201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1919641494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18335723876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89933490753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57744407653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40531158447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6067066192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61531448364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91654872894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93376350402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88212203979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03704357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56023216247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91989231109619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55506706237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35367107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50514793395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5378532409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13333892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9594841003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95776271820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24522686004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32096481323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34850597381592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26932430267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44145965576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40875244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5344123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40014743804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51031303405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46555805206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62392234802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67556285858154</t>
   </si>
   <si>
     <t xml:space="preserve">8.71859550476074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83048248291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76162719726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82187557220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77023506164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77884292602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92515659332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95097732543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04564952850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2866382598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19196319580078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18335723876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89933681488037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5774450302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40531063079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60670757293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61531543731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91654968261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.933762550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88212394714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03704452514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5602331161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91989326477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55506801605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35367012023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50514888763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53785514831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13333988189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95948362350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95776271820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24522495269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32096481323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3485050201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26932430267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44145965576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40875244140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53441143035889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40014743804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51031303405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4655590057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62392234802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67556190490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71859645843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81326675415039</t>
+    <t xml:space="preserve">8.81326770782471</t>
   </si>
   <si>
     <t xml:space="preserve">8.66695404052734</t>
@@ -452,13 +452,13 @@
     <t xml:space="preserve">8.99400997161865</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08868312835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84769535064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86491012573242</t>
+    <t xml:space="preserve">9.08868503570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84769630432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86490821838379</t>
   </si>
   <si>
     <t xml:space="preserve">8.9595832824707</t>
@@ -470,37 +470,37 @@
     <t xml:space="preserve">9.00261688232422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.06286430358887</t>
+    <t xml:space="preserve">9.06286334991455</t>
   </si>
   <si>
     <t xml:space="preserve">8.98540306091309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79605674743652</t>
+    <t xml:space="preserve">8.79605579376221</t>
   </si>
   <si>
     <t xml:space="preserve">8.75302219390869</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78744792938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70998764038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73580837249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96819019317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01122379302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02843761444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2177848815918</t>
+    <t xml:space="preserve">8.78744983673096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70998859405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73580741882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96818923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01122283935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02843570709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21778583526611</t>
   </si>
   <si>
     <t xml:space="preserve">9.1661434173584</t>
@@ -509,64 +509,64 @@
     <t xml:space="preserve">9.20917701721191</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10589694976807</t>
+    <t xml:space="preserve">9.10589790344238</t>
   </si>
   <si>
     <t xml:space="preserve">9.1231107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14032363891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22639179229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38131237030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13171672821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94236946105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01982975006104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14892959594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07146835327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37270450592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47598648071289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62230110168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69115352630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69976043701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48459243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.260817527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09729099273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52762603759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79443454742432</t>
+    <t xml:space="preserve">9.14032459259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22639083862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38131141662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13171768188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94237041473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01983070373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14892864227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07147026062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37270545959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47598552703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62229919433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69115257263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6997594833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48459434509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26081657409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09728908538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52762508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79443359375</t>
   </si>
   <si>
     <t xml:space="preserve">9.51041221618652</t>
@@ -578,58 +578,58 @@
     <t xml:space="preserve">9.46737861633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24360466003418</t>
+    <t xml:space="preserve">9.24360370635986</t>
   </si>
   <si>
     <t xml:space="preserve">9.25221061706543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33827781677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31245803833008</t>
+    <t xml:space="preserve">9.33827877044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31245708465576</t>
   </si>
   <si>
     <t xml:space="preserve">9.08007717132568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45016574859619</t>
+    <t xml:space="preserve">9.45016670227051</t>
   </si>
   <si>
     <t xml:space="preserve">9.56205368041992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27803134918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39852523803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40713214874268</t>
+    <t xml:space="preserve">9.27803039550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39852619171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40713119506836</t>
   </si>
   <si>
     <t xml:space="preserve">9.53623294830322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65672588348389</t>
+    <t xml:space="preserve">9.6567268371582</t>
   </si>
   <si>
     <t xml:space="preserve">9.70836639404297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83746814727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89771556854248</t>
+    <t xml:space="preserve">9.8374662399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89771366119385</t>
   </si>
   <si>
     <t xml:space="preserve">10.3280487060547</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3882970809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1817350387573</t>
+    <t xml:space="preserve">10.388298034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.181734085083</t>
   </si>
   <si>
     <t xml:space="preserve">10.3022298812866</t>
@@ -644,7 +644,7 @@
     <t xml:space="preserve">10.4227237701416</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5776433944702</t>
+    <t xml:space="preserve">10.5776443481445</t>
   </si>
   <si>
     <t xml:space="preserve">10.6034650802612</t>
@@ -665,16 +665,16 @@
     <t xml:space="preserve">10.5518245697021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5173978805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.594856262207</t>
+    <t xml:space="preserve">10.5173969268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5948581695557</t>
   </si>
   <si>
     <t xml:space="preserve">10.5001831054688</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4657583236694</t>
+    <t xml:space="preserve">10.4657564163208</t>
   </si>
   <si>
     <t xml:space="preserve">10.207555770874</t>
@@ -689,22 +689,22 @@
     <t xml:space="preserve">10.4399366378784</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9133062362671</t>
+    <t xml:space="preserve">10.9133052825928</t>
   </si>
   <si>
     <t xml:space="preserve">10.8272390365601</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9046993255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7669916152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8530578613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0768346786499</t>
+    <t xml:space="preserve">10.9046983718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7669925689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8530597686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0768327713013</t>
   </si>
   <si>
     <t xml:space="preserve">11.1112594604492</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">11.0338001251221</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1887197494507</t>
+    <t xml:space="preserve">11.1887216567993</t>
   </si>
   <si>
     <t xml:space="preserve">11.3608551025391</t>
@@ -728,10 +728,10 @@
     <t xml:space="preserve">11.3264284133911</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1629009246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1715059280396</t>
+    <t xml:space="preserve">11.1628999710083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1715068817139</t>
   </si>
   <si>
     <t xml:space="preserve">11.2661800384521</t>
@@ -740,28 +740,28 @@
     <t xml:space="preserve">11.1801137924194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4383134841919</t>
+    <t xml:space="preserve">11.4383144378662</t>
   </si>
   <si>
     <t xml:space="preserve">11.2920007705688</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4469223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6620893478394</t>
+    <t xml:space="preserve">11.4469213485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.662088394165</t>
   </si>
   <si>
     <t xml:space="preserve">11.5846290588379</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6362676620483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6706972122192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6965160369873</t>
+    <t xml:space="preserve">11.6362686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6706962585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6965169906616</t>
   </si>
   <si>
     <t xml:space="preserve">11.756763458252</t>
@@ -770,19 +770,19 @@
     <t xml:space="preserve">11.8084030151367</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8686494827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.928897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9202919006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9375038146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.169885635376</t>
+    <t xml:space="preserve">11.8686504364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9288969039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9202899932861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9375047683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1698846817017</t>
   </si>
   <si>
     <t xml:space="preserve">12.1870985031128</t>
@@ -791,40 +791,40 @@
     <t xml:space="preserve">12.1182460784912</t>
   </si>
   <si>
-    <t xml:space="preserve">12.109637260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1526737213135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.195704460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1440658569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0149631500244</t>
+    <t xml:space="preserve">12.1096382141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1526727676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1957063674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1440649032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0149641036987</t>
   </si>
   <si>
     <t xml:space="preserve">12.1268520355225</t>
   </si>
   <si>
-    <t xml:space="preserve">11.963324546814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3936595916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4969415664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3506278991699</t>
+    <t xml:space="preserve">11.9633255004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3936605453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.496940612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3506269454956</t>
   </si>
   <si>
     <t xml:space="preserve">12.4280862808228</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4194812774658</t>
+    <t xml:space="preserve">12.4194803237915</t>
   </si>
   <si>
     <t xml:space="preserve">12.5916147232056</t>
@@ -833,13 +833,13 @@
     <t xml:space="preserve">12.4883346557617</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7379274368286</t>
+    <t xml:space="preserve">12.7379283905029</t>
   </si>
   <si>
     <t xml:space="preserve">12.8412084579468</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7637491226196</t>
+    <t xml:space="preserve">12.7637481689453</t>
   </si>
   <si>
     <t xml:space="preserve">12.9617033004761</t>
@@ -848,55 +848,55 @@
     <t xml:space="preserve">12.9961290359497</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7207145690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6346473693848</t>
+    <t xml:space="preserve">12.7207136154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6346464157104</t>
   </si>
   <si>
     <t xml:space="preserve">12.643253326416</t>
   </si>
   <si>
-    <t xml:space="preserve">12.522759437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0666065216064</t>
+    <t xml:space="preserve">12.5227603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0666055679321</t>
   </si>
   <si>
     <t xml:space="preserve">11.9719314575195</t>
   </si>
   <si>
+    <t xml:space="preserve">12.2387371063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3696813583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3871393203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5006246566772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6053762435913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2125511169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0816087722778</t>
+  </si>
+  <si>
     <t xml:space="preserve">12.2387390136719</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3696794509888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3871393203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5006246566772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6053771972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2125511169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0816078186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2387399673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1863603591919</t>
+    <t xml:space="preserve">12.1863613128662</t>
   </si>
   <si>
     <t xml:space="preserve">12.0205011367798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9855823516846</t>
+    <t xml:space="preserve">11.9855833053589</t>
   </si>
   <si>
     <t xml:space="preserve">11.7149705886841</t>
@@ -905,10 +905,10 @@
     <t xml:space="preserve">11.6102161407471</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6014852523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4356260299683</t>
+    <t xml:space="preserve">11.6014862060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4356250762939</t>
   </si>
   <si>
     <t xml:space="preserve">11.3570604324341</t>
@@ -917,37 +917,37 @@
     <t xml:space="preserve">11.645133972168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8371829986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6364049911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6975107192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5752983093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3221435546875</t>
+    <t xml:space="preserve">11.8371820449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6364040374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.697509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5752964019775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3221426010132</t>
   </si>
   <si>
     <t xml:space="preserve">11.4268960952759</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1562814712524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3483304977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9642333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824703216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1300935745239</t>
+    <t xml:space="preserve">11.1562824249268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3483324050903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9642343521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824712753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1300954818726</t>
   </si>
   <si>
     <t xml:space="preserve">11.0427989959717</t>
@@ -959,43 +959,43 @@
     <t xml:space="preserve">11.845911026001</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9419355392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7062406539917</t>
+    <t xml:space="preserve">11.9419364929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7062397003174</t>
   </si>
   <si>
     <t xml:space="preserve">12.0641498565674</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8808288574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8284530639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7760744094849</t>
+    <t xml:space="preserve">11.8808298110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8284521102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7760753631592</t>
   </si>
   <si>
     <t xml:space="preserve">11.7324285507202</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6189470291138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4007081985474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.391978263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4094381332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2872257232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308706283569</t>
+    <t xml:space="preserve">11.6189460754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.400707244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3919792175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4094371795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2872247695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308725357056</t>
   </si>
   <si>
     <t xml:space="preserve">11.2697649002075</t>
@@ -1004,25 +1004,25 @@
     <t xml:space="preserve">11.2784957885742</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0689878463745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1737422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2610368728638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0951747894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3134145736694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6713228225708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5578384399414</t>
+    <t xml:space="preserve">11.0689868927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1737413406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2610378265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.095175743103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3134136199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6713218688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5578393936157</t>
   </si>
   <si>
     <t xml:space="preserve">11.4880027770996</t>
@@ -1031,55 +1031,55 @@
     <t xml:space="preserve">11.4530849456787</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6625938415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7411584854126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7935352325439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8109941482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9244766235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8197240829468</t>
+    <t xml:space="preserve">11.6625928878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7411575317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7935361862183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8109931945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9244775772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8197250366211</t>
   </si>
   <si>
     <t xml:space="preserve">11.9768533706665</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1077966690063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1776323318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3522214889526</t>
+    <t xml:space="preserve">12.107795715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1776313781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.352222442627</t>
   </si>
   <si>
     <t xml:space="preserve">12.3173036575317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3784103393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4918947219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5355415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5966491699219</t>
+    <t xml:space="preserve">12.3784093856812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4918937683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5355424880981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5966482162476</t>
   </si>
   <si>
     <t xml:space="preserve">12.4744348526001</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5180816650391</t>
+    <t xml:space="preserve">12.5180826187134</t>
   </si>
   <si>
     <t xml:space="preserve">12.4831638336182</t>
@@ -1088,10 +1088,10 @@
     <t xml:space="preserve">12.6228351593018</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6141061782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.762508392334</t>
+    <t xml:space="preserve">12.6141052246094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7625074386597</t>
   </si>
   <si>
     <t xml:space="preserve">12.7712373733521</t>
@@ -1112,16 +1112,16 @@
     <t xml:space="preserve">12.2212791442871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.160174369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2474679946899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4482460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4395160675049</t>
+    <t xml:space="preserve">12.1601734161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2474670410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4482469558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4395170211792</t>
   </si>
   <si>
     <t xml:space="preserve">12.4045991897583</t>
@@ -1130,10 +1130,10 @@
     <t xml:space="preserve">12.360951423645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7236995697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2086601257324</t>
+    <t xml:space="preserve">11.7236976623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086591720581</t>
   </si>
   <si>
     <t xml:space="preserve">11.0864458084106</t>
@@ -1142,16 +1142,16 @@
     <t xml:space="preserve">11.2959537506104</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2173900604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4181671142578</t>
+    <t xml:space="preserve">11.2173881530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4181680679321</t>
   </si>
   <si>
     <t xml:space="preserve">11.3396015167236</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1650114059448</t>
+    <t xml:space="preserve">11.1650123596191</t>
   </si>
   <si>
     <t xml:space="preserve">11.1912002563477</t>
@@ -1163,13 +1163,13 @@
     <t xml:space="preserve">11.1126346588135</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0515298843384</t>
+    <t xml:space="preserve">11.0515289306641</t>
   </si>
   <si>
     <t xml:space="preserve">10.9991521835327</t>
   </si>
   <si>
-    <t xml:space="preserve">11.19993019104</t>
+    <t xml:space="preserve">11.1999311447144</t>
   </si>
   <si>
     <t xml:space="preserve">11.0777177810669</t>
@@ -1181,16 +1181,16 @@
     <t xml:space="preserve">11.0602579116821</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8507509231567</t>
+    <t xml:space="preserve">10.8507490158081</t>
   </si>
   <si>
     <t xml:space="preserve">10.8682088851929</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4967317581177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5665674209595</t>
+    <t xml:space="preserve">11.496732711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5665683746338</t>
   </si>
   <si>
     <t xml:space="preserve">11.5403785705566</t>
@@ -1202,22 +1202,22 @@
     <t xml:space="preserve">11.6276741027832</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8721008300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.758617401123</t>
+    <t xml:space="preserve">11.8720998764038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7586164474487</t>
   </si>
   <si>
     <t xml:space="preserve">10.8071041107178</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6936187744141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6150550842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6586999893188</t>
+    <t xml:space="preserve">10.6936197280884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6150541305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6587009429932</t>
   </si>
   <si>
     <t xml:space="preserve">10.5626764297485</t>
@@ -1235,64 +1235,64 @@
     <t xml:space="preserve">10.4753818511963</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4666547775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2920637130737</t>
+    <t xml:space="preserve">10.4666538238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2920627593994</t>
   </si>
   <si>
     <t xml:space="preserve">10.3531694412231</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3706293106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0738258361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0389089584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82940101623535</t>
+    <t xml:space="preserve">10.3706283569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.073826789856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0389080047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82940006256104</t>
   </si>
   <si>
     <t xml:space="preserve">9.71591663360596</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4841117858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.684889793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9816932678223</t>
+    <t xml:space="preserve">10.484112739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6848888397217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9816923141479</t>
   </si>
   <si>
     <t xml:space="preserve">11.1039047241211</t>
   </si>
   <si>
-    <t xml:space="preserve">10.990421295166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7372665405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6761608123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8332920074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7809152603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9467744827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9293155670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7198085784912</t>
+    <t xml:space="preserve">10.9904222488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7372674942017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6761617660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.833291053772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7809143066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9467754364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9293165206909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7198076248169</t>
   </si>
   <si>
     <t xml:space="preserve">10.8245620727539</t>
@@ -1304,19 +1304,19 @@
     <t xml:space="preserve">10.7983732223511</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8158330917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6325130462646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6063241958618</t>
+    <t xml:space="preserve">10.8158321380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6325120925903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6063261032104</t>
   </si>
   <si>
     <t xml:space="preserve">10.6674318313599</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5190305709839</t>
+    <t xml:space="preserve">10.5190296173096</t>
   </si>
   <si>
     <t xml:space="preserve">11.4443559646606</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">10.5801362991333</t>
   </si>
   <si>
-    <t xml:space="preserve">10.431736946106</t>
+    <t xml:space="preserve">10.4317350387573</t>
   </si>
   <si>
     <t xml:space="preserve">10.3007926940918</t>
@@ -1340,7 +1340,7 @@
     <t xml:space="preserve">10.4164323806763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7633504867554</t>
+    <t xml:space="preserve">10.7633495330811</t>
   </si>
   <si>
     <t xml:space="preserve">10.683292388916</t>
@@ -1349,28 +1349,28 @@
     <t xml:space="preserve">11.1636400222778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0657911300659</t>
+    <t xml:space="preserve">11.0657920837402</t>
   </si>
   <si>
     <t xml:space="preserve">10.9857330322266</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6032333374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8523044586182</t>
+    <t xml:space="preserve">10.6032342910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8523035049438</t>
   </si>
   <si>
     <t xml:space="preserve">10.8878841400146</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0302085876465</t>
+    <t xml:space="preserve">11.0302095413208</t>
   </si>
   <si>
     <t xml:space="preserve">11.074686050415</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0480003356934</t>
+    <t xml:space="preserve">11.048002243042</t>
   </si>
   <si>
     <t xml:space="preserve">11.101372718811</t>
@@ -1379,16 +1379,16 @@
     <t xml:space="preserve">11.3326511383057</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0391044616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1369533538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9145698547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7722454071045</t>
+    <t xml:space="preserve">11.0391054153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1369543075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9145708084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7722463607788</t>
   </si>
   <si>
     <t xml:space="preserve">10.7277688980103</t>
@@ -1400,31 +1400,31 @@
     <t xml:space="preserve">10.5053863525391</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2830028533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4431180953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.425329208374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2563171386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3096876144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0961999893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1228866577148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.211838722229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2385244369507</t>
+    <t xml:space="preserve">10.2830038070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4431190490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4253282546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2563161849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3096885681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0962009429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1228857040405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2118396759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.238525390625</t>
   </si>
   <si>
     <t xml:space="preserve">10.3541650772095</t>
@@ -1436,10 +1436,10 @@
     <t xml:space="preserve">10.6655015945435</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6477098464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8967790603638</t>
+    <t xml:space="preserve">10.6477108001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8967800140381</t>
   </si>
   <si>
     <t xml:space="preserve">10.8700942993164</t>
@@ -1457,37 +1457,37 @@
     <t xml:space="preserve">10.4964904785156</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3808498382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3986415863037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2029447555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4075365066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6121292114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1406764984131</t>
+    <t xml:space="preserve">10.3808517456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.398642539978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2029438018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4075374603271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6121301651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1406774520874</t>
   </si>
   <si>
     <t xml:space="preserve">10.060619354248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1317806243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0339317321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90939903259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94497966766357</t>
+    <t xml:space="preserve">10.131781578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0339326858521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90939998626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94498062133789</t>
   </si>
   <si>
     <t xml:space="preserve">10.0428295135498</t>
@@ -1499,19 +1499,19 @@
     <t xml:space="preserve">9.82934093475342</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98056030273438</t>
+    <t xml:space="preserve">9.98056125640869</t>
   </si>
   <si>
     <t xml:space="preserve">10.2741060256958</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2474203109741</t>
+    <t xml:space="preserve">10.2474212646484</t>
   </si>
   <si>
     <t xml:space="preserve">10.1139917373657</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91829395294189</t>
+    <t xml:space="preserve">9.91829299926758</t>
   </si>
   <si>
     <t xml:space="preserve">9.9271879196167</t>
@@ -1520,7 +1520,7 @@
     <t xml:space="preserve">10.0873041152954</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96276950836182</t>
+    <t xml:space="preserve">9.96277046203613</t>
   </si>
   <si>
     <t xml:space="preserve">10.0695133209229</t>
@@ -1529,13 +1529,13 @@
     <t xml:space="preserve">10.1851530075073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5587577819824</t>
+    <t xml:space="preserve">10.5587587356567</t>
   </si>
   <si>
     <t xml:space="preserve">10.5943393707275</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3630599975586</t>
+    <t xml:space="preserve">10.3630609512329</t>
   </si>
   <si>
     <t xml:space="preserve">10.3274784088135</t>
@@ -1544,25 +1544,25 @@
     <t xml:space="preserve">10.2296304702759</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0517225265503</t>
+    <t xml:space="preserve">10.0517234802246</t>
   </si>
   <si>
     <t xml:space="preserve">10.2207345962524</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87381649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55358505249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57137680053711</t>
+    <t xml:space="preserve">9.87381839752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55358600616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57137584686279</t>
   </si>
   <si>
     <t xml:space="preserve">9.01097011566162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83751201629639</t>
+    <t xml:space="preserve">8.83751106262207</t>
   </si>
   <si>
     <t xml:space="preserve">8.74855804443359</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">8.41943073272705</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73966217041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83306312561035</t>
+    <t xml:space="preserve">8.73966312408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83306217193604</t>
   </si>
   <si>
     <t xml:space="preserve">8.7174243927002</t>
@@ -1583,7 +1583,7 @@
     <t xml:space="preserve">8.60178470611572</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46390724182129</t>
+    <t xml:space="preserve">8.46390628814697</t>
   </si>
   <si>
     <t xml:space="preserve">8.5306224822998</t>
@@ -1595,49 +1595,49 @@
     <t xml:space="preserve">8.65960502624512</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5261754989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79303550720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69963359832764</t>
+    <t xml:space="preserve">8.52617454528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79303455352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69963264465332</t>
   </si>
   <si>
     <t xml:space="preserve">8.89088344573975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80193042755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75745391845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53507137298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41053676605225</t>
+    <t xml:space="preserve">8.80192947387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75745296478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53507041931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41053581237793</t>
   </si>
   <si>
     <t xml:space="preserve">8.31268692016602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07695865631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01024627685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05472183227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11698913574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29489517211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32158279418945</t>
+    <t xml:space="preserve">8.07695960998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01024532318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05472087860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11698818206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29489612579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32158088684082</t>
   </si>
   <si>
     <t xml:space="preserve">8.29934310913086</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">8.5884428024292</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93091106414795</t>
+    <t xml:space="preserve">8.93091201782227</t>
   </si>
   <si>
     <t xml:space="preserve">8.92201709747314</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">8.85974884033203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07323741912842</t>
+    <t xml:space="preserve">9.07323837280273</t>
   </si>
   <si>
     <t xml:space="preserve">8.79748249053955</t>
@@ -1673,58 +1673,58 @@
     <t xml:space="preserve">8.49059295654297</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27265644073486</t>
+    <t xml:space="preserve">8.27265739440918</t>
   </si>
   <si>
     <t xml:space="preserve">8.38384914398193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64181423187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09920024871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97911262512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29044818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10364627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15257167816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86347198486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9123969078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97021579742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908357620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25486660003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22818183898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05544757843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14439964294434</t>
+    <t xml:space="preserve">8.64181327819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09919929504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97911214828491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29044914245605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10364532470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1525707244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86347055435181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91239643096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97021627426147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908405303955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25486755371094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22818088531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05544567108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14440059661865</t>
   </si>
   <si>
     <t xml:space="preserve">8.78858661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69073867797852</t>
+    <t xml:space="preserve">8.6907377243042</t>
   </si>
   <si>
     <t xml:space="preserve">8.70852947235107</t>
@@ -1742,10 +1742,10 @@
     <t xml:space="preserve">8.81082439422607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77524375915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91312217712402</t>
+    <t xml:space="preserve">8.77524471282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91312313079834</t>
   </si>
   <si>
     <t xml:space="preserve">9.17998123168945</t>
@@ -1754,10 +1754,10 @@
     <t xml:space="preserve">8.88198757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87754058837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86864376068115</t>
+    <t xml:space="preserve">8.87754154205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86864471435547</t>
   </si>
   <si>
     <t xml:space="preserve">8.85085391998291</t>
@@ -1766,13 +1766,13 @@
     <t xml:space="preserve">8.81527233123779</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81972217559814</t>
+    <t xml:space="preserve">8.81972122192383</t>
   </si>
   <si>
     <t xml:space="preserve">8.54841232299805</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45056438446045</t>
+    <t xml:space="preserve">8.45056533813477</t>
   </si>
   <si>
     <t xml:space="preserve">8.70408153533936</t>
@@ -1781,7 +1781,7 @@
     <t xml:space="preserve">8.89532947540283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09102916717529</t>
+    <t xml:space="preserve">9.09102725982666</t>
   </si>
   <si>
     <t xml:space="preserve">8.9753885269165</t>
@@ -1799,37 +1799,37 @@
     <t xml:space="preserve">9.62474727630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65143394470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41125869750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46463108062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66032886505127</t>
+    <t xml:space="preserve">9.65143299102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4112606048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46463203430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66032791137695</t>
   </si>
   <si>
     <t xml:space="preserve">9.26893424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1355037689209</t>
+    <t xml:space="preserve">9.13550472259521</t>
   </si>
   <si>
     <t xml:space="preserve">9.10881805419922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11771392822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06434154510498</t>
+    <t xml:space="preserve">9.11771488189697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0643424987793</t>
   </si>
   <si>
     <t xml:space="preserve">9.04655170440674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23335361480713</t>
+    <t xml:space="preserve">9.23335266113281</t>
   </si>
   <si>
     <t xml:space="preserve">9.47352695465088</t>
@@ -1850,34 +1850,34 @@
     <t xml:space="preserve">9.2867259979248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08213233947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9664945602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0020751953125</t>
+    <t xml:space="preserve">9.08213329315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96649265289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00207424163818</t>
   </si>
   <si>
     <t xml:space="preserve">8.99317932128906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19777202606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86492156982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78486347198486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75817680358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99835109710693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4342222213745</t>
+    <t xml:space="preserve">9.1977710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8649206161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78486442565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75817775726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99835014343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4342231750488</t>
   </si>
   <si>
     <t xml:space="preserve">10.5676527023315</t>
@@ -1886,43 +1886,43 @@
     <t xml:space="preserve">10.1673631668091</t>
   </si>
   <si>
-    <t xml:space="preserve">9.97166538238525</t>
+    <t xml:space="preserve">9.97166633605957</t>
   </si>
   <si>
     <t xml:space="preserve">9.8560266494751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18887519836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27782917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16219043731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07778263092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0914192199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05959987640381</t>
+    <t xml:space="preserve">9.18887710571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27783012390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16218948364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07778358459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09142017364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05960083007812</t>
   </si>
   <si>
     <t xml:space="preserve">8.72776317596436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84595203399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8914098739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.90050029754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78231239318848</t>
+    <t xml:space="preserve">8.8459529876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89140892028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9005012512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78231143951416</t>
   </si>
   <si>
     <t xml:space="preserve">8.86413478851318</t>
@@ -1934,28 +1934,28 @@
     <t xml:space="preserve">8.48229503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68230724334717</t>
+    <t xml:space="preserve">8.68230628967285</t>
   </si>
   <si>
     <t xml:space="preserve">8.88231754302979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9959602355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9777774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21870040893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07323837280273</t>
+    <t xml:space="preserve">8.99596118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97777652740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21870136260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07323932647705</t>
   </si>
   <si>
     <t xml:space="preserve">9.04596424102783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04141712188721</t>
+    <t xml:space="preserve">9.04141807556152</t>
   </si>
   <si>
     <t xml:space="preserve">9.26415729522705</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">9.14596939086914</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39143753051758</t>
+    <t xml:space="preserve">9.39143657684326</t>
   </si>
   <si>
     <t xml:space="preserve">9.33688831329346</t>
@@ -1973,13 +1973,13 @@
     <t xml:space="preserve">9.17324352264404</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03232669830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20960903167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44598484039307</t>
+    <t xml:space="preserve">9.03232574462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20960998535156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44598579406738</t>
   </si>
   <si>
     <t xml:space="preserve">9.38234615325928</t>
@@ -1988,64 +1988,64 @@
     <t xml:space="preserve">9.61872291564941</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66417980194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57326698303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25506687164307</t>
+    <t xml:space="preserve">9.66417789459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57326507568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25506591796875</t>
   </si>
   <si>
     <t xml:space="preserve">9.12778568267822</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10960388183594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8050422668457</t>
+    <t xml:space="preserve">9.10960483551025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80504131317139</t>
   </si>
   <si>
     <t xml:space="preserve">8.76412963867188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79140377044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93686676025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24597454071045</t>
+    <t xml:space="preserve">8.79140281677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93686771392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24597549438477</t>
   </si>
   <si>
     <t xml:space="preserve">9.4096212387085</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34598064422607</t>
+    <t xml:space="preserve">9.34597969055176</t>
   </si>
   <si>
     <t xml:space="preserve">8.47774887084961</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4277458190918</t>
+    <t xml:space="preserve">8.42774677276611</t>
   </si>
   <si>
     <t xml:space="preserve">8.46865844726562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25046539306641</t>
+    <t xml:space="preserve">8.25046443939209</t>
   </si>
   <si>
     <t xml:space="preserve">8.05499839782715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89589834213257</t>
+    <t xml:space="preserve">7.89589881896973</t>
   </si>
   <si>
     <t xml:space="preserve">7.92771863937378</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90953588485718</t>
+    <t xml:space="preserve">7.90953540802002</t>
   </si>
   <si>
     <t xml:space="preserve">7.65497541427612</t>
@@ -2054,7 +2054,7 @@
     <t xml:space="preserve">7.56406211853027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65952110290527</t>
+    <t xml:space="preserve">7.65952205657959</t>
   </si>
   <si>
     <t xml:space="preserve">7.48678398132324</t>
@@ -2063,13 +2063,13 @@
     <t xml:space="preserve">7.46860218048096</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54587888717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53678703308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78680181503296</t>
+    <t xml:space="preserve">7.54587841033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5367865562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7868013381958</t>
   </si>
   <si>
     <t xml:space="preserve">7.66861295700073</t>
@@ -2084,13 +2084,13 @@
     <t xml:space="preserve">7.71407032012939</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72316217422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59588098526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80498456954956</t>
+    <t xml:space="preserve">7.7231616973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59588146209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80498504638672</t>
   </si>
   <si>
     <t xml:space="preserve">8.07772731781006</t>
@@ -2099,13 +2099,13 @@
     <t xml:space="preserve">8.27773952484131</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35501575469971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52320671081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59139251708984</t>
+    <t xml:space="preserve">8.35501480102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52320766448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59139156341553</t>
   </si>
   <si>
     <t xml:space="preserve">8.65503215789795</t>
@@ -2117,7 +2117,7 @@
     <t xml:space="preserve">8.49138641357422</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60502910614014</t>
+    <t xml:space="preserve">8.60503005981445</t>
   </si>
   <si>
     <t xml:space="preserve">8.15954971313477</t>
@@ -2126,31 +2126,31 @@
     <t xml:space="preserve">8.00499629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88680744171143</t>
+    <t xml:space="preserve">7.88680791854858</t>
   </si>
   <si>
     <t xml:space="preserve">8.02317810058594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11863899230957</t>
+    <t xml:space="preserve">8.11863803863525</t>
   </si>
   <si>
     <t xml:space="preserve">8.12773036956787</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95499324798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78225564956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6731595993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.727707862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7186164855957</t>
+    <t xml:space="preserve">7.95499277114868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78225660324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67315864562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72770833969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71861600875854</t>
   </si>
   <si>
     <t xml:space="preserve">7.58224439620972</t>
@@ -2159,7 +2159,7 @@
     <t xml:space="preserve">7.74589109420776</t>
   </si>
   <si>
-    <t xml:space="preserve">8.13682174682617</t>
+    <t xml:space="preserve">8.13682079315186</t>
   </si>
   <si>
     <t xml:space="preserve">8.14591217041016</t>
@@ -2168,55 +2168,55 @@
     <t xml:space="preserve">8.3004674911499</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33683204650879</t>
+    <t xml:space="preserve">8.33683300018311</t>
   </si>
   <si>
     <t xml:space="preserve">8.09136390686035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20500659942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.48684215545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55502796173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59593868255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66867065429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9686861038208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67776012420654</t>
+    <t xml:space="preserve">8.20500755310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.48684120178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55502700805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59593772888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66866874694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96868705749512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67776107788086</t>
   </si>
   <si>
     <t xml:space="preserve">8.74594593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29143238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45507717132568</t>
+    <t xml:space="preserve">9.29143142700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.455078125</t>
   </si>
   <si>
     <t xml:space="preserve">9.48235130310059</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71872806549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90964889526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1096591949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0551109313965</t>
+    <t xml:space="preserve">9.71872901916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90964698791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.109658241272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0551118850708</t>
   </si>
   <si>
     <t xml:space="preserve">9.81873416900635</t>
@@ -2225,22 +2225,22 @@
     <t xml:space="preserve">9.69145393371582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83691692352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58235645294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76418495178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65508842468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82782554626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0005617141724</t>
+    <t xml:space="preserve">9.83691596984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58235740661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76418590545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65508937835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82782649993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0005626678467</t>
   </si>
   <si>
     <t xml:space="preserve">10.0823850631714</t>
@@ -2249,7 +2249,7 @@
     <t xml:space="preserve">10.1642084121704</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1278429031372</t>
+    <t xml:space="preserve">10.1278438568115</t>
   </si>
   <si>
     <t xml:space="preserve">10.2187566757202</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">10.1732997894287</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2278470993042</t>
+    <t xml:space="preserve">10.2278480529785</t>
   </si>
   <si>
     <t xml:space="preserve">10.2823963165283</t>
@@ -2273,13 +2273,13 @@
     <t xml:space="preserve">10.2005739212036</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2551212310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3460369110107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4369497299194</t>
+    <t xml:space="preserve">10.2551221847534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3460359573364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4369506835938</t>
   </si>
   <si>
     <t xml:space="preserve">10.3278532028198</t>
@@ -2297,19 +2297,19 @@
     <t xml:space="preserve">9.63690567016602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87328338623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98237991333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0642032623291</t>
+    <t xml:space="preserve">9.87328147888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98238086700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0642023086548</t>
   </si>
   <si>
     <t xml:space="preserve">10.0369281768799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0460205078125</t>
+    <t xml:space="preserve">10.0460186004639</t>
   </si>
   <si>
     <t xml:space="preserve">10.1187505722046</t>
@@ -2318,28 +2318,28 @@
     <t xml:space="preserve">10.091477394104</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92783164978027</t>
+    <t xml:space="preserve">9.92783260345459</t>
   </si>
   <si>
     <t xml:space="preserve">9.64599704742432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54599189758301</t>
+    <t xml:space="preserve">9.54599285125732</t>
   </si>
   <si>
     <t xml:space="preserve">9.67327117919922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53690052032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35507202148438</t>
+    <t xml:space="preserve">9.53689956665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35507297515869</t>
   </si>
   <si>
     <t xml:space="preserve">9.60054016113281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4641695022583</t>
+    <t xml:space="preserve">9.46416854858398</t>
   </si>
   <si>
     <t xml:space="preserve">9.41871070861816</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">9.78236865997314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77327728271484</t>
+    <t xml:space="preserve">9.77327632904053</t>
   </si>
   <si>
     <t xml:space="preserve">9.55508232116699</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">9.42780303955078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70048809051514</t>
+    <t xml:space="preserve">8.70048904418945</t>
   </si>
   <si>
     <t xml:space="preserve">8.64139461517334</t>
@@ -2372,7 +2372,7 @@
     <t xml:space="preserve">8.64594078063965</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40047264099121</t>
+    <t xml:space="preserve">8.40047359466553</t>
   </si>
   <si>
     <t xml:space="preserve">8.21864414215088</t>
@@ -2381,13 +2381,13 @@
     <t xml:space="preserve">7.77316427230835</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87771606445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70043420791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37768793106079</t>
+    <t xml:space="preserve">7.87771558761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7004337310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37768745422363</t>
   </si>
   <si>
     <t xml:space="preserve">7.44587326049805</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">6.89129638671875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79583644866943</t>
+    <t xml:space="preserve">6.79583597183228</t>
   </si>
   <si>
     <t xml:space="preserve">6.36399412155151</t>
@@ -2417,37 +2417,37 @@
     <t xml:space="preserve">6.79129076004028</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37314081192017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00954151153564</t>
+    <t xml:space="preserve">7.37314128875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00954055786133</t>
   </si>
   <si>
     <t xml:space="preserve">7.07312488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27768230438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70946788787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54582262039185</t>
+    <t xml:space="preserve">7.27768182754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70946741104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.545823097229</t>
   </si>
   <si>
     <t xml:space="preserve">6.04579448699951</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17761993408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06397676467896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81850957870483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3730297088623</t>
+    <t xml:space="preserve">6.17762041091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.06397724151611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81850910186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37302923202515</t>
   </si>
   <si>
     <t xml:space="preserve">5.67304611206055</t>
@@ -2462,25 +2462,25 @@
     <t xml:space="preserve">6.03670310974121</t>
   </si>
   <si>
-    <t xml:space="preserve">5.85487413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90487718582153</t>
+    <t xml:space="preserve">5.85487461090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90487766265869</t>
   </si>
   <si>
     <t xml:space="preserve">6.14580011367798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28217124938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.227623462677</t>
+    <t xml:space="preserve">6.28217172622681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22762298583984</t>
   </si>
   <si>
     <t xml:space="preserve">6.2776255607605</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63673686981201</t>
+    <t xml:space="preserve">6.63673639297485</t>
   </si>
   <si>
     <t xml:space="preserve">6.83220243453979</t>
@@ -2492,25 +2492,25 @@
     <t xml:space="preserve">6.9412989616394</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1185827255249</t>
+    <t xml:space="preserve">7.11858224868774</t>
   </si>
   <si>
     <t xml:space="preserve">7.05948829650879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96857357025146</t>
+    <t xml:space="preserve">6.96857404708862</t>
   </si>
   <si>
     <t xml:space="preserve">6.72310543060303</t>
   </si>
   <si>
-    <t xml:space="preserve">6.71855974197388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59582567214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.454909324646</t>
+    <t xml:space="preserve">6.71855926513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59582614898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45490884780884</t>
   </si>
   <si>
     <t xml:space="preserve">5.98215484619141</t>
@@ -2519,16 +2519,16 @@
     <t xml:space="preserve">6.03215742111206</t>
   </si>
   <si>
-    <t xml:space="preserve">6.49127388000488</t>
+    <t xml:space="preserve">6.49127340316772</t>
   </si>
   <si>
     <t xml:space="preserve">6.45945453643799</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44581699371338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62764453887939</t>
+    <t xml:space="preserve">6.44581651687622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62764501571655</t>
   </si>
   <si>
     <t xml:space="preserve">6.83674812316895</t>
@@ -2549,34 +2549,34 @@
     <t xml:space="preserve">7.68679571151733</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08227443695068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96408414840698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83225870132446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35950517654419</t>
+    <t xml:space="preserve">8.08227348327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96408462524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83225917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35950565338135</t>
   </si>
   <si>
     <t xml:space="preserve">7.62315559387207</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61860990524292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47314739227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4958758354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43678188323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36405086517334</t>
+    <t xml:space="preserve">7.61861085891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47314786911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49587631225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43678140640259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36405038833618</t>
   </si>
   <si>
     <t xml:space="preserve">7.46405601501465</t>
@@ -2591,7 +2591,7 @@
     <t xml:space="preserve">7.4322361946106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67770528793335</t>
+    <t xml:space="preserve">7.67770481109619</t>
   </si>
   <si>
     <t xml:space="preserve">7.52315044403076</t>
@@ -2600,10 +2600,10 @@
     <t xml:space="preserve">7.63679313659668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59133672714233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40950727462769</t>
+    <t xml:space="preserve">7.59133625030518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40950775146484</t>
   </si>
   <si>
     <t xml:space="preserve">7.5140585899353</t>
@@ -2612,10 +2612,10 @@
     <t xml:space="preserve">7.70952415466309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42769002914429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94584512710571</t>
+    <t xml:space="preserve">7.42769050598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94584560394287</t>
   </si>
   <si>
     <t xml:space="preserve">6.85493040084839</t>
@@ -2624,10 +2624,10 @@
     <t xml:space="preserve">6.93675374984741</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00039386749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92766332626343</t>
+    <t xml:space="preserve">7.00039434432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92766237258911</t>
   </si>
   <si>
     <t xml:space="preserve">6.95493698120117</t>
@@ -2639,13 +2639,13 @@
     <t xml:space="preserve">7.31859302520752</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40041589736938</t>
+    <t xml:space="preserve">7.40041542053223</t>
   </si>
   <si>
     <t xml:space="preserve">7.31404781341553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30495643615723</t>
+    <t xml:space="preserve">7.30495691299438</t>
   </si>
   <si>
     <t xml:space="preserve">7.26404476165771</t>
@@ -2654,28 +2654,28 @@
     <t xml:space="preserve">7.20040512084961</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33223104476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34586763381958</t>
+    <t xml:space="preserve">7.33223056793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34586715698242</t>
   </si>
   <si>
     <t xml:space="preserve">7.35495901107788</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27313613891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62770223617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55951690673828</t>
+    <t xml:space="preserve">7.27313661575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62770175933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55951642990112</t>
   </si>
   <si>
     <t xml:space="preserve">7.76407337188721</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88226222991943</t>
+    <t xml:space="preserve">7.88226175308228</t>
   </si>
   <si>
     <t xml:space="preserve">8.2641019821167</t>
@@ -2684,25 +2684,25 @@
     <t xml:space="preserve">7.85044145584106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68224954605103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13676452636719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.24586248397827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.29586458206177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32768440246582</t>
+    <t xml:space="preserve">7.68225002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13676500320435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.24586200714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.29586505889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32768487930298</t>
   </si>
   <si>
     <t xml:space="preserve">7.57769918441772</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75498151779175</t>
+    <t xml:space="preserve">7.75498199462891</t>
   </si>
   <si>
     <t xml:space="preserve">8.15045833587646</t>
@@ -2714,10 +2714,10 @@
     <t xml:space="preserve">8.29137516021729</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01863193511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96863126754761</t>
+    <t xml:space="preserve">8.01863288879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96862983703613</t>
   </si>
   <si>
     <t xml:space="preserve">7.89135313034058</t>
@@ -2729,25 +2729,25 @@
     <t xml:space="preserve">7.85498762130737</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05954360961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08681869506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25955581665039</t>
+    <t xml:space="preserve">8.05954456329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08681774139404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25955486297607</t>
   </si>
   <si>
     <t xml:space="preserve">8.28228282928467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45047378540039</t>
+    <t xml:space="preserve">8.45047473907471</t>
   </si>
   <si>
     <t xml:space="preserve">8.85958957672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8458948135376</t>
+    <t xml:space="preserve">7.84589529037476</t>
   </si>
   <si>
     <t xml:space="preserve">8.10954666137695</t>
@@ -2762,19 +2762,19 @@
     <t xml:space="preserve">8.06863594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15500354766846</t>
+    <t xml:space="preserve">8.15500450134277</t>
   </si>
   <si>
     <t xml:space="preserve">9.56417465209961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50962543487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73691082000732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.191481590271</t>
+    <t xml:space="preserve">9.5096263885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73691177368164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1914825439453</t>
   </si>
   <si>
     <t xml:space="preserve">9.93692207336426</t>
@@ -2789,7 +2789,7 @@
     <t xml:space="preserve">9.70054626464844</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88237476348877</t>
+    <t xml:space="preserve">9.88237571716309</t>
   </si>
   <si>
     <t xml:space="preserve">9.80964279174805</t>
@@ -2798,58 +2798,58 @@
     <t xml:space="preserve">9.85510063171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75509357452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72782039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96419620513916</t>
+    <t xml:space="preserve">9.75509452819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72781944274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96419811248779</t>
   </si>
   <si>
     <t xml:space="preserve">9.84600925445557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36416339874268</t>
+    <t xml:space="preserve">9.36416244506836</t>
   </si>
   <si>
     <t xml:space="preserve">10.1005687713623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.264214515686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4642238616943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4914979934692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3005790710449</t>
+    <t xml:space="preserve">10.2642154693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4642248153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4914989471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3005800247192</t>
   </si>
   <si>
     <t xml:space="preserve">10.0187463760376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2460308074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80055046081543</t>
+    <t xml:space="preserve">10.2460298538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80054950714111</t>
   </si>
   <si>
     <t xml:space="preserve">9.86419105529785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79145908355713</t>
+    <t xml:space="preserve">9.79146099090576</t>
   </si>
   <si>
     <t xml:space="preserve">10.182391166687</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91873931884766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27324867248535</t>
+    <t xml:space="preserve">9.91874027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27324962615967</t>
   </si>
   <si>
     <t xml:space="preserve">9.50053405761719</t>
@@ -2870,16 +2870,16 @@
     <t xml:space="preserve">9.51871776580811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22779178619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40052890777588</t>
+    <t xml:space="preserve">9.22779083251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40052795410156</t>
   </si>
   <si>
     <t xml:space="preserve">9.16415214538574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32779788970947</t>
+    <t xml:space="preserve">9.32779693603516</t>
   </si>
   <si>
     <t xml:space="preserve">9.30052280426025</t>
@@ -2891,7 +2891,7 @@
     <t xml:space="preserve">9.53336048126221</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52406024932861</t>
+    <t xml:space="preserve">9.5240592956543</t>
   </si>
   <si>
     <t xml:space="preserve">9.77518272399902</t>
@@ -2903,7 +2903,7 @@
     <t xml:space="preserve">10.0821104049683</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1565170288086</t>
+    <t xml:space="preserve">10.1565179824829</t>
   </si>
   <si>
     <t xml:space="preserve">10.1751184463501</t>
@@ -2915,7 +2915,7 @@
     <t xml:space="preserve">10.3518352508545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.147216796875</t>
+    <t xml:space="preserve">10.1472158432007</t>
   </si>
   <si>
     <t xml:space="preserve">10.1007118225098</t>
@@ -2924,10 +2924,10 @@
     <t xml:space="preserve">10.0356063842773</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0542087554932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86818981170654</t>
+    <t xml:space="preserve">10.0542078018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86819076538086</t>
   </si>
   <si>
     <t xml:space="preserve">9.85889053344727</t>
@@ -2936,16 +2936,16 @@
     <t xml:space="preserve">9.69147491455078</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87749290466309</t>
+    <t xml:space="preserve">9.87749195098877</t>
   </si>
   <si>
     <t xml:space="preserve">9.98910140991211</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9611988067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0449066162109</t>
+    <t xml:space="preserve">9.96119976043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0449075698853</t>
   </si>
   <si>
     <t xml:space="preserve">9.84958934783936</t>
@@ -2957,7 +2957,7 @@
     <t xml:space="preserve">9.9518985748291</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90539455413818</t>
+    <t xml:space="preserve">9.90539360046387</t>
   </si>
   <si>
     <t xml:space="preserve">9.89609432220459</t>
@@ -2966,22 +2966,22 @@
     <t xml:space="preserve">9.70077705383301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1193141937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99840354919434</t>
+    <t xml:space="preserve">10.1193132400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99840259552002</t>
   </si>
   <si>
     <t xml:space="preserve">9.63566970825195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67287349700928</t>
+    <t xml:space="preserve">9.67287254333496</t>
   </si>
   <si>
     <t xml:space="preserve">9.72867870330811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73797988891602</t>
+    <t xml:space="preserve">9.7379789352417</t>
   </si>
   <si>
     <t xml:space="preserve">10.1286153793335</t>
@@ -2990,7 +2990,7 @@
     <t xml:space="preserve">10.2495260238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7703723907471</t>
+    <t xml:space="preserve">10.7703733444214</t>
   </si>
   <si>
     <t xml:space="preserve">10.9656896591187</t>
@@ -2999,16 +2999,16 @@
     <t xml:space="preserve">11.0400972366333</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0773000717163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1331062316895</t>
+    <t xml:space="preserve">11.077299118042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1331052780151</t>
   </si>
   <si>
     <t xml:space="preserve">11.2540168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3377237319946</t>
+    <t xml:space="preserve">11.3377227783203</t>
   </si>
   <si>
     <t xml:space="preserve">11.3842277526855</t>
@@ -3032,19 +3032,19 @@
     <t xml:space="preserve">11.3284225463867</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2261142730713</t>
+    <t xml:space="preserve">11.226113319397</t>
   </si>
   <si>
     <t xml:space="preserve">11.4400329589844</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4121313095093</t>
+    <t xml:space="preserve">11.412130355835</t>
   </si>
   <si>
     <t xml:space="preserve">11.3749265670776</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2726182937622</t>
+    <t xml:space="preserve">11.2726173400879</t>
   </si>
   <si>
     <t xml:space="preserve">11.3098211288452</t>
@@ -3056,34 +3056,34 @@
     <t xml:space="preserve">11.3191223144531</t>
   </si>
   <si>
-    <t xml:space="preserve">11.291220664978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3005199432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1982107162476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1517057418823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1796102523804</t>
+    <t xml:space="preserve">11.2912197113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3005208969116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1982116699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.151707649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1796092987061</t>
   </si>
   <si>
     <t xml:space="preserve">11.2354145050049</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8075761795044</t>
+    <t xml:space="preserve">10.8075752258301</t>
   </si>
   <si>
     <t xml:space="preserve">10.6308603286743</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2681274414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3239336013794</t>
+    <t xml:space="preserve">10.2681264877319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3239326477051</t>
   </si>
   <si>
     <t xml:space="preserve">10.4913473129272</t>
@@ -3098,31 +3098,31 @@
     <t xml:space="preserve">10.4634447097778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2309226989746</t>
+    <t xml:space="preserve">10.2309236526489</t>
   </si>
   <si>
     <t xml:space="preserve">10.1658182144165</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91469478607178</t>
+    <t xml:space="preserve">9.91469573974609</t>
   </si>
   <si>
     <t xml:space="preserve">9.82168769836426</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0263051986694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0635089874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1100120544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2030220031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2123222351074</t>
+    <t xml:space="preserve">10.0263061523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0635080337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1100130081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2030210494995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2123212814331</t>
   </si>
   <si>
     <t xml:space="preserve">10.184419631958</t>
@@ -3134,7 +3134,7 @@
     <t xml:space="preserve">10.3890380859375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3332328796387</t>
+    <t xml:space="preserve">10.3332319259644</t>
   </si>
   <si>
     <t xml:space="preserve">10.5378513336182</t>
@@ -3146,10 +3146,10 @@
     <t xml:space="preserve">10.5750551223755</t>
   </si>
   <si>
-    <t xml:space="preserve">10.556453704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6587619781494</t>
+    <t xml:space="preserve">10.5564546585083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6587629318237</t>
   </si>
   <si>
     <t xml:space="preserve">10.7145681381226</t>
@@ -3158,19 +3158,19 @@
     <t xml:space="preserve">10.8261785507202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9005842208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7238674163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6773643493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7982759475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.816876411438</t>
+    <t xml:space="preserve">10.9005851745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7238683700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6773633956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7982740402222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8168773651123</t>
   </si>
   <si>
     <t xml:space="preserve">11.1703090667725</t>
@@ -3179,16 +3179,16 @@
     <t xml:space="preserve">11.2447156906128</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0866003036499</t>
+    <t xml:space="preserve">11.0866022109985</t>
   </si>
   <si>
     <t xml:space="preserve">11.1610078811646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9470891952515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4541435241699</t>
+    <t xml:space="preserve">10.9470882415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4541444778442</t>
   </si>
   <si>
     <t xml:space="preserve">10.6215600967407</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">10.9842929840088</t>
   </si>
   <si>
-    <t xml:space="preserve">11.26331615448</t>
+    <t xml:space="preserve">11.2633171081543</t>
   </si>
   <si>
     <t xml:space="preserve">11.551643371582</t>
@@ -3209,16 +3209,16 @@
     <t xml:space="preserve">11.3656272888184</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3563251495361</t>
+    <t xml:space="preserve">11.3563261032104</t>
   </si>
   <si>
     <t xml:space="preserve">11.4865379333496</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5144395828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5795450210571</t>
+    <t xml:space="preserve">11.514440536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5795459747314</t>
   </si>
   <si>
     <t xml:space="preserve">11.6539516448975</t>
@@ -3227,10 +3227,10 @@
     <t xml:space="preserve">11.6353511810303</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5981483459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8771734237671</t>
+    <t xml:space="preserve">11.5981473922729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8771724700928</t>
   </si>
   <si>
     <t xml:space="preserve">12.0538883209229</t>
@@ -3248,10 +3248,10 @@
     <t xml:space="preserve">12.2771081924438</t>
   </si>
   <si>
-    <t xml:space="preserve">11.626049041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6167488098145</t>
+    <t xml:space="preserve">11.6260499954224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6167497634888</t>
   </si>
   <si>
     <t xml:space="preserve">11.7376594543457</t>
@@ -3260,16 +3260,16 @@
     <t xml:space="preserve">11.6725540161133</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5423431396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2168130874634</t>
+    <t xml:space="preserve">11.5423412322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2168140411377</t>
   </si>
   <si>
     <t xml:space="preserve">10.7052669525146</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9191865921021</t>
+    <t xml:space="preserve">10.9191856384277</t>
   </si>
   <si>
     <t xml:space="preserve">10.7517719268799</t>
@@ -3284,13 +3284,13 @@
     <t xml:space="preserve">11.002893447876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7889738082886</t>
+    <t xml:space="preserve">10.7889747619629</t>
   </si>
   <si>
     <t xml:space="preserve">11.1052026748657</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0121946334839</t>
+    <t xml:space="preserve">11.0121936798096</t>
   </si>
   <si>
     <t xml:space="preserve">10.779673576355</t>
@@ -3323,16 +3323,16 @@
     <t xml:space="preserve">8.64978122711182</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8497486114502</t>
+    <t xml:space="preserve">8.84974956512451</t>
   </si>
   <si>
     <t xml:space="preserve">8.99391174316406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42175006866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29619026184082</t>
+    <t xml:space="preserve">9.42175102233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2961893081665</t>
   </si>
   <si>
     <t xml:space="preserve">9.34734439849854</t>
@@ -3344,7 +3344,7 @@
     <t xml:space="preserve">9.5147590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4682559967041</t>
+    <t xml:space="preserve">9.46825504302979</t>
   </si>
   <si>
     <t xml:space="preserve">9.31014060974121</t>
@@ -3353,31 +3353,31 @@
     <t xml:space="preserve">9.11947441101074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23108386993408</t>
+    <t xml:space="preserve">9.2310848236084</t>
   </si>
   <si>
     <t xml:space="preserve">9.68217372894287</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58916664123535</t>
+    <t xml:space="preserve">9.58916568756104</t>
   </si>
   <si>
     <t xml:space="preserve">9.41244983673096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3008394241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36594486236572</t>
+    <t xml:space="preserve">9.30084037780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36594581604004</t>
   </si>
   <si>
     <t xml:space="preserve">9.15202713012695</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74744033813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56607246398926</t>
+    <t xml:space="preserve">8.74743938446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56607341766357</t>
   </si>
   <si>
     <t xml:space="preserve">8.66838264465332</t>
@@ -3386,22 +3386,22 @@
     <t xml:space="preserve">8.57537460327148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61257839202881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65443134307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67303371429443</t>
+    <t xml:space="preserve">8.61257743835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65443229675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67303276062012</t>
   </si>
   <si>
     <t xml:space="preserve">8.82649707794189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26828765869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02646446228027</t>
+    <t xml:space="preserve">9.26828670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02646541595459</t>
   </si>
   <si>
     <t xml:space="preserve">8.88695335388184</t>
@@ -3413,7 +3413,7 @@
     <t xml:space="preserve">8.77534294128418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92880725860596</t>
+    <t xml:space="preserve">8.92880630493164</t>
   </si>
   <si>
     <t xml:space="preserve">8.80324554443359</t>
@@ -3422,19 +3422,19 @@
     <t xml:space="preserve">8.6032772064209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48236656188965</t>
+    <t xml:space="preserve">8.48236560821533</t>
   </si>
   <si>
     <t xml:space="preserve">8.55212211608887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42191028594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20783138275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0077047348022</t>
+    <t xml:space="preserve">8.42191123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20783042907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0077037811279</t>
   </si>
   <si>
     <t xml:space="preserve">10.0387487411499</t>
@@ -4833,6 +4833,9 @@
   </si>
   <si>
     <t xml:space="preserve">10.28600025177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3780002593994</t>
   </si>
 </sst>
 </file>
@@ -62426,7 +62429,7 @@
     </row>
     <row r="2203">
       <c r="A2203" s="1" t="n">
-        <v>45531.6493865741</v>
+        <v>45531.2916666667</v>
       </c>
       <c r="B2203" t="n">
         <v>169395</v>
@@ -62447,6 +62450,32 @@
         <v>1573</v>
       </c>
       <c r="H2203" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="1" t="n">
+        <v>45532.6493865741</v>
+      </c>
+      <c r="B2204" t="n">
+        <v>181260</v>
+      </c>
+      <c r="C2204" t="n">
+        <v>10.4619998931885</v>
+      </c>
+      <c r="D2204" t="n">
+        <v>10.3360004425049</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>10.4200000762939</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>10.3780002593994</v>
+      </c>
+      <c r="G2204" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H2204" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BRE.MI.xlsx
+++ b/data/BRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="1623">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43071699142456</t>
+    <t xml:space="preserve">7.43071746826172</t>
   </si>
   <si>
     <t xml:space="preserve">BRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40021467208862</t>
+    <t xml:space="preserve">7.40021562576294</t>
   </si>
   <si>
     <t xml:space="preserve">7.17991924285889</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76305484771729</t>
+    <t xml:space="preserve">6.76305389404297</t>
   </si>
   <si>
     <t xml:space="preserve">6.77999973297119</t>
   </si>
   <si>
-    <t xml:space="preserve">6.66307401657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84100437164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02910184860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79016780853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4393892288208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42413902282715</t>
+    <t xml:space="preserve">6.6630744934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84100484848022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02910137176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7901668548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43938875198364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42413854598999</t>
   </si>
   <si>
     <t xml:space="preserve">6.50378370285034</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">6.47667026519775</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53598022460938</t>
+    <t xml:space="preserve">6.53597974777222</t>
   </si>
   <si>
     <t xml:space="preserve">6.54953718185425</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">6.45802974700928</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39194107055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28009939193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.21062231063843</t>
+    <t xml:space="preserve">6.3919415473938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2800989151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.21062183380127</t>
   </si>
   <si>
     <t xml:space="preserve">6.078444480896</t>
@@ -113,22 +113,22 @@
     <t xml:space="preserve">5.91237688064575</t>
   </si>
   <si>
-    <t xml:space="preserve">5.5548210144043</t>
+    <t xml:space="preserve">5.55482149124146</t>
   </si>
   <si>
     <t xml:space="preserve">5.71750020980835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93101644515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88187456130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94118452072144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25976467132568</t>
+    <t xml:space="preserve">5.93101692199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88187408447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94118404388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25976419448853</t>
   </si>
   <si>
     <t xml:space="preserve">6.19198179244995</t>
@@ -137,10 +137,10 @@
     <t xml:space="preserve">6.34279870986938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36482858657837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32246398925781</t>
+    <t xml:space="preserve">6.36482810974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32246351242065</t>
   </si>
   <si>
     <t xml:space="preserve">6.46480846405029</t>
@@ -161,145 +161,145 @@
     <t xml:space="preserve">6.44616794586182</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58342838287354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.55462169647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30362415313721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34090423583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37649011611938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33751535415649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37987995147705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32904148101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32395887374878</t>
+    <t xml:space="preserve">6.58342933654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.55462121963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30362367630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.340904712677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37649059295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33751487731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37987947463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32904243469238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32395792007446</t>
   </si>
   <si>
     <t xml:space="preserve">7.42224407196045</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40360498428345</t>
+    <t xml:space="preserve">7.40360355377197</t>
   </si>
   <si>
     <t xml:space="preserve">7.51375102996826</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40190839767456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49341487884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33412456512451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53408718109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41377067565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41207647323608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58153438568115</t>
+    <t xml:space="preserve">7.40190982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49341583251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33412504196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53408670425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41377019882202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41207599639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58153390884399</t>
   </si>
   <si>
     <t xml:space="preserve">7.70184898376465</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67304182052612</t>
+    <t xml:space="preserve">7.67304134368896</t>
   </si>
   <si>
     <t xml:space="preserve">7.62389850616455</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4052996635437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45105266571045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42393732070923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53917074203491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57645177841187</t>
+    <t xml:space="preserve">7.40529918670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45105171203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42393827438354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53916931152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57645034790039</t>
   </si>
   <si>
     <t xml:space="preserve">7.6255931854248</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67642879486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69337511062622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66287565231323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71032285690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74421358108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78488349914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05093193054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99670457839966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91367053985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96281337738037</t>
+    <t xml:space="preserve">7.67643022537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69337463378906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66287422180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71032190322876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74421453475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78488302230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05093097686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99670648574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91367292404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96281480789185</t>
   </si>
   <si>
     <t xml:space="preserve">8.02381896972656</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94925737380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00348281860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90858602523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99162292480469</t>
+    <t xml:space="preserve">7.94925832748413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00348377227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9085865020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99162244796753</t>
   </si>
   <si>
     <t xml:space="preserve">8.14243984222412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.786376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81179809570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82026958465576</t>
+    <t xml:space="preserve">8.78637790679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81179714202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82026863098145</t>
   </si>
   <si>
     <t xml:space="preserve">8.86263370513916</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">8.73554039001465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66775608062744</t>
+    <t xml:space="preserve">8.66775703430176</t>
   </si>
   <si>
     <t xml:space="preserve">8.6592845916748</t>
@@ -317,49 +317,49 @@
     <t xml:space="preserve">8.71859550476074</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83048248291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76162910461426</t>
+    <t xml:space="preserve">8.83048343658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76162815093994</t>
   </si>
   <si>
     <t xml:space="preserve">8.82187652587891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77023601531982</t>
+    <t xml:space="preserve">8.77023506164551</t>
   </si>
   <si>
     <t xml:space="preserve">8.77884197235107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92515754699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95097732543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0456485748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2866382598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1919641494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18335628509521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89933490753174</t>
+    <t xml:space="preserve">8.92515659332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95097637176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04564952850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28663635253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19196319580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18335723876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89933586120605</t>
   </si>
   <si>
     <t xml:space="preserve">8.5774450302124</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40531253814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60670852661133</t>
+    <t xml:space="preserve">8.40530967712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60670757293701</t>
   </si>
   <si>
     <t xml:space="preserve">8.61531543731689</t>
@@ -368,19 +368,19 @@
     <t xml:space="preserve">8.91654872894287</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93376350402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88212203979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03704452514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56023216247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91989421844482</t>
+    <t xml:space="preserve">8.93376445770264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88212299346924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03704357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56023120880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91989183425903</t>
   </si>
   <si>
     <t xml:space="preserve">8.55506801605225</t>
@@ -392,19 +392,19 @@
     <t xml:space="preserve">8.50514888763428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53785419464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13333892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9594841003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95776176452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24522590637207</t>
+    <t xml:space="preserve">8.53785514831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13333702087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95948314666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95776271820068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24522686004639</t>
   </si>
   <si>
     <t xml:space="preserve">8.32096481323242</t>
@@ -413,34 +413,37 @@
     <t xml:space="preserve">8.34850597381592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26932621002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44146060943604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40875244140625</t>
+    <t xml:space="preserve">8.26932430267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44145965576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40875434875488</t>
   </si>
   <si>
     <t xml:space="preserve">8.53441143035889</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40014839172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51031398773193</t>
+    <t xml:space="preserve">8.40014743804932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51031303405762</t>
   </si>
   <si>
     <t xml:space="preserve">8.46555805206299</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62392234802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67556095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81326770782471</t>
+    <t xml:space="preserve">8.62392330169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67556190490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71859645843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81326866149902</t>
   </si>
   <si>
     <t xml:space="preserve">8.66695499420166</t>
@@ -452,16 +455,16 @@
     <t xml:space="preserve">9.08868408203125</t>
   </si>
   <si>
-    <t xml:space="preserve">8.84769535064697</t>
+    <t xml:space="preserve">8.84769630432129</t>
   </si>
   <si>
     <t xml:space="preserve">8.86490917205811</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9595832824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05425548553467</t>
+    <t xml:space="preserve">8.95958232879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0542573928833</t>
   </si>
   <si>
     <t xml:space="preserve">9.00261688232422</t>
@@ -470,7 +473,7 @@
     <t xml:space="preserve">9.06286430358887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98540306091309</t>
+    <t xml:space="preserve">8.9854040145874</t>
   </si>
   <si>
     <t xml:space="preserve">8.79605579376221</t>
@@ -479,94 +482,94 @@
     <t xml:space="preserve">8.75302314758301</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78744983673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70998764038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73580741882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96819019317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01122283935547</t>
+    <t xml:space="preserve">8.78744888305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70998859405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73580932617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96818828582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01122379302979</t>
   </si>
   <si>
     <t xml:space="preserve">9.0284366607666</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21778392791748</t>
+    <t xml:space="preserve">9.2177848815918</t>
   </si>
   <si>
     <t xml:space="preserve">9.16614532470703</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20917892456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10589790344238</t>
+    <t xml:space="preserve">9.20917701721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10589599609375</t>
   </si>
   <si>
     <t xml:space="preserve">9.1231107711792</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14032363891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22638988494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.38131237030029</t>
+    <t xml:space="preserve">9.14032459259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22639083862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.38131141662598</t>
   </si>
   <si>
     <t xml:space="preserve">9.13171768188477</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94236946105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01982879638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14892864227295</t>
+    <t xml:space="preserve">8.94237041473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01983070373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14892959594727</t>
   </si>
   <si>
     <t xml:space="preserve">9.07147026062012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37270641326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47598552703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62230014801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69115543365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6997594833374</t>
+    <t xml:space="preserve">9.37270545959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47598457336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62229919433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69115447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.69976043701172</t>
   </si>
   <si>
     <t xml:space="preserve">9.48459243774414</t>
   </si>
   <si>
-    <t xml:space="preserve">9.260817527771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09729099273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52762699127197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79443359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51041126251221</t>
+    <t xml:space="preserve">9.26081848144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09728908538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52762603759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79443454742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51041221618652</t>
   </si>
   <si>
     <t xml:space="preserve">9.32967185974121</t>
@@ -575,19 +578,19 @@
     <t xml:space="preserve">9.46737861633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2436056137085</t>
+    <t xml:space="preserve">9.24360466003418</t>
   </si>
   <si>
     <t xml:space="preserve">9.25221157073975</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33827877044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31245708465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08007717132568</t>
+    <t xml:space="preserve">9.33827781677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31245803833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08007621765137</t>
   </si>
   <si>
     <t xml:space="preserve">9.45016670227051</t>
@@ -596,31 +599,31 @@
     <t xml:space="preserve">9.56205368041992</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27803134918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39852523803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40713214874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53623294830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65672588348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70836639404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83746719360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89771461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.328049659729</t>
+    <t xml:space="preserve">9.2780294418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39852333068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40713119506836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53623199462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6567268371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70836734771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83746814727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89771556854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3280487060547</t>
   </si>
   <si>
     <t xml:space="preserve">10.3882970809937</t>
@@ -632,16 +635,16 @@
     <t xml:space="preserve">10.3022298812866</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3452625274658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3710832595825</t>
+    <t xml:space="preserve">10.3452634811401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3710823059082</t>
   </si>
   <si>
     <t xml:space="preserve">10.4227237701416</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5776433944702</t>
+    <t xml:space="preserve">10.5776443481445</t>
   </si>
   <si>
     <t xml:space="preserve">10.6034641265869</t>
@@ -659,10 +662,10 @@
     <t xml:space="preserve">10.4915781021118</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5518245697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5173969268799</t>
+    <t xml:space="preserve">10.5518236160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5173978805542</t>
   </si>
   <si>
     <t xml:space="preserve">10.5948572158813</t>
@@ -674,13 +677,13 @@
     <t xml:space="preserve">10.4657564163208</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2075567245483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6895313262939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.448543548584</t>
+    <t xml:space="preserve">10.2075576782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6895303726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4485425949097</t>
   </si>
   <si>
     <t xml:space="preserve">10.4399366378784</t>
@@ -692,94 +695,94 @@
     <t xml:space="preserve">10.8272380828857</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9047002792358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7669925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8530588150024</t>
+    <t xml:space="preserve">10.9046983718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7669916152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8530578613281</t>
   </si>
   <si>
     <t xml:space="preserve">11.0768337249756</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1112594604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0424070358276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7842063903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0337982177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1887197494507</t>
+    <t xml:space="preserve">11.1112613677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0424060821533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7842054367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0338010787964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.188720703125</t>
   </si>
   <si>
     <t xml:space="preserve">11.3608560562134</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3264284133911</t>
+    <t xml:space="preserve">11.3264274597168</t>
   </si>
   <si>
     <t xml:space="preserve">11.1629009246826</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1715059280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2661819458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1801128387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4383134841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2920017242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4469213485718</t>
+    <t xml:space="preserve">11.1715078353882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2661809921265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1801137924194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4383144378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2920007705688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4469223022461</t>
   </si>
   <si>
     <t xml:space="preserve">11.6620903015137</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5846300125122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.636269569397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6706981658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6965160369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.756763458252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.808403968811</t>
+    <t xml:space="preserve">11.5846290588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6362686157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6706962585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6965169906616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7567644119263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8084030151367</t>
   </si>
   <si>
     <t xml:space="preserve">11.8686504364014</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9288969039917</t>
+    <t xml:space="preserve">11.928897857666</t>
   </si>
   <si>
     <t xml:space="preserve">11.9202899932861</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9375038146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.169885635376</t>
+    <t xml:space="preserve">11.9375047683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1698846817017</t>
   </si>
   <si>
     <t xml:space="preserve">12.1870985031128</t>
@@ -788,22 +791,22 @@
     <t xml:space="preserve">12.1182451248169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1096382141113</t>
+    <t xml:space="preserve">12.109637260437</t>
   </si>
   <si>
     <t xml:space="preserve">12.1526727676392</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1957063674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1440649032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.014965057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1268520355225</t>
+    <t xml:space="preserve">12.1957054138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.144063949585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0149641036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1268510818481</t>
   </si>
   <si>
     <t xml:space="preserve">11.963324546814</t>
@@ -812,7 +815,7 @@
     <t xml:space="preserve">12.3936595916748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4969396591187</t>
+    <t xml:space="preserve">12.496940612793</t>
   </si>
   <si>
     <t xml:space="preserve">12.3506269454956</t>
@@ -821,19 +824,19 @@
     <t xml:space="preserve">12.4280872344971</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4194803237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5916147232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4883337020874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7379283905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8412084579468</t>
+    <t xml:space="preserve">12.4194793701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5916137695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4883346557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7379274368286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8412075042725</t>
   </si>
   <si>
     <t xml:space="preserve">12.7637481689453</t>
@@ -842,10 +845,10 @@
     <t xml:space="preserve">12.9617033004761</t>
   </si>
   <si>
-    <t xml:space="preserve">12.996129989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7207145690918</t>
+    <t xml:space="preserve">12.9961290359497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7207155227661</t>
   </si>
   <si>
     <t xml:space="preserve">12.6346473693848</t>
@@ -860,40 +863,37 @@
     <t xml:space="preserve">12.0666055679321</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9719314575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2387380599976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3696813583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3871383666992</t>
+    <t xml:space="preserve">11.9719305038452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2387390136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3696823120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3871393203735</t>
   </si>
   <si>
     <t xml:space="preserve">12.5006237030029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6053781509399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2125511169434</t>
+    <t xml:space="preserve">12.6053771972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.212550163269</t>
   </si>
   <si>
     <t xml:space="preserve">12.0816078186035</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2387390136719</t>
-  </si>
-  <si>
     <t xml:space="preserve">12.1863613128662</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0205011367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9855833053589</t>
+    <t xml:space="preserve">12.0205030441284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9855823516846</t>
   </si>
   <si>
     <t xml:space="preserve">11.7149705886841</t>
@@ -902,16 +902,16 @@
     <t xml:space="preserve">11.6102161407471</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6014842987061</t>
+    <t xml:space="preserve">11.6014862060547</t>
   </si>
   <si>
     <t xml:space="preserve">11.4356250762939</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3570604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6451330184937</t>
+    <t xml:space="preserve">11.3570594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6451320648193</t>
   </si>
   <si>
     <t xml:space="preserve">11.8371829986572</t>
@@ -923,100 +923,100 @@
     <t xml:space="preserve">11.6975107192993</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5752973556519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3221435546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4268970489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1562814712524</t>
+    <t xml:space="preserve">11.5752983093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3221426010132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4268960952759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1562824249268</t>
   </si>
   <si>
     <t xml:space="preserve">11.3483304977417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9642333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824722290039</t>
+    <t xml:space="preserve">10.9642343521118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824712753296</t>
   </si>
   <si>
     <t xml:space="preserve">11.1300945281982</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0427989959717</t>
+    <t xml:space="preserve">11.042799949646</t>
   </si>
   <si>
     <t xml:space="preserve">11.1475534439087</t>
   </si>
   <si>
-    <t xml:space="preserve">11.845911026001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9419355392456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7062397003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0641489028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8808288574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8284530639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7760744094849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7324285507202</t>
+    <t xml:space="preserve">11.8459129333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9419364929199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7062406539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0641479492188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8808298110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8284521102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7760753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7324275970459</t>
   </si>
   <si>
     <t xml:space="preserve">11.6189451217651</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4007062911987</t>
+    <t xml:space="preserve">11.4007091522217</t>
   </si>
   <si>
     <t xml:space="preserve">11.3919792175293</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4094381332397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2872257232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308715820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2697649002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2784948348999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0689868927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1737413406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2610359191895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0951766967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3134136199951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6713209152222</t>
+    <t xml:space="preserve">11.4094371795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2872247695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308725357056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2697658538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2784938812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0689878463745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1737422943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2610378265381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.095175743103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3134145736694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6713218688965</t>
   </si>
   <si>
     <t xml:space="preserve">11.5578384399414</t>
@@ -1025,67 +1025,67 @@
     <t xml:space="preserve">11.4880037307739</t>
   </si>
   <si>
-    <t xml:space="preserve">11.453085899353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6625928878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7411584854126</t>
+    <t xml:space="preserve">11.4530839920044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6625919342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7411575317383</t>
   </si>
   <si>
     <t xml:space="preserve">11.7935352325439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8109941482544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9244775772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8197240829468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9768543243408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1077966690063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1776332855225</t>
+    <t xml:space="preserve">11.8109931945801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9244785308838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8197231292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9768533706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1077976226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1776323318481</t>
   </si>
   <si>
     <t xml:space="preserve">12.3522214889526</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3173027038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3784103393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4918947219849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5355424880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5966472625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4744348526001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5180826187134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4831638336182</t>
+    <t xml:space="preserve">12.3173036575317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3784112930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4918937683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5355415344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5966463088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4744358062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5180807113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4831647872925</t>
   </si>
   <si>
     <t xml:space="preserve">12.6228351593018</t>
   </si>
   <si>
-    <t xml:space="preserve">12.614107131958</t>
+    <t xml:space="preserve">12.6141061782837</t>
   </si>
   <si>
     <t xml:space="preserve">12.762508392334</t>
@@ -1097,7 +1097,7 @@
     <t xml:space="preserve">12.8236141204834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6490249633789</t>
+    <t xml:space="preserve">12.6490240097046</t>
   </si>
   <si>
     <t xml:space="preserve">12.7363195419312</t>
@@ -1106,19 +1106,19 @@
     <t xml:space="preserve">12.7450494766235</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2212781906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1601734161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2474689483643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4482469558716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4395170211792</t>
+    <t xml:space="preserve">12.2212791442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.160174369812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2474670410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4482460021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4395151138306</t>
   </si>
   <si>
     <t xml:space="preserve">12.4046001434326</t>
@@ -1127,22 +1127,22 @@
     <t xml:space="preserve">12.360951423645</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7236986160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2086610794067</t>
+    <t xml:space="preserve">11.7236995697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086591720581</t>
   </si>
   <si>
     <t xml:space="preserve">11.086446762085</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2959547042847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2173891067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4181671142578</t>
+    <t xml:space="preserve">11.295952796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2173881530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4181680679321</t>
   </si>
   <si>
     <t xml:space="preserve">11.3396015167236</t>
@@ -1151,16 +1151,16 @@
     <t xml:space="preserve">11.1650114059448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1911993026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1213636398315</t>
+    <t xml:space="preserve">11.1912002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1213645935059</t>
   </si>
   <si>
     <t xml:space="preserve">11.1126346588135</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0515298843384</t>
+    <t xml:space="preserve">11.0515289306641</t>
   </si>
   <si>
     <t xml:space="preserve">10.9991512298584</t>
@@ -1169,10 +1169,10 @@
     <t xml:space="preserve">11.1999292373657</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0777168273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2261190414429</t>
+    <t xml:space="preserve">11.0777177810669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2261180877686</t>
   </si>
   <si>
     <t xml:space="preserve">11.0602579116821</t>
@@ -1184,16 +1184,16 @@
     <t xml:space="preserve">10.8682088851929</t>
   </si>
   <si>
-    <t xml:space="preserve">11.496732711792</t>
+    <t xml:space="preserve">11.4967336654663</t>
   </si>
   <si>
     <t xml:space="preserve">11.5665683746338</t>
   </si>
   <si>
-    <t xml:space="preserve">11.540379524231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5491094589233</t>
+    <t xml:space="preserve">11.5403785705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.549108505249</t>
   </si>
   <si>
     <t xml:space="preserve">11.6276750564575</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">10.6587009429932</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5626764297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.527759552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5975952148438</t>
+    <t xml:space="preserve">10.5626773834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5277585983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5975942611694</t>
   </si>
   <si>
     <t xml:space="preserve">10.5364894866943</t>
@@ -1232,43 +1232,43 @@
     <t xml:space="preserve">10.4753818511963</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4666528701782</t>
+    <t xml:space="preserve">10.4666538238525</t>
   </si>
   <si>
     <t xml:space="preserve">10.2920627593994</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3531694412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3706293106079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0738258361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0389070510864</t>
+    <t xml:space="preserve">10.3531713485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3706274032593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0738248825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0389089584351</t>
   </si>
   <si>
     <t xml:space="preserve">9.82940196990967</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71591758728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4841117858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6848888397217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9816932678223</t>
+    <t xml:space="preserve">9.71591854095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4841108322144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.684889793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9816923141479</t>
   </si>
   <si>
     <t xml:space="preserve">11.1039056777954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.990421295166</t>
+    <t xml:space="preserve">10.9904232025146</t>
   </si>
   <si>
     <t xml:space="preserve">10.7372674942017</t>
@@ -1277,22 +1277,22 @@
     <t xml:space="preserve">10.6761608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">10.833291053772</t>
+    <t xml:space="preserve">10.8332901000977</t>
   </si>
   <si>
     <t xml:space="preserve">10.7809152603149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9467754364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9293155670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7198076248169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8245611190796</t>
+    <t xml:space="preserve">10.9467763900757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9293146133423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7198085784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8245601654053</t>
   </si>
   <si>
     <t xml:space="preserve">10.7896432876587</t>
@@ -1301,34 +1301,34 @@
     <t xml:space="preserve">10.7983732223511</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8158311843872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6325130462646</t>
+    <t xml:space="preserve">10.8158330917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6325120925903</t>
   </si>
   <si>
     <t xml:space="preserve">10.6063251495361</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6674318313599</t>
+    <t xml:space="preserve">10.6674308776855</t>
   </si>
   <si>
     <t xml:space="preserve">10.5190296173096</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4443550109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9205856323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6499719619751</t>
+    <t xml:space="preserve">11.4443559646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9205865859985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6499729156494</t>
   </si>
   <si>
     <t xml:space="preserve">10.580135345459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4317359924316</t>
+    <t xml:space="preserve">10.431736946106</t>
   </si>
   <si>
     <t xml:space="preserve">10.3007926940918</t>
@@ -1337,46 +1337,46 @@
     <t xml:space="preserve">10.4164323806763</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7633495330811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.683292388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1636390686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0657911300659</t>
+    <t xml:space="preserve">10.7633504867554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6832914352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1636400222778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0657920837402</t>
   </si>
   <si>
     <t xml:space="preserve">10.9857339859009</t>
   </si>
   <si>
-    <t xml:space="preserve">10.603235244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8523035049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8878831863403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0302095413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0746850967407</t>
+    <t xml:space="preserve">10.6032342910767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8523044586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8878841400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0302085876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.074686050415</t>
   </si>
   <si>
     <t xml:space="preserve">11.0480003356934</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1013736724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.33265209198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0391054153442</t>
+    <t xml:space="preserve">11.101372718811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3326511383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0391044616699</t>
   </si>
   <si>
     <t xml:space="preserve">11.1369533538818</t>
@@ -1391,16 +1391,16 @@
     <t xml:space="preserve">10.7277679443359</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5142812728882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5053863525391</t>
+    <t xml:space="preserve">10.5142803192139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5053853988647</t>
   </si>
   <si>
     <t xml:space="preserve">10.2830028533936</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4431190490723</t>
+    <t xml:space="preserve">10.4431180953979</t>
   </si>
   <si>
     <t xml:space="preserve">10.4253282546997</t>
@@ -1409,10 +1409,10 @@
     <t xml:space="preserve">10.2563161849976</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3096885681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0962009429932</t>
+    <t xml:space="preserve">10.3096876144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0962018966675</t>
   </si>
   <si>
     <t xml:space="preserve">10.1228866577148</t>
@@ -1421,22 +1421,22 @@
     <t xml:space="preserve">10.2118396759033</t>
   </si>
   <si>
-    <t xml:space="preserve">10.238525390625</t>
+    <t xml:space="preserve">10.2385244369507</t>
   </si>
   <si>
     <t xml:space="preserve">10.3541650772095</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6299209594727</t>
+    <t xml:space="preserve">10.629921913147</t>
   </si>
   <si>
     <t xml:space="preserve">10.6655025482178</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6477117538452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8967809677124</t>
+    <t xml:space="preserve">10.6477108001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8967800140381</t>
   </si>
   <si>
     <t xml:space="preserve">10.8700942993164</t>
@@ -1454,7 +1454,7 @@
     <t xml:space="preserve">10.4964904785156</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3808507919312</t>
+    <t xml:space="preserve">10.3808498382568</t>
   </si>
   <si>
     <t xml:space="preserve">10.398642539978</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">10.4075365066528</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6121292114258</t>
+    <t xml:space="preserve">10.6121301651001</t>
   </si>
   <si>
     <t xml:space="preserve">10.1406764984131</t>
@@ -1475,34 +1475,34 @@
     <t xml:space="preserve">10.060619354248</t>
   </si>
   <si>
-    <t xml:space="preserve">10.131781578064</t>
+    <t xml:space="preserve">10.1317806243896</t>
   </si>
   <si>
     <t xml:space="preserve">10.0339326858521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90939998626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.94498062133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0428295135498</t>
+    <t xml:space="preserve">9.90939807891846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.94497966766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0428285598755</t>
   </si>
   <si>
     <t xml:space="preserve">9.82044506072998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82933902740479</t>
+    <t xml:space="preserve">9.82934093475342</t>
   </si>
   <si>
     <t xml:space="preserve">9.98056125640869</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2741079330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2474222183228</t>
+    <t xml:space="preserve">10.2741069793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2474203109741</t>
   </si>
   <si>
     <t xml:space="preserve">10.1139917373657</t>
@@ -1514,16 +1514,16 @@
     <t xml:space="preserve">9.92718887329102</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0873050689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96276950836182</t>
+    <t xml:space="preserve">10.087306022644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96277046203613</t>
   </si>
   <si>
     <t xml:space="preserve">10.0695142745972</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1851539611816</t>
+    <t xml:space="preserve">10.1851530075073</t>
   </si>
   <si>
     <t xml:space="preserve">10.5587587356567</t>
@@ -1535,16 +1535,16 @@
     <t xml:space="preserve">10.3630609512329</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3274784088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2296304702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0517234802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2207345962524</t>
+    <t xml:space="preserve">10.3274793624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2296314239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0517225265503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2207355499268</t>
   </si>
   <si>
     <t xml:space="preserve">9.87381744384766</t>
@@ -1553,31 +1553,31 @@
     <t xml:space="preserve">9.55358600616455</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57137584686279</t>
+    <t xml:space="preserve">9.57137680053711</t>
   </si>
   <si>
     <t xml:space="preserve">9.01097106933594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83751201629639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74855804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41943073272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73966217041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83306217193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71742343902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60178470611572</t>
+    <t xml:space="preserve">8.83751106262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74855709075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41943168640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73966312408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83306312561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7174243927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60178565979004</t>
   </si>
   <si>
     <t xml:space="preserve">8.46390628814697</t>
@@ -1586,7 +1586,7 @@
     <t xml:space="preserve">8.5306224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37940120697021</t>
+    <t xml:space="preserve">8.37940216064453</t>
   </si>
   <si>
     <t xml:space="preserve">8.65960502624512</t>
@@ -1595,58 +1595,58 @@
     <t xml:space="preserve">8.52617454528809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79303550720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69963359832764</t>
+    <t xml:space="preserve">8.79303455352783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69963455200195</t>
   </si>
   <si>
     <t xml:space="preserve">8.89088344573975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80193042755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75745391845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53506946563721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41053485870361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3126859664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07696056365967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01024436950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05472183227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11698913574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29489612579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32158184051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29934310913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55286026000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5884428024292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93091201782227</t>
+    <t xml:space="preserve">8.80192947387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75745296478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53507041931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41053581237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31268692016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07695865631104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01024532318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05472087860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1169900894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29489517211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32158279418945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29934406280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55286121368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58844184875488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93091297149658</t>
   </si>
   <si>
     <t xml:space="preserve">8.92201709747314</t>
@@ -1655,16 +1655,16 @@
     <t xml:space="preserve">8.85974884033203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07323837280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79748249053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77079772949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45945930480957</t>
+    <t xml:space="preserve">9.07323741912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79748153686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77079677581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45946025848389</t>
   </si>
   <si>
     <t xml:space="preserve">8.49059295654297</t>
@@ -1673,37 +1673,37 @@
     <t xml:space="preserve">8.27265739440918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38385009765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64181327819824</t>
+    <t xml:space="preserve">8.38384914398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64181423187256</t>
   </si>
   <si>
     <t xml:space="preserve">8.09919929504395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97911214828491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29044914245605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10364627838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1525707244873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86347246170044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9123969078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97021484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908357620239</t>
+    <t xml:space="preserve">7.97911167144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29044818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10364532470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15256977081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86347198486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91239643096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97021532058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908214569092</t>
   </si>
   <si>
     <t xml:space="preserve">8.25486755371094</t>
@@ -1721,22 +1721,22 @@
     <t xml:space="preserve">8.78858661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69073677062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70852947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76189994812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67294692993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80637645721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81082344055176</t>
+    <t xml:space="preserve">8.69073867797852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70852851867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76190090179443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67294788360596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80637741088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81082534790039</t>
   </si>
   <si>
     <t xml:space="preserve">8.77524375915527</t>
@@ -1751,10 +1751,10 @@
     <t xml:space="preserve">8.88198757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87753963470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86864376068115</t>
+    <t xml:space="preserve">8.87754058837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86864280700684</t>
   </si>
   <si>
     <t xml:space="preserve">8.85085487365723</t>
@@ -1763,19 +1763,19 @@
     <t xml:space="preserve">8.81527328491211</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81972122192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54841327667236</t>
+    <t xml:space="preserve">8.81972026824951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54841232299805</t>
   </si>
   <si>
     <t xml:space="preserve">8.45056438446045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70408153533936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89532947540283</t>
+    <t xml:space="preserve">8.70408058166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89533042907715</t>
   </si>
   <si>
     <t xml:space="preserve">9.09102821350098</t>
@@ -1787,22 +1787,22 @@
     <t xml:space="preserve">9.42905044555664</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29561996459961</t>
+    <t xml:space="preserve">9.29562091827393</t>
   </si>
   <si>
     <t xml:space="preserve">9.34899234771729</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62474727630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65143394470215</t>
+    <t xml:space="preserve">9.62474822998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65143299102783</t>
   </si>
   <si>
     <t xml:space="preserve">9.41125965118408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46463203430176</t>
+    <t xml:space="preserve">9.46463298797607</t>
   </si>
   <si>
     <t xml:space="preserve">9.66032886505127</t>
@@ -1811,10 +1811,10 @@
     <t xml:space="preserve">9.26893424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1355037689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10881805419922</t>
+    <t xml:space="preserve">9.13550472259521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10881900787354</t>
   </si>
   <si>
     <t xml:space="preserve">9.11771488189697</t>
@@ -1823,22 +1823,22 @@
     <t xml:space="preserve">9.06434154510498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04655265808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23335361480713</t>
+    <t xml:space="preserve">9.04655170440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23335456848145</t>
   </si>
   <si>
     <t xml:space="preserve">9.4735279083252</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76707363128662</t>
+    <t xml:space="preserve">9.76707458496094</t>
   </si>
   <si>
     <t xml:space="preserve">9.59806156158447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51800441741943</t>
+    <t xml:space="preserve">9.5180025100708</t>
   </si>
   <si>
     <t xml:space="preserve">9.33120155334473</t>
@@ -1856,46 +1856,49 @@
     <t xml:space="preserve">9.00207424163818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99317836761475</t>
+    <t xml:space="preserve">8.99318027496338</t>
   </si>
   <si>
     <t xml:space="preserve">9.1977710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8649206161499</t>
+    <t xml:space="preserve">9.86492156982422</t>
   </si>
   <si>
     <t xml:space="preserve">9.78486442565918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75817680358887</t>
+    <t xml:space="preserve">9.7581787109375</t>
   </si>
   <si>
     <t xml:space="preserve">9.99835205078125</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4342231750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5676527023315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1673622131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.97166633605957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.85602760314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18887710571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27783012390137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16219139099121</t>
+    <t xml:space="preserve">10.4342241287231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3007936477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5676517486572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1673631668091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.97166538238525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8560266494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18887615203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27782917022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16219043731689</t>
   </si>
   <si>
     <t xml:space="preserve">9.07778358459473</t>
@@ -1913,40 +1916,37 @@
     <t xml:space="preserve">8.84595203399658</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89140892028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9005012512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78231143951416</t>
+    <t xml:space="preserve">8.8914098739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90050029754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78231239318848</t>
   </si>
   <si>
     <t xml:space="preserve">8.86413478851318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73685550689697</t>
+    <t xml:space="preserve">8.73685455322266</t>
   </si>
   <si>
     <t xml:space="preserve">8.48229503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68230628967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88231658935547</t>
+    <t xml:space="preserve">8.68230724334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88231754302979</t>
   </si>
   <si>
     <t xml:space="preserve">8.99596118927002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97777652740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21870136260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07323741912842</t>
+    <t xml:space="preserve">8.9777774810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21870040893555</t>
   </si>
   <si>
     <t xml:space="preserve">9.04596424102783</t>
@@ -1967,34 +1967,34 @@
     <t xml:space="preserve">9.33688831329346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17324447631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.03232669830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20960998535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44598484039307</t>
+    <t xml:space="preserve">9.17324352264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.03232574462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20961093902588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44598579406738</t>
   </si>
   <si>
     <t xml:space="preserve">9.38234615325928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61872291564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6641788482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57326602935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25506496429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.12778568267822</t>
+    <t xml:space="preserve">9.6187219619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66417980194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57326698303223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25506591796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12778663635254</t>
   </si>
   <si>
     <t xml:space="preserve">9.10960483551025</t>
@@ -2009,10 +2009,10 @@
     <t xml:space="preserve">8.79140377044678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93686580657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24597549438477</t>
+    <t xml:space="preserve">8.93686676025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24597454071045</t>
   </si>
   <si>
     <t xml:space="preserve">9.40962028503418</t>
@@ -2021,7 +2021,7 @@
     <t xml:space="preserve">9.34597969055176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47774982452393</t>
+    <t xml:space="preserve">8.47774887084961</t>
   </si>
   <si>
     <t xml:space="preserve">8.4277458190918</t>
@@ -2036,7 +2036,7 @@
     <t xml:space="preserve">8.05499839782715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89589786529541</t>
+    <t xml:space="preserve">7.89589881896973</t>
   </si>
   <si>
     <t xml:space="preserve">7.92771863937378</t>
@@ -2051,43 +2051,43 @@
     <t xml:space="preserve">7.56406211853027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65952157974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4867844581604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46860265731812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54587841033936</t>
+    <t xml:space="preserve">7.65952205657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48678398132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46860218048096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54587888717651</t>
   </si>
   <si>
     <t xml:space="preserve">7.53678703308105</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78680181503296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66861343383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53224182128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45496511459351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71407032012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72316217422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59588146209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8049840927124</t>
+    <t xml:space="preserve">7.78680086135864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66861295700073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5322413444519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45496463775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71407079696655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72316265106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59588050842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80498504638672</t>
   </si>
   <si>
     <t xml:space="preserve">8.07772731781006</t>
@@ -2096,7 +2096,7 @@
     <t xml:space="preserve">8.27773857116699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35501480102539</t>
+    <t xml:space="preserve">8.35501384735107</t>
   </si>
   <si>
     <t xml:space="preserve">8.52320766448975</t>
@@ -2105,16 +2105,16 @@
     <t xml:space="preserve">8.59139251708984</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65503215789795</t>
+    <t xml:space="preserve">8.65503406524658</t>
   </si>
   <si>
     <t xml:space="preserve">8.51866054534912</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49138641357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60503005981445</t>
+    <t xml:space="preserve">8.49138736724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60503101348877</t>
   </si>
   <si>
     <t xml:space="preserve">8.15954971313477</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">8.00499629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88680744171143</t>
+    <t xml:space="preserve">7.88680839538574</t>
   </si>
   <si>
     <t xml:space="preserve">8.02317810058594</t>
@@ -2141,31 +2141,31 @@
     <t xml:space="preserve">7.78225660324097</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67315912246704</t>
+    <t xml:space="preserve">7.6731595993042</t>
   </si>
   <si>
     <t xml:space="preserve">7.727707862854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71861600875854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58224487304688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74589014053345</t>
+    <t xml:space="preserve">7.71861505508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58224391937256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74589061737061</t>
   </si>
   <si>
     <t xml:space="preserve">8.13682174682617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14591121673584</t>
+    <t xml:space="preserve">8.14591217041016</t>
   </si>
   <si>
     <t xml:space="preserve">8.3004674911499</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33683300018311</t>
+    <t xml:space="preserve">8.33683395385742</t>
   </si>
   <si>
     <t xml:space="preserve">8.09136390686035</t>
@@ -2174,7 +2174,7 @@
     <t xml:space="preserve">8.20500755310059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48684215545654</t>
+    <t xml:space="preserve">8.48684120178223</t>
   </si>
   <si>
     <t xml:space="preserve">8.55502700805664</t>
@@ -2186,19 +2186,19 @@
     <t xml:space="preserve">8.66866970062256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9686861038208</t>
+    <t xml:space="preserve">8.96868705749512</t>
   </si>
   <si>
     <t xml:space="preserve">8.67776012420654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74594593048096</t>
+    <t xml:space="preserve">8.74594688415527</t>
   </si>
   <si>
     <t xml:space="preserve">9.29143142700195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.455078125</t>
+    <t xml:space="preserve">9.45507717132568</t>
   </si>
   <si>
     <t xml:space="preserve">9.48235130310059</t>
@@ -2207,31 +2207,31 @@
     <t xml:space="preserve">9.71872806549072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90964889526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.109658241272</t>
+    <t xml:space="preserve">9.90964794158936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1096591949463</t>
   </si>
   <si>
     <t xml:space="preserve">10.0551109313965</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81873512268066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69145393371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83691596984863</t>
+    <t xml:space="preserve">9.81873416900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6914529800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83691692352295</t>
   </si>
   <si>
     <t xml:space="preserve">9.58235740661621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76418590545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65508842468262</t>
+    <t xml:space="preserve">9.76418685913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65508937835693</t>
   </si>
   <si>
     <t xml:space="preserve">9.82782649993896</t>
@@ -2240,10 +2240,10 @@
     <t xml:space="preserve">10.0005626678467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0823841094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1642093658447</t>
+    <t xml:space="preserve">10.0823850631714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1642074584961</t>
   </si>
   <si>
     <t xml:space="preserve">10.1278438568115</t>
@@ -2276,13 +2276,13 @@
     <t xml:space="preserve">10.3460369110107</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4369506835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3278532028198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0278377532959</t>
+    <t xml:space="preserve">10.4369497299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3278522491455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0278367996216</t>
   </si>
   <si>
     <t xml:space="preserve">10.0732946395874</t>
@@ -2306,13 +2306,13 @@
     <t xml:space="preserve">10.0369281768799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0460186004639</t>
+    <t xml:space="preserve">10.0460195541382</t>
   </si>
   <si>
     <t xml:space="preserve">10.1187505722046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.091477394104</t>
+    <t xml:space="preserve">10.0914764404297</t>
   </si>
   <si>
     <t xml:space="preserve">9.92783069610596</t>
@@ -2321,10 +2321,10 @@
     <t xml:space="preserve">9.64599704742432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.54599189758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.67327117919922</t>
+    <t xml:space="preserve">9.54599094390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.67327213287354</t>
   </si>
   <si>
     <t xml:space="preserve">9.53689956665039</t>
@@ -2333,7 +2333,7 @@
     <t xml:space="preserve">9.35507202148438</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60054016113281</t>
+    <t xml:space="preserve">9.60054111480713</t>
   </si>
   <si>
     <t xml:space="preserve">9.46416854858398</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">9.78236865997314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77327728271484</t>
+    <t xml:space="preserve">9.77327632904053</t>
   </si>
   <si>
     <t xml:space="preserve">9.55508232116699</t>
@@ -2363,46 +2363,46 @@
     <t xml:space="preserve">8.70048904418945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64139556884766</t>
+    <t xml:space="preserve">8.64139461517334</t>
   </si>
   <si>
     <t xml:space="preserve">8.64594078063965</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40047264099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21864318847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77316474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87771654129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70043325424194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37768745422363</t>
+    <t xml:space="preserve">8.40047359466553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21864414215088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77316522598267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87771558761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7004337310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37768697738647</t>
   </si>
   <si>
     <t xml:space="preserve">7.44587326049805</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8185658454895</t>
+    <t xml:space="preserve">6.81856632232666</t>
   </si>
   <si>
     <t xml:space="preserve">6.89129638671875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79583644866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36399364471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61855411529541</t>
+    <t xml:space="preserve">6.79583597183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36399412155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61855459213257</t>
   </si>
   <si>
     <t xml:space="preserve">6.09125185012817</t>
@@ -2423,10 +2423,10 @@
     <t xml:space="preserve">7.07312488555908</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27768182754517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70946788787842</t>
+    <t xml:space="preserve">7.27768230438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70946741104126</t>
   </si>
   <si>
     <t xml:space="preserve">6.54582214355469</t>
@@ -2438,10 +2438,10 @@
     <t xml:space="preserve">6.17761993408203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06397724151611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81850910186768</t>
+    <t xml:space="preserve">6.06397771835327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81850957870483</t>
   </si>
   <si>
     <t xml:space="preserve">5.3730297088623</t>
@@ -2453,10 +2453,10 @@
     <t xml:space="preserve">5.74577713012695</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11398029327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03670358657837</t>
+    <t xml:space="preserve">6.11397981643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03670310974121</t>
   </si>
   <si>
     <t xml:space="preserve">5.85487413406372</t>
@@ -2474,10 +2474,10 @@
     <t xml:space="preserve">6.22762298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2776255607605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.63673686981201</t>
+    <t xml:space="preserve">6.27762603759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.63673734664917</t>
   </si>
   <si>
     <t xml:space="preserve">6.83220243453979</t>
@@ -2492,7 +2492,7 @@
     <t xml:space="preserve">7.11858224868774</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05948829650879</t>
+    <t xml:space="preserve">7.05948781967163</t>
   </si>
   <si>
     <t xml:space="preserve">6.96857404708862</t>
@@ -2504,7 +2504,7 @@
     <t xml:space="preserve">6.71855926513672</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59582567214966</t>
+    <t xml:space="preserve">6.59582614898682</t>
   </si>
   <si>
     <t xml:space="preserve">6.45490884780884</t>
@@ -2513,7 +2513,7 @@
     <t xml:space="preserve">5.98215484619141</t>
   </si>
   <si>
-    <t xml:space="preserve">6.03215789794922</t>
+    <t xml:space="preserve">6.03215742111206</t>
   </si>
   <si>
     <t xml:space="preserve">6.49127388000488</t>
@@ -2522,82 +2522,82 @@
     <t xml:space="preserve">6.45945501327515</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44581651687622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62764501571655</t>
+    <t xml:space="preserve">6.44581699371338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62764453887939</t>
   </si>
   <si>
     <t xml:space="preserve">6.83674812316895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42314481735229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79134702682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64133882522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.60042715072632</t>
+    <t xml:space="preserve">7.42314434051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79134654998779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64133977890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.60042762756348</t>
   </si>
   <si>
     <t xml:space="preserve">7.68679523468018</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08227252960205</t>
+    <t xml:space="preserve">8.08227348327637</t>
   </si>
   <si>
     <t xml:space="preserve">7.96408367156982</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83225917816162</t>
+    <t xml:space="preserve">7.8322582244873</t>
   </si>
   <si>
     <t xml:space="preserve">7.35950565338135</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62315511703491</t>
+    <t xml:space="preserve">7.62315559387207</t>
   </si>
   <si>
     <t xml:space="preserve">7.61861085891724</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47314739227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4958758354187</t>
+    <t xml:space="preserve">7.47314691543579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49587631225586</t>
   </si>
   <si>
     <t xml:space="preserve">7.43678188323975</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36405038833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46405601501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50951242446899</t>
+    <t xml:space="preserve">7.36405086517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46405649185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50951290130615</t>
   </si>
   <si>
     <t xml:space="preserve">7.47769355773926</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4322361946106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67770433425903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52315044403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63679313659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59133625030518</t>
+    <t xml:space="preserve">7.43223667144775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67770385742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5231499671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63679265975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59133672714233</t>
   </si>
   <si>
     <t xml:space="preserve">7.40950727462769</t>
@@ -2606,13 +2606,13 @@
     <t xml:space="preserve">7.5140585899353</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70952415466309</t>
+    <t xml:space="preserve">7.70952463150024</t>
   </si>
   <si>
     <t xml:space="preserve">7.42769002914429</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94584560394287</t>
+    <t xml:space="preserve">6.94584512710571</t>
   </si>
   <si>
     <t xml:space="preserve">6.85493040084839</t>
@@ -2621,19 +2621,19 @@
     <t xml:space="preserve">6.93675374984741</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00039386749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92766284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95493650436401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08221673965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31859302520752</t>
+    <t xml:space="preserve">7.00039434432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92766332626343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95493698120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08221626281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31859350204468</t>
   </si>
   <si>
     <t xml:space="preserve">7.40041542053223</t>
@@ -2642,16 +2642,16 @@
     <t xml:space="preserve">7.31404781341553</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30495643615723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26404476165771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20040559768677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33223056793213</t>
+    <t xml:space="preserve">7.30495595932007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26404428482056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20040512084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33223104476929</t>
   </si>
   <si>
     <t xml:space="preserve">7.34586715698242</t>
@@ -2663,25 +2663,25 @@
     <t xml:space="preserve">7.27313613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62770175933838</t>
+    <t xml:space="preserve">7.62770223617554</t>
   </si>
   <si>
     <t xml:space="preserve">7.55951642990112</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76407289505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88226222991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26410102844238</t>
+    <t xml:space="preserve">7.76407337188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88226127624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26410007476807</t>
   </si>
   <si>
     <t xml:space="preserve">7.85044050216675</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68225002288818</t>
+    <t xml:space="preserve">7.68225049972534</t>
   </si>
   <si>
     <t xml:space="preserve">7.13676500320435</t>
@@ -2690,31 +2690,31 @@
     <t xml:space="preserve">7.24586248397827</t>
   </si>
   <si>
-    <t xml:space="preserve">7.29586505889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32768535614014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57769823074341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75498199462891</t>
+    <t xml:space="preserve">7.29586458206177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32768487930298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57769918441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75498247146606</t>
   </si>
   <si>
     <t xml:space="preserve">8.15045833587646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20955181121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29137516021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01863288879395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96863126754761</t>
+    <t xml:space="preserve">8.20955276489258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29137420654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01863384246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96863031387329</t>
   </si>
   <si>
     <t xml:space="preserve">7.89135313034058</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">8.25955486297607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28228378295898</t>
+    <t xml:space="preserve">8.28228282928467</t>
   </si>
   <si>
     <t xml:space="preserve">8.45047473907471</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">8.85958957672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84589576721191</t>
+    <t xml:space="preserve">7.84589672088623</t>
   </si>
   <si>
     <t xml:space="preserve">8.10954666137695</t>
@@ -2765,7 +2765,7 @@
     <t xml:space="preserve">9.56417465209961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50962543487549</t>
+    <t xml:space="preserve">9.5096263885498</t>
   </si>
   <si>
     <t xml:space="preserve">9.73691082000732</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">9.93692302703857</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74600219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70963764190674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70054531097412</t>
+    <t xml:space="preserve">9.74600315093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70963668823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70054626464844</t>
   </si>
   <si>
     <t xml:space="preserve">9.88237476348877</t>
@@ -2798,34 +2798,34 @@
     <t xml:space="preserve">9.75509452819824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72782039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96419811248779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84600925445557</t>
+    <t xml:space="preserve">9.72781944274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96419715881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.84600830078125</t>
   </si>
   <si>
     <t xml:space="preserve">9.36416339874268</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1005697250366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.264214515686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4642248153687</t>
+    <t xml:space="preserve">10.1005687713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2642135620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.464225769043</t>
   </si>
   <si>
     <t xml:space="preserve">10.4914989471436</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3005790710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0187454223633</t>
+    <t xml:space="preserve">10.3005800247192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0187463760376</t>
   </si>
   <si>
     <t xml:space="preserve">10.2460298538208</t>
@@ -2834,7 +2834,7 @@
     <t xml:space="preserve">9.80054950714111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86419105529785</t>
+    <t xml:space="preserve">9.86419010162354</t>
   </si>
   <si>
     <t xml:space="preserve">9.79146003723145</t>
@@ -2843,7 +2843,7 @@
     <t xml:space="preserve">10.1823902130127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91874027252197</t>
+    <t xml:space="preserve">9.91874122619629</t>
   </si>
   <si>
     <t xml:space="preserve">9.27324962615967</t>
@@ -2852,31 +2852,31 @@
     <t xml:space="preserve">9.50053405761719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62781429290771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60963153839111</t>
+    <t xml:space="preserve">9.6278133392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6096305847168</t>
   </si>
   <si>
     <t xml:space="preserve">9.68236351013184</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52780818939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51871871948242</t>
+    <t xml:space="preserve">9.52780914306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51871776580811</t>
   </si>
   <si>
     <t xml:space="preserve">9.22779083251953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40052795410156</t>
+    <t xml:space="preserve">9.40052890777588</t>
   </si>
   <si>
     <t xml:space="preserve">9.16415119171143</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32779693603516</t>
+    <t xml:space="preserve">9.32779788970947</t>
   </si>
   <si>
     <t xml:space="preserve">9.30052375793457</t>
@@ -2912,13 +2912,13 @@
     <t xml:space="preserve">10.3518352508545</t>
   </si>
   <si>
-    <t xml:space="preserve">10.147216796875</t>
+    <t xml:space="preserve">10.1472158432007</t>
   </si>
   <si>
     <t xml:space="preserve">10.1007118225098</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0356063842773</t>
+    <t xml:space="preserve">10.035605430603</t>
   </si>
   <si>
     <t xml:space="preserve">10.0542087554932</t>
@@ -2939,7 +2939,7 @@
     <t xml:space="preserve">9.98910236358643</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9611988067627</t>
+    <t xml:space="preserve">9.96119976043701</t>
   </si>
   <si>
     <t xml:space="preserve">10.0449075698853</t>
@@ -2951,25 +2951,25 @@
     <t xml:space="preserve">9.9332971572876</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9518985748291</t>
+    <t xml:space="preserve">9.95189762115479</t>
   </si>
   <si>
     <t xml:space="preserve">9.90539455413818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89609432220459</t>
+    <t xml:space="preserve">9.89609336853027</t>
   </si>
   <si>
     <t xml:space="preserve">9.70077610015869</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1193132400513</t>
+    <t xml:space="preserve">10.1193141937256</t>
   </si>
   <si>
     <t xml:space="preserve">9.99840259552002</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63567066192627</t>
+    <t xml:space="preserve">9.63566970825195</t>
   </si>
   <si>
     <t xml:space="preserve">9.67287349700928</t>
@@ -2978,7 +2978,7 @@
     <t xml:space="preserve">9.72867870330811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73798084259033</t>
+    <t xml:space="preserve">9.73797988891602</t>
   </si>
   <si>
     <t xml:space="preserve">10.1286144256592</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">10.2495260238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7703723907471</t>
+    <t xml:space="preserve">10.7703733444214</t>
   </si>
   <si>
     <t xml:space="preserve">10.965690612793</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">11.040096282959</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0773000717163</t>
+    <t xml:space="preserve">11.0773010253906</t>
   </si>
   <si>
     <t xml:space="preserve">11.1331052780151</t>
@@ -3005,19 +3005,19 @@
     <t xml:space="preserve">11.2540168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3377246856689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3842287063599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4586343765259</t>
+    <t xml:space="preserve">11.3377237319946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3842277526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4586353302002</t>
   </si>
   <si>
     <t xml:space="preserve">11.5051383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4958381652832</t>
+    <t xml:space="preserve">11.4958372116089</t>
   </si>
   <si>
     <t xml:space="preserve">11.5330410003662</t>
@@ -3038,28 +3038,28 @@
     <t xml:space="preserve">11.4121313095093</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3749265670776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2726182937622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3098211288452</t>
+    <t xml:space="preserve">11.374927520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2726173400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3098220825195</t>
   </si>
   <si>
     <t xml:space="preserve">11.4493341445923</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3191223144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2912197113037</t>
+    <t xml:space="preserve">11.3191213607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2912187576294</t>
   </si>
   <si>
     <t xml:space="preserve">11.3005199432373</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1982107162476</t>
+    <t xml:space="preserve">11.1982116699219</t>
   </si>
   <si>
     <t xml:space="preserve">11.1517066955566</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">11.2354145050049</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8075761795044</t>
+    <t xml:space="preserve">10.8075752258301</t>
   </si>
   <si>
     <t xml:space="preserve">10.6308603286743</t>
@@ -3080,37 +3080,37 @@
     <t xml:space="preserve">10.2681274414062</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3239336013794</t>
+    <t xml:space="preserve">10.3239326477051</t>
   </si>
   <si>
     <t xml:space="preserve">10.4913463592529</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5006475448608</t>
+    <t xml:space="preserve">10.5006484985352</t>
   </si>
   <si>
     <t xml:space="preserve">10.5099496841431</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4634447097778</t>
+    <t xml:space="preserve">10.4634437561035</t>
   </si>
   <si>
     <t xml:space="preserve">10.2309226989746</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1658191680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91469478607178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82168674468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0263042449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0635089874268</t>
+    <t xml:space="preserve">10.1658182144165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91469573974609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82168769836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0263051986694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0635080337524</t>
   </si>
   <si>
     <t xml:space="preserve">10.1100130081177</t>
@@ -3119,16 +3119,16 @@
     <t xml:space="preserve">10.2030220031738</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2123222351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1844186782837</t>
+    <t xml:space="preserve">10.2123212814331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.184419631958</t>
   </si>
   <si>
     <t xml:space="preserve">10.2216234207153</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3890371322632</t>
+    <t xml:space="preserve">10.3890380859375</t>
   </si>
   <si>
     <t xml:space="preserve">10.3332328796387</t>
@@ -3140,16 +3140,16 @@
     <t xml:space="preserve">10.5192499160767</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5750551223755</t>
+    <t xml:space="preserve">10.5750541687012</t>
   </si>
   <si>
     <t xml:space="preserve">10.556453704834</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6587619781494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7145681381226</t>
+    <t xml:space="preserve">10.6587629318237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7145690917969</t>
   </si>
   <si>
     <t xml:space="preserve">10.8261775970459</t>
@@ -3167,16 +3167,16 @@
     <t xml:space="preserve">10.7982749938965</t>
   </si>
   <si>
-    <t xml:space="preserve">10.816876411438</t>
+    <t xml:space="preserve">10.8168773651123</t>
   </si>
   <si>
     <t xml:space="preserve">11.1703090667725</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2447147369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0866003036499</t>
+    <t xml:space="preserve">11.2447156906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0866012573242</t>
   </si>
   <si>
     <t xml:space="preserve">11.1610078811646</t>
@@ -3185,7 +3185,7 @@
     <t xml:space="preserve">10.9470891952515</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4541435241699</t>
+    <t xml:space="preserve">10.4541444778442</t>
   </si>
   <si>
     <t xml:space="preserve">10.6215591430664</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">11.26331615448</t>
   </si>
   <si>
-    <t xml:space="preserve">11.551643371582</t>
+    <t xml:space="preserve">11.5516424179077</t>
   </si>
   <si>
     <t xml:space="preserve">11.365626335144</t>
@@ -3212,16 +3212,16 @@
     <t xml:space="preserve">11.4865379333496</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5144395828247</t>
+    <t xml:space="preserve">11.514440536499</t>
   </si>
   <si>
     <t xml:space="preserve">11.5795450210571</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6539525985718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6353511810303</t>
+    <t xml:space="preserve">11.6539516448975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.635350227356</t>
   </si>
   <si>
     <t xml:space="preserve">11.5981473922729</t>
@@ -3230,31 +3230,31 @@
     <t xml:space="preserve">11.8771734237671</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0538883209229</t>
+    <t xml:space="preserve">12.0538892745972</t>
   </si>
   <si>
     <t xml:space="preserve">12.2306041717529</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4445247650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0817918777466</t>
+    <t xml:space="preserve">12.4445238113403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0817909240723</t>
   </si>
   <si>
     <t xml:space="preserve">12.2771081924438</t>
   </si>
   <si>
-    <t xml:space="preserve">11.626049041748</t>
+    <t xml:space="preserve">11.6260499954224</t>
   </si>
   <si>
     <t xml:space="preserve">11.6167488098145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7376594543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6725540161133</t>
+    <t xml:space="preserve">11.73766040802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6725549697876</t>
   </si>
   <si>
     <t xml:space="preserve">11.5423431396484</t>
@@ -3269,10 +3269,10 @@
     <t xml:space="preserve">10.9191856384277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7517719268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9284858703613</t>
+    <t xml:space="preserve">10.7517709732056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9284868240356</t>
   </si>
   <si>
     <t xml:space="preserve">11.0959024429321</t>
@@ -3311,13 +3311,13 @@
     <t xml:space="preserve">8.45446395874023</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79859447479248</t>
+    <t xml:space="preserve">8.7985954284668</t>
   </si>
   <si>
     <t xml:space="preserve">8.50096797943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64978122711182</t>
+    <t xml:space="preserve">8.64978218078613</t>
   </si>
   <si>
     <t xml:space="preserve">8.8497486114502</t>
@@ -3341,13 +3341,13 @@
     <t xml:space="preserve">9.5147590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4682559967041</t>
+    <t xml:space="preserve">9.46825504302979</t>
   </si>
   <si>
     <t xml:space="preserve">9.31014156341553</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11947345733643</t>
+    <t xml:space="preserve">9.11947441101074</t>
   </si>
   <si>
     <t xml:space="preserve">9.23108386993408</t>
@@ -3368,22 +3368,22 @@
     <t xml:space="preserve">9.36594581604004</t>
   </si>
   <si>
-    <t xml:space="preserve">9.15202713012695</t>
+    <t xml:space="preserve">9.15202617645264</t>
   </si>
   <si>
     <t xml:space="preserve">8.74743938446045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56607341766357</t>
+    <t xml:space="preserve">8.56607437133789</t>
   </si>
   <si>
     <t xml:space="preserve">8.66838264465332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5753755569458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61257839202881</t>
+    <t xml:space="preserve">8.57537460327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61257743835449</t>
   </si>
   <si>
     <t xml:space="preserve">8.65443134307861</t>
@@ -3395,13 +3395,13 @@
     <t xml:space="preserve">8.82649707794189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26828670501709</t>
+    <t xml:space="preserve">9.26828765869141</t>
   </si>
   <si>
     <t xml:space="preserve">9.02646541595459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88695335388184</t>
+    <t xml:space="preserve">8.88695240020752</t>
   </si>
   <si>
     <t xml:space="preserve">8.76604175567627</t>
@@ -3410,7 +3410,7 @@
     <t xml:space="preserve">8.77534294128418</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92880725860596</t>
+    <t xml:space="preserve">8.92880630493164</t>
   </si>
   <si>
     <t xml:space="preserve">8.80324459075928</t>
@@ -3428,10 +3428,10 @@
     <t xml:space="preserve">8.42191028594971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20783138275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0077047348022</t>
+    <t xml:space="preserve">9.20783042907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0077037811279</t>
   </si>
   <si>
     <t xml:space="preserve">10.0387487411499</t>
@@ -4878,6 +4878,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.54300022125244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70800018310547</t>
   </si>
 </sst>
 </file>
@@ -9007,7 +9010,7 @@
         <v>10.1195363998413</v>
       </c>
       <c r="G146" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -9033,7 +9036,7 @@
         <v>10.2294216156006</v>
       </c>
       <c r="G147" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -9059,7 +9062,7 @@
         <v>10.0595979690552</v>
       </c>
       <c r="G148" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -9085,7 +9088,7 @@
         <v>10.4392051696777</v>
       </c>
       <c r="G149" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -9111,7 +9114,7 @@
         <v>10.5490922927856</v>
       </c>
       <c r="G150" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -9163,7 +9166,7 @@
         <v>10.269380569458</v>
       </c>
       <c r="G152" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -9189,7 +9192,7 @@
         <v>10.2893600463867</v>
       </c>
       <c r="G153" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -9215,7 +9218,7 @@
         <v>10.4392051696777</v>
       </c>
       <c r="G154" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -9241,7 +9244,7 @@
         <v>10.3992471694946</v>
       </c>
       <c r="G155" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -9267,7 +9270,7 @@
         <v>10.5091333389282</v>
       </c>
       <c r="G156" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -9293,7 +9296,7 @@
         <v>10.4491949081421</v>
       </c>
       <c r="G157" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -9319,7 +9322,7 @@
         <v>10.5191230773926</v>
       </c>
       <c r="G158" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -9345,7 +9348,7 @@
         <v>10.4292163848877</v>
       </c>
       <c r="G159" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -9397,7 +9400,7 @@
         <v>10.2094430923462</v>
       </c>
       <c r="G161" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -9423,7 +9426,7 @@
         <v>10.1594953536987</v>
       </c>
       <c r="G162" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -9449,7 +9452,7 @@
         <v>10.1994533538818</v>
       </c>
       <c r="G163" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -9475,7 +9478,7 @@
         <v>10.1095457077026</v>
       </c>
       <c r="G164" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -9501,7 +9504,7 @@
         <v>10.1395149230957</v>
       </c>
       <c r="G165" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -9527,7 +9530,7 @@
         <v>10.269380569458</v>
       </c>
       <c r="G166" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -9553,7 +9556,7 @@
         <v>10.3992471694946</v>
       </c>
       <c r="G167" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -9579,7 +9582,7 @@
         <v>10.3992471694946</v>
       </c>
       <c r="G168" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9631,7 +9634,7 @@
         <v>10.4092359542847</v>
       </c>
       <c r="G170" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9657,7 +9660,7 @@
         <v>10.4591846466064</v>
       </c>
       <c r="G171" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9683,7 +9686,7 @@
         <v>10.4591846466064</v>
       </c>
       <c r="G172" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9709,7 +9712,7 @@
         <v>10.4292163848877</v>
       </c>
       <c r="G173" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9735,7 +9738,7 @@
         <v>10.4791641235352</v>
       </c>
       <c r="G174" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9787,7 +9790,7 @@
         <v>10.6989374160767</v>
       </c>
       <c r="G176" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -9813,7 +9816,7 @@
         <v>10.6389989852905</v>
       </c>
       <c r="G177" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9917,7 +9920,7 @@
         <v>10.4392051696777</v>
       </c>
       <c r="G181" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -9995,7 +9998,7 @@
         <v>10.4292163848877</v>
       </c>
       <c r="G184" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -10073,7 +10076,7 @@
         <v>10.688946723938</v>
       </c>
       <c r="G187" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -10099,7 +10102,7 @@
         <v>10.56907081604</v>
       </c>
       <c r="G188" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -10125,7 +10128,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G189" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -10151,7 +10154,7 @@
         <v>10.4491949081421</v>
       </c>
       <c r="G190" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -10203,7 +10206,7 @@
         <v>10.56907081604</v>
       </c>
       <c r="G192" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -10229,7 +10232,7 @@
         <v>10.6090297698975</v>
       </c>
       <c r="G193" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -10255,7 +10258,7 @@
         <v>10.7089262008667</v>
       </c>
       <c r="G194" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -10281,7 +10284,7 @@
         <v>10.8887405395508</v>
       </c>
       <c r="G195" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -10307,7 +10310,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G196" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -10333,7 +10336,7 @@
         <v>10.5990400314331</v>
       </c>
       <c r="G197" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -10359,7 +10362,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G198" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -10385,7 +10388,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G199" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -10411,7 +10414,7 @@
         <v>10.3792667388916</v>
       </c>
       <c r="G200" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -10489,7 +10492,7 @@
         <v>10.4691743850708</v>
       </c>
       <c r="G203" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -10515,7 +10518,7 @@
         <v>10.56907081604</v>
       </c>
       <c r="G204" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -10541,7 +10544,7 @@
         <v>10.5091333389282</v>
       </c>
       <c r="G205" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -10567,7 +10570,7 @@
         <v>10.6090297698975</v>
       </c>
       <c r="G206" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -10593,7 +10596,7 @@
         <v>10.6190185546875</v>
       </c>
       <c r="G207" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10619,7 +10622,7 @@
         <v>10.5291118621826</v>
       </c>
       <c r="G208" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10645,7 +10648,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G209" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10697,7 +10700,7 @@
         <v>10.8787508010864</v>
       </c>
       <c r="G211" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10723,7 +10726,7 @@
         <v>10.9986267089844</v>
       </c>
       <c r="G212" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10749,7 +10752,7 @@
         <v>11.1684513092041</v>
       </c>
       <c r="G213" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10775,7 +10778,7 @@
         <v>11.2483692169189</v>
       </c>
       <c r="G214" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -10801,7 +10804,7 @@
         <v>11.258358001709</v>
       </c>
       <c r="G215" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10827,7 +10830,7 @@
         <v>11.008617401123</v>
       </c>
       <c r="G216" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10853,7 +10856,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G217" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10879,7 +10882,7 @@
         <v>10.5590810775757</v>
       </c>
       <c r="G218" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10905,7 +10908,7 @@
         <v>11.0585651397705</v>
       </c>
       <c r="G219" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10931,7 +10934,7 @@
         <v>11.3682451248169</v>
       </c>
       <c r="G220" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10957,7 +10960,7 @@
         <v>11.0385856628418</v>
       </c>
       <c r="G221" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -10983,7 +10986,7 @@
         <v>10.828803062439</v>
       </c>
       <c r="G222" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -11009,7 +11012,7 @@
         <v>10.98863697052</v>
       </c>
       <c r="G223" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -11035,7 +11038,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G224" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -11061,7 +11064,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G225" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -11087,7 +11090,7 @@
         <v>10.7289056777954</v>
       </c>
       <c r="G226" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -11113,7 +11116,7 @@
         <v>10.6389989852905</v>
       </c>
       <c r="G227" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -11139,7 +11142,7 @@
         <v>10.6190185546875</v>
       </c>
       <c r="G228" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -11191,7 +11194,7 @@
         <v>10.7388954162598</v>
       </c>
       <c r="G230" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -11217,7 +11220,7 @@
         <v>10.7388954162598</v>
       </c>
       <c r="G231" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -11243,7 +11246,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G232" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -11269,7 +11272,7 @@
         <v>10.838791847229</v>
       </c>
       <c r="G233" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -11321,7 +11324,7 @@
         <v>10.7388954162598</v>
       </c>
       <c r="G235" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -11347,7 +11350,7 @@
         <v>10.8088226318359</v>
       </c>
       <c r="G236" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -11373,7 +11376,7 @@
         <v>10.7089262008667</v>
       </c>
       <c r="G237" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -11399,7 +11402,7 @@
         <v>10.539101600647</v>
       </c>
       <c r="G238" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -11425,7 +11428,7 @@
         <v>10.5590810775757</v>
       </c>
       <c r="G239" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -11477,7 +11480,7 @@
         <v>10.9686584472656</v>
       </c>
       <c r="G241" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -11503,7 +11506,7 @@
         <v>11.0985240936279</v>
       </c>
       <c r="G242" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -11529,7 +11532,7 @@
         <v>10.9686584472656</v>
       </c>
       <c r="G243" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11555,7 +11558,7 @@
         <v>10.828803062439</v>
       </c>
       <c r="G244" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11581,7 +11584,7 @@
         <v>11.008617401123</v>
       </c>
       <c r="G245" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -11607,7 +11610,7 @@
         <v>10.8887405395508</v>
       </c>
       <c r="G246" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11633,7 +11636,7 @@
         <v>10.98863697052</v>
       </c>
       <c r="G247" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -11659,7 +11662,7 @@
         <v>10.8088226318359</v>
       </c>
       <c r="G248" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -11685,7 +11688,7 @@
         <v>10.7289056777954</v>
       </c>
       <c r="G249" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11711,7 +11714,7 @@
         <v>10.7688636779785</v>
       </c>
       <c r="G250" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11737,7 +11740,7 @@
         <v>10.9087200164795</v>
       </c>
       <c r="G251" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11763,7 +11766,7 @@
         <v>10.9187097549438</v>
       </c>
       <c r="G252" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11789,7 +11792,7 @@
         <v>11.0685548782349</v>
       </c>
       <c r="G253" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11815,7 +11818,7 @@
         <v>11.2084102630615</v>
       </c>
       <c r="G254" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11841,7 +11844,7 @@
         <v>11.2683477401733</v>
       </c>
       <c r="G255" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11867,7 +11870,7 @@
         <v>11.4181928634644</v>
       </c>
       <c r="G256" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11893,7 +11896,7 @@
         <v>11.4881210327148</v>
       </c>
       <c r="G257" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11919,7 +11922,7 @@
         <v>11.9876041412354</v>
       </c>
       <c r="G258" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11945,7 +11948,7 @@
         <v>12.0575323104858</v>
       </c>
       <c r="G259" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11971,7 +11974,7 @@
         <v>11.8177795410156</v>
       </c>
       <c r="G260" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -11997,7 +12000,7 @@
         <v>11.9576349258423</v>
       </c>
       <c r="G261" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -12023,7 +12026,7 @@
         <v>12.0075836181641</v>
       </c>
       <c r="G262" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -12049,7 +12052,7 @@
         <v>12.0375528335571</v>
       </c>
       <c r="G263" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -12075,7 +12078,7 @@
         <v>12.0974912643433</v>
       </c>
       <c r="G264" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -12101,7 +12104,7 @@
         <v>12.277304649353</v>
       </c>
       <c r="G265" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -12127,7 +12130,7 @@
         <v>12.0575323104858</v>
       </c>
       <c r="G266" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -12153,7 +12156,7 @@
         <v>12.3072738647461</v>
       </c>
       <c r="G267" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -12179,7 +12182,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G268" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -12205,7 +12208,7 @@
         <v>12.2673149108887</v>
       </c>
       <c r="G269" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -12231,7 +12234,7 @@
         <v>12.2173671722412</v>
       </c>
       <c r="G270" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -12257,7 +12260,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G271" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -12283,7 +12286,7 @@
         <v>12.1774082183838</v>
       </c>
       <c r="G272" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -12309,7 +12312,7 @@
         <v>12.2473363876343</v>
       </c>
       <c r="G273" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -12335,7 +12338,7 @@
         <v>12.2073774337769</v>
       </c>
       <c r="G274" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -12361,7 +12364,7 @@
         <v>12.2972841262817</v>
       </c>
       <c r="G275" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -12387,7 +12390,7 @@
         <v>12.1873979568481</v>
       </c>
       <c r="G276" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -12413,7 +12416,7 @@
         <v>12.1474390029907</v>
       </c>
       <c r="G277" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -12439,7 +12442,7 @@
         <v>11.9876041412354</v>
       </c>
       <c r="G278" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -12465,7 +12468,7 @@
         <v>11.8477487564087</v>
       </c>
       <c r="G279" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -12491,7 +12494,7 @@
         <v>12.2173671722412</v>
       </c>
       <c r="G280" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -12517,7 +12520,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G281" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -12543,7 +12546,7 @@
         <v>12.4071702957153</v>
       </c>
       <c r="G282" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -12569,7 +12572,7 @@
         <v>12.127459526062</v>
       </c>
       <c r="G283" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -12595,7 +12598,7 @@
         <v>12.1174697875977</v>
       </c>
       <c r="G284" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -12621,7 +12624,7 @@
         <v>12.2473363876343</v>
       </c>
       <c r="G285" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12647,7 +12650,7 @@
         <v>12.2473363876343</v>
       </c>
       <c r="G286" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -12673,7 +12676,7 @@
         <v>12.4071702957153</v>
       </c>
       <c r="G287" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -12699,7 +12702,7 @@
         <v>12.6669015884399</v>
       </c>
       <c r="G288" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12725,7 +12728,7 @@
         <v>12.5670051574707</v>
       </c>
       <c r="G289" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12751,7 +12754,7 @@
         <v>12.6569118499756</v>
       </c>
       <c r="G290" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12777,7 +12780,7 @@
         <v>12.5670051574707</v>
       </c>
       <c r="G291" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12803,7 +12806,7 @@
         <v>12.4970779418945</v>
       </c>
       <c r="G292" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12829,7 +12832,7 @@
         <v>12.5969743728638</v>
       </c>
       <c r="G293" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12855,7 +12858,7 @@
         <v>12.8567056655884</v>
       </c>
       <c r="G294" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12881,7 +12884,7 @@
         <v>12.8966636657715</v>
       </c>
       <c r="G295" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12907,7 +12910,7 @@
         <v>12.816746711731</v>
       </c>
       <c r="G296" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12933,7 +12936,7 @@
         <v>12.5170574188232</v>
       </c>
       <c r="G297" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12959,7 +12962,7 @@
         <v>12.8067569732666</v>
       </c>
       <c r="G298" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -12985,7 +12988,7 @@
         <v>12.6669015884399</v>
       </c>
       <c r="G299" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -13011,7 +13014,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G300" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -13037,7 +13040,7 @@
         <v>13.1863651275635</v>
       </c>
       <c r="G301" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -13063,7 +13066,7 @@
         <v>13.1464061737061</v>
       </c>
       <c r="G302" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -13089,7 +13092,7 @@
         <v>12.9566020965576</v>
       </c>
       <c r="G303" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -13115,7 +13118,7 @@
         <v>12.966591835022</v>
       </c>
       <c r="G304" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -13141,7 +13144,7 @@
         <v>13.0764780044556</v>
       </c>
       <c r="G305" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -13167,7 +13170,7 @@
         <v>12.9765815734863</v>
       </c>
       <c r="G306" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -13193,7 +13196,7 @@
         <v>12.9765815734863</v>
       </c>
       <c r="G307" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -13219,7 +13222,7 @@
         <v>13.1863651275635</v>
       </c>
       <c r="G308" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -13245,7 +13248,7 @@
         <v>13.2762718200684</v>
       </c>
       <c r="G309" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -13271,7 +13274,7 @@
         <v>13.1064472198486</v>
       </c>
       <c r="G310" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -13297,7 +13300,7 @@
         <v>13.2862615585327</v>
       </c>
       <c r="G311" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -13323,7 +13326,7 @@
         <v>13.536003112793</v>
       </c>
       <c r="G312" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -13349,7 +13352,7 @@
         <v>13.4460964202881</v>
       </c>
       <c r="G313" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -13375,7 +13378,7 @@
         <v>13.5060338973999</v>
       </c>
       <c r="G314" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -13401,7 +13404,7 @@
         <v>13.5459928512573</v>
       </c>
       <c r="G315" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -13427,7 +13430,7 @@
         <v>13.5759620666504</v>
       </c>
       <c r="G316" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -13453,7 +13456,7 @@
         <v>13.6458902359009</v>
       </c>
       <c r="G317" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -13479,7 +13482,7 @@
         <v>13.7058277130127</v>
       </c>
       <c r="G318" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -13505,7 +13508,7 @@
         <v>13.7757549285889</v>
       </c>
       <c r="G319" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -13531,7 +13534,7 @@
         <v>13.8456830978394</v>
       </c>
       <c r="G320" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -13557,7 +13560,7 @@
         <v>13.835693359375</v>
       </c>
       <c r="G321" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -13583,7 +13586,7 @@
         <v>13.8556728363037</v>
       </c>
       <c r="G322" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13609,7 +13612,7 @@
         <v>14.1253938674927</v>
       </c>
       <c r="G323" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13635,7 +13638,7 @@
         <v>14.1453733444214</v>
       </c>
       <c r="G324" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13661,7 +13664,7 @@
         <v>14.1253938674927</v>
       </c>
       <c r="G325" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -13687,7 +13690,7 @@
         <v>14.1253938674927</v>
       </c>
       <c r="G326" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -13713,7 +13716,7 @@
         <v>14.0654563903809</v>
       </c>
       <c r="G327" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -13739,7 +13742,7 @@
         <v>14.0554656982422</v>
       </c>
       <c r="G328" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13765,7 +13768,7 @@
         <v>14.1054153442383</v>
       </c>
       <c r="G329" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13791,7 +13794,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G330" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -13817,7 +13820,7 @@
         <v>14.0954246520996</v>
       </c>
       <c r="G331" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13843,7 +13846,7 @@
         <v>13.7757549285889</v>
       </c>
       <c r="G332" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13869,7 +13872,7 @@
         <v>13.9455795288086</v>
       </c>
       <c r="G333" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13895,7 +13898,7 @@
         <v>14.0754451751709</v>
       </c>
       <c r="G334" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13921,7 +13924,7 @@
         <v>13.8856420516968</v>
       </c>
       <c r="G335" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13947,7 +13950,7 @@
         <v>14.3851251602173</v>
       </c>
       <c r="G336" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -13973,7 +13976,7 @@
         <v>14.5050010681152</v>
       </c>
       <c r="G337" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -13999,7 +14002,7 @@
         <v>14.3351774215698</v>
       </c>
       <c r="G338" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -14025,7 +14028,7 @@
         <v>14.4250841140747</v>
       </c>
       <c r="G339" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -14051,7 +14054,7 @@
         <v>14.4150943756104</v>
       </c>
       <c r="G340" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -14077,7 +14080,7 @@
         <v>14.6148881912231</v>
       </c>
       <c r="G341" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -14103,7 +14106,7 @@
         <v>14.4950122833252</v>
       </c>
       <c r="G342" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -14129,7 +14132,7 @@
         <v>14.7847118377686</v>
       </c>
       <c r="G343" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -14155,7 +14158,7 @@
         <v>14.9045877456665</v>
       </c>
       <c r="G344" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -14181,7 +14184,7 @@
         <v>14.8146810531616</v>
       </c>
       <c r="G345" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -14207,7 +14210,7 @@
         <v>15.0444440841675</v>
       </c>
       <c r="G346" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -14233,7 +14236,7 @@
         <v>15.0844020843506</v>
       </c>
       <c r="G347" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -14259,7 +14262,7 @@
         <v>14.7647333145142</v>
       </c>
       <c r="G348" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -14285,7 +14288,7 @@
         <v>14.6648359298706</v>
       </c>
       <c r="G349" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -14311,7 +14314,7 @@
         <v>14.674825668335</v>
       </c>
       <c r="G350" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -14337,7 +14340,7 @@
         <v>14.5349702835083</v>
       </c>
       <c r="G351" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -14363,7 +14366,7 @@
         <v>14.0055179595947</v>
       </c>
       <c r="G352" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -14389,7 +14392,7 @@
         <v>13.8956308364868</v>
       </c>
       <c r="G353" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -14415,7 +14418,7 @@
         <v>14.2053108215332</v>
       </c>
       <c r="G354" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -14441,7 +14444,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G355" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -14467,7 +14470,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G356" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -14493,7 +14496,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G357" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -14519,7 +14522,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G358" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -14545,7 +14548,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G359" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -14571,7 +14574,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G360" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14597,7 +14600,7 @@
         <v>14.4250841140747</v>
       </c>
       <c r="G361" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14623,7 +14626,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G362" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14649,7 +14652,7 @@
         <v>13.9755487442017</v>
       </c>
       <c r="G363" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14675,7 +14678,7 @@
         <v>13.8257036209106</v>
       </c>
       <c r="G364" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14701,7 +14704,7 @@
         <v>14.0055179595947</v>
       </c>
       <c r="G365" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -16651,7 +16654,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G440" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16859,7 +16862,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G448" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16885,7 +16888,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G449" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16937,7 +16940,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G451" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -17327,7 +17330,7 @@
         <v>13.8257036209106</v>
       </c>
       <c r="G466" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -27025,7 +27028,7 @@
         <v>11.5680379867554</v>
       </c>
       <c r="G839" t="s">
-        <v>439</v>
+        <v>621</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -27077,7 +27080,7 @@
         <v>11.8677282333374</v>
       </c>
       <c r="G841" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -27259,7 +27262,7 @@
         <v>11.4181928634644</v>
       </c>
       <c r="G848" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -27311,7 +27314,7 @@
         <v>11.1984195709229</v>
       </c>
       <c r="G850" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -27363,7 +27366,7 @@
         <v>11.0685548782349</v>
       </c>
       <c r="G852" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27441,7 +27444,7 @@
         <v>10.3193292617798</v>
       </c>
       <c r="G855" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27467,7 +27470,7 @@
         <v>10.419225692749</v>
       </c>
       <c r="G856" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27493,7 +27496,7 @@
         <v>10.2893600463867</v>
       </c>
       <c r="G857" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27545,7 +27548,7 @@
         <v>9.97468566894531</v>
       </c>
       <c r="G859" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27571,7 +27574,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G860" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27597,7 +27600,7 @@
         <v>9.9547061920166</v>
       </c>
       <c r="G861" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27623,7 +27626,7 @@
         <v>9.59008312225342</v>
       </c>
       <c r="G862" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27649,7 +27652,7 @@
         <v>9.71994876861572</v>
       </c>
       <c r="G863" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27675,7 +27678,7 @@
         <v>9.7698974609375</v>
       </c>
       <c r="G864" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27701,7 +27704,7 @@
         <v>9.77988719940186</v>
       </c>
       <c r="G865" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27727,7 +27730,7 @@
         <v>9.65002059936523</v>
       </c>
       <c r="G866" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27753,7 +27756,7 @@
         <v>9.73992824554443</v>
       </c>
       <c r="G867" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -27779,7 +27782,7 @@
         <v>9.60007286071777</v>
       </c>
       <c r="G868" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -27805,7 +27808,7 @@
         <v>9.32036209106445</v>
       </c>
       <c r="G869" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -27831,7 +27834,7 @@
         <v>9.54013538360596</v>
       </c>
       <c r="G870" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27857,7 +27860,7 @@
         <v>9.75990772247314</v>
       </c>
       <c r="G871" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27883,7 +27886,7 @@
         <v>9.88477897644043</v>
       </c>
       <c r="G872" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27909,7 +27912,7 @@
         <v>9.8647985458374</v>
       </c>
       <c r="G873" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27935,7 +27938,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G874" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27961,7 +27964,7 @@
         <v>10.1295261383057</v>
       </c>
       <c r="G875" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -27987,7 +27990,7 @@
         <v>9.96969127655029</v>
       </c>
       <c r="G876" t="s">
-        <v>644</v>
+        <v>547</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -28065,7 +28068,7 @@
         <v>9.8647985458374</v>
       </c>
       <c r="G879" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -28247,7 +28250,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G886" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -28273,7 +28276,7 @@
         <v>9.97468566894531</v>
       </c>
       <c r="G887" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -28585,7 +28588,7 @@
         <v>9.96969127655029</v>
       </c>
       <c r="G899" t="s">
-        <v>644</v>
+        <v>547</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28611,7 +28614,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G900" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28845,7 +28848,7 @@
         <v>9.73992824554443</v>
       </c>
       <c r="G909" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -29703,7 +29706,7 @@
         <v>9.65002059936523</v>
       </c>
       <c r="G942" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -37321,7 +37324,7 @@
         <v>9.54013538360596</v>
       </c>
       <c r="G1235" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -62939,7 +62942,7 @@
     </row>
     <row r="2221">
       <c r="A2221" s="1" t="n">
-        <v>45555.6494675926</v>
+        <v>45555.2916666667</v>
       </c>
       <c r="B2221" t="n">
         <v>1058817</v>
@@ -62960,6 +62963,32 @@
         <v>1621</v>
       </c>
       <c r="H2221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" s="1" t="n">
+        <v>45558.649537037</v>
+      </c>
+      <c r="B2222" t="n">
+        <v>950332</v>
+      </c>
+      <c r="C2222" t="n">
+        <v>9.72900009155273</v>
+      </c>
+      <c r="D2222" t="n">
+        <v>9.4060001373291</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>9.59099960327148</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>9.70800018310547</v>
+      </c>
+      <c r="G2222" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H2222" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BRE.MI.xlsx
+++ b/data/BRE.MI.xlsx
@@ -44,121 +44,121 @@
     <t xml:space="preserve">BRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40021467208862</t>
+    <t xml:space="preserve">7.40021419525146</t>
   </si>
   <si>
     <t xml:space="preserve">7.17991924285889</t>
   </si>
   <si>
-    <t xml:space="preserve">6.76305341720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77999973297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66307401657104</t>
+    <t xml:space="preserve">6.76305437088013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77999925613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6630744934082</t>
   </si>
   <si>
     <t xml:space="preserve">6.84100484848022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02910184860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79016733169556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4393892288208</t>
+    <t xml:space="preserve">7.02910137176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7901668548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43938970565796</t>
   </si>
   <si>
     <t xml:space="preserve">6.42413854598999</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50378322601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16317319869995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42922306060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47667121887207</t>
+    <t xml:space="preserve">6.50378370285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16317367553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42922258377075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47667026519775</t>
   </si>
   <si>
     <t xml:space="preserve">6.53598022460938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.54953670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62070941925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45802974700928</t>
+    <t xml:space="preserve">6.54953718185425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62070894241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45803022384644</t>
   </si>
   <si>
     <t xml:space="preserve">6.3919415473938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28009939193726</t>
+    <t xml:space="preserve">6.2800989151001</t>
   </si>
   <si>
     <t xml:space="preserve">6.21062231063843</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07844400405884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91237688064575</t>
+    <t xml:space="preserve">6.07844495773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91237640380859</t>
   </si>
   <si>
     <t xml:space="preserve">5.55482149124146</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71749925613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93101596832275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88187408447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94118452072144</t>
+    <t xml:space="preserve">5.71750020980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93101692199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88187456130981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94118499755859</t>
   </si>
   <si>
     <t xml:space="preserve">6.25976419448853</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19198226928711</t>
+    <t xml:space="preserve">6.19198179244995</t>
   </si>
   <si>
     <t xml:space="preserve">6.34279918670654</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36482810974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32246446609497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46480846405029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.33432626724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19367647171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29535150527954</t>
+    <t xml:space="preserve">6.36482858657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32246398925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46480751037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.33432531356812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19367599487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29535102844238</t>
   </si>
   <si>
     <t xml:space="preserve">6.35296630859375</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44616842269897</t>
+    <t xml:space="preserve">6.44616794586182</t>
   </si>
   <si>
     <t xml:space="preserve">6.58342885971069</t>
@@ -167,58 +167,58 @@
     <t xml:space="preserve">6.55462121963501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30362510681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34090375900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37649059295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33751487731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37988090515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32904243469238</t>
+    <t xml:space="preserve">7.30362462997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34090328216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37649011611938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33751440048218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37987947463989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32904195785522</t>
   </si>
   <si>
     <t xml:space="preserve">7.32395887374878</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42224359512329</t>
+    <t xml:space="preserve">7.42224454879761</t>
   </si>
   <si>
     <t xml:space="preserve">7.40360403060913</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51375007629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40190935134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49341630935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33412504196167</t>
+    <t xml:space="preserve">7.51374959945679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40190982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49341535568237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33412456512451</t>
   </si>
   <si>
     <t xml:space="preserve">7.53408622741699</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4137716293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41207599639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58153343200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70184803009033</t>
+    <t xml:space="preserve">7.41377067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41207504272461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58153486251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70184946060181</t>
   </si>
   <si>
     <t xml:space="preserve">7.67304086685181</t>
@@ -230,73 +230,73 @@
     <t xml:space="preserve">7.40529823303223</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45105218887329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42393827438354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53916883468628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57645082473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62559366226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67643117904663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69337558746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66287422180176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71032333374023</t>
+    <t xml:space="preserve">7.45105123519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4239387512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53917026519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57644939422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6255931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.676429271698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69337511062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66287469863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71032238006592</t>
   </si>
   <si>
     <t xml:space="preserve">7.74421405792236</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78488254547119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05093193054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99670553207397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91367053985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96281433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02381992340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94925737380981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00348281860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90858697891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9916205406189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14243793487549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.786376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81179714202881</t>
+    <t xml:space="preserve">7.78488302230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05093097686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99670648574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91367149353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96281290054321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02381896972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94925689697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0034818649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90858793258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99162149429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1424388885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78637790679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81179618835449</t>
   </si>
   <si>
     <t xml:space="preserve">8.82026958465576</t>
@@ -308,25 +308,25 @@
     <t xml:space="preserve">8.73554039001465</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66775703430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65928554534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71859455108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83048343658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76162910461426</t>
+    <t xml:space="preserve">8.66775798797607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65928649902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71859550476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83048248291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76162815093994</t>
   </si>
   <si>
     <t xml:space="preserve">8.82187652587891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77023601531982</t>
+    <t xml:space="preserve">8.77023506164551</t>
   </si>
   <si>
     <t xml:space="preserve">8.77884197235107</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">9.04564952850342</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2866382598877</t>
+    <t xml:space="preserve">9.28663730621338</t>
   </si>
   <si>
     <t xml:space="preserve">9.1919641494751</t>
@@ -350,28 +350,28 @@
     <t xml:space="preserve">9.18335819244385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89933490753174</t>
+    <t xml:space="preserve">8.89933681488037</t>
   </si>
   <si>
     <t xml:space="preserve">8.5774450302124</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40531158447266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60670566558838</t>
+    <t xml:space="preserve">8.40530967712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6067066192627</t>
   </si>
   <si>
     <t xml:space="preserve">8.61531448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91654968261719</t>
+    <t xml:space="preserve">8.91654872894287</t>
   </si>
   <si>
     <t xml:space="preserve">8.93376445770264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88212203979492</t>
+    <t xml:space="preserve">8.88212299346924</t>
   </si>
   <si>
     <t xml:space="preserve">9.03704357147217</t>
@@ -380,19 +380,19 @@
     <t xml:space="preserve">8.56023216247559</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91989231109619</t>
+    <t xml:space="preserve">7.91989326477051</t>
   </si>
   <si>
     <t xml:space="preserve">8.55506801605225</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35367107391357</t>
+    <t xml:space="preserve">8.35367202758789</t>
   </si>
   <si>
     <t xml:space="preserve">8.50514888763428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53785514831543</t>
+    <t xml:space="preserve">8.53785419464111</t>
   </si>
   <si>
     <t xml:space="preserve">8.13333892822266</t>
@@ -401,19 +401,19 @@
     <t xml:space="preserve">7.95948362350464</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95776271820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24522590637207</t>
+    <t xml:space="preserve">7.95776176452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24522686004639</t>
   </si>
   <si>
     <t xml:space="preserve">8.32096576690674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.34850597381592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26932430267334</t>
+    <t xml:space="preserve">8.34850692749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26932525634766</t>
   </si>
   <si>
     <t xml:space="preserve">8.4414587020874</t>
@@ -425,28 +425,28 @@
     <t xml:space="preserve">8.5344123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40014553070068</t>
+    <t xml:space="preserve">8.400146484375</t>
   </si>
   <si>
     <t xml:space="preserve">8.51031303405762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46555805206299</t>
+    <t xml:space="preserve">8.4655590057373</t>
   </si>
   <si>
     <t xml:space="preserve">8.62392330169678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67556190490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81326866149902</t>
+    <t xml:space="preserve">8.67556095123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81326961517334</t>
   </si>
   <si>
     <t xml:space="preserve">8.66695499420166</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99400901794434</t>
+    <t xml:space="preserve">8.99400997161865</t>
   </si>
   <si>
     <t xml:space="preserve">9.08868503570557</t>
@@ -455,16 +455,16 @@
     <t xml:space="preserve">8.84769535064697</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86490821838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95958518981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0542573928833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00261497497559</t>
+    <t xml:space="preserve">8.86490726470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9595832824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05425643920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00261688232422</t>
   </si>
   <si>
     <t xml:space="preserve">9.06286430358887</t>
@@ -473,25 +473,25 @@
     <t xml:space="preserve">8.9854040145874</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79605579376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75302219390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78744983673096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70998859405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73580741882324</t>
+    <t xml:space="preserve">8.79605674743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75302314758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78744792938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70998764038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73580837249756</t>
   </si>
   <si>
     <t xml:space="preserve">8.96818923950195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01122379302979</t>
+    <t xml:space="preserve">9.01122283935547</t>
   </si>
   <si>
     <t xml:space="preserve">9.0284366607666</t>
@@ -500,16 +500,16 @@
     <t xml:space="preserve">9.2177848815918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16614246368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20917701721191</t>
+    <t xml:space="preserve">9.16614437103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2091760635376</t>
   </si>
   <si>
     <t xml:space="preserve">9.10589694976807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12311172485352</t>
+    <t xml:space="preserve">9.1231107711792</t>
   </si>
   <si>
     <t xml:space="preserve">9.14032363891602</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">9.22639179229736</t>
   </si>
   <si>
-    <t xml:space="preserve">9.38131237030029</t>
+    <t xml:space="preserve">9.38131141662598</t>
   </si>
   <si>
     <t xml:space="preserve">9.13171577453613</t>
@@ -527,10 +527,10 @@
     <t xml:space="preserve">8.94236850738525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01983070373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14892959594727</t>
+    <t xml:space="preserve">9.01982975006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14893054962158</t>
   </si>
   <si>
     <t xml:space="preserve">9.07147026062012</t>
@@ -539,67 +539,67 @@
     <t xml:space="preserve">9.37270450592041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47598457336426</t>
+    <t xml:space="preserve">9.47598552703857</t>
   </si>
   <si>
     <t xml:space="preserve">9.62230014801025</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69115257263184</t>
+    <t xml:space="preserve">9.69115447998047</t>
   </si>
   <si>
     <t xml:space="preserve">9.69976043701172</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48459339141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26081943511963</t>
+    <t xml:space="preserve">9.48459243774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26081848144531</t>
   </si>
   <si>
     <t xml:space="preserve">9.0972900390625</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52762603759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79443454742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51041412353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32967185974121</t>
+    <t xml:space="preserve">9.52762508392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79443359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51041316986084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32967090606689</t>
   </si>
   <si>
     <t xml:space="preserve">9.46737861633301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24360370635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25221252441406</t>
+    <t xml:space="preserve">9.24360466003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25221157073975</t>
   </si>
   <si>
     <t xml:space="preserve">9.33827781677246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31245708465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08007621765137</t>
+    <t xml:space="preserve">9.31245803833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08007717132568</t>
   </si>
   <si>
     <t xml:space="preserve">9.45016670227051</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56205368041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27803039550781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39852428436279</t>
+    <t xml:space="preserve">9.56205272674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27803134918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39852523803711</t>
   </si>
   <si>
     <t xml:space="preserve">9.40713214874268</t>
@@ -608,46 +608,46 @@
     <t xml:space="preserve">9.53623294830322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.65672779083252</t>
+    <t xml:space="preserve">9.65672588348389</t>
   </si>
   <si>
     <t xml:space="preserve">9.70836544036865</t>
   </si>
   <si>
-    <t xml:space="preserve">9.8374662399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89771461486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.328049659729</t>
+    <t xml:space="preserve">9.83746719360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89771556854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3280487060547</t>
   </si>
   <si>
     <t xml:space="preserve">10.3882970809937</t>
   </si>
   <si>
-    <t xml:space="preserve">10.181734085083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3022298812866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3452634811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3710813522339</t>
+    <t xml:space="preserve">10.1817350387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3022289276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3452625274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3710823059082</t>
   </si>
   <si>
     <t xml:space="preserve">10.4227247238159</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5776433944702</t>
+    <t xml:space="preserve">10.5776443481445</t>
   </si>
   <si>
     <t xml:space="preserve">10.6034641265869</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5862522125244</t>
+    <t xml:space="preserve">10.5862512588501</t>
   </si>
   <si>
     <t xml:space="preserve">10.5690364837646</t>
@@ -656,58 +656,58 @@
     <t xml:space="preserve">10.5260038375854</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4915781021118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5518255233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5173969268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5948581695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5001831054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4657573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2075548171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6895322799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4485445022583</t>
+    <t xml:space="preserve">10.4915771484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5518245697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5173978805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.594856262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5001840591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4657583236694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2075538635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6895313262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.448543548584</t>
   </si>
   <si>
     <t xml:space="preserve">10.4399366378784</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9133052825928</t>
+    <t xml:space="preserve">10.9133062362671</t>
   </si>
   <si>
     <t xml:space="preserve">10.8272390365601</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9046993255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7669925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8530597686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0768327713013</t>
+    <t xml:space="preserve">10.9046983718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7669916152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8530588150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0768337249756</t>
   </si>
   <si>
     <t xml:space="preserve">11.1112604141235</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0424070358276</t>
+    <t xml:space="preserve">11.0424060821533</t>
   </si>
   <si>
     <t xml:space="preserve">10.7842054367065</t>
@@ -716,7 +716,7 @@
     <t xml:space="preserve">11.0337991714478</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1887216567993</t>
+    <t xml:space="preserve">11.188720703125</t>
   </si>
   <si>
     <t xml:space="preserve">11.3608541488647</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">11.3264284133911</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1629009246826</t>
+    <t xml:space="preserve">11.1628999710083</t>
   </si>
   <si>
     <t xml:space="preserve">11.1715068817139</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">11.2661809921265</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1801137924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4383153915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2920026779175</t>
+    <t xml:space="preserve">11.1801128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4383144378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2920007705688</t>
   </si>
   <si>
     <t xml:space="preserve">11.4469213485718</t>
@@ -749,31 +749,31 @@
     <t xml:space="preserve">11.6620903015137</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5846300125122</t>
+    <t xml:space="preserve">11.5846290588379</t>
   </si>
   <si>
     <t xml:space="preserve">11.6362686157227</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6706962585449</t>
+    <t xml:space="preserve">11.6706953048706</t>
   </si>
   <si>
     <t xml:space="preserve">11.6965169906616</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7567625045776</t>
+    <t xml:space="preserve">11.7567644119263</t>
   </si>
   <si>
     <t xml:space="preserve">11.8084030151367</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8686513900757</t>
+    <t xml:space="preserve">11.8686494827271</t>
   </si>
   <si>
     <t xml:space="preserve">11.928897857666</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9202899932861</t>
+    <t xml:space="preserve">11.9202909469604</t>
   </si>
   <si>
     <t xml:space="preserve">11.9375047683716</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">12.109637260437</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1526718139648</t>
+    <t xml:space="preserve">12.1526727676392</t>
   </si>
   <si>
     <t xml:space="preserve">12.1957054138184</t>
@@ -800,25 +800,25 @@
     <t xml:space="preserve">12.1440658569336</t>
   </si>
   <si>
-    <t xml:space="preserve">12.014965057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1268520355225</t>
+    <t xml:space="preserve">12.0149641036987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1268529891968</t>
   </si>
   <si>
     <t xml:space="preserve">11.963324546814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3936605453491</t>
+    <t xml:space="preserve">12.3936595916748</t>
   </si>
   <si>
     <t xml:space="preserve">12.4969396591187</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3506269454956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4280872344971</t>
+    <t xml:space="preserve">12.3506278991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4280862808228</t>
   </si>
   <si>
     <t xml:space="preserve">12.4194803237915</t>
@@ -830,19 +830,19 @@
     <t xml:space="preserve">12.4883337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7379274368286</t>
+    <t xml:space="preserve">12.7379283905029</t>
   </si>
   <si>
     <t xml:space="preserve">12.8412075042725</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7637500762939</t>
+    <t xml:space="preserve">12.7637481689453</t>
   </si>
   <si>
     <t xml:space="preserve">12.9617033004761</t>
   </si>
   <si>
-    <t xml:space="preserve">12.996129989624</t>
+    <t xml:space="preserve">12.9961290359497</t>
   </si>
   <si>
     <t xml:space="preserve">12.7207155227661</t>
@@ -854,10 +854,10 @@
     <t xml:space="preserve">12.6432542800903</t>
   </si>
   <si>
-    <t xml:space="preserve">12.522759437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0666055679321</t>
+    <t xml:space="preserve">12.5227603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0666046142578</t>
   </si>
   <si>
     <t xml:space="preserve">11.9719305038452</t>
@@ -869,13 +869,13 @@
     <t xml:space="preserve">12.3696804046631</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3871412277222</t>
+    <t xml:space="preserve">12.3871393203735</t>
   </si>
   <si>
     <t xml:space="preserve">12.5006227493286</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6053771972656</t>
+    <t xml:space="preserve">12.6053781509399</t>
   </si>
   <si>
     <t xml:space="preserve">12.212550163269</t>
@@ -887,169 +887,169 @@
     <t xml:space="preserve">12.1863613128662</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0205011367798</t>
+    <t xml:space="preserve">12.0205020904541</t>
   </si>
   <si>
     <t xml:space="preserve">11.9855842590332</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7149705886841</t>
+    <t xml:space="preserve">11.7149715423584</t>
   </si>
   <si>
     <t xml:space="preserve">11.6102161407471</t>
   </si>
   <si>
-    <t xml:space="preserve">11.601487159729</t>
+    <t xml:space="preserve">11.6014862060547</t>
   </si>
   <si>
     <t xml:space="preserve">11.4356260299683</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3570604324341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6451330184937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8371829986572</t>
+    <t xml:space="preserve">11.3570613861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6451320648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8371810913086</t>
   </si>
   <si>
     <t xml:space="preserve">11.6364040374756</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6975107192993</t>
+    <t xml:space="preserve">11.697509765625</t>
   </si>
   <si>
     <t xml:space="preserve">11.5752983093262</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3221426010132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4268951416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1562824249268</t>
+    <t xml:space="preserve">11.3221435546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4268970489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1562833786011</t>
   </si>
   <si>
     <t xml:space="preserve">11.3483304977417</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9642333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824722290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1300945281982</t>
+    <t xml:space="preserve">10.9642324447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824712753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1300954818726</t>
   </si>
   <si>
     <t xml:space="preserve">11.042799949646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1475534439087</t>
+    <t xml:space="preserve">11.1475524902344</t>
   </si>
   <si>
     <t xml:space="preserve">11.845911026001</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9419355392456</t>
+    <t xml:space="preserve">11.9419345855713</t>
   </si>
   <si>
     <t xml:space="preserve">11.7062406539917</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0641498565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8808298110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8284540176392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7760753631592</t>
+    <t xml:space="preserve">12.0641489028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8808288574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8284530639648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7760744094849</t>
   </si>
   <si>
     <t xml:space="preserve">11.7324295043945</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6189441680908</t>
+    <t xml:space="preserve">11.6189451217651</t>
   </si>
   <si>
     <t xml:space="preserve">11.400707244873</t>
   </si>
   <si>
-    <t xml:space="preserve">11.391978263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4094390869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2872257232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308706283569</t>
+    <t xml:space="preserve">11.3919792175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4094371795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2872247695923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308715820312</t>
   </si>
   <si>
     <t xml:space="preserve">11.2697649002075</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2784957885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0689868927002</t>
+    <t xml:space="preserve">11.2784948348999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0689888000488</t>
   </si>
   <si>
     <t xml:space="preserve">11.1737422943115</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2610359191895</t>
+    <t xml:space="preserve">11.2610368728638</t>
   </si>
   <si>
     <t xml:space="preserve">11.095175743103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3134155273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6713209152222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5578384399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4880037307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4530849456787</t>
+    <t xml:space="preserve">11.3134136199951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6713228225708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5578374862671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4880027770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.453085899353</t>
   </si>
   <si>
     <t xml:space="preserve">11.6625928878784</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7411594390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7935352325439</t>
+    <t xml:space="preserve">11.7411584854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7935361862183</t>
   </si>
   <si>
     <t xml:space="preserve">11.8109931945801</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9244766235352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8197231292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9768543243408</t>
+    <t xml:space="preserve">11.9244775772095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8197240829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9768533706665</t>
   </si>
   <si>
     <t xml:space="preserve">12.1077966690063</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1776323318481</t>
+    <t xml:space="preserve">12.1776313781738</t>
   </si>
   <si>
     <t xml:space="preserve">12.352222442627</t>
@@ -1061,37 +1061,37 @@
     <t xml:space="preserve">12.3784103393555</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4918956756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5355415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5966472625732</t>
+    <t xml:space="preserve">12.4918937683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5355405807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5966482162476</t>
   </si>
   <si>
     <t xml:space="preserve">12.4744338989258</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5180816650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4831657409668</t>
+    <t xml:space="preserve">12.5180807113647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4831638336182</t>
   </si>
   <si>
     <t xml:space="preserve">12.6228351593018</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6141061782837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7625093460083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7712383270264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8236141204834</t>
+    <t xml:space="preserve">12.614107131958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7625074386597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7712373733521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8236131668091</t>
   </si>
   <si>
     <t xml:space="preserve">12.6490240097046</t>
@@ -1103,16 +1103,16 @@
     <t xml:space="preserve">12.7450494766235</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2212781906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1601753234863</t>
+    <t xml:space="preserve">12.2212772369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.160174369812</t>
   </si>
   <si>
     <t xml:space="preserve">12.2474679946899</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4482450485229</t>
+    <t xml:space="preserve">12.4482460021973</t>
   </si>
   <si>
     <t xml:space="preserve">12.4395170211792</t>
@@ -1121,55 +1121,55 @@
     <t xml:space="preserve">12.4045991897583</t>
   </si>
   <si>
-    <t xml:space="preserve">12.360951423645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7236976623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2086610794067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.086446762085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2959537506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2173891067505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4181661605835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3396015167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1650104522705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1912002563477</t>
+    <t xml:space="preserve">12.3609523773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7236995697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2086601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0864458084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2959547042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2173881530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4181680679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3396005630493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1650123596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1911993026733</t>
   </si>
   <si>
     <t xml:space="preserve">11.1213645935059</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1126356124878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0515289306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9991512298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1999292373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0777177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2261180877686</t>
+    <t xml:space="preserve">11.1126346588135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0515279769897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9991502761841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.19993019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0777187347412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2261190414429</t>
   </si>
   <si>
     <t xml:space="preserve">11.0602579116821</t>
@@ -1178,13 +1178,13 @@
     <t xml:space="preserve">10.8507509231567</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8682079315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.496732711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5665693283081</t>
+    <t xml:space="preserve">10.8682088851929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4967317581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5665683746338</t>
   </si>
   <si>
     <t xml:space="preserve">11.540379524231</t>
@@ -1199,16 +1199,16 @@
     <t xml:space="preserve">11.8721008300781</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7586164474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8071041107178</t>
+    <t xml:space="preserve">11.758617401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8071031570435</t>
   </si>
   <si>
     <t xml:space="preserve">10.6936187744141</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6150550842285</t>
+    <t xml:space="preserve">10.6150541305542</t>
   </si>
   <si>
     <t xml:space="preserve">10.6587009429932</t>
@@ -1217,16 +1217,16 @@
     <t xml:space="preserve">10.5626773834229</t>
   </si>
   <si>
-    <t xml:space="preserve">10.527759552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5975952148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5364894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4753818511963</t>
+    <t xml:space="preserve">10.5277585983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5975961685181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5364904403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4753837585449</t>
   </si>
   <si>
     <t xml:space="preserve">10.4666538238525</t>
@@ -1235,37 +1235,37 @@
     <t xml:space="preserve">10.2920637130737</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3531684875488</t>
+    <t xml:space="preserve">10.3531694412231</t>
   </si>
   <si>
     <t xml:space="preserve">10.3706283569336</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0738248825073</t>
+    <t xml:space="preserve">10.0738258361816</t>
   </si>
   <si>
     <t xml:space="preserve">10.0389099121094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82940101623535</t>
+    <t xml:space="preserve">9.82940006256104</t>
   </si>
   <si>
     <t xml:space="preserve">9.71591663360596</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4841117858887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.684889793396</t>
+    <t xml:space="preserve">10.484112739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6848888397217</t>
   </si>
   <si>
     <t xml:space="preserve">10.9816932678223</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1039047241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9904232025146</t>
+    <t xml:space="preserve">11.1039056777954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.990421295166</t>
   </si>
   <si>
     <t xml:space="preserve">10.7372665405273</t>
@@ -1274,7 +1274,7 @@
     <t xml:space="preserve">10.6761608123779</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8332901000977</t>
+    <t xml:space="preserve">10.833291053772</t>
   </si>
   <si>
     <t xml:space="preserve">10.7809152603149</t>
@@ -1283,19 +1283,19 @@
     <t xml:space="preserve">10.9467754364014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9293146133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7198085784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8245611190796</t>
+    <t xml:space="preserve">10.9293155670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7198076248169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8245620727539</t>
   </si>
   <si>
     <t xml:space="preserve">10.789644241333</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983732223511</t>
+    <t xml:space="preserve">10.7983722686768</t>
   </si>
   <si>
     <t xml:space="preserve">10.8158330917358</t>
@@ -1307,16 +1307,16 @@
     <t xml:space="preserve">10.6063251495361</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6674308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5190305709839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4443550109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9205865859985</t>
+    <t xml:space="preserve">10.6674318313599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5190296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4443559646606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9205875396729</t>
   </si>
   <si>
     <t xml:space="preserve">10.6499719619751</t>
@@ -1325,10 +1325,10 @@
     <t xml:space="preserve">10.580135345459</t>
   </si>
   <si>
-    <t xml:space="preserve">10.431736946106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3007926940918</t>
+    <t xml:space="preserve">10.4317350387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3007917404175</t>
   </si>
   <si>
     <t xml:space="preserve">10.4164323806763</t>
@@ -1340,28 +1340,28 @@
     <t xml:space="preserve">10.683292388916</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1636400222778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0657920837402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9857330322266</t>
+    <t xml:space="preserve">11.1636390686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0657911300659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9857339859009</t>
   </si>
   <si>
     <t xml:space="preserve">10.6032333374023</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8523044586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8878841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0302085876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0746850967407</t>
+    <t xml:space="preserve">10.8523035049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8878831863403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0302095413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.074686050415</t>
   </si>
   <si>
     <t xml:space="preserve">11.0480003356934</t>
@@ -1373,13 +1373,13 @@
     <t xml:space="preserve">11.3326511383057</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0391054153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1369543075562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9145708084106</t>
+    <t xml:space="preserve">11.0391044616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1369533538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9145698547363</t>
   </si>
   <si>
     <t xml:space="preserve">10.7722463607788</t>
@@ -1391,7 +1391,7 @@
     <t xml:space="preserve">10.5142812728882</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5053873062134</t>
+    <t xml:space="preserve">10.5053863525391</t>
   </si>
   <si>
     <t xml:space="preserve">10.2830028533936</t>
@@ -1409,31 +1409,31 @@
     <t xml:space="preserve">10.3096876144409</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0961999893188</t>
+    <t xml:space="preserve">10.0962009429932</t>
   </si>
   <si>
     <t xml:space="preserve">10.1228866577148</t>
   </si>
   <si>
-    <t xml:space="preserve">10.211838722229</t>
+    <t xml:space="preserve">10.2118377685547</t>
   </si>
   <si>
     <t xml:space="preserve">10.2385244369507</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3541650772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6299209594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6655025482178</t>
+    <t xml:space="preserve">10.3541641235352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6299200057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6655015945435</t>
   </si>
   <si>
     <t xml:space="preserve">10.6477108001709</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8967809677124</t>
+    <t xml:space="preserve">10.8967790603638</t>
   </si>
   <si>
     <t xml:space="preserve">10.8700942993164</t>
@@ -1457,7 +1457,7 @@
     <t xml:space="preserve">10.398642539978</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2029457092285</t>
+    <t xml:space="preserve">10.2029447555542</t>
   </si>
   <si>
     <t xml:space="preserve">10.4075365066528</t>
@@ -1469,22 +1469,22 @@
     <t xml:space="preserve">10.1406764984131</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0606203079224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1317806243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0339326858521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90939998626709</t>
+    <t xml:space="preserve">10.0606184005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.131781578064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0339317321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90939903259277</t>
   </si>
   <si>
     <t xml:space="preserve">9.94498062133789</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0428295135498</t>
+    <t xml:space="preserve">10.0428285598755</t>
   </si>
   <si>
     <t xml:space="preserve">9.8204460144043</t>
@@ -1496,19 +1496,19 @@
     <t xml:space="preserve">9.98056125640869</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2741069793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2474212646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.11399269104</t>
+    <t xml:space="preserve">10.2741060256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2474203109741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1139917373657</t>
   </si>
   <si>
     <t xml:space="preserve">9.91829299926758</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92718887329102</t>
+    <t xml:space="preserve">9.9271879196167</t>
   </si>
   <si>
     <t xml:space="preserve">10.087306022644</t>
@@ -1523,19 +1523,19 @@
     <t xml:space="preserve">10.1851530075073</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5587587356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5943403244019</t>
+    <t xml:space="preserve">10.5587577819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5943384170532</t>
   </si>
   <si>
     <t xml:space="preserve">10.3630609512329</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3274793624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2296304702759</t>
+    <t xml:space="preserve">10.3274784088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2296314239502</t>
   </si>
   <si>
     <t xml:space="preserve">10.0517225265503</t>
@@ -1544,19 +1544,19 @@
     <t xml:space="preserve">10.2207355499268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87381839752197</t>
+    <t xml:space="preserve">9.87381744384766</t>
   </si>
   <si>
     <t xml:space="preserve">9.55358505249023</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57137680053711</t>
+    <t xml:space="preserve">9.57137584686279</t>
   </si>
   <si>
     <t xml:space="preserve">9.01097011566162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83751201629639</t>
+    <t xml:space="preserve">8.83751106262207</t>
   </si>
   <si>
     <t xml:space="preserve">8.74855804443359</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">8.73966217041016</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83306312561035</t>
+    <t xml:space="preserve">8.83306217193604</t>
   </si>
   <si>
     <t xml:space="preserve">8.7174243927002</t>
@@ -1577,19 +1577,19 @@
     <t xml:space="preserve">8.60178565979004</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46390628814697</t>
+    <t xml:space="preserve">8.46390724182129</t>
   </si>
   <si>
     <t xml:space="preserve">8.5306224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37940120697021</t>
+    <t xml:space="preserve">8.37940216064453</t>
   </si>
   <si>
     <t xml:space="preserve">8.65960502624512</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52617454528809</t>
+    <t xml:space="preserve">8.5261754989624</t>
   </si>
   <si>
     <t xml:space="preserve">8.79303550720215</t>
@@ -1598,10 +1598,10 @@
     <t xml:space="preserve">8.69963359832764</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89088249206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80192852020264</t>
+    <t xml:space="preserve">8.89088344573975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80193042755127</t>
   </si>
   <si>
     <t xml:space="preserve">8.75745296478271</t>
@@ -1616,19 +1616,19 @@
     <t xml:space="preserve">8.31268692016602</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07695865631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01024532318115</t>
+    <t xml:space="preserve">8.07695960998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01024627685547</t>
   </si>
   <si>
     <t xml:space="preserve">8.05472183227539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11698818206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29489517211914</t>
+    <t xml:space="preserve">8.11698913574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29489612579346</t>
   </si>
   <si>
     <t xml:space="preserve">8.32158184051514</t>
@@ -1640,7 +1640,7 @@
     <t xml:space="preserve">8.55286121368408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58844184875488</t>
+    <t xml:space="preserve">8.58844375610352</t>
   </si>
   <si>
     <t xml:space="preserve">8.93091201782227</t>
@@ -1661,7 +1661,7 @@
     <t xml:space="preserve">8.77079582214355</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45946025848389</t>
+    <t xml:space="preserve">8.45945930480957</t>
   </si>
   <si>
     <t xml:space="preserve">8.49059295654297</t>
@@ -1670,19 +1670,19 @@
     <t xml:space="preserve">8.27265739440918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38384819030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64181327819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09919929504395</t>
+    <t xml:space="preserve">8.38385009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64181423187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09920024871826</t>
   </si>
   <si>
     <t xml:space="preserve">7.97911262512207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29044818878174</t>
+    <t xml:space="preserve">8.29044914245605</t>
   </si>
   <si>
     <t xml:space="preserve">8.10364532470703</t>
@@ -1694,22 +1694,22 @@
     <t xml:space="preserve">7.86347198486328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91239643096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97021532058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908309936523</t>
+    <t xml:space="preserve">7.9123969078064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97021579742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908357620239</t>
   </si>
   <si>
     <t xml:space="preserve">8.25486755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22818183898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05544662475586</t>
+    <t xml:space="preserve">8.22818088531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05544567108154</t>
   </si>
   <si>
     <t xml:space="preserve">9.14439964294434</t>
@@ -1727,10 +1727,10 @@
     <t xml:space="preserve">8.76189994812012</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67294788360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80637836456299</t>
+    <t xml:space="preserve">8.67294692993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80637741088867</t>
   </si>
   <si>
     <t xml:space="preserve">8.81082534790039</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">8.88198757171631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87754154205322</t>
+    <t xml:space="preserve">8.87754058837891</t>
   </si>
   <si>
     <t xml:space="preserve">8.86864376068115</t>
@@ -1766,28 +1766,28 @@
     <t xml:space="preserve">8.54841232299805</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45056438446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70408058166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89532947540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09102916717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9753885269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42905139923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29562091827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3489933013916</t>
+    <t xml:space="preserve">8.45056343078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70408153533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89533042907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09102821350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97538948059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42905044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29561996459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34899139404297</t>
   </si>
   <si>
     <t xml:space="preserve">9.62474727630615</t>
@@ -1796,19 +1796,19 @@
     <t xml:space="preserve">9.65143394470215</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41125965118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46463203430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66032791137695</t>
+    <t xml:space="preserve">9.41125869750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46463108062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66032981872559</t>
   </si>
   <si>
     <t xml:space="preserve">9.26893424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13550472259521</t>
+    <t xml:space="preserve">9.1355037689209</t>
   </si>
   <si>
     <t xml:space="preserve">9.10881805419922</t>
@@ -1817,22 +1817,22 @@
     <t xml:space="preserve">9.11771488189697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0643424987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04655265808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23335361480713</t>
+    <t xml:space="preserve">9.06434154510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04655170440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23335456848145</t>
   </si>
   <si>
     <t xml:space="preserve">9.47352695465088</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76707363128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.59806251525879</t>
+    <t xml:space="preserve">9.7670726776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.59806156158447</t>
   </si>
   <si>
     <t xml:space="preserve">9.51800441741943</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">9.2867259979248</t>
   </si>
   <si>
-    <t xml:space="preserve">9.08213233947754</t>
+    <t xml:space="preserve">9.08213329315186</t>
   </si>
   <si>
     <t xml:space="preserve">8.96649360656738</t>
@@ -1853,7 +1853,7 @@
     <t xml:space="preserve">9.00207424163818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99318027496338</t>
+    <t xml:space="preserve">8.99317932128906</t>
   </si>
   <si>
     <t xml:space="preserve">9.19777202606201</t>
@@ -1862,13 +1862,13 @@
     <t xml:space="preserve">9.8649206161499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78486442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.75817775726318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99835205078125</t>
+    <t xml:space="preserve">9.78486347198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75817680358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99835109710693</t>
   </si>
   <si>
     <t xml:space="preserve">10.4342222213745</t>
@@ -1883,22 +1883,22 @@
     <t xml:space="preserve">9.97166538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85602760314941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18887519836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27782917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16219043731689</t>
+    <t xml:space="preserve">9.8560266494751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18887615203857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27783012390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16218948364258</t>
   </si>
   <si>
     <t xml:space="preserve">9.07778263092041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0914192199707</t>
+    <t xml:space="preserve">9.09142017364502</t>
   </si>
   <si>
     <t xml:space="preserve">9.05959987640381</t>
@@ -1910,10 +1910,10 @@
     <t xml:space="preserve">8.84595203399658</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89140892028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9005012512207</t>
+    <t xml:space="preserve">8.8914098739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.90050029754639</t>
   </si>
   <si>
     <t xml:space="preserve">8.78231239318848</t>
@@ -1928,19 +1928,19 @@
     <t xml:space="preserve">8.48229503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68230724334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88231754302979</t>
+    <t xml:space="preserve">8.68230628967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8823184967041</t>
   </si>
   <si>
     <t xml:space="preserve">8.9959602355957</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9777774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21870040893555</t>
+    <t xml:space="preserve">8.97777652740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21870136260986</t>
   </si>
   <si>
     <t xml:space="preserve">9.07323837280273</t>
@@ -1949,13 +1949,13 @@
     <t xml:space="preserve">9.04596328735352</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04141807556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26415824890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14597034454346</t>
+    <t xml:space="preserve">9.04141712188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.26415729522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14596939086914</t>
   </si>
   <si>
     <t xml:space="preserve">9.39143753051758</t>
@@ -1964,7 +1964,7 @@
     <t xml:space="preserve">9.33688831329346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17324447631836</t>
+    <t xml:space="preserve">9.17324352264404</t>
   </si>
   <si>
     <t xml:space="preserve">9.03232574462891</t>
@@ -1982,7 +1982,7 @@
     <t xml:space="preserve">9.6187219619751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6641788482666</t>
+    <t xml:space="preserve">9.66417980194092</t>
   </si>
   <si>
     <t xml:space="preserve">9.57326602935791</t>
@@ -1997,10 +1997,10 @@
     <t xml:space="preserve">9.10960483551025</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80504131317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76412963867188</t>
+    <t xml:space="preserve">8.8050422668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76413059234619</t>
   </si>
   <si>
     <t xml:space="preserve">8.79140377044678</t>
@@ -2018,7 +2018,7 @@
     <t xml:space="preserve">9.34597969055176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47774887084961</t>
+    <t xml:space="preserve">8.47774982452393</t>
   </si>
   <si>
     <t xml:space="preserve">8.4277458190918</t>
@@ -2027,31 +2027,31 @@
     <t xml:space="preserve">8.46865844726562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25046443939209</t>
+    <t xml:space="preserve">8.25046539306641</t>
   </si>
   <si>
     <t xml:space="preserve">8.05499839782715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89589881896973</t>
+    <t xml:space="preserve">7.89589834213257</t>
   </si>
   <si>
     <t xml:space="preserve">7.92771768569946</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90953636169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65497541427612</t>
+    <t xml:space="preserve">7.90953588485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65497589111328</t>
   </si>
   <si>
     <t xml:space="preserve">7.56406211853027</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65952157974243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48678398132324</t>
+    <t xml:space="preserve">7.65952110290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4867844581604</t>
   </si>
   <si>
     <t xml:space="preserve">7.46860218048096</t>
@@ -2063,16 +2063,16 @@
     <t xml:space="preserve">7.53678703308105</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78680181503296</t>
+    <t xml:space="preserve">7.7868013381958</t>
   </si>
   <si>
     <t xml:space="preserve">7.66861295700073</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53224182128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45496416091919</t>
+    <t xml:space="preserve">7.53224229812622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45496463775635</t>
   </si>
   <si>
     <t xml:space="preserve">7.71406984329224</t>
@@ -2081,16 +2081,16 @@
     <t xml:space="preserve">7.7231616973877</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59588050842285</t>
+    <t xml:space="preserve">7.59588098526001</t>
   </si>
   <si>
     <t xml:space="preserve">7.8049840927124</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07772731781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27773857116699</t>
+    <t xml:space="preserve">8.07772636413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27773952484131</t>
   </si>
   <si>
     <t xml:space="preserve">8.35501480102539</t>
@@ -2108,34 +2108,34 @@
     <t xml:space="preserve">8.51866149902344</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49138736724854</t>
+    <t xml:space="preserve">8.49138641357422</t>
   </si>
   <si>
     <t xml:space="preserve">8.60503005981445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15954971313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00499534606934</t>
+    <t xml:space="preserve">8.15955066680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00499629974365</t>
   </si>
   <si>
     <t xml:space="preserve">7.88680744171143</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02317905426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11863803863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12773036956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95499277114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78225564956665</t>
+    <t xml:space="preserve">8.02317810058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11863899230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12772941589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95499324798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78225517272949</t>
   </si>
   <si>
     <t xml:space="preserve">7.67315912246704</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">7.58224391937256</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74589014053345</t>
+    <t xml:space="preserve">7.74589061737061</t>
   </si>
   <si>
     <t xml:space="preserve">8.13682079315186</t>
@@ -2168,13 +2168,13 @@
     <t xml:space="preserve">8.09136390686035</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20500755310059</t>
+    <t xml:space="preserve">8.20500659942627</t>
   </si>
   <si>
     <t xml:space="preserve">8.48684215545654</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55502700805664</t>
+    <t xml:space="preserve">8.55502796173096</t>
   </si>
   <si>
     <t xml:space="preserve">8.59593868255615</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">9.29143238067627</t>
   </si>
   <si>
-    <t xml:space="preserve">9.455078125</t>
+    <t xml:space="preserve">9.45507717132568</t>
   </si>
   <si>
     <t xml:space="preserve">9.48235130310059</t>
@@ -2207,7 +2207,7 @@
     <t xml:space="preserve">9.90964794158936</t>
   </si>
   <si>
-    <t xml:space="preserve">10.109658241272</t>
+    <t xml:space="preserve">10.1096591949463</t>
   </si>
   <si>
     <t xml:space="preserve">10.0551109313965</t>
@@ -2219,10 +2219,10 @@
     <t xml:space="preserve">9.69145393371582</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83691596984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58235740661621</t>
+    <t xml:space="preserve">9.83691692352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58235645294189</t>
   </si>
   <si>
     <t xml:space="preserve">9.76418590545654</t>
@@ -2231,31 +2231,31 @@
     <t xml:space="preserve">9.65508842468262</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82782649993896</t>
+    <t xml:space="preserve">9.82782554626465</t>
   </si>
   <si>
     <t xml:space="preserve">10.0005626678467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0823841094971</t>
+    <t xml:space="preserve">10.0823850631714</t>
   </si>
   <si>
     <t xml:space="preserve">10.1642084121704</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1278438568115</t>
+    <t xml:space="preserve">10.1278429031372</t>
   </si>
   <si>
     <t xml:space="preserve">10.2187566757202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1732988357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2278470993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2823972702026</t>
+    <t xml:space="preserve">10.1732997894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2278461456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2823963165283</t>
   </si>
   <si>
     <t xml:space="preserve">10.3642196655273</t>
@@ -2264,7 +2264,7 @@
     <t xml:space="preserve">10.2369394302368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2005729675293</t>
+    <t xml:space="preserve">10.2005739212036</t>
   </si>
   <si>
     <t xml:space="preserve">10.2551212310791</t>
@@ -2276,7 +2276,7 @@
     <t xml:space="preserve">10.4369497299194</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3278532028198</t>
+    <t xml:space="preserve">10.3278541564941</t>
   </si>
   <si>
     <t xml:space="preserve">10.0278367996216</t>
@@ -2291,7 +2291,7 @@
     <t xml:space="preserve">9.63690567016602</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87328243255615</t>
+    <t xml:space="preserve">9.87328338623047</t>
   </si>
   <si>
     <t xml:space="preserve">9.98237991333008</t>
@@ -2300,10 +2300,10 @@
     <t xml:space="preserve">10.0642032623291</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0369291305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0460195541382</t>
+    <t xml:space="preserve">10.0369281768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0460205078125</t>
   </si>
   <si>
     <t xml:space="preserve">10.1187505722046</t>
@@ -2315,19 +2315,19 @@
     <t xml:space="preserve">9.92783069610596</t>
   </si>
   <si>
-    <t xml:space="preserve">9.64599609375</t>
+    <t xml:space="preserve">9.64599704742432</t>
   </si>
   <si>
     <t xml:space="preserve">9.54599189758301</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67327117919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53689956665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35507202148438</t>
+    <t xml:space="preserve">9.6732702255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53690052032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35507106781006</t>
   </si>
   <si>
     <t xml:space="preserve">9.60054016113281</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">9.77327728271484</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55508232116699</t>
+    <t xml:space="preserve">9.55508327484131</t>
   </si>
   <si>
     <t xml:space="preserve">9.5914478302002</t>
@@ -2357,31 +2357,31 @@
     <t xml:space="preserve">9.4278039932251</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70048904418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64139461517334</t>
+    <t xml:space="preserve">8.70048809051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64139366149902</t>
   </si>
   <si>
     <t xml:space="preserve">8.64594078063965</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40047264099121</t>
+    <t xml:space="preserve">8.40047168731689</t>
   </si>
   <si>
     <t xml:space="preserve">8.21864414215088</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77316474914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87771654129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70043325424194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37768745422363</t>
+    <t xml:space="preserve">7.77316427230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87771606445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7004337310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37768793106079</t>
   </si>
   <si>
     <t xml:space="preserve">7.44587278366089</t>
@@ -2399,7 +2399,7 @@
     <t xml:space="preserve">6.36399364471436</t>
   </si>
   <si>
-    <t xml:space="preserve">6.61855459213257</t>
+    <t xml:space="preserve">6.61855411529541</t>
   </si>
   <si>
     <t xml:space="preserve">6.09125185012817</t>
@@ -2408,7 +2408,7 @@
     <t xml:space="preserve">6.19125699996948</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79129076004028</t>
+    <t xml:space="preserve">6.79129028320312</t>
   </si>
   <si>
     <t xml:space="preserve">7.37314128875732</t>
@@ -2423,10 +2423,10 @@
     <t xml:space="preserve">7.27768182754517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70946788787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54582214355469</t>
+    <t xml:space="preserve">6.70946836471558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54582262039185</t>
   </si>
   <si>
     <t xml:space="preserve">6.04579448699951</t>
@@ -2435,7 +2435,7 @@
     <t xml:space="preserve">6.17761993408203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06397724151611</t>
+    <t xml:space="preserve">6.06397676467896</t>
   </si>
   <si>
     <t xml:space="preserve">5.81850957870483</t>
@@ -2450,10 +2450,10 @@
     <t xml:space="preserve">5.74577665328979</t>
   </si>
   <si>
-    <t xml:space="preserve">6.11398029327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03670358657837</t>
+    <t xml:space="preserve">6.11397981643677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03670310974121</t>
   </si>
   <si>
     <t xml:space="preserve">5.85487413406372</t>
@@ -2462,10 +2462,10 @@
     <t xml:space="preserve">5.90487718582153</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14579963684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28217172622681</t>
+    <t xml:space="preserve">6.14580011367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.28217124938965</t>
   </si>
   <si>
     <t xml:space="preserve">6.227623462677</t>
@@ -2480,10 +2480,10 @@
     <t xml:space="preserve">6.83220195770264</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08676242828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94129943847656</t>
+    <t xml:space="preserve">7.08676290512085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9412989616394</t>
   </si>
   <si>
     <t xml:space="preserve">7.11858224868774</t>
@@ -2501,10 +2501,10 @@
     <t xml:space="preserve">6.71855974197388</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59582567214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45490837097168</t>
+    <t xml:space="preserve">6.59582614898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45490884780884</t>
   </si>
   <si>
     <t xml:space="preserve">5.98215484619141</t>
@@ -2525,49 +2525,49 @@
     <t xml:space="preserve">6.62764453887939</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8367486000061</t>
+    <t xml:space="preserve">6.83674812316895</t>
   </si>
   <si>
     <t xml:space="preserve">7.42314481735229</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79134654998779</t>
+    <t xml:space="preserve">7.79134607315063</t>
   </si>
   <si>
     <t xml:space="preserve">7.64133977890015</t>
   </si>
   <si>
-    <t xml:space="preserve">7.60042762756348</t>
+    <t xml:space="preserve">7.60042715072632</t>
   </si>
   <si>
     <t xml:space="preserve">7.68679571151733</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08227252960205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96408367156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8322582244873</t>
+    <t xml:space="preserve">8.08227348327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96408414840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83225870132446</t>
   </si>
   <si>
     <t xml:space="preserve">7.35950565338135</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62315511703491</t>
+    <t xml:space="preserve">7.62315559387207</t>
   </si>
   <si>
     <t xml:space="preserve">7.61861038208008</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47314739227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49587631225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43678188323975</t>
+    <t xml:space="preserve">7.47314786911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4958758354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43678140640259</t>
   </si>
   <si>
     <t xml:space="preserve">7.36405086517334</t>
@@ -2585,7 +2585,7 @@
     <t xml:space="preserve">7.4322361946106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67770528793335</t>
+    <t xml:space="preserve">7.67770481109619</t>
   </si>
   <si>
     <t xml:space="preserve">7.52315044403076</t>
@@ -2594,7 +2594,7 @@
     <t xml:space="preserve">7.63679313659668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59133625030518</t>
+    <t xml:space="preserve">7.59133672714233</t>
   </si>
   <si>
     <t xml:space="preserve">7.40950727462769</t>
@@ -2603,10 +2603,10 @@
     <t xml:space="preserve">7.5140585899353</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70952415466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42768955230713</t>
+    <t xml:space="preserve">7.70952463150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42769002914429</t>
   </si>
   <si>
     <t xml:space="preserve">6.94584512710571</t>
@@ -2618,7 +2618,7 @@
     <t xml:space="preserve">6.93675327301025</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00039434432983</t>
+    <t xml:space="preserve">7.00039386749268</t>
   </si>
   <si>
     <t xml:space="preserve">6.92766332626343</t>
@@ -2636,7 +2636,7 @@
     <t xml:space="preserve">7.40041542053223</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31404781341553</t>
+    <t xml:space="preserve">7.31404829025269</t>
   </si>
   <si>
     <t xml:space="preserve">7.30495691299438</t>
@@ -2657,7 +2657,7 @@
     <t xml:space="preserve">7.35495901107788</t>
   </si>
   <si>
-    <t xml:space="preserve">7.27313613891602</t>
+    <t xml:space="preserve">7.27313566207886</t>
   </si>
   <si>
     <t xml:space="preserve">7.62770223617554</t>
@@ -2684,19 +2684,19 @@
     <t xml:space="preserve">7.13676452636719</t>
   </si>
   <si>
-    <t xml:space="preserve">7.24586200714111</t>
+    <t xml:space="preserve">7.24586248397827</t>
   </si>
   <si>
     <t xml:space="preserve">7.29586505889893</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32768487930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57769870758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75498104095459</t>
+    <t xml:space="preserve">7.32768440246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57769918441772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75498151779175</t>
   </si>
   <si>
     <t xml:space="preserve">8.15045833587646</t>
@@ -2705,19 +2705,19 @@
     <t xml:space="preserve">8.20955276489258</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29137420654297</t>
+    <t xml:space="preserve">8.29137516021729</t>
   </si>
   <si>
     <t xml:space="preserve">8.01863193511963</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96863126754761</t>
+    <t xml:space="preserve">7.96863031387329</t>
   </si>
   <si>
     <t xml:space="preserve">7.89135408401489</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90499067306519</t>
+    <t xml:space="preserve">7.90499019622803</t>
   </si>
   <si>
     <t xml:space="preserve">7.85498762130737</t>
@@ -2726,13 +2726,13 @@
     <t xml:space="preserve">8.05954360961914</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08681964874268</t>
+    <t xml:space="preserve">8.08681869506836</t>
   </si>
   <si>
     <t xml:space="preserve">8.25955581665039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28228378295898</t>
+    <t xml:space="preserve">8.28228282928467</t>
   </si>
   <si>
     <t xml:space="preserve">8.45047473907471</t>
@@ -2744,7 +2744,7 @@
     <t xml:space="preserve">7.84589576721191</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10954570770264</t>
+    <t xml:space="preserve">8.10954666137695</t>
   </si>
   <si>
     <t xml:space="preserve">7.9459023475647</t>
@@ -2753,13 +2753,13 @@
     <t xml:space="preserve">8.00045013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06863498687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15500545501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56417465209961</t>
+    <t xml:space="preserve">8.06863594055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.15500450134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56417369842529</t>
   </si>
   <si>
     <t xml:space="preserve">9.50962543487549</t>
@@ -2768,19 +2768,19 @@
     <t xml:space="preserve">9.73691177368164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1914825439453</t>
+    <t xml:space="preserve">10.191481590271</t>
   </si>
   <si>
     <t xml:space="preserve">9.93692207336426</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74600219726562</t>
+    <t xml:space="preserve">9.74600315093994</t>
   </si>
   <si>
     <t xml:space="preserve">9.70963764190674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70054721832275</t>
+    <t xml:space="preserve">9.70054626464844</t>
   </si>
   <si>
     <t xml:space="preserve">9.88237476348877</t>
@@ -2816,7 +2816,7 @@
     <t xml:space="preserve">10.4642238616943</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4914989471436</t>
+    <t xml:space="preserve">10.4914979934692</t>
   </si>
   <si>
     <t xml:space="preserve">10.3005800247192</t>
@@ -2825,7 +2825,7 @@
     <t xml:space="preserve">10.0187463760376</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2460308074951</t>
+    <t xml:space="preserve">10.2460298538208</t>
   </si>
   <si>
     <t xml:space="preserve">9.80055046081543</t>
@@ -2834,13 +2834,13 @@
     <t xml:space="preserve">9.86419105529785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79146003723145</t>
+    <t xml:space="preserve">9.79145908355713</t>
   </si>
   <si>
     <t xml:space="preserve">10.182391166687</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91874027252197</t>
+    <t xml:space="preserve">9.91873931884766</t>
   </si>
   <si>
     <t xml:space="preserve">9.27324867248535</t>
@@ -2849,13 +2849,13 @@
     <t xml:space="preserve">9.50053405761719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6278133392334</t>
+    <t xml:space="preserve">9.62781429290771</t>
   </si>
   <si>
     <t xml:space="preserve">9.60963153839111</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68236351013184</t>
+    <t xml:space="preserve">9.68236255645752</t>
   </si>
   <si>
     <t xml:space="preserve">9.52780818939209</t>
@@ -2867,13 +2867,13 @@
     <t xml:space="preserve">9.22779178619385</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40052890777588</t>
+    <t xml:space="preserve">9.4005298614502</t>
   </si>
   <si>
     <t xml:space="preserve">9.16415214538574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32779693603516</t>
+    <t xml:space="preserve">9.32779788970947</t>
   </si>
   <si>
     <t xml:space="preserve">9.30052280426025</t>
@@ -63110,7 +63110,7 @@
     </row>
     <row r="2227">
       <c r="A2227" s="1" t="n">
-        <v>45565.6495833333</v>
+        <v>45565.2916666667</v>
       </c>
       <c r="B2227" t="n">
         <v>1048279</v>
@@ -63131,6 +63131,32 @@
         <v>1626</v>
       </c>
       <c r="H2227" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="1" t="n">
+        <v>45566.6496412037</v>
+      </c>
+      <c r="B2228" t="n">
+        <v>685831</v>
+      </c>
+      <c r="C2228" t="n">
+        <v>9.80300045013428</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>9.5649995803833</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>9.7790002822876</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>9.67899990081787</v>
+      </c>
+      <c r="G2228" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H2228" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BRE.MI.xlsx
+++ b/data/BRE.MI.xlsx
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43071699142456</t>
+    <t xml:space="preserve">7.43071746826172</t>
   </si>
   <si>
     <t xml:space="preserve">BRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40021514892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17991876602173</t>
+    <t xml:space="preserve">7.40021419525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17991924285889</t>
   </si>
   <si>
     <t xml:space="preserve">6.76305389404297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77999925613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66307497024536</t>
+    <t xml:space="preserve">6.77999973297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66307401657104</t>
   </si>
   <si>
     <t xml:space="preserve">6.84100484848022</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02910280227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79016733169556</t>
+    <t xml:space="preserve">7.02910184860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7901668548584</t>
   </si>
   <si>
     <t xml:space="preserve">6.4393892288208</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve">6.50378322601318</t>
   </si>
   <si>
-    <t xml:space="preserve">6.16317367553711</t>
+    <t xml:space="preserve">6.16317415237427</t>
   </si>
   <si>
     <t xml:space="preserve">6.42922258377075</t>
   </si>
   <si>
-    <t xml:space="preserve">6.47667074203491</t>
+    <t xml:space="preserve">6.47667121887207</t>
   </si>
   <si>
     <t xml:space="preserve">6.53598022460938</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">6.54953718185425</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62070941925049</t>
+    <t xml:space="preserve">6.6207103729248</t>
   </si>
   <si>
     <t xml:space="preserve">6.45803022384644</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">6.3919415473938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28009843826294</t>
+    <t xml:space="preserve">6.28009939193726</t>
   </si>
   <si>
     <t xml:space="preserve">6.21062183380127</t>
@@ -113,64 +113,64 @@
     <t xml:space="preserve">5.91237688064575</t>
   </si>
   <si>
-    <t xml:space="preserve">5.55482149124146</t>
+    <t xml:space="preserve">5.5548210144043</t>
   </si>
   <si>
     <t xml:space="preserve">5.71750020980835</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93101644515991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88187408447266</t>
+    <t xml:space="preserve">5.93101692199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88187456130981</t>
   </si>
   <si>
     <t xml:space="preserve">5.94118452072144</t>
   </si>
   <si>
-    <t xml:space="preserve">6.25976467132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19198226928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34279918670654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36482810974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32246351242065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46480846405029</t>
+    <t xml:space="preserve">6.25976514816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19198131561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34279870986938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36482906341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32246398925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46480751037598</t>
   </si>
   <si>
     <t xml:space="preserve">6.33432579040527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19367647171021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29535055160522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.35296630859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44616842269897</t>
+    <t xml:space="preserve">6.19367551803589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29535102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.35296678543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44616794586182</t>
   </si>
   <si>
     <t xml:space="preserve">6.58342885971069</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55462169647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30362510681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34090423583984</t>
+    <t xml:space="preserve">6.55462121963501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30362367630005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34090375900269</t>
   </si>
   <si>
     <t xml:space="preserve">7.3764910697937</t>
@@ -179,37 +179,37 @@
     <t xml:space="preserve">7.33751487731934</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37988042831421</t>
+    <t xml:space="preserve">7.37987947463989</t>
   </si>
   <si>
     <t xml:space="preserve">7.32904195785522</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32395839691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42224407196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40360403060913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51375007629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40190982818604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49341583251953</t>
+    <t xml:space="preserve">7.32395887374878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42224359512329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40360450744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5137505531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40190887451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49341535568237</t>
   </si>
   <si>
     <t xml:space="preserve">7.33412504196167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53408670425415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41377019882202</t>
+    <t xml:space="preserve">7.53408718109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41377115249634</t>
   </si>
   <si>
     <t xml:space="preserve">7.41207647323608</t>
@@ -221,73 +221,73 @@
     <t xml:space="preserve">7.70184898376465</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67304086685181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62389898300171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40529870986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45105266571045</t>
+    <t xml:space="preserve">7.67304182052612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62389802932739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40529775619507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45105171203613</t>
   </si>
   <si>
     <t xml:space="preserve">7.4239387512207</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5391697883606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57645130157471</t>
+    <t xml:space="preserve">7.53917026519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57645082473755</t>
   </si>
   <si>
     <t xml:space="preserve">7.62559270858765</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67643070220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69337463378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66287517547607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7103214263916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74421405792236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78488302230835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05093193054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99670600891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91367149353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96281433105469</t>
+    <t xml:space="preserve">7.67643022537231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69337511062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66287469863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71032333374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74421453475952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78488445281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05093288421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99670457839966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91367053985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96281385421753</t>
   </si>
   <si>
     <t xml:space="preserve">8.02381896972656</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94925832748413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00348472595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90858793258667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99162197113037</t>
+    <t xml:space="preserve">7.94925689697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00348377227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90858697891235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99162101745605</t>
   </si>
   <si>
     <t xml:space="preserve">8.1424388885498</t>
@@ -296,16 +296,16 @@
     <t xml:space="preserve">8.78637790679932</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81179618835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82026863098145</t>
+    <t xml:space="preserve">8.81179714202881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82026958465576</t>
   </si>
   <si>
     <t xml:space="preserve">8.86263465881348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73554039001465</t>
+    <t xml:space="preserve">8.73554229736328</t>
   </si>
   <si>
     <t xml:space="preserve">8.66775798797607</t>
@@ -314,73 +314,73 @@
     <t xml:space="preserve">8.6592845916748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71859455108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83048248291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76162719726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.82187652587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77023506164551</t>
+    <t xml:space="preserve">8.71859550476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83048343658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76162815093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.82187557220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77023601531982</t>
   </si>
   <si>
     <t xml:space="preserve">8.77884197235107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92515659332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95097637176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04565048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28663730621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19196319580078</t>
+    <t xml:space="preserve">8.92515563964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95097732543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04564952850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2866382598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19196510314941</t>
   </si>
   <si>
     <t xml:space="preserve">9.18335723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89933490753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5774450302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40531063079834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60670852661133</t>
+    <t xml:space="preserve">8.89933586120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57744407653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40531158447266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60670757293701</t>
   </si>
   <si>
     <t xml:space="preserve">8.61531543731689</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91654872894287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93376350402832</t>
+    <t xml:space="preserve">8.91654968261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.933762550354</t>
   </si>
   <si>
     <t xml:space="preserve">8.88212299346924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03704357147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5602331161499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91989231109619</t>
+    <t xml:space="preserve">9.03704166412354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56023120880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91989374160767</t>
   </si>
   <si>
     <t xml:space="preserve">8.55506801605225</t>
@@ -392,25 +392,25 @@
     <t xml:space="preserve">8.50514888763428</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53785514831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13333702087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95948314666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95776319503784</t>
+    <t xml:space="preserve">8.53785419464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13333892822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95948266983032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95776271820068</t>
   </si>
   <si>
     <t xml:space="preserve">8.24522590637207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32096481323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34850597381592</t>
+    <t xml:space="preserve">8.32096576690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34850692749023</t>
   </si>
   <si>
     <t xml:space="preserve">8.26932430267334</t>
@@ -419,52 +419,49 @@
     <t xml:space="preserve">8.44145965576172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40875434875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53441047668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.400146484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51031398773193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46555805206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62392330169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67556095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71859645843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81326961517334</t>
+    <t xml:space="preserve">8.40875244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5344123840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40014839172363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51031303405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4655590057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62392139434814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67556285858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81326866149902</t>
   </si>
   <si>
     <t xml:space="preserve">8.66695404052734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99400997161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08868408203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84769535064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86490821838379</t>
+    <t xml:space="preserve">8.99400901794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08868312835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84769439697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86490917205811</t>
   </si>
   <si>
     <t xml:space="preserve">8.95958232879639</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0542573928833</t>
+    <t xml:space="preserve">9.05425834655762</t>
   </si>
   <si>
     <t xml:space="preserve">9.00261783599854</t>
@@ -476,37 +473,37 @@
     <t xml:space="preserve">8.9854040145874</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79605579376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75302219390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78744888305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70998859405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73580932617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96819019317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01122379302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02843570709229</t>
+    <t xml:space="preserve">8.79605484008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75302314758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78744792938232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70998764038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73580741882324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96818923950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01122283935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02843761444092</t>
   </si>
   <si>
     <t xml:space="preserve">9.2177848815918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16614437103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2091760635376</t>
+    <t xml:space="preserve">9.1661434173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20917797088623</t>
   </si>
   <si>
     <t xml:space="preserve">9.10589694976807</t>
@@ -530,49 +527,49 @@
     <t xml:space="preserve">8.94236946105957</t>
   </si>
   <si>
-    <t xml:space="preserve">9.01982975006104</t>
+    <t xml:space="preserve">9.01983070373535</t>
   </si>
   <si>
     <t xml:space="preserve">9.14893054962158</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07147026062012</t>
+    <t xml:space="preserve">9.0714693069458</t>
   </si>
   <si>
     <t xml:space="preserve">9.37270545959473</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47598457336426</t>
+    <t xml:space="preserve">9.47598552703857</t>
   </si>
   <si>
     <t xml:space="preserve">9.62229919433594</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69115447998047</t>
+    <t xml:space="preserve">9.69115352630615</t>
   </si>
   <si>
     <t xml:space="preserve">9.6997594833374</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48459243774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.26081848144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09728908538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52762508392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79443359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51041316986084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32967281341553</t>
+    <t xml:space="preserve">9.48459339141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.260817527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09729099273682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52762603759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79443454742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51041126251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32967185974121</t>
   </si>
   <si>
     <t xml:space="preserve">9.46737957000732</t>
@@ -581,43 +578,43 @@
     <t xml:space="preserve">9.2436056137085</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25221157073975</t>
+    <t xml:space="preserve">9.25221061706543</t>
   </si>
   <si>
     <t xml:space="preserve">9.33827781677246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31245899200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08007621765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45016670227051</t>
+    <t xml:space="preserve">9.31245708465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08007717132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45016574859619</t>
   </si>
   <si>
     <t xml:space="preserve">9.56205272674561</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2780294418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39852428436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40713214874268</t>
+    <t xml:space="preserve">9.27803134918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39852714538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40713119506836</t>
   </si>
   <si>
     <t xml:space="preserve">9.53623294830322</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6567268371582</t>
+    <t xml:space="preserve">9.65672779083252</t>
   </si>
   <si>
     <t xml:space="preserve">9.70836639404297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83746814727783</t>
+    <t xml:space="preserve">9.83746719360352</t>
   </si>
   <si>
     <t xml:space="preserve">9.89771461486816</t>
@@ -626,46 +623,46 @@
     <t xml:space="preserve">10.3280487060547</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3882970809937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1817359924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3022298812866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3452634811401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3710832595825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4227237701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5776443481445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6034641265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5862512588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5690383911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5260038375854</t>
+    <t xml:space="preserve">10.3882989883423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.181734085083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3022289276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3452625274658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3710823059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4227228164673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5776453018188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6034650802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5862503051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5690364837646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5260047912598</t>
   </si>
   <si>
     <t xml:space="preserve">10.4915771484375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5518245697021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5173969268799</t>
+    <t xml:space="preserve">10.5518236160278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5173988342285</t>
   </si>
   <si>
     <t xml:space="preserve">10.5948572158813</t>
@@ -674,40 +671,40 @@
     <t xml:space="preserve">10.5001850128174</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4657573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2075576782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6895303726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4485425949097</t>
+    <t xml:space="preserve">10.4657583236694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.207555770874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6895322799683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.448543548584</t>
   </si>
   <si>
     <t xml:space="preserve">10.4399366378784</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9133062362671</t>
+    <t xml:space="preserve">10.9133052825928</t>
   </si>
   <si>
     <t xml:space="preserve">10.8272380828857</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9046993255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7669925689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8530578613281</t>
+    <t xml:space="preserve">10.9047002792358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7669916152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8530597686768</t>
   </si>
   <si>
     <t xml:space="preserve">11.0768327713013</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1112604141235</t>
+    <t xml:space="preserve">11.1112594604492</t>
   </si>
   <si>
     <t xml:space="preserve">11.0424060821533</t>
@@ -719,19 +716,19 @@
     <t xml:space="preserve">11.0338001251221</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1887197494507</t>
+    <t xml:space="preserve">11.188720703125</t>
   </si>
   <si>
     <t xml:space="preserve">11.3608551025391</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3264284133911</t>
+    <t xml:space="preserve">11.3264274597168</t>
   </si>
   <si>
     <t xml:space="preserve">11.1628999710083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1715078353882</t>
+    <t xml:space="preserve">11.1715068817139</t>
   </si>
   <si>
     <t xml:space="preserve">11.2661809921265</t>
@@ -740,25 +737,25 @@
     <t xml:space="preserve">11.1801137924194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4383153915405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2919998168945</t>
+    <t xml:space="preserve">11.4383134841919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2920017242432</t>
   </si>
   <si>
     <t xml:space="preserve">11.4469223022461</t>
   </si>
   <si>
-    <t xml:space="preserve">11.662088394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5846290588379</t>
+    <t xml:space="preserve">11.6620903015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5846281051636</t>
   </si>
   <si>
     <t xml:space="preserve">11.6362686157227</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6706972122192</t>
+    <t xml:space="preserve">11.6706962585449</t>
   </si>
   <si>
     <t xml:space="preserve">11.6965160369873</t>
@@ -767,37 +764,37 @@
     <t xml:space="preserve">11.7567644119263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8084030151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8686513900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.928897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9202899932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9375057220459</t>
+    <t xml:space="preserve">11.808403968811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8686494827271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9288969039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9202919006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9375047683716</t>
   </si>
   <si>
     <t xml:space="preserve">12.1698846817017</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1870985031128</t>
+    <t xml:space="preserve">12.1870994567871</t>
   </si>
   <si>
     <t xml:space="preserve">12.1182460784912</t>
   </si>
   <si>
-    <t xml:space="preserve">12.109637260437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1526718139648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1957063674927</t>
+    <t xml:space="preserve">12.1096382141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1526727676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.195704460144</t>
   </si>
   <si>
     <t xml:space="preserve">12.1440649032593</t>
@@ -806,7 +803,7 @@
     <t xml:space="preserve">12.0149641036987</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1268510818481</t>
+    <t xml:space="preserve">12.1268520355225</t>
   </si>
   <si>
     <t xml:space="preserve">11.963324546814</t>
@@ -815,103 +812,106 @@
     <t xml:space="preserve">12.3936586380005</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4969415664673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3506259918213</t>
+    <t xml:space="preserve">12.496940612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3506278991699</t>
   </si>
   <si>
     <t xml:space="preserve">12.4280862808228</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4194784164429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5916137695312</t>
+    <t xml:space="preserve">12.4194812774658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5916147232056</t>
   </si>
   <si>
     <t xml:space="preserve">12.4883337020874</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7379274368286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8412075042725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7637491226196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.9617033004761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.996129989624</t>
+    <t xml:space="preserve">12.7379283905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8412084579468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7637481689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9617023468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9961290359497</t>
   </si>
   <si>
     <t xml:space="preserve">12.7207155227661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6346483230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6432542800903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.522759437561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0666055679321</t>
+    <t xml:space="preserve">12.6346473693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6432552337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5227603912354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0666036605835</t>
   </si>
   <si>
     <t xml:space="preserve">11.9719305038452</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2387390136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3696823120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3871393203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5006237030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6053771972656</t>
+    <t xml:space="preserve">12.2387399673462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3696804046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3871383666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5006227493286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6053781509399</t>
   </si>
   <si>
     <t xml:space="preserve">12.212550163269</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0816078186035</t>
+    <t xml:space="preserve">12.0816068649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2387380599976</t>
   </si>
   <si>
     <t xml:space="preserve">12.1863613128662</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0205030441284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9855823516846</t>
+    <t xml:space="preserve">12.0205011367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9855833053589</t>
   </si>
   <si>
     <t xml:space="preserve">11.7149705886841</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6102161407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6014862060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4356250762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3570594787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6451320648193</t>
+    <t xml:space="preserve">11.6102151870728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6014852523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4356260299683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3570613861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.645133972168</t>
   </si>
   <si>
     <t xml:space="preserve">11.8371829986572</t>
@@ -923,52 +923,52 @@
     <t xml:space="preserve">11.6975107192993</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5752983093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3221426010132</t>
+    <t xml:space="preserve">11.5752973556519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3221435546875</t>
   </si>
   <si>
     <t xml:space="preserve">11.4268960952759</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1562824249268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3483304977417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9642343521118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824712753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1300945281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.042799949646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1475534439087</t>
+    <t xml:space="preserve">11.1562833786011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.348331451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9642324447632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824703216553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1300935745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0427989959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1475524902344</t>
   </si>
   <si>
     <t xml:space="preserve">11.8459129333496</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9419364929199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7062406539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0641479492188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8808298110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8284521102905</t>
+    <t xml:space="preserve">11.9419355392456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7062397003174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0641489028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8808288574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8284530639648</t>
   </si>
   <si>
     <t xml:space="preserve">11.7760753631592</t>
@@ -986,19 +986,19 @@
     <t xml:space="preserve">11.3919792175293</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4094371795654</t>
+    <t xml:space="preserve">11.4094352722168</t>
   </si>
   <si>
     <t xml:space="preserve">11.2872247695923</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3308725357056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2697658538818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2784938812256</t>
+    <t xml:space="preserve">11.3308715820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2697649002075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2784957885742</t>
   </si>
   <si>
     <t xml:space="preserve">11.0689878463745</t>
@@ -1007,13 +1007,13 @@
     <t xml:space="preserve">11.1737422943115</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2610378265381</t>
+    <t xml:space="preserve">11.2610359191895</t>
   </si>
   <si>
     <t xml:space="preserve">11.095175743103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3134145736694</t>
+    <t xml:space="preserve">11.3134136199951</t>
   </si>
   <si>
     <t xml:space="preserve">11.6713218688965</t>
@@ -1022,58 +1022,58 @@
     <t xml:space="preserve">11.5578384399414</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4880037307739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4530839920044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6625919342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7411575317383</t>
+    <t xml:space="preserve">11.4880018234253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4530849456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6625938415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7411584854126</t>
   </si>
   <si>
     <t xml:space="preserve">11.7935352325439</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8109931945801</t>
+    <t xml:space="preserve">11.8109941482544</t>
   </si>
   <si>
     <t xml:space="preserve">11.9244785308838</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8197231292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9768533706665</t>
+    <t xml:space="preserve">11.8197240829468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9768543243408</t>
   </si>
   <si>
     <t xml:space="preserve">12.1077976226807</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1776323318481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3522214889526</t>
+    <t xml:space="preserve">12.1776304244995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.352222442627</t>
   </si>
   <si>
     <t xml:space="preserve">12.3173036575317</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3784112930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4918937683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5355415344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5966463088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4744358062744</t>
+    <t xml:space="preserve">12.3784103393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4918947219849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5355405807495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5966491699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4744338989258</t>
   </si>
   <si>
     <t xml:space="preserve">12.5180807113647</t>
@@ -1082,13 +1082,13 @@
     <t xml:space="preserve">12.4831647872925</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6228351593018</t>
+    <t xml:space="preserve">12.6228342056274</t>
   </si>
   <si>
     <t xml:space="preserve">12.6141061782837</t>
   </si>
   <si>
-    <t xml:space="preserve">12.762508392334</t>
+    <t xml:space="preserve">12.7625074386597</t>
   </si>
   <si>
     <t xml:space="preserve">12.7712373733521</t>
@@ -1103,49 +1103,49 @@
     <t xml:space="preserve">12.7363195419312</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7450494766235</t>
+    <t xml:space="preserve">12.7450504302979</t>
   </si>
   <si>
     <t xml:space="preserve">12.2212791442871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.160174369812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2474670410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4482460021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4395151138306</t>
+    <t xml:space="preserve">12.1601734161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2474679946899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4482479095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4395170211792</t>
   </si>
   <si>
     <t xml:space="preserve">12.4046001434326</t>
   </si>
   <si>
-    <t xml:space="preserve">12.360951423645</t>
+    <t xml:space="preserve">12.3609523773193</t>
   </si>
   <si>
     <t xml:space="preserve">11.7236995697021</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2086591720581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.086446762085</t>
+    <t xml:space="preserve">11.2086601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0864458084106</t>
   </si>
   <si>
     <t xml:space="preserve">11.295952796936</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2173881530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4181680679321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3396015167236</t>
+    <t xml:space="preserve">11.2173891067505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4181671142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3396005630493</t>
   </si>
   <si>
     <t xml:space="preserve">11.1650114059448</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">10.9991512298584</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1999292373657</t>
+    <t xml:space="preserve">11.19993019104</t>
   </si>
   <si>
     <t xml:space="preserve">11.0777177810669</t>
@@ -1175,49 +1175,49 @@
     <t xml:space="preserve">11.2261180877686</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0602579116821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8507499694824</t>
+    <t xml:space="preserve">11.0602588653564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8507490158081</t>
   </si>
   <si>
     <t xml:space="preserve">10.8682088851929</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4967336654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5665683746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5403785705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.549108505249</t>
+    <t xml:space="preserve">11.496732711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5665674209595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.540379524231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.549111366272</t>
   </si>
   <si>
     <t xml:space="preserve">11.6276750564575</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8720998764038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7586164474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8071041107178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6936197280884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6150541305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6587009429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5626773834229</t>
+    <t xml:space="preserve">11.8721008300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.758617401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8071022033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6936187744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6150550842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6586999893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5626764297485</t>
   </si>
   <si>
     <t xml:space="preserve">10.5277585983276</t>
@@ -1226,22 +1226,22 @@
     <t xml:space="preserve">10.5975942611694</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5364894866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4753818511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4666538238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2920627593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3531713485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3706274032593</t>
+    <t xml:space="preserve">10.5364904403687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4753828048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4666547775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2920637130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3531694412231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3706283569336</t>
   </si>
   <si>
     <t xml:space="preserve">10.0738248825073</t>
@@ -1250,16 +1250,16 @@
     <t xml:space="preserve">10.0389089584351</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82940196990967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71591854095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4841108322144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.684889793396</t>
+    <t xml:space="preserve">9.82940101623535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71591758728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.484112739563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6848907470703</t>
   </si>
   <si>
     <t xml:space="preserve">10.9816923141479</t>
@@ -1268,49 +1268,49 @@
     <t xml:space="preserve">11.1039056777954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9904232025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7372674942017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6761608123779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8332901000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7809152603149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9467763900757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9293146133423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7198085784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8245601654053</t>
+    <t xml:space="preserve">10.9904222488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7372665405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6761617660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.833291053772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7809162139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9467754364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9293155670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7198076248169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8245620727539</t>
   </si>
   <si>
     <t xml:space="preserve">10.7896432876587</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7983732223511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8158330917358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6325120925903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6063251495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6674308776855</t>
+    <t xml:space="preserve">10.7983741760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8158321380615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.632513999939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6063241958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6674318313599</t>
   </si>
   <si>
     <t xml:space="preserve">10.5190296173096</t>
@@ -1322,31 +1322,31 @@
     <t xml:space="preserve">10.9205865859985</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6499729156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.580135345459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.431736946106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3007926940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4164323806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7633504867554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6832914352417</t>
+    <t xml:space="preserve">10.6499719619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5801372528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4317359924316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3007936477661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.416431427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7633495330811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.683292388916</t>
   </si>
   <si>
     <t xml:space="preserve">11.1636400222778</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0657920837402</t>
+    <t xml:space="preserve">11.0657911300659</t>
   </si>
   <si>
     <t xml:space="preserve">10.9857339859009</t>
@@ -1358,13 +1358,13 @@
     <t xml:space="preserve">10.8523044586182</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8878841400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0302085876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.074686050415</t>
+    <t xml:space="preserve">10.887885093689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0302104949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0746850967407</t>
   </si>
   <si>
     <t xml:space="preserve">11.0480003356934</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">11.101372718811</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3326511383057</t>
+    <t xml:space="preserve">11.3326501846313</t>
   </si>
   <si>
     <t xml:space="preserve">11.0391044616699</t>
@@ -1382,10 +1382,10 @@
     <t xml:space="preserve">11.1369533538818</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9145698547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7722463607788</t>
+    <t xml:space="preserve">10.9145708084106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7722454071045</t>
   </si>
   <si>
     <t xml:space="preserve">10.7277679443359</t>
@@ -1412,31 +1412,31 @@
     <t xml:space="preserve">10.3096876144409</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0962018966675</t>
+    <t xml:space="preserve">10.0962009429932</t>
   </si>
   <si>
     <t xml:space="preserve">10.1228866577148</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2118396759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2385244369507</t>
+    <t xml:space="preserve">10.2118377685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.238525390625</t>
   </si>
   <si>
     <t xml:space="preserve">10.3541650772095</t>
   </si>
   <si>
-    <t xml:space="preserve">10.629921913147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6655025482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6477108001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8967800140381</t>
+    <t xml:space="preserve">10.6299209594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6655015945435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6477098464966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8967790603638</t>
   </si>
   <si>
     <t xml:space="preserve">10.8700942993164</t>
@@ -1445,16 +1445,16 @@
     <t xml:space="preserve">10.8167219161987</t>
   </si>
   <si>
-    <t xml:space="preserve">10.709979057312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4520130157471</t>
+    <t xml:space="preserve">10.7099781036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4520139694214</t>
   </si>
   <si>
     <t xml:space="preserve">10.4964904785156</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3808498382568</t>
+    <t xml:space="preserve">10.3808507919312</t>
   </si>
   <si>
     <t xml:space="preserve">10.398642539978</t>
@@ -1463,16 +1463,16 @@
     <t xml:space="preserve">10.2029447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4075365066528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6121301651001</t>
+    <t xml:space="preserve">10.4075355529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6121292114258</t>
   </si>
   <si>
     <t xml:space="preserve">10.1406764984131</t>
   </si>
   <si>
-    <t xml:space="preserve">10.060619354248</t>
+    <t xml:space="preserve">10.0606174468994</t>
   </si>
   <si>
     <t xml:space="preserve">10.1317806243896</t>
@@ -1481,82 +1481,82 @@
     <t xml:space="preserve">10.0339326858521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90939807891846</t>
+    <t xml:space="preserve">9.90939903259277</t>
   </si>
   <si>
     <t xml:space="preserve">9.94497966766357</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0428285598755</t>
+    <t xml:space="preserve">10.0428295135498</t>
   </si>
   <si>
     <t xml:space="preserve">9.82044506072998</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82934093475342</t>
+    <t xml:space="preserve">9.8293399810791</t>
   </si>
   <si>
     <t xml:space="preserve">9.98056125640869</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2741069793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2474203109741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1139917373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.91829299926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92718887329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.087306022644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96277046203613</t>
+    <t xml:space="preserve">10.2741060256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2474212646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1139907836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.91829395294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9271879196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0873050689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96276950836182</t>
   </si>
   <si>
     <t xml:space="preserve">10.0695142745972</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1851530075073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5587587356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5943393707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3630609512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3274793624878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2296314239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0517225265503</t>
+    <t xml:space="preserve">10.1851539611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5587577819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5943384170532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3630599975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3274784088135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2296304702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0517244338989</t>
   </si>
   <si>
     <t xml:space="preserve">10.2207355499268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87381744384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55358600616455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57137680053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01097106933594</t>
+    <t xml:space="preserve">9.87381649017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55358505249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57137584686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01097011566162</t>
   </si>
   <si>
     <t xml:space="preserve">8.83751106262207</t>
@@ -1565,10 +1565,10 @@
     <t xml:space="preserve">8.74855709075928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41943168640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73966312408447</t>
+    <t xml:space="preserve">8.41943073272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73966217041016</t>
   </si>
   <si>
     <t xml:space="preserve">8.83306312561035</t>
@@ -1577,28 +1577,28 @@
     <t xml:space="preserve">8.7174243927002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60178565979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46390628814697</t>
+    <t xml:space="preserve">8.60178470611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46390819549561</t>
   </si>
   <si>
     <t xml:space="preserve">8.5306224822998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37940216064453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65960502624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52617454528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79303455352783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69963455200195</t>
+    <t xml:space="preserve">8.37940120697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65960597991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5261754989624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79303550720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69963359832764</t>
   </si>
   <si>
     <t xml:space="preserve">8.89088344573975</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">8.41053581237793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.31268692016602</t>
+    <t xml:space="preserve">8.31268787384033</t>
   </si>
   <si>
     <t xml:space="preserve">8.07695865631104</t>
@@ -1625,28 +1625,28 @@
     <t xml:space="preserve">8.01024532318115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05472087860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1169900894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29489517211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32158279418945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29934406280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55286121368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58844184875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93091297149658</t>
+    <t xml:space="preserve">8.05472183227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11698913574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29489612579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32158184051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29934310913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55286026000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58844375610352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93091201782227</t>
   </si>
   <si>
     <t xml:space="preserve">8.92201709747314</t>
@@ -1655,94 +1655,94 @@
     <t xml:space="preserve">8.85974884033203</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07323741912842</t>
+    <t xml:space="preserve">9.0732364654541</t>
   </si>
   <si>
     <t xml:space="preserve">8.79748153686523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77079677581787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45946025848389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49059295654297</t>
+    <t xml:space="preserve">8.77079772949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45945930480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49059391021729</t>
   </si>
   <si>
     <t xml:space="preserve">8.27265739440918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38384914398193</t>
+    <t xml:space="preserve">8.38385009765625</t>
   </si>
   <si>
     <t xml:space="preserve">8.64181423187256</t>
   </si>
   <si>
-    <t xml:space="preserve">8.09919929504395</t>
+    <t xml:space="preserve">8.09920024871826</t>
   </si>
   <si>
     <t xml:space="preserve">7.97911167144775</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29044818878174</t>
+    <t xml:space="preserve">8.29044914245605</t>
   </si>
   <si>
     <t xml:space="preserve">8.10364532470703</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15256977081299</t>
+    <t xml:space="preserve">8.1525707244873</t>
   </si>
   <si>
     <t xml:space="preserve">7.86347198486328</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91239643096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97021532058716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908214569092</t>
+    <t xml:space="preserve">7.9123969078064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97021579742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908262252808</t>
   </si>
   <si>
     <t xml:space="preserve">8.25486755371094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22818183898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05544567108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14439964294434</t>
+    <t xml:space="preserve">8.22818088531494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05544757843018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14439868927002</t>
   </si>
   <si>
     <t xml:space="preserve">8.78858661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69073867797852</t>
+    <t xml:space="preserve">8.69073677062988</t>
   </si>
   <si>
     <t xml:space="preserve">8.70852851867676</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76190090179443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67294788360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80637741088867</t>
+    <t xml:space="preserve">8.76189994812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67294692993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80637645721436</t>
   </si>
   <si>
     <t xml:space="preserve">8.81082534790039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77524375915527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91312313079834</t>
+    <t xml:space="preserve">8.77524471282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91312217712402</t>
   </si>
   <si>
     <t xml:space="preserve">9.17998123168945</t>
@@ -1754,16 +1754,16 @@
     <t xml:space="preserve">8.87754058837891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86864280700684</t>
+    <t xml:space="preserve">8.86864376068115</t>
   </si>
   <si>
     <t xml:space="preserve">8.85085487365723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81527328491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81972026824951</t>
+    <t xml:space="preserve">8.81527233123779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81972122192383</t>
   </si>
   <si>
     <t xml:space="preserve">8.54841232299805</t>
@@ -1775,34 +1775,34 @@
     <t xml:space="preserve">8.70408058166504</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89533042907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09102821350098</t>
+    <t xml:space="preserve">8.89532947540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09102725982666</t>
   </si>
   <si>
     <t xml:space="preserve">8.97538948059082</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42905044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29562091827393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34899234771729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62474822998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65143299102783</t>
+    <t xml:space="preserve">9.42904949188232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29561996459961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34899139404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62474632263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65143394470215</t>
   </si>
   <si>
     <t xml:space="preserve">9.41125965118408</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46463298797607</t>
+    <t xml:space="preserve">9.46463203430176</t>
   </si>
   <si>
     <t xml:space="preserve">9.66032886505127</t>
@@ -1811,10 +1811,10 @@
     <t xml:space="preserve">9.26893424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13550472259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10881900787354</t>
+    <t xml:space="preserve">9.1355037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10881805419922</t>
   </si>
   <si>
     <t xml:space="preserve">9.11771488189697</t>
@@ -1826,19 +1826,19 @@
     <t xml:space="preserve">9.04655170440674</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23335456848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.4735279083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76707458496094</t>
+    <t xml:space="preserve">9.23335361480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47352600097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76707363128662</t>
   </si>
   <si>
     <t xml:space="preserve">9.59806156158447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5180025100708</t>
+    <t xml:space="preserve">9.51800441741943</t>
   </si>
   <si>
     <t xml:space="preserve">9.33120155334473</t>
@@ -1850,37 +1850,34 @@
     <t xml:space="preserve">9.08213233947754</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96649265289307</t>
+    <t xml:space="preserve">8.96649360656738</t>
   </si>
   <si>
     <t xml:space="preserve">9.00207424163818</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99318027496338</t>
+    <t xml:space="preserve">8.99317932128906</t>
   </si>
   <si>
     <t xml:space="preserve">9.1977710723877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.86492156982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.78486442565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7581787109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99835205078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4342241287231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3007936477661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5676517486572</t>
+    <t xml:space="preserve">9.8649206161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.78486347198486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.75817680358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99835109710693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4342231750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5676527023315</t>
   </si>
   <si>
     <t xml:space="preserve">10.1673631668091</t>
@@ -1892,7 +1889,7 @@
     <t xml:space="preserve">9.8560266494751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18887615203857</t>
+    <t xml:space="preserve">9.18887710571289</t>
   </si>
   <si>
     <t xml:space="preserve">9.27782917022705</t>
@@ -1901,13 +1898,13 @@
     <t xml:space="preserve">9.16219043731689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07778358459473</t>
+    <t xml:space="preserve">9.07778263092041</t>
   </si>
   <si>
     <t xml:space="preserve">9.0914192199707</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05960083007812</t>
+    <t xml:space="preserve">9.05959987640381</t>
   </si>
   <si>
     <t xml:space="preserve">8.72776317596436</t>
@@ -1922,7 +1919,7 @@
     <t xml:space="preserve">8.90050029754639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78231239318848</t>
+    <t xml:space="preserve">8.78231143951416</t>
   </si>
   <si>
     <t xml:space="preserve">8.86413478851318</t>
@@ -1934,19 +1931,22 @@
     <t xml:space="preserve">8.48229503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68230724334717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88231754302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99596118927002</t>
+    <t xml:space="preserve">8.68230628967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88231658935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9959602355957</t>
   </si>
   <si>
     <t xml:space="preserve">8.9777774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21870040893555</t>
+    <t xml:space="preserve">9.21870136260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07323837280273</t>
   </si>
   <si>
     <t xml:space="preserve">9.04596424102783</t>
@@ -1973,16 +1973,16 @@
     <t xml:space="preserve">9.03232574462891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20961093902588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44598579406738</t>
+    <t xml:space="preserve">9.20960903167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44598484039307</t>
   </si>
   <si>
     <t xml:space="preserve">9.38234615325928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6187219619751</t>
+    <t xml:space="preserve">9.61872291564941</t>
   </si>
   <si>
     <t xml:space="preserve">9.66417980194092</t>
@@ -1991,13 +1991,13 @@
     <t xml:space="preserve">9.57326698303223</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25506591796875</t>
+    <t xml:space="preserve">9.25506687164307</t>
   </si>
   <si>
     <t xml:space="preserve">9.12778663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10960483551025</t>
+    <t xml:space="preserve">9.10960388183594</t>
   </si>
   <si>
     <t xml:space="preserve">8.80504131317139</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">8.79140377044678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93686676025391</t>
+    <t xml:space="preserve">8.93686580657959</t>
   </si>
   <si>
     <t xml:space="preserve">9.24597454071045</t>
@@ -2021,100 +2021,100 @@
     <t xml:space="preserve">9.34597969055176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47774887084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4277458190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46865749359131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25046443939209</t>
+    <t xml:space="preserve">8.47774982452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42774677276611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46865844726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25046539306641</t>
   </si>
   <si>
     <t xml:space="preserve">8.05499839782715</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89589881896973</t>
+    <t xml:space="preserve">7.89589834213257</t>
   </si>
   <si>
     <t xml:space="preserve">7.92771863937378</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90953636169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65497541427612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56406211853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65952205657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48678398132324</t>
+    <t xml:space="preserve">7.90953683853149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65497493743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56406259536743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65952157974243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4867844581604</t>
   </si>
   <si>
     <t xml:space="preserve">7.46860218048096</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54587888717651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53678703308105</t>
+    <t xml:space="preserve">7.54587841033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5367865562439</t>
   </si>
   <si>
     <t xml:space="preserve">7.78680086135864</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66861295700073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5322413444519</t>
+    <t xml:space="preserve">7.66861248016357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53224182128906</t>
   </si>
   <si>
     <t xml:space="preserve">7.45496463775635</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71407079696655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72316265106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59588050842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80498504638672</t>
+    <t xml:space="preserve">7.71407032012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72316217422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59588098526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80498456954956</t>
   </si>
   <si>
     <t xml:space="preserve">8.07772731781006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27773857116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35501384735107</t>
+    <t xml:space="preserve">8.27773952484131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35501480102539</t>
   </si>
   <si>
     <t xml:space="preserve">8.52320766448975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59139251708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65503406524658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51866054534912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49138736724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.60503101348877</t>
+    <t xml:space="preserve">8.59139156341553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65503311157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51866149902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4913854598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.60502910614014</t>
   </si>
   <si>
     <t xml:space="preserve">8.15954971313477</t>
@@ -2123,37 +2123,37 @@
     <t xml:space="preserve">8.00499629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88680839538574</t>
+    <t xml:space="preserve">7.88680744171143</t>
   </si>
   <si>
     <t xml:space="preserve">8.02317810058594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11863803863525</t>
+    <t xml:space="preserve">8.11863899230957</t>
   </si>
   <si>
     <t xml:space="preserve">8.12773036956787</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95499277114868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78225660324097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6731595993042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.727707862854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71861505508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58224391937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74589061737061</t>
+    <t xml:space="preserve">7.95499324798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78225564956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67315912246704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.72770881652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7186164855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58224487304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74589014053345</t>
   </si>
   <si>
     <t xml:space="preserve">8.13682174682617</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">8.3004674911499</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33683395385742</t>
+    <t xml:space="preserve">8.33683204650879</t>
   </si>
   <si>
     <t xml:space="preserve">8.09136390686035</t>
@@ -2177,10 +2177,10 @@
     <t xml:space="preserve">8.48684120178223</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55502700805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59593772888184</t>
+    <t xml:space="preserve">8.55502796173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59593868255615</t>
   </si>
   <si>
     <t xml:space="preserve">8.66866970062256</t>
@@ -2189,10 +2189,10 @@
     <t xml:space="preserve">8.96868705749512</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67776012420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74594688415527</t>
+    <t xml:space="preserve">8.67776107788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74594593048096</t>
   </si>
   <si>
     <t xml:space="preserve">9.29143142700195</t>
@@ -2207,61 +2207,61 @@
     <t xml:space="preserve">9.71872806549072</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90964794158936</t>
+    <t xml:space="preserve">9.90964889526367</t>
   </si>
   <si>
     <t xml:space="preserve">10.1096591949463</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0551109313965</t>
+    <t xml:space="preserve">10.0551118850708</t>
   </si>
   <si>
     <t xml:space="preserve">9.81873416900635</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6914529800415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83691692352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.58235740661621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76418685913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65508937835693</t>
+    <t xml:space="preserve">9.69145393371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83691596984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.58235549926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76418590545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65508842468262</t>
   </si>
   <si>
     <t xml:space="preserve">9.82782649993896</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0005626678467</t>
+    <t xml:space="preserve">10.0005617141724</t>
   </si>
   <si>
     <t xml:space="preserve">10.0823850631714</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1642074584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1278438568115</t>
+    <t xml:space="preserve">10.1642084121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1278429031372</t>
   </si>
   <si>
     <t xml:space="preserve">10.2187566757202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1732988357544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2278480529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2823972702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.364218711853</t>
+    <t xml:space="preserve">10.1732997894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2278470993042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.282395362854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3642196655273</t>
   </si>
   <si>
     <t xml:space="preserve">10.2369403839111</t>
@@ -2279,22 +2279,22 @@
     <t xml:space="preserve">10.4369497299194</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3278522491455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0278367996216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0732946395874</t>
+    <t xml:space="preserve">10.3278541564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0278377532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0732936859131</t>
   </si>
   <si>
     <t xml:space="preserve">10.1551170349121</t>
   </si>
   <si>
-    <t xml:space="preserve">9.63690567016602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87328243255615</t>
+    <t xml:space="preserve">9.6369047164917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87328338623047</t>
   </si>
   <si>
     <t xml:space="preserve">9.98237991333008</t>
@@ -2309,16 +2309,16 @@
     <t xml:space="preserve">10.0460195541382</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1187505722046</t>
+    <t xml:space="preserve">10.1187515258789</t>
   </si>
   <si>
     <t xml:space="preserve">10.0914764404297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92783069610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.64599704742432</t>
+    <t xml:space="preserve">9.92783164978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.64599800109863</t>
   </si>
   <si>
     <t xml:space="preserve">9.54599094390869</t>
@@ -2327,16 +2327,16 @@
     <t xml:space="preserve">9.67327213287354</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53689956665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35507202148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60054111480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46416854858398</t>
+    <t xml:space="preserve">9.53690052032471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35507297515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60054016113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4641695022583</t>
   </si>
   <si>
     <t xml:space="preserve">9.41871070861816</t>
@@ -2345,7 +2345,7 @@
     <t xml:space="preserve">9.78236865997314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77327632904053</t>
+    <t xml:space="preserve">9.77327728271484</t>
   </si>
   <si>
     <t xml:space="preserve">9.55508232116699</t>
@@ -2357,10 +2357,10 @@
     <t xml:space="preserve">9.4914436340332</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4278039932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70048904418945</t>
+    <t xml:space="preserve">9.42780303955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70048809051514</t>
   </si>
   <si>
     <t xml:space="preserve">8.64139461517334</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">8.64594078063965</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40047359466553</t>
+    <t xml:space="preserve">8.40047264099121</t>
   </si>
   <si>
     <t xml:space="preserve">8.21864414215088</t>
@@ -2378,31 +2378,31 @@
     <t xml:space="preserve">7.77316522598267</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87771558761597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7004337310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37768697738647</t>
+    <t xml:space="preserve">7.87771606445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70043420791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37768793106079</t>
   </si>
   <si>
     <t xml:space="preserve">7.44587326049805</t>
   </si>
   <si>
-    <t xml:space="preserve">6.81856632232666</t>
+    <t xml:space="preserve">6.81856536865234</t>
   </si>
   <si>
     <t xml:space="preserve">6.89129638671875</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79583597183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36399412155151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61855459213257</t>
+    <t xml:space="preserve">6.79583644866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36399459838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61855411529541</t>
   </si>
   <si>
     <t xml:space="preserve">6.09125185012817</t>
@@ -2414,43 +2414,43 @@
     <t xml:space="preserve">6.79129076004028</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37314176559448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00954055786133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07312488555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27768230438232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70946741104126</t>
+    <t xml:space="preserve">7.37314081192017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00954151153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07312440872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27768182754517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70946788787842</t>
   </si>
   <si>
     <t xml:space="preserve">6.54582214355469</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04579496383667</t>
+    <t xml:space="preserve">6.04579448699951</t>
   </si>
   <si>
     <t xml:space="preserve">6.17761993408203</t>
   </si>
   <si>
-    <t xml:space="preserve">6.06397771835327</t>
+    <t xml:space="preserve">6.06397724151611</t>
   </si>
   <si>
     <t xml:space="preserve">5.81850957870483</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3730297088623</t>
+    <t xml:space="preserve">5.37302923202515</t>
   </si>
   <si>
     <t xml:space="preserve">5.67304611206055</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74577713012695</t>
+    <t xml:space="preserve">5.74577665328979</t>
   </si>
   <si>
     <t xml:space="preserve">6.11397981643677</t>
@@ -2462,16 +2462,16 @@
     <t xml:space="preserve">5.85487413406372</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90487766265869</t>
+    <t xml:space="preserve">5.90487718582153</t>
   </si>
   <si>
     <t xml:space="preserve">6.14580011367798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28217172622681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22762298583984</t>
+    <t xml:space="preserve">6.28217124938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.227623462677</t>
   </si>
   <si>
     <t xml:space="preserve">6.27762603759766</t>
@@ -2480,10 +2480,10 @@
     <t xml:space="preserve">6.63673734664917</t>
   </si>
   <si>
-    <t xml:space="preserve">6.83220243453979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08676242828369</t>
+    <t xml:space="preserve">6.83220291137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08676290512085</t>
   </si>
   <si>
     <t xml:space="preserve">6.9412989616394</t>
@@ -2492,40 +2492,40 @@
     <t xml:space="preserve">7.11858224868774</t>
   </si>
   <si>
-    <t xml:space="preserve">7.05948781967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96857404708862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72310543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71855926513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59582614898682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45490884780884</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98215484619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03215742111206</t>
+    <t xml:space="preserve">7.05948829650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96857357025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72310495376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71855974197388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59582567214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.454909324646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.98215436935425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03215789794922</t>
   </si>
   <si>
     <t xml:space="preserve">6.49127388000488</t>
   </si>
   <si>
-    <t xml:space="preserve">6.45945501327515</t>
+    <t xml:space="preserve">6.45945453643799</t>
   </si>
   <si>
     <t xml:space="preserve">6.44581699371338</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62764453887939</t>
+    <t xml:space="preserve">6.62764501571655</t>
   </si>
   <si>
     <t xml:space="preserve">6.83674812316895</t>
@@ -2534,40 +2534,40 @@
     <t xml:space="preserve">7.42314434051514</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79134654998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64133977890015</t>
+    <t xml:space="preserve">7.79134607315063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64133930206299</t>
   </si>
   <si>
     <t xml:space="preserve">7.60042762756348</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68679523468018</t>
+    <t xml:space="preserve">7.68679571151733</t>
   </si>
   <si>
     <t xml:space="preserve">8.08227348327637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96408367156982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8322582244873</t>
+    <t xml:space="preserve">7.96408414840698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83225870132446</t>
   </si>
   <si>
     <t xml:space="preserve">7.35950565338135</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62315559387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61861085891724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47314691543579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49587631225586</t>
+    <t xml:space="preserve">7.62315607070923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61861038208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47314739227295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49587535858154</t>
   </si>
   <si>
     <t xml:space="preserve">7.43678188323975</t>
@@ -2576,7 +2576,7 @@
     <t xml:space="preserve">7.36405086517334</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46405649185181</t>
+    <t xml:space="preserve">7.46405601501465</t>
   </si>
   <si>
     <t xml:space="preserve">7.50951290130615</t>
@@ -2585,19 +2585,19 @@
     <t xml:space="preserve">7.47769355773926</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43223667144775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67770385742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5231499671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63679265975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59133672714233</t>
+    <t xml:space="preserve">7.4322361946106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67770528793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52315044403076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.636794090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59133625030518</t>
   </si>
   <si>
     <t xml:space="preserve">7.40950727462769</t>
@@ -2606,10 +2606,10 @@
     <t xml:space="preserve">7.5140585899353</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70952463150024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42769002914429</t>
+    <t xml:space="preserve">7.70952415466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42769050598145</t>
   </si>
   <si>
     <t xml:space="preserve">6.94584512710571</t>
@@ -2621,10 +2621,10 @@
     <t xml:space="preserve">6.93675374984741</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00039434432983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92766332626343</t>
+    <t xml:space="preserve">7.00039386749268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92766284942627</t>
   </si>
   <si>
     <t xml:space="preserve">6.95493698120117</t>
@@ -2633,19 +2633,19 @@
     <t xml:space="preserve">7.08221626281738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31859350204468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40041542053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31404781341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30495595932007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26404428482056</t>
+    <t xml:space="preserve">7.31859254837036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40041589736938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31404829025269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30495643615723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.26404476165771</t>
   </si>
   <si>
     <t xml:space="preserve">7.20040512084961</t>
@@ -2663,10 +2663,10 @@
     <t xml:space="preserve">7.27313613891602</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62770223617554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55951642990112</t>
+    <t xml:space="preserve">7.62770175933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55951690673828</t>
   </si>
   <si>
     <t xml:space="preserve">7.76407337188721</t>
@@ -2675,13 +2675,13 @@
     <t xml:space="preserve">7.88226127624512</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26410007476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85044050216675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68225049972534</t>
+    <t xml:space="preserve">8.2641019821167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85044145584106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68224954605103</t>
   </si>
   <si>
     <t xml:space="preserve">7.13676500320435</t>
@@ -2693,40 +2693,40 @@
     <t xml:space="preserve">7.29586458206177</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32768487930298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57769918441772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75498247146606</t>
+    <t xml:space="preserve">7.32768440246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57769966125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75498199462891</t>
   </si>
   <si>
     <t xml:space="preserve">8.15045833587646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20955276489258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29137420654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01863384246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96863031387329</t>
+    <t xml:space="preserve">8.20955181121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29137516021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01863288879395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96863126754761</t>
   </si>
   <si>
     <t xml:space="preserve">7.89135313034058</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90499067306519</t>
+    <t xml:space="preserve">7.90498924255371</t>
   </si>
   <si>
     <t xml:space="preserve">7.85498762130737</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05954456329346</t>
+    <t xml:space="preserve">8.05954360961914</t>
   </si>
   <si>
     <t xml:space="preserve">8.08681869506836</t>
@@ -2738,28 +2738,28 @@
     <t xml:space="preserve">8.28228282928467</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45047473907471</t>
+    <t xml:space="preserve">8.45047378540039</t>
   </si>
   <si>
     <t xml:space="preserve">8.85958957672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84589672088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10954666137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9459023475647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00045013427734</t>
+    <t xml:space="preserve">7.8458948135376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10954761505127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94590139389038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00044918060303</t>
   </si>
   <si>
     <t xml:space="preserve">8.06863594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15500450134277</t>
+    <t xml:space="preserve">8.15500354766846</t>
   </si>
   <si>
     <t xml:space="preserve">9.56417465209961</t>
@@ -2771,19 +2771,19 @@
     <t xml:space="preserve">9.73691082000732</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1914825439453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.93692302703857</t>
+    <t xml:space="preserve">10.191481590271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.93692207336426</t>
   </si>
   <si>
     <t xml:space="preserve">9.74600315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70963668823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70054626464844</t>
+    <t xml:space="preserve">9.70963764190674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70054531097412</t>
   </si>
   <si>
     <t xml:space="preserve">9.88237476348877</t>
@@ -2795,16 +2795,16 @@
     <t xml:space="preserve">9.85510063171387</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75509452819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.72781944274902</t>
+    <t xml:space="preserve">9.75509357452393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.72782039642334</t>
   </si>
   <si>
     <t xml:space="preserve">9.96419715881348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84600830078125</t>
+    <t xml:space="preserve">9.84600925445557</t>
   </si>
   <si>
     <t xml:space="preserve">9.36416339874268</t>
@@ -2813,16 +2813,16 @@
     <t xml:space="preserve">10.1005687713623</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2642135620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.464225769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4914989471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3005800247192</t>
+    <t xml:space="preserve">10.264214515686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4642248153687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4914979934692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3005790710449</t>
   </si>
   <si>
     <t xml:space="preserve">10.0187463760376</t>
@@ -2831,55 +2831,55 @@
     <t xml:space="preserve">10.2460298538208</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80054950714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.86419010162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.79146003723145</t>
+    <t xml:space="preserve">9.80055046081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86419105529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.79145908355713</t>
   </si>
   <si>
     <t xml:space="preserve">10.1823902130127</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91874122619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27324962615967</t>
+    <t xml:space="preserve">9.91874027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27324867248535</t>
   </si>
   <si>
     <t xml:space="preserve">9.50053405761719</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6278133392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6096305847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68236351013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52780914306641</t>
+    <t xml:space="preserve">9.62781524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60963153839111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6823616027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52780818939209</t>
   </si>
   <si>
     <t xml:space="preserve">9.51871776580811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.22779083251953</t>
+    <t xml:space="preserve">9.22779178619385</t>
   </si>
   <si>
     <t xml:space="preserve">9.40052890777588</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16415119171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32779788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30052375793457</t>
+    <t xml:space="preserve">9.16415214538574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32779884338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30052280426025</t>
   </si>
   <si>
     <t xml:space="preserve">9.52351379394531</t>
@@ -2897,13 +2897,13 @@
     <t xml:space="preserve">9.92399597167969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0821104049683</t>
+    <t xml:space="preserve">10.0821113586426</t>
   </si>
   <si>
     <t xml:space="preserve">10.1565170288086</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1751184463501</t>
+    <t xml:space="preserve">10.1751174926758</t>
   </si>
   <si>
     <t xml:space="preserve">10.3053312301636</t>
@@ -2918,16 +2918,16 @@
     <t xml:space="preserve">10.1007118225098</t>
   </si>
   <si>
-    <t xml:space="preserve">10.035605430603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0542087554932</t>
+    <t xml:space="preserve">10.0356063842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0542078018188</t>
   </si>
   <si>
     <t xml:space="preserve">9.86819076538086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85889053344727</t>
+    <t xml:space="preserve">9.85888957977295</t>
   </si>
   <si>
     <t xml:space="preserve">9.69147491455078</t>
@@ -2936,13 +2936,13 @@
     <t xml:space="preserve">9.87749195098877</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98910236358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96119976043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0449075698853</t>
+    <t xml:space="preserve">9.98910140991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9611988067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0449066162109</t>
   </si>
   <si>
     <t xml:space="preserve">9.84958934783936</t>
@@ -2951,52 +2951,52 @@
     <t xml:space="preserve">9.9332971572876</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95189762115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90539455413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89609336853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70077610015869</t>
+    <t xml:space="preserve">9.9518985748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90539360046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89609432220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70077705383301</t>
   </si>
   <si>
     <t xml:space="preserve">10.1193141937256</t>
   </si>
   <si>
-    <t xml:space="preserve">9.99840259552002</t>
+    <t xml:space="preserve">9.99840354919434</t>
   </si>
   <si>
     <t xml:space="preserve">9.63566970825195</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67287349700928</t>
+    <t xml:space="preserve">9.67287254333496</t>
   </si>
   <si>
     <t xml:space="preserve">9.72867870330811</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73797988891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1286144256592</t>
+    <t xml:space="preserve">9.7379789352417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1286153793335</t>
   </si>
   <si>
     <t xml:space="preserve">10.2495260238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7703733444214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.965690612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.040096282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0773010253906</t>
+    <t xml:space="preserve">10.7703723907471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9656896591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0400972366333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0773000717163</t>
   </si>
   <si>
     <t xml:space="preserve">11.1331052780151</t>
@@ -3005,13 +3005,13 @@
     <t xml:space="preserve">11.2540168762207</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3377237319946</t>
+    <t xml:space="preserve">11.3377227783203</t>
   </si>
   <si>
     <t xml:space="preserve">11.3842277526855</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4586353302002</t>
+    <t xml:space="preserve">11.4586343765259</t>
   </si>
   <si>
     <t xml:space="preserve">11.5051383972168</t>
@@ -3020,43 +3020,43 @@
     <t xml:space="preserve">11.4958372116089</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5330410003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4214305877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.328423500061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2261142730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4400339126587</t>
+    <t xml:space="preserve">11.5330419540405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4214315414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3284225463867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.226113319397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4400329589844</t>
   </si>
   <si>
     <t xml:space="preserve">11.4121313095093</t>
   </si>
   <si>
-    <t xml:space="preserve">11.374927520752</t>
+    <t xml:space="preserve">11.3749265670776</t>
   </si>
   <si>
     <t xml:space="preserve">11.2726173400879</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3098220825195</t>
+    <t xml:space="preserve">11.3098211288452</t>
   </si>
   <si>
     <t xml:space="preserve">11.4493341445923</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3191213607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2912187576294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3005199432373</t>
+    <t xml:space="preserve">11.3191223144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2912197113037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3005208969116</t>
   </si>
   <si>
     <t xml:space="preserve">11.1982116699219</t>
@@ -3071,7 +3071,7 @@
     <t xml:space="preserve">11.2354145050049</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8075752258301</t>
+    <t xml:space="preserve">10.8075761795044</t>
   </si>
   <si>
     <t xml:space="preserve">10.6308603286743</t>
@@ -3083,7 +3083,7 @@
     <t xml:space="preserve">10.3239326477051</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4913463592529</t>
+    <t xml:space="preserve">10.4913473129272</t>
   </si>
   <si>
     <t xml:space="preserve">10.5006484985352</t>
@@ -3092,7 +3092,7 @@
     <t xml:space="preserve">10.5099496841431</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4634437561035</t>
+    <t xml:space="preserve">10.4634447097778</t>
   </si>
   <si>
     <t xml:space="preserve">10.2309226989746</t>
@@ -3110,10 +3110,10 @@
     <t xml:space="preserve">10.0263051986694</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0635080337524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1100130081177</t>
+    <t xml:space="preserve">10.0635089874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1100120544434</t>
   </si>
   <si>
     <t xml:space="preserve">10.2030220031738</t>
@@ -3122,46 +3122,46 @@
     <t xml:space="preserve">10.2123212814331</t>
   </si>
   <si>
-    <t xml:space="preserve">10.184419631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2216234207153</t>
+    <t xml:space="preserve">10.1844205856323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.221622467041</t>
   </si>
   <si>
     <t xml:space="preserve">10.3890380859375</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3332328796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5378522872925</t>
+    <t xml:space="preserve">10.3332319259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5378513336182</t>
   </si>
   <si>
     <t xml:space="preserve">10.5192499160767</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5750541687012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.556453704834</t>
+    <t xml:space="preserve">10.5750551223755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5564546585083</t>
   </si>
   <si>
     <t xml:space="preserve">10.6587629318237</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7145690917969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8261775970459</t>
+    <t xml:space="preserve">10.7145681381226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8261785507202</t>
   </si>
   <si>
     <t xml:space="preserve">10.9005842208862</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7238674163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6773633956909</t>
+    <t xml:space="preserve">10.7238683700562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6773643493652</t>
   </si>
   <si>
     <t xml:space="preserve">10.7982749938965</t>
@@ -3188,31 +3188,31 @@
     <t xml:space="preserve">10.4541444778442</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6215591430664</t>
+    <t xml:space="preserve">10.6215600967407</t>
   </si>
   <si>
     <t xml:space="preserve">10.8726816177368</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9842920303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.26331615448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5516424179077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.365626335144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3563251495361</t>
+    <t xml:space="preserve">10.9842929840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2633171081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.551643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3656272888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3563261032104</t>
   </si>
   <si>
     <t xml:space="preserve">11.4865379333496</t>
   </si>
   <si>
-    <t xml:space="preserve">11.514440536499</t>
+    <t xml:space="preserve">11.5144395828247</t>
   </si>
   <si>
     <t xml:space="preserve">11.5795450210571</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">11.6539516448975</t>
   </si>
   <si>
-    <t xml:space="preserve">11.635350227356</t>
+    <t xml:space="preserve">11.6353511810303</t>
   </si>
   <si>
     <t xml:space="preserve">11.5981473922729</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8771734237671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0538892745972</t>
+    <t xml:space="preserve">11.8771724700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0538883209229</t>
   </si>
   <si>
     <t xml:space="preserve">12.2306041717529</t>
@@ -3239,16 +3239,16 @@
     <t xml:space="preserve">12.4445238113403</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0817909240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2771081924438</t>
+    <t xml:space="preserve">12.0817899703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2771091461182</t>
   </si>
   <si>
     <t xml:space="preserve">11.6260499954224</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6167488098145</t>
+    <t xml:space="preserve">11.6167497634888</t>
   </si>
   <si>
     <t xml:space="preserve">11.73766040802</t>
@@ -3257,7 +3257,7 @@
     <t xml:space="preserve">11.6725549697876</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5423431396484</t>
+    <t xml:space="preserve">11.5423421859741</t>
   </si>
   <si>
     <t xml:space="preserve">11.2168130874634</t>
@@ -3272,16 +3272,16 @@
     <t xml:space="preserve">10.7517709732056</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9284868240356</t>
+    <t xml:space="preserve">10.92848777771</t>
   </si>
   <si>
     <t xml:space="preserve">11.0959024429321</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0028944015503</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7889747619629</t>
+    <t xml:space="preserve">11.002893447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7889738082886</t>
   </si>
   <si>
     <t xml:space="preserve">11.1052026748657</t>
@@ -3293,7 +3293,7 @@
     <t xml:space="preserve">10.779673576355</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9935922622681</t>
+    <t xml:space="preserve">10.9935932159424</t>
   </si>
   <si>
     <t xml:space="preserve">9.79378414154053</t>
@@ -3302,13 +3302,13 @@
     <t xml:space="preserve">9.13807487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30565071105957</t>
+    <t xml:space="preserve">8.30564975738525</t>
   </si>
   <si>
     <t xml:space="preserve">8.31494998931885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45446395874023</t>
+    <t xml:space="preserve">8.45446300506592</t>
   </si>
   <si>
     <t xml:space="preserve">8.7985954284668</t>
@@ -3320,22 +3320,22 @@
     <t xml:space="preserve">8.64978218078613</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8497486114502</t>
+    <t xml:space="preserve">8.84974956512451</t>
   </si>
   <si>
     <t xml:space="preserve">8.99391174316406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42175102233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2961893081665</t>
+    <t xml:space="preserve">9.42175006866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29619026184082</t>
   </si>
   <si>
     <t xml:space="preserve">9.34734439849854</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44035148620605</t>
+    <t xml:space="preserve">9.44035243988037</t>
   </si>
   <si>
     <t xml:space="preserve">9.5147590637207</t>
@@ -3344,16 +3344,16 @@
     <t xml:space="preserve">9.46825504302979</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31014156341553</t>
+    <t xml:space="preserve">9.31014060974121</t>
   </si>
   <si>
     <t xml:space="preserve">9.11947441101074</t>
   </si>
   <si>
-    <t xml:space="preserve">9.23108386993408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.68217468261719</t>
+    <t xml:space="preserve">9.2310848236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68217372894287</t>
   </si>
   <si>
     <t xml:space="preserve">9.58916568756104</t>
@@ -3365,22 +3365,22 @@
     <t xml:space="preserve">9.3008394241333</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36594581604004</t>
+    <t xml:space="preserve">9.36594486236572</t>
   </si>
   <si>
     <t xml:space="preserve">9.15202617645264</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74743938446045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56607437133789</t>
+    <t xml:space="preserve">8.74744033813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56607341766357</t>
   </si>
   <si>
     <t xml:space="preserve">8.66838264465332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57537460327148</t>
+    <t xml:space="preserve">8.57537364959717</t>
   </si>
   <si>
     <t xml:space="preserve">8.61257743835449</t>
@@ -3389,13 +3389,13 @@
     <t xml:space="preserve">8.65443134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67303276062012</t>
+    <t xml:space="preserve">8.67303371429443</t>
   </si>
   <si>
     <t xml:space="preserve">8.82649707794189</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26828765869141</t>
+    <t xml:space="preserve">9.26828670501709</t>
   </si>
   <si>
     <t xml:space="preserve">9.02646541595459</t>
@@ -3413,13 +3413,13 @@
     <t xml:space="preserve">8.92880630493164</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80324459075928</t>
+    <t xml:space="preserve">8.80324554443359</t>
   </si>
   <si>
     <t xml:space="preserve">8.6032772064209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48236560821533</t>
+    <t xml:space="preserve">8.48236656188965</t>
   </si>
   <si>
     <t xml:space="preserve">8.55212211608887</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">8.42191028594971</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20783042907715</t>
+    <t xml:space="preserve">9.20783138275146</t>
   </si>
   <si>
     <t xml:space="preserve">10.0077037811279</t>
@@ -3437,13 +3437,13 @@
     <t xml:space="preserve">10.0387487411499</t>
   </si>
   <si>
-    <t xml:space="preserve">9.93378067016602</t>
+    <t xml:space="preserve">9.9337797164917</t>
   </si>
   <si>
     <t xml:space="preserve">9.98149299621582</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2391405105591</t>
+    <t xml:space="preserve">10.2391414642334</t>
   </si>
   <si>
     <t xml:space="preserve">10.4204502105713</t>
@@ -3452,7 +3452,7 @@
     <t xml:space="preserve">10.5826730728149</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3154830932617</t>
+    <t xml:space="preserve">10.3154821395874</t>
   </si>
   <si>
     <t xml:space="preserve">10.3441095352173</t>
@@ -3461,7 +3461,7 @@
     <t xml:space="preserve">10.4013643264771</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2582273483276</t>
+    <t xml:space="preserve">10.2582263946533</t>
   </si>
   <si>
     <t xml:space="preserve">10.4299926757812</t>
@@ -3470,13 +3470,13 @@
     <t xml:space="preserve">10.487247467041</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5254182815552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9910364151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74292945861816</t>
+    <t xml:space="preserve">10.5254173278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99103546142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74293041229248</t>
   </si>
   <si>
     <t xml:space="preserve">9.56162166595459</t>
@@ -3485,7 +3485,7 @@
     <t xml:space="preserve">9.79064273834229</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19423389434814</t>
+    <t xml:space="preserve">9.19423484802246</t>
   </si>
   <si>
     <t xml:space="preserve">9.28488731384277</t>
@@ -3542,10 +3542,10 @@
     <t xml:space="preserve">9.14175033569336</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92227172851562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22763347625732</t>
+    <t xml:space="preserve">8.92227268218994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22763252258301</t>
   </si>
   <si>
     <t xml:space="preserve">9.33260059356689</t>
@@ -3554,10 +3554,10 @@
     <t xml:space="preserve">9.39939880371094</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4375696182251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47573852539062</t>
+    <t xml:space="preserve">9.43756866455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47573947906494</t>
   </si>
   <si>
     <t xml:space="preserve">9.32782936096191</t>
@@ -3569,7 +3569,7 @@
     <t xml:space="preserve">9.18469142913818</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5091381072998</t>
+    <t xml:space="preserve">9.50913715362549</t>
   </si>
   <si>
     <t xml:space="preserve">9.81927013397217</t>
@@ -3593,7 +3593,7 @@
     <t xml:space="preserve">10.1150884628296</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0864601135254</t>
+    <t xml:space="preserve">10.0864610671997</t>
   </si>
   <si>
     <t xml:space="preserve">10.01966381073</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">9.25148868560791</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90795803070068</t>
+    <t xml:space="preserve">8.90795707702637</t>
   </si>
   <si>
     <t xml:space="preserve">8.87455940246582</t>
@@ -3626,19 +3626,19 @@
     <t xml:space="preserve">8.88410186767578</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75050640106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69325065612793</t>
+    <t xml:space="preserve">8.7505054473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69324970245361</t>
   </si>
   <si>
     <t xml:space="preserve">8.76004886627197</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44037342071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42128849029541</t>
+    <t xml:space="preserve">8.44037437438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42128753662109</t>
   </si>
   <si>
     <t xml:space="preserve">8.53579902648926</t>
@@ -3656,19 +3656,19 @@
     <t xml:space="preserve">9.07495212554932</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11312294006348</t>
+    <t xml:space="preserve">9.11312198638916</t>
   </si>
   <si>
     <t xml:space="preserve">8.8268461227417</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61691093444824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63599586486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51671314239502</t>
+    <t xml:space="preserve">8.61690998077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63599491119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51671409606934</t>
   </si>
   <si>
     <t xml:space="preserve">8.39266109466553</t>
@@ -3692,13 +3692,13 @@
     <t xml:space="preserve">7.7676248550415</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10638427734375</t>
+    <t xml:space="preserve">8.10638523101807</t>
   </si>
   <si>
     <t xml:space="preserve">8.26383686065674</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62168216705322</t>
+    <t xml:space="preserve">8.62168121337891</t>
   </si>
   <si>
     <t xml:space="preserve">8.52148532867432</t>
@@ -3710,7 +3710,7 @@
     <t xml:space="preserve">8.61213874816895</t>
   </si>
   <si>
-    <t xml:space="preserve">8.597825050354</t>
+    <t xml:space="preserve">8.59782600402832</t>
   </si>
   <si>
     <t xml:space="preserve">8.99861240386963</t>
@@ -3719,19 +3719,19 @@
     <t xml:space="preserve">8.77913379669189</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92704200744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97952651977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0510950088501</t>
+    <t xml:space="preserve">8.92704296112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97952747344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05109596252441</t>
   </si>
   <si>
     <t xml:space="preserve">9.23240375518799</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24194717407227</t>
+    <t xml:space="preserve">9.24194622039795</t>
   </si>
   <si>
     <t xml:space="preserve">9.29920196533203</t>
@@ -3740,7 +3740,7 @@
     <t xml:space="preserve">9.11789417266846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52822208404541</t>
+    <t xml:space="preserve">9.52822303771973</t>
   </si>
   <si>
     <t xml:space="preserve">9.89560985565186</t>
@@ -3767,13 +3767,13 @@
     <t xml:space="preserve">11.2601928710938</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1170539855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0788850784302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1361408233643</t>
+    <t xml:space="preserve">11.11705493927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0788841247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1361398696899</t>
   </si>
   <si>
     <t xml:space="preserve">10.8975772857666</t>
@@ -3782,16 +3782,16 @@
     <t xml:space="preserve">10.6113004684448</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7162675857544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6590137481689</t>
+    <t xml:space="preserve">10.7162685394287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6590127944946</t>
   </si>
   <si>
     <t xml:space="preserve">10.6971836090088</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5063323974609</t>
+    <t xml:space="preserve">10.5063333511353</t>
   </si>
   <si>
     <t xml:space="preserve">10.5540466308594</t>
@@ -3800,7 +3800,7 @@
     <t xml:space="preserve">10.7258110046387</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5635871887207</t>
+    <t xml:space="preserve">10.563588142395</t>
   </si>
   <si>
     <t xml:space="preserve">10.4490776062012</t>
@@ -3821,10 +3821,10 @@
     <t xml:space="preserve">10.1055459976196</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0101203918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95286560058594</t>
+    <t xml:space="preserve">10.01012134552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95286655426025</t>
   </si>
   <si>
     <t xml:space="preserve">9.82881259918213</t>
@@ -3842,10 +3842,10 @@
     <t xml:space="preserve">10.496789932251</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6208429336548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8689498901367</t>
+    <t xml:space="preserve">10.6208438873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8689489364624</t>
   </si>
   <si>
     <t xml:space="preserve">10.9166612625122</t>
@@ -3869,22 +3869,22 @@
     <t xml:space="preserve">11.0502576828003</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3269901275635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3651609420776</t>
+    <t xml:space="preserve">11.3269910812378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3651599884033</t>
   </si>
   <si>
     <t xml:space="preserve">11.8041172027588</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2239904403687</t>
+    <t xml:space="preserve">12.2239894866943</t>
   </si>
   <si>
     <t xml:space="preserve">12.5579776763916</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7392864227295</t>
+    <t xml:space="preserve">12.7392873764038</t>
   </si>
   <si>
     <t xml:space="preserve">12.7869987487793</t>
@@ -3920,7 +3920,7 @@
     <t xml:space="preserve">13.1400728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3309240341187</t>
+    <t xml:space="preserve">13.3309230804443</t>
   </si>
   <si>
     <t xml:space="preserve">14.2279214859009</t>
@@ -3938,7 +3938,7 @@
     <t xml:space="preserve">13.0541896820068</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2927532196045</t>
+    <t xml:space="preserve">13.2927541732788</t>
   </si>
   <si>
     <t xml:space="preserve">13.3595514297485</t>
@@ -3968,13 +3968,13 @@
     <t xml:space="preserve">12.6724882125854</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6629467010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7774572372437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4339256286621</t>
+    <t xml:space="preserve">12.6629457473755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7774562835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4339246749878</t>
   </si>
   <si>
     <t xml:space="preserve">12.3671274185181</t>
@@ -3983,13 +3983,13 @@
     <t xml:space="preserve">12.8824243545532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2354974746704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7202014923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0255613327026</t>
+    <t xml:space="preserve">13.2354984283447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7202005386353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.025562286377</t>
   </si>
   <si>
     <t xml:space="preserve">12.9587650299072</t>
@@ -4001,7 +4001,7 @@
     <t xml:space="preserve">12.939679145813</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7583703994751</t>
+    <t xml:space="preserve">12.7583713531494</t>
   </si>
   <si>
     <t xml:space="preserve">12.462553024292</t>
@@ -4019,7 +4019,7 @@
     <t xml:space="preserve">13.5504016876221</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7698802947998</t>
+    <t xml:space="preserve">13.7698812484741</t>
   </si>
   <si>
     <t xml:space="preserve">13.7412519454956</t>
@@ -4034,7 +4034,7 @@
     <t xml:space="preserve">13.645827293396</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7889642715454</t>
+    <t xml:space="preserve">13.7889652252197</t>
   </si>
   <si>
     <t xml:space="preserve">13.7794227600098</t>
@@ -4463,9 +4463,6 @@
     <t xml:space="preserve">10.7724723815918</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6848907470703</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.6362352371216</t>
   </si>
   <si>
@@ -4905,6 +4902,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.76299953460693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81999969482422</t>
   </si>
 </sst>
 </file>
@@ -9034,7 +9034,7 @@
         <v>10.1195363998413</v>
       </c>
       <c r="G146" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="H146" t="s">
         <v>9</v>
@@ -9060,7 +9060,7 @@
         <v>10.2294216156006</v>
       </c>
       <c r="G147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H147" t="s">
         <v>9</v>
@@ -9086,7 +9086,7 @@
         <v>10.0595979690552</v>
       </c>
       <c r="G148" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H148" t="s">
         <v>9</v>
@@ -9112,7 +9112,7 @@
         <v>10.4392051696777</v>
       </c>
       <c r="G149" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H149" t="s">
         <v>9</v>
@@ -9138,7 +9138,7 @@
         <v>10.5490922927856</v>
       </c>
       <c r="G150" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H150" t="s">
         <v>9</v>
@@ -9190,7 +9190,7 @@
         <v>10.269380569458</v>
       </c>
       <c r="G152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H152" t="s">
         <v>9</v>
@@ -9216,7 +9216,7 @@
         <v>10.2893600463867</v>
       </c>
       <c r="G153" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H153" t="s">
         <v>9</v>
@@ -9242,7 +9242,7 @@
         <v>10.4392051696777</v>
       </c>
       <c r="G154" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H154" t="s">
         <v>9</v>
@@ -9268,7 +9268,7 @@
         <v>10.3992471694946</v>
       </c>
       <c r="G155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H155" t="s">
         <v>9</v>
@@ -9294,7 +9294,7 @@
         <v>10.5091333389282</v>
       </c>
       <c r="G156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H156" t="s">
         <v>9</v>
@@ -9320,7 +9320,7 @@
         <v>10.4491949081421</v>
       </c>
       <c r="G157" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H157" t="s">
         <v>9</v>
@@ -9346,7 +9346,7 @@
         <v>10.5191230773926</v>
       </c>
       <c r="G158" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H158" t="s">
         <v>9</v>
@@ -9372,7 +9372,7 @@
         <v>10.4292163848877</v>
       </c>
       <c r="G159" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H159" t="s">
         <v>9</v>
@@ -9424,7 +9424,7 @@
         <v>10.2094430923462</v>
       </c>
       <c r="G161" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H161" t="s">
         <v>9</v>
@@ -9450,7 +9450,7 @@
         <v>10.1594953536987</v>
       </c>
       <c r="G162" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H162" t="s">
         <v>9</v>
@@ -9476,7 +9476,7 @@
         <v>10.1994533538818</v>
       </c>
       <c r="G163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H163" t="s">
         <v>9</v>
@@ -9502,7 +9502,7 @@
         <v>10.1095457077026</v>
       </c>
       <c r="G164" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H164" t="s">
         <v>9</v>
@@ -9528,7 +9528,7 @@
         <v>10.1395149230957</v>
       </c>
       <c r="G165" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H165" t="s">
         <v>9</v>
@@ -9554,7 +9554,7 @@
         <v>10.269380569458</v>
       </c>
       <c r="G166" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H166" t="s">
         <v>9</v>
@@ -9580,7 +9580,7 @@
         <v>10.3992471694946</v>
       </c>
       <c r="G167" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H167" t="s">
         <v>9</v>
@@ -9606,7 +9606,7 @@
         <v>10.3992471694946</v>
       </c>
       <c r="G168" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H168" t="s">
         <v>9</v>
@@ -9658,7 +9658,7 @@
         <v>10.4092359542847</v>
       </c>
       <c r="G170" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H170" t="s">
         <v>9</v>
@@ -9684,7 +9684,7 @@
         <v>10.4591846466064</v>
       </c>
       <c r="G171" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H171" t="s">
         <v>9</v>
@@ -9710,7 +9710,7 @@
         <v>10.4591846466064</v>
       </c>
       <c r="G172" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H172" t="s">
         <v>9</v>
@@ -9736,7 +9736,7 @@
         <v>10.4292163848877</v>
       </c>
       <c r="G173" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H173" t="s">
         <v>9</v>
@@ -9762,7 +9762,7 @@
         <v>10.4791641235352</v>
       </c>
       <c r="G174" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H174" t="s">
         <v>9</v>
@@ -9814,7 +9814,7 @@
         <v>10.6989374160767</v>
       </c>
       <c r="G176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H176" t="s">
         <v>9</v>
@@ -9840,7 +9840,7 @@
         <v>10.6389989852905</v>
       </c>
       <c r="G177" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H177" t="s">
         <v>9</v>
@@ -9944,7 +9944,7 @@
         <v>10.4392051696777</v>
       </c>
       <c r="G181" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
@@ -10022,7 +10022,7 @@
         <v>10.4292163848877</v>
       </c>
       <c r="G184" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
@@ -10100,7 +10100,7 @@
         <v>10.688946723938</v>
       </c>
       <c r="G187" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H187" t="s">
         <v>9</v>
@@ -10126,7 +10126,7 @@
         <v>10.56907081604</v>
       </c>
       <c r="G188" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H188" t="s">
         <v>9</v>
@@ -10152,7 +10152,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G189" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
@@ -10178,7 +10178,7 @@
         <v>10.4491949081421</v>
       </c>
       <c r="G190" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H190" t="s">
         <v>9</v>
@@ -10230,7 +10230,7 @@
         <v>10.56907081604</v>
       </c>
       <c r="G192" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
@@ -10256,7 +10256,7 @@
         <v>10.6090297698975</v>
       </c>
       <c r="G193" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H193" t="s">
         <v>9</v>
@@ -10282,7 +10282,7 @@
         <v>10.7089262008667</v>
       </c>
       <c r="G194" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H194" t="s">
         <v>9</v>
@@ -10308,7 +10308,7 @@
         <v>10.8887405395508</v>
       </c>
       <c r="G195" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H195" t="s">
         <v>9</v>
@@ -10334,7 +10334,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G196" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H196" t="s">
         <v>9</v>
@@ -10360,7 +10360,7 @@
         <v>10.5990400314331</v>
       </c>
       <c r="G197" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
@@ -10386,7 +10386,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G198" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H198" t="s">
         <v>9</v>
@@ -10412,7 +10412,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G199" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
@@ -10438,7 +10438,7 @@
         <v>10.3792667388916</v>
       </c>
       <c r="G200" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H200" t="s">
         <v>9</v>
@@ -10516,7 +10516,7 @@
         <v>10.4691743850708</v>
       </c>
       <c r="G203" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H203" t="s">
         <v>9</v>
@@ -10542,7 +10542,7 @@
         <v>10.56907081604</v>
       </c>
       <c r="G204" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
@@ -10568,7 +10568,7 @@
         <v>10.5091333389282</v>
       </c>
       <c r="G205" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H205" t="s">
         <v>9</v>
@@ -10594,7 +10594,7 @@
         <v>10.6090297698975</v>
       </c>
       <c r="G206" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H206" t="s">
         <v>9</v>
@@ -10620,7 +10620,7 @@
         <v>10.6190185546875</v>
       </c>
       <c r="G207" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
@@ -10646,7 +10646,7 @@
         <v>10.5291118621826</v>
       </c>
       <c r="G208" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
@@ -10672,7 +10672,7 @@
         <v>10.5890502929688</v>
       </c>
       <c r="G209" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H209" t="s">
         <v>9</v>
@@ -10724,7 +10724,7 @@
         <v>10.8787508010864</v>
       </c>
       <c r="G211" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
@@ -10750,7 +10750,7 @@
         <v>10.9986267089844</v>
       </c>
       <c r="G212" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H212" t="s">
         <v>9</v>
@@ -10776,7 +10776,7 @@
         <v>11.1684513092041</v>
       </c>
       <c r="G213" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
@@ -10802,7 +10802,7 @@
         <v>11.2483692169189</v>
       </c>
       <c r="G214" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
@@ -10828,7 +10828,7 @@
         <v>11.258358001709</v>
       </c>
       <c r="G215" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
@@ -10854,7 +10854,7 @@
         <v>11.008617401123</v>
       </c>
       <c r="G216" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H216" t="s">
         <v>9</v>
@@ -10880,7 +10880,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G217" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H217" t="s">
         <v>9</v>
@@ -10906,7 +10906,7 @@
         <v>10.5590810775757</v>
       </c>
       <c r="G218" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H218" t="s">
         <v>9</v>
@@ -10932,7 +10932,7 @@
         <v>11.0585651397705</v>
       </c>
       <c r="G219" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
@@ -10958,7 +10958,7 @@
         <v>11.3682451248169</v>
       </c>
       <c r="G220" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
@@ -10984,7 +10984,7 @@
         <v>11.0385856628418</v>
       </c>
       <c r="G221" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
@@ -11010,7 +11010,7 @@
         <v>10.828803062439</v>
       </c>
       <c r="G222" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H222" t="s">
         <v>9</v>
@@ -11036,7 +11036,7 @@
         <v>10.98863697052</v>
       </c>
       <c r="G223" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H223" t="s">
         <v>9</v>
@@ -11062,7 +11062,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G224" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H224" t="s">
         <v>9</v>
@@ -11088,7 +11088,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G225" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H225" t="s">
         <v>9</v>
@@ -11114,7 +11114,7 @@
         <v>10.7289056777954</v>
       </c>
       <c r="G226" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H226" t="s">
         <v>9</v>
@@ -11140,7 +11140,7 @@
         <v>10.6389989852905</v>
       </c>
       <c r="G227" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H227" t="s">
         <v>9</v>
@@ -11166,7 +11166,7 @@
         <v>10.6190185546875</v>
       </c>
       <c r="G228" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H228" t="s">
         <v>9</v>
@@ -11218,7 +11218,7 @@
         <v>10.7388954162598</v>
       </c>
       <c r="G230" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H230" t="s">
         <v>9</v>
@@ -11244,7 +11244,7 @@
         <v>10.7388954162598</v>
       </c>
       <c r="G231" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H231" t="s">
         <v>9</v>
@@ -11270,7 +11270,7 @@
         <v>10.7488851547241</v>
       </c>
       <c r="G232" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H232" t="s">
         <v>9</v>
@@ -11296,7 +11296,7 @@
         <v>10.838791847229</v>
       </c>
       <c r="G233" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H233" t="s">
         <v>9</v>
@@ -11348,7 +11348,7 @@
         <v>10.7388954162598</v>
       </c>
       <c r="G235" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H235" t="s">
         <v>9</v>
@@ -11374,7 +11374,7 @@
         <v>10.8088226318359</v>
       </c>
       <c r="G236" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H236" t="s">
         <v>9</v>
@@ -11400,7 +11400,7 @@
         <v>10.7089262008667</v>
       </c>
       <c r="G237" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H237" t="s">
         <v>9</v>
@@ -11426,7 +11426,7 @@
         <v>10.539101600647</v>
       </c>
       <c r="G238" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H238" t="s">
         <v>9</v>
@@ -11452,7 +11452,7 @@
         <v>10.5590810775757</v>
       </c>
       <c r="G239" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H239" t="s">
         <v>9</v>
@@ -11504,7 +11504,7 @@
         <v>10.9686584472656</v>
       </c>
       <c r="G241" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H241" t="s">
         <v>9</v>
@@ -11530,7 +11530,7 @@
         <v>11.0985240936279</v>
       </c>
       <c r="G242" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H242" t="s">
         <v>9</v>
@@ -11556,7 +11556,7 @@
         <v>10.9686584472656</v>
       </c>
       <c r="G243" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H243" t="s">
         <v>9</v>
@@ -11582,7 +11582,7 @@
         <v>10.828803062439</v>
       </c>
       <c r="G244" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H244" t="s">
         <v>9</v>
@@ -11608,7 +11608,7 @@
         <v>11.008617401123</v>
       </c>
       <c r="G245" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H245" t="s">
         <v>9</v>
@@ -11634,7 +11634,7 @@
         <v>10.8887405395508</v>
       </c>
       <c r="G246" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H246" t="s">
         <v>9</v>
@@ -11660,7 +11660,7 @@
         <v>10.98863697052</v>
       </c>
       <c r="G247" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H247" t="s">
         <v>9</v>
@@ -11686,7 +11686,7 @@
         <v>10.8088226318359</v>
       </c>
       <c r="G248" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H248" t="s">
         <v>9</v>
@@ -11712,7 +11712,7 @@
         <v>10.7289056777954</v>
       </c>
       <c r="G249" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H249" t="s">
         <v>9</v>
@@ -11738,7 +11738,7 @@
         <v>10.7688636779785</v>
       </c>
       <c r="G250" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H250" t="s">
         <v>9</v>
@@ -11764,7 +11764,7 @@
         <v>10.9087200164795</v>
       </c>
       <c r="G251" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H251" t="s">
         <v>9</v>
@@ -11790,7 +11790,7 @@
         <v>10.9187097549438</v>
       </c>
       <c r="G252" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H252" t="s">
         <v>9</v>
@@ -11816,7 +11816,7 @@
         <v>11.0685548782349</v>
       </c>
       <c r="G253" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H253" t="s">
         <v>9</v>
@@ -11842,7 +11842,7 @@
         <v>11.2084102630615</v>
       </c>
       <c r="G254" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H254" t="s">
         <v>9</v>
@@ -11868,7 +11868,7 @@
         <v>11.2683477401733</v>
       </c>
       <c r="G255" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H255" t="s">
         <v>9</v>
@@ -11894,7 +11894,7 @@
         <v>11.4181928634644</v>
       </c>
       <c r="G256" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H256" t="s">
         <v>9</v>
@@ -11920,7 +11920,7 @@
         <v>11.4881210327148</v>
       </c>
       <c r="G257" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H257" t="s">
         <v>9</v>
@@ -11946,7 +11946,7 @@
         <v>11.9876041412354</v>
       </c>
       <c r="G258" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H258" t="s">
         <v>9</v>
@@ -11972,7 +11972,7 @@
         <v>12.0575323104858</v>
       </c>
       <c r="G259" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H259" t="s">
         <v>9</v>
@@ -11998,7 +11998,7 @@
         <v>11.8177795410156</v>
       </c>
       <c r="G260" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H260" t="s">
         <v>9</v>
@@ -12024,7 +12024,7 @@
         <v>11.9576349258423</v>
       </c>
       <c r="G261" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H261" t="s">
         <v>9</v>
@@ -12050,7 +12050,7 @@
         <v>12.0075836181641</v>
       </c>
       <c r="G262" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H262" t="s">
         <v>9</v>
@@ -12076,7 +12076,7 @@
         <v>12.0375528335571</v>
       </c>
       <c r="G263" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H263" t="s">
         <v>9</v>
@@ -12102,7 +12102,7 @@
         <v>12.0974912643433</v>
       </c>
       <c r="G264" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H264" t="s">
         <v>9</v>
@@ -12128,7 +12128,7 @@
         <v>12.277304649353</v>
       </c>
       <c r="G265" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H265" t="s">
         <v>9</v>
@@ -12154,7 +12154,7 @@
         <v>12.0575323104858</v>
       </c>
       <c r="G266" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H266" t="s">
         <v>9</v>
@@ -12180,7 +12180,7 @@
         <v>12.3072738647461</v>
       </c>
       <c r="G267" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H267" t="s">
         <v>9</v>
@@ -12206,7 +12206,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G268" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H268" t="s">
         <v>9</v>
@@ -12232,7 +12232,7 @@
         <v>12.2673149108887</v>
       </c>
       <c r="G269" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H269" t="s">
         <v>9</v>
@@ -12258,7 +12258,7 @@
         <v>12.2173671722412</v>
       </c>
       <c r="G270" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H270" t="s">
         <v>9</v>
@@ -12284,7 +12284,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G271" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H271" t="s">
         <v>9</v>
@@ -12310,7 +12310,7 @@
         <v>12.1774082183838</v>
       </c>
       <c r="G272" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H272" t="s">
         <v>9</v>
@@ -12336,7 +12336,7 @@
         <v>12.2473363876343</v>
       </c>
       <c r="G273" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H273" t="s">
         <v>9</v>
@@ -12362,7 +12362,7 @@
         <v>12.2073774337769</v>
       </c>
       <c r="G274" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H274" t="s">
         <v>9</v>
@@ -12388,7 +12388,7 @@
         <v>12.2972841262817</v>
       </c>
       <c r="G275" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H275" t="s">
         <v>9</v>
@@ -12414,7 +12414,7 @@
         <v>12.1873979568481</v>
       </c>
       <c r="G276" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H276" t="s">
         <v>9</v>
@@ -12440,7 +12440,7 @@
         <v>12.1474390029907</v>
       </c>
       <c r="G277" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H277" t="s">
         <v>9</v>
@@ -12466,7 +12466,7 @@
         <v>11.9876041412354</v>
       </c>
       <c r="G278" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H278" t="s">
         <v>9</v>
@@ -12492,7 +12492,7 @@
         <v>11.8477487564087</v>
       </c>
       <c r="G279" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H279" t="s">
         <v>9</v>
@@ -12518,7 +12518,7 @@
         <v>12.2173671722412</v>
       </c>
       <c r="G280" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H280" t="s">
         <v>9</v>
@@ -12544,7 +12544,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G281" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H281" t="s">
         <v>9</v>
@@ -12570,7 +12570,7 @@
         <v>12.4071702957153</v>
       </c>
       <c r="G282" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H282" t="s">
         <v>9</v>
@@ -12596,7 +12596,7 @@
         <v>12.127459526062</v>
       </c>
       <c r="G283" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H283" t="s">
         <v>9</v>
@@ -12622,7 +12622,7 @@
         <v>12.1174697875977</v>
       </c>
       <c r="G284" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H284" t="s">
         <v>9</v>
@@ -12648,7 +12648,7 @@
         <v>12.2473363876343</v>
       </c>
       <c r="G285" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H285" t="s">
         <v>9</v>
@@ -12674,7 +12674,7 @@
         <v>12.2473363876343</v>
       </c>
       <c r="G286" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H286" t="s">
         <v>9</v>
@@ -12700,7 +12700,7 @@
         <v>12.4071702957153</v>
       </c>
       <c r="G287" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H287" t="s">
         <v>9</v>
@@ -12726,7 +12726,7 @@
         <v>12.6669015884399</v>
       </c>
       <c r="G288" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H288" t="s">
         <v>9</v>
@@ -12752,7 +12752,7 @@
         <v>12.5670051574707</v>
       </c>
       <c r="G289" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H289" t="s">
         <v>9</v>
@@ -12778,7 +12778,7 @@
         <v>12.6569118499756</v>
       </c>
       <c r="G290" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H290" t="s">
         <v>9</v>
@@ -12804,7 +12804,7 @@
         <v>12.5670051574707</v>
       </c>
       <c r="G291" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H291" t="s">
         <v>9</v>
@@ -12830,7 +12830,7 @@
         <v>12.4970779418945</v>
       </c>
       <c r="G292" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H292" t="s">
         <v>9</v>
@@ -12856,7 +12856,7 @@
         <v>12.5969743728638</v>
       </c>
       <c r="G293" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H293" t="s">
         <v>9</v>
@@ -12882,7 +12882,7 @@
         <v>12.8567056655884</v>
       </c>
       <c r="G294" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H294" t="s">
         <v>9</v>
@@ -12908,7 +12908,7 @@
         <v>12.8966636657715</v>
       </c>
       <c r="G295" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H295" t="s">
         <v>9</v>
@@ -12934,7 +12934,7 @@
         <v>12.816746711731</v>
       </c>
       <c r="G296" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H296" t="s">
         <v>9</v>
@@ -12960,7 +12960,7 @@
         <v>12.5170574188232</v>
       </c>
       <c r="G297" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H297" t="s">
         <v>9</v>
@@ -12986,7 +12986,7 @@
         <v>12.8067569732666</v>
       </c>
       <c r="G298" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H298" t="s">
         <v>9</v>
@@ -13012,7 +13012,7 @@
         <v>12.6669015884399</v>
       </c>
       <c r="G299" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H299" t="s">
         <v>9</v>
@@ -13038,7 +13038,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G300" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H300" t="s">
         <v>9</v>
@@ -13064,7 +13064,7 @@
         <v>13.1863651275635</v>
       </c>
       <c r="G301" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H301" t="s">
         <v>9</v>
@@ -13090,7 +13090,7 @@
         <v>13.1464061737061</v>
       </c>
       <c r="G302" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H302" t="s">
         <v>9</v>
@@ -13116,7 +13116,7 @@
         <v>12.9566020965576</v>
       </c>
       <c r="G303" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H303" t="s">
         <v>9</v>
@@ -13142,7 +13142,7 @@
         <v>12.966591835022</v>
       </c>
       <c r="G304" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H304" t="s">
         <v>9</v>
@@ -13168,7 +13168,7 @@
         <v>13.0764780044556</v>
       </c>
       <c r="G305" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H305" t="s">
         <v>9</v>
@@ -13194,7 +13194,7 @@
         <v>12.9765815734863</v>
       </c>
       <c r="G306" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H306" t="s">
         <v>9</v>
@@ -13220,7 +13220,7 @@
         <v>12.9765815734863</v>
       </c>
       <c r="G307" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H307" t="s">
         <v>9</v>
@@ -13246,7 +13246,7 @@
         <v>13.1863651275635</v>
       </c>
       <c r="G308" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H308" t="s">
         <v>9</v>
@@ -13272,7 +13272,7 @@
         <v>13.2762718200684</v>
       </c>
       <c r="G309" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H309" t="s">
         <v>9</v>
@@ -13298,7 +13298,7 @@
         <v>13.1064472198486</v>
       </c>
       <c r="G310" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H310" t="s">
         <v>9</v>
@@ -13324,7 +13324,7 @@
         <v>13.2862615585327</v>
       </c>
       <c r="G311" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H311" t="s">
         <v>9</v>
@@ -13350,7 +13350,7 @@
         <v>13.536003112793</v>
       </c>
       <c r="G312" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H312" t="s">
         <v>9</v>
@@ -13376,7 +13376,7 @@
         <v>13.4460964202881</v>
       </c>
       <c r="G313" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H313" t="s">
         <v>9</v>
@@ -13402,7 +13402,7 @@
         <v>13.5060338973999</v>
       </c>
       <c r="G314" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H314" t="s">
         <v>9</v>
@@ -13428,7 +13428,7 @@
         <v>13.5459928512573</v>
       </c>
       <c r="G315" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H315" t="s">
         <v>9</v>
@@ -13454,7 +13454,7 @@
         <v>13.5759620666504</v>
       </c>
       <c r="G316" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H316" t="s">
         <v>9</v>
@@ -13480,7 +13480,7 @@
         <v>13.6458902359009</v>
       </c>
       <c r="G317" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H317" t="s">
         <v>9</v>
@@ -13506,7 +13506,7 @@
         <v>13.7058277130127</v>
       </c>
       <c r="G318" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H318" t="s">
         <v>9</v>
@@ -13532,7 +13532,7 @@
         <v>13.7757549285889</v>
       </c>
       <c r="G319" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H319" t="s">
         <v>9</v>
@@ -13558,7 +13558,7 @@
         <v>13.8456830978394</v>
       </c>
       <c r="G320" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H320" t="s">
         <v>9</v>
@@ -13584,7 +13584,7 @@
         <v>13.835693359375</v>
       </c>
       <c r="G321" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H321" t="s">
         <v>9</v>
@@ -13610,7 +13610,7 @@
         <v>13.8556728363037</v>
       </c>
       <c r="G322" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H322" t="s">
         <v>9</v>
@@ -13636,7 +13636,7 @@
         <v>14.1253938674927</v>
       </c>
       <c r="G323" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H323" t="s">
         <v>9</v>
@@ -13662,7 +13662,7 @@
         <v>14.1453733444214</v>
       </c>
       <c r="G324" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H324" t="s">
         <v>9</v>
@@ -13688,7 +13688,7 @@
         <v>14.1253938674927</v>
       </c>
       <c r="G325" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H325" t="s">
         <v>9</v>
@@ -13714,7 +13714,7 @@
         <v>14.1253938674927</v>
       </c>
       <c r="G326" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H326" t="s">
         <v>9</v>
@@ -13740,7 +13740,7 @@
         <v>14.0654563903809</v>
       </c>
       <c r="G327" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H327" t="s">
         <v>9</v>
@@ -13766,7 +13766,7 @@
         <v>14.0554656982422</v>
       </c>
       <c r="G328" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H328" t="s">
         <v>9</v>
@@ -13792,7 +13792,7 @@
         <v>14.1054153442383</v>
       </c>
       <c r="G329" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H329" t="s">
         <v>9</v>
@@ -13818,7 +13818,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G330" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H330" t="s">
         <v>9</v>
@@ -13844,7 +13844,7 @@
         <v>14.0954246520996</v>
       </c>
       <c r="G331" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H331" t="s">
         <v>9</v>
@@ -13870,7 +13870,7 @@
         <v>13.7757549285889</v>
       </c>
       <c r="G332" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H332" t="s">
         <v>9</v>
@@ -13896,7 +13896,7 @@
         <v>13.9455795288086</v>
       </c>
       <c r="G333" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H333" t="s">
         <v>9</v>
@@ -13922,7 +13922,7 @@
         <v>14.0754451751709</v>
       </c>
       <c r="G334" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H334" t="s">
         <v>9</v>
@@ -13948,7 +13948,7 @@
         <v>13.8856420516968</v>
       </c>
       <c r="G335" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H335" t="s">
         <v>9</v>
@@ -13974,7 +13974,7 @@
         <v>14.3851251602173</v>
       </c>
       <c r="G336" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H336" t="s">
         <v>9</v>
@@ -14000,7 +14000,7 @@
         <v>14.5050010681152</v>
       </c>
       <c r="G337" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H337" t="s">
         <v>9</v>
@@ -14026,7 +14026,7 @@
         <v>14.3351774215698</v>
       </c>
       <c r="G338" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H338" t="s">
         <v>9</v>
@@ -14052,7 +14052,7 @@
         <v>14.4250841140747</v>
       </c>
       <c r="G339" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H339" t="s">
         <v>9</v>
@@ -14078,7 +14078,7 @@
         <v>14.4150943756104</v>
       </c>
       <c r="G340" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H340" t="s">
         <v>9</v>
@@ -14104,7 +14104,7 @@
         <v>14.6148881912231</v>
       </c>
       <c r="G341" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H341" t="s">
         <v>9</v>
@@ -14130,7 +14130,7 @@
         <v>14.4950122833252</v>
       </c>
       <c r="G342" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H342" t="s">
         <v>9</v>
@@ -14156,7 +14156,7 @@
         <v>14.7847118377686</v>
       </c>
       <c r="G343" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H343" t="s">
         <v>9</v>
@@ -14182,7 +14182,7 @@
         <v>14.9045877456665</v>
       </c>
       <c r="G344" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H344" t="s">
         <v>9</v>
@@ -14208,7 +14208,7 @@
         <v>14.8146810531616</v>
       </c>
       <c r="G345" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H345" t="s">
         <v>9</v>
@@ -14234,7 +14234,7 @@
         <v>15.0444440841675</v>
       </c>
       <c r="G346" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H346" t="s">
         <v>9</v>
@@ -14260,7 +14260,7 @@
         <v>15.0844020843506</v>
       </c>
       <c r="G347" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H347" t="s">
         <v>9</v>
@@ -14286,7 +14286,7 @@
         <v>14.7647333145142</v>
       </c>
       <c r="G348" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H348" t="s">
         <v>9</v>
@@ -14312,7 +14312,7 @@
         <v>14.6648359298706</v>
       </c>
       <c r="G349" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H349" t="s">
         <v>9</v>
@@ -14338,7 +14338,7 @@
         <v>14.674825668335</v>
       </c>
       <c r="G350" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H350" t="s">
         <v>9</v>
@@ -14364,7 +14364,7 @@
         <v>14.5349702835083</v>
       </c>
       <c r="G351" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H351" t="s">
         <v>9</v>
@@ -14390,7 +14390,7 @@
         <v>14.0055179595947</v>
       </c>
       <c r="G352" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H352" t="s">
         <v>9</v>
@@ -14416,7 +14416,7 @@
         <v>13.8956308364868</v>
       </c>
       <c r="G353" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H353" t="s">
         <v>9</v>
@@ -14442,7 +14442,7 @@
         <v>14.2053108215332</v>
       </c>
       <c r="G354" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H354" t="s">
         <v>9</v>
@@ -14468,7 +14468,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G355" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H355" t="s">
         <v>9</v>
@@ -14494,7 +14494,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G356" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H356" t="s">
         <v>9</v>
@@ -14520,7 +14520,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G357" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H357" t="s">
         <v>9</v>
@@ -14546,7 +14546,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G358" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H358" t="s">
         <v>9</v>
@@ -14572,7 +14572,7 @@
         <v>14.1753416061401</v>
       </c>
       <c r="G359" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H359" t="s">
         <v>9</v>
@@ -14598,7 +14598,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G360" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H360" t="s">
         <v>9</v>
@@ -14624,7 +14624,7 @@
         <v>14.4250841140747</v>
       </c>
       <c r="G361" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H361" t="s">
         <v>9</v>
@@ -14650,7 +14650,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G362" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H362" t="s">
         <v>9</v>
@@ -14676,7 +14676,7 @@
         <v>13.9755487442017</v>
       </c>
       <c r="G363" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H363" t="s">
         <v>9</v>
@@ -14702,7 +14702,7 @@
         <v>13.8257036209106</v>
       </c>
       <c r="G364" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H364" t="s">
         <v>9</v>
@@ -14728,7 +14728,7 @@
         <v>14.0055179595947</v>
       </c>
       <c r="G365" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -16678,7 +16678,7 @@
         <v>14.1553630828857</v>
       </c>
       <c r="G440" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H440" t="s">
         <v>9</v>
@@ -16886,7 +16886,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G448" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H448" t="s">
         <v>9</v>
@@ -16912,7 +16912,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G449" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H449" t="s">
         <v>9</v>
@@ -16964,7 +16964,7 @@
         <v>14.3052082061768</v>
       </c>
       <c r="G451" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H451" t="s">
         <v>9</v>
@@ -17354,7 +17354,7 @@
         <v>13.8257036209106</v>
       </c>
       <c r="G466" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H466" t="s">
         <v>9</v>
@@ -27052,7 +27052,7 @@
         <v>11.5680379867554</v>
       </c>
       <c r="G839" t="s">
-        <v>621</v>
+        <v>439</v>
       </c>
       <c r="H839" t="s">
         <v>9</v>
@@ -27104,7 +27104,7 @@
         <v>11.8677282333374</v>
       </c>
       <c r="G841" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H841" t="s">
         <v>9</v>
@@ -27286,7 +27286,7 @@
         <v>11.4181928634644</v>
       </c>
       <c r="G848" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H848" t="s">
         <v>9</v>
@@ -27338,7 +27338,7 @@
         <v>11.1984195709229</v>
       </c>
       <c r="G850" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H850" t="s">
         <v>9</v>
@@ -27390,7 +27390,7 @@
         <v>11.0685548782349</v>
       </c>
       <c r="G852" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H852" t="s">
         <v>9</v>
@@ -27468,7 +27468,7 @@
         <v>10.3193292617798</v>
       </c>
       <c r="G855" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H855" t="s">
         <v>9</v>
@@ -27494,7 +27494,7 @@
         <v>10.419225692749</v>
       </c>
       <c r="G856" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H856" t="s">
         <v>9</v>
@@ -27520,7 +27520,7 @@
         <v>10.2893600463867</v>
       </c>
       <c r="G857" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H857" t="s">
         <v>9</v>
@@ -27572,7 +27572,7 @@
         <v>9.97468566894531</v>
       </c>
       <c r="G859" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H859" t="s">
         <v>9</v>
@@ -27598,7 +27598,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G860" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H860" t="s">
         <v>9</v>
@@ -27624,7 +27624,7 @@
         <v>9.9547061920166</v>
       </c>
       <c r="G861" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H861" t="s">
         <v>9</v>
@@ -27650,7 +27650,7 @@
         <v>9.59008312225342</v>
       </c>
       <c r="G862" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H862" t="s">
         <v>9</v>
@@ -27676,7 +27676,7 @@
         <v>9.71994876861572</v>
       </c>
       <c r="G863" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H863" t="s">
         <v>9</v>
@@ -27702,7 +27702,7 @@
         <v>9.7698974609375</v>
       </c>
       <c r="G864" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H864" t="s">
         <v>9</v>
@@ -27728,7 +27728,7 @@
         <v>9.77988719940186</v>
       </c>
       <c r="G865" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H865" t="s">
         <v>9</v>
@@ -27754,7 +27754,7 @@
         <v>9.65002059936523</v>
       </c>
       <c r="G866" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H866" t="s">
         <v>9</v>
@@ -27780,7 +27780,7 @@
         <v>9.73992824554443</v>
       </c>
       <c r="G867" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H867" t="s">
         <v>9</v>
@@ -27806,7 +27806,7 @@
         <v>9.60007286071777</v>
       </c>
       <c r="G868" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H868" t="s">
         <v>9</v>
@@ -27832,7 +27832,7 @@
         <v>9.32036209106445</v>
       </c>
       <c r="G869" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H869" t="s">
         <v>9</v>
@@ -27858,7 +27858,7 @@
         <v>9.54013538360596</v>
       </c>
       <c r="G870" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H870" t="s">
         <v>9</v>
@@ -27884,7 +27884,7 @@
         <v>9.75990772247314</v>
       </c>
       <c r="G871" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H871" t="s">
         <v>9</v>
@@ -27910,7 +27910,7 @@
         <v>9.88477897644043</v>
       </c>
       <c r="G872" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H872" t="s">
         <v>9</v>
@@ -27936,7 +27936,7 @@
         <v>9.8647985458374</v>
       </c>
       <c r="G873" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H873" t="s">
         <v>9</v>
@@ -27962,7 +27962,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G874" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H874" t="s">
         <v>9</v>
@@ -27988,7 +27988,7 @@
         <v>10.1295261383057</v>
       </c>
       <c r="G875" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H875" t="s">
         <v>9</v>
@@ -28014,7 +28014,7 @@
         <v>9.96969127655029</v>
       </c>
       <c r="G876" t="s">
-        <v>547</v>
+        <v>644</v>
       </c>
       <c r="H876" t="s">
         <v>9</v>
@@ -28092,7 +28092,7 @@
         <v>9.8647985458374</v>
       </c>
       <c r="G879" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H879" t="s">
         <v>9</v>
@@ -28274,7 +28274,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G886" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H886" t="s">
         <v>9</v>
@@ -28300,7 +28300,7 @@
         <v>9.97468566894531</v>
       </c>
       <c r="G887" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H887" t="s">
         <v>9</v>
@@ -28612,7 +28612,7 @@
         <v>9.96969127655029</v>
       </c>
       <c r="G899" t="s">
-        <v>547</v>
+        <v>644</v>
       </c>
       <c r="H899" t="s">
         <v>9</v>
@@ -28638,7 +28638,7 @@
         <v>9.98966979980469</v>
       </c>
       <c r="G900" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H900" t="s">
         <v>9</v>
@@ -28872,7 +28872,7 @@
         <v>9.73992824554443</v>
       </c>
       <c r="G909" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H909" t="s">
         <v>9</v>
@@ -29730,7 +29730,7 @@
         <v>9.65002059936523</v>
       </c>
       <c r="G942" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H942" t="s">
         <v>9</v>
@@ -37348,7 +37348,7 @@
         <v>9.54013538360596</v>
       </c>
       <c r="G1235" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -58434,7 +58434,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G2046" t="s">
-        <v>1483</v>
+        <v>415</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -58486,7 +58486,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G2048" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -58512,7 +58512,7 @@
         <v>10.8500003814697</v>
       </c>
       <c r="G2049" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -58538,7 +58538,7 @@
         <v>10.8100004196167</v>
       </c>
       <c r="G2050" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -58564,7 +58564,7 @@
         <v>10.8000001907349</v>
       </c>
       <c r="G2051" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -58590,7 +58590,7 @@
         <v>10.8699998855591</v>
       </c>
       <c r="G2052" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -58616,7 +58616,7 @@
         <v>10.9300003051758</v>
       </c>
       <c r="G2053" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -58642,7 +58642,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G2054" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -58668,7 +58668,7 @@
         <v>11.5100002288818</v>
       </c>
       <c r="G2055" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -58694,7 +58694,7 @@
         <v>11.2700004577637</v>
       </c>
       <c r="G2056" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -58720,7 +58720,7 @@
         <v>11.4700002670288</v>
       </c>
       <c r="G2057" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -58746,7 +58746,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G2058" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -58798,7 +58798,7 @@
         <v>11.6199998855591</v>
       </c>
       <c r="G2060" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -58824,7 +58824,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G2061" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -58850,7 +58850,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2062" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -58876,7 +58876,7 @@
         <v>11.5500001907349</v>
       </c>
       <c r="G2063" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -58928,7 +58928,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2065" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -58954,7 +58954,7 @@
         <v>11.210000038147</v>
       </c>
       <c r="G2066" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -58980,7 +58980,7 @@
         <v>11.1800003051758</v>
       </c>
       <c r="G2067" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59006,7 +59006,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2068" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59032,7 +59032,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G2069" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59058,7 +59058,7 @@
         <v>11.6800003051758</v>
       </c>
       <c r="G2070" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59084,7 +59084,7 @@
         <v>11.5100002288818</v>
       </c>
       <c r="G2071" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59110,7 +59110,7 @@
         <v>11.3100004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -59136,7 +59136,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G2073" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -59162,7 +59162,7 @@
         <v>11.4899997711182</v>
       </c>
       <c r="G2074" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -59188,7 +59188,7 @@
         <v>11.6400003433228</v>
       </c>
       <c r="G2075" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -59266,7 +59266,7 @@
         <v>11.5</v>
       </c>
       <c r="G2078" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -59292,7 +59292,7 @@
         <v>11.4300003051758</v>
       </c>
       <c r="G2079" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -59318,7 +59318,7 @@
         <v>11.6300001144409</v>
       </c>
       <c r="G2080" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -59344,7 +59344,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2081" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -59370,7 +59370,7 @@
         <v>11.7200002670288</v>
       </c>
       <c r="G2082" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -59396,7 +59396,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2083" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -59422,7 +59422,7 @@
         <v>11.5900001525879</v>
       </c>
       <c r="G2084" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -59448,7 +59448,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G2085" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -59500,7 +59500,7 @@
         <v>11.4099998474121</v>
       </c>
       <c r="G2087" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -59526,7 +59526,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G2088" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -59552,7 +59552,7 @@
         <v>11.3299999237061</v>
       </c>
       <c r="G2089" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -59578,7 +59578,7 @@
         <v>11.3699998855591</v>
       </c>
       <c r="G2090" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -59630,7 +59630,7 @@
         <v>11.9099998474121</v>
       </c>
       <c r="G2092" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -59656,7 +59656,7 @@
         <v>11.789999961853</v>
       </c>
       <c r="G2093" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -59682,7 +59682,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2094" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -59708,7 +59708,7 @@
         <v>11.8999996185303</v>
       </c>
       <c r="G2095" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -59734,7 +59734,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2096" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59760,7 +59760,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2097" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -59786,7 +59786,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2098" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -59812,7 +59812,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2099" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -59838,7 +59838,7 @@
         <v>11.7700004577637</v>
       </c>
       <c r="G2100" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -59864,7 +59864,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2101" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -59890,7 +59890,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2102" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -59916,7 +59916,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2103" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -59968,7 +59968,7 @@
         <v>12</v>
       </c>
       <c r="G2105" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -59994,7 +59994,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2106" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60020,7 +60020,7 @@
         <v>11.8699998855591</v>
       </c>
       <c r="G2107" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60046,7 +60046,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G2108" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60072,7 +60072,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G2109" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60098,7 +60098,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="G2110" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -60124,7 +60124,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2111" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -60150,7 +60150,7 @@
         <v>11.960000038147</v>
       </c>
       <c r="G2112" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -60176,7 +60176,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="G2113" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -60202,7 +60202,7 @@
         <v>11.9700002670288</v>
       </c>
       <c r="G2114" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -60228,7 +60228,7 @@
         <v>11.8500003814697</v>
       </c>
       <c r="G2115" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -60254,7 +60254,7 @@
         <v>12.3660001754761</v>
       </c>
       <c r="G2116" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -60280,7 +60280,7 @@
         <v>12.0979995727539</v>
       </c>
       <c r="G2117" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -60332,7 +60332,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2119" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -60358,7 +60358,7 @@
         <v>11.9720001220703</v>
       </c>
       <c r="G2120" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -60384,7 +60384,7 @@
         <v>11.9180002212524</v>
       </c>
       <c r="G2121" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -60410,7 +60410,7 @@
         <v>11.9440002441406</v>
       </c>
       <c r="G2122" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -60436,7 +60436,7 @@
         <v>12.0299997329712</v>
       </c>
       <c r="G2123" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -60462,7 +60462,7 @@
         <v>12.1520004272461</v>
       </c>
       <c r="G2124" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -60488,7 +60488,7 @@
         <v>12.0620002746582</v>
       </c>
       <c r="G2125" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -60514,7 +60514,7 @@
         <v>11.8319997787476</v>
       </c>
       <c r="G2126" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -60540,7 +60540,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2127" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -60566,7 +60566,7 @@
         <v>11.1520004272461</v>
       </c>
       <c r="G2128" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -60592,7 +60592,7 @@
         <v>11.1120004653931</v>
       </c>
       <c r="G2129" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -60618,7 +60618,7 @@
         <v>11.1339998245239</v>
       </c>
       <c r="G2130" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -60644,7 +60644,7 @@
         <v>11.043999671936</v>
       </c>
       <c r="G2131" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -60670,7 +60670,7 @@
         <v>11.1619997024536</v>
       </c>
       <c r="G2132" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -60696,7 +60696,7 @@
         <v>10.8579998016357</v>
       </c>
       <c r="G2133" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -60722,7 +60722,7 @@
         <v>10.6899995803833</v>
       </c>
       <c r="G2134" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -60748,7 +60748,7 @@
         <v>10.673999786377</v>
       </c>
       <c r="G2135" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -60774,7 +60774,7 @@
         <v>10.7259998321533</v>
       </c>
       <c r="G2136" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -60800,7 +60800,7 @@
         <v>10.6560001373291</v>
       </c>
       <c r="G2137" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -60826,7 +60826,7 @@
         <v>10.8760004043579</v>
       </c>
       <c r="G2138" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -60852,7 +60852,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G2139" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -60878,7 +60878,7 @@
         <v>10.4919996261597</v>
       </c>
       <c r="G2140" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -60904,7 +60904,7 @@
         <v>10.5459995269775</v>
       </c>
       <c r="G2141" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -60930,7 +60930,7 @@
         <v>10.6560001373291</v>
       </c>
       <c r="G2142" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -60956,7 +60956,7 @@
         <v>10.8520002365112</v>
       </c>
       <c r="G2143" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -60982,7 +60982,7 @@
         <v>10.7819995880127</v>
       </c>
       <c r="G2144" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61008,7 +61008,7 @@
         <v>11.0080003738403</v>
       </c>
       <c r="G2145" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61034,7 +61034,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2146" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61060,7 +61060,7 @@
         <v>11.0120000839233</v>
       </c>
       <c r="G2147" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61086,7 +61086,7 @@
         <v>11.1020002365112</v>
       </c>
       <c r="G2148" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61112,7 +61112,7 @@
         <v>10.6199998855591</v>
       </c>
       <c r="G2149" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -61138,7 +61138,7 @@
         <v>10.753999710083</v>
       </c>
       <c r="G2150" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -61164,7 +61164,7 @@
         <v>10.4399995803833</v>
       </c>
       <c r="G2151" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -61190,7 +61190,7 @@
         <v>10.4399995803833</v>
       </c>
       <c r="G2152" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -61216,7 +61216,7 @@
         <v>10.3299999237061</v>
       </c>
       <c r="G2153" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -61242,7 +61242,7 @@
         <v>10.4479999542236</v>
       </c>
       <c r="G2154" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -61268,7 +61268,7 @@
         <v>10.3900003433228</v>
       </c>
       <c r="G2155" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -61294,7 +61294,7 @@
         <v>10.5520000457764</v>
       </c>
       <c r="G2156" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -61320,7 +61320,7 @@
         <v>10.3219995498657</v>
       </c>
       <c r="G2157" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -61346,7 +61346,7 @@
         <v>10.6219997406006</v>
       </c>
       <c r="G2158" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -61372,7 +61372,7 @@
         <v>10.5260000228882</v>
       </c>
       <c r="G2159" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -61398,7 +61398,7 @@
         <v>10.3299999237061</v>
       </c>
       <c r="G2160" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -61424,7 +61424,7 @@
         <v>10.2559995651245</v>
       </c>
       <c r="G2161" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -61450,7 +61450,7 @@
         <v>10.253999710083</v>
       </c>
       <c r="G2162" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -61476,7 +61476,7 @@
         <v>10.3240003585815</v>
       </c>
       <c r="G2163" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -61502,7 +61502,7 @@
         <v>10.1899995803833</v>
       </c>
       <c r="G2164" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -61528,7 +61528,7 @@
         <v>10.3100004196167</v>
       </c>
       <c r="G2165" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -61554,7 +61554,7 @@
         <v>10.3879995346069</v>
       </c>
       <c r="G2166" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -61580,7 +61580,7 @@
         <v>10.4680004119873</v>
       </c>
       <c r="G2167" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -61606,7 +61606,7 @@
         <v>10.4180002212524</v>
       </c>
       <c r="G2168" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -61632,7 +61632,7 @@
         <v>10.293999671936</v>
       </c>
       <c r="G2169" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -61658,7 +61658,7 @@
         <v>10.4119997024536</v>
       </c>
       <c r="G2170" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -61684,7 +61684,7 @@
         <v>10.6300001144409</v>
       </c>
       <c r="G2171" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -61710,7 +61710,7 @@
         <v>10.6800003051758</v>
       </c>
       <c r="G2172" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -61736,7 +61736,7 @@
         <v>10.6260004043579</v>
       </c>
       <c r="G2173" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -61762,7 +61762,7 @@
         <v>10.6820001602173</v>
       </c>
       <c r="G2174" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -61788,7 +61788,7 @@
         <v>10.6999998092651</v>
       </c>
       <c r="G2175" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -61814,7 +61814,7 @@
         <v>10.9020004272461</v>
       </c>
       <c r="G2176" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -61840,7 +61840,7 @@
         <v>10.460000038147</v>
       </c>
       <c r="G2177" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -61866,7 +61866,7 @@
         <v>10.5080003738403</v>
       </c>
       <c r="G2178" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -61892,7 +61892,7 @@
         <v>10.2959995269775</v>
       </c>
       <c r="G2179" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -61918,7 +61918,7 @@
         <v>10.2239999771118</v>
       </c>
       <c r="G2180" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -61944,7 +61944,7 @@
         <v>10.1579999923706</v>
       </c>
       <c r="G2181" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -61970,7 +61970,7 @@
         <v>10.2519998550415</v>
       </c>
       <c r="G2182" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -61996,7 +61996,7 @@
         <v>10</v>
       </c>
       <c r="G2183" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -62022,7 +62022,7 @@
         <v>10.2779998779297</v>
       </c>
       <c r="G2184" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -62048,7 +62048,7 @@
         <v>10.3660001754761</v>
       </c>
       <c r="G2185" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -62074,7 +62074,7 @@
         <v>10.0520000457764</v>
       </c>
       <c r="G2186" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -62100,7 +62100,7 @@
         <v>9.92000007629395</v>
       </c>
       <c r="G2187" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -62126,7 +62126,7 @@
         <v>9.78299999237061</v>
       </c>
       <c r="G2188" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -62152,7 +62152,7 @@
         <v>9.77099990844727</v>
       </c>
       <c r="G2189" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -62178,7 +62178,7 @@
         <v>9.88000011444092</v>
       </c>
       <c r="G2190" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -62204,7 +62204,7 @@
         <v>9.89999961853027</v>
       </c>
       <c r="G2191" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -62230,7 +62230,7 @@
         <v>9.95400047302246</v>
       </c>
       <c r="G2192" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -62256,7 +62256,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G2193" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -62282,7 +62282,7 @@
         <v>9.9689998626709</v>
       </c>
       <c r="G2194" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -62308,7 +62308,7 @@
         <v>10.1780004501343</v>
       </c>
       <c r="G2195" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -62334,7 +62334,7 @@
         <v>10.1660003662109</v>
       </c>
       <c r="G2196" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -62360,7 +62360,7 @@
         <v>10.3000001907349</v>
       </c>
       <c r="G2197" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -62386,7 +62386,7 @@
         <v>10.2080001831055</v>
       </c>
       <c r="G2198" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H2198" t="s">
         <v>9</v>
@@ -62412,7 +62412,7 @@
         <v>10.2519998550415</v>
       </c>
       <c r="G2199" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2199" t="s">
         <v>9</v>
@@ -62438,7 +62438,7 @@
         <v>10.2519998550415</v>
       </c>
       <c r="G2200" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="H2200" t="s">
         <v>9</v>
@@ -62464,7 +62464,7 @@
         <v>10.3459997177124</v>
       </c>
       <c r="G2201" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H2201" t="s">
         <v>9</v>
@@ -62490,7 +62490,7 @@
         <v>10.28600025177</v>
       </c>
       <c r="G2202" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H2202" t="s">
         <v>9</v>
@@ -62516,7 +62516,7 @@
         <v>10.3879995346069</v>
       </c>
       <c r="G2203" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H2203" t="s">
         <v>9</v>
@@ -62542,7 +62542,7 @@
         <v>10.3780002593994</v>
       </c>
       <c r="G2204" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H2204" t="s">
         <v>9</v>
@@ -62568,7 +62568,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G2205" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H2205" t="s">
         <v>9</v>
@@ -62594,7 +62594,7 @@
         <v>10.5860004425049</v>
       </c>
       <c r="G2206" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H2206" t="s">
         <v>9</v>
@@ -62620,7 +62620,7 @@
         <v>10.5719995498657</v>
       </c>
       <c r="G2207" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H2207" t="s">
         <v>9</v>
@@ -62646,7 +62646,7 @@
         <v>10.2720003128052</v>
       </c>
       <c r="G2208" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H2208" t="s">
         <v>9</v>
@@ -62672,7 +62672,7 @@
         <v>10.3100004196167</v>
       </c>
       <c r="G2209" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H2209" t="s">
         <v>9</v>
@@ -62698,7 +62698,7 @@
         <v>10.4460000991821</v>
       </c>
       <c r="G2210" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H2210" t="s">
         <v>9</v>
@@ -62724,7 +62724,7 @@
         <v>9.96700000762939</v>
       </c>
       <c r="G2211" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H2211" t="s">
         <v>9</v>
@@ -62750,7 +62750,7 @@
         <v>10.0740003585815</v>
       </c>
       <c r="G2212" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H2212" t="s">
         <v>9</v>
@@ -62776,7 +62776,7 @@
         <v>10.0260000228882</v>
       </c>
       <c r="G2213" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H2213" t="s">
         <v>9</v>
@@ -62802,7 +62802,7 @@
         <v>10.039999961853</v>
       </c>
       <c r="G2214" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H2214" t="s">
         <v>9</v>
@@ -62828,7 +62828,7 @@
         <v>10.0920000076294</v>
       </c>
       <c r="G2215" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H2215" t="s">
         <v>9</v>
@@ -62854,7 +62854,7 @@
         <v>10.1940002441406</v>
       </c>
       <c r="G2216" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H2216" t="s">
         <v>9</v>
@@ -62880,7 +62880,7 @@
         <v>10.1379995346069</v>
       </c>
       <c r="G2217" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H2217" t="s">
         <v>9</v>
@@ -62906,7 +62906,7 @@
         <v>9.7209997177124</v>
       </c>
       <c r="G2218" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H2218" t="s">
         <v>9</v>
@@ -62932,7 +62932,7 @@
         <v>9.82900047302246</v>
       </c>
       <c r="G2219" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H2219" t="s">
         <v>9</v>
@@ -62958,7 +62958,7 @@
         <v>9.96000003814697</v>
       </c>
       <c r="G2220" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H2220" t="s">
         <v>9</v>
@@ -62984,7 +62984,7 @@
         <v>9.54300022125244</v>
       </c>
       <c r="G2221" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H2221" t="s">
         <v>9</v>
@@ -63010,7 +63010,7 @@
         <v>9.70800018310547</v>
       </c>
       <c r="G2222" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H2222" t="s">
         <v>9</v>
@@ -63036,7 +63036,7 @@
         <v>9.79199981689453</v>
       </c>
       <c r="G2223" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H2223" t="s">
         <v>9</v>
@@ -63062,7 +63062,7 @@
         <v>9.67899990081787</v>
       </c>
       <c r="G2224" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2224" t="s">
         <v>9</v>
@@ -63088,7 +63088,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G2225" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H2225" t="s">
         <v>9</v>
@@ -63114,7 +63114,7 @@
         <v>10.1280002593994</v>
       </c>
       <c r="G2226" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H2226" t="s">
         <v>9</v>
@@ -63140,7 +63140,7 @@
         <v>9.83300018310547</v>
       </c>
       <c r="G2227" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="H2227" t="s">
         <v>9</v>
@@ -63166,7 +63166,7 @@
         <v>9.67899990081787</v>
       </c>
       <c r="G2228" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H2228" t="s">
         <v>9</v>
@@ -63192,7 +63192,7 @@
         <v>9.72599983215332</v>
       </c>
       <c r="G2229" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="H2229" t="s">
         <v>9</v>
@@ -63218,7 +63218,7 @@
         <v>9.54399967193604</v>
       </c>
       <c r="G2230" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="H2230" t="s">
         <v>9</v>
@@ -63226,7 +63226,7 @@
     </row>
     <row r="2231">
       <c r="A2231" s="1" t="n">
-        <v>45569.6501736111</v>
+        <v>45569.2916666667</v>
       </c>
       <c r="B2231" t="n">
         <v>736186</v>
@@ -63244,9 +63244,35 @@
         <v>9.76299953460693</v>
       </c>
       <c r="G2231" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H2231" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" s="1" t="n">
+        <v>45572.6493171296</v>
+      </c>
+      <c r="B2232" t="n">
+        <v>540799</v>
+      </c>
+      <c r="C2232" t="n">
+        <v>9.84799957275391</v>
+      </c>
+      <c r="D2232" t="n">
+        <v>9.64999961853027</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>9.84500026702881</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>9.81999969482422</v>
+      </c>
+      <c r="G2232" t="s">
         <v>1630</v>
       </c>
-      <c r="H2231" t="s">
+      <c r="H2232" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BRE.MI.xlsx
+++ b/data/BRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="1631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="1632">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43071746826172</t>
+    <t xml:space="preserve">7.4307165145874</t>
   </si>
   <si>
     <t xml:space="preserve">BRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40021419525146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17991924285889</t>
+    <t xml:space="preserve">7.40021514892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17991971969604</t>
   </si>
   <si>
     <t xml:space="preserve">6.76305389404297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77999973297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.66307401657104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84100484848022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02910184860229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7901668548584</t>
+    <t xml:space="preserve">6.77999925613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6630744934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84100532531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02910137176514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79016780853271</t>
   </si>
   <si>
     <t xml:space="preserve">6.4393892288208</t>
@@ -74,16 +74,16 @@
     <t xml:space="preserve">6.42413902282715</t>
   </si>
   <si>
-    <t xml:space="preserve">6.50378322601318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16317415237427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.42922258377075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.47667121887207</t>
+    <t xml:space="preserve">6.50378370285034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16317367553711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.42922210693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.47667074203491</t>
   </si>
   <si>
     <t xml:space="preserve">6.53598022460938</t>
@@ -92,16 +92,16 @@
     <t xml:space="preserve">6.54953718185425</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6207103729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.45803022384644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3919415473938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.28009939193726</t>
+    <t xml:space="preserve">6.62070894241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.45802974700928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39194202423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2800989151001</t>
   </si>
   <si>
     <t xml:space="preserve">6.21062183380127</t>
@@ -110,58 +110,58 @@
     <t xml:space="preserve">6.078444480896</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91237688064575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5548210144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71750020980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93101692199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88187456130981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.94118452072144</t>
+    <t xml:space="preserve">5.91237592697144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.55482149124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71749973297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93101644515991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88187503814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.94118547439575</t>
   </si>
   <si>
     <t xml:space="preserve">6.25976514816284</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19198131561279</t>
+    <t xml:space="preserve">6.19198179244995</t>
   </si>
   <si>
     <t xml:space="preserve">6.34279870986938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36482906341553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32246398925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.46480751037598</t>
+    <t xml:space="preserve">6.36482810974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32246351242065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.46480798721313</t>
   </si>
   <si>
     <t xml:space="preserve">6.33432579040527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19367551803589</t>
+    <t xml:space="preserve">6.19367647171021</t>
   </si>
   <si>
     <t xml:space="preserve">6.29535102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35296678543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44616794586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58342885971069</t>
+    <t xml:space="preserve">6.35296583175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44616889953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58342933654785</t>
   </si>
   <si>
     <t xml:space="preserve">6.55462121963501</t>
@@ -176,28 +176,28 @@
     <t xml:space="preserve">7.3764910697937</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33751487731934</t>
+    <t xml:space="preserve">7.33751583099365</t>
   </si>
   <si>
     <t xml:space="preserve">7.37987947463989</t>
   </si>
   <si>
-    <t xml:space="preserve">7.32904195785522</t>
+    <t xml:space="preserve">7.32904148101807</t>
   </si>
   <si>
     <t xml:space="preserve">7.32395887374878</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42224359512329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40360450744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5137505531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40190887451172</t>
+    <t xml:space="preserve">7.42224407196045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40360307693481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51375007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40190935134888</t>
   </si>
   <si>
     <t xml:space="preserve">7.49341535568237</t>
@@ -206,28 +206,28 @@
     <t xml:space="preserve">7.33412504196167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53408718109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41377115249634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41207647323608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58153390884399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70184898376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67304182052612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62389802932739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40529775619507</t>
+    <t xml:space="preserve">7.53408670425415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41377067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41207599639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58153486251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70184993743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67304134368896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62389755249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40529823303223</t>
   </si>
   <si>
     <t xml:space="preserve">7.45105171203613</t>
@@ -236,58 +236,58 @@
     <t xml:space="preserve">7.4239387512207</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53917026519775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57645082473755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.62559270858765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67643022537231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69337511062622</t>
+    <t xml:space="preserve">7.53916931152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57644987106323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6255931854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67643070220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69337368011475</t>
   </si>
   <si>
     <t xml:space="preserve">7.66287469863892</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71032333374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74421453475952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78488445281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05093288421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99670457839966</t>
+    <t xml:space="preserve">7.71032238006592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74421310424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78488302230835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05093193054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99670600891113</t>
   </si>
   <si>
     <t xml:space="preserve">7.91367053985596</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96281385421753</t>
+    <t xml:space="preserve">7.96281433105469</t>
   </si>
   <si>
     <t xml:space="preserve">8.02381896972656</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94925689697266</t>
+    <t xml:space="preserve">7.94925737380981</t>
   </si>
   <si>
     <t xml:space="preserve">8.00348377227783</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90858697891235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99162101745605</t>
+    <t xml:space="preserve">7.90858793258667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99162292480469</t>
   </si>
   <si>
     <t xml:space="preserve">8.1424388885498</t>
@@ -302,46 +302,46 @@
     <t xml:space="preserve">8.82026958465576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86263465881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73554229736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66775798797607</t>
+    <t xml:space="preserve">8.86263370513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73554039001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66775894165039</t>
   </si>
   <si>
     <t xml:space="preserve">8.6592845916748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.71859550476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83048343658447</t>
+    <t xml:space="preserve">8.71859645843506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83048439025879</t>
   </si>
   <si>
     <t xml:space="preserve">8.76162815093994</t>
   </si>
   <si>
-    <t xml:space="preserve">8.82187557220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77023601531982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77884197235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92515563964844</t>
+    <t xml:space="preserve">8.82187652587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77023506164551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77884292602539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92515659332275</t>
   </si>
   <si>
     <t xml:space="preserve">8.95097732543945</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04564952850342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2866382598877</t>
+    <t xml:space="preserve">9.0456485748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28663730621338</t>
   </si>
   <si>
     <t xml:space="preserve">9.19196510314941</t>
@@ -359,28 +359,28 @@
     <t xml:space="preserve">8.40531158447266</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60670757293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61531543731689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.91654968261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.933762550354</t>
+    <t xml:space="preserve">8.60670852661133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61531448364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.91654777526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93376445770264</t>
   </si>
   <si>
     <t xml:space="preserve">8.88212299346924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03704166412354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56023120880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91989374160767</t>
+    <t xml:space="preserve">9.03704357147217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5602331161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91989231109619</t>
   </si>
   <si>
     <t xml:space="preserve">8.55506801605225</t>
@@ -389,25 +389,25 @@
     <t xml:space="preserve">8.35367107391357</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50514888763428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53785419464111</t>
+    <t xml:space="preserve">8.50514793395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5378532409668</t>
   </si>
   <si>
     <t xml:space="preserve">8.13333892822266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95948266983032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95776271820068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24522590637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32096576690674</t>
+    <t xml:space="preserve">7.95948362350464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95776176452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24522495269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32096672058105</t>
   </si>
   <si>
     <t xml:space="preserve">8.34850692749023</t>
@@ -419,52 +419,52 @@
     <t xml:space="preserve">8.44145965576172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40875244140625</t>
+    <t xml:space="preserve">8.40875434875488</t>
   </si>
   <si>
     <t xml:space="preserve">8.5344123840332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40014839172363</t>
+    <t xml:space="preserve">8.40014743804932</t>
   </si>
   <si>
     <t xml:space="preserve">8.51031303405762</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4655590057373</t>
+    <t xml:space="preserve">8.46555805206299</t>
   </si>
   <si>
     <t xml:space="preserve">8.62392139434814</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67556285858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81326866149902</t>
+    <t xml:space="preserve">8.67556190490723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81326770782471</t>
   </si>
   <si>
     <t xml:space="preserve">8.66695404052734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99400901794434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08868312835693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.84769439697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.86490917205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95958232879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05425834655762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00261783599854</t>
+    <t xml:space="preserve">8.99400997161865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08868503570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.84769535064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.86490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9595832824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05425643920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00261688232422</t>
   </si>
   <si>
     <t xml:space="preserve">9.06286430358887</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">8.9854040145874</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79605484008789</t>
+    <t xml:space="preserve">8.79605579376221</t>
   </si>
   <si>
     <t xml:space="preserve">8.75302314758301</t>
@@ -482,97 +482,97 @@
     <t xml:space="preserve">8.78744792938232</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70998764038086</t>
+    <t xml:space="preserve">8.70998859405518</t>
   </si>
   <si>
     <t xml:space="preserve">8.73580741882324</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96818923950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01122283935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02843761444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2177848815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1661434173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20917797088623</t>
+    <t xml:space="preserve">8.96818828582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01122379302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0284366607666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21778583526611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16614437103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20917701721191</t>
   </si>
   <si>
     <t xml:space="preserve">9.10589694976807</t>
   </si>
   <si>
-    <t xml:space="preserve">9.12310981750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14032554626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22639083862305</t>
+    <t xml:space="preserve">9.1231107711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14032459259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22639179229736</t>
   </si>
   <si>
     <t xml:space="preserve">9.38131141662598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13171768188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94236946105957</t>
+    <t xml:space="preserve">9.13171672821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94236850738525</t>
   </si>
   <si>
     <t xml:space="preserve">9.01983070373535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.14893054962158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0714693069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37270545959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47598552703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62229919433594</t>
+    <t xml:space="preserve">9.14892959594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07147026062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37270450592041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47598457336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62230014801025</t>
   </si>
   <si>
     <t xml:space="preserve">9.69115352630615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6997594833374</t>
+    <t xml:space="preserve">9.69976043701172</t>
   </si>
   <si>
     <t xml:space="preserve">9.48459339141846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.260817527771</t>
+    <t xml:space="preserve">9.26081657409668</t>
   </si>
   <si>
     <t xml:space="preserve">9.09729099273682</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52762603759766</t>
+    <t xml:space="preserve">9.52762508392334</t>
   </si>
   <si>
     <t xml:space="preserve">9.79443454742432</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51041126251221</t>
+    <t xml:space="preserve">9.51041316986084</t>
   </si>
   <si>
     <t xml:space="preserve">9.32967185974121</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46737957000732</t>
+    <t xml:space="preserve">9.46737861633301</t>
   </si>
   <si>
     <t xml:space="preserve">9.2436056137085</t>
@@ -584,49 +584,49 @@
     <t xml:space="preserve">9.33827781677246</t>
   </si>
   <si>
-    <t xml:space="preserve">9.31245708465576</t>
+    <t xml:space="preserve">9.31245803833008</t>
   </si>
   <si>
     <t xml:space="preserve">9.08007717132568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45016574859619</t>
+    <t xml:space="preserve">9.45016670227051</t>
   </si>
   <si>
     <t xml:space="preserve">9.56205272674561</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27803134918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.39852714538574</t>
+    <t xml:space="preserve">9.27803039550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.39852428436279</t>
   </si>
   <si>
     <t xml:space="preserve">9.40713119506836</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53623294830322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65672779083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.70836639404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.83746719360352</t>
+    <t xml:space="preserve">9.53623390197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65672588348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.70836544036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83746814727783</t>
   </si>
   <si>
     <t xml:space="preserve">9.89771461486816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3280487060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3882989883423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.181734085083</t>
+    <t xml:space="preserve">10.328049659729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3882961273193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1817359924316</t>
   </si>
   <si>
     <t xml:space="preserve">10.3022289276123</t>
@@ -635,10 +635,10 @@
     <t xml:space="preserve">10.3452625274658</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3710823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4227228164673</t>
+    <t xml:space="preserve">10.3710832595825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4227237701416</t>
   </si>
   <si>
     <t xml:space="preserve">10.5776453018188</t>
@@ -647,31 +647,31 @@
     <t xml:space="preserve">10.6034650802612</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5862503051758</t>
+    <t xml:space="preserve">10.5862512588501</t>
   </si>
   <si>
     <t xml:space="preserve">10.5690364837646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5260047912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4915771484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5518236160278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5173988342285</t>
+    <t xml:space="preserve">10.5260038375854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4915761947632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5518255233765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5173969268799</t>
   </si>
   <si>
     <t xml:space="preserve">10.5948572158813</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5001850128174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4657583236694</t>
+    <t xml:space="preserve">10.5001831054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4657573699951</t>
   </si>
   <si>
     <t xml:space="preserve">10.207555770874</t>
@@ -686,22 +686,22 @@
     <t xml:space="preserve">10.4399366378784</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9133052825928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8272380828857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9047002792358</t>
+    <t xml:space="preserve">10.9133062362671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8272390365601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9046993255615</t>
   </si>
   <si>
     <t xml:space="preserve">10.7669916152954</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8530597686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0768327713013</t>
+    <t xml:space="preserve">10.8530588150024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0768337249756</t>
   </si>
   <si>
     <t xml:space="preserve">11.1112594604492</t>
@@ -710,13 +710,13 @@
     <t xml:space="preserve">11.0424060821533</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7842054367065</t>
+    <t xml:space="preserve">10.7842063903809</t>
   </si>
   <si>
     <t xml:space="preserve">11.0338001251221</t>
   </si>
   <si>
-    <t xml:space="preserve">11.188720703125</t>
+    <t xml:space="preserve">11.1887197494507</t>
   </si>
   <si>
     <t xml:space="preserve">11.3608551025391</t>
@@ -731,34 +731,34 @@
     <t xml:space="preserve">11.1715068817139</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2661809921265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1801137924194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4383134841919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2920017242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4469223022461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6620903015137</t>
+    <t xml:space="preserve">11.2661790847778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1801147460938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4383144378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2919998168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4469213485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.662088394165</t>
   </si>
   <si>
     <t xml:space="preserve">11.5846281051636</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6362686157227</t>
+    <t xml:space="preserve">11.6362676620483</t>
   </si>
   <si>
     <t xml:space="preserve">11.6706962585449</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6965160369873</t>
+    <t xml:space="preserve">11.6965169906616</t>
   </si>
   <si>
     <t xml:space="preserve">11.7567644119263</t>
@@ -767,10 +767,10 @@
     <t xml:space="preserve">11.808403968811</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8686494827271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9288969039917</t>
+    <t xml:space="preserve">11.8686504364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.928897857666</t>
   </si>
   <si>
     <t xml:space="preserve">11.9202919006348</t>
@@ -785,22 +785,22 @@
     <t xml:space="preserve">12.1870994567871</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1182460784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1096382141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1526727676392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.195704460144</t>
+    <t xml:space="preserve">12.1182451248169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.109637260437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1526737213135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1957054138184</t>
   </si>
   <si>
     <t xml:space="preserve">12.1440649032593</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0149641036987</t>
+    <t xml:space="preserve">12.014965057373</t>
   </si>
   <si>
     <t xml:space="preserve">12.1268520355225</t>
@@ -809,13 +809,13 @@
     <t xml:space="preserve">11.963324546814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3936586380005</t>
+    <t xml:space="preserve">12.3936605453491</t>
   </si>
   <si>
     <t xml:space="preserve">12.496940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3506278991699</t>
+    <t xml:space="preserve">12.3506259918213</t>
   </si>
   <si>
     <t xml:space="preserve">12.4280862808228</t>
@@ -827,19 +827,19 @@
     <t xml:space="preserve">12.5916147232056</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4883337020874</t>
+    <t xml:space="preserve">12.4883327484131</t>
   </si>
   <si>
     <t xml:space="preserve">12.7379283905029</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8412084579468</t>
+    <t xml:space="preserve">12.8412075042725</t>
   </si>
   <si>
     <t xml:space="preserve">12.7637481689453</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9617023468018</t>
+    <t xml:space="preserve">12.9617033004761</t>
   </si>
   <si>
     <t xml:space="preserve">12.9961290359497</t>
@@ -848,16 +848,16 @@
     <t xml:space="preserve">12.7207155227661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6346473693848</t>
+    <t xml:space="preserve">12.6346483230591</t>
   </si>
   <si>
     <t xml:space="preserve">12.6432552337646</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5227603912354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0666036605835</t>
+    <t xml:space="preserve">12.5227613449097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0666046142578</t>
   </si>
   <si>
     <t xml:space="preserve">11.9719305038452</t>
@@ -869,22 +869,22 @@
     <t xml:space="preserve">12.3696804046631</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3871383666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5006227493286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6053781509399</t>
+    <t xml:space="preserve">12.3871393203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5006237030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6053771972656</t>
   </si>
   <si>
     <t xml:space="preserve">12.212550163269</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0816068649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2387380599976</t>
+    <t xml:space="preserve">12.0816087722778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2387390136719</t>
   </si>
   <si>
     <t xml:space="preserve">12.1863613128662</t>
@@ -893,16 +893,16 @@
     <t xml:space="preserve">12.0205011367798</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9855833053589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7149705886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6102151870728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6014852523804</t>
+    <t xml:space="preserve">11.9855842590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7149715423584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6102161407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6014862060547</t>
   </si>
   <si>
     <t xml:space="preserve">11.4356260299683</t>
@@ -911,22 +911,22 @@
     <t xml:space="preserve">11.3570613861084</t>
   </si>
   <si>
-    <t xml:space="preserve">11.645133972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8371829986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6364040374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6975107192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5752973556519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3221435546875</t>
+    <t xml:space="preserve">11.6451320648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8371820449829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6364049911499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.697509765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5752983093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3221426010132</t>
   </si>
   <si>
     <t xml:space="preserve">11.4268960952759</t>
@@ -938,40 +938,40 @@
     <t xml:space="preserve">11.348331451416</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9642324447632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1824703216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1300935745239</t>
+    <t xml:space="preserve">10.9642333984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1824712753296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1300945281982</t>
   </si>
   <si>
     <t xml:space="preserve">11.0427989959717</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1475524902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8459129333496</t>
+    <t xml:space="preserve">11.1475534439087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8459119796753</t>
   </si>
   <si>
     <t xml:space="preserve">11.9419355392456</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7062397003174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0641489028931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8808288574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8284530639648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7760753631592</t>
+    <t xml:space="preserve">11.7062406539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0641498565674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8808298110962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8284521102905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7760744094849</t>
   </si>
   <si>
     <t xml:space="preserve">11.7324275970459</t>
@@ -980,16 +980,16 @@
     <t xml:space="preserve">11.6189451217651</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4007091522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3919792175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4094352722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2872247695923</t>
+    <t xml:space="preserve">11.4007062911987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.391978263855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4094362258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.287223815918</t>
   </si>
   <si>
     <t xml:space="preserve">11.3308715820312</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">11.2697649002075</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2784957885742</t>
+    <t xml:space="preserve">11.2784948348999</t>
   </si>
   <si>
     <t xml:space="preserve">11.0689878463745</t>
@@ -1007,19 +1007,19 @@
     <t xml:space="preserve">11.1737422943115</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2610359191895</t>
+    <t xml:space="preserve">11.2610378265381</t>
   </si>
   <si>
     <t xml:space="preserve">11.095175743103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3134136199951</t>
+    <t xml:space="preserve">11.3134145736694</t>
   </si>
   <si>
     <t xml:space="preserve">11.6713218688965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5578384399414</t>
+    <t xml:space="preserve">11.5578393936157</t>
   </si>
   <si>
     <t xml:space="preserve">11.4880018234253</t>
@@ -1028,10 +1028,10 @@
     <t xml:space="preserve">11.4530849456787</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6625938415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7411584854126</t>
+    <t xml:space="preserve">11.6625928878784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7411575317383</t>
   </si>
   <si>
     <t xml:space="preserve">11.7935352325439</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">11.8109941482544</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9244785308838</t>
+    <t xml:space="preserve">11.9244766235352</t>
   </si>
   <si>
     <t xml:space="preserve">11.8197240829468</t>
@@ -1049,10 +1049,10 @@
     <t xml:space="preserve">11.9768543243408</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1077976226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1776304244995</t>
+    <t xml:space="preserve">12.107795715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1776313781738</t>
   </si>
   <si>
     <t xml:space="preserve">12.352222442627</t>
@@ -1067,25 +1067,25 @@
     <t xml:space="preserve">12.4918947219849</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5355405807495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5966491699219</t>
+    <t xml:space="preserve">12.5355415344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5966482162476</t>
   </si>
   <si>
     <t xml:space="preserve">12.4744338989258</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5180807113647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4831647872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228342056274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6141061782837</t>
+    <t xml:space="preserve">12.5180816650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4831638336182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228361129761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.614107131958</t>
   </si>
   <si>
     <t xml:space="preserve">12.7625074386597</t>
@@ -1103,19 +1103,19 @@
     <t xml:space="preserve">12.7363195419312</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7450504302979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2212791442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1601734161377</t>
+    <t xml:space="preserve">12.7450485229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2212781906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.160174369812</t>
   </si>
   <si>
     <t xml:space="preserve">12.2474679946899</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4482479095459</t>
+    <t xml:space="preserve">12.4482469558716</t>
   </si>
   <si>
     <t xml:space="preserve">12.4395170211792</t>
@@ -1142,16 +1142,16 @@
     <t xml:space="preserve">11.2173891067505</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4181671142578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3396005630493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1650114059448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1912002563477</t>
+    <t xml:space="preserve">11.4181680679321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3396024703979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1650104522705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1911993026733</t>
   </si>
   <si>
     <t xml:space="preserve">11.1213645935059</t>
@@ -1166,34 +1166,34 @@
     <t xml:space="preserve">10.9991512298584</t>
   </si>
   <si>
-    <t xml:space="preserve">11.19993019104</t>
+    <t xml:space="preserve">11.1999292373657</t>
   </si>
   <si>
     <t xml:space="preserve">11.0777177810669</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2261180877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0602588653564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8507490158081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8682088851929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.496732711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5665674209595</t>
+    <t xml:space="preserve">11.2261190414429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0602579116821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8507499694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8682079315186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4967317581177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5665683746338</t>
   </si>
   <si>
     <t xml:space="preserve">11.540379524231</t>
   </si>
   <si>
-    <t xml:space="preserve">11.549111366272</t>
+    <t xml:space="preserve">11.5491094589233</t>
   </si>
   <si>
     <t xml:space="preserve">11.6276750564575</t>
@@ -1205,10 +1205,10 @@
     <t xml:space="preserve">11.758617401123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8071022033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6936187744141</t>
+    <t xml:space="preserve">10.8071041107178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6936197280884</t>
   </si>
   <si>
     <t xml:space="preserve">10.6150550842285</t>
@@ -1217,43 +1217,43 @@
     <t xml:space="preserve">10.6586999893188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5626764297485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5277585983276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5975942611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5364904403687</t>
+    <t xml:space="preserve">10.5626773834229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.527759552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5975952148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5364894866943</t>
   </si>
   <si>
     <t xml:space="preserve">10.4753828048706</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4666547775269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2920637130737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3531694412231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3706283569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0738248825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0389089584351</t>
+    <t xml:space="preserve">10.4666528701782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2920627593994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3531703948975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3706293106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.073826789856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0389080047607</t>
   </si>
   <si>
     <t xml:space="preserve">9.82940101623535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71591758728027</t>
+    <t xml:space="preserve">9.71591663360596</t>
   </si>
   <si>
     <t xml:space="preserve">10.484112739563</t>
@@ -1262,7 +1262,7 @@
     <t xml:space="preserve">10.6848907470703</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9816923141479</t>
+    <t xml:space="preserve">10.9816932678223</t>
   </si>
   <si>
     <t xml:space="preserve">11.1039056777954</t>
@@ -1274,13 +1274,13 @@
     <t xml:space="preserve">10.7372665405273</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6761617660522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.833291053772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7809162139893</t>
+    <t xml:space="preserve">10.6761598587036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8332920074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7809152603149</t>
   </si>
   <si>
     <t xml:space="preserve">10.9467754364014</t>
@@ -1289,49 +1289,49 @@
     <t xml:space="preserve">10.9293155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7198076248169</t>
+    <t xml:space="preserve">10.7198085784912</t>
   </si>
   <si>
     <t xml:space="preserve">10.8245620727539</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7896432876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7983741760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8158321380615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.632513999939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6063241958618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6674318313599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5190296173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4443559646606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9205865859985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6499719619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5801372528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4317359924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3007936477661</t>
+    <t xml:space="preserve">10.7896423339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7983722686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8158330917358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6325130462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6063251495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6674308776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5190305709839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.444356918335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9205856323242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6499710083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5801362991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4317350387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3007917404175</t>
   </si>
   <si>
     <t xml:space="preserve">10.416431427002</t>
@@ -1349,16 +1349,16 @@
     <t xml:space="preserve">11.0657911300659</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9857339859009</t>
+    <t xml:space="preserve">10.9857330322266</t>
   </si>
   <si>
     <t xml:space="preserve">10.6032342910767</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8523044586182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.887885093689</t>
+    <t xml:space="preserve">10.8523035049438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8878841400146</t>
   </si>
   <si>
     <t xml:space="preserve">11.0302104949951</t>
@@ -1373,13 +1373,13 @@
     <t xml:space="preserve">11.101372718811</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3326501846313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0391044616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1369533538818</t>
+    <t xml:space="preserve">11.3326511383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0391054153442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1369524002075</t>
   </si>
   <si>
     <t xml:space="preserve">10.9145708084106</t>
@@ -1388,13 +1388,13 @@
     <t xml:space="preserve">10.7722454071045</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7277679443359</t>
+    <t xml:space="preserve">10.7277669906616</t>
   </si>
   <si>
     <t xml:space="preserve">10.5142803192139</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5053853988647</t>
+    <t xml:space="preserve">10.5053863525391</t>
   </si>
   <si>
     <t xml:space="preserve">10.2830028533936</t>
@@ -1406,37 +1406,37 @@
     <t xml:space="preserve">10.4253282546997</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2563161849976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3096876144409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0962009429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1228866577148</t>
+    <t xml:space="preserve">10.2563171386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3096885681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0961999893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1228876113892</t>
   </si>
   <si>
     <t xml:space="preserve">10.2118377685547</t>
   </si>
   <si>
-    <t xml:space="preserve">10.238525390625</t>
+    <t xml:space="preserve">10.2385244369507</t>
   </si>
   <si>
     <t xml:space="preserve">10.3541650772095</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6299209594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6655015945435</t>
+    <t xml:space="preserve">10.6299200057983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6655025482178</t>
   </si>
   <si>
     <t xml:space="preserve">10.6477098464966</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8967790603638</t>
+    <t xml:space="preserve">10.8967800140381</t>
   </si>
   <si>
     <t xml:space="preserve">10.8700942993164</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">10.8167219161987</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7099781036377</t>
+    <t xml:space="preserve">10.7099771499634</t>
   </si>
   <si>
     <t xml:space="preserve">10.4520139694214</t>
@@ -1457,13 +1457,13 @@
     <t xml:space="preserve">10.3808507919312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.398642539978</t>
+    <t xml:space="preserve">10.3986415863037</t>
   </si>
   <si>
     <t xml:space="preserve">10.2029447555542</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4075355529785</t>
+    <t xml:space="preserve">10.4075374603271</t>
   </si>
   <si>
     <t xml:space="preserve">10.6121292114258</t>
@@ -1472,16 +1472,16 @@
     <t xml:space="preserve">10.1406764984131</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0606174468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1317806243896</t>
+    <t xml:space="preserve">10.060619354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.131781578064</t>
   </si>
   <si>
     <t xml:space="preserve">10.0339326858521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90939903259277</t>
+    <t xml:space="preserve">9.90939998626709</t>
   </si>
   <si>
     <t xml:space="preserve">9.94497966766357</t>
@@ -1490,13 +1490,13 @@
     <t xml:space="preserve">10.0428295135498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82044506072998</t>
+    <t xml:space="preserve">9.82044410705566</t>
   </si>
   <si>
     <t xml:space="preserve">9.8293399810791</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98056125640869</t>
+    <t xml:space="preserve">9.98056030273438</t>
   </si>
   <si>
     <t xml:space="preserve">10.2741060256958</t>
@@ -1508,10 +1508,10 @@
     <t xml:space="preserve">10.1139907836914</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91829395294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9271879196167</t>
+    <t xml:space="preserve">9.91829299926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92718887329102</t>
   </si>
   <si>
     <t xml:space="preserve">10.0873050689697</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">10.1851539611816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5587577819824</t>
+    <t xml:space="preserve">10.5587587356567</t>
   </si>
   <si>
     <t xml:space="preserve">10.5943384170532</t>
@@ -1538,49 +1538,49 @@
     <t xml:space="preserve">10.3274784088135</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2296304702759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0517244338989</t>
+    <t xml:space="preserve">10.2296295166016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0517225265503</t>
   </si>
   <si>
     <t xml:space="preserve">10.2207355499268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87381649017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55358505249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57137584686279</t>
+    <t xml:space="preserve">9.87381839752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55358409881592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57137489318848</t>
   </si>
   <si>
     <t xml:space="preserve">9.01097011566162</t>
   </si>
   <si>
-    <t xml:space="preserve">8.83751106262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74855709075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41943073272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73966217041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83306312561035</t>
+    <t xml:space="preserve">8.83751010894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74855804443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41943168640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73966312408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83306217193604</t>
   </si>
   <si>
     <t xml:space="preserve">8.7174243927002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60178470611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46390819549561</t>
+    <t xml:space="preserve">8.60178565979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46390628814697</t>
   </si>
   <si>
     <t xml:space="preserve">8.5306224822998</t>
@@ -1589,13 +1589,13 @@
     <t xml:space="preserve">8.37940120697021</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65960597991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5261754989624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79303550720215</t>
+    <t xml:space="preserve">8.65960502624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52617454528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79303455352783</t>
   </si>
   <si>
     <t xml:space="preserve">8.69963359832764</t>
@@ -1604,13 +1604,13 @@
     <t xml:space="preserve">8.89088344573975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80192947387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75745296478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53507041931152</t>
+    <t xml:space="preserve">8.80193042755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75745391845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53507137298584</t>
   </si>
   <si>
     <t xml:space="preserve">8.41053581237793</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">8.07695865631104</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01024532318115</t>
+    <t xml:space="preserve">8.01024627685547</t>
   </si>
   <si>
     <t xml:space="preserve">8.05472183227539</t>
@@ -1631,7 +1631,7 @@
     <t xml:space="preserve">8.11698913574219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29489612579346</t>
+    <t xml:space="preserve">8.29489517211914</t>
   </si>
   <si>
     <t xml:space="preserve">8.32158184051514</t>
@@ -1640,16 +1640,16 @@
     <t xml:space="preserve">8.29934310913086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55286026000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58844375610352</t>
+    <t xml:space="preserve">8.55286121368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58844184875488</t>
   </si>
   <si>
     <t xml:space="preserve">8.93091201782227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.92201709747314</t>
+    <t xml:space="preserve">8.92201614379883</t>
   </si>
   <si>
     <t xml:space="preserve">8.85974884033203</t>
@@ -1658,10 +1658,10 @@
     <t xml:space="preserve">9.0732364654541</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79748153686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77079772949219</t>
+    <t xml:space="preserve">8.79748249053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77079677581787</t>
   </si>
   <si>
     <t xml:space="preserve">8.45945930480957</t>
@@ -1673,7 +1673,7 @@
     <t xml:space="preserve">8.27265739440918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38385009765625</t>
+    <t xml:space="preserve">8.38384914398193</t>
   </si>
   <si>
     <t xml:space="preserve">8.64181423187256</t>
@@ -1682,13 +1682,13 @@
     <t xml:space="preserve">8.09920024871826</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97911167144775</t>
+    <t xml:space="preserve">7.97911262512207</t>
   </si>
   <si>
     <t xml:space="preserve">8.29044914245605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10364532470703</t>
+    <t xml:space="preserve">8.10364627838135</t>
   </si>
   <si>
     <t xml:space="preserve">8.1525707244873</t>
@@ -1703,25 +1703,25 @@
     <t xml:space="preserve">7.97021579742432</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93908262252808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25486755371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22818088531494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05544757843018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14439868927002</t>
+    <t xml:space="preserve">7.93908357620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25486850738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22818183898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05544567108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14439964294434</t>
   </si>
   <si>
     <t xml:space="preserve">8.78858661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69073677062988</t>
+    <t xml:space="preserve">8.6907377243042</t>
   </si>
   <si>
     <t xml:space="preserve">8.70852851867676</t>
@@ -1739,7 +1739,7 @@
     <t xml:space="preserve">8.81082534790039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77524471282959</t>
+    <t xml:space="preserve">8.77524375915527</t>
   </si>
   <si>
     <t xml:space="preserve">8.91312217712402</t>
@@ -1748,7 +1748,7 @@
     <t xml:space="preserve">9.17998123168945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88198757171631</t>
+    <t xml:space="preserve">8.88198852539062</t>
   </si>
   <si>
     <t xml:space="preserve">8.87754058837891</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">8.85085487365723</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81527233123779</t>
+    <t xml:space="preserve">8.81527328491211</t>
   </si>
   <si>
     <t xml:space="preserve">8.81972122192383</t>
@@ -1781,55 +1781,55 @@
     <t xml:space="preserve">9.09102725982666</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97538948059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42904949188232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29561996459961</t>
+    <t xml:space="preserve">8.9753885269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42905044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29562091827393</t>
   </si>
   <si>
     <t xml:space="preserve">9.34899139404297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62474632263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65143394470215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41125965118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46463203430176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66032886505127</t>
+    <t xml:space="preserve">9.62474822998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.65143299102783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4112606048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46463108062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66032981872559</t>
   </si>
   <si>
     <t xml:space="preserve">9.26893424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1355037689209</t>
+    <t xml:space="preserve">9.13550472259521</t>
   </si>
   <si>
     <t xml:space="preserve">9.10881805419922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.11771488189697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06434154510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04655170440674</t>
+    <t xml:space="preserve">9.11771392822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0643424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04655265808105</t>
   </si>
   <si>
     <t xml:space="preserve">9.23335361480713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.47352600097656</t>
+    <t xml:space="preserve">9.47352695465088</t>
   </si>
   <si>
     <t xml:space="preserve">9.76707363128662</t>
@@ -1838,7 +1838,7 @@
     <t xml:space="preserve">9.59806156158447</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51800441741943</t>
+    <t xml:space="preserve">9.51800346374512</t>
   </si>
   <si>
     <t xml:space="preserve">9.33120155334473</t>
@@ -1850,28 +1850,28 @@
     <t xml:space="preserve">9.08213233947754</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96649360656738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00207424163818</t>
+    <t xml:space="preserve">8.96649265289307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0020751953125</t>
   </si>
   <si>
     <t xml:space="preserve">8.99317932128906</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1977710723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8649206161499</t>
+    <t xml:space="preserve">9.19777202606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.86492156982422</t>
   </si>
   <si>
     <t xml:space="preserve">9.78486347198486</t>
   </si>
   <si>
-    <t xml:space="preserve">9.75817680358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99835109710693</t>
+    <t xml:space="preserve">9.75817775726318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99835205078125</t>
   </si>
   <si>
     <t xml:space="preserve">10.4342231750488</t>
@@ -1880,7 +1880,7 @@
     <t xml:space="preserve">10.5676527023315</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1673631668091</t>
+    <t xml:space="preserve">10.1673622131348</t>
   </si>
   <si>
     <t xml:space="preserve">9.97166538238525</t>
@@ -1889,19 +1889,19 @@
     <t xml:space="preserve">9.8560266494751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18887710571289</t>
+    <t xml:space="preserve">9.18887615203857</t>
   </si>
   <si>
     <t xml:space="preserve">9.27782917022705</t>
   </si>
   <si>
-    <t xml:space="preserve">9.16219043731689</t>
+    <t xml:space="preserve">9.16219139099121</t>
   </si>
   <si>
     <t xml:space="preserve">9.07778263092041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0914192199707</t>
+    <t xml:space="preserve">9.09142017364502</t>
   </si>
   <si>
     <t xml:space="preserve">9.05959987640381</t>
@@ -1934,22 +1934,22 @@
     <t xml:space="preserve">8.68230628967285</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88231658935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9959602355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9777774810791</t>
+    <t xml:space="preserve">8.88231754302979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99596118927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97777652740479</t>
   </si>
   <si>
     <t xml:space="preserve">9.21870136260986</t>
   </si>
   <si>
-    <t xml:space="preserve">9.07323837280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04596424102783</t>
+    <t xml:space="preserve">9.07323741912842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04596328735352</t>
   </si>
   <si>
     <t xml:space="preserve">9.04141712188721</t>
@@ -1967,7 +1967,7 @@
     <t xml:space="preserve">9.33688831329346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17324352264404</t>
+    <t xml:space="preserve">9.17324256896973</t>
   </si>
   <si>
     <t xml:space="preserve">9.03232574462891</t>
@@ -1976,22 +1976,22 @@
     <t xml:space="preserve">9.20960903167725</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44598484039307</t>
+    <t xml:space="preserve">9.44598579406738</t>
   </si>
   <si>
     <t xml:space="preserve">9.38234615325928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61872291564941</t>
+    <t xml:space="preserve">9.6187219619751</t>
   </si>
   <si>
     <t xml:space="preserve">9.66417980194092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57326698303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25506687164307</t>
+    <t xml:space="preserve">9.57326602935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25506591796875</t>
   </si>
   <si>
     <t xml:space="preserve">9.12778663635254</t>
@@ -2009,43 +2009,43 @@
     <t xml:space="preserve">8.79140377044678</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93686580657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24597454071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40962028503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.34597969055176</t>
+    <t xml:space="preserve">8.93686676025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24597549438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40961933135986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.34598064422607</t>
   </si>
   <si>
     <t xml:space="preserve">8.47774982452393</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42774677276611</t>
+    <t xml:space="preserve">8.4277458190918</t>
   </si>
   <si>
     <t xml:space="preserve">8.46865844726562</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25046539306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05499839782715</t>
+    <t xml:space="preserve">8.25046443939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05499935150146</t>
   </si>
   <si>
     <t xml:space="preserve">7.89589834213257</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92771863937378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90953683853149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65497493743896</t>
+    <t xml:space="preserve">7.92771768569946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90953588485718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65497541427612</t>
   </si>
   <si>
     <t xml:space="preserve">7.56406259536743</t>
@@ -2066,34 +2066,34 @@
     <t xml:space="preserve">7.5367865562439</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78680086135864</t>
+    <t xml:space="preserve">7.7868013381958</t>
   </si>
   <si>
     <t xml:space="preserve">7.66861248016357</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53224182128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45496463775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71407032012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72316217422485</t>
+    <t xml:space="preserve">7.5322413444519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45496416091919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71406984329224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7231616973877</t>
   </si>
   <si>
     <t xml:space="preserve">7.59588098526001</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80498456954956</t>
+    <t xml:space="preserve">7.8049840927124</t>
   </si>
   <si>
     <t xml:space="preserve">8.07772731781006</t>
   </si>
   <si>
-    <t xml:space="preserve">8.27773952484131</t>
+    <t xml:space="preserve">8.27773857116699</t>
   </si>
   <si>
     <t xml:space="preserve">8.35501480102539</t>
@@ -2129,28 +2129,28 @@
     <t xml:space="preserve">8.02317810058594</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11863899230957</t>
+    <t xml:space="preserve">8.11863803863525</t>
   </si>
   <si>
     <t xml:space="preserve">8.12773036956787</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95499324798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78225564956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.67315912246704</t>
+    <t xml:space="preserve">7.95499229431152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78225660324097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.67315864562988</t>
   </si>
   <si>
     <t xml:space="preserve">7.72770881652832</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7186164855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58224487304688</t>
+    <t xml:space="preserve">7.71861600875854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58224439620972</t>
   </si>
   <si>
     <t xml:space="preserve">7.74589014053345</t>
@@ -2165,7 +2165,7 @@
     <t xml:space="preserve">8.3004674911499</t>
   </si>
   <si>
-    <t xml:space="preserve">8.33683204650879</t>
+    <t xml:space="preserve">8.33683300018311</t>
   </si>
   <si>
     <t xml:space="preserve">8.09136390686035</t>
@@ -2183,28 +2183,28 @@
     <t xml:space="preserve">8.59593868255615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.66866970062256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96868705749512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67776107788086</t>
+    <t xml:space="preserve">8.66866874694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9686861038208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67776012420654</t>
   </si>
   <si>
     <t xml:space="preserve">8.74594593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29143142700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45507717132568</t>
+    <t xml:space="preserve">9.29143238067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.455078125</t>
   </si>
   <si>
     <t xml:space="preserve">9.48235130310059</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71872806549072</t>
+    <t xml:space="preserve">9.71872711181641</t>
   </si>
   <si>
     <t xml:space="preserve">9.90964889526367</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">10.0551118850708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81873416900635</t>
+    <t xml:space="preserve">9.81873512268066</t>
   </si>
   <si>
     <t xml:space="preserve">9.69145393371582</t>
@@ -2225,19 +2225,19 @@
     <t xml:space="preserve">9.83691596984863</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58235549926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76418590545654</t>
+    <t xml:space="preserve">9.58235645294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76418685913086</t>
   </si>
   <si>
     <t xml:space="preserve">9.65508842468262</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82782649993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0005617141724</t>
+    <t xml:space="preserve">9.82782554626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0005626678467</t>
   </si>
   <si>
     <t xml:space="preserve">10.0823850631714</t>
@@ -2258,13 +2258,13 @@
     <t xml:space="preserve">10.2278470993042</t>
   </si>
   <si>
-    <t xml:space="preserve">10.282395362854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3642196655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2369403839111</t>
+    <t xml:space="preserve">10.2823963165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.364218711853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2369394302368</t>
   </si>
   <si>
     <t xml:space="preserve">10.2005739212036</t>
@@ -2282,7 +2282,7 @@
     <t xml:space="preserve">10.3278541564941</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0278377532959</t>
+    <t xml:space="preserve">10.0278367996216</t>
   </si>
   <si>
     <t xml:space="preserve">10.0732936859131</t>
@@ -2291,10 +2291,10 @@
     <t xml:space="preserve">10.1551170349121</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6369047164917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.87328338623047</t>
+    <t xml:space="preserve">9.63690567016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.87328243255615</t>
   </si>
   <si>
     <t xml:space="preserve">9.98237991333008</t>
@@ -2315,7 +2315,7 @@
     <t xml:space="preserve">10.0914764404297</t>
   </si>
   <si>
-    <t xml:space="preserve">9.92783164978027</t>
+    <t xml:space="preserve">9.92783069610596</t>
   </si>
   <si>
     <t xml:space="preserve">9.64599800109863</t>
@@ -2324,19 +2324,19 @@
     <t xml:space="preserve">9.54599094390869</t>
   </si>
   <si>
-    <t xml:space="preserve">9.67327213287354</t>
+    <t xml:space="preserve">9.67327117919922</t>
   </si>
   <si>
     <t xml:space="preserve">9.53690052032471</t>
   </si>
   <si>
-    <t xml:space="preserve">9.35507297515869</t>
+    <t xml:space="preserve">9.35507202148438</t>
   </si>
   <si>
     <t xml:space="preserve">9.60054016113281</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4641695022583</t>
+    <t xml:space="preserve">9.46416854858398</t>
   </si>
   <si>
     <t xml:space="preserve">9.41871070861816</t>
@@ -2345,10 +2345,10 @@
     <t xml:space="preserve">9.78236865997314</t>
   </si>
   <si>
-    <t xml:space="preserve">9.77327728271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55508232116699</t>
+    <t xml:space="preserve">9.77327632904053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55508327484131</t>
   </si>
   <si>
     <t xml:space="preserve">9.59144878387451</t>
@@ -2372,52 +2372,52 @@
     <t xml:space="preserve">8.40047264099121</t>
   </si>
   <si>
-    <t xml:space="preserve">8.21864414215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77316522598267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87771606445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70043420791626</t>
+    <t xml:space="preserve">8.21864318847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77316474914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87771511077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7004337310791</t>
   </si>
   <si>
     <t xml:space="preserve">7.37768793106079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44587326049805</t>
+    <t xml:space="preserve">7.44587373733521</t>
   </si>
   <si>
     <t xml:space="preserve">6.81856536865234</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89129638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79583644866943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36399459838867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61855411529541</t>
+    <t xml:space="preserve">6.89129686355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79583692550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36399412155151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61855459213257</t>
   </si>
   <si>
     <t xml:space="preserve">6.09125185012817</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19125699996948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79129076004028</t>
+    <t xml:space="preserve">6.19125747680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79129028320312</t>
   </si>
   <si>
     <t xml:space="preserve">7.37314081192017</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00954151153564</t>
+    <t xml:space="preserve">8.00954055786133</t>
   </si>
   <si>
     <t xml:space="preserve">7.07312440872192</t>
@@ -2432,19 +2432,19 @@
     <t xml:space="preserve">6.54582214355469</t>
   </si>
   <si>
-    <t xml:space="preserve">6.04579448699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17761993408203</t>
+    <t xml:space="preserve">6.04579496383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17762041091919</t>
   </si>
   <si>
     <t xml:space="preserve">6.06397724151611</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81850957870483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37302923202515</t>
+    <t xml:space="preserve">5.81850910186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3730297088623</t>
   </si>
   <si>
     <t xml:space="preserve">5.67304611206055</t>
@@ -2468,7 +2468,7 @@
     <t xml:space="preserve">6.14580011367798</t>
   </si>
   <si>
-    <t xml:space="preserve">6.28217124938965</t>
+    <t xml:space="preserve">6.28217172622681</t>
   </si>
   <si>
     <t xml:space="preserve">6.227623462677</t>
@@ -2477,16 +2477,16 @@
     <t xml:space="preserve">6.27762603759766</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63673734664917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.83220291137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08676290512085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9412989616394</t>
+    <t xml:space="preserve">6.63673686981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.83220243453979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08676242828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94129943847656</t>
   </si>
   <si>
     <t xml:space="preserve">7.11858224868774</t>
@@ -2495,13 +2495,13 @@
     <t xml:space="preserve">7.05948829650879</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96857357025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72310495376587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71855974197388</t>
+    <t xml:space="preserve">6.96857404708862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72310543060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71856021881104</t>
   </si>
   <si>
     <t xml:space="preserve">6.59582567214966</t>
@@ -2549,7 +2549,7 @@
     <t xml:space="preserve">8.08227348327637</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96408414840698</t>
+    <t xml:space="preserve">7.96408319473267</t>
   </si>
   <si>
     <t xml:space="preserve">7.83225870132446</t>
@@ -2561,13 +2561,13 @@
     <t xml:space="preserve">7.62315607070923</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61861038208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47314739227295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49587535858154</t>
+    <t xml:space="preserve">7.61861085891724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47314786911011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4958758354187</t>
   </si>
   <si>
     <t xml:space="preserve">7.43678188323975</t>
@@ -2591,13 +2591,13 @@
     <t xml:space="preserve">7.67770528793335</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52315044403076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.636794090271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59133625030518</t>
+    <t xml:space="preserve">7.52315092086792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63679361343384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59133672714233</t>
   </si>
   <si>
     <t xml:space="preserve">7.40950727462769</t>
@@ -2609,16 +2609,16 @@
     <t xml:space="preserve">7.70952415466309</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42769050598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94584512710571</t>
+    <t xml:space="preserve">7.42769002914429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94584560394287</t>
   </si>
   <si>
     <t xml:space="preserve">6.85493040084839</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93675374984741</t>
+    <t xml:space="preserve">6.93675327301025</t>
   </si>
   <si>
     <t xml:space="preserve">7.00039386749268</t>
@@ -2627,16 +2627,16 @@
     <t xml:space="preserve">6.92766284942627</t>
   </si>
   <si>
-    <t xml:space="preserve">6.95493698120117</t>
+    <t xml:space="preserve">6.95493745803833</t>
   </si>
   <si>
     <t xml:space="preserve">7.08221626281738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31859254837036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40041589736938</t>
+    <t xml:space="preserve">7.31859302520752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40041542053223</t>
   </si>
   <si>
     <t xml:space="preserve">7.31404829025269</t>
@@ -2666,10 +2666,10 @@
     <t xml:space="preserve">7.62770175933838</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55951690673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76407337188721</t>
+    <t xml:space="preserve">7.55951642990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76407289505005</t>
   </si>
   <si>
     <t xml:space="preserve">7.88226127624512</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">7.85044145584106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68224954605103</t>
+    <t xml:space="preserve">7.68225049972534</t>
   </si>
   <si>
     <t xml:space="preserve">7.13676500320435</t>
@@ -2699,13 +2699,13 @@
     <t xml:space="preserve">7.57769966125488</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75498199462891</t>
+    <t xml:space="preserve">7.75498247146606</t>
   </si>
   <si>
     <t xml:space="preserve">8.15045833587646</t>
   </si>
   <si>
-    <t xml:space="preserve">8.20955181121826</t>
+    <t xml:space="preserve">8.20955276489258</t>
   </si>
   <si>
     <t xml:space="preserve">8.29137516021729</t>
@@ -2717,13 +2717,13 @@
     <t xml:space="preserve">7.96863126754761</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89135313034058</t>
+    <t xml:space="preserve">7.89135408401489</t>
   </si>
   <si>
     <t xml:space="preserve">7.90498924255371</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85498762130737</t>
+    <t xml:space="preserve">7.85498666763306</t>
   </si>
   <si>
     <t xml:space="preserve">8.05954360961914</t>
@@ -2735,7 +2735,7 @@
     <t xml:space="preserve">8.25955486297607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28228282928467</t>
+    <t xml:space="preserve">8.28228378295898</t>
   </si>
   <si>
     <t xml:space="preserve">8.45047378540039</t>
@@ -2744,31 +2744,31 @@
     <t xml:space="preserve">8.85958957672119</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8458948135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10954761505127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94590139389038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00044918060303</t>
+    <t xml:space="preserve">7.84589576721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10954666137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9459023475647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00045013427734</t>
   </si>
   <si>
     <t xml:space="preserve">8.06863594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">8.15500354766846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.56417465209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.5096263885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73691082000732</t>
+    <t xml:space="preserve">8.15500450134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.56417369842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50962543487549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73691177368164</t>
   </si>
   <si>
     <t xml:space="preserve">10.191481590271</t>
@@ -2780,7 +2780,7 @@
     <t xml:space="preserve">9.74600315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70963764190674</t>
+    <t xml:space="preserve">9.70963859558105</t>
   </si>
   <si>
     <t xml:space="preserve">9.70054531097412</t>
@@ -2798,7 +2798,7 @@
     <t xml:space="preserve">9.75509357452393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.72782039642334</t>
+    <t xml:space="preserve">9.72781944274902</t>
   </si>
   <si>
     <t xml:space="preserve">9.96419715881348</t>
@@ -2807,7 +2807,7 @@
     <t xml:space="preserve">9.84600925445557</t>
   </si>
   <si>
-    <t xml:space="preserve">9.36416339874268</t>
+    <t xml:space="preserve">9.36416244506836</t>
   </si>
   <si>
     <t xml:space="preserve">10.1005687713623</t>
@@ -2819,7 +2819,7 @@
     <t xml:space="preserve">10.4642248153687</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4914979934692</t>
+    <t xml:space="preserve">10.4914989471436</t>
   </si>
   <si>
     <t xml:space="preserve">10.3005790710449</t>
@@ -2837,10 +2837,10 @@
     <t xml:space="preserve">9.86419105529785</t>
   </si>
   <si>
-    <t xml:space="preserve">9.79145908355713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1823902130127</t>
+    <t xml:space="preserve">9.79146003723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.182391166687</t>
   </si>
   <si>
     <t xml:space="preserve">9.91874027252197</t>
@@ -2849,37 +2849,37 @@
     <t xml:space="preserve">9.27324867248535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50053405761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62781524658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60963153839111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6823616027832</t>
+    <t xml:space="preserve">9.5005350112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62781429290771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60963249206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.68236255645752</t>
   </si>
   <si>
     <t xml:space="preserve">9.52780818939209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51871776580811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22779178619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40052890777588</t>
+    <t xml:space="preserve">9.51871681213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22779083251953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4005298614502</t>
   </si>
   <si>
     <t xml:space="preserve">9.16415214538574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32779884338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30052280426025</t>
+    <t xml:space="preserve">9.32779788970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30052375793457</t>
   </si>
   <si>
     <t xml:space="preserve">9.52351379394531</t>
@@ -2888,7 +2888,7 @@
     <t xml:space="preserve">9.53336048126221</t>
   </si>
   <si>
-    <t xml:space="preserve">9.52406024932861</t>
+    <t xml:space="preserve">9.5240592956543</t>
   </si>
   <si>
     <t xml:space="preserve">9.77518272399902</t>
@@ -2897,13 +2897,13 @@
     <t xml:space="preserve">9.92399597167969</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0821113586426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1565170288086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1751174926758</t>
+    <t xml:space="preserve">10.0821104049683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1565179824829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1751184463501</t>
   </si>
   <si>
     <t xml:space="preserve">10.3053312301636</t>
@@ -2927,7 +2927,7 @@
     <t xml:space="preserve">9.86819076538086</t>
   </si>
   <si>
-    <t xml:space="preserve">9.85888957977295</t>
+    <t xml:space="preserve">9.85889053344727</t>
   </si>
   <si>
     <t xml:space="preserve">9.69147491455078</t>
@@ -2939,10 +2939,10 @@
     <t xml:space="preserve">9.98910140991211</t>
   </si>
   <si>
-    <t xml:space="preserve">9.9611988067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0449066162109</t>
+    <t xml:space="preserve">9.96119976043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0449075698853</t>
   </si>
   <si>
     <t xml:space="preserve">9.84958934783936</t>
@@ -2963,10 +2963,10 @@
     <t xml:space="preserve">9.70077705383301</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1193141937256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.99840354919434</t>
+    <t xml:space="preserve">10.1193132400513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.99840259552002</t>
   </si>
   <si>
     <t xml:space="preserve">9.63566970825195</t>
@@ -2987,7 +2987,7 @@
     <t xml:space="preserve">10.2495260238647</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7703723907471</t>
+    <t xml:space="preserve">10.7703733444214</t>
   </si>
   <si>
     <t xml:space="preserve">10.9656896591187</t>
@@ -2996,7 +2996,7 @@
     <t xml:space="preserve">11.0400972366333</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0773000717163</t>
+    <t xml:space="preserve">11.077299118042</t>
   </si>
   <si>
     <t xml:space="preserve">11.1331052780151</t>
@@ -3017,10 +3017,10 @@
     <t xml:space="preserve">11.5051383972168</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4958372116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5330419540405</t>
+    <t xml:space="preserve">11.4958381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5330410003662</t>
   </si>
   <si>
     <t xml:space="preserve">11.4214315414429</t>
@@ -3035,7 +3035,7 @@
     <t xml:space="preserve">11.4400329589844</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4121313095093</t>
+    <t xml:space="preserve">11.412130355835</t>
   </si>
   <si>
     <t xml:space="preserve">11.3749265670776</t>
@@ -3062,22 +3062,22 @@
     <t xml:space="preserve">11.1982116699219</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1517066955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1796102523804</t>
+    <t xml:space="preserve">11.151707649231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1796092987061</t>
   </si>
   <si>
     <t xml:space="preserve">11.2354145050049</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8075761795044</t>
+    <t xml:space="preserve">10.8075752258301</t>
   </si>
   <si>
     <t xml:space="preserve">10.6308603286743</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2681274414062</t>
+    <t xml:space="preserve">10.2681264877319</t>
   </si>
   <si>
     <t xml:space="preserve">10.3239326477051</t>
@@ -3095,7 +3095,7 @@
     <t xml:space="preserve">10.4634447097778</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2309226989746</t>
+    <t xml:space="preserve">10.2309236526489</t>
   </si>
   <si>
     <t xml:space="preserve">10.1658182144165</t>
@@ -3107,22 +3107,22 @@
     <t xml:space="preserve">9.82168769836426</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0263051986694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0635089874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1100120544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2030220031738</t>
+    <t xml:space="preserve">10.0263061523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0635080337524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1100130081177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2030210494995</t>
   </si>
   <si>
     <t xml:space="preserve">10.2123212814331</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1844205856323</t>
+    <t xml:space="preserve">10.184419631958</t>
   </si>
   <si>
     <t xml:space="preserve">10.221622467041</t>
@@ -3155,16 +3155,16 @@
     <t xml:space="preserve">10.8261785507202</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9005842208862</t>
+    <t xml:space="preserve">10.9005851745605</t>
   </si>
   <si>
     <t xml:space="preserve">10.7238683700562</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6773643493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7982749938965</t>
+    <t xml:space="preserve">10.6773633956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7982740402222</t>
   </si>
   <si>
     <t xml:space="preserve">10.8168773651123</t>
@@ -3176,13 +3176,13 @@
     <t xml:space="preserve">11.2447156906128</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0866012573242</t>
+    <t xml:space="preserve">11.0866022109985</t>
   </si>
   <si>
     <t xml:space="preserve">11.1610078811646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9470891952515</t>
+    <t xml:space="preserve">10.9470882415771</t>
   </si>
   <si>
     <t xml:space="preserve">10.4541444778442</t>
@@ -3212,10 +3212,10 @@
     <t xml:space="preserve">11.4865379333496</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5144395828247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5795450210571</t>
+    <t xml:space="preserve">11.514440536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5795459747314</t>
   </si>
   <si>
     <t xml:space="preserve">11.6539516448975</t>
@@ -3239,10 +3239,10 @@
     <t xml:space="preserve">12.4445238113403</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0817899703979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2771091461182</t>
+    <t xml:space="preserve">12.0817909240723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2771081924438</t>
   </si>
   <si>
     <t xml:space="preserve">11.6260499954224</t>
@@ -3251,16 +3251,16 @@
     <t xml:space="preserve">11.6167497634888</t>
   </si>
   <si>
-    <t xml:space="preserve">11.73766040802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6725549697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5423421859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2168130874634</t>
+    <t xml:space="preserve">11.7376594543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6725540161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5423412322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2168140411377</t>
   </si>
   <si>
     <t xml:space="preserve">10.7052669525146</t>
@@ -3269,10 +3269,10 @@
     <t xml:space="preserve">10.9191856384277</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7517709732056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.92848777771</t>
+    <t xml:space="preserve">10.7517719268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9284868240356</t>
   </si>
   <si>
     <t xml:space="preserve">11.0959024429321</t>
@@ -3281,19 +3281,19 @@
     <t xml:space="preserve">11.002893447876</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7889738082886</t>
+    <t xml:space="preserve">10.7889747619629</t>
   </si>
   <si>
     <t xml:space="preserve">11.1052026748657</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0121946334839</t>
+    <t xml:space="preserve">11.0121936798096</t>
   </si>
   <si>
     <t xml:space="preserve">10.779673576355</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9935932159424</t>
+    <t xml:space="preserve">10.9935922622681</t>
   </si>
   <si>
     <t xml:space="preserve">9.79378414154053</t>
@@ -3302,22 +3302,22 @@
     <t xml:space="preserve">9.13807487487793</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30564975738525</t>
+    <t xml:space="preserve">8.30565071105957</t>
   </si>
   <si>
     <t xml:space="preserve">8.31494998931885</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45446300506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7985954284668</t>
+    <t xml:space="preserve">8.45446395874023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79859447479248</t>
   </si>
   <si>
     <t xml:space="preserve">8.50096797943115</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64978218078613</t>
+    <t xml:space="preserve">8.64978122711182</t>
   </si>
   <si>
     <t xml:space="preserve">8.84974956512451</t>
@@ -3326,10 +3326,10 @@
     <t xml:space="preserve">8.99391174316406</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42175006866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29619026184082</t>
+    <t xml:space="preserve">9.42175102233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2961893081665</t>
   </si>
   <si>
     <t xml:space="preserve">9.34734439849854</t>
@@ -3362,16 +3362,16 @@
     <t xml:space="preserve">9.41244983673096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.3008394241333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.36594486236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.15202617645264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74744033813477</t>
+    <t xml:space="preserve">9.30084037780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.36594581604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15202713012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74743938446045</t>
   </si>
   <si>
     <t xml:space="preserve">8.56607341766357</t>
@@ -3380,16 +3380,16 @@
     <t xml:space="preserve">8.66838264465332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57537364959717</t>
+    <t xml:space="preserve">8.57537460327148</t>
   </si>
   <si>
     <t xml:space="preserve">8.61257743835449</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65443134307861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67303371429443</t>
+    <t xml:space="preserve">8.65443229675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67303276062012</t>
   </si>
   <si>
     <t xml:space="preserve">8.82649707794189</t>
@@ -3401,7 +3401,7 @@
     <t xml:space="preserve">9.02646541595459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88695240020752</t>
+    <t xml:space="preserve">8.88695335388184</t>
   </si>
   <si>
     <t xml:space="preserve">8.76604175567627</t>
@@ -3419,16 +3419,16 @@
     <t xml:space="preserve">8.6032772064209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48236656188965</t>
+    <t xml:space="preserve">8.48236560821533</t>
   </si>
   <si>
     <t xml:space="preserve">8.55212211608887</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42191028594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20783138275146</t>
+    <t xml:space="preserve">8.42191123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20783042907715</t>
   </si>
   <si>
     <t xml:space="preserve">10.0077037811279</t>
@@ -4905,6 +4905,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.81999969482422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73200035095215</t>
   </si>
 </sst>
 </file>
@@ -63252,7 +63255,7 @@
     </row>
     <row r="2232">
       <c r="A2232" s="1" t="n">
-        <v>45572.6493171296</v>
+        <v>45572.2916666667</v>
       </c>
       <c r="B2232" t="n">
         <v>540799</v>
@@ -63273,6 +63276,32 @@
         <v>1630</v>
       </c>
       <c r="H2232" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="1" t="n">
+        <v>45573.6493634259</v>
+      </c>
+      <c r="B2233" t="n">
+        <v>456888</v>
+      </c>
+      <c r="C2233" t="n">
+        <v>9.87399959564209</v>
+      </c>
+      <c r="D2233" t="n">
+        <v>9.69200038909912</v>
+      </c>
+      <c r="E2233" t="n">
+        <v>9.70400047302246</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>9.73200035095215</v>
+      </c>
+      <c r="G2233" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H2233" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/BRE.MI.xlsx
+++ b/data/BRE.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="1632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1633">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,40 +44,40 @@
     <t xml:space="preserve">BRE.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40021514892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17991971969604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.76305389404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77999925613403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6630744934082</t>
+    <t xml:space="preserve">7.40021419525146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17991924285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.76305341720581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77999973297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.66307401657104</t>
   </si>
   <si>
     <t xml:space="preserve">6.84100532531738</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02910137176514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79016780853271</t>
+    <t xml:space="preserve">7.02910184860229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79016733169556</t>
   </si>
   <si>
     <t xml:space="preserve">6.4393892288208</t>
   </si>
   <si>
-    <t xml:space="preserve">6.42413902282715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.50378370285034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.16317367553711</t>
+    <t xml:space="preserve">6.42413949966431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.50378322601318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.16317415237427</t>
   </si>
   <si>
     <t xml:space="preserve">6.42922210693359</t>
@@ -104,43 +104,43 @@
     <t xml:space="preserve">6.2800989151001</t>
   </si>
   <si>
-    <t xml:space="preserve">6.21062183380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.078444480896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91237592697144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.55482149124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71749973297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.93101644515991</t>
+    <t xml:space="preserve">6.21062231063843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07844352722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91237640380859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5548210144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71749925613403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.93101739883423</t>
   </si>
   <si>
     <t xml:space="preserve">5.88187503814697</t>
   </si>
   <si>
-    <t xml:space="preserve">5.94118547439575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25976514816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19198179244995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34279870986938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36482810974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32246351242065</t>
+    <t xml:space="preserve">5.94118404388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.259765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19198083877563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34279918670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36482858657837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32246398925781</t>
   </si>
   <si>
     <t xml:space="preserve">6.46480798721313</t>
@@ -155,130 +155,130 @@
     <t xml:space="preserve">6.29535102844238</t>
   </si>
   <si>
-    <t xml:space="preserve">6.35296583175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.44616889953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58342933654785</t>
+    <t xml:space="preserve">6.35296630859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.44616794586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58342885971069</t>
   </si>
   <si>
     <t xml:space="preserve">6.55462121963501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30362367630005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34090375900269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3764910697937</t>
+    <t xml:space="preserve">7.30362462997437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34090423583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37649059295654</t>
   </si>
   <si>
     <t xml:space="preserve">7.33751583099365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37987947463989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32904148101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.32395887374878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.42224407196045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40360307693481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51375007629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40190935134888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49341535568237</t>
+    <t xml:space="preserve">7.37988042831421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32904195785522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.32395839691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42224311828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40360450744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5137505531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40190982818604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49341487884521</t>
   </si>
   <si>
     <t xml:space="preserve">7.33412504196167</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53408670425415</t>
+    <t xml:space="preserve">7.53408575057983</t>
   </si>
   <si>
     <t xml:space="preserve">7.41377067565918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41207599639893</t>
+    <t xml:space="preserve">7.41207647323608</t>
   </si>
   <si>
     <t xml:space="preserve">7.58153486251831</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70184993743896</t>
+    <t xml:space="preserve">7.70184946060181</t>
   </si>
   <si>
     <t xml:space="preserve">7.67304134368896</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62389755249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40529823303223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45105171203613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4239387512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53916931152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57644987106323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6255931854248</t>
+    <t xml:space="preserve">7.62389850616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40529918670654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45105123519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.42393922805786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5391697883606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57645034790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.62559366226196</t>
   </si>
   <si>
     <t xml:space="preserve">7.67643070220947</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69337368011475</t>
+    <t xml:space="preserve">7.69337606430054</t>
   </si>
   <si>
     <t xml:space="preserve">7.66287469863892</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71032238006592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74421310424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78488302230835</t>
+    <t xml:space="preserve">7.71032094955444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74421405792236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78488349914551</t>
   </si>
   <si>
     <t xml:space="preserve">8.05093193054199</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99670600891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91367053985596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96281433105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02381896972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94925737380981</t>
+    <t xml:space="preserve">7.99670505523682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91367101669312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96281337738037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02381992340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94925689697266</t>
   </si>
   <si>
     <t xml:space="preserve">8.00348377227783</t>
@@ -287,13 +287,13 @@
     <t xml:space="preserve">7.90858793258667</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99162292480469</t>
+    <t xml:space="preserve">7.99162149429321</t>
   </si>
   <si>
     <t xml:space="preserve">8.1424388885498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.78637790679932</t>
+    <t xml:space="preserve">8.786376953125</t>
   </si>
   <si>
     <t xml:space="preserve">8.81179714202881</t>
@@ -305,40 +305,40 @@
     <t xml:space="preserve">8.86263370513916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73554039001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.66775894165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6592845916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.71859645843506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83048439025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76162815093994</t>
+    <t xml:space="preserve">8.73554229736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.66775703430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65928363800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71859550476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83048248291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76162910461426</t>
   </si>
   <si>
     <t xml:space="preserve">8.82187652587891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77023506164551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77884292602539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92515659332275</t>
+    <t xml:space="preserve">8.77023696899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77884101867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92515563964844</t>
   </si>
   <si>
     <t xml:space="preserve">8.95097732543945</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0456485748291</t>
+    <t xml:space="preserve">9.04565048217773</t>
   </si>
   <si>
     <t xml:space="preserve">9.28663730621338</t>
@@ -347,16 +347,16 @@
     <t xml:space="preserve">9.19196510314941</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18335723876953</t>
+    <t xml:space="preserve">9.18335628509521</t>
   </si>
   <si>
     <t xml:space="preserve">8.89933586120605</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57744407653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40531158447266</t>
+    <t xml:space="preserve">8.57744312286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40531063079834</t>
   </si>
   <si>
     <t xml:space="preserve">8.60670852661133</t>
@@ -365,19 +365,19 @@
     <t xml:space="preserve">8.61531448364258</t>
   </si>
   <si>
-    <t xml:space="preserve">8.91654777526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93376445770264</t>
+    <t xml:space="preserve">8.91654872894287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.933762550354</t>
   </si>
   <si>
     <t xml:space="preserve">8.88212299346924</t>
   </si>
   <si>
-    <t xml:space="preserve">9.03704357147217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5602331161499</t>
+    <t xml:space="preserve">9.03704261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56023120880127</t>
   </si>
   <si>
     <t xml:space="preserve">7.91989231109619</t>
@@ -386,31 +386,31 @@
     <t xml:space="preserve">8.55506801605225</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35367107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50514793395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5378532409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13333892822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95948362350464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95776176452637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24522495269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32096672058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34850692749023</t>
+    <t xml:space="preserve">8.35367202758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50514888763428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53785419464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.13333797454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95948314666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95776224136353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24522686004639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32096576690674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.34850597381592</t>
   </si>
   <si>
     <t xml:space="preserve">8.26932430267334</t>
@@ -419,37 +419,37 @@
     <t xml:space="preserve">8.44145965576172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40875434875488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5344123840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40014743804932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.51031303405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46555805206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62392139434814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67556190490723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81326770782471</t>
+    <t xml:space="preserve">8.40875339508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53441143035889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.400146484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.51031398773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4655590057373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62392234802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67556285858154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81326866149902</t>
   </si>
   <si>
     <t xml:space="preserve">8.66695404052734</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99400997161865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.08868503570557</t>
+    <t xml:space="preserve">8.99400901794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.08868408203125</t>
   </si>
   <si>
     <t xml:space="preserve">8.84769535064697</t>
@@ -464,31 +464,31 @@
     <t xml:space="preserve">9.05425643920898</t>
   </si>
   <si>
-    <t xml:space="preserve">9.00261688232422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.06286430358887</t>
+    <t xml:space="preserve">9.00261783599854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.06286239624023</t>
   </si>
   <si>
     <t xml:space="preserve">8.9854040145874</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79605579376221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75302314758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78744792938232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70998859405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73580741882324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.96818828582764</t>
+    <t xml:space="preserve">8.79605484008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75302219390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78744888305664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70998764038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73580837249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.96819019317627</t>
   </si>
   <si>
     <t xml:space="preserve">9.01122379302979</t>
@@ -503,64 +503,64 @@
     <t xml:space="preserve">9.16614437103271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20917701721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10589694976807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1231107711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14032459259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.22639179229736</t>
+    <t xml:space="preserve">9.20917797088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10589790344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.12310981750488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14032363891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.22639083862305</t>
   </si>
   <si>
     <t xml:space="preserve">9.38131141662598</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13171672821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94236850738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01983070373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14892959594727</t>
+    <t xml:space="preserve">9.13171768188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94237041473389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01982975006104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1489315032959</t>
   </si>
   <si>
     <t xml:space="preserve">9.07147026062012</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37270450592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47598457336426</t>
+    <t xml:space="preserve">9.37270545959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47598552703857</t>
   </si>
   <si>
     <t xml:space="preserve">9.62230014801025</t>
   </si>
   <si>
-    <t xml:space="preserve">9.69115352630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.69976043701172</t>
+    <t xml:space="preserve">9.69115257263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6997594833374</t>
   </si>
   <si>
     <t xml:space="preserve">9.48459339141846</t>
   </si>
   <si>
-    <t xml:space="preserve">9.26081657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09729099273682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.52762508392334</t>
+    <t xml:space="preserve">9.260817527771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0972900390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.52762603759766</t>
   </si>
   <si>
     <t xml:space="preserve">9.79443454742432</t>
@@ -572,19 +572,19 @@
     <t xml:space="preserve">9.32967185974121</t>
   </si>
   <si>
-    <t xml:space="preserve">9.46737861633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2436056137085</t>
+    <t xml:space="preserve">9.46737957000732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24360466003418</t>
   </si>
   <si>
     <t xml:space="preserve">9.25221061706543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33827781677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.31245803833008</t>
+    <t xml:space="preserve">9.33827877044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.31245708465576</t>
   </si>
   <si>
     <t xml:space="preserve">9.08007717132568</t>
@@ -593,46 +593,46 @@
     <t xml:space="preserve">9.45016670227051</t>
   </si>
   <si>
-    <t xml:space="preserve">9.56205272674561</t>
+    <t xml:space="preserve">9.56205177307129</t>
   </si>
   <si>
     <t xml:space="preserve">9.27803039550781</t>
   </si>
   <si>
-    <t xml:space="preserve">9.39852428436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40713119506836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53623390197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.65672588348389</t>
+    <t xml:space="preserve">9.39852523803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40713214874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53623294830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6567268371582</t>
   </si>
   <si>
     <t xml:space="preserve">9.70836544036865</t>
   </si>
   <si>
-    <t xml:space="preserve">9.83746814727783</t>
+    <t xml:space="preserve">9.83746719360352</t>
   </si>
   <si>
     <t xml:space="preserve">9.89771461486816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.328049659729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3882961273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1817359924316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3022289276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3452625274658</t>
+    <t xml:space="preserve">10.3280487060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3882970809937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1817350387573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3022298812866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3452634811401</t>
   </si>
   <si>
     <t xml:space="preserve">10.3710832595825</t>
@@ -644,31 +644,31 @@
     <t xml:space="preserve">10.5776453018188</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6034650802612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5862512588501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5690364837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5260038375854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4915761947632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5518255233765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5173969268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5948572158813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5001831054688</t>
+    <t xml:space="preserve">10.6034641265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5862503051758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.569037437439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5260047912598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4915771484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5518245697021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5173978805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5948581695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5001840591431</t>
   </si>
   <si>
     <t xml:space="preserve">10.4657573699951</t>
@@ -677,10 +677,10 @@
     <t xml:space="preserve">10.207555770874</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6895322799683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.448543548584</t>
+    <t xml:space="preserve">10.6895303726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4485445022583</t>
   </si>
   <si>
     <t xml:space="preserve">10.4399366378784</t>
@@ -689,31 +689,31 @@
     <t xml:space="preserve">10.9133062362671</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8272390365601</t>
+    <t xml:space="preserve">10.8272380828857</t>
   </si>
   <si>
     <t xml:space="preserve">10.9046993255615</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7669916152954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8530588150024</t>
+    <t xml:space="preserve">10.766993522644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8530597686768</t>
   </si>
   <si>
     <t xml:space="preserve">11.0768337249756</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1112594604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0424060821533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7842063903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0338001251221</t>
+    <t xml:space="preserve">11.1112604141235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0424070358276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7842054367065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0338010787964</t>
   </si>
   <si>
     <t xml:space="preserve">11.1887197494507</t>
@@ -722,46 +722,46 @@
     <t xml:space="preserve">11.3608551025391</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3264274597168</t>
+    <t xml:space="preserve">11.3264265060425</t>
   </si>
   <si>
     <t xml:space="preserve">11.1628999710083</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1715068817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2661790847778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1801147460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4383144378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2919998168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4469213485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.662088394165</t>
+    <t xml:space="preserve">11.1715087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2661800384521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1801128387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4383153915405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2920017242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4469223022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6620893478394</t>
   </si>
   <si>
     <t xml:space="preserve">11.5846281051636</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6362676620483</t>
+    <t xml:space="preserve">11.636269569397</t>
   </si>
   <si>
     <t xml:space="preserve">11.6706962585449</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6965169906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7567644119263</t>
+    <t xml:space="preserve">11.6965160369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.756763458252</t>
   </si>
   <si>
     <t xml:space="preserve">11.808403968811</t>
@@ -770,25 +770,25 @@
     <t xml:space="preserve">11.8686504364014</t>
   </si>
   <si>
-    <t xml:space="preserve">11.928897857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9202919006348</t>
+    <t xml:space="preserve">11.9288969039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9202899932861</t>
   </si>
   <si>
     <t xml:space="preserve">11.9375047683716</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1698846817017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1870994567871</t>
+    <t xml:space="preserve">12.1698865890503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1870985031128</t>
   </si>
   <si>
     <t xml:space="preserve">12.1182451248169</t>
   </si>
   <si>
-    <t xml:space="preserve">12.109637260437</t>
+    <t xml:space="preserve">12.1096382141113</t>
   </si>
   <si>
     <t xml:space="preserve">12.1526737213135</t>
@@ -797,10 +797,10 @@
     <t xml:space="preserve">12.1957054138184</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1440649032593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.014965057373</t>
+    <t xml:space="preserve">12.1440668106079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0149641036987</t>
   </si>
   <si>
     <t xml:space="preserve">12.1268520355225</t>
@@ -809,25 +809,25 @@
     <t xml:space="preserve">11.963324546814</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3936605453491</t>
+    <t xml:space="preserve">12.3936586380005</t>
   </si>
   <si>
     <t xml:space="preserve">12.496940612793</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3506259918213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4280862808228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4194812774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5916147232056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4883327484131</t>
+    <t xml:space="preserve">12.3506269454956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4280872344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4194803237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5916137695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4883337020874</t>
   </si>
   <si>
     <t xml:space="preserve">12.7379283905029</t>
@@ -842,19 +842,19 @@
     <t xml:space="preserve">12.9617033004761</t>
   </si>
   <si>
-    <t xml:space="preserve">12.9961290359497</t>
+    <t xml:space="preserve">12.9961309432983</t>
   </si>
   <si>
     <t xml:space="preserve">12.7207155227661</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6346483230591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6432552337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5227613449097</t>
+    <t xml:space="preserve">12.6346473693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6432542800903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.522759437561</t>
   </si>
   <si>
     <t xml:space="preserve">12.0666046142578</t>
@@ -863,40 +863,37 @@
     <t xml:space="preserve">11.9719305038452</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2387399673462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3696804046631</t>
+    <t xml:space="preserve">12.2387380599976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3696813583374</t>
   </si>
   <si>
     <t xml:space="preserve">12.3871393203735</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5006237030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6053771972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.212550163269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0816087722778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2387390136719</t>
+    <t xml:space="preserve">12.5006217956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6053781509399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2125492095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0816078186035</t>
   </si>
   <si>
     <t xml:space="preserve">12.1863613128662</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0205011367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9855842590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7149715423584</t>
+    <t xml:space="preserve">12.0205020904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9855833053589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7149705886841</t>
   </si>
   <si>
     <t xml:space="preserve">11.6102161407471</t>
@@ -908,34 +905,34 @@
     <t xml:space="preserve">11.4356260299683</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3570613861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6451320648193</t>
+    <t xml:space="preserve">11.3570604324341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6451330184937</t>
   </si>
   <si>
     <t xml:space="preserve">11.8371820449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6364049911499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.697509765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5752983093262</t>
+    <t xml:space="preserve">11.6364040374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6975107192993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5752964019775</t>
   </si>
   <si>
     <t xml:space="preserve">11.3221426010132</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4268960952759</t>
+    <t xml:space="preserve">11.4268951416016</t>
   </si>
   <si>
     <t xml:space="preserve">11.1562833786011</t>
   </si>
   <si>
-    <t xml:space="preserve">11.348331451416</t>
+    <t xml:space="preserve">11.3483304977417</t>
   </si>
   <si>
     <t xml:space="preserve">10.9642333984375</t>
@@ -947,10 +944,10 @@
     <t xml:space="preserve">11.1300945281982</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0427989959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1475534439087</t>
+    <t xml:space="preserve">11.042799949646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1475524902344</t>
   </si>
   <si>
     <t xml:space="preserve">11.8459119796753</t>
@@ -959,88 +956,88 @@
     <t xml:space="preserve">11.9419355392456</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7062406539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0641498565674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8808298110962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8284521102905</t>
+    <t xml:space="preserve">11.7062387466431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0641489028931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8808279037476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8284530639648</t>
   </si>
   <si>
     <t xml:space="preserve">11.7760744094849</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7324275970459</t>
+    <t xml:space="preserve">11.7324285507202</t>
   </si>
   <si>
     <t xml:space="preserve">11.6189451217651</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4007062911987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.391978263855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4094362258911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.287223815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3308715820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2697649002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2784948348999</t>
+    <t xml:space="preserve">11.400707244873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3919792175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4094371795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2872257232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3308734893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2697658538818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2784957885742</t>
   </si>
   <si>
     <t xml:space="preserve">11.0689878463745</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1737422943115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2610378265381</t>
+    <t xml:space="preserve">11.1737413406372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2610368728638</t>
   </si>
   <si>
     <t xml:space="preserve">11.095175743103</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3134145736694</t>
+    <t xml:space="preserve">11.3134126663208</t>
   </si>
   <si>
     <t xml:space="preserve">11.6713218688965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5578393936157</t>
+    <t xml:space="preserve">11.5578384399414</t>
   </si>
   <si>
     <t xml:space="preserve">11.4880018234253</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4530849456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6625928878784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7411575317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7935352325439</t>
+    <t xml:space="preserve">11.453085899353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6625938415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7411594390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7935361862183</t>
   </si>
   <si>
     <t xml:space="preserve">11.8109941482544</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9244766235352</t>
+    <t xml:space="preserve">11.9244775772095</t>
   </si>
   <si>
     <t xml:space="preserve">11.8197240829468</t>
@@ -1049,22 +1046,22 @@
     <t xml:space="preserve">11.9768543243408</t>
   </si>
   <si>
-    <t xml:space="preserve">12.107795715332</t>
+    <t xml:space="preserve">12.1077966690063</t>
   </si>
   <si>
     <t xml:space="preserve">12.1776313781738</t>
   </si>
   <si>
-    <t xml:space="preserve">12.352222442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3173036575317</t>
+    <t xml:space="preserve">12.3522214889526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3173055648804</t>
   </si>
   <si>
     <t xml:space="preserve">12.3784103393555</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4918947219849</t>
+    <t xml:space="preserve">12.4918937683105</t>
   </si>
   <si>
     <t xml:space="preserve">12.5355415344238</t>
@@ -1073,22 +1070,22 @@
     <t xml:space="preserve">12.5966482162476</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4744338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5180816650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4831638336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6228361129761</t>
+    <t xml:space="preserve">12.4744348526001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5180826187134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4831647872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6228351593018</t>
   </si>
   <si>
     <t xml:space="preserve">12.614107131958</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7625074386597</t>
+    <t xml:space="preserve">12.7625064849854</t>
   </si>
   <si>
     <t xml:space="preserve">12.7712373733521</t>
@@ -1097,7 +1094,7 @@
     <t xml:space="preserve">12.8236141204834</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6490240097046</t>
+    <t xml:space="preserve">12.6490249633789</t>
   </si>
   <si>
     <t xml:space="preserve">12.7363195419312</t>
@@ -1106,10 +1103,10 @@
     <t xml:space="preserve">12.7450485229492</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2212781906128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.160174369812</t>
+    <t xml:space="preserve">12.2212791442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1601724624634</t>
   </si>
   <si>
     <t xml:space="preserve">12.2474679946899</t>
@@ -1118,13 +1115,13 @@
     <t xml:space="preserve">12.4482469558716</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4395170211792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4046001434326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3609523773193</t>
+    <t xml:space="preserve">12.4395160675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4045991897583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.360951423645</t>
   </si>
   <si>
     <t xml:space="preserve">11.7236995697021</t>
@@ -1133,28 +1130,28 @@
     <t xml:space="preserve">11.2086601257324</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0864458084106</t>
+    <t xml:space="preserve">11.086446762085</t>
   </si>
   <si>
     <t xml:space="preserve">11.295952796936</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2173891067505</t>
+    <t xml:space="preserve">11.2173881530762</t>
   </si>
   <si>
     <t xml:space="preserve">11.4181680679321</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3396024703979</t>
+    <t xml:space="preserve">11.3396005630493</t>
   </si>
   <si>
     <t xml:space="preserve">11.1650104522705</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1911993026733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1213645935059</t>
+    <t xml:space="preserve">11.191201210022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1213636398315</t>
   </si>
   <si>
     <t xml:space="preserve">11.1126346588135</t>
@@ -1163,16 +1160,16 @@
     <t xml:space="preserve">11.0515289306641</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9991512298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1999292373657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0777177810669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2261190414429</t>
+    <t xml:space="preserve">10.9991521835327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.19993019104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0777168273926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2261180877686</t>
   </si>
   <si>
     <t xml:space="preserve">11.0602579116821</t>
@@ -1184,7 +1181,7 @@
     <t xml:space="preserve">10.8682079315186</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4967317581177</t>
+    <t xml:space="preserve">11.496732711792</t>
   </si>
   <si>
     <t xml:space="preserve">11.5665683746338</t>
@@ -1193,10 +1190,10 @@
     <t xml:space="preserve">11.540379524231</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5491094589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6276750564575</t>
+    <t xml:space="preserve">11.5491104125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6276741027832</t>
   </si>
   <si>
     <t xml:space="preserve">11.8721008300781</t>
@@ -1205,67 +1202,67 @@
     <t xml:space="preserve">11.758617401123</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8071041107178</t>
+    <t xml:space="preserve">10.8071031570435</t>
   </si>
   <si>
     <t xml:space="preserve">10.6936197280884</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6150550842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6586999893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5626773834229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.527759552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5975952148438</t>
+    <t xml:space="preserve">10.6150541305542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6587018966675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5626764297485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5277585983276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5975961685181</t>
   </si>
   <si>
     <t xml:space="preserve">10.5364894866943</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4753828048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4666528701782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2920627593994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3531703948975</t>
+    <t xml:space="preserve">10.4753818511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4666547775269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2920637130737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3531694412231</t>
   </si>
   <si>
     <t xml:space="preserve">10.3706293106079</t>
   </si>
   <si>
-    <t xml:space="preserve">10.073826789856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0389080047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.82940101623535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.71591663360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.484112739563</t>
+    <t xml:space="preserve">10.0738258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0389089584351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82940006256104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.71591758728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4841117858887</t>
   </si>
   <si>
     <t xml:space="preserve">10.6848907470703</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9816932678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1039056777954</t>
+    <t xml:space="preserve">10.9816923141479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1039047241211</t>
   </si>
   <si>
     <t xml:space="preserve">10.9904222488403</t>
@@ -1274,10 +1271,10 @@
     <t xml:space="preserve">10.7372665405273</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6761598587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8332920074463</t>
+    <t xml:space="preserve">10.6761617660522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8332901000977</t>
   </si>
   <si>
     <t xml:space="preserve">10.7809152603149</t>
@@ -1289,43 +1286,43 @@
     <t xml:space="preserve">10.9293155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7198085784912</t>
+    <t xml:space="preserve">10.7198076248169</t>
   </si>
   <si>
     <t xml:space="preserve">10.8245620727539</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7896423339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7983722686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8158330917358</t>
+    <t xml:space="preserve">10.7896432876587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7983741760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8158321380615</t>
   </si>
   <si>
     <t xml:space="preserve">10.6325130462646</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6063251495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6674308776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5190305709839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.444356918335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9205856323242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6499710083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5801362991333</t>
+    <t xml:space="preserve">10.6063241958618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6674318313599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5190296173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4443550109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9205875396729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6499719619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.580135345459</t>
   </si>
   <si>
     <t xml:space="preserve">10.4317350387573</t>
@@ -1334,31 +1331,31 @@
     <t xml:space="preserve">10.3007917404175</t>
   </si>
   <si>
-    <t xml:space="preserve">10.416431427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7633495330811</t>
+    <t xml:space="preserve">10.4164323806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7633485794067</t>
   </si>
   <si>
     <t xml:space="preserve">10.683292388916</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1636400222778</t>
+    <t xml:space="preserve">11.1636409759521</t>
   </si>
   <si>
     <t xml:space="preserve">11.0657911300659</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9857330322266</t>
+    <t xml:space="preserve">10.9857339859009</t>
   </si>
   <si>
     <t xml:space="preserve">10.6032342910767</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8523035049438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8878841400146</t>
+    <t xml:space="preserve">10.8523044586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.887885093689</t>
   </si>
   <si>
     <t xml:space="preserve">11.0302104949951</t>
@@ -1376,28 +1373,28 @@
     <t xml:space="preserve">11.3326511383057</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0391054153442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1369524002075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9145708084106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7722454071045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7277669906616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5142803192139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5053863525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2830028533936</t>
+    <t xml:space="preserve">11.0391044616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1369543075562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9145698547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7722463607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7277688980103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5142812728882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5053853988647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2830038070679</t>
   </si>
   <si>
     <t xml:space="preserve">10.4431180953979</t>
@@ -1406,25 +1403,25 @@
     <t xml:space="preserve">10.4253282546997</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2563171386719</t>
+    <t xml:space="preserve">10.2563161849976</t>
   </si>
   <si>
     <t xml:space="preserve">10.3096885681152</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0961999893188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1228876113892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2118377685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2385244369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3541650772095</t>
+    <t xml:space="preserve">10.0962009429932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1228866577148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.211838722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2385263442993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3541660308838</t>
   </si>
   <si>
     <t xml:space="preserve">10.6299200057983</t>
@@ -1433,16 +1430,16 @@
     <t xml:space="preserve">10.6655025482178</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6477098464966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8967800140381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8700942993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8167219161987</t>
+    <t xml:space="preserve">10.6477108001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8967809677124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8700952529907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.816722869873</t>
   </si>
   <si>
     <t xml:space="preserve">10.7099771499634</t>
@@ -1457,7 +1454,7 @@
     <t xml:space="preserve">10.3808507919312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3986415863037</t>
+    <t xml:space="preserve">10.398642539978</t>
   </si>
   <si>
     <t xml:space="preserve">10.2029447555542</t>
@@ -1466,22 +1463,22 @@
     <t xml:space="preserve">10.4075374603271</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6121292114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1406764984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.060619354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.131781578064</t>
+    <t xml:space="preserve">10.6121311187744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1406755447388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0606184005737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1317825317383</t>
   </si>
   <si>
     <t xml:space="preserve">10.0339326858521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.90939998626709</t>
+    <t xml:space="preserve">9.90939903259277</t>
   </si>
   <si>
     <t xml:space="preserve">9.94497966766357</t>
@@ -1490,97 +1487,97 @@
     <t xml:space="preserve">10.0428295135498</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82044410705566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8293399810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.98056030273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2741060256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2474212646484</t>
+    <t xml:space="preserve">9.82044506072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.82934093475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.98056125640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2741050720215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2474203109741</t>
   </si>
   <si>
     <t xml:space="preserve">10.1139907836914</t>
   </si>
   <si>
-    <t xml:space="preserve">9.91829299926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92718887329102</t>
+    <t xml:space="preserve">9.91829395294189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9271879196167</t>
   </si>
   <si>
     <t xml:space="preserve">10.0873050689697</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96276950836182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0695142745972</t>
+    <t xml:space="preserve">9.96277046203613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0695152282715</t>
   </si>
   <si>
     <t xml:space="preserve">10.1851539611816</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5587587356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5943384170532</t>
+    <t xml:space="preserve">10.5587577819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5943393707275</t>
   </si>
   <si>
     <t xml:space="preserve">10.3630599975586</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3274784088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2296295166016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0517225265503</t>
+    <t xml:space="preserve">10.3274793624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2296304702759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0517244338989</t>
   </si>
   <si>
     <t xml:space="preserve">10.2207355499268</t>
   </si>
   <si>
-    <t xml:space="preserve">9.87381839752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.55358409881592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57137489318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.01097011566162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83751010894775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74855804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41943168640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73966312408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.83306217193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7174243927002</t>
+    <t xml:space="preserve">9.87381744384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.55358600616455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57137584686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.01097106933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83751106262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74855709075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41943073272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73966217041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.83306312561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.71742343902588</t>
   </si>
   <si>
     <t xml:space="preserve">8.60178565979004</t>
   </si>
   <si>
-    <t xml:space="preserve">8.46390628814697</t>
+    <t xml:space="preserve">8.46390724182129</t>
   </si>
   <si>
     <t xml:space="preserve">8.5306224822998</t>
@@ -1589,13 +1586,13 @@
     <t xml:space="preserve">8.37940120697021</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65960502624512</t>
+    <t xml:space="preserve">8.65960597991943</t>
   </si>
   <si>
     <t xml:space="preserve">8.52617454528809</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79303455352783</t>
+    <t xml:space="preserve">8.79303550720215</t>
   </si>
   <si>
     <t xml:space="preserve">8.69963359832764</t>
@@ -1604,13 +1601,13 @@
     <t xml:space="preserve">8.89088344573975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80193042755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75745391845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53507137298584</t>
+    <t xml:space="preserve">8.80192947387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75745296478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53506946563721</t>
   </si>
   <si>
     <t xml:space="preserve">8.41053581237793</t>
@@ -1619,37 +1616,37 @@
     <t xml:space="preserve">8.31268787384033</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07695865631104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01024627685547</t>
+    <t xml:space="preserve">8.07695960998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01024532318115</t>
   </si>
   <si>
     <t xml:space="preserve">8.05472183227539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.11698913574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29489517211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32158184051514</t>
+    <t xml:space="preserve">8.11698818206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29489612579346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32158088684082</t>
   </si>
   <si>
     <t xml:space="preserve">8.29934310913086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55286121368408</t>
+    <t xml:space="preserve">8.55286026000977</t>
   </si>
   <si>
     <t xml:space="preserve">8.58844184875488</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93091201782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.92201614379883</t>
+    <t xml:space="preserve">8.93091297149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.92201709747314</t>
   </si>
   <si>
     <t xml:space="preserve">8.85974884033203</t>
@@ -1664,25 +1661,25 @@
     <t xml:space="preserve">8.77079677581787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45945930480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49059391021729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27265739440918</t>
+    <t xml:space="preserve">8.45945835113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49059295654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2726583480835</t>
   </si>
   <si>
     <t xml:space="preserve">8.38384914398193</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64181423187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09920024871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97911262512207</t>
+    <t xml:space="preserve">8.64181327819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.09919834136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97911310195923</t>
   </si>
   <si>
     <t xml:space="preserve">8.29044914245605</t>
@@ -1694,37 +1691,37 @@
     <t xml:space="preserve">8.1525707244873</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86347198486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9123969078064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97021579742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93908357620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25486850738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22818183898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05544567108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.14439964294434</t>
+    <t xml:space="preserve">7.86347150802612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91239738464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97021532058716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93908309936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.25486660003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22817993164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05544662475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14440059661865</t>
   </si>
   <si>
     <t xml:space="preserve">8.78858661651611</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6907377243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70852851867676</t>
+    <t xml:space="preserve">8.69073677062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70852947235107</t>
   </si>
   <si>
     <t xml:space="preserve">8.76189994812012</t>
@@ -1748,16 +1745,16 @@
     <t xml:space="preserve">9.17998123168945</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88198852539062</t>
+    <t xml:space="preserve">8.88198757171631</t>
   </si>
   <si>
     <t xml:space="preserve">8.87754058837891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.86864376068115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85085487365723</t>
+    <t xml:space="preserve">8.86864471435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85085391998291</t>
   </si>
   <si>
     <t xml:space="preserve">8.81527328491211</t>
@@ -1766,19 +1763,19 @@
     <t xml:space="preserve">8.81972122192383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54841232299805</t>
+    <t xml:space="preserve">8.54841423034668</t>
   </si>
   <si>
     <t xml:space="preserve">8.45056438446045</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70408058166504</t>
+    <t xml:space="preserve">8.70408153533936</t>
   </si>
   <si>
     <t xml:space="preserve">8.89532947540283</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09102725982666</t>
+    <t xml:space="preserve">9.09102821350098</t>
   </si>
   <si>
     <t xml:space="preserve">8.9753885269165</t>
@@ -1790,46 +1787,46 @@
     <t xml:space="preserve">9.29562091827393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.34899139404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62474822998047</t>
+    <t xml:space="preserve">9.34899234771729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62474727630615</t>
   </si>
   <si>
     <t xml:space="preserve">9.65143299102783</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4112606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.46463108062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66032981872559</t>
+    <t xml:space="preserve">9.41125965118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.46463203430176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66032886505127</t>
   </si>
   <si>
     <t xml:space="preserve">9.26893424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13550472259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10881805419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.11771392822266</t>
+    <t xml:space="preserve">9.1355037689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1088171005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11771488189697</t>
   </si>
   <si>
     <t xml:space="preserve">9.0643424987793</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04655265808105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.23335361480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47352695465088</t>
+    <t xml:space="preserve">9.04655170440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.23335456848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.4735279083252</t>
   </si>
   <si>
     <t xml:space="preserve">9.76707363128662</t>
@@ -1850,10 +1847,10 @@
     <t xml:space="preserve">9.08213233947754</t>
   </si>
   <si>
-    <t xml:space="preserve">8.96649265289307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0020751953125</t>
+    <t xml:space="preserve">8.96649360656738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00207424163818</t>
   </si>
   <si>
     <t xml:space="preserve">8.99317932128906</t>
@@ -1865,7 +1862,7 @@
     <t xml:space="preserve">9.86492156982422</t>
   </si>
   <si>
-    <t xml:space="preserve">9.78486347198486</t>
+    <t xml:space="preserve">9.78486442565918</t>
   </si>
   <si>
     <t xml:space="preserve">9.75817775726318</t>
@@ -1877,7 +1874,10 @@
     <t xml:space="preserve">10.4342231750488</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5676527023315</t>
+    <t xml:space="preserve">10.3007926940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5676546096802</t>
   </si>
   <si>
     <t xml:space="preserve">10.1673622131348</t>
@@ -1889,16 +1889,16 @@
     <t xml:space="preserve">9.8560266494751</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18887615203857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27782917022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.16219139099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.07778263092041</t>
+    <t xml:space="preserve">9.18887710571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27783012390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16219043731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.07778358459473</t>
   </si>
   <si>
     <t xml:space="preserve">9.09142017364502</t>
@@ -1907,7 +1907,7 @@
     <t xml:space="preserve">9.05959987640381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72776317596436</t>
+    <t xml:space="preserve">8.72776222229004</t>
   </si>
   <si>
     <t xml:space="preserve">8.84595203399658</t>
@@ -1916,22 +1916,22 @@
     <t xml:space="preserve">8.8914098739624</t>
   </si>
   <si>
-    <t xml:space="preserve">8.90050029754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.78231143951416</t>
+    <t xml:space="preserve">8.9005012512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.78231048583984</t>
   </si>
   <si>
     <t xml:space="preserve">8.86413478851318</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73685455322266</t>
+    <t xml:space="preserve">8.73685550689697</t>
   </si>
   <si>
     <t xml:space="preserve">8.48229503631592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68230628967285</t>
+    <t xml:space="preserve">8.68230724334717</t>
   </si>
   <si>
     <t xml:space="preserve">8.88231754302979</t>
@@ -1940,7 +1940,7 @@
     <t xml:space="preserve">8.99596118927002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97777652740479</t>
+    <t xml:space="preserve">8.9777774810791</t>
   </si>
   <si>
     <t xml:space="preserve">9.21870136260986</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">9.04596328735352</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04141712188721</t>
+    <t xml:space="preserve">9.04141807556152</t>
   </si>
   <si>
     <t xml:space="preserve">9.26415729522705</t>
@@ -1967,13 +1967,13 @@
     <t xml:space="preserve">9.33688831329346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17324256896973</t>
+    <t xml:space="preserve">9.17324352264404</t>
   </si>
   <si>
     <t xml:space="preserve">9.03232574462891</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20960903167725</t>
+    <t xml:space="preserve">9.20960998535156</t>
   </si>
   <si>
     <t xml:space="preserve">9.44598579406738</t>
@@ -1982,13 +1982,13 @@
     <t xml:space="preserve">9.38234615325928</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6187219619751</t>
+    <t xml:space="preserve">9.61872291564941</t>
   </si>
   <si>
     <t xml:space="preserve">9.66417980194092</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57326602935791</t>
+    <t xml:space="preserve">9.57326507568359</t>
   </si>
   <si>
     <t xml:space="preserve">9.25506591796875</t>
@@ -1997,7 +1997,7 @@
     <t xml:space="preserve">9.12778663635254</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10960388183594</t>
+    <t xml:space="preserve">9.10960483551025</t>
   </si>
   <si>
     <t xml:space="preserve">8.80504131317139</t>
@@ -2015,16 +2015,16 @@
     <t xml:space="preserve">9.24597549438477</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40961933135986</t>
+    <t xml:space="preserve">9.40962028503418</t>
   </si>
   <si>
     <t xml:space="preserve">9.34598064422607</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47774982452393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4277458190918</t>
+    <t xml:space="preserve">8.47774887084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42774677276611</t>
   </si>
   <si>
     <t xml:space="preserve">8.46865844726562</t>
@@ -2033,25 +2033,25 @@
     <t xml:space="preserve">8.25046443939209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05499935150146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89589834213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92771768569946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90953588485718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.65497541427612</t>
+    <t xml:space="preserve">8.05499839782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89589881896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92771816253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90953636169434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.65497493743896</t>
   </si>
   <si>
     <t xml:space="preserve">7.56406259536743</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65952157974243</t>
+    <t xml:space="preserve">7.65952205657959</t>
   </si>
   <si>
     <t xml:space="preserve">7.4867844581604</t>
@@ -2075,10 +2075,10 @@
     <t xml:space="preserve">7.5322413444519</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45496416091919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71406984329224</t>
+    <t xml:space="preserve">7.45496463775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71407032012939</t>
   </si>
   <si>
     <t xml:space="preserve">7.7231616973877</t>
@@ -2096,25 +2096,25 @@
     <t xml:space="preserve">8.27773857116699</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35501480102539</t>
+    <t xml:space="preserve">8.35501384735107</t>
   </si>
   <si>
     <t xml:space="preserve">8.52320766448975</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59139156341553</t>
+    <t xml:space="preserve">8.59139060974121</t>
   </si>
   <si>
     <t xml:space="preserve">8.65503311157227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.51866149902344</t>
+    <t xml:space="preserve">8.51866054534912</t>
   </si>
   <si>
     <t xml:space="preserve">8.4913854598999</t>
   </si>
   <si>
-    <t xml:space="preserve">8.60502910614014</t>
+    <t xml:space="preserve">8.60503005981445</t>
   </si>
   <si>
     <t xml:space="preserve">8.15954971313477</t>
@@ -2123,25 +2123,25 @@
     <t xml:space="preserve">8.00499629974365</t>
   </si>
   <si>
-    <t xml:space="preserve">7.88680744171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02317810058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11863803863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12773036956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95499229431152</t>
+    <t xml:space="preserve">7.88680791854858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02317905426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.11863708496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12773132324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95499277114868</t>
   </si>
   <si>
     <t xml:space="preserve">7.78225660324097</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67315864562988</t>
+    <t xml:space="preserve">7.67315816879272</t>
   </si>
   <si>
     <t xml:space="preserve">7.72770881652832</t>
@@ -2150,7 +2150,7 @@
     <t xml:space="preserve">7.71861600875854</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58224439620972</t>
+    <t xml:space="preserve">7.58224487304688</t>
   </si>
   <si>
     <t xml:space="preserve">7.74589014053345</t>
@@ -2174,10 +2174,10 @@
     <t xml:space="preserve">8.20500755310059</t>
   </si>
   <si>
-    <t xml:space="preserve">8.48684120178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55502796173096</t>
+    <t xml:space="preserve">8.48684024810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55502700805664</t>
   </si>
   <si>
     <t xml:space="preserve">8.59593868255615</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">8.74594593048096</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29143238067627</t>
+    <t xml:space="preserve">9.29143142700195</t>
   </si>
   <si>
     <t xml:space="preserve">9.455078125</t>
@@ -2204,10 +2204,10 @@
     <t xml:space="preserve">9.48235130310059</t>
   </si>
   <si>
-    <t xml:space="preserve">9.71872711181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.90964889526367</t>
+    <t xml:space="preserve">9.71872806549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.90964794158936</t>
   </si>
   <si>
     <t xml:space="preserve">10.1096591949463</t>
@@ -2216,7 +2216,7 @@
     <t xml:space="preserve">10.0551118850708</t>
   </si>
   <si>
-    <t xml:space="preserve">9.81873512268066</t>
+    <t xml:space="preserve">9.81873416900635</t>
   </si>
   <si>
     <t xml:space="preserve">9.69145393371582</t>
@@ -2225,22 +2225,22 @@
     <t xml:space="preserve">9.83691596984863</t>
   </si>
   <si>
-    <t xml:space="preserve">9.58235645294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76418685913086</t>
+    <t xml:space="preserve">9.58235740661621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76418590545654</t>
   </si>
   <si>
     <t xml:space="preserve">9.65508842468262</t>
   </si>
   <si>
-    <t xml:space="preserve">9.82782554626465</t>
+    <t xml:space="preserve">9.82782649993896</t>
   </si>
   <si>
     <t xml:space="preserve">10.0005626678467</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0823850631714</t>
+    <t xml:space="preserve">10.0823860168457</t>
   </si>
   <si>
     <t xml:space="preserve">10.1642084121704</t>
@@ -2258,7 +2258,7 @@
     <t xml:space="preserve">10.2278470993042</t>
   </si>
   <si>
-    <t xml:space="preserve">10.2823963165283</t>
+    <t xml:space="preserve">10.282395362854</t>
   </si>
   <si>
     <t xml:space="preserve">10.364218711853</t>
@@ -2297,25 +2297,25 @@
     <t xml:space="preserve">9.87328243255615</t>
   </si>
   <si>
-    <t xml:space="preserve">9.98237991333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0642032623291</t>
+    <t xml:space="preserve">9.98238086700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0642023086548</t>
   </si>
   <si>
     <t xml:space="preserve">10.0369281768799</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0460195541382</t>
+    <t xml:space="preserve">10.0460186004639</t>
   </si>
   <si>
     <t xml:space="preserve">10.1187515258789</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0914764404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.92783069610596</t>
+    <t xml:space="preserve">10.091477394104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.92783164978027</t>
   </si>
   <si>
     <t xml:space="preserve">9.64599800109863</t>
@@ -2327,10 +2327,10 @@
     <t xml:space="preserve">9.67327117919922</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53690052032471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.35507202148438</t>
+    <t xml:space="preserve">9.53689956665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.35507297515869</t>
   </si>
   <si>
     <t xml:space="preserve">9.60054016113281</t>
@@ -2339,7 +2339,7 @@
     <t xml:space="preserve">9.46416854858398</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41871070861816</t>
+    <t xml:space="preserve">9.41871166229248</t>
   </si>
   <si>
     <t xml:space="preserve">9.78236865997314</t>
@@ -2348,7 +2348,7 @@
     <t xml:space="preserve">9.77327632904053</t>
   </si>
   <si>
-    <t xml:space="preserve">9.55508327484131</t>
+    <t xml:space="preserve">9.55508232116699</t>
   </si>
   <si>
     <t xml:space="preserve">9.59144878387451</t>
@@ -2360,7 +2360,7 @@
     <t xml:space="preserve">9.42780303955078</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70048809051514</t>
+    <t xml:space="preserve">8.70048904418945</t>
   </si>
   <si>
     <t xml:space="preserve">8.64139461517334</t>
@@ -2369,7 +2369,7 @@
     <t xml:space="preserve">8.64594078063965</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40047264099121</t>
+    <t xml:space="preserve">8.40047359466553</t>
   </si>
   <si>
     <t xml:space="preserve">8.21864318847656</t>
@@ -2378,16 +2378,16 @@
     <t xml:space="preserve">7.77316474914551</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87771511077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7004337310791</t>
+    <t xml:space="preserve">7.87771558761597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70043325424194</t>
   </si>
   <si>
     <t xml:space="preserve">7.37768793106079</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44587373733521</t>
+    <t xml:space="preserve">7.44587326049805</t>
   </si>
   <si>
     <t xml:space="preserve">6.81856536865234</t>
@@ -2396,7 +2396,7 @@
     <t xml:space="preserve">6.89129686355591</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79583692550659</t>
+    <t xml:space="preserve">6.79583644866943</t>
   </si>
   <si>
     <t xml:space="preserve">6.36399412155151</t>
@@ -2414,7 +2414,7 @@
     <t xml:space="preserve">6.79129028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37314081192017</t>
+    <t xml:space="preserve">7.37314128875732</t>
   </si>
   <si>
     <t xml:space="preserve">8.00954055786133</t>
@@ -2426,10 +2426,10 @@
     <t xml:space="preserve">7.27768182754517</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70946788787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.54582214355469</t>
+    <t xml:space="preserve">6.70946741104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.54582262039185</t>
   </si>
   <si>
     <t xml:space="preserve">6.04579496383667</t>
@@ -2441,10 +2441,10 @@
     <t xml:space="preserve">6.06397724151611</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81850910186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3730297088623</t>
+    <t xml:space="preserve">5.81850957870483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.37302923202515</t>
   </si>
   <si>
     <t xml:space="preserve">5.67304611206055</t>
@@ -2462,7 +2462,7 @@
     <t xml:space="preserve">5.85487413406372</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90487718582153</t>
+    <t xml:space="preserve">5.90487766265869</t>
   </si>
   <si>
     <t xml:space="preserve">6.14580011367798</t>
@@ -2471,7 +2471,7 @@
     <t xml:space="preserve">6.28217172622681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.227623462677</t>
+    <t xml:space="preserve">6.22762298583984</t>
   </si>
   <si>
     <t xml:space="preserve">6.27762603759766</t>
@@ -2489,25 +2489,25 @@
     <t xml:space="preserve">6.94129943847656</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11858224868774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05948829650879</t>
+    <t xml:space="preserve">7.1185827255249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.05948781967163</t>
   </si>
   <si>
     <t xml:space="preserve">6.96857404708862</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72310543060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.71856021881104</t>
+    <t xml:space="preserve">6.72310495376587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.71855974197388</t>
   </si>
   <si>
     <t xml:space="preserve">6.59582567214966</t>
   </si>
   <si>
-    <t xml:space="preserve">6.454909324646</t>
+    <t xml:space="preserve">6.45490884780884</t>
   </si>
   <si>
     <t xml:space="preserve">5.98215436935425</t>
@@ -2525,13 +2525,13 @@
     <t xml:space="preserve">6.44581699371338</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62764501571655</t>
+    <t xml:space="preserve">6.62764549255371</t>
   </si>
   <si>
     <t xml:space="preserve">6.83674812316895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.42314434051514</t>
+    <t xml:space="preserve">7.42314481735229</t>
   </si>
   <si>
     <t xml:space="preserve">7.79134607315063</t>
@@ -2546,19 +2546,19 @@
     <t xml:space="preserve">7.68679571151733</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08227348327637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.96408319473267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83225870132446</t>
+    <t xml:space="preserve">8.08227252960205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.96408367156982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83225917816162</t>
   </si>
   <si>
     <t xml:space="preserve">7.35950565338135</t>
   </si>
   <si>
-    <t xml:space="preserve">7.62315607070923</t>
+    <t xml:space="preserve">7.62315559387207</t>
   </si>
   <si>
     <t xml:space="preserve">7.61861085891724</t>
@@ -2570,7 +2570,7 @@
     <t xml:space="preserve">7.4958758354187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43678188323975</t>
+    <t xml:space="preserve">7.43678140640259</t>
   </si>
   <si>
     <t xml:space="preserve">7.36405086517334</t>
@@ -2582,7 +2582,7 @@
     <t xml:space="preserve">7.50951290130615</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47769355773926</t>
+    <t xml:space="preserve">7.47769403457642</t>
   </si>
   <si>
     <t xml:space="preserve">7.4322361946106</t>
@@ -2597,7 +2597,7 @@
     <t xml:space="preserve">7.63679361343384</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59133672714233</t>
+    <t xml:space="preserve">7.59133720397949</t>
   </si>
   <si>
     <t xml:space="preserve">7.40950727462769</t>
@@ -2606,40 +2606,40 @@
     <t xml:space="preserve">7.5140585899353</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70952415466309</t>
+    <t xml:space="preserve">7.70952463150024</t>
   </si>
   <si>
     <t xml:space="preserve">7.42769002914429</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94584560394287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85493040084839</t>
+    <t xml:space="preserve">6.94584512710571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85493087768555</t>
   </si>
   <si>
     <t xml:space="preserve">6.93675327301025</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00039386749268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92766284942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.95493745803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08221626281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.31859302520752</t>
+    <t xml:space="preserve">7.00039434432983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92766237258911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.95493698120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08221578598022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.31859254837036</t>
   </si>
   <si>
     <t xml:space="preserve">7.40041542053223</t>
   </si>
   <si>
-    <t xml:space="preserve">7.31404829025269</t>
+    <t xml:space="preserve">7.31404781341553</t>
   </si>
   <si>
     <t xml:space="preserve">7.30495643615723</t>
@@ -2648,19 +2648,19 @@
     <t xml:space="preserve">7.26404476165771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20040512084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33223104476929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34586715698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35495901107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.27313613891602</t>
+    <t xml:space="preserve">7.20040464401245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33223056793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34586763381958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35495948791504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.27313661575317</t>
   </si>
   <si>
     <t xml:space="preserve">7.62770175933838</t>
@@ -2669,10 +2669,10 @@
     <t xml:space="preserve">7.55951642990112</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76407289505005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.88226127624512</t>
+    <t xml:space="preserve">7.76407337188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.88226175308228</t>
   </si>
   <si>
     <t xml:space="preserve">8.2641019821167</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">7.85044145584106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68225049972534</t>
+    <t xml:space="preserve">7.68225002288818</t>
   </si>
   <si>
     <t xml:space="preserve">7.13676500320435</t>
@@ -2714,7 +2714,7 @@
     <t xml:space="preserve">8.01863288879395</t>
   </si>
   <si>
-    <t xml:space="preserve">7.96863126754761</t>
+    <t xml:space="preserve">7.96863079071045</t>
   </si>
   <si>
     <t xml:space="preserve">7.89135408401489</t>
@@ -2726,13 +2726,13 @@
     <t xml:space="preserve">7.85498666763306</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05954360961914</t>
+    <t xml:space="preserve">8.05954456329346</t>
   </si>
   <si>
     <t xml:space="preserve">8.08681869506836</t>
   </si>
   <si>
-    <t xml:space="preserve">8.25955486297607</t>
+    <t xml:space="preserve">8.25955581665039</t>
   </si>
   <si>
     <t xml:space="preserve">8.28228378295898</t>
@@ -2741,10 +2741,10 @@
     <t xml:space="preserve">8.45047378540039</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85958957672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84589576721191</t>
+    <t xml:space="preserve">8.85958862304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84589529037476</t>
   </si>
   <si>
     <t xml:space="preserve">8.10954666137695</t>
@@ -2765,13 +2765,13 @@
     <t xml:space="preserve">9.56417369842529</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50962543487549</t>
+    <t xml:space="preserve">9.5096263885498</t>
   </si>
   <si>
     <t xml:space="preserve">9.73691177368164</t>
   </si>
   <si>
-    <t xml:space="preserve">10.191481590271</t>
+    <t xml:space="preserve">10.1914825439453</t>
   </si>
   <si>
     <t xml:space="preserve">9.93692207336426</t>
@@ -2780,16 +2780,16 @@
     <t xml:space="preserve">9.74600315093994</t>
   </si>
   <si>
-    <t xml:space="preserve">9.70963859558105</t>
+    <t xml:space="preserve">9.70963764190674</t>
   </si>
   <si>
     <t xml:space="preserve">9.70054531097412</t>
   </si>
   <si>
-    <t xml:space="preserve">9.88237476348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.80964279174805</t>
+    <t xml:space="preserve">9.88237571716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.80964183807373</t>
   </si>
   <si>
     <t xml:space="preserve">9.85510063171387</t>
@@ -2804,7 +2804,7 @@
     <t xml:space="preserve">9.96419715881348</t>
   </si>
   <si>
-    <t xml:space="preserve">9.84600925445557</t>
+    <t xml:space="preserve">9.84601020812988</t>
   </si>
   <si>
     <t xml:space="preserve">9.36416244506836</t>
@@ -2831,7 +2831,7 @@
     <t xml:space="preserve">10.2460298538208</t>
   </si>
   <si>
-    <t xml:space="preserve">9.80055046081543</t>
+    <t xml:space="preserve">9.80054950714111</t>
   </si>
   <si>
     <t xml:space="preserve">9.86419105529785</t>
@@ -2849,7 +2849,7 @@
     <t xml:space="preserve">9.27324867248535</t>
   </si>
   <si>
-    <t xml:space="preserve">9.5005350112915</t>
+    <t xml:space="preserve">9.50053405761719</t>
   </si>
   <si>
     <t xml:space="preserve">9.62781429290771</t>
@@ -2858,7 +2858,7 @@
     <t xml:space="preserve">9.60963249206543</t>
   </si>
   <si>
-    <t xml:space="preserve">9.68236255645752</t>
+    <t xml:space="preserve">9.68236351013184</t>
   </si>
   <si>
     <t xml:space="preserve">9.52780818939209</t>
@@ -2870,16 +2870,16 @@
     <t xml:space="preserve">9.22779083251953</t>
   </si>
   <si>
-    <t xml:space="preserve">9.4005298614502</t>
+    <t xml:space="preserve">9.40052890777588</t>
   </si>
   <si>
     <t xml:space="preserve">9.16415214538574</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32779788970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30052375793457</t>
+    <t xml:space="preserve">9.32779693603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30052280426025</t>
   </si>
   <si>
     <t xml:space="preserve">9.52351379394531</t>
@@ -4908,6 +4908,9 @@
   </si>
   <si>
     <t xml:space="preserve">9.73200035095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.83199977874756</t>
   </si>
 </sst>
 </file>
@@ -14731,7 +14734,7 @@
         <v>14.0055179595947</v>
       </c>
       <c r="G365" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="H365" t="s">
         <v>9</v>
@@ -14757,7 +14760,7 @@
         <v>13.9455795288086</v>
       </c>
       <c r="G366" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H366" t="s">
         <v>9</v>
@@ -14783,7 +14786,7 @@
         <v>13.7557764053345</v>
       </c>
       <c r="G367" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H367" t="s">
         <v>9</v>
@@ -14809,7 +14812,7 @@
         <v>13.7158174514771</v>
       </c>
       <c r="G368" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H368" t="s">
         <v>9</v>
@@ -14835,7 +14838,7 @@
         <v>13.406138420105</v>
       </c>
       <c r="G369" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H369" t="s">
         <v>9</v>
@@ -14861,7 +14864,7 @@
         <v>13.2862615585327</v>
       </c>
       <c r="G370" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H370" t="s">
         <v>9</v>
@@ -14887,7 +14890,7 @@
         <v>13.2762718200684</v>
       </c>
       <c r="G371" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H371" t="s">
         <v>9</v>
@@ -14913,7 +14916,7 @@
         <v>13.0864677429199</v>
       </c>
       <c r="G372" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H372" t="s">
         <v>9</v>
@@ -14939,7 +14942,7 @@
         <v>12.996561050415</v>
       </c>
       <c r="G373" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H373" t="s">
         <v>9</v>
@@ -14965,7 +14968,7 @@
         <v>13.3262195587158</v>
       </c>
       <c r="G374" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H374" t="s">
         <v>9</v>
@@ -14991,7 +14994,7 @@
         <v>13.5459928512573</v>
       </c>
       <c r="G375" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H375" t="s">
         <v>9</v>
@@ -15017,7 +15020,7 @@
         <v>13.3162307739258</v>
       </c>
       <c r="G376" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H376" t="s">
         <v>9</v>
@@ -15043,7 +15046,7 @@
         <v>13.386157989502</v>
       </c>
       <c r="G377" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H377" t="s">
         <v>9</v>
@@ -15069,7 +15072,7 @@
         <v>13.2463026046753</v>
       </c>
       <c r="G378" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H378" t="s">
         <v>9</v>
@@ -15095,7 +15098,7 @@
         <v>12.9566020965576</v>
       </c>
       <c r="G379" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H379" t="s">
         <v>9</v>
@@ -15121,7 +15124,7 @@
         <v>13.0764780044556</v>
       </c>
       <c r="G380" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H380" t="s">
         <v>9</v>
@@ -15147,7 +15150,7 @@
         <v>12.7667989730835</v>
       </c>
       <c r="G381" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H381" t="s">
         <v>9</v>
@@ -15173,7 +15176,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G382" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H382" t="s">
         <v>9</v>
@@ -15199,7 +15202,7 @@
         <v>12.547025680542</v>
       </c>
       <c r="G383" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H383" t="s">
         <v>9</v>
@@ -15225,7 +15228,7 @@
         <v>12.7967681884766</v>
       </c>
       <c r="G384" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H384" t="s">
         <v>9</v>
@@ -15251,7 +15254,7 @@
         <v>12.7368297576904</v>
       </c>
       <c r="G385" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H385" t="s">
         <v>9</v>
@@ -15277,7 +15280,7 @@
         <v>12.6369333267212</v>
       </c>
       <c r="G386" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H386" t="s">
         <v>9</v>
@@ -15303,7 +15306,7 @@
         <v>12.7568092346191</v>
       </c>
       <c r="G387" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H387" t="s">
         <v>9</v>
@@ -15329,7 +15332,7 @@
         <v>13.3262195587158</v>
       </c>
       <c r="G388" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H388" t="s">
         <v>9</v>
@@ -15355,7 +15358,7 @@
         <v>13.5559825897217</v>
       </c>
       <c r="G389" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H389" t="s">
         <v>9</v>
@@ -15381,7 +15384,7 @@
         <v>13.6658687591553</v>
       </c>
       <c r="G390" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H390" t="s">
         <v>9</v>
@@ -15407,7 +15410,7 @@
         <v>13.3961477279663</v>
       </c>
       <c r="G391" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H391" t="s">
         <v>9</v>
@@ -15433,7 +15436,7 @@
         <v>13.8057241439819</v>
       </c>
       <c r="G392" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H392" t="s">
         <v>9</v>
@@ -15459,7 +15462,7 @@
         <v>13.7557764053345</v>
       </c>
       <c r="G393" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H393" t="s">
         <v>9</v>
@@ -15485,7 +15488,7 @@
         <v>13.5459928512573</v>
       </c>
       <c r="G394" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H394" t="s">
         <v>9</v>
@@ -15511,7 +15514,7 @@
         <v>13.5959405899048</v>
       </c>
       <c r="G395" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H395" t="s">
         <v>9</v>
@@ -15537,7 +15540,7 @@
         <v>13.536003112793</v>
       </c>
       <c r="G396" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H396" t="s">
         <v>9</v>
@@ -15563,7 +15566,7 @@
         <v>13.4760646820068</v>
       </c>
       <c r="G397" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H397" t="s">
         <v>9</v>
@@ -15589,7 +15592,7 @@
         <v>13.5559825897217</v>
       </c>
       <c r="G398" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H398" t="s">
         <v>9</v>
@@ -15615,7 +15618,7 @@
         <v>13.2463026046753</v>
       </c>
       <c r="G399" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H399" t="s">
         <v>9</v>
@@ -15641,7 +15644,7 @@
         <v>13.4261169433594</v>
       </c>
       <c r="G400" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H400" t="s">
         <v>9</v>
@@ -15667,7 +15670,7 @@
         <v>13.2962512969971</v>
       </c>
       <c r="G401" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H401" t="s">
         <v>9</v>
@@ -15693,7 +15696,7 @@
         <v>13.2862615585327</v>
       </c>
       <c r="G402" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H402" t="s">
         <v>9</v>
@@ -15719,7 +15722,7 @@
         <v>13.2463026046753</v>
       </c>
       <c r="G403" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H403" t="s">
         <v>9</v>
@@ -15745,7 +15748,7 @@
         <v>13.0465087890625</v>
       </c>
       <c r="G404" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H404" t="s">
         <v>9</v>
@@ -15771,7 +15774,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G405" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H405" t="s">
         <v>9</v>
@@ -15797,7 +15800,7 @@
         <v>13.0365200042725</v>
       </c>
       <c r="G406" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H406" t="s">
         <v>9</v>
@@ -15823,7 +15826,7 @@
         <v>13.0564985275269</v>
       </c>
       <c r="G407" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H407" t="s">
         <v>9</v>
@@ -15849,7 +15852,7 @@
         <v>12.9166440963745</v>
       </c>
       <c r="G408" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H408" t="s">
         <v>9</v>
@@ -15875,7 +15878,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G409" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H409" t="s">
         <v>9</v>
@@ -15901,7 +15904,7 @@
         <v>12.966591835022</v>
       </c>
       <c r="G410" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H410" t="s">
         <v>9</v>
@@ -15927,7 +15930,7 @@
         <v>12.8966636657715</v>
       </c>
       <c r="G411" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H411" t="s">
         <v>9</v>
@@ -15953,7 +15956,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G412" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H412" t="s">
         <v>9</v>
@@ -15979,7 +15982,7 @@
         <v>12.9066543579102</v>
       </c>
       <c r="G413" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H413" t="s">
         <v>9</v>
@@ -16005,7 +16008,7 @@
         <v>12.6669015884399</v>
       </c>
       <c r="G414" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H414" t="s">
         <v>9</v>
@@ -16031,7 +16034,7 @@
         <v>12.7867784500122</v>
       </c>
       <c r="G415" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H415" t="s">
         <v>9</v>
@@ -16057,7 +16060,7 @@
         <v>12.8866748809814</v>
       </c>
       <c r="G416" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H416" t="s">
         <v>9</v>
@@ -16083,7 +16086,7 @@
         <v>12.7568092346191</v>
       </c>
       <c r="G417" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H417" t="s">
         <v>9</v>
@@ -16109,7 +16112,7 @@
         <v>12.7368297576904</v>
       </c>
       <c r="G418" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H418" t="s">
         <v>9</v>
@@ -16135,7 +16138,7 @@
         <v>12.696870803833</v>
       </c>
       <c r="G419" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H419" t="s">
         <v>9</v>
@@ -16161,7 +16164,7 @@
         <v>12.7667989730835</v>
       </c>
       <c r="G420" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H420" t="s">
         <v>9</v>
@@ -16187,7 +16190,7 @@
         <v>12.9466133117676</v>
       </c>
       <c r="G421" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H421" t="s">
         <v>9</v>
@@ -16213,7 +16216,7 @@
         <v>13.3561887741089</v>
       </c>
       <c r="G422" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H422" t="s">
         <v>9</v>
@@ -16239,7 +16242,7 @@
         <v>13.2263231277466</v>
       </c>
       <c r="G423" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H423" t="s">
         <v>9</v>
@@ -16265,7 +16268,7 @@
         <v>13.1464061737061</v>
       </c>
       <c r="G424" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H424" t="s">
         <v>9</v>
@@ -16291,7 +16294,7 @@
         <v>12.8966636657715</v>
       </c>
       <c r="G425" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H425" t="s">
         <v>9</v>
@@ -16317,7 +16320,7 @@
         <v>13.1064472198486</v>
       </c>
       <c r="G426" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H426" t="s">
         <v>9</v>
@@ -16343,7 +16346,7 @@
         <v>13.0864677429199</v>
       </c>
       <c r="G427" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H427" t="s">
         <v>9</v>
@@ -16369,7 +16372,7 @@
         <v>13.3461999893188</v>
       </c>
       <c r="G428" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H428" t="s">
         <v>9</v>
@@ -16395,7 +16398,7 @@
         <v>13.2862615585327</v>
       </c>
       <c r="G429" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H429" t="s">
         <v>9</v>
@@ -16421,7 +16424,7 @@
         <v>13.4361066818237</v>
       </c>
       <c r="G430" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H430" t="s">
         <v>9</v>
@@ -16447,7 +16450,7 @@
         <v>13.4960451126099</v>
       </c>
       <c r="G431" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H431" t="s">
         <v>9</v>
@@ -16473,7 +16476,7 @@
         <v>13.5160236358643</v>
       </c>
       <c r="G432" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H432" t="s">
         <v>9</v>
@@ -16499,7 +16502,7 @@
         <v>13.3961477279663</v>
       </c>
       <c r="G433" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H433" t="s">
         <v>9</v>
@@ -16525,7 +16528,7 @@
         <v>13.6458902359009</v>
       </c>
       <c r="G434" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H434" t="s">
         <v>9</v>
@@ -16551,7 +16554,7 @@
         <v>13.5160236358643</v>
       </c>
       <c r="G435" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H435" t="s">
         <v>9</v>
@@ -16577,7 +16580,7 @@
         <v>13.5260143280029</v>
       </c>
       <c r="G436" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H436" t="s">
         <v>9</v>
@@ -16603,7 +16606,7 @@
         <v>13.6658687591553</v>
       </c>
       <c r="G437" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H437" t="s">
         <v>9</v>
@@ -16629,7 +16632,7 @@
         <v>13.7058277130127</v>
       </c>
       <c r="G438" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H438" t="s">
         <v>9</v>
@@ -16655,7 +16658,7 @@
         <v>13.8556728363037</v>
       </c>
       <c r="G439" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H439" t="s">
         <v>9</v>
@@ -16707,7 +16710,7 @@
         <v>13.9355897903442</v>
       </c>
       <c r="G441" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H441" t="s">
         <v>9</v>
@@ -16733,7 +16736,7 @@
         <v>14.135383605957</v>
       </c>
       <c r="G442" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H442" t="s">
         <v>9</v>
@@ -16759,7 +16762,7 @@
         <v>14.135383605957</v>
       </c>
       <c r="G443" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H443" t="s">
         <v>9</v>
@@ -16785,7 +16788,7 @@
         <v>14.0954246520996</v>
       </c>
       <c r="G444" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H444" t="s">
         <v>9</v>
@@ -16811,7 +16814,7 @@
         <v>14.135383605957</v>
       </c>
       <c r="G445" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H445" t="s">
         <v>9</v>
@@ -16837,7 +16840,7 @@
         <v>14.1653528213501</v>
       </c>
       <c r="G446" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H446" t="s">
         <v>9</v>
@@ -16863,7 +16866,7 @@
         <v>14.2952184677124</v>
       </c>
       <c r="G447" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H447" t="s">
         <v>9</v>
@@ -16941,7 +16944,7 @@
         <v>14.3451671600342</v>
       </c>
       <c r="G450" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H450" t="s">
         <v>9</v>
@@ -16993,7 +16996,7 @@
         <v>14.4150943756104</v>
       </c>
       <c r="G452" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H452" t="s">
         <v>9</v>
@@ -17019,7 +17022,7 @@
         <v>14.2752389907837</v>
       </c>
       <c r="G453" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H453" t="s">
         <v>9</v>
@@ -17045,7 +17048,7 @@
         <v>14.3251867294312</v>
       </c>
       <c r="G454" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H454" t="s">
         <v>9</v>
@@ -17071,7 +17074,7 @@
         <v>14.285228729248</v>
       </c>
       <c r="G455" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H455" t="s">
         <v>9</v>
@@ -17097,7 +17100,7 @@
         <v>14.4450626373291</v>
       </c>
       <c r="G456" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H456" t="s">
         <v>9</v>
@@ -17123,7 +17126,7 @@
         <v>14.4350738525391</v>
       </c>
       <c r="G457" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H457" t="s">
         <v>9</v>
@@ -17149,7 +17152,7 @@
         <v>14.4450626373291</v>
       </c>
       <c r="G458" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H458" t="s">
         <v>9</v>
@@ -17175,7 +17178,7 @@
         <v>14.6048984527588</v>
       </c>
       <c r="G459" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H459" t="s">
         <v>9</v>
@@ -17201,7 +17204,7 @@
         <v>14.6148881912231</v>
       </c>
       <c r="G460" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H460" t="s">
         <v>9</v>
@@ -17227,7 +17230,7 @@
         <v>14.674825668335</v>
       </c>
       <c r="G461" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H461" t="s">
         <v>9</v>
@@ -17253,7 +17256,7 @@
         <v>14.4750318527222</v>
       </c>
       <c r="G462" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H462" t="s">
         <v>9</v>
@@ -17279,7 +17282,7 @@
         <v>14.5749292373657</v>
       </c>
       <c r="G463" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H463" t="s">
         <v>9</v>
@@ -17305,7 +17308,7 @@
         <v>14.5849189758301</v>
       </c>
       <c r="G464" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H464" t="s">
         <v>9</v>
@@ -17331,7 +17334,7 @@
         <v>13.9855375289917</v>
       </c>
       <c r="G465" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H465" t="s">
         <v>9</v>
@@ -17383,7 +17386,7 @@
         <v>13.9156112670898</v>
       </c>
       <c r="G467" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H467" t="s">
         <v>9</v>
@@ -17409,7 +17412,7 @@
         <v>13.9855375289917</v>
       </c>
       <c r="G468" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H468" t="s">
         <v>9</v>
@@ -17435,7 +17438,7 @@
         <v>14.0155067443848</v>
       </c>
       <c r="G469" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H469" t="s">
         <v>9</v>
@@ -17461,7 +17464,7 @@
         <v>14.1653528213501</v>
       </c>
       <c r="G470" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H470" t="s">
         <v>9</v>
@@ -17487,7 +17490,7 @@
         <v>14.2452697753906</v>
       </c>
       <c r="G471" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H471" t="s">
         <v>9</v>
@@ -17513,7 +17516,7 @@
         <v>14.2352800369263</v>
       </c>
       <c r="G472" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H472" t="s">
         <v>9</v>
@@ -17539,7 +17542,7 @@
         <v>14.1953220367432</v>
       </c>
       <c r="G473" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H473" t="s">
         <v>9</v>
@@ -17565,7 +17568,7 @@
         <v>14.1453733444214</v>
       </c>
       <c r="G474" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H474" t="s">
         <v>9</v>
@@ -17591,7 +17594,7 @@
         <v>14.0155067443848</v>
       </c>
       <c r="G475" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H475" t="s">
         <v>9</v>
@@ -17617,7 +17620,7 @@
         <v>13.6458902359009</v>
       </c>
       <c r="G476" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H476" t="s">
         <v>9</v>
@@ -17643,7 +17646,7 @@
         <v>13.416127204895</v>
       </c>
       <c r="G477" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H477" t="s">
         <v>9</v>
@@ -17669,7 +17672,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G478" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H478" t="s">
         <v>9</v>
@@ -17695,7 +17698,7 @@
         <v>12.7867784500122</v>
       </c>
       <c r="G479" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H479" t="s">
         <v>9</v>
@@ -17721,7 +17724,7 @@
         <v>12.8267374038696</v>
       </c>
       <c r="G480" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H480" t="s">
         <v>9</v>
@@ -17747,7 +17750,7 @@
         <v>12.6868810653687</v>
       </c>
       <c r="G481" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H481" t="s">
         <v>9</v>
@@ -17773,7 +17776,7 @@
         <v>12.9266328811646</v>
       </c>
       <c r="G482" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H482" t="s">
         <v>9</v>
@@ -17799,7 +17802,7 @@
         <v>12.7967681884766</v>
       </c>
       <c r="G483" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H483" t="s">
         <v>9</v>
@@ -17825,7 +17828,7 @@
         <v>12.7368297576904</v>
       </c>
       <c r="G484" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H484" t="s">
         <v>9</v>
@@ -17851,7 +17854,7 @@
         <v>13.0564985275269</v>
       </c>
       <c r="G485" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H485" t="s">
         <v>9</v>
@@ -17877,7 +17880,7 @@
         <v>12.9166440963745</v>
       </c>
       <c r="G486" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H486" t="s">
         <v>9</v>
@@ -17903,7 +17906,7 @@
         <v>13.0465087890625</v>
       </c>
       <c r="G487" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H487" t="s">
         <v>9</v>
@@ -17929,7 +17932,7 @@
         <v>12.8966636657715</v>
       </c>
       <c r="G488" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H488" t="s">
         <v>9</v>
@@ -17955,7 +17958,7 @@
         <v>12.8367261886597</v>
       </c>
       <c r="G489" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H489" t="s">
         <v>9</v>
@@ -17981,7 +17984,7 @@
         <v>13.0664892196655</v>
       </c>
       <c r="G490" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H490" t="s">
         <v>9</v>
@@ -18007,7 +18010,7 @@
         <v>13.0564985275269</v>
       </c>
       <c r="G491" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H491" t="s">
         <v>9</v>
@@ -18033,7 +18036,7 @@
         <v>12.9765815734863</v>
       </c>
       <c r="G492" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H492" t="s">
         <v>9</v>
@@ -18059,7 +18062,7 @@
         <v>12.7767877578735</v>
       </c>
       <c r="G493" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H493" t="s">
         <v>9</v>
@@ -18085,7 +18088,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G494" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H494" t="s">
         <v>9</v>
@@ -18111,7 +18114,7 @@
         <v>12.8067569732666</v>
       </c>
       <c r="G495" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H495" t="s">
         <v>9</v>
@@ -18137,7 +18140,7 @@
         <v>12.7268400192261</v>
       </c>
       <c r="G496" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H496" t="s">
         <v>9</v>
@@ -18163,7 +18166,7 @@
         <v>12.7168502807617</v>
       </c>
       <c r="G497" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H497" t="s">
         <v>9</v>
@@ -18189,7 +18192,7 @@
         <v>12.7268400192261</v>
       </c>
       <c r="G498" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H498" t="s">
         <v>9</v>
@@ -18215,7 +18218,7 @@
         <v>12.696870803833</v>
       </c>
       <c r="G499" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H499" t="s">
         <v>9</v>
@@ -18241,7 +18244,7 @@
         <v>12.6469230651855</v>
       </c>
       <c r="G500" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H500" t="s">
         <v>9</v>
@@ -18267,7 +18270,7 @@
         <v>12.6469230651855</v>
       </c>
       <c r="G501" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H501" t="s">
         <v>9</v>
@@ -18293,7 +18296,7 @@
         <v>12.6369333267212</v>
       </c>
       <c r="G502" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H502" t="s">
         <v>9</v>
@@ -18319,7 +18322,7 @@
         <v>12.5869846343994</v>
       </c>
       <c r="G503" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H503" t="s">
         <v>9</v>
@@ -18345,7 +18348,7 @@
         <v>12.816746711731</v>
       </c>
       <c r="G504" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H504" t="s">
         <v>9</v>
@@ -18371,7 +18374,7 @@
         <v>12.6768922805786</v>
       </c>
       <c r="G505" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H505" t="s">
         <v>9</v>
@@ -18397,7 +18400,7 @@
         <v>12.7867784500122</v>
       </c>
       <c r="G506" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H506" t="s">
         <v>9</v>
@@ -18423,7 +18426,7 @@
         <v>12.8067569732666</v>
       </c>
       <c r="G507" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H507" t="s">
         <v>9</v>
@@ -18449,7 +18452,7 @@
         <v>12.7268400192261</v>
       </c>
       <c r="G508" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H508" t="s">
         <v>9</v>
@@ -18475,7 +18478,7 @@
         <v>12.846715927124</v>
       </c>
       <c r="G509" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H509" t="s">
         <v>9</v>
@@ -18501,7 +18504,7 @@
         <v>12.846715927124</v>
       </c>
       <c r="G510" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H510" t="s">
         <v>9</v>
@@ -18527,7 +18530,7 @@
         <v>12.6569118499756</v>
       </c>
       <c r="G511" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H511" t="s">
         <v>9</v>
@@ -18553,7 +18556,7 @@
         <v>12.4171600341797</v>
       </c>
       <c r="G512" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -18579,7 +18582,7 @@
         <v>12.4371385574341</v>
       </c>
       <c r="G513" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -18605,7 +18608,7 @@
         <v>12.8267374038696</v>
       </c>
       <c r="G514" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -18631,7 +18634,7 @@
         <v>13.1563959121704</v>
       </c>
       <c r="G515" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -18657,7 +18660,7 @@
         <v>13.2363128662109</v>
       </c>
       <c r="G516" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -18683,7 +18686,7 @@
         <v>13.2463026046753</v>
       </c>
       <c r="G517" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H517" t="s">
         <v>9</v>
@@ -18709,7 +18712,7 @@
         <v>13.2063436508179</v>
       </c>
       <c r="G518" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -18735,7 +18738,7 @@
         <v>13.2163343429565</v>
       </c>
       <c r="G519" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H519" t="s">
         <v>9</v>
@@ -18761,7 +18764,7 @@
         <v>13.3262195587158</v>
       </c>
       <c r="G520" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H520" t="s">
         <v>9</v>
@@ -18787,7 +18790,7 @@
         <v>13.3561887741089</v>
       </c>
       <c r="G521" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H521" t="s">
         <v>9</v>
@@ -18813,7 +18816,7 @@
         <v>13.3062410354614</v>
       </c>
       <c r="G522" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H522" t="s">
         <v>9</v>
@@ -18839,7 +18842,7 @@
         <v>13.2163343429565</v>
       </c>
       <c r="G523" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H523" t="s">
         <v>9</v>
@@ -18865,7 +18868,7 @@
         <v>13.2862615585327</v>
       </c>
       <c r="G524" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -18891,7 +18894,7 @@
         <v>13.536003112793</v>
       </c>
       <c r="G525" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -18917,7 +18920,7 @@
         <v>13.5859518051147</v>
       </c>
       <c r="G526" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -18943,7 +18946,7 @@
         <v>13.5459928512573</v>
       </c>
       <c r="G527" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H527" t="s">
         <v>9</v>
@@ -18969,7 +18972,7 @@
         <v>13.3262195587158</v>
       </c>
       <c r="G528" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H528" t="s">
         <v>9</v>
@@ -18995,7 +18998,7 @@
         <v>13.2762718200684</v>
       </c>
       <c r="G529" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H529" t="s">
         <v>9</v>
@@ -19021,7 +19024,7 @@
         <v>13.3062410354614</v>
       </c>
       <c r="G530" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H530" t="s">
         <v>9</v>
@@ -19047,7 +19050,7 @@
         <v>13.4560861587524</v>
       </c>
       <c r="G531" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H531" t="s">
         <v>9</v>
@@ -19073,7 +19076,7 @@
         <v>13.2163343429565</v>
       </c>
       <c r="G532" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H532" t="s">
         <v>9</v>
@@ -19099,7 +19102,7 @@
         <v>12.9865713119507</v>
       </c>
       <c r="G533" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H533" t="s">
         <v>9</v>
@@ -19125,7 +19128,7 @@
         <v>12.816746711731</v>
       </c>
       <c r="G534" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H534" t="s">
         <v>9</v>
@@ -19151,7 +19154,7 @@
         <v>12.6469230651855</v>
       </c>
       <c r="G535" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H535" t="s">
         <v>9</v>
@@ -19177,7 +19180,7 @@
         <v>12.696870803833</v>
       </c>
       <c r="G536" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H536" t="s">
         <v>9</v>
@@ -19203,7 +19206,7 @@
         <v>12.3672122955322</v>
       </c>
       <c r="G537" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H537" t="s">
         <v>9</v>
@@ -19229,7 +19232,7 @@
         <v>12.7368297576904</v>
       </c>
       <c r="G538" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H538" t="s">
         <v>9</v>
@@ -19255,7 +19258,7 @@
         <v>12.2373456954956</v>
       </c>
       <c r="G539" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H539" t="s">
         <v>9</v>
@@ -19281,7 +19284,7 @@
         <v>12.1474390029907</v>
       </c>
       <c r="G540" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H540" t="s">
         <v>9</v>
@@ -19307,7 +19310,7 @@
         <v>12.1973867416382</v>
       </c>
       <c r="G541" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H541" t="s">
         <v>9</v>
@@ -19333,7 +19336,7 @@
         <v>12.0875005722046</v>
       </c>
       <c r="G542" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H542" t="s">
         <v>9</v>
@@ -19359,7 +19362,7 @@
         <v>12.0475416183472</v>
       </c>
       <c r="G543" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H543" t="s">
         <v>9</v>
@@ -19385,7 +19388,7 @@
         <v>12.127459526062</v>
       </c>
       <c r="G544" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H544" t="s">
         <v>9</v>
@@ -19411,7 +19414,7 @@
         <v>12.0875005722046</v>
       </c>
       <c r="G545" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H545" t="s">
         <v>9</v>
@@ -19437,7 +19440,7 @@
         <v>12.0575323104858</v>
       </c>
       <c r="G546" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H546" t="s">
         <v>9</v>
@@ -19463,7 +19466,7 @@
         <v>11.9876041412354</v>
       </c>
       <c r="G547" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H547" t="s">
         <v>9</v>
@@ -19489,7 +19492,7 @@
         <v>11.9776153564453</v>
       </c>
       <c r="G548" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H548" t="s">
         <v>9</v>
@@ -19515,7 +19518,7 @@
         <v>11.7778205871582</v>
       </c>
       <c r="G549" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -19541,7 +19544,7 @@
         <v>11.8477487564087</v>
       </c>
       <c r="G550" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H550" t="s">
         <v>9</v>
@@ -19567,7 +19570,7 @@
         <v>11.8677282333374</v>
       </c>
       <c r="G551" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H551" t="s">
         <v>9</v>
@@ -19593,7 +19596,7 @@
         <v>11.5280790328979</v>
       </c>
       <c r="G552" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H552" t="s">
         <v>9</v>
@@ -19619,7 +19622,7 @@
         <v>11.4881210327148</v>
       </c>
       <c r="G553" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H553" t="s">
         <v>9</v>
@@ -19645,7 +19648,7 @@
         <v>11.2483692169189</v>
       </c>
       <c r="G554" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -19671,7 +19674,7 @@
         <v>11.1185026168823</v>
       </c>
       <c r="G555" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -19697,7 +19700,7 @@
         <v>11.9975938796997</v>
       </c>
       <c r="G556" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H556" t="s">
         <v>9</v>
@@ -19723,7 +19726,7 @@
         <v>12.2273559570312</v>
       </c>
       <c r="G557" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H557" t="s">
         <v>9</v>
@@ -19749,7 +19752,7 @@
         <v>12.5670051574707</v>
       </c>
       <c r="G558" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -19775,7 +19778,7 @@
         <v>12.8866748809814</v>
       </c>
       <c r="G559" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -19801,7 +19804,7 @@
         <v>12.8267374038696</v>
       </c>
       <c r="G560" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H560" t="s">
         <v>9</v>
@@ -19827,7 +19830,7 @@
         <v>12.7767877578735</v>
       </c>
       <c r="G561" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -19853,7 +19856,7 @@
         <v>12.8267374038696</v>
       </c>
       <c r="G562" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -19879,7 +19882,7 @@
         <v>12.6569118499756</v>
       </c>
       <c r="G563" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -19905,7 +19908,7 @@
         <v>12.9066543579102</v>
       </c>
       <c r="G564" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -19931,7 +19934,7 @@
         <v>12.846715927124</v>
       </c>
       <c r="G565" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H565" t="s">
         <v>9</v>
@@ -19957,7 +19960,7 @@
         <v>12.7068605422974</v>
       </c>
       <c r="G566" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -19983,7 +19986,7 @@
         <v>12.7967681884766</v>
       </c>
       <c r="G567" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H567" t="s">
         <v>9</v>
@@ -20009,7 +20012,7 @@
         <v>12.7268400192261</v>
       </c>
       <c r="G568" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -20035,7 +20038,7 @@
         <v>12.5769948959351</v>
       </c>
       <c r="G569" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H569" t="s">
         <v>9</v>
@@ -20061,7 +20064,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G570" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H570" t="s">
         <v>9</v>
@@ -20087,7 +20090,7 @@
         <v>12.2173671722412</v>
       </c>
       <c r="G571" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H571" t="s">
         <v>9</v>
@@ -20113,7 +20116,7 @@
         <v>12.397180557251</v>
       </c>
       <c r="G572" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H572" t="s">
         <v>9</v>
@@ -20139,7 +20142,7 @@
         <v>12.3372430801392</v>
       </c>
       <c r="G573" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -20165,7 +20168,7 @@
         <v>12.5270471572876</v>
       </c>
       <c r="G574" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H574" t="s">
         <v>9</v>
@@ -20191,7 +20194,7 @@
         <v>12.5070667266846</v>
       </c>
       <c r="G575" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -20217,7 +20220,7 @@
         <v>12.2673149108887</v>
       </c>
       <c r="G576" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -20243,7 +20246,7 @@
         <v>12.3871908187866</v>
       </c>
       <c r="G577" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -20269,7 +20272,7 @@
         <v>12.3472318649292</v>
       </c>
       <c r="G578" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H578" t="s">
         <v>9</v>
@@ -20295,7 +20298,7 @@
         <v>12.3572216033936</v>
       </c>
       <c r="G579" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H579" t="s">
         <v>9</v>
@@ -20321,7 +20324,7 @@
         <v>12.3772010803223</v>
       </c>
       <c r="G580" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H580" t="s">
         <v>9</v>
@@ -20347,7 +20350,7 @@
         <v>12.1973867416382</v>
       </c>
       <c r="G581" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H581" t="s">
         <v>9</v>
@@ -20373,7 +20376,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G582" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H582" t="s">
         <v>9</v>
@@ -20399,7 +20402,7 @@
         <v>12.2872943878174</v>
       </c>
       <c r="G583" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H583" t="s">
         <v>9</v>
@@ -20425,7 +20428,7 @@
         <v>12.2673149108887</v>
       </c>
       <c r="G584" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H584" t="s">
         <v>9</v>
@@ -20451,7 +20454,7 @@
         <v>12.397180557251</v>
       </c>
       <c r="G585" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H585" t="s">
         <v>9</v>
@@ -20477,7 +20480,7 @@
         <v>12.1674175262451</v>
       </c>
       <c r="G586" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H586" t="s">
         <v>9</v>
@@ -20503,7 +20506,7 @@
         <v>12.1374492645264</v>
       </c>
       <c r="G587" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H587" t="s">
         <v>9</v>
@@ -20529,7 +20532,7 @@
         <v>12.1674175262451</v>
       </c>
       <c r="G588" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H588" t="s">
         <v>9</v>
@@ -20555,7 +20558,7 @@
         <v>12.127459526062</v>
       </c>
       <c r="G589" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H589" t="s">
         <v>9</v>
@@ -20581,7 +20584,7 @@
         <v>12.2073774337769</v>
       </c>
       <c r="G590" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H590" t="s">
         <v>9</v>
@@ -20607,7 +20610,7 @@
         <v>12.0375528335571</v>
       </c>
       <c r="G591" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H591" t="s">
         <v>9</v>
@@ -20633,7 +20636,7 @@
         <v>12.2373456954956</v>
       </c>
       <c r="G592" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H592" t="s">
         <v>9</v>
@@ -20659,7 +20662,7 @@
         <v>12.127459526062</v>
       </c>
       <c r="G593" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H593" t="s">
         <v>9</v>
@@ -20685,7 +20688,7 @@
         <v>12.2373456954956</v>
       </c>
       <c r="G594" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H594" t="s">
         <v>9</v>
@@ -20711,7 +20714,7 @@
         <v>12.9266328811646</v>
       </c>
       <c r="G595" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H595" t="s">
         <v>9</v>
@@ -20737,7 +20740,7 @@
         <v>12.8067569732666</v>
       </c>
       <c r="G596" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H596" t="s">
         <v>9</v>
@@ -20763,7 +20766,7 @@
         <v>12.966591835022</v>
       </c>
       <c r="G597" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H597" t="s">
         <v>9</v>
@@ -20789,7 +20792,7 @@
         <v>13.0964584350586</v>
       </c>
       <c r="G598" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -20815,7 +20818,7 @@
         <v>12.6369333267212</v>
       </c>
       <c r="G599" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -20841,7 +20844,7 @@
         <v>12.4970779418945</v>
       </c>
       <c r="G600" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -20867,7 +20870,7 @@
         <v>12.2173671722412</v>
       </c>
       <c r="G601" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -20893,7 +20896,7 @@
         <v>12.1674175262451</v>
       </c>
       <c r="G602" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -20919,7 +20922,7 @@
         <v>12.1873979568481</v>
       </c>
       <c r="G603" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -20945,7 +20948,7 @@
         <v>12.1074800491333</v>
       </c>
       <c r="G604" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -20971,7 +20974,7 @@
         <v>11.9776153564453</v>
       </c>
       <c r="G605" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -20997,7 +21000,7 @@
         <v>11.9376564025879</v>
       </c>
       <c r="G606" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -21023,7 +21026,7 @@
         <v>11.7878112792969</v>
       </c>
       <c r="G607" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -21049,7 +21052,7 @@
         <v>11.6979036331177</v>
       </c>
       <c r="G608" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -21075,7 +21078,7 @@
         <v>12.0875005722046</v>
       </c>
       <c r="G609" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -21101,7 +21104,7 @@
         <v>11.9975938796997</v>
       </c>
       <c r="G610" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -21127,7 +21130,7 @@
         <v>12.5370359420776</v>
       </c>
       <c r="G611" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -21153,7 +21156,7 @@
         <v>12.427149772644</v>
       </c>
       <c r="G612" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H612" t="s">
         <v>9</v>
@@ -21179,7 +21182,7 @@
         <v>12.3372430801392</v>
       </c>
       <c r="G613" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -21205,7 +21208,7 @@
         <v>11.9076871871948</v>
       </c>
       <c r="G614" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -21231,7 +21234,7 @@
         <v>12.1873979568481</v>
       </c>
       <c r="G615" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H615" t="s">
         <v>9</v>
@@ -21257,7 +21260,7 @@
         <v>12.2273559570312</v>
       </c>
       <c r="G616" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H616" t="s">
         <v>9</v>
@@ -21283,7 +21286,7 @@
         <v>12.3871908187866</v>
       </c>
       <c r="G617" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -21309,7 +21312,7 @@
         <v>12.4371385574341</v>
       </c>
       <c r="G618" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -21335,7 +21338,7 @@
         <v>12.4071702957153</v>
       </c>
       <c r="G619" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H619" t="s">
         <v>9</v>
@@ -21361,7 +21364,7 @@
         <v>12.4671087265015</v>
       </c>
       <c r="G620" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H620" t="s">
         <v>9</v>
@@ -21387,7 +21390,7 @@
         <v>12.7268400192261</v>
       </c>
       <c r="G621" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H621" t="s">
         <v>9</v>
@@ -21413,7 +21416,7 @@
         <v>12.397180557251</v>
       </c>
       <c r="G622" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H622" t="s">
         <v>9</v>
@@ -21439,7 +21442,7 @@
         <v>12.427149772644</v>
       </c>
       <c r="G623" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H623" t="s">
         <v>9</v>
@@ -21465,7 +21468,7 @@
         <v>12.5070667266846</v>
       </c>
       <c r="G624" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H624" t="s">
         <v>9</v>
@@ -21491,7 +21494,7 @@
         <v>12.397180557251</v>
       </c>
       <c r="G625" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -21517,7 +21520,7 @@
         <v>12.5070667266846</v>
       </c>
       <c r="G626" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -21543,7 +21546,7 @@
         <v>12.2573251724243</v>
       </c>
       <c r="G627" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -21569,7 +21572,7 @@
         <v>12.2273559570312</v>
       </c>
       <c r="G628" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -21595,7 +21598,7 @@
         <v>12.0974912643433</v>
       </c>
       <c r="G629" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -21621,7 +21624,7 @@
         <v>12.0475416183472</v>
       </c>
       <c r="G630" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H630" t="s">
         <v>9</v>
@@ -21647,7 +21650,7 @@
         <v>11.8077898025513</v>
       </c>
       <c r="G631" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H631" t="s">
         <v>9</v>
@@ -21673,7 +21676,7 @@
         <v>11.7978010177612</v>
       </c>
       <c r="G632" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H632" t="s">
         <v>9</v>
@@ -21699,7 +21702,7 @@
         <v>11.548059463501</v>
       </c>
       <c r="G633" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H633" t="s">
         <v>9</v>
@@ -21725,7 +21728,7 @@
         <v>11.7278728485107</v>
       </c>
       <c r="G634" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H634" t="s">
         <v>9</v>
@@ -21751,7 +21754,7 @@
         <v>11.7078943252563</v>
       </c>
       <c r="G635" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H635" t="s">
         <v>9</v>
@@ -21777,7 +21780,7 @@
         <v>11.5180902481079</v>
       </c>
       <c r="G636" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H636" t="s">
         <v>9</v>
@@ -21803,7 +21806,7 @@
         <v>11.5780277252197</v>
       </c>
       <c r="G637" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H637" t="s">
         <v>9</v>
@@ -21829,7 +21832,7 @@
         <v>11.3382759094238</v>
       </c>
       <c r="G638" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H638" t="s">
         <v>9</v>
@@ -21855,7 +21858,7 @@
         <v>11.3682451248169</v>
       </c>
       <c r="G639" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H639" t="s">
         <v>9</v>
@@ -21881,7 +21884,7 @@
         <v>11.3682451248169</v>
       </c>
       <c r="G640" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -21907,7 +21910,7 @@
         <v>11.4681406021118</v>
       </c>
       <c r="G641" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H641" t="s">
         <v>9</v>
@@ -21933,7 +21936,7 @@
         <v>11.4981098175049</v>
       </c>
       <c r="G642" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H642" t="s">
         <v>9</v>
@@ -21959,7 +21962,7 @@
         <v>11.6279764175415</v>
       </c>
       <c r="G643" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -21985,7 +21988,7 @@
         <v>11.9376564025879</v>
       </c>
       <c r="G644" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H644" t="s">
         <v>9</v>
@@ -22011,7 +22014,7 @@
         <v>11.7278728485107</v>
       </c>
       <c r="G645" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H645" t="s">
         <v>9</v>
@@ -22037,7 +22040,7 @@
         <v>11.9776153564453</v>
       </c>
       <c r="G646" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H646" t="s">
         <v>9</v>
@@ -22063,7 +22066,7 @@
         <v>11.9576349258423</v>
       </c>
       <c r="G647" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H647" t="s">
         <v>9</v>
@@ -22089,7 +22092,7 @@
         <v>11.9076871871948</v>
       </c>
       <c r="G648" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H648" t="s">
         <v>9</v>
@@ -22115,7 +22118,7 @@
         <v>12.2373456954956</v>
       </c>
       <c r="G649" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H649" t="s">
         <v>9</v>
@@ -22141,7 +22144,7 @@
         <v>12.2073774337769</v>
       </c>
       <c r="G650" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H650" t="s">
         <v>9</v>
@@ -22167,7 +22170,7 @@
         <v>12.2073774337769</v>
       </c>
       <c r="G651" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H651" t="s">
         <v>9</v>
@@ -22193,7 +22196,7 @@
         <v>12.1474390029907<